--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECA0545B-C101-4C44-977D-806AB4C2F498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C9BEAD-874D-4139-8139-376A314F9E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
   <dimension ref="A2:S200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,46 +942,46 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7">
-        <v>11.7</v>
+        <v>1.77</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
-        <v>-3.3851819401207101E-2</v>
+        <v>8.7378569503422682E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.0170940170940174E-2</v>
+        <v>1.0841427830178489E-2</v>
       </c>
       <c r="H5" s="7">
-        <v>11.129157195902177</v>
+        <v>1.970972605673585</v>
       </c>
       <c r="I5" s="7">
-        <v>13.228473799887135</v>
+        <v>2.2555597764769106</v>
       </c>
       <c r="J5" s="7">
-        <v>12.473933713005875</v>
+        <v>2.101660068021058</v>
       </c>
       <c r="K5" s="7">
-        <v>11.33993973909625</v>
+        <v>1.9106000618373253</v>
       </c>
       <c r="L5" s="7">
-        <v>9.9791469704047007</v>
+        <v>1.6813280544168463</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>1.6</v>
       </c>
       <c r="N5" s="7">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O5" s="9">
-        <v>13.597424398249455</v>
+        <v>2.0514668160851408</v>
       </c>
       <c r="P5" s="8">
         <v>44561</v>
@@ -998,46 +998,46 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D6" s="7">
-        <v>10.039999999999999</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6">
-        <v>-9.838310204330819E-3</v>
+        <v>4.5341722583206318E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>5.5776892430278897E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="H6" s="7">
-        <v>10.429776905912007</v>
+        <v>9.5548305729982239</v>
       </c>
       <c r="I6" s="7">
-        <v>11.339169963600042</v>
+        <v>12.319112188593667</v>
       </c>
       <c r="J6" s="7">
-        <v>10.945223365548518</v>
+        <v>11.453417225832064</v>
       </c>
       <c r="K6" s="7">
-        <v>9.9502030595895619</v>
+        <v>10.412197478029148</v>
       </c>
       <c r="L6" s="7">
-        <v>8.7561786924388141</v>
+        <v>9.1627337806656506</v>
       </c>
       <c r="M6" s="7">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="N6" s="7">
         <v>6000</v>
       </c>
       <c r="O6" s="9">
-        <v>12.347246296726411</v>
+        <v>11.828743634431557</v>
       </c>
       <c r="P6" s="8">
         <v>44742</v>
@@ -1054,52 +1054,52 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7">
-        <v>44.35</v>
+        <v>17.52</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="6">
-        <v>-0.38990330086972314</v>
+        <v>2.2989747351651685E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>8.3153566374648366E-2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
-        <v>21.384889342882879</v>
+        <v>7.2198974945245427</v>
       </c>
       <c r="I7" s="7">
-        <v>38.125336811342052</v>
+        <v>27.050043260674713</v>
       </c>
       <c r="J7" s="7">
-        <v>31.49278860642778</v>
+        <v>19.674780373600939</v>
       </c>
       <c r="K7" s="7">
-        <v>28.629807824025253</v>
+        <v>17.886163976000852</v>
       </c>
       <c r="L7" s="7">
-        <v>25.194230885142225</v>
+        <v>15.739824298880752</v>
       </c>
       <c r="M7" s="7">
-        <v>28.629807824025253</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O7" s="9">
-        <v>44.056787530908295</v>
+        <v>32.903732767036438</v>
       </c>
       <c r="P7" s="8">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="Q7" s="8">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="R7" s="19" t="s">
         <v>11</v>
@@ -1110,46 +1110,46 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
-        <v>10</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="6">
-        <v>4.5341722583206318E-2</v>
+        <v>-9.838310204330819E-3</v>
       </c>
       <c r="G8" s="6">
-        <v>2.8000000000000004E-2</v>
+        <v>5.5776892430278897E-2</v>
       </c>
       <c r="H8" s="7">
-        <v>9.5548305729982239</v>
+        <v>10.429776905912007</v>
       </c>
       <c r="I8" s="7">
-        <v>12.319112188593667</v>
+        <v>11.339169963600042</v>
       </c>
       <c r="J8" s="7">
-        <v>11.453417225832064</v>
+        <v>10.945223365548518</v>
       </c>
       <c r="K8" s="7">
-        <v>10.412197478029148</v>
+        <v>9.9502030595895619</v>
       </c>
       <c r="L8" s="7">
-        <v>9.1627337806656506</v>
+        <v>8.7561786924388141</v>
       </c>
       <c r="M8" s="7">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="N8" s="7">
         <v>6000</v>
       </c>
       <c r="O8" s="9">
-        <v>11.828743634431557</v>
+        <v>12.347246296726411</v>
       </c>
       <c r="P8" s="8">
         <v>44742</v>
@@ -1166,46 +1166,46 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D9" s="7">
-        <v>19.739999999999998</v>
+        <v>5.88</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.15634916896126963</v>
+        <v>-2.4027815244986123E-2</v>
       </c>
       <c r="G9" s="6">
-        <v>6.8389057750759888E-2</v>
+        <v>5.2779197201807043E-2</v>
       </c>
       <c r="H9" s="7">
-        <v>15.177942172348047</v>
+        <v>3.007598354623974</v>
       </c>
       <c r="I9" s="7">
-        <v>20.816330621780622</v>
+        <v>8.4587300854820953</v>
       </c>
       <c r="J9" s="7">
-        <v>18.627667404704535</v>
+        <v>6.326716446359482</v>
       </c>
       <c r="K9" s="7">
-        <v>16.934243095185941</v>
+        <v>5.7515604057813468</v>
       </c>
       <c r="L9" s="7">
-        <v>14.902133923763628</v>
+        <v>5.0613731570875853</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>4.8</v>
       </c>
       <c r="N9" s="7">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O9" s="9">
-        <v>19</v>
+        <v>7.2326703186240184</v>
       </c>
       <c r="P9" s="8">
         <v>44561</v>
@@ -1222,46 +1222,46 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>1.8</v>
+        <v>11.7</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="6">
-        <v>-0.33400886643383032</v>
+        <v>-3.3851819401207101E-2</v>
       </c>
       <c r="G10" s="6">
-        <v>6.8611111111111109E-2</v>
+        <v>4.0170940170940174E-2</v>
       </c>
       <c r="H10" s="7">
-        <v>1.1288001414719611</v>
+        <v>11.129157195902177</v>
       </c>
       <c r="I10" s="7">
-        <v>1.4844123602744648</v>
+        <v>13.228473799887135</v>
       </c>
       <c r="J10" s="7">
-        <v>1.3787840404191054</v>
+        <v>12.473933713005875</v>
       </c>
       <c r="K10" s="7">
-        <v>1.2534400367446412</v>
+        <v>11.33993973909625</v>
       </c>
       <c r="L10" s="7">
-        <v>1.1030272323352843</v>
+        <v>9.9791469704047007</v>
       </c>
       <c r="M10" s="7">
-        <v>1.1000000000000001</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>60000</v>
+        <v>9000</v>
       </c>
       <c r="O10" s="9">
-        <v>1.9</v>
+        <v>13.597424398249455</v>
       </c>
       <c r="P10" s="8">
         <v>44561</v>
@@ -1278,37 +1278,37 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>17.52</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="6">
-        <v>2.2989747351651685E-2</v>
+        <v>-0.15634916896126963</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>6.8389057750759888E-2</v>
       </c>
       <c r="H11" s="7">
-        <v>7.2198974945245427</v>
+        <v>15.177942172348047</v>
       </c>
       <c r="I11" s="7">
-        <v>27.050043260674713</v>
+        <v>20.816330621780622</v>
       </c>
       <c r="J11" s="7">
-        <v>19.674780373600939</v>
+        <v>18.627667404704535</v>
       </c>
       <c r="K11" s="7">
-        <v>17.886163976000852</v>
+        <v>16.934243095185941</v>
       </c>
       <c r="L11" s="7">
-        <v>15.739824298880752</v>
+        <v>14.902133923763628</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -1317,13 +1317,13 @@
         <v>4000</v>
       </c>
       <c r="O11" s="9">
-        <v>32.903732767036438</v>
+        <v>19</v>
       </c>
       <c r="P11" s="8">
         <v>44561</v>
       </c>
       <c r="Q11" s="8">
-        <v>45169</v>
+        <v>44985</v>
       </c>
       <c r="R11" s="19" t="s">
         <v>11</v>
@@ -1390,46 +1390,46 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>5.88</v>
+        <v>1.8</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6">
-        <v>-2.4027815244986123E-2</v>
+        <v>-0.33400886643383032</v>
       </c>
       <c r="G13" s="6">
-        <v>5.2779197201807043E-2</v>
+        <v>6.8611111111111109E-2</v>
       </c>
       <c r="H13" s="7">
-        <v>3.007598354623974</v>
+        <v>1.1288001414719611</v>
       </c>
       <c r="I13" s="7">
-        <v>8.4587300854820953</v>
+        <v>1.4844123602744648</v>
       </c>
       <c r="J13" s="7">
-        <v>6.326716446359482</v>
+        <v>1.3787840404191054</v>
       </c>
       <c r="K13" s="7">
-        <v>5.7515604057813468</v>
+        <v>1.2534400367446412</v>
       </c>
       <c r="L13" s="7">
-        <v>5.0613731570875853</v>
+        <v>1.1030272323352843</v>
       </c>
       <c r="M13" s="7">
-        <v>4.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N13" s="7">
-        <v>8000</v>
+        <v>60000</v>
       </c>
       <c r="O13" s="9">
-        <v>7.2326703186240184</v>
+        <v>1.9</v>
       </c>
       <c r="P13" s="8">
         <v>44561</v>
@@ -1446,52 +1446,52 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
-        <v>1.77</v>
+        <v>44.35</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="6">
-        <v>8.7378569503422682E-2</v>
+        <v>-0.38990330086972314</v>
       </c>
       <c r="G14" s="6">
-        <v>1.0841427830178489E-2</v>
+        <v>8.3153566374648366E-2</v>
       </c>
       <c r="H14" s="7">
-        <v>1.970972605673585</v>
+        <v>21.384889342882879</v>
       </c>
       <c r="I14" s="7">
-        <v>2.2555597764769106</v>
+        <v>38.125336811342052</v>
       </c>
       <c r="J14" s="7">
-        <v>2.101660068021058</v>
+        <v>31.49278860642778</v>
       </c>
       <c r="K14" s="7">
-        <v>1.9106000618373253</v>
+        <v>28.629807824025253</v>
       </c>
       <c r="L14" s="7">
-        <v>1.6813280544168463</v>
+        <v>25.194230885142225</v>
       </c>
       <c r="M14" s="7">
-        <v>1.6</v>
+        <v>28.629807824025253</v>
       </c>
       <c r="N14" s="7">
-        <v>22000</v>
+        <v>3000</v>
       </c>
       <c r="O14" s="9">
-        <v>2.0514668160851408</v>
+        <v>44.056787530908295</v>
       </c>
       <c r="P14" s="8">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="Q14" s="8">
-        <v>44985</v>
+        <v>45077</v>
       </c>
       <c r="R14" s="19" t="s">
         <v>11</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C9BEAD-874D-4139-8139-376A314F9E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C775FF0-DE7A-4550-81C1-A40E2BA0FD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$6:$J$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$Q$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$S$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Mark to Market</t>
-  </si>
-  <si>
-    <t>LFY Dividend</t>
   </si>
   <si>
     <t>Next Review Date</t>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>CHEERWIN GP</t>
+  </si>
+  <si>
+    <t>Frd Dividend</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
   <dimension ref="A2:S200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -866,27 +866,27 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D3" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
       <c r="L3" s="21"/>
-      <c r="M3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -901,87 +901,87 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>1.77</v>
+        <v>11.7</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
-        <v>8.7378569503422682E-2</v>
+        <v>-3.3851819401207101E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>1.0841427830178489E-2</v>
+        <v>4.0170940170940174E-2</v>
       </c>
       <c r="H5" s="7">
-        <v>1.970972605673585</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2.2555597764769106</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2.101660068021058</v>
+        <v>11</v>
+      </c>
+      <c r="I5" s="9">
+        <v>9000</v>
+      </c>
+      <c r="J5" s="9">
+        <v>13.597424398249455</v>
       </c>
       <c r="K5" s="7">
-        <v>1.9106000618373253</v>
+        <v>11.129157195902177</v>
       </c>
       <c r="L5" s="7">
-        <v>1.6813280544168463</v>
+        <v>13.228473799887135</v>
       </c>
       <c r="M5" s="7">
-        <v>1.6</v>
+        <v>12.473933713005875</v>
       </c>
       <c r="N5" s="7">
-        <v>22000</v>
-      </c>
-      <c r="O5" s="9">
-        <v>2.0514668160851408</v>
+        <v>11.33993973909625</v>
+      </c>
+      <c r="O5" s="7">
+        <v>9.9791469704047007</v>
       </c>
       <c r="P5" s="8">
         <v>44561</v>
@@ -993,51 +993,51 @@
         <v>11</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>10</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6">
-        <v>4.5341722583206318E-2</v>
+        <v>-9.838310204330819E-3</v>
       </c>
       <c r="G6" s="6">
-        <v>2.8000000000000004E-2</v>
+        <v>5.5776892430278897E-2</v>
       </c>
       <c r="H6" s="7">
-        <v>9.5548305729982239</v>
-      </c>
-      <c r="I6" s="7">
-        <v>12.319112188593667</v>
-      </c>
-      <c r="J6" s="7">
-        <v>11.453417225832064</v>
+        <v>9.6</v>
+      </c>
+      <c r="I6" s="9">
+        <v>6000</v>
+      </c>
+      <c r="J6" s="9">
+        <v>12.347246296726411</v>
       </c>
       <c r="K6" s="7">
-        <v>10.412197478029148</v>
+        <v>10.429776905912007</v>
       </c>
       <c r="L6" s="7">
-        <v>9.1627337806656506</v>
+        <v>11.339169963600042</v>
       </c>
       <c r="M6" s="7">
-        <v>9.5</v>
+        <v>10.945223365548518</v>
       </c>
       <c r="N6" s="7">
-        <v>6000</v>
-      </c>
-      <c r="O6" s="9">
-        <v>11.828743634431557</v>
+        <v>9.9502030595895619</v>
+      </c>
+      <c r="O6" s="7">
+        <v>8.7561786924388141</v>
       </c>
       <c r="P6" s="8">
         <v>44742</v>
@@ -1049,107 +1049,107 @@
         <v>11</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>17.52</v>
+        <v>44.35</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="6">
-        <v>2.2989747351651685E-2</v>
+        <v>-0.38990330086972314</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>8.3153566374648394E-2</v>
       </c>
       <c r="H7" s="7">
-        <v>7.2198974945245427</v>
-      </c>
-      <c r="I7" s="7">
-        <v>27.050043260674713</v>
-      </c>
-      <c r="J7" s="7">
-        <v>19.674780373600939</v>
+        <v>28.629807824025253</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J7" s="9">
+        <v>44.056787530908295</v>
       </c>
       <c r="K7" s="7">
-        <v>17.886163976000852</v>
+        <v>21.384889342882879</v>
       </c>
       <c r="L7" s="7">
-        <v>15.739824298880752</v>
+        <v>38.125336811342052</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>31.49278860642778</v>
       </c>
       <c r="N7" s="7">
-        <v>4000</v>
-      </c>
-      <c r="O7" s="9">
-        <v>32.903732767036438</v>
+        <v>28.629807824025253</v>
+      </c>
+      <c r="O7" s="7">
+        <v>25.194230885142225</v>
       </c>
       <c r="P7" s="8">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="Q7" s="8">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="R7" s="19" t="s">
         <v>11</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7">
-        <v>10.039999999999999</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="6">
-        <v>-9.838310204330819E-3</v>
+        <v>4.5341722583206318E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>5.5776892430278897E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="H8" s="7">
-        <v>10.429776905912007</v>
-      </c>
-      <c r="I8" s="7">
-        <v>11.339169963600042</v>
-      </c>
-      <c r="J8" s="7">
-        <v>10.945223365548518</v>
+        <v>9.5</v>
+      </c>
+      <c r="I8" s="9">
+        <v>6000</v>
+      </c>
+      <c r="J8" s="9">
+        <v>11.828743634431557</v>
       </c>
       <c r="K8" s="7">
-        <v>9.9502030595895619</v>
+        <v>9.5548305729982239</v>
       </c>
       <c r="L8" s="7">
-        <v>8.7561786924388141</v>
+        <v>12.319112188593667</v>
       </c>
       <c r="M8" s="7">
-        <v>9.6</v>
+        <v>11.453417225832064</v>
       </c>
       <c r="N8" s="7">
-        <v>6000</v>
-      </c>
-      <c r="O8" s="9">
-        <v>12.347246296726411</v>
+        <v>10.412197478029148</v>
+      </c>
+      <c r="O8" s="7">
+        <v>9.1627337806656506</v>
       </c>
       <c r="P8" s="8">
         <v>44742</v>
@@ -1161,51 +1161,51 @@
         <v>11</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7">
-        <v>5.88</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6">
-        <v>-2.4027815244986123E-2</v>
+        <v>-0.15634916896126963</v>
       </c>
       <c r="G9" s="6">
-        <v>5.2779197201807043E-2</v>
+        <v>6.8389057750759888E-2</v>
       </c>
       <c r="H9" s="7">
-        <v>3.007598354623974</v>
-      </c>
-      <c r="I9" s="7">
-        <v>8.4587300854820953</v>
-      </c>
-      <c r="J9" s="7">
-        <v>6.326716446359482</v>
+        <v>15</v>
+      </c>
+      <c r="I9" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J9" s="9">
+        <v>19</v>
       </c>
       <c r="K9" s="7">
-        <v>5.7515604057813468</v>
+        <v>15.177942172348047</v>
       </c>
       <c r="L9" s="7">
-        <v>5.0613731570875853</v>
+        <v>20.816330621780622</v>
       </c>
       <c r="M9" s="7">
-        <v>4.8</v>
+        <v>18.627667404704535</v>
       </c>
       <c r="N9" s="7">
-        <v>8000</v>
-      </c>
-      <c r="O9" s="9">
-        <v>7.2326703186240184</v>
+        <v>16.934243095185941</v>
+      </c>
+      <c r="O9" s="7">
+        <v>14.902133923763628</v>
       </c>
       <c r="P9" s="8">
         <v>44561</v>
@@ -1217,51 +1217,51 @@
         <v>11</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>11.7</v>
+        <v>1.8</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="6">
-        <v>-3.3851819401207101E-2</v>
+        <v>-0.33400886643383032</v>
       </c>
       <c r="G10" s="6">
-        <v>4.0170940170940174E-2</v>
+        <v>6.8611111111111109E-2</v>
       </c>
       <c r="H10" s="7">
-        <v>11.129157195902177</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13.228473799887135</v>
-      </c>
-      <c r="J10" s="7">
-        <v>12.473933713005875</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I10" s="9">
+        <v>60000</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1.9</v>
       </c>
       <c r="K10" s="7">
-        <v>11.33993973909625</v>
+        <v>1.1288001414719611</v>
       </c>
       <c r="L10" s="7">
-        <v>9.9791469704047007</v>
+        <v>1.4844123602744648</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>1.3787840404191054</v>
       </c>
       <c r="N10" s="7">
-        <v>9000</v>
-      </c>
-      <c r="O10" s="9">
-        <v>13.597424398249455</v>
+        <v>1.2534400367446412</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1.1030272323352843</v>
       </c>
       <c r="P10" s="8">
         <v>44561</v>
@@ -1273,71 +1273,71 @@
         <v>11</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>19.739999999999998</v>
+        <v>17.52</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="6">
-        <v>-0.15634916896126963</v>
+        <v>2.2989747351651685E-2</v>
       </c>
       <c r="G11" s="6">
-        <v>6.8389057750759888E-2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7">
-        <v>15.177942172348047</v>
-      </c>
-      <c r="I11" s="7">
-        <v>20.816330621780622</v>
-      </c>
-      <c r="J11" s="7">
-        <v>18.627667404704535</v>
+        <v>15</v>
+      </c>
+      <c r="I11" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J11" s="9">
+        <v>32.903732767036438</v>
       </c>
       <c r="K11" s="7">
-        <v>16.934243095185941</v>
+        <v>7.2198974945245427</v>
       </c>
       <c r="L11" s="7">
-        <v>14.902133923763628</v>
+        <v>27.050043260674713</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>19.674780373600939</v>
       </c>
       <c r="N11" s="7">
-        <v>4000</v>
-      </c>
-      <c r="O11" s="9">
-        <v>19</v>
+        <v>17.886163976000852</v>
+      </c>
+      <c r="O11" s="7">
+        <v>15.739824298880752</v>
       </c>
       <c r="P11" s="8">
         <v>44561</v>
       </c>
       <c r="Q11" s="8">
-        <v>44985</v>
+        <v>45169</v>
       </c>
       <c r="R11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="D12" s="7">
         <v>4.21</v>
@@ -1352,28 +1352,28 @@
         <v>4.8836089055181352E-2</v>
       </c>
       <c r="H12" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="I12" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J12" s="9">
+        <v>5.6205259760239548</v>
+      </c>
+      <c r="K12" s="7">
         <v>1.7274926506708339</v>
       </c>
-      <c r="I12" s="7">
+      <c r="L12" s="7">
         <v>6.5724132852335</v>
       </c>
-      <c r="J12" s="7">
+      <c r="M12" s="7">
         <v>3.5350270717660921</v>
       </c>
-      <c r="K12" s="7">
+      <c r="N12" s="7">
         <v>3.2136609743328108</v>
       </c>
-      <c r="L12" s="7">
+      <c r="O12" s="7">
         <v>2.8280216574128736</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>20000</v>
-      </c>
-      <c r="O12" s="9">
-        <v>5.6205259760239548</v>
       </c>
       <c r="P12" s="8">
         <v>44561</v>
@@ -1385,51 +1385,51 @@
         <v>11</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>1.8</v>
+        <v>5.88</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6">
-        <v>-0.33400886643383032</v>
+        <v>-2.4027815244986123E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>6.8611111111111109E-2</v>
+        <v>5.2779197201807043E-2</v>
       </c>
       <c r="H13" s="7">
-        <v>1.1288001414719611</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1.4844123602744648</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1.3787840404191054</v>
+        <v>4.8</v>
+      </c>
+      <c r="I13" s="9">
+        <v>8000</v>
+      </c>
+      <c r="J13" s="9">
+        <v>7.2326703186240184</v>
       </c>
       <c r="K13" s="7">
-        <v>1.2534400367446412</v>
+        <v>3.007598354623974</v>
       </c>
       <c r="L13" s="7">
-        <v>1.1030272323352843</v>
+        <v>8.4587300854820953</v>
       </c>
       <c r="M13" s="7">
-        <v>1.1000000000000001</v>
+        <v>6.326716446359482</v>
       </c>
       <c r="N13" s="7">
-        <v>60000</v>
-      </c>
-      <c r="O13" s="9">
-        <v>1.9</v>
+        <v>5.7515604057813468</v>
+      </c>
+      <c r="O13" s="7">
+        <v>5.0613731570875853</v>
       </c>
       <c r="P13" s="8">
         <v>44561</v>
@@ -1441,63 +1441,63 @@
         <v>11</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>44.35</v>
+        <v>1.77</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="6">
-        <v>-0.38990330086972314</v>
+        <v>8.7378569503422682E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>8.3153566374648366E-2</v>
+        <v>1.0841427830178489E-2</v>
       </c>
       <c r="H14" s="7">
-        <v>21.384889342882879</v>
-      </c>
-      <c r="I14" s="7">
-        <v>38.125336811342052</v>
-      </c>
-      <c r="J14" s="7">
-        <v>31.49278860642778</v>
+        <v>1.6</v>
+      </c>
+      <c r="I14" s="9">
+        <v>22000</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2.0514668160851408</v>
       </c>
       <c r="K14" s="7">
-        <v>28.629807824025253</v>
+        <v>1.970972605673585</v>
       </c>
       <c r="L14" s="7">
-        <v>25.194230885142225</v>
+        <v>2.2555597764769106</v>
       </c>
       <c r="M14" s="7">
-        <v>28.629807824025253</v>
+        <v>2.101660068021058</v>
       </c>
       <c r="N14" s="7">
-        <v>3000</v>
-      </c>
-      <c r="O14" s="9">
-        <v>44.056787530908295</v>
+        <v>1.9106000618373253</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1.6813280544168463</v>
       </c>
       <c r="P14" s="8">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="Q14" s="8">
-        <v>45077</v>
+        <v>44985</v>
       </c>
       <c r="R14" s="19" t="s">
         <v>11</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -1508,13 +1508,13 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="9"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="19"/>
@@ -1527,14 +1527,14 @@
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="9"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="5"/>
@@ -1547,14 +1547,14 @@
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="9"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="5"/>
@@ -1567,14 +1567,14 @@
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="9"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="5"/>
@@ -1587,14 +1587,14 @@
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="7"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="5"/>
@@ -1607,14 +1607,14 @@
       <c r="E20" s="7"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="7"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="5"/>
@@ -1627,14 +1627,14 @@
       <c r="E21" s="7"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="9"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="5"/>
@@ -1647,14 +1647,14 @@
       <c r="E22" s="7"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="9"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="7"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="5"/>
@@ -1667,14 +1667,14 @@
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="9"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="7"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="5"/>
@@ -1688,13 +1688,13 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="9"/>
+      <c r="O24" s="7"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="5"/>
@@ -1708,13 +1708,13 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="7"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="5"/>
@@ -1728,13 +1728,13 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="7"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="5"/>
@@ -1748,13 +1748,13 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="9"/>
+      <c r="O27" s="7"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="5"/>
@@ -1768,13 +1768,13 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="9"/>
+      <c r="O28" s="7"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="5"/>
@@ -1788,13 +1788,13 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="9"/>
+      <c r="O29" s="7"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="5"/>
@@ -1808,13 +1808,13 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="9"/>
+      <c r="O30" s="7"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="5"/>
@@ -1828,13 +1828,13 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="9"/>
+      <c r="O31" s="7"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="5"/>
@@ -1848,13 +1848,13 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="9"/>
+      <c r="O32" s="7"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="5"/>
@@ -1868,13 +1868,13 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="9"/>
+      <c r="O33" s="7"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="5"/>
@@ -1888,13 +1888,13 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="9"/>
+      <c r="O34" s="7"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="5"/>
@@ -1908,13 +1908,13 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="9"/>
+      <c r="O35" s="7"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="5"/>
@@ -1928,13 +1928,13 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="9"/>
+      <c r="O36" s="7"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="5"/>
@@ -1948,13 +1948,13 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="9"/>
+      <c r="O37" s="7"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="5"/>
@@ -1968,13 +1968,13 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="9"/>
+      <c r="O38" s="7"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="5"/>
@@ -1988,13 +1988,13 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="9"/>
+      <c r="O39" s="7"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="5"/>
@@ -2008,13 +2008,13 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="9"/>
+      <c r="O40" s="7"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="5"/>
@@ -2028,13 +2028,13 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="9"/>
+      <c r="O41" s="7"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="5"/>
@@ -2048,13 +2048,13 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="9"/>
+      <c r="O42" s="7"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="5"/>
@@ -2068,13 +2068,13 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="9"/>
+      <c r="O43" s="7"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="5"/>
@@ -2088,13 +2088,13 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="9"/>
+      <c r="O44" s="7"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="5"/>
@@ -2108,13 +2108,13 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="9"/>
+      <c r="O45" s="7"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="5"/>
@@ -2128,13 +2128,13 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="9"/>
+      <c r="O46" s="7"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="5"/>
@@ -2148,13 +2148,13 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="9"/>
+      <c r="O47" s="7"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="5"/>
@@ -2168,13 +2168,13 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="9"/>
+      <c r="O48" s="7"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="5"/>
@@ -2188,13 +2188,13 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="9"/>
+      <c r="O49" s="7"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="5"/>
@@ -2208,13 +2208,13 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="9"/>
+      <c r="O50" s="7"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="5"/>
@@ -2228,13 +2228,13 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="9"/>
+      <c r="O51" s="7"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="5"/>
@@ -2248,13 +2248,13 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="9"/>
+      <c r="O52" s="7"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="5"/>
@@ -2268,13 +2268,13 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="9"/>
+      <c r="O53" s="7"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="5"/>
@@ -2288,13 +2288,13 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="9"/>
+      <c r="O54" s="7"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="5"/>
@@ -2308,13 +2308,13 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="9"/>
+      <c r="O55" s="7"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="5"/>
@@ -2328,13 +2328,13 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="9"/>
+      <c r="O56" s="7"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="5"/>
@@ -2348,13 +2348,13 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="9"/>
+      <c r="O57" s="7"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="5"/>
@@ -2368,13 +2368,13 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="9"/>
+      <c r="O58" s="7"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="5"/>
@@ -2388,13 +2388,13 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="9"/>
+      <c r="O59" s="7"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="5"/>
@@ -2408,13 +2408,13 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="9"/>
+      <c r="O60" s="7"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="5"/>
@@ -2428,13 +2428,13 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="9"/>
+      <c r="O61" s="7"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="5"/>
@@ -2448,13 +2448,13 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="9"/>
+      <c r="O62" s="7"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="5"/>
@@ -2468,13 +2468,13 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="9"/>
+      <c r="O63" s="7"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="5"/>
@@ -2488,13 +2488,13 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="9"/>
+      <c r="O64" s="7"/>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="5"/>
@@ -2508,13 +2508,13 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="9"/>
+      <c r="O65" s="7"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="5"/>
@@ -2528,13 +2528,13 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="9"/>
+      <c r="O66" s="7"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="5"/>
@@ -2548,13 +2548,13 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="9"/>
+      <c r="O67" s="7"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="5"/>
@@ -2568,13 +2568,13 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="9"/>
+      <c r="O68" s="7"/>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="5"/>
@@ -2588,13 +2588,13 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="9"/>
+      <c r="O69" s="7"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="5"/>
@@ -2608,13 +2608,13 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="9"/>
+      <c r="O70" s="7"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="5"/>
@@ -2628,13 +2628,13 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
-      <c r="O71" s="9"/>
+      <c r="O71" s="7"/>
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="5"/>
@@ -2648,13 +2648,13 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
-      <c r="O72" s="9"/>
+      <c r="O72" s="7"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="5"/>
@@ -2668,13 +2668,13 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
-      <c r="O73" s="9"/>
+      <c r="O73" s="7"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="5"/>
@@ -2688,13 +2688,13 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="9"/>
+      <c r="O74" s="7"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="5"/>
@@ -2708,13 +2708,13 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
-      <c r="O75" s="9"/>
+      <c r="O75" s="7"/>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="5"/>
@@ -2728,13 +2728,13 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
-      <c r="O76" s="9"/>
+      <c r="O76" s="7"/>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="5"/>
@@ -2748,13 +2748,13 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
-      <c r="O77" s="9"/>
+      <c r="O77" s="7"/>
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="5"/>
@@ -2768,13 +2768,13 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
-      <c r="O78" s="9"/>
+      <c r="O78" s="7"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="5"/>
@@ -2788,13 +2788,13 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
-      <c r="O79" s="9"/>
+      <c r="O79" s="7"/>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="5"/>
@@ -2808,13 +2808,13 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
-      <c r="O80" s="9"/>
+      <c r="O80" s="7"/>
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="5"/>
@@ -2828,13 +2828,13 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
-      <c r="O81" s="9"/>
+      <c r="O81" s="7"/>
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="5"/>
@@ -2848,13 +2848,13 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
-      <c r="O82" s="9"/>
+      <c r="O82" s="7"/>
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="5"/>
@@ -2868,13 +2868,13 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
-      <c r="O83" s="9"/>
+      <c r="O83" s="7"/>
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="5"/>
@@ -2888,13 +2888,13 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
-      <c r="O84" s="9"/>
+      <c r="O84" s="7"/>
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="5"/>
@@ -2908,13 +2908,13 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
-      <c r="O85" s="9"/>
+      <c r="O85" s="7"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="5"/>
@@ -2928,13 +2928,13 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
-      <c r="O86" s="9"/>
+      <c r="O86" s="7"/>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="5"/>
@@ -2948,13 +2948,13 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
-      <c r="O87" s="9"/>
+      <c r="O87" s="7"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="5"/>
@@ -2968,13 +2968,13 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
-      <c r="O88" s="9"/>
+      <c r="O88" s="7"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="5"/>
@@ -2988,13 +2988,13 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
-      <c r="O89" s="9"/>
+      <c r="O89" s="7"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="5"/>
@@ -3008,13 +3008,13 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
-      <c r="O90" s="9"/>
+      <c r="O90" s="7"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="5"/>
@@ -3028,13 +3028,13 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
-      <c r="O91" s="9"/>
+      <c r="O91" s="7"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="5"/>
@@ -3048,13 +3048,13 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
-      <c r="O92" s="9"/>
+      <c r="O92" s="7"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="5"/>
@@ -3068,13 +3068,13 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
-      <c r="O93" s="9"/>
+      <c r="O93" s="7"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="5"/>
@@ -3088,13 +3088,13 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
-      <c r="O94" s="9"/>
+      <c r="O94" s="7"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="5"/>
@@ -3108,13 +3108,13 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
-      <c r="O95" s="9"/>
+      <c r="O95" s="7"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="5"/>
@@ -3128,13 +3128,13 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
-      <c r="O96" s="9"/>
+      <c r="O96" s="7"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="5"/>
@@ -3148,13 +3148,13 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
-      <c r="O97" s="9"/>
+      <c r="O97" s="7"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="5"/>
@@ -3168,13 +3168,13 @@
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
-      <c r="O98" s="9"/>
+      <c r="O98" s="7"/>
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="5"/>
@@ -3188,13 +3188,13 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
-      <c r="O99" s="9"/>
+      <c r="O99" s="7"/>
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="5"/>
@@ -3208,13 +3208,13 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
-      <c r="O100" s="9"/>
+      <c r="O100" s="7"/>
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
       <c r="R100" s="5"/>
@@ -3228,13 +3228,13 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
-      <c r="O101" s="9"/>
+      <c r="O101" s="7"/>
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
       <c r="R101" s="5"/>
@@ -3248,13 +3248,13 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
-      <c r="O102" s="9"/>
+      <c r="O102" s="7"/>
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="5"/>
@@ -3268,13 +3268,13 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
-      <c r="O103" s="9"/>
+      <c r="O103" s="7"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="5"/>
@@ -3288,13 +3288,13 @@
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
-      <c r="O104" s="9"/>
+      <c r="O104" s="7"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="5"/>
@@ -3308,13 +3308,13 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
-      <c r="O105" s="9"/>
+      <c r="O105" s="7"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="5"/>
@@ -3328,13 +3328,13 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
-      <c r="O106" s="9"/>
+      <c r="O106" s="7"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="5"/>
@@ -3348,13 +3348,13 @@
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
-      <c r="O107" s="9"/>
+      <c r="O107" s="7"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="5"/>
@@ -3368,13 +3368,13 @@
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
-      <c r="O108" s="9"/>
+      <c r="O108" s="7"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="5"/>
@@ -3388,13 +3388,13 @@
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
       <c r="N109" s="7"/>
-      <c r="O109" s="9"/>
+      <c r="O109" s="7"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
       <c r="R109" s="5"/>
@@ -3408,13 +3408,13 @@
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
-      <c r="O110" s="9"/>
+      <c r="O110" s="7"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="5"/>
@@ -3428,13 +3428,13 @@
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
       <c r="N111" s="7"/>
-      <c r="O111" s="9"/>
+      <c r="O111" s="7"/>
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
       <c r="R111" s="5"/>
@@ -3448,13 +3448,13 @@
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
       <c r="N112" s="7"/>
-      <c r="O112" s="9"/>
+      <c r="O112" s="7"/>
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="5"/>
@@ -3468,13 +3468,13 @@
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
-      <c r="O113" s="9"/>
+      <c r="O113" s="7"/>
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
       <c r="R113" s="5"/>
@@ -3488,13 +3488,13 @@
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
       <c r="N114" s="7"/>
-      <c r="O114" s="9"/>
+      <c r="O114" s="7"/>
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="5"/>
@@ -3508,13 +3508,13 @@
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
       <c r="N115" s="7"/>
-      <c r="O115" s="9"/>
+      <c r="O115" s="7"/>
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="5"/>
@@ -3528,13 +3528,13 @@
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
       <c r="N116" s="7"/>
-      <c r="O116" s="9"/>
+      <c r="O116" s="7"/>
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="5"/>
@@ -3548,13 +3548,13 @@
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
-      <c r="O117" s="9"/>
+      <c r="O117" s="7"/>
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
       <c r="R117" s="5"/>
@@ -3568,13 +3568,13 @@
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
-      <c r="O118" s="9"/>
+      <c r="O118" s="7"/>
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
       <c r="R118" s="5"/>
@@ -3588,13 +3588,13 @@
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
       <c r="N119" s="7"/>
-      <c r="O119" s="9"/>
+      <c r="O119" s="7"/>
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="5"/>
@@ -3608,13 +3608,13 @@
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
       <c r="N120" s="7"/>
-      <c r="O120" s="9"/>
+      <c r="O120" s="7"/>
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
       <c r="R120" s="5"/>
@@ -3628,13 +3628,13 @@
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
       <c r="N121" s="7"/>
-      <c r="O121" s="9"/>
+      <c r="O121" s="7"/>
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
       <c r="R121" s="5"/>
@@ -3648,13 +3648,13 @@
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
-      <c r="O122" s="9"/>
+      <c r="O122" s="7"/>
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="R122" s="5"/>
@@ -3668,13 +3668,13 @@
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
-      <c r="O123" s="9"/>
+      <c r="O123" s="7"/>
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
       <c r="R123" s="5"/>
@@ -3688,13 +3688,13 @@
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
       <c r="N124" s="7"/>
-      <c r="O124" s="9"/>
+      <c r="O124" s="7"/>
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="R124" s="5"/>
@@ -3708,13 +3708,13 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
       <c r="N125" s="7"/>
-      <c r="O125" s="9"/>
+      <c r="O125" s="7"/>
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="R125" s="5"/>
@@ -3728,13 +3728,13 @@
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
-      <c r="O126" s="9"/>
+      <c r="O126" s="7"/>
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="R126" s="5"/>
@@ -3748,13 +3748,13 @@
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
-      <c r="O127" s="9"/>
+      <c r="O127" s="7"/>
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
       <c r="R127" s="5"/>
@@ -3768,13 +3768,13 @@
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
-      <c r="O128" s="9"/>
+      <c r="O128" s="7"/>
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
       <c r="R128" s="5"/>
@@ -3788,13 +3788,13 @@
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
-      <c r="O129" s="9"/>
+      <c r="O129" s="7"/>
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
       <c r="R129" s="5"/>
@@ -3808,13 +3808,13 @@
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
-      <c r="O130" s="9"/>
+      <c r="O130" s="7"/>
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
       <c r="R130" s="5"/>
@@ -3828,13 +3828,13 @@
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
       <c r="N131" s="7"/>
-      <c r="O131" s="9"/>
+      <c r="O131" s="7"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
       <c r="R131" s="5"/>
@@ -3848,13 +3848,13 @@
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
-      <c r="O132" s="9"/>
+      <c r="O132" s="7"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
       <c r="R132" s="5"/>
@@ -3868,13 +3868,13 @@
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
-      <c r="O133" s="9"/>
+      <c r="O133" s="7"/>
       <c r="P133" s="8"/>
       <c r="Q133" s="8"/>
       <c r="R133" s="5"/>
@@ -3888,13 +3888,13 @@
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
-      <c r="O134" s="9"/>
+      <c r="O134" s="7"/>
       <c r="P134" s="8"/>
       <c r="Q134" s="8"/>
       <c r="R134" s="5"/>
@@ -3908,13 +3908,13 @@
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
-      <c r="O135" s="9"/>
+      <c r="O135" s="7"/>
       <c r="P135" s="8"/>
       <c r="Q135" s="8"/>
       <c r="R135" s="5"/>
@@ -3928,13 +3928,13 @@
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
       <c r="N136" s="7"/>
-      <c r="O136" s="9"/>
+      <c r="O136" s="7"/>
       <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
       <c r="R136" s="5"/>
@@ -3948,13 +3948,13 @@
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
       <c r="N137" s="7"/>
-      <c r="O137" s="9"/>
+      <c r="O137" s="7"/>
       <c r="P137" s="8"/>
       <c r="Q137" s="8"/>
       <c r="R137" s="5"/>
@@ -3968,13 +3968,13 @@
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
       <c r="N138" s="7"/>
-      <c r="O138" s="9"/>
+      <c r="O138" s="7"/>
       <c r="P138" s="8"/>
       <c r="Q138" s="8"/>
       <c r="R138" s="5"/>
@@ -3988,13 +3988,13 @@
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
       <c r="N139" s="7"/>
-      <c r="O139" s="9"/>
+      <c r="O139" s="7"/>
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
       <c r="R139" s="5"/>
@@ -4008,13 +4008,13 @@
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
-      <c r="O140" s="9"/>
+      <c r="O140" s="7"/>
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
       <c r="R140" s="5"/>
@@ -4028,13 +4028,13 @@
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
-      <c r="O141" s="9"/>
+      <c r="O141" s="7"/>
       <c r="P141" s="8"/>
       <c r="Q141" s="8"/>
       <c r="R141" s="5"/>
@@ -4048,13 +4048,13 @@
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
-      <c r="O142" s="9"/>
+      <c r="O142" s="7"/>
       <c r="P142" s="8"/>
       <c r="Q142" s="8"/>
       <c r="R142" s="5"/>
@@ -4068,13 +4068,13 @@
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
-      <c r="O143" s="9"/>
+      <c r="O143" s="7"/>
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
       <c r="R143" s="5"/>
@@ -4088,13 +4088,13 @@
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
-      <c r="O144" s="9"/>
+      <c r="O144" s="7"/>
       <c r="P144" s="8"/>
       <c r="Q144" s="8"/>
       <c r="R144" s="5"/>
@@ -4108,13 +4108,13 @@
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
-      <c r="O145" s="9"/>
+      <c r="O145" s="7"/>
       <c r="P145" s="8"/>
       <c r="Q145" s="8"/>
       <c r="R145" s="5"/>
@@ -4128,13 +4128,13 @@
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
-      <c r="O146" s="9"/>
+      <c r="O146" s="7"/>
       <c r="P146" s="8"/>
       <c r="Q146" s="8"/>
       <c r="R146" s="5"/>
@@ -4148,13 +4148,13 @@
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
-      <c r="O147" s="9"/>
+      <c r="O147" s="7"/>
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="R147" s="5"/>
@@ -4168,13 +4168,13 @@
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
-      <c r="O148" s="9"/>
+      <c r="O148" s="7"/>
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
       <c r="R148" s="5"/>
@@ -4188,13 +4188,13 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
-      <c r="O149" s="9"/>
+      <c r="O149" s="7"/>
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
       <c r="R149" s="5"/>
@@ -4208,13 +4208,13 @@
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
-      <c r="O150" s="9"/>
+      <c r="O150" s="7"/>
       <c r="P150" s="8"/>
       <c r="Q150" s="8"/>
       <c r="R150" s="5"/>
@@ -4228,13 +4228,13 @@
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
-      <c r="O151" s="9"/>
+      <c r="O151" s="7"/>
       <c r="P151" s="8"/>
       <c r="Q151" s="8"/>
       <c r="R151" s="5"/>
@@ -4248,13 +4248,13 @@
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
-      <c r="O152" s="9"/>
+      <c r="O152" s="7"/>
       <c r="P152" s="8"/>
       <c r="Q152" s="8"/>
       <c r="R152" s="5"/>
@@ -4268,13 +4268,13 @@
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
-      <c r="O153" s="9"/>
+      <c r="O153" s="7"/>
       <c r="P153" s="8"/>
       <c r="Q153" s="8"/>
       <c r="R153" s="5"/>
@@ -4288,13 +4288,13 @@
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
-      <c r="O154" s="9"/>
+      <c r="O154" s="7"/>
       <c r="P154" s="8"/>
       <c r="Q154" s="8"/>
       <c r="R154" s="5"/>
@@ -4308,13 +4308,13 @@
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
-      <c r="O155" s="9"/>
+      <c r="O155" s="7"/>
       <c r="P155" s="8"/>
       <c r="Q155" s="8"/>
       <c r="R155" s="5"/>
@@ -4328,13 +4328,13 @@
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
-      <c r="O156" s="9"/>
+      <c r="O156" s="7"/>
       <c r="P156" s="8"/>
       <c r="Q156" s="8"/>
       <c r="R156" s="5"/>
@@ -4348,13 +4348,13 @@
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
-      <c r="O157" s="9"/>
+      <c r="O157" s="7"/>
       <c r="P157" s="8"/>
       <c r="Q157" s="8"/>
       <c r="R157" s="5"/>
@@ -4368,13 +4368,13 @@
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
-      <c r="O158" s="9"/>
+      <c r="O158" s="7"/>
       <c r="P158" s="8"/>
       <c r="Q158" s="8"/>
       <c r="R158" s="5"/>
@@ -4388,13 +4388,13 @@
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
-      <c r="O159" s="9"/>
+      <c r="O159" s="7"/>
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
       <c r="R159" s="5"/>
@@ -4408,13 +4408,13 @@
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
-      <c r="O160" s="9"/>
+      <c r="O160" s="7"/>
       <c r="P160" s="8"/>
       <c r="Q160" s="8"/>
       <c r="R160" s="5"/>
@@ -4428,13 +4428,13 @@
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
-      <c r="O161" s="9"/>
+      <c r="O161" s="7"/>
       <c r="P161" s="8"/>
       <c r="Q161" s="8"/>
       <c r="R161" s="5"/>
@@ -4448,13 +4448,13 @@
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
-      <c r="O162" s="9"/>
+      <c r="O162" s="7"/>
       <c r="P162" s="8"/>
       <c r="Q162" s="8"/>
       <c r="R162" s="5"/>
@@ -4468,13 +4468,13 @@
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
-      <c r="O163" s="9"/>
+      <c r="O163" s="7"/>
       <c r="P163" s="8"/>
       <c r="Q163" s="8"/>
       <c r="R163" s="5"/>
@@ -4488,13 +4488,13 @@
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
-      <c r="O164" s="9"/>
+      <c r="O164" s="7"/>
       <c r="P164" s="8"/>
       <c r="Q164" s="8"/>
       <c r="R164" s="5"/>
@@ -4508,13 +4508,13 @@
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
-      <c r="O165" s="9"/>
+      <c r="O165" s="7"/>
       <c r="P165" s="8"/>
       <c r="Q165" s="8"/>
       <c r="R165" s="5"/>
@@ -4528,13 +4528,13 @@
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
-      <c r="O166" s="9"/>
+      <c r="O166" s="7"/>
       <c r="P166" s="8"/>
       <c r="Q166" s="8"/>
       <c r="R166" s="5"/>
@@ -4548,13 +4548,13 @@
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
-      <c r="O167" s="9"/>
+      <c r="O167" s="7"/>
       <c r="P167" s="8"/>
       <c r="Q167" s="8"/>
       <c r="R167" s="5"/>
@@ -4568,13 +4568,13 @@
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
-      <c r="O168" s="9"/>
+      <c r="O168" s="7"/>
       <c r="P168" s="8"/>
       <c r="Q168" s="8"/>
       <c r="R168" s="5"/>
@@ -4588,13 +4588,13 @@
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
-      <c r="O169" s="9"/>
+      <c r="O169" s="7"/>
       <c r="P169" s="8"/>
       <c r="Q169" s="8"/>
       <c r="R169" s="5"/>
@@ -4608,13 +4608,13 @@
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
-      <c r="O170" s="9"/>
+      <c r="O170" s="7"/>
       <c r="P170" s="8"/>
       <c r="Q170" s="8"/>
       <c r="R170" s="5"/>
@@ -4628,13 +4628,13 @@
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
       <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
       <c r="N171" s="7"/>
-      <c r="O171" s="9"/>
+      <c r="O171" s="7"/>
       <c r="P171" s="8"/>
       <c r="Q171" s="8"/>
       <c r="R171" s="5"/>
@@ -4648,13 +4648,13 @@
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
       <c r="N172" s="7"/>
-      <c r="O172" s="9"/>
+      <c r="O172" s="7"/>
       <c r="P172" s="8"/>
       <c r="Q172" s="8"/>
       <c r="R172" s="5"/>
@@ -4668,13 +4668,13 @@
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
       <c r="N173" s="7"/>
-      <c r="O173" s="9"/>
+      <c r="O173" s="7"/>
       <c r="P173" s="8"/>
       <c r="Q173" s="8"/>
       <c r="R173" s="5"/>
@@ -4688,13 +4688,13 @@
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
       <c r="N174" s="7"/>
-      <c r="O174" s="9"/>
+      <c r="O174" s="7"/>
       <c r="P174" s="8"/>
       <c r="Q174" s="8"/>
       <c r="R174" s="5"/>
@@ -4708,13 +4708,13 @@
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
       <c r="N175" s="7"/>
-      <c r="O175" s="9"/>
+      <c r="O175" s="7"/>
       <c r="P175" s="8"/>
       <c r="Q175" s="8"/>
       <c r="R175" s="5"/>
@@ -4728,13 +4728,13 @@
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
-      <c r="J176" s="7"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
       <c r="N176" s="7"/>
-      <c r="O176" s="9"/>
+      <c r="O176" s="7"/>
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
       <c r="R176" s="5"/>
@@ -4748,13 +4748,13 @@
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="7"/>
-      <c r="I177" s="7"/>
-      <c r="J177" s="7"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
-      <c r="O177" s="9"/>
+      <c r="O177" s="7"/>
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
       <c r="R177" s="5"/>
@@ -4768,13 +4768,13 @@
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="7"/>
-      <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
-      <c r="O178" s="9"/>
+      <c r="O178" s="7"/>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="5"/>
@@ -4788,13 +4788,13 @@
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
       <c r="H179" s="7"/>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
       <c r="N179" s="7"/>
-      <c r="O179" s="9"/>
+      <c r="O179" s="7"/>
       <c r="P179" s="8"/>
       <c r="Q179" s="8"/>
       <c r="R179" s="5"/>
@@ -4808,13 +4808,13 @@
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="7"/>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
       <c r="N180" s="7"/>
-      <c r="O180" s="9"/>
+      <c r="O180" s="7"/>
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
       <c r="R180" s="5"/>
@@ -4828,13 +4828,13 @@
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="7"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
       <c r="N181" s="7"/>
-      <c r="O181" s="9"/>
+      <c r="O181" s="7"/>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
       <c r="R181" s="5"/>
@@ -4848,13 +4848,13 @@
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="7"/>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
       <c r="N182" s="7"/>
-      <c r="O182" s="9"/>
+      <c r="O182" s="7"/>
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="5"/>
@@ -4868,13 +4868,13 @@
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="7"/>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
       <c r="N183" s="7"/>
-      <c r="O183" s="9"/>
+      <c r="O183" s="7"/>
       <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
       <c r="R183" s="5"/>
@@ -4888,13 +4888,13 @@
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="7"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
       <c r="N184" s="7"/>
-      <c r="O184" s="9"/>
+      <c r="O184" s="7"/>
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
       <c r="R184" s="5"/>
@@ -4908,13 +4908,13 @@
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
       <c r="H185" s="7"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
       <c r="N185" s="7"/>
-      <c r="O185" s="9"/>
+      <c r="O185" s="7"/>
       <c r="P185" s="8"/>
       <c r="Q185" s="8"/>
       <c r="R185" s="5"/>
@@ -4928,13 +4928,13 @@
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
       <c r="N186" s="7"/>
-      <c r="O186" s="9"/>
+      <c r="O186" s="7"/>
       <c r="P186" s="8"/>
       <c r="Q186" s="8"/>
       <c r="R186" s="5"/>
@@ -4948,13 +4948,13 @@
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="7"/>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
-      <c r="O187" s="9"/>
+      <c r="O187" s="7"/>
       <c r="P187" s="8"/>
       <c r="Q187" s="8"/>
       <c r="R187" s="5"/>
@@ -4968,13 +4968,13 @@
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="7"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
-      <c r="O188" s="9"/>
+      <c r="O188" s="7"/>
       <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
       <c r="R188" s="5"/>
@@ -4988,13 +4988,13 @@
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
       <c r="H189" s="7"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
       <c r="N189" s="7"/>
-      <c r="O189" s="9"/>
+      <c r="O189" s="7"/>
       <c r="P189" s="8"/>
       <c r="Q189" s="8"/>
       <c r="R189" s="5"/>
@@ -5008,13 +5008,13 @@
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="7"/>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
       <c r="N190" s="7"/>
-      <c r="O190" s="9"/>
+      <c r="O190" s="7"/>
       <c r="P190" s="8"/>
       <c r="Q190" s="8"/>
       <c r="R190" s="5"/>
@@ -5028,13 +5028,13 @@
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="7"/>
-      <c r="I191" s="7"/>
-      <c r="J191" s="7"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
       <c r="N191" s="7"/>
-      <c r="O191" s="9"/>
+      <c r="O191" s="7"/>
       <c r="P191" s="8"/>
       <c r="Q191" s="8"/>
       <c r="R191" s="5"/>
@@ -5048,13 +5048,13 @@
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="7"/>
-      <c r="I192" s="7"/>
-      <c r="J192" s="7"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
       <c r="N192" s="7"/>
-      <c r="O192" s="9"/>
+      <c r="O192" s="7"/>
       <c r="P192" s="8"/>
       <c r="Q192" s="8"/>
       <c r="R192" s="5"/>
@@ -5068,13 +5068,13 @@
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="7"/>
-      <c r="I193" s="7"/>
-      <c r="J193" s="7"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
       <c r="N193" s="7"/>
-      <c r="O193" s="9"/>
+      <c r="O193" s="7"/>
       <c r="P193" s="8"/>
       <c r="Q193" s="8"/>
       <c r="R193" s="5"/>
@@ -5088,13 +5088,13 @@
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="7"/>
-      <c r="I194" s="7"/>
-      <c r="J194" s="7"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
-      <c r="O194" s="9"/>
+      <c r="O194" s="7"/>
       <c r="P194" s="8"/>
       <c r="Q194" s="8"/>
       <c r="R194" s="5"/>
@@ -5108,13 +5108,13 @@
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="7"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
       <c r="N195" s="7"/>
-      <c r="O195" s="9"/>
+      <c r="O195" s="7"/>
       <c r="P195" s="8"/>
       <c r="Q195" s="8"/>
       <c r="R195" s="5"/>
@@ -5128,13 +5128,13 @@
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="7"/>
-      <c r="I196" s="7"/>
-      <c r="J196" s="7"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
       <c r="N196" s="7"/>
-      <c r="O196" s="9"/>
+      <c r="O196" s="7"/>
       <c r="P196" s="8"/>
       <c r="Q196" s="8"/>
       <c r="R196" s="5"/>
@@ -5148,13 +5148,13 @@
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="7"/>
-      <c r="I197" s="7"/>
-      <c r="J197" s="7"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
       <c r="N197" s="7"/>
-      <c r="O197" s="9"/>
+      <c r="O197" s="7"/>
       <c r="P197" s="8"/>
       <c r="Q197" s="8"/>
       <c r="R197" s="5"/>
@@ -5168,13 +5168,13 @@
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="7"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="7"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
       <c r="N198" s="7"/>
-      <c r="O198" s="9"/>
+      <c r="O198" s="7"/>
       <c r="P198" s="8"/>
       <c r="Q198" s="8"/>
       <c r="R198" s="5"/>
@@ -5188,13 +5188,13 @@
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
       <c r="H199" s="7"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="7"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
       <c r="N199" s="7"/>
-      <c r="O199" s="9"/>
+      <c r="O199" s="7"/>
       <c r="P199" s="8"/>
       <c r="Q199" s="8"/>
       <c r="R199" s="5"/>
@@ -5208,27 +5208,23 @@
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="7"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="7"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
       <c r="N200" s="7"/>
-      <c r="O200" s="9"/>
+      <c r="O200" s="7"/>
       <c r="P200" s="8"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="5"/>
       <c r="S200" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:Q4" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:Q14">
-      <sortCondition descending="1" ref="F4"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B4:S4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:O3"/>
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5290,7 +5286,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -5299,16 +5295,16 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C775FF0-DE7A-4550-81C1-A40E2BA0FD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CCCDBA-6A07-4B15-A2E0-D39F86F89791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
     <sheet name="Current_Holdings" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$6:$J$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$7:$P$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$S$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -209,6 +209,30 @@
   <si>
     <t>Frd Dividend</t>
   </si>
+  <si>
+    <t>ST Cash-debt Ratio</t>
+  </si>
+  <si>
+    <t>Realizable Value Ratio</t>
+  </si>
+  <si>
+    <t>Book Quick Ratio</t>
+  </si>
+  <si>
+    <t>LT Cash-debt Ratio</t>
+  </si>
+  <si>
+    <t>Debt-CE Ratio</t>
+  </si>
+  <si>
+    <t>LT Quick Ratio</t>
+  </si>
+  <si>
+    <t>ST Quick Ratio</t>
+  </si>
+  <si>
+    <t>Book Value Ratio</t>
+  </si>
 </sst>
 </file>
 
@@ -217,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +300,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -495,6 +534,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -824,8 +869,8 @@
   </sheetPr>
   <dimension ref="A2:S200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,16 +1049,16 @@
         <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>10.039999999999999</v>
+        <v>9.86</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6">
-        <v>-9.838310204330819E-3</v>
+        <v>1.0063221658064808E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>5.5776892430278897E-2</v>
+        <v>5.6795131845841791E-2</v>
       </c>
       <c r="H6" s="7">
         <v>9.6</v>
@@ -1060,16 +1105,16 @@
         <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>44.35</v>
+        <v>44.7</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="6">
-        <v>-0.38990330086972314</v>
+        <v>-0.39546334213808099</v>
       </c>
       <c r="G7" s="6">
-        <v>8.3153566374648394E-2</v>
+        <v>8.2502475810193626E-2</v>
       </c>
       <c r="H7" s="7">
         <v>28.629807824025253</v>
@@ -1172,16 +1217,16 @@
         <v>49</v>
       </c>
       <c r="D9" s="7">
-        <v>19.739999999999998</v>
+        <v>19.68</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.15634916896126963</v>
+        <v>-0.15347218472029803</v>
       </c>
       <c r="G9" s="6">
-        <v>6.8389057750759888E-2</v>
+        <v>6.8597560975609762E-2</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -1228,16 +1273,16 @@
         <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="6">
-        <v>-0.33400886643383032</v>
+        <v>-0.3296747221759303</v>
       </c>
       <c r="G10" s="6">
-        <v>6.8611111111111109E-2</v>
+        <v>6.8994413407821226E-2</v>
       </c>
       <c r="H10" s="7">
         <v>1.1000000000000001</v>
@@ -1249,19 +1294,19 @@
         <v>1.9</v>
       </c>
       <c r="K10" s="7">
-        <v>1.1288001414719611</v>
+        <v>1.1288983483579402</v>
       </c>
       <c r="L10" s="7">
-        <v>1.4844123602744648</v>
+        <v>1.4845105671604442</v>
       </c>
       <c r="M10" s="7">
-        <v>1.3787840404191054</v>
+        <v>1.3788822473050848</v>
       </c>
       <c r="N10" s="7">
-        <v>1.2534400367446412</v>
+        <v>1.2535293157318952</v>
       </c>
       <c r="O10" s="7">
-        <v>1.1030272323352843</v>
+        <v>1.1031057978440679</v>
       </c>
       <c r="P10" s="8">
         <v>44561</v>
@@ -1284,13 +1329,13 @@
         <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>17.52</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="6">
-        <v>2.2989747351651685E-2</v>
+        <v>1.9157017838506402E-2</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1340,16 +1385,16 @@
         <v>55</v>
       </c>
       <c r="D12" s="7">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.26032611121945548</v>
+        <v>-0.25429974359662866</v>
       </c>
       <c r="G12" s="6">
-        <v>4.8836089055181352E-2</v>
+        <v>4.9186587301988875E-2</v>
       </c>
       <c r="H12" s="7">
         <v>2.4</v>
@@ -1396,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>5.88</v>
+        <v>5.8</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6">
-        <v>-2.4027815244986123E-2</v>
+        <v>-8.2648265303570112E-3</v>
       </c>
       <c r="G13" s="6">
-        <v>5.2779197201807043E-2</v>
+        <v>5.3507186128728519E-2</v>
       </c>
       <c r="H13" s="7">
         <v>4.8</v>
@@ -1414,22 +1459,22 @@
         <v>8000</v>
       </c>
       <c r="J13" s="9">
-        <v>7.2326703186240184</v>
+        <v>7.236948366435576</v>
       </c>
       <c r="K13" s="7">
-        <v>3.007598354623974</v>
+        <v>3.0129459143884199</v>
       </c>
       <c r="L13" s="7">
-        <v>8.4587300854820953</v>
+        <v>8.464077645246542</v>
       </c>
       <c r="M13" s="7">
-        <v>6.326716446359482</v>
+        <v>6.3320640061239288</v>
       </c>
       <c r="N13" s="7">
-        <v>5.7515604057813468</v>
+        <v>5.7564218237490259</v>
       </c>
       <c r="O13" s="7">
-        <v>5.0613731570875853</v>
+        <v>5.0656512048991429</v>
       </c>
       <c r="P13" s="8">
         <v>44561</v>
@@ -1452,16 +1497,16 @@
         <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="6">
-        <v>8.7378569503422682E-2</v>
+        <v>9.4125038648328413E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>1.0841427830178489E-2</v>
+        <v>1.0903026851940867E-2</v>
       </c>
       <c r="H14" s="7">
         <v>1.6</v>
@@ -5234,37 +5279,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}">
-  <dimension ref="A2:J200"/>
+  <dimension ref="A2:R201"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="10" width="15.6328125" customWidth="1"/>
+    <col min="2" max="17" width="15.6328125" customWidth="1"/>
+    <col min="18" max="18" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="18">
+        <v>44902</v>
+      </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="18">
-        <v>44902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
@@ -5274,7 +5328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
@@ -5284,2183 +5338,3578 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="H6" s="5"/>
+      <c r="I6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="R7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="5" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="9">
+      <c r="G8" s="9">
         <v>22000</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="7"/>
       <c r="F9" s="9"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="7"/>
       <c r="F10" s="9"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="9"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="9"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="9"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
       <c r="F15" s="9"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
       <c r="F16" s="9"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="9"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="9"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
       <c r="F22" s="9"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
       <c r="F23" s="9"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="7"/>
       <c r="F24" s="9"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="7"/>
       <c r="F25" s="9"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="7"/>
       <c r="F27" s="9"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
       <c r="F28" s="9"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="7"/>
       <c r="F29" s="9"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="7"/>
       <c r="F30" s="9"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="7"/>
       <c r="F31" s="9"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="7"/>
       <c r="F32" s="9"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="7"/>
       <c r="F33" s="9"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="7"/>
       <c r="F34" s="9"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="7"/>
       <c r="F35" s="9"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
       <c r="F36" s="9"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="7"/>
       <c r="F38" s="9"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="7"/>
       <c r="F39" s="9"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="7"/>
       <c r="F40" s="9"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="7"/>
       <c r="F41" s="9"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="7"/>
       <c r="F42" s="9"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="7"/>
       <c r="F43" s="9"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="7"/>
       <c r="F44" s="9"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="7"/>
       <c r="F45" s="9"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="7"/>
       <c r="F46" s="9"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="7"/>
       <c r="F47" s="9"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="7"/>
       <c r="F49" s="9"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="7"/>
       <c r="F50" s="9"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="7"/>
       <c r="F51" s="9"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="7"/>
       <c r="F52" s="9"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="7"/>
       <c r="F53" s="9"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="7"/>
       <c r="F54" s="9"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="7"/>
       <c r="F55" s="9"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="7"/>
       <c r="F56" s="9"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="7"/>
       <c r="F57" s="9"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="7"/>
       <c r="F58" s="9"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="7"/>
       <c r="F59" s="9"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="7"/>
       <c r="F60" s="9"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
       <c r="F61" s="9"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="7"/>
       <c r="F62" s="9"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="7"/>
       <c r="F63" s="9"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="7"/>
       <c r="F64" s="9"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="7"/>
       <c r="F65" s="9"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
       <c r="F67" s="9"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7"/>
       <c r="F68" s="9"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
       <c r="F69" s="9"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="7"/>
       <c r="F70" s="9"/>
       <c r="G70" s="5"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="7"/>
       <c r="F71" s="9"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="7"/>
       <c r="F72" s="9"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="7"/>
       <c r="F73" s="9"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="7"/>
       <c r="F74" s="9"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="7"/>
       <c r="F75" s="9"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="7"/>
       <c r="F76" s="9"/>
       <c r="G76" s="5"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="7"/>
       <c r="F77" s="9"/>
       <c r="G77" s="5"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="7"/>
       <c r="F78" s="9"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="7"/>
       <c r="F79" s="9"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="7"/>
       <c r="F80" s="9"/>
       <c r="G80" s="5"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="7"/>
       <c r="F81" s="9"/>
       <c r="G81" s="5"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="7"/>
       <c r="F82" s="9"/>
       <c r="G82" s="5"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="7"/>
       <c r="F83" s="9"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="7"/>
       <c r="F84" s="9"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="7"/>
       <c r="F85" s="9"/>
       <c r="G85" s="5"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="7"/>
       <c r="F86" s="9"/>
       <c r="G86" s="5"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="7"/>
       <c r="F87" s="9"/>
       <c r="G87" s="5"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="7"/>
       <c r="F88" s="9"/>
       <c r="G88" s="5"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="7"/>
       <c r="F89" s="9"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="7"/>
       <c r="F90" s="9"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="7"/>
       <c r="F91" s="9"/>
       <c r="G91" s="5"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="7"/>
       <c r="F92" s="9"/>
       <c r="G92" s="5"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="7"/>
       <c r="F93" s="9"/>
       <c r="G93" s="5"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="7"/>
       <c r="F94" s="9"/>
       <c r="G94" s="5"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="7"/>
       <c r="F95" s="9"/>
       <c r="G95" s="5"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="7"/>
       <c r="F96" s="9"/>
       <c r="G96" s="5"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="9"/>
       <c r="G97" s="5"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="7"/>
       <c r="F98" s="9"/>
       <c r="G98" s="5"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="9"/>
       <c r="G99" s="5"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="7"/>
       <c r="F100" s="9"/>
       <c r="G100" s="5"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="7"/>
       <c r="F101" s="9"/>
       <c r="G101" s="5"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="7"/>
       <c r="F102" s="9"/>
       <c r="G102" s="5"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="7"/>
       <c r="F103" s="9"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="7"/>
       <c r="F104" s="9"/>
       <c r="G104" s="5"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="7"/>
       <c r="F105" s="9"/>
       <c r="G105" s="5"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="7"/>
       <c r="F106" s="9"/>
       <c r="G106" s="5"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="7"/>
       <c r="F107" s="9"/>
       <c r="G107" s="5"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="9"/>
       <c r="G108" s="5"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="7"/>
       <c r="F109" s="9"/>
       <c r="G109" s="5"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="7"/>
       <c r="F110" s="9"/>
       <c r="G110" s="5"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="7"/>
       <c r="F111" s="9"/>
       <c r="G111" s="5"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="7"/>
       <c r="F112" s="9"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="7"/>
       <c r="F113" s="9"/>
       <c r="G113" s="5"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="7"/>
       <c r="F114" s="9"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="7"/>
       <c r="F115" s="9"/>
       <c r="G115" s="5"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="7"/>
       <c r="F116" s="9"/>
       <c r="G116" s="5"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="7"/>
       <c r="F117" s="9"/>
       <c r="G117" s="5"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="7"/>
       <c r="F118" s="9"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="7"/>
       <c r="F119" s="9"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="7"/>
       <c r="F120" s="9"/>
       <c r="G120" s="5"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="9"/>
       <c r="G121" s="5"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="7"/>
       <c r="F122" s="9"/>
       <c r="G122" s="5"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="7"/>
       <c r="F123" s="9"/>
       <c r="G123" s="5"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="7"/>
       <c r="F124" s="9"/>
       <c r="G124" s="5"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="7"/>
       <c r="F125" s="9"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="7"/>
       <c r="F126" s="9"/>
       <c r="G126" s="5"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="7"/>
       <c r="F127" s="9"/>
       <c r="G127" s="5"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="7"/>
       <c r="F128" s="9"/>
       <c r="G128" s="5"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="7"/>
       <c r="F129" s="9"/>
       <c r="G129" s="5"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="7"/>
       <c r="F130" s="9"/>
       <c r="G130" s="5"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
       <c r="G131" s="5"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="7"/>
       <c r="F132" s="9"/>
       <c r="G132" s="5"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="7"/>
       <c r="F133" s="9"/>
       <c r="G133" s="5"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="7"/>
       <c r="F134" s="9"/>
       <c r="G134" s="5"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="7"/>
       <c r="F135" s="9"/>
       <c r="G135" s="5"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="7"/>
       <c r="F136" s="9"/>
       <c r="G136" s="5"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="7"/>
       <c r="F137" s="9"/>
       <c r="G137" s="5"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="9"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="7"/>
       <c r="F139" s="9"/>
       <c r="G139" s="5"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="7"/>
       <c r="F140" s="9"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="7"/>
       <c r="F141" s="9"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="7"/>
       <c r="F142" s="9"/>
       <c r="G142" s="5"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="7"/>
       <c r="F143" s="9"/>
       <c r="G143" s="5"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="7"/>
       <c r="F144" s="9"/>
       <c r="G144" s="5"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="7"/>
       <c r="F145" s="9"/>
       <c r="G145" s="5"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="7"/>
       <c r="F146" s="9"/>
       <c r="G146" s="5"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="7"/>
       <c r="F147" s="9"/>
       <c r="G147" s="5"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="7"/>
       <c r="F148" s="9"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="7"/>
       <c r="F149" s="9"/>
       <c r="G149" s="5"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="7"/>
       <c r="F150" s="9"/>
       <c r="G150" s="5"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="9"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="7"/>
       <c r="F151" s="9"/>
       <c r="G151" s="5"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="9"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="7"/>
       <c r="F152" s="9"/>
       <c r="G152" s="5"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="7"/>
       <c r="F153" s="9"/>
       <c r="G153" s="5"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="7"/>
       <c r="F154" s="9"/>
       <c r="G154" s="5"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="9"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="7"/>
       <c r="F155" s="9"/>
       <c r="G155" s="5"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="7"/>
       <c r="F156" s="9"/>
       <c r="G156" s="5"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="7"/>
       <c r="F157" s="9"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="7"/>
       <c r="F158" s="9"/>
       <c r="G158" s="5"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="9"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="7"/>
       <c r="F159" s="9"/>
       <c r="G159" s="5"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="9"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="7"/>
       <c r="F160" s="9"/>
       <c r="G160" s="5"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="9"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="7"/>
       <c r="F161" s="9"/>
       <c r="G161" s="5"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="9"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="7"/>
       <c r="F162" s="9"/>
       <c r="G162" s="5"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="7"/>
       <c r="F163" s="9"/>
       <c r="G163" s="5"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="9"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="7"/>
       <c r="F164" s="9"/>
       <c r="G164" s="5"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="9"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+    </row>
+    <row r="165" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="7"/>
       <c r="F165" s="9"/>
       <c r="G165" s="5"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="9"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+    </row>
+    <row r="166" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="7"/>
       <c r="F166" s="9"/>
       <c r="G166" s="5"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="9"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="7"/>
       <c r="F167" s="9"/>
       <c r="G167" s="5"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="9"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="7"/>
       <c r="F168" s="9"/>
       <c r="G168" s="5"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="9"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="7"/>
       <c r="F169" s="9"/>
       <c r="G169" s="5"/>
-      <c r="H169" s="9"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="9"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="7"/>
       <c r="F170" s="9"/>
       <c r="G170" s="5"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="9"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
+    </row>
+    <row r="171" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="7"/>
       <c r="F171" s="9"/>
       <c r="G171" s="5"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="9"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+    </row>
+    <row r="172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="7"/>
       <c r="F172" s="9"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="9"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="9"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+    </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="7"/>
       <c r="F173" s="9"/>
       <c r="G173" s="5"/>
-      <c r="H173" s="9"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="9"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="7"/>
       <c r="F174" s="9"/>
       <c r="G174" s="5"/>
-      <c r="H174" s="9"/>
-      <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="9"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="7"/>
       <c r="F175" s="9"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="9"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="5"/>
+      <c r="N175" s="5"/>
+      <c r="O175" s="9"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
+    </row>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="7"/>
       <c r="F176" s="9"/>
       <c r="G176" s="5"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="9"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="7"/>
       <c r="F177" s="9"/>
       <c r="G177" s="5"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5"/>
+      <c r="N177" s="5"/>
+      <c r="O177" s="9"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+    </row>
+    <row r="178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="7"/>
       <c r="F178" s="9"/>
       <c r="G178" s="5"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="5"/>
+      <c r="O178" s="9"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+    </row>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="7"/>
       <c r="F179" s="9"/>
       <c r="G179" s="5"/>
-      <c r="H179" s="9"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="9"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="7"/>
       <c r="F180" s="9"/>
       <c r="G180" s="5"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="9"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+    </row>
+    <row r="181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="7"/>
       <c r="F181" s="9"/>
       <c r="G181" s="5"/>
-      <c r="H181" s="9"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="9"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+    </row>
+    <row r="182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="7"/>
       <c r="F182" s="9"/>
       <c r="G182" s="5"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="9"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
+    </row>
+    <row r="183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="7"/>
       <c r="F183" s="9"/>
       <c r="G183" s="5"/>
-      <c r="H183" s="9"/>
-      <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5"/>
+      <c r="O183" s="9"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
+    </row>
+    <row r="184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="7"/>
       <c r="F184" s="9"/>
       <c r="G184" s="5"/>
-      <c r="H184" s="9"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+      <c r="O184" s="9"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+    </row>
+    <row r="185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="7"/>
       <c r="F185" s="9"/>
       <c r="G185" s="5"/>
-      <c r="H185" s="9"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5"/>
+      <c r="O185" s="9"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+    </row>
+    <row r="186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="7"/>
       <c r="F186" s="9"/>
       <c r="G186" s="5"/>
-      <c r="H186" s="9"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
+      <c r="O186" s="9"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+    </row>
+    <row r="187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="7"/>
       <c r="F187" s="9"/>
       <c r="G187" s="5"/>
-      <c r="H187" s="9"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5"/>
+      <c r="M187" s="5"/>
+      <c r="N187" s="5"/>
+      <c r="O187" s="9"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+    </row>
+    <row r="188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="7"/>
       <c r="F188" s="9"/>
       <c r="G188" s="5"/>
-      <c r="H188" s="9"/>
-      <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="5"/>
+      <c r="N188" s="5"/>
+      <c r="O188" s="9"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+    </row>
+    <row r="189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="7"/>
       <c r="F189" s="9"/>
       <c r="G189" s="5"/>
-      <c r="H189" s="9"/>
-      <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="9"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+    </row>
+    <row r="190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="7"/>
       <c r="F190" s="9"/>
       <c r="G190" s="5"/>
-      <c r="H190" s="9"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+      <c r="O190" s="9"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
+    </row>
+    <row r="191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="7"/>
       <c r="F191" s="9"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="9"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="9"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+    </row>
+    <row r="192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="7"/>
       <c r="F192" s="9"/>
       <c r="G192" s="5"/>
-      <c r="H192" s="9"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+      <c r="O192" s="9"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="7"/>
       <c r="F193" s="9"/>
       <c r="G193" s="5"/>
-      <c r="H193" s="9"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
+      <c r="M193" s="5"/>
+      <c r="N193" s="5"/>
+      <c r="O193" s="9"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+    </row>
+    <row r="194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="7"/>
       <c r="F194" s="9"/>
       <c r="G194" s="5"/>
-      <c r="H194" s="9"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
+      <c r="O194" s="9"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="7"/>
       <c r="F195" s="9"/>
       <c r="G195" s="5"/>
-      <c r="H195" s="9"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="5"/>
+      <c r="O195" s="9"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="7"/>
       <c r="F196" s="9"/>
       <c r="G196" s="5"/>
-      <c r="H196" s="9"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="9"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="7"/>
       <c r="F197" s="9"/>
       <c r="G197" s="5"/>
-      <c r="H197" s="9"/>
-      <c r="I197" s="6"/>
-      <c r="J197" s="6"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="9"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="7"/>
       <c r="F198" s="9"/>
       <c r="G198" s="5"/>
-      <c r="H198" s="9"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+      <c r="M198" s="5"/>
+      <c r="N198" s="5"/>
+      <c r="O198" s="9"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+    </row>
+    <row r="199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="7"/>
       <c r="F199" s="9"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="9"/>
-      <c r="I199" s="6"/>
-      <c r="J199" s="6"/>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
+      <c r="M199" s="5"/>
+      <c r="N199" s="5"/>
+      <c r="O199" s="9"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="7"/>
       <c r="F200" s="9"/>
       <c r="G200" s="5"/>
-      <c r="H200" s="9"/>
-      <c r="I200" s="6"/>
-      <c r="J200" s="6"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5"/>
+      <c r="M200" s="5"/>
+      <c r="N200" s="5"/>
+      <c r="O200" s="9"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+    </row>
+    <row r="201" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5"/>
+      <c r="M201" s="5"/>
+      <c r="N201" s="5"/>
+      <c r="O201" s="9"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CCCDBA-6A07-4B15-A2E0-D39F86F89791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB54EC40-8D7C-4750-848B-0FEBF55FD6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>Ideal Price</t>
-  </si>
-  <si>
-    <t>0806.HK</t>
-  </si>
-  <si>
-    <t>VALUE PARTNERS</t>
   </si>
   <si>
     <t>HKG</t>
@@ -238,8 +232,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0.00&quot;x&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -466,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -540,6 +535,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -870,7 +868,7 @@
   <dimension ref="A2:S200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,13 +909,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D3" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="17"/>
       <c r="H3" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -931,7 +929,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -946,57 +944,57 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
         <v>11.7</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6">
         <v>-3.3851819401207101E-2</v>
@@ -1035,30 +1033,30 @@
         <v>44985</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7">
-        <v>9.86</v>
+        <v>9.9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="6">
-        <v>1.0063221658064808E-2</v>
+        <v>5.5781177321735098E-3</v>
       </c>
       <c r="G6" s="6">
-        <v>5.6795131845841791E-2</v>
+        <v>5.6565656565656569E-2</v>
       </c>
       <c r="H6" s="7">
         <v>9.6</v>
@@ -1091,30 +1089,30 @@
         <v>45169</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>-0.39546334213808099</v>
+        <v>-0.3922968852488139</v>
       </c>
       <c r="G7" s="6">
-        <v>8.2502475810193626E-2</v>
+        <v>8.2873273454284385E-2</v>
       </c>
       <c r="H7" s="7">
         <v>28.629807824025253</v>
@@ -1147,24 +1145,24 @@
         <v>45077</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7">
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6">
         <v>4.5341722583206318E-2</v>
@@ -1203,24 +1201,24 @@
         <v>45169</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7">
         <v>19.68</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6">
         <v>-0.15347218472029803</v>
@@ -1259,30 +1257,30 @@
         <v>44985</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6">
-        <v>-0.3296747221759303</v>
+        <v>-0.33400886643383032</v>
       </c>
       <c r="G10" s="6">
-        <v>6.8994413407821226E-2</v>
+        <v>6.8611111111111109E-2</v>
       </c>
       <c r="H10" s="7">
         <v>1.1000000000000001</v>
@@ -1294,19 +1292,19 @@
         <v>1.9</v>
       </c>
       <c r="K10" s="7">
-        <v>1.1288983483579402</v>
+        <v>1.1288001414719611</v>
       </c>
       <c r="L10" s="7">
-        <v>1.4845105671604442</v>
+        <v>1.4844123602744648</v>
       </c>
       <c r="M10" s="7">
-        <v>1.3788822473050848</v>
+        <v>1.3787840404191054</v>
       </c>
       <c r="N10" s="7">
-        <v>1.2535293157318952</v>
+        <v>1.2534400367446412</v>
       </c>
       <c r="O10" s="7">
-        <v>1.1031057978440679</v>
+        <v>1.1030272323352843</v>
       </c>
       <c r="P10" s="8">
         <v>44561</v>
@@ -1315,27 +1313,27 @@
         <v>44985</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
-        <v>17.579999999999998</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6">
-        <v>1.9157017838506402E-2</v>
+        <v>2.8141076467943588E-2</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1371,24 +1369,24 @@
         <v>45169</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
         <v>4.18</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" s="6">
         <v>-0.25429974359662866</v>
@@ -1427,30 +1425,30 @@
         <v>45077</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>5.8</v>
+        <v>5.82</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" s="6">
-        <v>-8.2648265303570112E-3</v>
+        <v>-1.2246199968588029E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>5.3507186128728519E-2</v>
+        <v>5.3323312636877215E-2</v>
       </c>
       <c r="H13" s="7">
         <v>4.8</v>
@@ -1459,22 +1457,22 @@
         <v>8000</v>
       </c>
       <c r="J13" s="9">
-        <v>7.236948366435576</v>
+        <v>7.2358788544826851</v>
       </c>
       <c r="K13" s="7">
-        <v>3.0129459143884199</v>
+        <v>3.0116090244473082</v>
       </c>
       <c r="L13" s="7">
-        <v>8.464077645246542</v>
+        <v>8.4627407553054308</v>
       </c>
       <c r="M13" s="7">
-        <v>6.3320640061239288</v>
+        <v>6.3307271161828176</v>
       </c>
       <c r="N13" s="7">
-        <v>5.7564218237490259</v>
+        <v>5.7552064692571063</v>
       </c>
       <c r="O13" s="7">
-        <v>5.0656512048991429</v>
+        <v>5.0645816929462537</v>
       </c>
       <c r="P13" s="8">
         <v>44561</v>
@@ -1483,24 +1481,24 @@
         <v>44985</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
         <v>1.76</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" s="6">
         <v>9.4125038648328413E-2</v>
@@ -1539,10 +1537,10 @@
         <v>44985</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -5281,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}">
   <dimension ref="A2:R201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5295,15 +5293,15 @@
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="18">
-        <v>44902</v>
+        <v>45001</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -5320,32 +5318,32 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
       <c r="F3" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="26"/>
       <c r="F4" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="H6" s="5"/>
       <c r="I6" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
@@ -5353,3540 +5351,4023 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="Q7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="E8" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="G8" s="9">
-        <v>22000</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+        <v>3000</v>
+      </c>
+      <c r="H8" s="7">
+        <v>13.597424398249455</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3.226946213872134E-3</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0.52086091557078662</v>
+      </c>
+      <c r="K8" s="29">
+        <v>176.1425660012878</v>
+      </c>
+      <c r="L8" s="29">
+        <v>7.6757068959827519</v>
+      </c>
+      <c r="M8" s="29">
+        <v>85.582900770502533</v>
+      </c>
+      <c r="N8" s="29">
+        <v>4.633566600818809</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10.31</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="7">
+        <v>12.347246296726411</v>
+      </c>
+      <c r="I9" s="6">
+        <v>4.2300888050327577E-2</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0.69894965458981917</v>
+      </c>
+      <c r="K9" s="29">
+        <v>11.003427197705268</v>
+      </c>
+      <c r="L9" s="29">
+        <v>3.4515437078973985</v>
+      </c>
+      <c r="M9" s="29">
+        <v>6.5599984754845266</v>
+      </c>
+      <c r="N9" s="29">
+        <v>3.5134488326629425</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44.5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>28.63</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H10" s="7">
+        <v>44.056787530908295</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.46565276828434721</v>
+      </c>
+      <c r="J10" s="29">
+        <v>7.040365350618738E-2</v>
+      </c>
+      <c r="K10" s="29">
+        <v>0.95295202952029523</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0.68273345079285175</v>
+      </c>
+      <c r="M10" s="29">
+        <v>0.37908256880733943</v>
+      </c>
+      <c r="N10" s="29">
+        <v>0.56732148425319617</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H11" s="7">
+        <v>11.828743634431557</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2.0851820866211162E-3</v>
+      </c>
+      <c r="J11" s="29">
+        <v>0.58688601761872761</v>
+      </c>
+      <c r="K11" s="29">
+        <v>361.00546590317543</v>
+      </c>
+      <c r="L11" s="29">
+        <v>2.2443929012156292</v>
+      </c>
+      <c r="M11" s="29">
+        <v>250.75915933694179</v>
+      </c>
+      <c r="N11" s="29">
+        <v>2.3281173213335578</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5">
+        <v>19.68</v>
+      </c>
+      <c r="E12" s="7">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H12" s="7">
+        <v>19</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5.3736189808646001E-2</v>
+      </c>
+      <c r="J12" s="29">
+        <v>0.15976286472137324</v>
+      </c>
+      <c r="K12" s="29">
+        <v>5.3857813050966081</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0.90963868119173141</v>
+      </c>
+      <c r="M12" s="29">
+        <v>2.990842774169193</v>
+      </c>
+      <c r="N12" s="29">
+        <v>0.35605852351263845</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.68</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
+        <v>16000</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.24675666120114281</v>
+      </c>
+      <c r="J13" s="29">
+        <v>0.71111352484497148</v>
+      </c>
+      <c r="K13" s="29">
+        <v>6.8975825593510285</v>
+      </c>
+      <c r="L13" s="29">
+        <v>3.0135085780337438</v>
+      </c>
+      <c r="M13" s="29">
+        <v>2.9855261680325449</v>
+      </c>
+      <c r="N13" s="29">
+        <v>2.4805745781286417</v>
+      </c>
       <c r="O13" s="9"/>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="E14" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="7">
+        <v>32.903732767036438</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.45401790581878537</v>
+      </c>
+      <c r="J14" s="29">
+        <v>5.3831571353302042E-2</v>
+      </c>
+      <c r="K14" s="29">
+        <v>5.7976178289645226</v>
+      </c>
+      <c r="L14" s="29">
+        <v>1.763191721937688</v>
+      </c>
+      <c r="M14" s="29">
+        <v>0.92594746196328936</v>
+      </c>
+      <c r="N14" s="29">
+        <v>1.1494100885179757</v>
+      </c>
       <c r="O14" s="9"/>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4.18</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5.61</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5.6205259760239548</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.1698771078411476</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
+        <v>2.9769457748721253</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0.57804911534654391</v>
+      </c>
+      <c r="M15" s="29">
+        <v>2.4260977945497415</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0.59946117374446684</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5.82</v>
+      </c>
+      <c r="E16" s="7">
+        <v>11.08</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7.2358788544826851</v>
+      </c>
+      <c r="I16" s="6">
+        <v>5.4080520158737544E-2</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0.52599493023131072</v>
+      </c>
+      <c r="K16" s="29">
+        <v>33.882537710882545</v>
+      </c>
+      <c r="L16" s="29">
+        <v>2.6833569434046844</v>
+      </c>
+      <c r="M16" s="29">
+        <v>13.913697527489473</v>
+      </c>
+      <c r="N16" s="29">
+        <v>2.0088349318914984</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="Q16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.78</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5">
+        <v>11000</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2.0514668160851408</v>
+      </c>
+      <c r="I17" s="6">
+        <v>7.0180044128252995E-3</v>
+      </c>
+      <c r="J17" s="29">
+        <v>0.78732195013342432</v>
+      </c>
+      <c r="K17" s="29">
+        <v>322.82687224669604</v>
+      </c>
+      <c r="L17" s="29">
+        <v>5.6698381536331262</v>
+      </c>
+      <c r="M17" s="29">
+        <v>111.73261841837773</v>
+      </c>
+      <c r="N17" s="29">
+        <v>5.5613492499085257</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
       <c r="O18" s="9"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
       <c r="O19" s="9"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
       <c r="O20" s="9"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="9"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
       <c r="O21" s="9"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
       <c r="F22" s="9"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
       <c r="O22" s="9"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
       <c r="F23" s="9"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
       <c r="O23" s="9"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="7"/>
       <c r="F24" s="9"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
       <c r="O24" s="9"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="7"/>
       <c r="F25" s="9"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
       <c r="O25" s="9"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
       <c r="O26" s="9"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="7"/>
       <c r="F27" s="9"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
       <c r="O27" s="9"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
       <c r="F28" s="9"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
       <c r="O28" s="9"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="7"/>
       <c r="F29" s="9"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
       <c r="O29" s="9"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="7"/>
       <c r="F30" s="9"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
       <c r="O30" s="9"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="7"/>
       <c r="F31" s="9"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
       <c r="O31" s="9"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="7"/>
       <c r="F32" s="9"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
       <c r="O32" s="9"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="7"/>
       <c r="F33" s="9"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
       <c r="O33" s="9"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="7"/>
       <c r="F34" s="9"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
       <c r="O34" s="9"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="7"/>
       <c r="F35" s="9"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
       <c r="O35" s="9"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
       <c r="F36" s="9"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
       <c r="O36" s="9"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
       <c r="O37" s="9"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="7"/>
       <c r="F38" s="9"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
       <c r="O38" s="9"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="7"/>
       <c r="F39" s="9"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
       <c r="O39" s="9"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="7"/>
       <c r="F40" s="9"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
       <c r="O40" s="9"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="7"/>
       <c r="F41" s="9"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
       <c r="O41" s="9"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="7"/>
       <c r="F42" s="9"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
       <c r="O42" s="9"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="7"/>
       <c r="F43" s="9"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
       <c r="O43" s="9"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="7"/>
       <c r="F44" s="9"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
       <c r="O44" s="9"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="7"/>
       <c r="F45" s="9"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
       <c r="O45" s="9"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="7"/>
       <c r="F46" s="9"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
       <c r="O46" s="9"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="7"/>
       <c r="F47" s="9"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
       <c r="O47" s="9"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
       <c r="O48" s="9"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="7"/>
       <c r="F49" s="9"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
       <c r="O49" s="9"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="7"/>
       <c r="F50" s="9"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
       <c r="O50" s="9"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="7"/>
       <c r="F51" s="9"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
       <c r="O51" s="9"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R51" s="5"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="7"/>
       <c r="F52" s="9"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
       <c r="O52" s="9"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="7"/>
       <c r="F53" s="9"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
       <c r="O53" s="9"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="7"/>
       <c r="F54" s="9"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
       <c r="O54" s="9"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R54" s="5"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="7"/>
       <c r="F55" s="9"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
       <c r="O55" s="9"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R55" s="5"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="7"/>
       <c r="F56" s="9"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
       <c r="O56" s="9"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R56" s="5"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="7"/>
       <c r="F57" s="9"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
       <c r="O57" s="9"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R57" s="5"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="7"/>
       <c r="F58" s="9"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
       <c r="O58" s="9"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R58" s="5"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="7"/>
       <c r="F59" s="9"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
       <c r="O59" s="9"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R59" s="5"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="7"/>
       <c r="F60" s="9"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
       <c r="O60" s="9"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R60" s="5"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
       <c r="F61" s="9"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
       <c r="O61" s="9"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R61" s="5"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="7"/>
       <c r="F62" s="9"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
       <c r="O62" s="9"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R62" s="5"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="7"/>
       <c r="F63" s="9"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
       <c r="O63" s="9"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R63" s="5"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="7"/>
       <c r="F64" s="9"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
       <c r="O64" s="9"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R64" s="5"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="7"/>
       <c r="F65" s="9"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
       <c r="O65" s="9"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R65" s="5"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
       <c r="O66" s="9"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R66" s="5"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
       <c r="F67" s="9"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
       <c r="O67" s="9"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R67" s="5"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7"/>
       <c r="F68" s="9"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
       <c r="O68" s="9"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R68" s="5"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
       <c r="F69" s="9"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
       <c r="O69" s="9"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R69" s="5"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="7"/>
       <c r="F70" s="9"/>
       <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
       <c r="O70" s="9"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R70" s="5"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="7"/>
       <c r="F71" s="9"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
       <c r="O71" s="9"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R71" s="5"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="7"/>
       <c r="F72" s="9"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
       <c r="O72" s="9"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R72" s="5"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="7"/>
       <c r="F73" s="9"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
       <c r="O73" s="9"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R73" s="5"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="7"/>
       <c r="F74" s="9"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
       <c r="O74" s="9"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R74" s="5"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="7"/>
       <c r="F75" s="9"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
       <c r="O75" s="9"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R75" s="5"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="7"/>
       <c r="F76" s="9"/>
       <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
       <c r="O76" s="9"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R76" s="5"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="7"/>
       <c r="F77" s="9"/>
       <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
       <c r="O77" s="9"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R77" s="5"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="7"/>
       <c r="F78" s="9"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
       <c r="O78" s="9"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R78" s="5"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="7"/>
       <c r="F79" s="9"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
       <c r="O79" s="9"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R79" s="5"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="7"/>
       <c r="F80" s="9"/>
       <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
       <c r="O80" s="9"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R80" s="5"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="7"/>
       <c r="F81" s="9"/>
       <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
       <c r="O81" s="9"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R81" s="5"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="7"/>
       <c r="F82" s="9"/>
       <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
       <c r="O82" s="9"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R82" s="5"/>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="7"/>
       <c r="F83" s="9"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
       <c r="O83" s="9"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R83" s="5"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="7"/>
       <c r="F84" s="9"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
       <c r="O84" s="9"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R84" s="5"/>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="7"/>
       <c r="F85" s="9"/>
       <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
       <c r="O85" s="9"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R85" s="5"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="7"/>
       <c r="F86" s="9"/>
       <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
       <c r="O86" s="9"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R86" s="5"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="7"/>
       <c r="F87" s="9"/>
       <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
       <c r="O87" s="9"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R87" s="5"/>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="7"/>
       <c r="F88" s="9"/>
       <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
       <c r="O88" s="9"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R88" s="5"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="7"/>
       <c r="F89" s="9"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
       <c r="O89" s="9"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R89" s="5"/>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="7"/>
       <c r="F90" s="9"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
       <c r="O90" s="9"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R90" s="5"/>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="7"/>
       <c r="F91" s="9"/>
       <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
       <c r="O91" s="9"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R91" s="5"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="7"/>
       <c r="F92" s="9"/>
       <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
       <c r="O92" s="9"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R92" s="5"/>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="7"/>
       <c r="F93" s="9"/>
       <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
       <c r="O93" s="9"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R93" s="5"/>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="7"/>
       <c r="F94" s="9"/>
       <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
       <c r="O94" s="9"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R94" s="5"/>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="7"/>
       <c r="F95" s="9"/>
       <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
       <c r="O95" s="9"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R95" s="5"/>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="7"/>
       <c r="F96" s="9"/>
       <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
       <c r="O96" s="9"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R96" s="5"/>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="9"/>
       <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
       <c r="O97" s="9"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R97" s="5"/>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="7"/>
       <c r="F98" s="9"/>
       <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
       <c r="O98" s="9"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R98" s="5"/>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="9"/>
       <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
       <c r="O99" s="9"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R99" s="5"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="7"/>
       <c r="F100" s="9"/>
       <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
       <c r="O100" s="9"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R100" s="5"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="7"/>
       <c r="F101" s="9"/>
       <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
       <c r="O101" s="9"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R101" s="5"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="7"/>
       <c r="F102" s="9"/>
       <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="29"/>
       <c r="O102" s="9"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R102" s="5"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="7"/>
       <c r="F103" s="9"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="29"/>
       <c r="O103" s="9"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R103" s="5"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="7"/>
       <c r="F104" s="9"/>
       <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
       <c r="O104" s="9"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R104" s="5"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="7"/>
       <c r="F105" s="9"/>
       <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
       <c r="O105" s="9"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R105" s="5"/>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="7"/>
       <c r="F106" s="9"/>
       <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
       <c r="O106" s="9"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R106" s="5"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="7"/>
       <c r="F107" s="9"/>
       <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
       <c r="O107" s="9"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R107" s="5"/>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="9"/>
       <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
       <c r="O108" s="9"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R108" s="5"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="7"/>
       <c r="F109" s="9"/>
       <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
       <c r="O109" s="9"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R109" s="5"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="7"/>
       <c r="F110" s="9"/>
       <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
       <c r="O110" s="9"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R110" s="5"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="7"/>
       <c r="F111" s="9"/>
       <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
       <c r="O111" s="9"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R111" s="5"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="7"/>
       <c r="F112" s="9"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
       <c r="O112" s="9"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R112" s="5"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="7"/>
       <c r="F113" s="9"/>
       <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
       <c r="O113" s="9"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R113" s="5"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="7"/>
       <c r="F114" s="9"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29"/>
       <c r="O114" s="9"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R114" s="5"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="7"/>
       <c r="F115" s="9"/>
       <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="29"/>
       <c r="O115" s="9"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R115" s="5"/>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="7"/>
       <c r="F116" s="9"/>
       <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="29"/>
       <c r="O116" s="9"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R116" s="5"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="7"/>
       <c r="F117" s="9"/>
       <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="29"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="29"/>
+      <c r="N117" s="29"/>
       <c r="O117" s="9"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R117" s="5"/>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="7"/>
       <c r="F118" s="9"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="29"/>
+      <c r="N118" s="29"/>
       <c r="O118" s="9"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R118" s="5"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="7"/>
       <c r="F119" s="9"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+      <c r="N119" s="29"/>
       <c r="O119" s="9"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R119" s="5"/>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="7"/>
       <c r="F120" s="9"/>
       <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
       <c r="O120" s="9"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R120" s="5"/>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="9"/>
       <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29"/>
+      <c r="M121" s="29"/>
+      <c r="N121" s="29"/>
       <c r="O121" s="9"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R121" s="5"/>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="7"/>
       <c r="F122" s="9"/>
       <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="29"/>
       <c r="O122" s="9"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R122" s="5"/>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="7"/>
       <c r="F123" s="9"/>
       <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="29"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="29"/>
+      <c r="M123" s="29"/>
+      <c r="N123" s="29"/>
       <c r="O123" s="9"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R123" s="5"/>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="7"/>
       <c r="F124" s="9"/>
       <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="29"/>
+      <c r="N124" s="29"/>
       <c r="O124" s="9"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R124" s="5"/>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="7"/>
       <c r="F125" s="9"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="29"/>
+      <c r="M125" s="29"/>
+      <c r="N125" s="29"/>
       <c r="O125" s="9"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R125" s="5"/>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="7"/>
       <c r="F126" s="9"/>
       <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="29"/>
+      <c r="N126" s="29"/>
       <c r="O126" s="9"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R126" s="5"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="7"/>
       <c r="F127" s="9"/>
       <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="29"/>
       <c r="O127" s="9"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R127" s="5"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="7"/>
       <c r="F128" s="9"/>
       <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="29"/>
+      <c r="M128" s="29"/>
+      <c r="N128" s="29"/>
       <c r="O128" s="9"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R128" s="5"/>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="7"/>
       <c r="F129" s="9"/>
       <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="29"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="29"/>
       <c r="O129" s="9"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R129" s="5"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="7"/>
       <c r="F130" s="9"/>
       <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="29"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="29"/>
       <c r="O130" s="9"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R130" s="5"/>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
       <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="29"/>
+      <c r="M131" s="29"/>
+      <c r="N131" s="29"/>
       <c r="O131" s="9"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R131" s="5"/>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="7"/>
       <c r="F132" s="9"/>
       <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="29"/>
       <c r="O132" s="9"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R132" s="5"/>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="7"/>
       <c r="F133" s="9"/>
       <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="29"/>
+      <c r="L133" s="29"/>
+      <c r="M133" s="29"/>
+      <c r="N133" s="29"/>
       <c r="O133" s="9"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
-    </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R133" s="5"/>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="7"/>
       <c r="F134" s="9"/>
       <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="29"/>
+      <c r="M134" s="29"/>
+      <c r="N134" s="29"/>
       <c r="O134" s="9"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
-    </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R134" s="5"/>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="7"/>
       <c r="F135" s="9"/>
       <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="29"/>
+      <c r="L135" s="29"/>
+      <c r="M135" s="29"/>
+      <c r="N135" s="29"/>
       <c r="O135" s="9"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R135" s="5"/>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="7"/>
       <c r="F136" s="9"/>
       <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="29"/>
+      <c r="M136" s="29"/>
+      <c r="N136" s="29"/>
       <c r="O136" s="9"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
-    </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R136" s="5"/>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="7"/>
       <c r="F137" s="9"/>
       <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="29"/>
+      <c r="L137" s="29"/>
+      <c r="M137" s="29"/>
+      <c r="N137" s="29"/>
       <c r="O137" s="9"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
-    </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R137" s="5"/>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="9"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29"/>
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
       <c r="O138" s="9"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
-    </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R138" s="5"/>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="7"/>
       <c r="F139" s="9"/>
       <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="29"/>
+      <c r="K139" s="29"/>
+      <c r="L139" s="29"/>
+      <c r="M139" s="29"/>
+      <c r="N139" s="29"/>
       <c r="O139" s="9"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
-    </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R139" s="5"/>
+    </row>
+    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="7"/>
       <c r="F140" s="9"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="29"/>
+      <c r="K140" s="29"/>
+      <c r="L140" s="29"/>
+      <c r="M140" s="29"/>
+      <c r="N140" s="29"/>
       <c r="O140" s="9"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
-    </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R140" s="5"/>
+    </row>
+    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="7"/>
       <c r="F141" s="9"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="29"/>
+      <c r="L141" s="29"/>
+      <c r="M141" s="29"/>
+      <c r="N141" s="29"/>
       <c r="O141" s="9"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
-    </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R141" s="5"/>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="7"/>
       <c r="F142" s="9"/>
       <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="29"/>
+      <c r="M142" s="29"/>
+      <c r="N142" s="29"/>
       <c r="O142" s="9"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
-    </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R142" s="5"/>
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="7"/>
       <c r="F143" s="9"/>
       <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="29"/>
+      <c r="M143" s="29"/>
+      <c r="N143" s="29"/>
       <c r="O143" s="9"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
-    </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R143" s="5"/>
+    </row>
+    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="7"/>
       <c r="F144" s="9"/>
       <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="29"/>
+      <c r="M144" s="29"/>
+      <c r="N144" s="29"/>
       <c r="O144" s="9"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
-    </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R144" s="5"/>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="7"/>
       <c r="F145" s="9"/>
       <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="29"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="29"/>
+      <c r="M145" s="29"/>
+      <c r="N145" s="29"/>
       <c r="O145" s="9"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
-    </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R145" s="5"/>
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="7"/>
       <c r="F146" s="9"/>
       <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
+      <c r="M146" s="29"/>
+      <c r="N146" s="29"/>
       <c r="O146" s="9"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
-    </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R146" s="5"/>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="7"/>
       <c r="F147" s="9"/>
       <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="29"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="29"/>
+      <c r="M147" s="29"/>
+      <c r="N147" s="29"/>
       <c r="O147" s="9"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
-    </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R147" s="5"/>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="7"/>
       <c r="F148" s="9"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="29"/>
+      <c r="M148" s="29"/>
+      <c r="N148" s="29"/>
       <c r="O148" s="9"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
-    </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R148" s="5"/>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="7"/>
       <c r="F149" s="9"/>
       <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="29"/>
+      <c r="K149" s="29"/>
+      <c r="L149" s="29"/>
+      <c r="M149" s="29"/>
+      <c r="N149" s="29"/>
       <c r="O149" s="9"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
-    </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R149" s="5"/>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="7"/>
       <c r="F150" s="9"/>
       <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="29"/>
+      <c r="M150" s="29"/>
+      <c r="N150" s="29"/>
       <c r="O150" s="9"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
-    </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R150" s="5"/>
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="7"/>
       <c r="F151" s="9"/>
       <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="29"/>
+      <c r="K151" s="29"/>
+      <c r="L151" s="29"/>
+      <c r="M151" s="29"/>
+      <c r="N151" s="29"/>
       <c r="O151" s="9"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
-    </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R151" s="5"/>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="7"/>
       <c r="F152" s="9"/>
       <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="29"/>
+      <c r="K152" s="29"/>
+      <c r="L152" s="29"/>
+      <c r="M152" s="29"/>
+      <c r="N152" s="29"/>
       <c r="O152" s="9"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
-    </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R152" s="5"/>
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="7"/>
       <c r="F153" s="9"/>
       <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
+      <c r="M153" s="29"/>
+      <c r="N153" s="29"/>
       <c r="O153" s="9"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
-    </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R153" s="5"/>
+    </row>
+    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="7"/>
       <c r="F154" s="9"/>
       <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="29"/>
+      <c r="M154" s="29"/>
+      <c r="N154" s="29"/>
       <c r="O154" s="9"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
-    </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R154" s="5"/>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="7"/>
       <c r="F155" s="9"/>
       <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
+      <c r="M155" s="29"/>
+      <c r="N155" s="29"/>
       <c r="O155" s="9"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
-    </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R155" s="5"/>
+    </row>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="7"/>
       <c r="F156" s="9"/>
       <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="29"/>
+      <c r="M156" s="29"/>
+      <c r="N156" s="29"/>
       <c r="O156" s="9"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
-    </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R156" s="5"/>
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="7"/>
       <c r="F157" s="9"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="29"/>
+      <c r="L157" s="29"/>
+      <c r="M157" s="29"/>
+      <c r="N157" s="29"/>
       <c r="O157" s="9"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
-    </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R157" s="5"/>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="7"/>
       <c r="F158" s="9"/>
       <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-      <c r="K158" s="5"/>
-      <c r="L158" s="5"/>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="29"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="29"/>
+      <c r="M158" s="29"/>
+      <c r="N158" s="29"/>
       <c r="O158" s="9"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
-    </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R158" s="5"/>
+    </row>
+    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="7"/>
       <c r="F159" s="9"/>
       <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="5"/>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="29"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="29"/>
+      <c r="M159" s="29"/>
+      <c r="N159" s="29"/>
       <c r="O159" s="9"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
-    </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R159" s="5"/>
+    </row>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="7"/>
       <c r="F160" s="9"/>
       <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="5"/>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="29"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
+      <c r="M160" s="29"/>
+      <c r="N160" s="29"/>
       <c r="O160" s="9"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
-    </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R160" s="5"/>
+    </row>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="7"/>
       <c r="F161" s="9"/>
       <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="29"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="29"/>
       <c r="O161" s="9"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
-    </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R161" s="5"/>
+    </row>
+    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="7"/>
       <c r="F162" s="9"/>
       <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="29"/>
+      <c r="K162" s="29"/>
+      <c r="L162" s="29"/>
+      <c r="M162" s="29"/>
+      <c r="N162" s="29"/>
       <c r="O162" s="9"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
-    </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R162" s="5"/>
+    </row>
+    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="7"/>
       <c r="F163" s="9"/>
       <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
-      <c r="K163" s="5"/>
-      <c r="L163" s="5"/>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="29"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="29"/>
+      <c r="M163" s="29"/>
+      <c r="N163" s="29"/>
       <c r="O163" s="9"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
-    </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R163" s="5"/>
+    </row>
+    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="7"/>
       <c r="F164" s="9"/>
       <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-      <c r="K164" s="5"/>
-      <c r="L164" s="5"/>
-      <c r="M164" s="5"/>
-      <c r="N164" s="5"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="29"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="29"/>
+      <c r="M164" s="29"/>
+      <c r="N164" s="29"/>
       <c r="O164" s="9"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
-    </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R164" s="5"/>
+    </row>
+    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="7"/>
       <c r="F165" s="9"/>
       <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-      <c r="K165" s="5"/>
-      <c r="L165" s="5"/>
-      <c r="M165" s="5"/>
-      <c r="N165" s="5"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="29"/>
+      <c r="K165" s="29"/>
+      <c r="L165" s="29"/>
+      <c r="M165" s="29"/>
+      <c r="N165" s="29"/>
       <c r="O165" s="9"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
-    </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R165" s="5"/>
+    </row>
+    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="7"/>
       <c r="F166" s="9"/>
       <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-      <c r="K166" s="5"/>
-      <c r="L166" s="5"/>
-      <c r="M166" s="5"/>
-      <c r="N166" s="5"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="29"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="29"/>
+      <c r="M166" s="29"/>
+      <c r="N166" s="29"/>
       <c r="O166" s="9"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
-    </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R166" s="5"/>
+    </row>
+    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="7"/>
       <c r="F167" s="9"/>
       <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
-      <c r="L167" s="5"/>
-      <c r="M167" s="5"/>
-      <c r="N167" s="5"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="29"/>
+      <c r="K167" s="29"/>
+      <c r="L167" s="29"/>
+      <c r="M167" s="29"/>
+      <c r="N167" s="29"/>
       <c r="O167" s="9"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
-    </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R167" s="5"/>
+    </row>
+    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="7"/>
       <c r="F168" s="9"/>
       <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
-      <c r="K168" s="5"/>
-      <c r="L168" s="5"/>
-      <c r="M168" s="5"/>
-      <c r="N168" s="5"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="29"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="29"/>
+      <c r="M168" s="29"/>
+      <c r="N168" s="29"/>
       <c r="O168" s="9"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
-    </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R168" s="5"/>
+    </row>
+    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="7"/>
       <c r="F169" s="9"/>
       <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5"/>
-      <c r="K169" s="5"/>
-      <c r="L169" s="5"/>
-      <c r="M169" s="5"/>
-      <c r="N169" s="5"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="29"/>
+      <c r="K169" s="29"/>
+      <c r="L169" s="29"/>
+      <c r="M169" s="29"/>
+      <c r="N169" s="29"/>
       <c r="O169" s="9"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
-    </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R169" s="5"/>
+    </row>
+    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="7"/>
       <c r="F170" s="9"/>
       <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
-      <c r="L170" s="5"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="5"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="29"/>
+      <c r="K170" s="29"/>
+      <c r="L170" s="29"/>
+      <c r="M170" s="29"/>
+      <c r="N170" s="29"/>
       <c r="O170" s="9"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
-    </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R170" s="5"/>
+    </row>
+    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="7"/>
       <c r="F171" s="9"/>
       <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
-      <c r="K171" s="5"/>
-      <c r="L171" s="5"/>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="29"/>
+      <c r="K171" s="29"/>
+      <c r="L171" s="29"/>
+      <c r="M171" s="29"/>
+      <c r="N171" s="29"/>
       <c r="O171" s="9"/>
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
-    </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R171" s="5"/>
+    </row>
+    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="7"/>
       <c r="F172" s="9"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5"/>
-      <c r="K172" s="5"/>
-      <c r="L172" s="5"/>
-      <c r="M172" s="5"/>
-      <c r="N172" s="5"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="29"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="29"/>
+      <c r="M172" s="29"/>
+      <c r="N172" s="29"/>
       <c r="O172" s="9"/>
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
-    </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R172" s="5"/>
+    </row>
+    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="7"/>
       <c r="F173" s="9"/>
       <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5"/>
-      <c r="K173" s="5"/>
-      <c r="L173" s="5"/>
-      <c r="M173" s="5"/>
-      <c r="N173" s="5"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="29"/>
+      <c r="K173" s="29"/>
+      <c r="L173" s="29"/>
+      <c r="M173" s="29"/>
+      <c r="N173" s="29"/>
       <c r="O173" s="9"/>
       <c r="P173" s="6"/>
       <c r="Q173" s="6"/>
-    </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R173" s="5"/>
+    </row>
+    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="7"/>
       <c r="F174" s="9"/>
       <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5"/>
-      <c r="K174" s="5"/>
-      <c r="L174" s="5"/>
-      <c r="M174" s="5"/>
-      <c r="N174" s="5"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="29"/>
+      <c r="K174" s="29"/>
+      <c r="L174" s="29"/>
+      <c r="M174" s="29"/>
+      <c r="N174" s="29"/>
       <c r="O174" s="9"/>
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
-    </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R174" s="5"/>
+    </row>
+    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="7"/>
       <c r="F175" s="9"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5"/>
-      <c r="K175" s="5"/>
-      <c r="L175" s="5"/>
-      <c r="M175" s="5"/>
-      <c r="N175" s="5"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="29"/>
+      <c r="K175" s="29"/>
+      <c r="L175" s="29"/>
+      <c r="M175" s="29"/>
+      <c r="N175" s="29"/>
       <c r="O175" s="9"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
-    </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R175" s="5"/>
+    </row>
+    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="7"/>
       <c r="F176" s="9"/>
       <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5"/>
-      <c r="K176" s="5"/>
-      <c r="L176" s="5"/>
-      <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="29"/>
+      <c r="K176" s="29"/>
+      <c r="L176" s="29"/>
+      <c r="M176" s="29"/>
+      <c r="N176" s="29"/>
       <c r="O176" s="9"/>
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
-    </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R176" s="5"/>
+    </row>
+    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="7"/>
       <c r="F177" s="9"/>
       <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
-      <c r="K177" s="5"/>
-      <c r="L177" s="5"/>
-      <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="29"/>
+      <c r="K177" s="29"/>
+      <c r="L177" s="29"/>
+      <c r="M177" s="29"/>
+      <c r="N177" s="29"/>
       <c r="O177" s="9"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
-    </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R177" s="5"/>
+    </row>
+    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="7"/>
       <c r="F178" s="9"/>
       <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5"/>
-      <c r="K178" s="5"/>
-      <c r="L178" s="5"/>
-      <c r="M178" s="5"/>
-      <c r="N178" s="5"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="29"/>
+      <c r="K178" s="29"/>
+      <c r="L178" s="29"/>
+      <c r="M178" s="29"/>
+      <c r="N178" s="29"/>
       <c r="O178" s="9"/>
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
-    </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R178" s="5"/>
+    </row>
+    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="7"/>
       <c r="F179" s="9"/>
       <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="5"/>
-      <c r="K179" s="5"/>
-      <c r="L179" s="5"/>
-      <c r="M179" s="5"/>
-      <c r="N179" s="5"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="29"/>
+      <c r="K179" s="29"/>
+      <c r="L179" s="29"/>
+      <c r="M179" s="29"/>
+      <c r="N179" s="29"/>
       <c r="O179" s="9"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R179" s="5"/>
+    </row>
+    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="7"/>
       <c r="F180" s="9"/>
       <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
-      <c r="K180" s="5"/>
-      <c r="L180" s="5"/>
-      <c r="M180" s="5"/>
-      <c r="N180" s="5"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="29"/>
+      <c r="K180" s="29"/>
+      <c r="L180" s="29"/>
+      <c r="M180" s="29"/>
+      <c r="N180" s="29"/>
       <c r="O180" s="9"/>
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
-    </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R180" s="5"/>
+    </row>
+    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="7"/>
       <c r="F181" s="9"/>
       <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5"/>
-      <c r="K181" s="5"/>
-      <c r="L181" s="5"/>
-      <c r="M181" s="5"/>
-      <c r="N181" s="5"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="29"/>
+      <c r="K181" s="29"/>
+      <c r="L181" s="29"/>
+      <c r="M181" s="29"/>
+      <c r="N181" s="29"/>
       <c r="O181" s="9"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
-    </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R181" s="5"/>
+    </row>
+    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="7"/>
       <c r="F182" s="9"/>
       <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5"/>
-      <c r="K182" s="5"/>
-      <c r="L182" s="5"/>
-      <c r="M182" s="5"/>
-      <c r="N182" s="5"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="29"/>
+      <c r="K182" s="29"/>
+      <c r="L182" s="29"/>
+      <c r="M182" s="29"/>
+      <c r="N182" s="29"/>
       <c r="O182" s="9"/>
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
-    </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R182" s="5"/>
+    </row>
+    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="7"/>
       <c r="F183" s="9"/>
       <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5"/>
-      <c r="K183" s="5"/>
-      <c r="L183" s="5"/>
-      <c r="M183" s="5"/>
-      <c r="N183" s="5"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="29"/>
+      <c r="K183" s="29"/>
+      <c r="L183" s="29"/>
+      <c r="M183" s="29"/>
+      <c r="N183" s="29"/>
       <c r="O183" s="9"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
-    </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R183" s="5"/>
+    </row>
+    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="7"/>
       <c r="F184" s="9"/>
       <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5"/>
-      <c r="K184" s="5"/>
-      <c r="L184" s="5"/>
-      <c r="M184" s="5"/>
-      <c r="N184" s="5"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="29"/>
+      <c r="K184" s="29"/>
+      <c r="L184" s="29"/>
+      <c r="M184" s="29"/>
+      <c r="N184" s="29"/>
       <c r="O184" s="9"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
-    </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R184" s="5"/>
+    </row>
+    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="7"/>
       <c r="F185" s="9"/>
       <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5"/>
-      <c r="K185" s="5"/>
-      <c r="L185" s="5"/>
-      <c r="M185" s="5"/>
-      <c r="N185" s="5"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="29"/>
+      <c r="K185" s="29"/>
+      <c r="L185" s="29"/>
+      <c r="M185" s="29"/>
+      <c r="N185" s="29"/>
       <c r="O185" s="9"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
-    </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R185" s="5"/>
+    </row>
+    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="7"/>
       <c r="F186" s="9"/>
       <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5"/>
-      <c r="K186" s="5"/>
-      <c r="L186" s="5"/>
-      <c r="M186" s="5"/>
-      <c r="N186" s="5"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="29"/>
+      <c r="K186" s="29"/>
+      <c r="L186" s="29"/>
+      <c r="M186" s="29"/>
+      <c r="N186" s="29"/>
       <c r="O186" s="9"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
-    </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R186" s="5"/>
+    </row>
+    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="7"/>
       <c r="F187" s="9"/>
       <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5"/>
-      <c r="K187" s="5"/>
-      <c r="L187" s="5"/>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="29"/>
+      <c r="K187" s="29"/>
+      <c r="L187" s="29"/>
+      <c r="M187" s="29"/>
+      <c r="N187" s="29"/>
       <c r="O187" s="9"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R187" s="5"/>
+    </row>
+    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="7"/>
       <c r="F188" s="9"/>
       <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="5"/>
-      <c r="K188" s="5"/>
-      <c r="L188" s="5"/>
-      <c r="M188" s="5"/>
-      <c r="N188" s="5"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="29"/>
+      <c r="K188" s="29"/>
+      <c r="L188" s="29"/>
+      <c r="M188" s="29"/>
+      <c r="N188" s="29"/>
       <c r="O188" s="9"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R188" s="5"/>
+    </row>
+    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="7"/>
       <c r="F189" s="9"/>
       <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5"/>
-      <c r="K189" s="5"/>
-      <c r="L189" s="5"/>
-      <c r="M189" s="5"/>
-      <c r="N189" s="5"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="29"/>
+      <c r="K189" s="29"/>
+      <c r="L189" s="29"/>
+      <c r="M189" s="29"/>
+      <c r="N189" s="29"/>
       <c r="O189" s="9"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R189" s="5"/>
+    </row>
+    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="7"/>
       <c r="F190" s="9"/>
       <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5"/>
-      <c r="K190" s="5"/>
-      <c r="L190" s="5"/>
-      <c r="M190" s="5"/>
-      <c r="N190" s="5"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="29"/>
+      <c r="K190" s="29"/>
+      <c r="L190" s="29"/>
+      <c r="M190" s="29"/>
+      <c r="N190" s="29"/>
       <c r="O190" s="9"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R190" s="5"/>
+    </row>
+    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="7"/>
       <c r="F191" s="9"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5"/>
-      <c r="K191" s="5"/>
-      <c r="L191" s="5"/>
-      <c r="M191" s="5"/>
-      <c r="N191" s="5"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="29"/>
+      <c r="K191" s="29"/>
+      <c r="L191" s="29"/>
+      <c r="M191" s="29"/>
+      <c r="N191" s="29"/>
       <c r="O191" s="9"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R191" s="5"/>
+    </row>
+    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="7"/>
       <c r="F192" s="9"/>
       <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5"/>
-      <c r="K192" s="5"/>
-      <c r="L192" s="5"/>
-      <c r="M192" s="5"/>
-      <c r="N192" s="5"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="29"/>
+      <c r="K192" s="29"/>
+      <c r="L192" s="29"/>
+      <c r="M192" s="29"/>
+      <c r="N192" s="29"/>
       <c r="O192" s="9"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R192" s="5"/>
+    </row>
+    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="7"/>
       <c r="F193" s="9"/>
       <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5"/>
-      <c r="K193" s="5"/>
-      <c r="L193" s="5"/>
-      <c r="M193" s="5"/>
-      <c r="N193" s="5"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="29"/>
+      <c r="K193" s="29"/>
+      <c r="L193" s="29"/>
+      <c r="M193" s="29"/>
+      <c r="N193" s="29"/>
       <c r="O193" s="9"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R193" s="5"/>
+    </row>
+    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="7"/>
       <c r="F194" s="9"/>
       <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5"/>
-      <c r="K194" s="5"/>
-      <c r="L194" s="5"/>
-      <c r="M194" s="5"/>
-      <c r="N194" s="5"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="29"/>
+      <c r="K194" s="29"/>
+      <c r="L194" s="29"/>
+      <c r="M194" s="29"/>
+      <c r="N194" s="29"/>
       <c r="O194" s="9"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R194" s="5"/>
+    </row>
+    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="7"/>
       <c r="F195" s="9"/>
       <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5"/>
-      <c r="K195" s="5"/>
-      <c r="L195" s="5"/>
-      <c r="M195" s="5"/>
-      <c r="N195" s="5"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="29"/>
+      <c r="K195" s="29"/>
+      <c r="L195" s="29"/>
+      <c r="M195" s="29"/>
+      <c r="N195" s="29"/>
       <c r="O195" s="9"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
-    </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R195" s="5"/>
+    </row>
+    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="7"/>
       <c r="F196" s="9"/>
       <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5"/>
-      <c r="K196" s="5"/>
-      <c r="L196" s="5"/>
-      <c r="M196" s="5"/>
-      <c r="N196" s="5"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="29"/>
+      <c r="K196" s="29"/>
+      <c r="L196" s="29"/>
+      <c r="M196" s="29"/>
+      <c r="N196" s="29"/>
       <c r="O196" s="9"/>
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
-    </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R196" s="5"/>
+    </row>
+    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="7"/>
       <c r="F197" s="9"/>
       <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-      <c r="K197" s="5"/>
-      <c r="L197" s="5"/>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="29"/>
+      <c r="K197" s="29"/>
+      <c r="L197" s="29"/>
+      <c r="M197" s="29"/>
+      <c r="N197" s="29"/>
       <c r="O197" s="9"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
-    </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R197" s="5"/>
+    </row>
+    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="7"/>
       <c r="F198" s="9"/>
       <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5"/>
-      <c r="K198" s="5"/>
-      <c r="L198" s="5"/>
-      <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="29"/>
+      <c r="K198" s="29"/>
+      <c r="L198" s="29"/>
+      <c r="M198" s="29"/>
+      <c r="N198" s="29"/>
       <c r="O198" s="9"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
-    </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R198" s="5"/>
+    </row>
+    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="7"/>
       <c r="F199" s="9"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="5"/>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="29"/>
+      <c r="K199" s="29"/>
+      <c r="L199" s="29"/>
+      <c r="M199" s="29"/>
+      <c r="N199" s="29"/>
       <c r="O199" s="9"/>
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
-    </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R199" s="5"/>
+    </row>
+    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="7"/>
       <c r="F200" s="9"/>
       <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5"/>
-      <c r="K200" s="5"/>
-      <c r="L200" s="5"/>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="29"/>
+      <c r="K200" s="29"/>
+      <c r="L200" s="29"/>
+      <c r="M200" s="29"/>
+      <c r="N200" s="29"/>
       <c r="O200" s="9"/>
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
-    </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R200" s="5"/>
+    </row>
+    <row r="201" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB54EC40-8D7C-4750-848B-0FEBF55FD6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2097636B-735A-431C-B298-494EA957A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5279,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}">
   <dimension ref="A2:R201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2097636B-735A-431C-B298-494EA957A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF56316-EC4B-44AC-B28B-97D748635FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Current_Holdings" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$7:$P$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$7:$R$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$S$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total Protfolio at FV = </t>
-  </si>
-  <si>
-    <t>Listing Location</t>
-  </si>
-  <si>
-    <t>Price Currency</t>
   </si>
   <si>
     <t>% Weight</t>
@@ -226,6 +220,9 @@
   </si>
   <si>
     <t>Book Value Ratio</t>
+  </si>
+  <si>
+    <t>Listing</t>
   </si>
 </sst>
 </file>
@@ -461,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -510,6 +507,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,13 +531,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -868,7 +869,7 @@
   <dimension ref="A2:S200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,28 +909,28 @@
       <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="D3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21" t="s">
+      <c r="H3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -944,51 +945,51 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
         <v>11.7</v>
@@ -1036,27 +1037,27 @@
         <v>9</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="6">
-        <v>5.5781177321735098E-3</v>
+        <v>-5.4776634451482453E-3</v>
       </c>
       <c r="G6" s="6">
-        <v>5.6565656565656569E-2</v>
+        <v>5.6000000000000008E-2</v>
       </c>
       <c r="H6" s="7">
         <v>9.6</v>
@@ -1092,27 +1093,27 @@
         <v>9</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>-0.3922968852488139</v>
+        <v>-0.39388366353300941</v>
       </c>
       <c r="G7" s="6">
-        <v>8.2873273454284385E-2</v>
+        <v>8.26874589398129E-2</v>
       </c>
       <c r="H7" s="7">
         <v>28.629807824025253</v>
@@ -1148,15 +1149,15 @@
         <v>9</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7">
         <v>10</v>
@@ -1204,27 +1205,27 @@
         <v>9</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7">
-        <v>19.68</v>
+        <v>19.5</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.15347218472029803</v>
+        <v>-0.14473500488694693</v>
       </c>
       <c r="G9" s="6">
-        <v>6.8597560975609762E-2</v>
+        <v>6.9230769230769235E-2</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -1260,27 +1261,27 @@
         <v>9</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6">
-        <v>-0.33400886643383032</v>
+        <v>-0.3296747221759303</v>
       </c>
       <c r="G10" s="6">
-        <v>6.8611111111111109E-2</v>
+        <v>6.8994413407821226E-2</v>
       </c>
       <c r="H10" s="7">
         <v>1.1000000000000001</v>
@@ -1292,19 +1293,19 @@
         <v>1.9</v>
       </c>
       <c r="K10" s="7">
-        <v>1.1288001414719611</v>
+        <v>1.1288983483579402</v>
       </c>
       <c r="L10" s="7">
-        <v>1.4844123602744648</v>
+        <v>1.4845105671604442</v>
       </c>
       <c r="M10" s="7">
-        <v>1.3787840404191054</v>
+        <v>1.3788822473050848</v>
       </c>
       <c r="N10" s="7">
-        <v>1.2534400367446412</v>
+        <v>1.2535293157318952</v>
       </c>
       <c r="O10" s="7">
-        <v>1.1030272323352843</v>
+        <v>1.1031057978440679</v>
       </c>
       <c r="P10" s="8">
         <v>44561</v>
@@ -1316,24 +1317,24 @@
         <v>9</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>17.440000000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="6">
-        <v>2.8141076467943588E-2</v>
+        <v>2.9436301584439523E-2</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1372,27 +1373,27 @@
         <v>9</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>4.18</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.25429974359662866</v>
+        <v>-0.24612872662654775</v>
       </c>
       <c r="G12" s="6">
-        <v>4.9186587301988875E-2</v>
+        <v>4.9661820029544328E-2</v>
       </c>
       <c r="H12" s="7">
         <v>2.4</v>
@@ -1428,27 +1429,27 @@
         <v>9</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="6">
-        <v>-1.2246199968588029E-2</v>
+        <v>-1.4226643016764712E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>5.3323312636877215E-2</v>
+        <v>5.3231848978837974E-2</v>
       </c>
       <c r="H13" s="7">
         <v>4.8</v>
@@ -1457,22 +1458,22 @@
         <v>8000</v>
       </c>
       <c r="J13" s="9">
-        <v>7.2358788544826851</v>
+        <v>7.2353440985062409</v>
       </c>
       <c r="K13" s="7">
-        <v>3.0116090244473082</v>
+        <v>3.0109405794767525</v>
       </c>
       <c r="L13" s="7">
-        <v>8.4627407553054308</v>
+        <v>8.4620723103348752</v>
       </c>
       <c r="M13" s="7">
-        <v>6.3307271161828176</v>
+        <v>6.330058671212262</v>
       </c>
       <c r="N13" s="7">
-        <v>5.7552064692571063</v>
+        <v>5.754598792011147</v>
       </c>
       <c r="O13" s="7">
-        <v>5.0645816929462537</v>
+        <v>5.0640469369698096</v>
       </c>
       <c r="P13" s="8">
         <v>44561</v>
@@ -1484,15 +1485,15 @@
         <v>9</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7">
         <v>1.76</v>
@@ -1540,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -5280,13 +5281,20 @@
   <dimension ref="A2:R201"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="17" width="15.6328125" customWidth="1"/>
+    <col min="2" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="14" width="14.6328125" customWidth="1"/>
+    <col min="15" max="16" width="12.6328125" customWidth="1"/>
+    <col min="17" max="17" width="8.26953125" customWidth="1"/>
     <col min="18" max="18" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5320,8 +5328,8 @@
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
@@ -5330,89 +5338,99 @@
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H6" s="5"/>
-      <c r="I6" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="R7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7">
         <v>11.7</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>11.9</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -5427,19 +5445,19 @@
       <c r="I8" s="6">
         <v>3.226946213872134E-3</v>
       </c>
-      <c r="J8" s="29">
-        <v>0.52086091557078662</v>
-      </c>
-      <c r="K8" s="29">
+      <c r="J8" s="20">
+        <v>7.8025297553570647</v>
+      </c>
+      <c r="K8" s="20">
         <v>176.1425660012878</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="20">
         <v>7.6757068959827519</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="20">
         <v>85.582900770502533</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="20">
         <v>4.633566600818809</v>
       </c>
       <c r="O8" s="9"/>
@@ -5448,18 +5466,18 @@
         <v>9</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="5">
-        <v>9.9</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10</v>
       </c>
       <c r="E9" s="7">
         <v>10.31</v>
@@ -5467,7 +5485,7 @@
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="9">
         <v>4000</v>
       </c>
       <c r="H9" s="7">
@@ -5476,19 +5494,19 @@
       <c r="I9" s="6">
         <v>4.2300888050327577E-2</v>
       </c>
-      <c r="J9" s="29">
-        <v>0.69894965458981917</v>
-      </c>
-      <c r="K9" s="29">
+      <c r="J9" s="20">
+        <v>3.7089690853896293</v>
+      </c>
+      <c r="K9" s="20">
         <v>11.003427197705268</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="20">
         <v>3.4515437078973985</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="20">
         <v>6.5599984754845266</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="20">
         <v>3.5134488326629425</v>
       </c>
       <c r="O9" s="9"/>
@@ -5497,48 +5515,48 @@
         <v>9</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5">
-        <v>44.5</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.79</v>
       </c>
       <c r="E10" s="7">
-        <v>28.63</v>
+        <v>1.68</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5">
-        <v>3000</v>
+      <c r="G10" s="9">
+        <v>16000</v>
       </c>
       <c r="H10" s="7">
-        <v>44.056787530908295</v>
+        <v>1.9</v>
       </c>
       <c r="I10" s="6">
-        <v>0.46565276828434721</v>
-      </c>
-      <c r="J10" s="29">
-        <v>7.040365350618738E-2</v>
-      </c>
-      <c r="K10" s="29">
-        <v>0.95295202952029523</v>
-      </c>
-      <c r="L10" s="29">
-        <v>0.68273345079285175</v>
-      </c>
-      <c r="M10" s="29">
-        <v>0.37908256880733943</v>
-      </c>
-      <c r="N10" s="29">
-        <v>0.56732148425319617</v>
+        <v>0.24675666120114281</v>
+      </c>
+      <c r="J10" s="20">
+        <v>3.2849980734912396</v>
+      </c>
+      <c r="K10" s="20">
+        <v>6.8975825593510285</v>
+      </c>
+      <c r="L10" s="20">
+        <v>3.0135085780337438</v>
+      </c>
+      <c r="M10" s="20">
+        <v>2.9855261680325449</v>
+      </c>
+      <c r="N10" s="20">
+        <v>2.4805745781286417</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -5546,48 +5564,48 @@
         <v>9</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="5">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="D11" s="7">
+        <v>17.420000000000002</v>
       </c>
       <c r="E11" s="7">
-        <v>9.5</v>
+        <v>16.5</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="5">
-        <v>6000</v>
+      <c r="G11" s="9">
+        <v>2000</v>
       </c>
       <c r="H11" s="7">
-        <v>11.828743634431557</v>
+        <v>32.903732767036438</v>
       </c>
       <c r="I11" s="6">
-        <v>2.0851820866211162E-3</v>
-      </c>
-      <c r="J11" s="29">
-        <v>0.58688601761872761</v>
-      </c>
-      <c r="K11" s="29">
-        <v>361.00546590317543</v>
-      </c>
-      <c r="L11" s="29">
-        <v>2.2443929012156292</v>
-      </c>
-      <c r="M11" s="29">
-        <v>250.75915933694179</v>
-      </c>
-      <c r="N11" s="29">
-        <v>2.3281173213335578</v>
+        <v>0.45401790581878537</v>
+      </c>
+      <c r="J11" s="20">
+        <v>2.0753728614196669</v>
+      </c>
+      <c r="K11" s="20">
+        <v>5.7976178289645226</v>
+      </c>
+      <c r="L11" s="20">
+        <v>1.763191721937688</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0.92594746196328936</v>
+      </c>
+      <c r="N11" s="20">
+        <v>1.1494100885179757</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -5595,48 +5613,48 @@
         <v>9</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="5">
-        <v>19.68</v>
+        <v>51</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4.1399999999999997</v>
       </c>
       <c r="E12" s="7">
-        <v>15</v>
+        <v>5.61</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="5">
-        <v>4000</v>
+      <c r="G12" s="9">
+        <v>20000</v>
       </c>
       <c r="H12" s="7">
-        <v>19</v>
+        <v>5.6205259760239548</v>
       </c>
       <c r="I12" s="6">
-        <v>5.3736189808646001E-2</v>
-      </c>
-      <c r="J12" s="29">
-        <v>0.15976286472137324</v>
-      </c>
-      <c r="K12" s="29">
-        <v>5.3857813050966081</v>
-      </c>
-      <c r="L12" s="29">
-        <v>0.90963868119173141</v>
-      </c>
-      <c r="M12" s="29">
-        <v>2.990842774169193</v>
-      </c>
-      <c r="N12" s="29">
-        <v>0.35605852351263845</v>
+        <v>0.1698771078411476</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0.82306247297105539</v>
+      </c>
+      <c r="K12" s="20">
+        <v>2.9769457748721253</v>
+      </c>
+      <c r="L12" s="20">
+        <v>0.57804911534654391</v>
+      </c>
+      <c r="M12" s="20">
+        <v>2.4260977945497415</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0.59946117374446684</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="6"/>
@@ -5649,43 +5667,43 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1.8</v>
+        <v>53</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5.83</v>
       </c>
       <c r="E13" s="7">
-        <v>1.68</v>
+        <v>11.08</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="5">
-        <v>16000</v>
+      <c r="G13" s="9">
+        <v>4000</v>
       </c>
       <c r="H13" s="7">
-        <v>1.9</v>
+        <v>7.2353440985062409</v>
       </c>
       <c r="I13" s="6">
-        <v>0.24675666120114281</v>
-      </c>
-      <c r="J13" s="29">
-        <v>0.71111352484497148</v>
-      </c>
-      <c r="K13" s="29">
-        <v>6.8975825593510285</v>
-      </c>
-      <c r="L13" s="29">
-        <v>3.0135085780337438</v>
-      </c>
-      <c r="M13" s="29">
-        <v>2.9855261680325449</v>
-      </c>
-      <c r="N13" s="29">
-        <v>2.4805745781286417</v>
+        <v>5.4080520158737544E-2</v>
+      </c>
+      <c r="J13" s="20">
+        <v>2.7703025360946434</v>
+      </c>
+      <c r="K13" s="20">
+        <v>33.882537710882545</v>
+      </c>
+      <c r="L13" s="20">
+        <v>2.6833569434046844</v>
+      </c>
+      <c r="M13" s="20">
+        <v>13.913697527489473</v>
+      </c>
+      <c r="N13" s="20">
+        <v>2.0088349318914984</v>
       </c>
       <c r="O13" s="9"/>
       <c r="Q13" s="6" t="s">
@@ -5697,213 +5715,123 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="5">
-        <v>17.440000000000001</v>
+        <v>55</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.76</v>
       </c>
       <c r="E14" s="7">
-        <v>16.5</v>
+        <v>1.78</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
-        <v>2000</v>
+      <c r="G14" s="9">
+        <v>11000</v>
       </c>
       <c r="H14" s="7">
-        <v>32.903732767036438</v>
+        <v>2.0514668160851408</v>
       </c>
       <c r="I14" s="6">
-        <v>0.45401790581878537</v>
-      </c>
-      <c r="J14" s="29">
-        <v>5.3831571353302042E-2</v>
-      </c>
-      <c r="K14" s="29">
-        <v>5.7976178289645226</v>
-      </c>
-      <c r="L14" s="29">
-        <v>1.763191721937688</v>
-      </c>
-      <c r="M14" s="29">
-        <v>0.92594746196328936</v>
-      </c>
-      <c r="N14" s="29">
-        <v>1.1494100885179757</v>
+        <v>7.0180044128252995E-3</v>
+      </c>
+      <c r="J14" s="20">
+        <v>6.3438867786740261</v>
+      </c>
+      <c r="K14" s="20">
+        <v>322.82687224669604</v>
+      </c>
+      <c r="L14" s="20">
+        <v>5.6698381536331262</v>
+      </c>
+      <c r="M14" s="20">
+        <v>111.73261841837773</v>
+      </c>
+      <c r="N14" s="20">
+        <v>5.5613492499085257</v>
       </c>
       <c r="O14" s="9"/>
       <c r="Q14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="5">
-        <v>4.18</v>
-      </c>
-      <c r="E15" s="7">
-        <v>5.61</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5">
-        <v>20000</v>
-      </c>
-      <c r="H15" s="7">
-        <v>5.6205259760239548</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.1698771078411476</v>
-      </c>
-      <c r="J15" s="29">
-        <v>0</v>
-      </c>
-      <c r="K15" s="29">
-        <v>2.9769457748721253</v>
-      </c>
-      <c r="L15" s="29">
-        <v>0.57804911534654391</v>
-      </c>
-      <c r="M15" s="29">
-        <v>2.4260977945497415</v>
-      </c>
-      <c r="N15" s="29">
-        <v>0.59946117374446684</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
       <c r="O15" s="9"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="5">
-        <v>5.82</v>
-      </c>
-      <c r="E16" s="7">
-        <v>11.08</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5">
-        <v>4000</v>
-      </c>
-      <c r="H16" s="7">
-        <v>7.2358788544826851</v>
-      </c>
-      <c r="I16" s="6">
-        <v>5.4080520158737544E-2</v>
-      </c>
-      <c r="J16" s="29">
-        <v>0.52599493023131072</v>
-      </c>
-      <c r="K16" s="29">
-        <v>33.882537710882545</v>
-      </c>
-      <c r="L16" s="29">
-        <v>2.6833569434046844</v>
-      </c>
-      <c r="M16" s="29">
-        <v>13.913697527489473</v>
-      </c>
-      <c r="N16" s="29">
-        <v>2.0088349318914984</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
       <c r="O16" s="9"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1.76</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1.78</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5">
-        <v>11000</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2.0514668160851408</v>
-      </c>
-      <c r="I17" s="6">
-        <v>7.0180044128252995E-3</v>
-      </c>
-      <c r="J17" s="29">
-        <v>0.78732195013342432</v>
-      </c>
-      <c r="K17" s="29">
-        <v>322.82687224669604</v>
-      </c>
-      <c r="L17" s="29">
-        <v>5.6698381536331262</v>
-      </c>
-      <c r="M17" s="29">
-        <v>111.73261841837773</v>
-      </c>
-      <c r="N17" s="29">
-        <v>5.5613492499085257</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
       <c r="O17" s="9"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="5"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
       <c r="O18" s="9"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -5912,17 +5840,17 @@
     <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="7"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
       <c r="O19" s="9"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -5931,17 +5859,17 @@
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="7"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
       <c r="O20" s="9"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -5950,17 +5878,17 @@
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="7"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
       <c r="O21" s="9"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -5969,17 +5897,17 @@
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="7"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
       <c r="O22" s="9"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -5988,17 +5916,17 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="7"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
       <c r="O23" s="9"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -6007,17 +5935,17 @@
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
       <c r="O24" s="9"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -6026,17 +5954,17 @@
     <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="7"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
       <c r="O25" s="9"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -6045,17 +5973,17 @@
     <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="7"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
       <c r="O26" s="9"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -6064,17 +5992,17 @@
     <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="7"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
       <c r="O27" s="9"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -6083,17 +6011,17 @@
     <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="7"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
       <c r="O28" s="9"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -6102,17 +6030,17 @@
     <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="7"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
       <c r="O29" s="9"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -6121,17 +6049,17 @@
     <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="7"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
       <c r="O30" s="9"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -6140,17 +6068,17 @@
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="7"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
       <c r="O31" s="9"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -6159,17 +6087,17 @@
     <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="7"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
       <c r="O32" s="9"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -6178,17 +6106,17 @@
     <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="7"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
       <c r="O33" s="9"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -6197,17 +6125,17 @@
     <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="7"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
       <c r="O34" s="9"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
@@ -6216,17 +6144,17 @@
     <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
       <c r="O35" s="9"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
@@ -6235,17 +6163,17 @@
     <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="7"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
       <c r="O36" s="9"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
@@ -6254,17 +6182,17 @@
     <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="7"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
       <c r="O37" s="9"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -6273,17 +6201,17 @@
     <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="7"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
       <c r="O38" s="9"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
@@ -6292,17 +6220,17 @@
     <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="7"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
       <c r="O39" s="9"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -6311,17 +6239,17 @@
     <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="7"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
       <c r="O40" s="9"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
@@ -6330,17 +6258,17 @@
     <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="7"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
       <c r="O41" s="9"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -6349,17 +6277,17 @@
     <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="5"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="7"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
       <c r="O42" s="9"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -6368,17 +6296,17 @@
     <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="7"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
       <c r="O43" s="9"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
@@ -6387,17 +6315,17 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="7"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
       <c r="O44" s="9"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
@@ -6406,17 +6334,17 @@
     <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="7"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
       <c r="O45" s="9"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
@@ -6425,17 +6353,17 @@
     <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="7"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
       <c r="O46" s="9"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
@@ -6444,17 +6372,17 @@
     <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="7"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
       <c r="O47" s="9"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
@@ -6463,17 +6391,17 @@
     <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="5"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="7"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
       <c r="O48" s="9"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
@@ -6482,17 +6410,17 @@
     <row r="49" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="5"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="7"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
       <c r="O49" s="9"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -6501,17 +6429,17 @@
     <row r="50" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="7"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
       <c r="O50" s="9"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -6520,17 +6448,17 @@
     <row r="51" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="9"/>
       <c r="H51" s="7"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
       <c r="O51" s="9"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
@@ -6539,17 +6467,17 @@
     <row r="52" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
       <c r="O52" s="9"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
@@ -6558,17 +6486,17 @@
     <row r="53" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="5"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="7"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
       <c r="O53" s="9"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -6577,17 +6505,17 @@
     <row r="54" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="5"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="7"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
       <c r="O54" s="9"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
@@ -6596,17 +6524,17 @@
     <row r="55" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="5"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="7"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
       <c r="O55" s="9"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
@@ -6615,17 +6543,17 @@
     <row r="56" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="5"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="7"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
       <c r="O56" s="9"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
@@ -6634,17 +6562,17 @@
     <row r="57" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="5"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="7"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
       <c r="O57" s="9"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
@@ -6653,17 +6581,17 @@
     <row r="58" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="7"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
       <c r="O58" s="9"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
@@ -6672,17 +6600,17 @@
     <row r="59" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="5"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="7"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
       <c r="O59" s="9"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
@@ -6691,17 +6619,17 @@
     <row r="60" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="5"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="7"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
       <c r="O60" s="9"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -6710,17 +6638,17 @@
     <row r="61" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="5"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="7"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
       <c r="O61" s="9"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
@@ -6729,17 +6657,17 @@
     <row r="62" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="5"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="7"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
       <c r="O62" s="9"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
@@ -6748,17 +6676,17 @@
     <row r="63" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="5"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="7"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
       <c r="O63" s="9"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -6767,17 +6695,17 @@
     <row r="64" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="5"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="7"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
       <c r="O64" s="9"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
@@ -6786,17 +6714,17 @@
     <row r="65" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="5"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="7"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
       <c r="O65" s="9"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -6805,17 +6733,17 @@
     <row r="66" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="5"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="7"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
       <c r="O66" s="9"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
@@ -6824,17 +6752,17 @@
     <row r="67" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="5"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="7"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
       <c r="O67" s="9"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
@@ -6843,17 +6771,17 @@
     <row r="68" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="5"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="7"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
       <c r="O68" s="9"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
@@ -6862,17 +6790,17 @@
     <row r="69" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="5"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="7"/>
       <c r="I69" s="6"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
       <c r="O69" s="9"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
@@ -6881,17 +6809,17 @@
     <row r="70" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="5"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="7"/>
       <c r="I70" s="6"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
       <c r="O70" s="9"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
@@ -6900,17 +6828,17 @@
     <row r="71" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="5"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="7"/>
       <c r="I71" s="6"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
       <c r="O71" s="9"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
@@ -6919,17 +6847,17 @@
     <row r="72" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="9"/>
       <c r="H72" s="7"/>
       <c r="I72" s="6"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
       <c r="O72" s="9"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
@@ -6938,17 +6866,17 @@
     <row r="73" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="5"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="7"/>
       <c r="I73" s="6"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
       <c r="O73" s="9"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
@@ -6957,17 +6885,17 @@
     <row r="74" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="5"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="7"/>
       <c r="I74" s="6"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
       <c r="O74" s="9"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
@@ -6976,17 +6904,17 @@
     <row r="75" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="5"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="7"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
       <c r="O75" s="9"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
@@ -6995,17 +6923,17 @@
     <row r="76" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="5"/>
+      <c r="G76" s="9"/>
       <c r="H76" s="7"/>
       <c r="I76" s="6"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
       <c r="O76" s="9"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
@@ -7014,17 +6942,17 @@
     <row r="77" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="5"/>
+      <c r="G77" s="9"/>
       <c r="H77" s="7"/>
       <c r="I77" s="6"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
       <c r="O77" s="9"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
@@ -7033,17 +6961,17 @@
     <row r="78" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
+      <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="5"/>
+      <c r="G78" s="9"/>
       <c r="H78" s="7"/>
       <c r="I78" s="6"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
       <c r="O78" s="9"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
@@ -7052,17 +6980,17 @@
     <row r="79" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="5"/>
+      <c r="G79" s="9"/>
       <c r="H79" s="7"/>
       <c r="I79" s="6"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
       <c r="O79" s="9"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
@@ -7071,17 +6999,17 @@
     <row r="80" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="5"/>
+      <c r="G80" s="9"/>
       <c r="H80" s="7"/>
       <c r="I80" s="6"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
       <c r="O80" s="9"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
@@ -7090,17 +7018,17 @@
     <row r="81" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="5"/>
+      <c r="G81" s="9"/>
       <c r="H81" s="7"/>
       <c r="I81" s="6"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
       <c r="O81" s="9"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
@@ -7109,17 +7037,17 @@
     <row r="82" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="5"/>
+      <c r="G82" s="9"/>
       <c r="H82" s="7"/>
       <c r="I82" s="6"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
       <c r="O82" s="9"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
@@ -7128,17 +7056,17 @@
     <row r="83" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="5"/>
+      <c r="G83" s="9"/>
       <c r="H83" s="7"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
       <c r="O83" s="9"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
@@ -7147,17 +7075,17 @@
     <row r="84" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="5"/>
+      <c r="G84" s="9"/>
       <c r="H84" s="7"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
       <c r="O84" s="9"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
@@ -7166,17 +7094,17 @@
     <row r="85" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+      <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="5"/>
+      <c r="G85" s="9"/>
       <c r="H85" s="7"/>
       <c r="I85" s="6"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
       <c r="O85" s="9"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
@@ -7185,17 +7113,17 @@
     <row r="86" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+      <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="5"/>
+      <c r="G86" s="9"/>
       <c r="H86" s="7"/>
       <c r="I86" s="6"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="29"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
       <c r="O86" s="9"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
@@ -7204,17 +7132,17 @@
     <row r="87" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
+      <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="5"/>
+      <c r="G87" s="9"/>
       <c r="H87" s="7"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
       <c r="O87" s="9"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
@@ -7223,17 +7151,17 @@
     <row r="88" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
+      <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="5"/>
+      <c r="G88" s="9"/>
       <c r="H88" s="7"/>
       <c r="I88" s="6"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
       <c r="O88" s="9"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
@@ -7242,17 +7170,17 @@
     <row r="89" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="5"/>
+      <c r="G89" s="9"/>
       <c r="H89" s="7"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="29"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
       <c r="O89" s="9"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
@@ -7261,17 +7189,17 @@
     <row r="90" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="5"/>
+      <c r="G90" s="9"/>
       <c r="H90" s="7"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
       <c r="O90" s="9"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
@@ -7280,17 +7208,17 @@
     <row r="91" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="5"/>
+      <c r="G91" s="9"/>
       <c r="H91" s="7"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
       <c r="O91" s="9"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
@@ -7299,17 +7227,17 @@
     <row r="92" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="5"/>
+      <c r="G92" s="9"/>
       <c r="H92" s="7"/>
       <c r="I92" s="6"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="29"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
       <c r="O92" s="9"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
@@ -7318,17 +7246,17 @@
     <row r="93" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="5"/>
+      <c r="G93" s="9"/>
       <c r="H93" s="7"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="29"/>
-      <c r="N93" s="29"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
       <c r="O93" s="9"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
@@ -7337,17 +7265,17 @@
     <row r="94" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="5"/>
+      <c r="G94" s="9"/>
       <c r="H94" s="7"/>
       <c r="I94" s="6"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
       <c r="O94" s="9"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
@@ -7356,17 +7284,17 @@
     <row r="95" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="5"/>
+      <c r="G95" s="9"/>
       <c r="H95" s="7"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
       <c r="O95" s="9"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
@@ -7375,17 +7303,17 @@
     <row r="96" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="5"/>
+      <c r="G96" s="9"/>
       <c r="H96" s="7"/>
       <c r="I96" s="6"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="29"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
       <c r="O96" s="9"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
@@ -7394,17 +7322,17 @@
     <row r="97" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="5"/>
+      <c r="G97" s="9"/>
       <c r="H97" s="7"/>
       <c r="I97" s="6"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
-      <c r="N97" s="29"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
       <c r="O97" s="9"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
@@ -7413,17 +7341,17 @@
     <row r="98" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="5"/>
+      <c r="G98" s="9"/>
       <c r="H98" s="7"/>
       <c r="I98" s="6"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
       <c r="O98" s="9"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
@@ -7432,17 +7360,17 @@
     <row r="99" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="5"/>
+      <c r="G99" s="9"/>
       <c r="H99" s="7"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
       <c r="O99" s="9"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
@@ -7451,17 +7379,17 @@
     <row r="100" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="5"/>
+      <c r="G100" s="9"/>
       <c r="H100" s="7"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
       <c r="O100" s="9"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
@@ -7470,17 +7398,17 @@
     <row r="101" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+      <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="5"/>
+      <c r="G101" s="9"/>
       <c r="H101" s="7"/>
       <c r="I101" s="6"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
       <c r="O101" s="9"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
@@ -7489,17 +7417,17 @@
     <row r="102" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="5"/>
+      <c r="G102" s="9"/>
       <c r="H102" s="7"/>
       <c r="I102" s="6"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
-      <c r="N102" s="29"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
       <c r="O102" s="9"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
@@ -7508,17 +7436,17 @@
     <row r="103" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
+      <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="5"/>
+      <c r="G103" s="9"/>
       <c r="H103" s="7"/>
       <c r="I103" s="6"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="29"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
       <c r="O103" s="9"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
@@ -7527,17 +7455,17 @@
     <row r="104" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
+      <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="5"/>
+      <c r="G104" s="9"/>
       <c r="H104" s="7"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="29"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20"/>
       <c r="O104" s="9"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
@@ -7546,17 +7474,17 @@
     <row r="105" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="5"/>
+      <c r="G105" s="9"/>
       <c r="H105" s="7"/>
       <c r="I105" s="6"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="29"/>
-      <c r="N105" s="29"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="20"/>
       <c r="O105" s="9"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
@@ -7565,17 +7493,17 @@
     <row r="106" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
+      <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="5"/>
+      <c r="G106" s="9"/>
       <c r="H106" s="7"/>
       <c r="I106" s="6"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="29"/>
-      <c r="N106" s="29"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="20"/>
       <c r="O106" s="9"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
@@ -7584,17 +7512,17 @@
     <row r="107" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
+      <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="5"/>
+      <c r="G107" s="9"/>
       <c r="H107" s="7"/>
       <c r="I107" s="6"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="20"/>
       <c r="O107" s="9"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
@@ -7603,17 +7531,17 @@
     <row r="108" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="5"/>
+      <c r="G108" s="9"/>
       <c r="H108" s="7"/>
       <c r="I108" s="6"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="29"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="20"/>
       <c r="O108" s="9"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
@@ -7622,17 +7550,17 @@
     <row r="109" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="5"/>
+      <c r="G109" s="9"/>
       <c r="H109" s="7"/>
       <c r="I109" s="6"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="29"/>
-      <c r="N109" s="29"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20"/>
       <c r="O109" s="9"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
@@ -7641,17 +7569,17 @@
     <row r="110" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+      <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="5"/>
+      <c r="G110" s="9"/>
       <c r="H110" s="7"/>
       <c r="I110" s="6"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="29"/>
-      <c r="N110" s="29"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="20"/>
       <c r="O110" s="9"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
@@ -7660,17 +7588,17 @@
     <row r="111" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="5"/>
+      <c r="G111" s="9"/>
       <c r="H111" s="7"/>
       <c r="I111" s="6"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="29"/>
-      <c r="M111" s="29"/>
-      <c r="N111" s="29"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="20"/>
       <c r="O111" s="9"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
@@ -7679,17 +7607,17 @@
     <row r="112" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
+      <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="5"/>
+      <c r="G112" s="9"/>
       <c r="H112" s="7"/>
       <c r="I112" s="6"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="29"/>
-      <c r="N112" s="29"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
       <c r="O112" s="9"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
@@ -7698,17 +7626,17 @@
     <row r="113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
+      <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="5"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="7"/>
       <c r="I113" s="6"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="29"/>
-      <c r="N113" s="29"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="20"/>
       <c r="O113" s="9"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
@@ -7717,17 +7645,17 @@
     <row r="114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
+      <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="5"/>
+      <c r="G114" s="9"/>
       <c r="H114" s="7"/>
       <c r="I114" s="6"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="29"/>
-      <c r="N114" s="29"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="20"/>
       <c r="O114" s="9"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
@@ -7736,17 +7664,17 @@
     <row r="115" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
+      <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="5"/>
+      <c r="G115" s="9"/>
       <c r="H115" s="7"/>
       <c r="I115" s="6"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="29"/>
-      <c r="L115" s="29"/>
-      <c r="M115" s="29"/>
-      <c r="N115" s="29"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="20"/>
       <c r="O115" s="9"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
@@ -7755,17 +7683,17 @@
     <row r="116" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
+      <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="5"/>
+      <c r="G116" s="9"/>
       <c r="H116" s="7"/>
       <c r="I116" s="6"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="29"/>
-      <c r="N116" s="29"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="20"/>
       <c r="O116" s="9"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
@@ -7774,17 +7702,17 @@
     <row r="117" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
+      <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="5"/>
+      <c r="G117" s="9"/>
       <c r="H117" s="7"/>
       <c r="I117" s="6"/>
-      <c r="J117" s="29"/>
-      <c r="K117" s="29"/>
-      <c r="L117" s="29"/>
-      <c r="M117" s="29"/>
-      <c r="N117" s="29"/>
+      <c r="J117" s="20"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="20"/>
       <c r="O117" s="9"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
@@ -7793,17 +7721,17 @@
     <row r="118" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="5"/>
+      <c r="G118" s="9"/>
       <c r="H118" s="7"/>
       <c r="I118" s="6"/>
-      <c r="J118" s="29"/>
-      <c r="K118" s="29"/>
-      <c r="L118" s="29"/>
-      <c r="M118" s="29"/>
-      <c r="N118" s="29"/>
+      <c r="J118" s="20"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="20"/>
+      <c r="N118" s="20"/>
       <c r="O118" s="9"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
@@ -7812,17 +7740,17 @@
     <row r="119" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
+      <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="5"/>
+      <c r="G119" s="9"/>
       <c r="H119" s="7"/>
       <c r="I119" s="6"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="29"/>
-      <c r="L119" s="29"/>
-      <c r="M119" s="29"/>
-      <c r="N119" s="29"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="20"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="20"/>
       <c r="O119" s="9"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
@@ -7831,17 +7759,17 @@
     <row r="120" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
+      <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="5"/>
+      <c r="G120" s="9"/>
       <c r="H120" s="7"/>
       <c r="I120" s="6"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="29"/>
-      <c r="L120" s="29"/>
-      <c r="M120" s="29"/>
-      <c r="N120" s="29"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="20"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="20"/>
+      <c r="N120" s="20"/>
       <c r="O120" s="9"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
@@ -7850,17 +7778,17 @@
     <row r="121" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
+      <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="5"/>
+      <c r="G121" s="9"/>
       <c r="H121" s="7"/>
       <c r="I121" s="6"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="29"/>
-      <c r="L121" s="29"/>
-      <c r="M121" s="29"/>
-      <c r="N121" s="29"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
+      <c r="M121" s="20"/>
+      <c r="N121" s="20"/>
       <c r="O121" s="9"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
@@ -7869,17 +7797,17 @@
     <row r="122" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="5"/>
+      <c r="G122" s="9"/>
       <c r="H122" s="7"/>
       <c r="I122" s="6"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="29"/>
-      <c r="L122" s="29"/>
-      <c r="M122" s="29"/>
-      <c r="N122" s="29"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="20"/>
       <c r="O122" s="9"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
@@ -7888,17 +7816,17 @@
     <row r="123" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
+      <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="5"/>
+      <c r="G123" s="9"/>
       <c r="H123" s="7"/>
       <c r="I123" s="6"/>
-      <c r="J123" s="29"/>
-      <c r="K123" s="29"/>
-      <c r="L123" s="29"/>
-      <c r="M123" s="29"/>
-      <c r="N123" s="29"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="20"/>
       <c r="O123" s="9"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
@@ -7907,17 +7835,17 @@
     <row r="124" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
+      <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="5"/>
+      <c r="G124" s="9"/>
       <c r="H124" s="7"/>
       <c r="I124" s="6"/>
-      <c r="J124" s="29"/>
-      <c r="K124" s="29"/>
-      <c r="L124" s="29"/>
-      <c r="M124" s="29"/>
-      <c r="N124" s="29"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
+      <c r="N124" s="20"/>
       <c r="O124" s="9"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
@@ -7926,17 +7854,17 @@
     <row r="125" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="5"/>
+      <c r="G125" s="9"/>
       <c r="H125" s="7"/>
       <c r="I125" s="6"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="29"/>
-      <c r="L125" s="29"/>
-      <c r="M125" s="29"/>
-      <c r="N125" s="29"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="20"/>
       <c r="O125" s="9"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
@@ -7945,17 +7873,17 @@
     <row r="126" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
+      <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="5"/>
+      <c r="G126" s="9"/>
       <c r="H126" s="7"/>
       <c r="I126" s="6"/>
-      <c r="J126" s="29"/>
-      <c r="K126" s="29"/>
-      <c r="L126" s="29"/>
-      <c r="M126" s="29"/>
-      <c r="N126" s="29"/>
+      <c r="J126" s="20"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="20"/>
+      <c r="N126" s="20"/>
       <c r="O126" s="9"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
@@ -7964,17 +7892,17 @@
     <row r="127" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+      <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="5"/>
+      <c r="G127" s="9"/>
       <c r="H127" s="7"/>
       <c r="I127" s="6"/>
-      <c r="J127" s="29"/>
-      <c r="K127" s="29"/>
-      <c r="L127" s="29"/>
-      <c r="M127" s="29"/>
-      <c r="N127" s="29"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="20"/>
       <c r="O127" s="9"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
@@ -7983,17 +7911,17 @@
     <row r="128" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+      <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="5"/>
+      <c r="G128" s="9"/>
       <c r="H128" s="7"/>
       <c r="I128" s="6"/>
-      <c r="J128" s="29"/>
-      <c r="K128" s="29"/>
-      <c r="L128" s="29"/>
-      <c r="M128" s="29"/>
-      <c r="N128" s="29"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="20"/>
+      <c r="M128" s="20"/>
+      <c r="N128" s="20"/>
       <c r="O128" s="9"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
@@ -8002,17 +7930,17 @@
     <row r="129" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+      <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="5"/>
+      <c r="G129" s="9"/>
       <c r="H129" s="7"/>
       <c r="I129" s="6"/>
-      <c r="J129" s="29"/>
-      <c r="K129" s="29"/>
-      <c r="L129" s="29"/>
-      <c r="M129" s="29"/>
-      <c r="N129" s="29"/>
+      <c r="J129" s="20"/>
+      <c r="K129" s="20"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="20"/>
       <c r="O129" s="9"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
@@ -8021,17 +7949,17 @@
     <row r="130" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+      <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="5"/>
+      <c r="G130" s="9"/>
       <c r="H130" s="7"/>
       <c r="I130" s="6"/>
-      <c r="J130" s="29"/>
-      <c r="K130" s="29"/>
-      <c r="L130" s="29"/>
-      <c r="M130" s="29"/>
-      <c r="N130" s="29"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="20"/>
+      <c r="L130" s="20"/>
+      <c r="M130" s="20"/>
+      <c r="N130" s="20"/>
       <c r="O130" s="9"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
@@ -8040,17 +7968,17 @@
     <row r="131" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+      <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="5"/>
+      <c r="G131" s="9"/>
       <c r="H131" s="7"/>
       <c r="I131" s="6"/>
-      <c r="J131" s="29"/>
-      <c r="K131" s="29"/>
-      <c r="L131" s="29"/>
-      <c r="M131" s="29"/>
-      <c r="N131" s="29"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="20"/>
       <c r="O131" s="9"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
@@ -8059,17 +7987,17 @@
     <row r="132" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+      <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="5"/>
+      <c r="G132" s="9"/>
       <c r="H132" s="7"/>
       <c r="I132" s="6"/>
-      <c r="J132" s="29"/>
-      <c r="K132" s="29"/>
-      <c r="L132" s="29"/>
-      <c r="M132" s="29"/>
-      <c r="N132" s="29"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="20"/>
       <c r="O132" s="9"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
@@ -8078,17 +8006,17 @@
     <row r="133" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
+      <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="5"/>
+      <c r="G133" s="9"/>
       <c r="H133" s="7"/>
       <c r="I133" s="6"/>
-      <c r="J133" s="29"/>
-      <c r="K133" s="29"/>
-      <c r="L133" s="29"/>
-      <c r="M133" s="29"/>
-      <c r="N133" s="29"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="20"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="20"/>
       <c r="O133" s="9"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
@@ -8097,17 +8025,17 @@
     <row r="134" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+      <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="5"/>
+      <c r="G134" s="9"/>
       <c r="H134" s="7"/>
       <c r="I134" s="6"/>
-      <c r="J134" s="29"/>
-      <c r="K134" s="29"/>
-      <c r="L134" s="29"/>
-      <c r="M134" s="29"/>
-      <c r="N134" s="29"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
+      <c r="M134" s="20"/>
+      <c r="N134" s="20"/>
       <c r="O134" s="9"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
@@ -8116,17 +8044,17 @@
     <row r="135" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+      <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="5"/>
+      <c r="G135" s="9"/>
       <c r="H135" s="7"/>
       <c r="I135" s="6"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="29"/>
-      <c r="M135" s="29"/>
-      <c r="N135" s="29"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="20"/>
+      <c r="L135" s="20"/>
+      <c r="M135" s="20"/>
+      <c r="N135" s="20"/>
       <c r="O135" s="9"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
@@ -8135,17 +8063,17 @@
     <row r="136" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+      <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="5"/>
+      <c r="G136" s="9"/>
       <c r="H136" s="7"/>
       <c r="I136" s="6"/>
-      <c r="J136" s="29"/>
-      <c r="K136" s="29"/>
-      <c r="L136" s="29"/>
-      <c r="M136" s="29"/>
-      <c r="N136" s="29"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="20"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="20"/>
+      <c r="N136" s="20"/>
       <c r="O136" s="9"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
@@ -8154,17 +8082,17 @@
     <row r="137" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
+      <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="5"/>
+      <c r="G137" s="9"/>
       <c r="H137" s="7"/>
       <c r="I137" s="6"/>
-      <c r="J137" s="29"/>
-      <c r="K137" s="29"/>
-      <c r="L137" s="29"/>
-      <c r="M137" s="29"/>
-      <c r="N137" s="29"/>
+      <c r="J137" s="20"/>
+      <c r="K137" s="20"/>
+      <c r="L137" s="20"/>
+      <c r="M137" s="20"/>
+      <c r="N137" s="20"/>
       <c r="O137" s="9"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
@@ -8173,17 +8101,17 @@
     <row r="138" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="5"/>
+      <c r="G138" s="9"/>
       <c r="H138" s="7"/>
       <c r="I138" s="6"/>
-      <c r="J138" s="29"/>
-      <c r="K138" s="29"/>
-      <c r="L138" s="29"/>
-      <c r="M138" s="29"/>
-      <c r="N138" s="29"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="20"/>
+      <c r="L138" s="20"/>
+      <c r="M138" s="20"/>
+      <c r="N138" s="20"/>
       <c r="O138" s="9"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
@@ -8192,17 +8120,17 @@
     <row r="139" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+      <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="5"/>
+      <c r="G139" s="9"/>
       <c r="H139" s="7"/>
       <c r="I139" s="6"/>
-      <c r="J139" s="29"/>
-      <c r="K139" s="29"/>
-      <c r="L139" s="29"/>
-      <c r="M139" s="29"/>
-      <c r="N139" s="29"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="20"/>
+      <c r="L139" s="20"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="20"/>
       <c r="O139" s="9"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
@@ -8211,17 +8139,17 @@
     <row r="140" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
+      <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="5"/>
+      <c r="G140" s="9"/>
       <c r="H140" s="7"/>
       <c r="I140" s="6"/>
-      <c r="J140" s="29"/>
-      <c r="K140" s="29"/>
-      <c r="L140" s="29"/>
-      <c r="M140" s="29"/>
-      <c r="N140" s="29"/>
+      <c r="J140" s="20"/>
+      <c r="K140" s="20"/>
+      <c r="L140" s="20"/>
+      <c r="M140" s="20"/>
+      <c r="N140" s="20"/>
       <c r="O140" s="9"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
@@ -8230,17 +8158,17 @@
     <row r="141" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
+      <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="5"/>
+      <c r="G141" s="9"/>
       <c r="H141" s="7"/>
       <c r="I141" s="6"/>
-      <c r="J141" s="29"/>
-      <c r="K141" s="29"/>
-      <c r="L141" s="29"/>
-      <c r="M141" s="29"/>
-      <c r="N141" s="29"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="20"/>
       <c r="O141" s="9"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
@@ -8249,17 +8177,17 @@
     <row r="142" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+      <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="5"/>
+      <c r="G142" s="9"/>
       <c r="H142" s="7"/>
       <c r="I142" s="6"/>
-      <c r="J142" s="29"/>
-      <c r="K142" s="29"/>
-      <c r="L142" s="29"/>
-      <c r="M142" s="29"/>
-      <c r="N142" s="29"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="20"/>
       <c r="O142" s="9"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
@@ -8268,17 +8196,17 @@
     <row r="143" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
+      <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="5"/>
+      <c r="G143" s="9"/>
       <c r="H143" s="7"/>
       <c r="I143" s="6"/>
-      <c r="J143" s="29"/>
-      <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
-      <c r="M143" s="29"/>
-      <c r="N143" s="29"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="20"/>
       <c r="O143" s="9"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
@@ -8287,17 +8215,17 @@
     <row r="144" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+      <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="5"/>
+      <c r="G144" s="9"/>
       <c r="H144" s="7"/>
       <c r="I144" s="6"/>
-      <c r="J144" s="29"/>
-      <c r="K144" s="29"/>
-      <c r="L144" s="29"/>
-      <c r="M144" s="29"/>
-      <c r="N144" s="29"/>
+      <c r="J144" s="20"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="20"/>
       <c r="O144" s="9"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
@@ -8306,17 +8234,17 @@
     <row r="145" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="5"/>
+      <c r="G145" s="9"/>
       <c r="H145" s="7"/>
       <c r="I145" s="6"/>
-      <c r="J145" s="29"/>
-      <c r="K145" s="29"/>
-      <c r="L145" s="29"/>
-      <c r="M145" s="29"/>
-      <c r="N145" s="29"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="20"/>
       <c r="O145" s="9"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
@@ -8325,17 +8253,17 @@
     <row r="146" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+      <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="9"/>
-      <c r="G146" s="5"/>
+      <c r="G146" s="9"/>
       <c r="H146" s="7"/>
       <c r="I146" s="6"/>
-      <c r="J146" s="29"/>
-      <c r="K146" s="29"/>
-      <c r="L146" s="29"/>
-      <c r="M146" s="29"/>
-      <c r="N146" s="29"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="20"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="20"/>
       <c r="O146" s="9"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
@@ -8344,17 +8272,17 @@
     <row r="147" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="9"/>
-      <c r="G147" s="5"/>
+      <c r="G147" s="9"/>
       <c r="H147" s="7"/>
       <c r="I147" s="6"/>
-      <c r="J147" s="29"/>
-      <c r="K147" s="29"/>
-      <c r="L147" s="29"/>
-      <c r="M147" s="29"/>
-      <c r="N147" s="29"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="20"/>
       <c r="O147" s="9"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
@@ -8363,17 +8291,17 @@
     <row r="148" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+      <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="9"/>
-      <c r="G148" s="5"/>
+      <c r="G148" s="9"/>
       <c r="H148" s="7"/>
       <c r="I148" s="6"/>
-      <c r="J148" s="29"/>
-      <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
-      <c r="M148" s="29"/>
-      <c r="N148" s="29"/>
+      <c r="J148" s="20"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="20"/>
+      <c r="M148" s="20"/>
+      <c r="N148" s="20"/>
       <c r="O148" s="9"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
@@ -8382,17 +8310,17 @@
     <row r="149" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+      <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="5"/>
+      <c r="G149" s="9"/>
       <c r="H149" s="7"/>
       <c r="I149" s="6"/>
-      <c r="J149" s="29"/>
-      <c r="K149" s="29"/>
-      <c r="L149" s="29"/>
-      <c r="M149" s="29"/>
-      <c r="N149" s="29"/>
+      <c r="J149" s="20"/>
+      <c r="K149" s="20"/>
+      <c r="L149" s="20"/>
+      <c r="M149" s="20"/>
+      <c r="N149" s="20"/>
       <c r="O149" s="9"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
@@ -8401,17 +8329,17 @@
     <row r="150" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+      <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="5"/>
+      <c r="G150" s="9"/>
       <c r="H150" s="7"/>
       <c r="I150" s="6"/>
-      <c r="J150" s="29"/>
-      <c r="K150" s="29"/>
-      <c r="L150" s="29"/>
-      <c r="M150" s="29"/>
-      <c r="N150" s="29"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
+      <c r="M150" s="20"/>
+      <c r="N150" s="20"/>
       <c r="O150" s="9"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
@@ -8420,17 +8348,17 @@
     <row r="151" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+      <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="5"/>
+      <c r="G151" s="9"/>
       <c r="H151" s="7"/>
       <c r="I151" s="6"/>
-      <c r="J151" s="29"/>
-      <c r="K151" s="29"/>
-      <c r="L151" s="29"/>
-      <c r="M151" s="29"/>
-      <c r="N151" s="29"/>
+      <c r="J151" s="20"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="20"/>
       <c r="O151" s="9"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
@@ -8439,17 +8367,17 @@
     <row r="152" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
+      <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="5"/>
+      <c r="G152" s="9"/>
       <c r="H152" s="7"/>
       <c r="I152" s="6"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="29"/>
-      <c r="L152" s="29"/>
-      <c r="M152" s="29"/>
-      <c r="N152" s="29"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="20"/>
+      <c r="N152" s="20"/>
       <c r="O152" s="9"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
@@ -8458,17 +8386,17 @@
     <row r="153" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+      <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="5"/>
+      <c r="G153" s="9"/>
       <c r="H153" s="7"/>
       <c r="I153" s="6"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
-      <c r="M153" s="29"/>
-      <c r="N153" s="29"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="20"/>
       <c r="O153" s="9"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
@@ -8477,17 +8405,17 @@
     <row r="154" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="9"/>
-      <c r="G154" s="5"/>
+      <c r="G154" s="9"/>
       <c r="H154" s="7"/>
       <c r="I154" s="6"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
-      <c r="M154" s="29"/>
-      <c r="N154" s="29"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
       <c r="O154" s="9"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
@@ -8496,17 +8424,17 @@
     <row r="155" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
+      <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="9"/>
-      <c r="G155" s="5"/>
+      <c r="G155" s="9"/>
       <c r="H155" s="7"/>
       <c r="I155" s="6"/>
-      <c r="J155" s="29"/>
-      <c r="K155" s="29"/>
-      <c r="L155" s="29"/>
-      <c r="M155" s="29"/>
-      <c r="N155" s="29"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="20"/>
       <c r="O155" s="9"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
@@ -8515,17 +8443,17 @@
     <row r="156" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
+      <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="9"/>
-      <c r="G156" s="5"/>
+      <c r="G156" s="9"/>
       <c r="H156" s="7"/>
       <c r="I156" s="6"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-      <c r="N156" s="29"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="20"/>
       <c r="O156" s="9"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
@@ -8534,17 +8462,17 @@
     <row r="157" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="9"/>
-      <c r="G157" s="5"/>
+      <c r="G157" s="9"/>
       <c r="H157" s="7"/>
       <c r="I157" s="6"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="29"/>
-      <c r="L157" s="29"/>
-      <c r="M157" s="29"/>
-      <c r="N157" s="29"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="20"/>
       <c r="O157" s="9"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
@@ -8553,17 +8481,17 @@
     <row r="158" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
+      <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="9"/>
-      <c r="G158" s="5"/>
+      <c r="G158" s="9"/>
       <c r="H158" s="7"/>
       <c r="I158" s="6"/>
-      <c r="J158" s="29"/>
-      <c r="K158" s="29"/>
-      <c r="L158" s="29"/>
-      <c r="M158" s="29"/>
-      <c r="N158" s="29"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="20"/>
+      <c r="M158" s="20"/>
+      <c r="N158" s="20"/>
       <c r="O158" s="9"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
@@ -8572,17 +8500,17 @@
     <row r="159" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
+      <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="5"/>
+      <c r="G159" s="9"/>
       <c r="H159" s="7"/>
       <c r="I159" s="6"/>
-      <c r="J159" s="29"/>
-      <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
-      <c r="M159" s="29"/>
-      <c r="N159" s="29"/>
+      <c r="J159" s="20"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="20"/>
       <c r="O159" s="9"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
@@ -8591,17 +8519,17 @@
     <row r="160" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
+      <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="5"/>
+      <c r="G160" s="9"/>
       <c r="H160" s="7"/>
       <c r="I160" s="6"/>
-      <c r="J160" s="29"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="29"/>
-      <c r="N160" s="29"/>
+      <c r="J160" s="20"/>
+      <c r="K160" s="20"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="20"/>
       <c r="O160" s="9"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
@@ -8610,17 +8538,17 @@
     <row r="161" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
+      <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="5"/>
+      <c r="G161" s="9"/>
       <c r="H161" s="7"/>
       <c r="I161" s="6"/>
-      <c r="J161" s="29"/>
-      <c r="K161" s="29"/>
-      <c r="L161" s="29"/>
-      <c r="M161" s="29"/>
-      <c r="N161" s="29"/>
+      <c r="J161" s="20"/>
+      <c r="K161" s="20"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="20"/>
       <c r="O161" s="9"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
@@ -8629,17 +8557,17 @@
     <row r="162" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+      <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="9"/>
-      <c r="G162" s="5"/>
+      <c r="G162" s="9"/>
       <c r="H162" s="7"/>
       <c r="I162" s="6"/>
-      <c r="J162" s="29"/>
-      <c r="K162" s="29"/>
-      <c r="L162" s="29"/>
-      <c r="M162" s="29"/>
-      <c r="N162" s="29"/>
+      <c r="J162" s="20"/>
+      <c r="K162" s="20"/>
+      <c r="L162" s="20"/>
+      <c r="M162" s="20"/>
+      <c r="N162" s="20"/>
       <c r="O162" s="9"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
@@ -8648,17 +8576,17 @@
     <row r="163" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+      <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="5"/>
+      <c r="G163" s="9"/>
       <c r="H163" s="7"/>
       <c r="I163" s="6"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="29"/>
-      <c r="L163" s="29"/>
-      <c r="M163" s="29"/>
-      <c r="N163" s="29"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="20"/>
       <c r="O163" s="9"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
@@ -8667,17 +8595,17 @@
     <row r="164" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
+      <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="5"/>
+      <c r="G164" s="9"/>
       <c r="H164" s="7"/>
       <c r="I164" s="6"/>
-      <c r="J164" s="29"/>
-      <c r="K164" s="29"/>
-      <c r="L164" s="29"/>
-      <c r="M164" s="29"/>
-      <c r="N164" s="29"/>
+      <c r="J164" s="20"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="20"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="20"/>
       <c r="O164" s="9"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
@@ -8686,17 +8614,17 @@
     <row r="165" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
+      <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="9"/>
-      <c r="G165" s="5"/>
+      <c r="G165" s="9"/>
       <c r="H165" s="7"/>
       <c r="I165" s="6"/>
-      <c r="J165" s="29"/>
-      <c r="K165" s="29"/>
-      <c r="L165" s="29"/>
-      <c r="M165" s="29"/>
-      <c r="N165" s="29"/>
+      <c r="J165" s="20"/>
+      <c r="K165" s="20"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="20"/>
+      <c r="N165" s="20"/>
       <c r="O165" s="9"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
@@ -8705,17 +8633,17 @@
     <row r="166" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
+      <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="5"/>
+      <c r="G166" s="9"/>
       <c r="H166" s="7"/>
       <c r="I166" s="6"/>
-      <c r="J166" s="29"/>
-      <c r="K166" s="29"/>
-      <c r="L166" s="29"/>
-      <c r="M166" s="29"/>
-      <c r="N166" s="29"/>
+      <c r="J166" s="20"/>
+      <c r="K166" s="20"/>
+      <c r="L166" s="20"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="20"/>
       <c r="O166" s="9"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
@@ -8724,17 +8652,17 @@
     <row r="167" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
+      <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="9"/>
-      <c r="G167" s="5"/>
+      <c r="G167" s="9"/>
       <c r="H167" s="7"/>
       <c r="I167" s="6"/>
-      <c r="J167" s="29"/>
-      <c r="K167" s="29"/>
-      <c r="L167" s="29"/>
-      <c r="M167" s="29"/>
-      <c r="N167" s="29"/>
+      <c r="J167" s="20"/>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="20"/>
       <c r="O167" s="9"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
@@ -8743,17 +8671,17 @@
     <row r="168" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
+      <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="5"/>
+      <c r="G168" s="9"/>
       <c r="H168" s="7"/>
       <c r="I168" s="6"/>
-      <c r="J168" s="29"/>
-      <c r="K168" s="29"/>
-      <c r="L168" s="29"/>
-      <c r="M168" s="29"/>
-      <c r="N168" s="29"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="20"/>
+      <c r="L168" s="20"/>
+      <c r="M168" s="20"/>
+      <c r="N168" s="20"/>
       <c r="O168" s="9"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
@@ -8762,17 +8690,17 @@
     <row r="169" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
+      <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="5"/>
+      <c r="G169" s="9"/>
       <c r="H169" s="7"/>
       <c r="I169" s="6"/>
-      <c r="J169" s="29"/>
-      <c r="K169" s="29"/>
-      <c r="L169" s="29"/>
-      <c r="M169" s="29"/>
-      <c r="N169" s="29"/>
+      <c r="J169" s="20"/>
+      <c r="K169" s="20"/>
+      <c r="L169" s="20"/>
+      <c r="M169" s="20"/>
+      <c r="N169" s="20"/>
       <c r="O169" s="9"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
@@ -8781,17 +8709,17 @@
     <row r="170" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
+      <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="5"/>
+      <c r="G170" s="9"/>
       <c r="H170" s="7"/>
       <c r="I170" s="6"/>
-      <c r="J170" s="29"/>
-      <c r="K170" s="29"/>
-      <c r="L170" s="29"/>
-      <c r="M170" s="29"/>
-      <c r="N170" s="29"/>
+      <c r="J170" s="20"/>
+      <c r="K170" s="20"/>
+      <c r="L170" s="20"/>
+      <c r="M170" s="20"/>
+      <c r="N170" s="20"/>
       <c r="O170" s="9"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
@@ -8800,17 +8728,17 @@
     <row r="171" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
+      <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="9"/>
-      <c r="G171" s="5"/>
+      <c r="G171" s="9"/>
       <c r="H171" s="7"/>
       <c r="I171" s="6"/>
-      <c r="J171" s="29"/>
-      <c r="K171" s="29"/>
-      <c r="L171" s="29"/>
-      <c r="M171" s="29"/>
-      <c r="N171" s="29"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="20"/>
+      <c r="L171" s="20"/>
+      <c r="M171" s="20"/>
+      <c r="N171" s="20"/>
       <c r="O171" s="9"/>
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
@@ -8819,17 +8747,17 @@
     <row r="172" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
+      <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="5"/>
+      <c r="G172" s="9"/>
       <c r="H172" s="7"/>
       <c r="I172" s="6"/>
-      <c r="J172" s="29"/>
-      <c r="K172" s="29"/>
-      <c r="L172" s="29"/>
-      <c r="M172" s="29"/>
-      <c r="N172" s="29"/>
+      <c r="J172" s="20"/>
+      <c r="K172" s="20"/>
+      <c r="L172" s="20"/>
+      <c r="M172" s="20"/>
+      <c r="N172" s="20"/>
       <c r="O172" s="9"/>
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
@@ -8838,17 +8766,17 @@
     <row r="173" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
+      <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="5"/>
+      <c r="G173" s="9"/>
       <c r="H173" s="7"/>
       <c r="I173" s="6"/>
-      <c r="J173" s="29"/>
-      <c r="K173" s="29"/>
-      <c r="L173" s="29"/>
-      <c r="M173" s="29"/>
-      <c r="N173" s="29"/>
+      <c r="J173" s="20"/>
+      <c r="K173" s="20"/>
+      <c r="L173" s="20"/>
+      <c r="M173" s="20"/>
+      <c r="N173" s="20"/>
       <c r="O173" s="9"/>
       <c r="P173" s="6"/>
       <c r="Q173" s="6"/>
@@ -8857,17 +8785,17 @@
     <row r="174" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
+      <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="9"/>
-      <c r="G174" s="5"/>
+      <c r="G174" s="9"/>
       <c r="H174" s="7"/>
       <c r="I174" s="6"/>
-      <c r="J174" s="29"/>
-      <c r="K174" s="29"/>
-      <c r="L174" s="29"/>
-      <c r="M174" s="29"/>
-      <c r="N174" s="29"/>
+      <c r="J174" s="20"/>
+      <c r="K174" s="20"/>
+      <c r="L174" s="20"/>
+      <c r="M174" s="20"/>
+      <c r="N174" s="20"/>
       <c r="O174" s="9"/>
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
@@ -8876,17 +8804,17 @@
     <row r="175" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
+      <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="9"/>
-      <c r="G175" s="5"/>
+      <c r="G175" s="9"/>
       <c r="H175" s="7"/>
       <c r="I175" s="6"/>
-      <c r="J175" s="29"/>
-      <c r="K175" s="29"/>
-      <c r="L175" s="29"/>
-      <c r="M175" s="29"/>
-      <c r="N175" s="29"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
+      <c r="M175" s="20"/>
+      <c r="N175" s="20"/>
       <c r="O175" s="9"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
@@ -8895,17 +8823,17 @@
     <row r="176" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
+      <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="9"/>
-      <c r="G176" s="5"/>
+      <c r="G176" s="9"/>
       <c r="H176" s="7"/>
       <c r="I176" s="6"/>
-      <c r="J176" s="29"/>
-      <c r="K176" s="29"/>
-      <c r="L176" s="29"/>
-      <c r="M176" s="29"/>
-      <c r="N176" s="29"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
+      <c r="M176" s="20"/>
+      <c r="N176" s="20"/>
       <c r="O176" s="9"/>
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
@@ -8914,17 +8842,17 @@
     <row r="177" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
+      <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="5"/>
+      <c r="G177" s="9"/>
       <c r="H177" s="7"/>
       <c r="I177" s="6"/>
-      <c r="J177" s="29"/>
-      <c r="K177" s="29"/>
-      <c r="L177" s="29"/>
-      <c r="M177" s="29"/>
-      <c r="N177" s="29"/>
+      <c r="J177" s="20"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20"/>
+      <c r="M177" s="20"/>
+      <c r="N177" s="20"/>
       <c r="O177" s="9"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
@@ -8933,17 +8861,17 @@
     <row r="178" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
+      <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="5"/>
+      <c r="G178" s="9"/>
       <c r="H178" s="7"/>
       <c r="I178" s="6"/>
-      <c r="J178" s="29"/>
-      <c r="K178" s="29"/>
-      <c r="L178" s="29"/>
-      <c r="M178" s="29"/>
-      <c r="N178" s="29"/>
+      <c r="J178" s="20"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
+      <c r="M178" s="20"/>
+      <c r="N178" s="20"/>
       <c r="O178" s="9"/>
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
@@ -8952,17 +8880,17 @@
     <row r="179" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
+      <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="9"/>
-      <c r="G179" s="5"/>
+      <c r="G179" s="9"/>
       <c r="H179" s="7"/>
       <c r="I179" s="6"/>
-      <c r="J179" s="29"/>
-      <c r="K179" s="29"/>
-      <c r="L179" s="29"/>
-      <c r="M179" s="29"/>
-      <c r="N179" s="29"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20"/>
+      <c r="M179" s="20"/>
+      <c r="N179" s="20"/>
       <c r="O179" s="9"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
@@ -8971,17 +8899,17 @@
     <row r="180" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
+      <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="9"/>
-      <c r="G180" s="5"/>
+      <c r="G180" s="9"/>
       <c r="H180" s="7"/>
       <c r="I180" s="6"/>
-      <c r="J180" s="29"/>
-      <c r="K180" s="29"/>
-      <c r="L180" s="29"/>
-      <c r="M180" s="29"/>
-      <c r="N180" s="29"/>
+      <c r="J180" s="20"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="20"/>
+      <c r="M180" s="20"/>
+      <c r="N180" s="20"/>
       <c r="O180" s="9"/>
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
@@ -8990,17 +8918,17 @@
     <row r="181" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
+      <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="9"/>
-      <c r="G181" s="5"/>
+      <c r="G181" s="9"/>
       <c r="H181" s="7"/>
       <c r="I181" s="6"/>
-      <c r="J181" s="29"/>
-      <c r="K181" s="29"/>
-      <c r="L181" s="29"/>
-      <c r="M181" s="29"/>
-      <c r="N181" s="29"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="20"/>
+      <c r="N181" s="20"/>
       <c r="O181" s="9"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
@@ -9009,17 +8937,17 @@
     <row r="182" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
+      <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="9"/>
-      <c r="G182" s="5"/>
+      <c r="G182" s="9"/>
       <c r="H182" s="7"/>
       <c r="I182" s="6"/>
-      <c r="J182" s="29"/>
-      <c r="K182" s="29"/>
-      <c r="L182" s="29"/>
-      <c r="M182" s="29"/>
-      <c r="N182" s="29"/>
+      <c r="J182" s="20"/>
+      <c r="K182" s="20"/>
+      <c r="L182" s="20"/>
+      <c r="M182" s="20"/>
+      <c r="N182" s="20"/>
       <c r="O182" s="9"/>
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
@@ -9028,17 +8956,17 @@
     <row r="183" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
+      <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="9"/>
-      <c r="G183" s="5"/>
+      <c r="G183" s="9"/>
       <c r="H183" s="7"/>
       <c r="I183" s="6"/>
-      <c r="J183" s="29"/>
-      <c r="K183" s="29"/>
-      <c r="L183" s="29"/>
-      <c r="M183" s="29"/>
-      <c r="N183" s="29"/>
+      <c r="J183" s="20"/>
+      <c r="K183" s="20"/>
+      <c r="L183" s="20"/>
+      <c r="M183" s="20"/>
+      <c r="N183" s="20"/>
       <c r="O183" s="9"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
@@ -9047,17 +8975,17 @@
     <row r="184" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
+      <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="9"/>
-      <c r="G184" s="5"/>
+      <c r="G184" s="9"/>
       <c r="H184" s="7"/>
       <c r="I184" s="6"/>
-      <c r="J184" s="29"/>
-      <c r="K184" s="29"/>
-      <c r="L184" s="29"/>
-      <c r="M184" s="29"/>
-      <c r="N184" s="29"/>
+      <c r="J184" s="20"/>
+      <c r="K184" s="20"/>
+      <c r="L184" s="20"/>
+      <c r="M184" s="20"/>
+      <c r="N184" s="20"/>
       <c r="O184" s="9"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
@@ -9066,17 +8994,17 @@
     <row r="185" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
+      <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="9"/>
-      <c r="G185" s="5"/>
+      <c r="G185" s="9"/>
       <c r="H185" s="7"/>
       <c r="I185" s="6"/>
-      <c r="J185" s="29"/>
-      <c r="K185" s="29"/>
-      <c r="L185" s="29"/>
-      <c r="M185" s="29"/>
-      <c r="N185" s="29"/>
+      <c r="J185" s="20"/>
+      <c r="K185" s="20"/>
+      <c r="L185" s="20"/>
+      <c r="M185" s="20"/>
+      <c r="N185" s="20"/>
       <c r="O185" s="9"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
@@ -9085,17 +9013,17 @@
     <row r="186" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
+      <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="9"/>
-      <c r="G186" s="5"/>
+      <c r="G186" s="9"/>
       <c r="H186" s="7"/>
       <c r="I186" s="6"/>
-      <c r="J186" s="29"/>
-      <c r="K186" s="29"/>
-      <c r="L186" s="29"/>
-      <c r="M186" s="29"/>
-      <c r="N186" s="29"/>
+      <c r="J186" s="20"/>
+      <c r="K186" s="20"/>
+      <c r="L186" s="20"/>
+      <c r="M186" s="20"/>
+      <c r="N186" s="20"/>
       <c r="O186" s="9"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
@@ -9104,17 +9032,17 @@
     <row r="187" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
+      <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="9"/>
-      <c r="G187" s="5"/>
+      <c r="G187" s="9"/>
       <c r="H187" s="7"/>
       <c r="I187" s="6"/>
-      <c r="J187" s="29"/>
-      <c r="K187" s="29"/>
-      <c r="L187" s="29"/>
-      <c r="M187" s="29"/>
-      <c r="N187" s="29"/>
+      <c r="J187" s="20"/>
+      <c r="K187" s="20"/>
+      <c r="L187" s="20"/>
+      <c r="M187" s="20"/>
+      <c r="N187" s="20"/>
       <c r="O187" s="9"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
@@ -9123,17 +9051,17 @@
     <row r="188" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
+      <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="9"/>
-      <c r="G188" s="5"/>
+      <c r="G188" s="9"/>
       <c r="H188" s="7"/>
       <c r="I188" s="6"/>
-      <c r="J188" s="29"/>
-      <c r="K188" s="29"/>
-      <c r="L188" s="29"/>
-      <c r="M188" s="29"/>
-      <c r="N188" s="29"/>
+      <c r="J188" s="20"/>
+      <c r="K188" s="20"/>
+      <c r="L188" s="20"/>
+      <c r="M188" s="20"/>
+      <c r="N188" s="20"/>
       <c r="O188" s="9"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
@@ -9142,17 +9070,17 @@
     <row r="189" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
+      <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="9"/>
-      <c r="G189" s="5"/>
+      <c r="G189" s="9"/>
       <c r="H189" s="7"/>
       <c r="I189" s="6"/>
-      <c r="J189" s="29"/>
-      <c r="K189" s="29"/>
-      <c r="L189" s="29"/>
-      <c r="M189" s="29"/>
-      <c r="N189" s="29"/>
+      <c r="J189" s="20"/>
+      <c r="K189" s="20"/>
+      <c r="L189" s="20"/>
+      <c r="M189" s="20"/>
+      <c r="N189" s="20"/>
       <c r="O189" s="9"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
@@ -9161,17 +9089,17 @@
     <row r="190" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
+      <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="9"/>
-      <c r="G190" s="5"/>
+      <c r="G190" s="9"/>
       <c r="H190" s="7"/>
       <c r="I190" s="6"/>
-      <c r="J190" s="29"/>
-      <c r="K190" s="29"/>
-      <c r="L190" s="29"/>
-      <c r="M190" s="29"/>
-      <c r="N190" s="29"/>
+      <c r="J190" s="20"/>
+      <c r="K190" s="20"/>
+      <c r="L190" s="20"/>
+      <c r="M190" s="20"/>
+      <c r="N190" s="20"/>
       <c r="O190" s="9"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
@@ -9180,17 +9108,17 @@
     <row r="191" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
+      <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="9"/>
-      <c r="G191" s="5"/>
+      <c r="G191" s="9"/>
       <c r="H191" s="7"/>
       <c r="I191" s="6"/>
-      <c r="J191" s="29"/>
-      <c r="K191" s="29"/>
-      <c r="L191" s="29"/>
-      <c r="M191" s="29"/>
-      <c r="N191" s="29"/>
+      <c r="J191" s="20"/>
+      <c r="K191" s="20"/>
+      <c r="L191" s="20"/>
+      <c r="M191" s="20"/>
+      <c r="N191" s="20"/>
       <c r="O191" s="9"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
@@ -9199,17 +9127,17 @@
     <row r="192" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="9"/>
-      <c r="G192" s="5"/>
+      <c r="G192" s="9"/>
       <c r="H192" s="7"/>
       <c r="I192" s="6"/>
-      <c r="J192" s="29"/>
-      <c r="K192" s="29"/>
-      <c r="L192" s="29"/>
-      <c r="M192" s="29"/>
-      <c r="N192" s="29"/>
+      <c r="J192" s="20"/>
+      <c r="K192" s="20"/>
+      <c r="L192" s="20"/>
+      <c r="M192" s="20"/>
+      <c r="N192" s="20"/>
       <c r="O192" s="9"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
@@ -9218,17 +9146,17 @@
     <row r="193" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
+      <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="9"/>
-      <c r="G193" s="5"/>
+      <c r="G193" s="9"/>
       <c r="H193" s="7"/>
       <c r="I193" s="6"/>
-      <c r="J193" s="29"/>
-      <c r="K193" s="29"/>
-      <c r="L193" s="29"/>
-      <c r="M193" s="29"/>
-      <c r="N193" s="29"/>
+      <c r="J193" s="20"/>
+      <c r="K193" s="20"/>
+      <c r="L193" s="20"/>
+      <c r="M193" s="20"/>
+      <c r="N193" s="20"/>
       <c r="O193" s="9"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
@@ -9237,17 +9165,17 @@
     <row r="194" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
+      <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="9"/>
-      <c r="G194" s="5"/>
+      <c r="G194" s="9"/>
       <c r="H194" s="7"/>
       <c r="I194" s="6"/>
-      <c r="J194" s="29"/>
-      <c r="K194" s="29"/>
-      <c r="L194" s="29"/>
-      <c r="M194" s="29"/>
-      <c r="N194" s="29"/>
+      <c r="J194" s="20"/>
+      <c r="K194" s="20"/>
+      <c r="L194" s="20"/>
+      <c r="M194" s="20"/>
+      <c r="N194" s="20"/>
       <c r="O194" s="9"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
@@ -9256,17 +9184,17 @@
     <row r="195" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
+      <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="9"/>
-      <c r="G195" s="5"/>
+      <c r="G195" s="9"/>
       <c r="H195" s="7"/>
       <c r="I195" s="6"/>
-      <c r="J195" s="29"/>
-      <c r="K195" s="29"/>
-      <c r="L195" s="29"/>
-      <c r="M195" s="29"/>
-      <c r="N195" s="29"/>
+      <c r="J195" s="20"/>
+      <c r="K195" s="20"/>
+      <c r="L195" s="20"/>
+      <c r="M195" s="20"/>
+      <c r="N195" s="20"/>
       <c r="O195" s="9"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
@@ -9275,17 +9203,17 @@
     <row r="196" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
+      <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="9"/>
-      <c r="G196" s="5"/>
+      <c r="G196" s="9"/>
       <c r="H196" s="7"/>
       <c r="I196" s="6"/>
-      <c r="J196" s="29"/>
-      <c r="K196" s="29"/>
-      <c r="L196" s="29"/>
-      <c r="M196" s="29"/>
-      <c r="N196" s="29"/>
+      <c r="J196" s="20"/>
+      <c r="K196" s="20"/>
+      <c r="L196" s="20"/>
+      <c r="M196" s="20"/>
+      <c r="N196" s="20"/>
       <c r="O196" s="9"/>
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
@@ -9294,17 +9222,17 @@
     <row r="197" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
+      <c r="D197" s="7"/>
       <c r="E197" s="7"/>
       <c r="F197" s="9"/>
-      <c r="G197" s="5"/>
+      <c r="G197" s="9"/>
       <c r="H197" s="7"/>
       <c r="I197" s="6"/>
-      <c r="J197" s="29"/>
-      <c r="K197" s="29"/>
-      <c r="L197" s="29"/>
-      <c r="M197" s="29"/>
-      <c r="N197" s="29"/>
+      <c r="J197" s="20"/>
+      <c r="K197" s="20"/>
+      <c r="L197" s="20"/>
+      <c r="M197" s="20"/>
+      <c r="N197" s="20"/>
       <c r="O197" s="9"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
@@ -9313,17 +9241,17 @@
     <row r="198" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
+      <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="9"/>
-      <c r="G198" s="5"/>
+      <c r="G198" s="9"/>
       <c r="H198" s="7"/>
       <c r="I198" s="6"/>
-      <c r="J198" s="29"/>
-      <c r="K198" s="29"/>
-      <c r="L198" s="29"/>
-      <c r="M198" s="29"/>
-      <c r="N198" s="29"/>
+      <c r="J198" s="20"/>
+      <c r="K198" s="20"/>
+      <c r="L198" s="20"/>
+      <c r="M198" s="20"/>
+      <c r="N198" s="20"/>
       <c r="O198" s="9"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
@@ -9332,17 +9260,17 @@
     <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
+      <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="9"/>
-      <c r="G199" s="5"/>
+      <c r="G199" s="9"/>
       <c r="H199" s="7"/>
       <c r="I199" s="6"/>
-      <c r="J199" s="29"/>
-      <c r="K199" s="29"/>
-      <c r="L199" s="29"/>
-      <c r="M199" s="29"/>
-      <c r="N199" s="29"/>
+      <c r="J199" s="20"/>
+      <c r="K199" s="20"/>
+      <c r="L199" s="20"/>
+      <c r="M199" s="20"/>
+      <c r="N199" s="20"/>
       <c r="O199" s="9"/>
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
@@ -9351,17 +9279,17 @@
     <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
+      <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="9"/>
-      <c r="G200" s="5"/>
+      <c r="G200" s="9"/>
       <c r="H200" s="7"/>
       <c r="I200" s="6"/>
-      <c r="J200" s="29"/>
-      <c r="K200" s="29"/>
-      <c r="L200" s="29"/>
-      <c r="M200" s="29"/>
-      <c r="N200" s="29"/>
+      <c r="J200" s="20"/>
+      <c r="K200" s="20"/>
+      <c r="L200" s="20"/>
+      <c r="M200" s="20"/>
+      <c r="N200" s="20"/>
       <c r="O200" s="9"/>
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
@@ -9386,6 +9314,7 @@
       <c r="Q201" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="B7:R7" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}"/>
   <mergeCells count="4">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF56316-EC4B-44AC-B28B-97D748635FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAA9AEC-7A89-4235-A677-4E1135A0D821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -495,19 +495,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,14 +529,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A2:S200"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,7 +914,7 @@
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="17"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="21" t="s">
         <v>24</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="I5" s="9">
         <v>9000</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>13.597424398249455</v>
       </c>
       <c r="K5" s="7">
@@ -1065,7 +1065,7 @@
       <c r="I6" s="9">
         <v>6000</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>12.347246296726411</v>
       </c>
       <c r="K6" s="7">
@@ -1089,10 +1089,10 @@
       <c r="Q6" s="8">
         <v>45169</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       <c r="I7" s="9">
         <v>3000</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>44.056787530908295</v>
       </c>
       <c r="K7" s="7">
@@ -1145,10 +1145,10 @@
       <c r="Q7" s="8">
         <v>45077</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="I8" s="9">
         <v>6000</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>11.828743634431557</v>
       </c>
       <c r="K8" s="7">
@@ -1201,10 +1201,10 @@
       <c r="Q8" s="8">
         <v>45169</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       <c r="I9" s="9">
         <v>4000</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>19</v>
       </c>
       <c r="K9" s="7">
@@ -1257,10 +1257,10 @@
       <c r="Q9" s="8">
         <v>44985</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       <c r="I10" s="9">
         <v>60000</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>1.9</v>
       </c>
       <c r="K10" s="7">
@@ -1313,10 +1313,10 @@
       <c r="Q10" s="8">
         <v>44985</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S10" s="19" t="s">
+      <c r="S10" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       <c r="I11" s="9">
         <v>4000</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>32.903732767036438</v>
       </c>
       <c r="K11" s="7">
@@ -1369,10 +1369,10 @@
       <c r="Q11" s="8">
         <v>45169</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="R11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       <c r="I12" s="9">
         <v>20000</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>5.6205259760239548</v>
       </c>
       <c r="K12" s="7">
@@ -1425,10 +1425,10 @@
       <c r="Q12" s="8">
         <v>45077</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       <c r="I13" s="9">
         <v>8000</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="7">
         <v>7.2353440985062409</v>
       </c>
       <c r="K13" s="7">
@@ -1481,10 +1481,10 @@
       <c r="Q13" s="8">
         <v>44985</v>
       </c>
-      <c r="R13" s="19" t="s">
+      <c r="R13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       <c r="I14" s="9">
         <v>22000</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>2.0514668160851408</v>
       </c>
       <c r="K14" s="7">
@@ -1537,10 +1537,10 @@
       <c r="Q14" s="8">
         <v>44985</v>
       </c>
-      <c r="R14" s="19" t="s">
+      <c r="R14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="19" t="s">
+      <c r="S14" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -1561,8 +1561,8 @@
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
@@ -1573,7 +1573,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -1593,7 +1593,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -1613,7 +1613,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1633,7 +1633,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -1653,7 +1653,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -1673,7 +1673,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -1693,7 +1693,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -1713,7 +1713,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -1733,7 +1733,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -1753,7 +1753,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -1773,7 +1773,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -1793,7 +1793,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -1813,7 +1813,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -1833,7 +1833,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -1853,7 +1853,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -1873,7 +1873,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -1893,7 +1893,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -1913,7 +1913,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -1933,7 +1933,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -1953,7 +1953,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="7"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -1973,7 +1973,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -1993,7 +1993,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -2013,7 +2013,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="7"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -2033,7 +2033,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="7"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -2053,7 +2053,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="7"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -2073,7 +2073,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -2093,7 +2093,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="7"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -2113,7 +2113,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -2133,7 +2133,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -2153,7 +2153,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
@@ -2173,7 +2173,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -2193,7 +2193,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="7"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
@@ -2213,7 +2213,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="7"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
@@ -2233,7 +2233,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="7"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -2253,7 +2253,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -2273,7 +2273,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="7"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -2293,7 +2293,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="7"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -2313,7 +2313,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="7"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -2333,7 +2333,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="7"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -2353,7 +2353,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="7"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
@@ -2373,7 +2373,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="7"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -2393,7 +2393,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="7"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -2413,7 +2413,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="7"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -2433,7 +2433,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="7"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -2453,7 +2453,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="7"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -2473,7 +2473,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="7"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -2493,7 +2493,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="7"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -2513,7 +2513,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="7"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
@@ -2533,7 +2533,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="7"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
@@ -2553,7 +2553,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="7"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
+      <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -2573,7 +2573,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="7"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
+      <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -2593,7 +2593,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="7"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -2613,7 +2613,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="7"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
+      <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -2633,7 +2633,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="7"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -2653,7 +2653,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="7"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
+      <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -2673,7 +2673,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="7"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
+      <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -2693,7 +2693,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="7"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
+      <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -2713,7 +2713,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="7"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
+      <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -2733,7 +2733,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="7"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
+      <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -2753,7 +2753,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="7"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
+      <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -2773,7 +2773,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="7"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
+      <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -2793,7 +2793,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="7"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -2813,7 +2813,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="7"/>
       <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -2833,7 +2833,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="7"/>
       <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
@@ -2853,7 +2853,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="7"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
+      <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
@@ -2873,7 +2873,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="7"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
+      <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
@@ -2893,7 +2893,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="7"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
+      <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
@@ -2913,7 +2913,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="7"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
+      <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -2933,7 +2933,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="7"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
+      <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
@@ -2953,7 +2953,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="7"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
+      <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -2973,7 +2973,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="7"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
+      <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
@@ -2993,7 +2993,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="7"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
+      <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -3013,7 +3013,7 @@
       <c r="G88" s="6"/>
       <c r="H88" s="7"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
+      <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -3033,7 +3033,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="7"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
+      <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -3053,7 +3053,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="7"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
+      <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -3073,7 +3073,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="7"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
+      <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
@@ -3093,7 +3093,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="7"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
+      <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -3113,7 +3113,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="7"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
+      <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -3133,7 +3133,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="7"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
+      <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
@@ -3153,7 +3153,7 @@
       <c r="G95" s="6"/>
       <c r="H95" s="7"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
+      <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
@@ -3173,7 +3173,7 @@
       <c r="G96" s="6"/>
       <c r="H96" s="7"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
+      <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
@@ -3193,7 +3193,7 @@
       <c r="G97" s="6"/>
       <c r="H97" s="7"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
+      <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
@@ -3213,7 +3213,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="7"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
+      <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
@@ -3233,7 +3233,7 @@
       <c r="G99" s="6"/>
       <c r="H99" s="7"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
+      <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
@@ -3253,7 +3253,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="7"/>
       <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
+      <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -3273,7 +3273,7 @@
       <c r="G101" s="6"/>
       <c r="H101" s="7"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
+      <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
@@ -3293,7 +3293,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="7"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
+      <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
@@ -3313,7 +3313,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="7"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
+      <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
@@ -3333,7 +3333,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="7"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
+      <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
@@ -3353,7 +3353,7 @@
       <c r="G105" s="6"/>
       <c r="H105" s="7"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
+      <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
@@ -3373,7 +3373,7 @@
       <c r="G106" s="6"/>
       <c r="H106" s="7"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
+      <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
@@ -3393,7 +3393,7 @@
       <c r="G107" s="6"/>
       <c r="H107" s="7"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
+      <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
@@ -3413,7 +3413,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="7"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
+      <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
@@ -3433,7 +3433,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="7"/>
       <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
+      <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
@@ -3453,7 +3453,7 @@
       <c r="G110" s="6"/>
       <c r="H110" s="7"/>
       <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
+      <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
@@ -3473,7 +3473,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="7"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
+      <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
@@ -3493,7 +3493,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="7"/>
       <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
+      <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
@@ -3513,7 +3513,7 @@
       <c r="G113" s="6"/>
       <c r="H113" s="7"/>
       <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
+      <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
@@ -3533,7 +3533,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="7"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
+      <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
@@ -3553,7 +3553,7 @@
       <c r="G115" s="6"/>
       <c r="H115" s="7"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
+      <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
@@ -3573,7 +3573,7 @@
       <c r="G116" s="6"/>
       <c r="H116" s="7"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
+      <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
@@ -3593,7 +3593,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="7"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
+      <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
@@ -3613,7 +3613,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="7"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
+      <c r="J118" s="7"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
@@ -3633,7 +3633,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="7"/>
       <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
+      <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
@@ -3653,7 +3653,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="7"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
+      <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
@@ -3673,7 +3673,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="7"/>
       <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
+      <c r="J121" s="7"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
@@ -3693,7 +3693,7 @@
       <c r="G122" s="6"/>
       <c r="H122" s="7"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
+      <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
@@ -3713,7 +3713,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="7"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
+      <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
@@ -3733,7 +3733,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="7"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
+      <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
@@ -3753,7 +3753,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="7"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
+      <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
@@ -3773,7 +3773,7 @@
       <c r="G126" s="6"/>
       <c r="H126" s="7"/>
       <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
+      <c r="J126" s="7"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
@@ -3793,7 +3793,7 @@
       <c r="G127" s="6"/>
       <c r="H127" s="7"/>
       <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
+      <c r="J127" s="7"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
@@ -3813,7 +3813,7 @@
       <c r="G128" s="6"/>
       <c r="H128" s="7"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
+      <c r="J128" s="7"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
@@ -3833,7 +3833,7 @@
       <c r="G129" s="6"/>
       <c r="H129" s="7"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
+      <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
@@ -3853,7 +3853,7 @@
       <c r="G130" s="6"/>
       <c r="H130" s="7"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
+      <c r="J130" s="7"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
@@ -3873,7 +3873,7 @@
       <c r="G131" s="6"/>
       <c r="H131" s="7"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
+      <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
@@ -3893,7 +3893,7 @@
       <c r="G132" s="6"/>
       <c r="H132" s="7"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
+      <c r="J132" s="7"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
@@ -3913,7 +3913,7 @@
       <c r="G133" s="6"/>
       <c r="H133" s="7"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
+      <c r="J133" s="7"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
@@ -3933,7 +3933,7 @@
       <c r="G134" s="6"/>
       <c r="H134" s="7"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
+      <c r="J134" s="7"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
@@ -3953,7 +3953,7 @@
       <c r="G135" s="6"/>
       <c r="H135" s="7"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
+      <c r="J135" s="7"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
@@ -3973,7 +3973,7 @@
       <c r="G136" s="6"/>
       <c r="H136" s="7"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
+      <c r="J136" s="7"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
@@ -3993,7 +3993,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="7"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
+      <c r="J137" s="7"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
@@ -4013,7 +4013,7 @@
       <c r="G138" s="6"/>
       <c r="H138" s="7"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
+      <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
@@ -4033,7 +4033,7 @@
       <c r="G139" s="6"/>
       <c r="H139" s="7"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
+      <c r="J139" s="7"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
@@ -4053,7 +4053,7 @@
       <c r="G140" s="6"/>
       <c r="H140" s="7"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
+      <c r="J140" s="7"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
@@ -4073,7 +4073,7 @@
       <c r="G141" s="6"/>
       <c r="H141" s="7"/>
       <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
+      <c r="J141" s="7"/>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
@@ -4093,7 +4093,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="7"/>
       <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
+      <c r="J142" s="7"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
@@ -4113,7 +4113,7 @@
       <c r="G143" s="6"/>
       <c r="H143" s="7"/>
       <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
+      <c r="J143" s="7"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
@@ -4133,7 +4133,7 @@
       <c r="G144" s="6"/>
       <c r="H144" s="7"/>
       <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
+      <c r="J144" s="7"/>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
@@ -4153,7 +4153,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="7"/>
       <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
+      <c r="J145" s="7"/>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
@@ -4173,7 +4173,7 @@
       <c r="G146" s="6"/>
       <c r="H146" s="7"/>
       <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
+      <c r="J146" s="7"/>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
@@ -4193,7 +4193,7 @@
       <c r="G147" s="6"/>
       <c r="H147" s="7"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
+      <c r="J147" s="7"/>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
@@ -4213,7 +4213,7 @@
       <c r="G148" s="6"/>
       <c r="H148" s="7"/>
       <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
+      <c r="J148" s="7"/>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
@@ -4233,7 +4233,7 @@
       <c r="G149" s="6"/>
       <c r="H149" s="7"/>
       <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
+      <c r="J149" s="7"/>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
@@ -4253,7 +4253,7 @@
       <c r="G150" s="6"/>
       <c r="H150" s="7"/>
       <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
+      <c r="J150" s="7"/>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
@@ -4273,7 +4273,7 @@
       <c r="G151" s="6"/>
       <c r="H151" s="7"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
+      <c r="J151" s="7"/>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
@@ -4293,7 +4293,7 @@
       <c r="G152" s="6"/>
       <c r="H152" s="7"/>
       <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
+      <c r="J152" s="7"/>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
@@ -4313,7 +4313,7 @@
       <c r="G153" s="6"/>
       <c r="H153" s="7"/>
       <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
+      <c r="J153" s="7"/>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
@@ -4333,7 +4333,7 @@
       <c r="G154" s="6"/>
       <c r="H154" s="7"/>
       <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
+      <c r="J154" s="7"/>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
@@ -4353,7 +4353,7 @@
       <c r="G155" s="6"/>
       <c r="H155" s="7"/>
       <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
+      <c r="J155" s="7"/>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
@@ -4373,7 +4373,7 @@
       <c r="G156" s="6"/>
       <c r="H156" s="7"/>
       <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
+      <c r="J156" s="7"/>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
@@ -4393,7 +4393,7 @@
       <c r="G157" s="6"/>
       <c r="H157" s="7"/>
       <c r="I157" s="9"/>
-      <c r="J157" s="9"/>
+      <c r="J157" s="7"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
@@ -4413,7 +4413,7 @@
       <c r="G158" s="6"/>
       <c r="H158" s="7"/>
       <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
+      <c r="J158" s="7"/>
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
@@ -4433,7 +4433,7 @@
       <c r="G159" s="6"/>
       <c r="H159" s="7"/>
       <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
+      <c r="J159" s="7"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
@@ -4453,7 +4453,7 @@
       <c r="G160" s="6"/>
       <c r="H160" s="7"/>
       <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
+      <c r="J160" s="7"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
@@ -4473,7 +4473,7 @@
       <c r="G161" s="6"/>
       <c r="H161" s="7"/>
       <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
+      <c r="J161" s="7"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
@@ -4493,7 +4493,7 @@
       <c r="G162" s="6"/>
       <c r="H162" s="7"/>
       <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
+      <c r="J162" s="7"/>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
@@ -4513,7 +4513,7 @@
       <c r="G163" s="6"/>
       <c r="H163" s="7"/>
       <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
+      <c r="J163" s="7"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
@@ -4533,7 +4533,7 @@
       <c r="G164" s="6"/>
       <c r="H164" s="7"/>
       <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
+      <c r="J164" s="7"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
@@ -4553,7 +4553,7 @@
       <c r="G165" s="6"/>
       <c r="H165" s="7"/>
       <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
+      <c r="J165" s="7"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
@@ -4573,7 +4573,7 @@
       <c r="G166" s="6"/>
       <c r="H166" s="7"/>
       <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
+      <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
@@ -4593,7 +4593,7 @@
       <c r="G167" s="6"/>
       <c r="H167" s="7"/>
       <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
+      <c r="J167" s="7"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
@@ -4613,7 +4613,7 @@
       <c r="G168" s="6"/>
       <c r="H168" s="7"/>
       <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
+      <c r="J168" s="7"/>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
@@ -4633,7 +4633,7 @@
       <c r="G169" s="6"/>
       <c r="H169" s="7"/>
       <c r="I169" s="9"/>
-      <c r="J169" s="9"/>
+      <c r="J169" s="7"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
@@ -4653,7 +4653,7 @@
       <c r="G170" s="6"/>
       <c r="H170" s="7"/>
       <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
+      <c r="J170" s="7"/>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
@@ -4673,7 +4673,7 @@
       <c r="G171" s="6"/>
       <c r="H171" s="7"/>
       <c r="I171" s="9"/>
-      <c r="J171" s="9"/>
+      <c r="J171" s="7"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
@@ -4693,7 +4693,7 @@
       <c r="G172" s="6"/>
       <c r="H172" s="7"/>
       <c r="I172" s="9"/>
-      <c r="J172" s="9"/>
+      <c r="J172" s="7"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
@@ -4713,7 +4713,7 @@
       <c r="G173" s="6"/>
       <c r="H173" s="7"/>
       <c r="I173" s="9"/>
-      <c r="J173" s="9"/>
+      <c r="J173" s="7"/>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
@@ -4733,7 +4733,7 @@
       <c r="G174" s="6"/>
       <c r="H174" s="7"/>
       <c r="I174" s="9"/>
-      <c r="J174" s="9"/>
+      <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
@@ -4753,7 +4753,7 @@
       <c r="G175" s="6"/>
       <c r="H175" s="7"/>
       <c r="I175" s="9"/>
-      <c r="J175" s="9"/>
+      <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
@@ -4773,7 +4773,7 @@
       <c r="G176" s="6"/>
       <c r="H176" s="7"/>
       <c r="I176" s="9"/>
-      <c r="J176" s="9"/>
+      <c r="J176" s="7"/>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
@@ -4793,7 +4793,7 @@
       <c r="G177" s="6"/>
       <c r="H177" s="7"/>
       <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
+      <c r="J177" s="7"/>
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
@@ -4813,7 +4813,7 @@
       <c r="G178" s="6"/>
       <c r="H178" s="7"/>
       <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
+      <c r="J178" s="7"/>
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
@@ -4833,7 +4833,7 @@
       <c r="G179" s="6"/>
       <c r="H179" s="7"/>
       <c r="I179" s="9"/>
-      <c r="J179" s="9"/>
+      <c r="J179" s="7"/>
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
@@ -4853,7 +4853,7 @@
       <c r="G180" s="6"/>
       <c r="H180" s="7"/>
       <c r="I180" s="9"/>
-      <c r="J180" s="9"/>
+      <c r="J180" s="7"/>
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
@@ -4873,7 +4873,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="7"/>
       <c r="I181" s="9"/>
-      <c r="J181" s="9"/>
+      <c r="J181" s="7"/>
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
@@ -4893,7 +4893,7 @@
       <c r="G182" s="6"/>
       <c r="H182" s="7"/>
       <c r="I182" s="9"/>
-      <c r="J182" s="9"/>
+      <c r="J182" s="7"/>
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
@@ -4913,7 +4913,7 @@
       <c r="G183" s="6"/>
       <c r="H183" s="7"/>
       <c r="I183" s="9"/>
-      <c r="J183" s="9"/>
+      <c r="J183" s="7"/>
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
@@ -4933,7 +4933,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="7"/>
       <c r="I184" s="9"/>
-      <c r="J184" s="9"/>
+      <c r="J184" s="7"/>
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
@@ -4953,7 +4953,7 @@
       <c r="G185" s="6"/>
       <c r="H185" s="7"/>
       <c r="I185" s="9"/>
-      <c r="J185" s="9"/>
+      <c r="J185" s="7"/>
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
@@ -4973,7 +4973,7 @@
       <c r="G186" s="6"/>
       <c r="H186" s="7"/>
       <c r="I186" s="9"/>
-      <c r="J186" s="9"/>
+      <c r="J186" s="7"/>
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
@@ -4993,7 +4993,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="7"/>
       <c r="I187" s="9"/>
-      <c r="J187" s="9"/>
+      <c r="J187" s="7"/>
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
@@ -5013,7 +5013,7 @@
       <c r="G188" s="6"/>
       <c r="H188" s="7"/>
       <c r="I188" s="9"/>
-      <c r="J188" s="9"/>
+      <c r="J188" s="7"/>
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
@@ -5033,7 +5033,7 @@
       <c r="G189" s="6"/>
       <c r="H189" s="7"/>
       <c r="I189" s="9"/>
-      <c r="J189" s="9"/>
+      <c r="J189" s="7"/>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
@@ -5053,7 +5053,7 @@
       <c r="G190" s="6"/>
       <c r="H190" s="7"/>
       <c r="I190" s="9"/>
-      <c r="J190" s="9"/>
+      <c r="J190" s="7"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
@@ -5073,7 +5073,7 @@
       <c r="G191" s="6"/>
       <c r="H191" s="7"/>
       <c r="I191" s="9"/>
-      <c r="J191" s="9"/>
+      <c r="J191" s="7"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
@@ -5093,7 +5093,7 @@
       <c r="G192" s="6"/>
       <c r="H192" s="7"/>
       <c r="I192" s="9"/>
-      <c r="J192" s="9"/>
+      <c r="J192" s="7"/>
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
@@ -5113,7 +5113,7 @@
       <c r="G193" s="6"/>
       <c r="H193" s="7"/>
       <c r="I193" s="9"/>
-      <c r="J193" s="9"/>
+      <c r="J193" s="7"/>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
@@ -5133,7 +5133,7 @@
       <c r="G194" s="6"/>
       <c r="H194" s="7"/>
       <c r="I194" s="9"/>
-      <c r="J194" s="9"/>
+      <c r="J194" s="7"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
@@ -5153,7 +5153,7 @@
       <c r="G195" s="6"/>
       <c r="H195" s="7"/>
       <c r="I195" s="9"/>
-      <c r="J195" s="9"/>
+      <c r="J195" s="7"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
@@ -5173,7 +5173,7 @@
       <c r="G196" s="6"/>
       <c r="H196" s="7"/>
       <c r="I196" s="9"/>
-      <c r="J196" s="9"/>
+      <c r="J196" s="7"/>
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
@@ -5193,7 +5193,7 @@
       <c r="G197" s="6"/>
       <c r="H197" s="7"/>
       <c r="I197" s="9"/>
-      <c r="J197" s="9"/>
+      <c r="J197" s="7"/>
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
@@ -5213,7 +5213,7 @@
       <c r="G198" s="6"/>
       <c r="H198" s="7"/>
       <c r="I198" s="9"/>
-      <c r="J198" s="9"/>
+      <c r="J198" s="7"/>
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
@@ -5233,7 +5233,7 @@
       <c r="G199" s="6"/>
       <c r="H199" s="7"/>
       <c r="I199" s="9"/>
-      <c r="J199" s="9"/>
+      <c r="J199" s="7"/>
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
@@ -5253,7 +5253,7 @@
       <c r="G200" s="6"/>
       <c r="H200" s="7"/>
       <c r="I200" s="9"/>
-      <c r="J200" s="9"/>
+      <c r="J200" s="7"/>
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
@@ -5272,7 +5272,7 @@
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="54" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5280,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}">
   <dimension ref="A2:R201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5304,14 +5304,14 @@
         <v>11</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18">
+      <c r="E2" s="30"/>
+      <c r="F2" s="31">
         <v>45001</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -5345,27 +5345,27 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
@@ -5445,19 +5445,19 @@
       <c r="I8" s="6">
         <v>3.226946213872134E-3</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <v>7.8025297553570647</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="18">
         <v>176.1425660012878</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="18">
         <v>7.6757068959827519</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="18">
         <v>85.582900770502533</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="18">
         <v>4.633566600818809</v>
       </c>
       <c r="O8" s="9"/>
@@ -5494,19 +5494,19 @@
       <c r="I9" s="6">
         <v>4.2300888050327577E-2</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <v>3.7089690853896293</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <v>11.003427197705268</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="18">
         <v>3.4515437078973985</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="18">
         <v>6.5599984754845266</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="18">
         <v>3.5134488326629425</v>
       </c>
       <c r="O9" s="9"/>
@@ -5543,19 +5543,19 @@
       <c r="I10" s="6">
         <v>0.24675666120114281</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <v>3.2849980734912396</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="18">
         <v>6.8975825593510285</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="18">
         <v>3.0135085780337438</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="18">
         <v>2.9855261680325449</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="18">
         <v>2.4805745781286417</v>
       </c>
       <c r="O10" s="9"/>
@@ -5592,19 +5592,19 @@
       <c r="I11" s="6">
         <v>0.45401790581878537</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <v>2.0753728614196669</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="18">
         <v>5.7976178289645226</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="18">
         <v>1.763191721937688</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="18">
         <v>0.92594746196328936</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="18">
         <v>1.1494100885179757</v>
       </c>
       <c r="O11" s="9"/>
@@ -5641,19 +5641,19 @@
       <c r="I12" s="6">
         <v>0.1698771078411476</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <v>0.82306247297105539</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="18">
         <v>2.9769457748721253</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="18">
         <v>0.57804911534654391</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="18">
         <v>2.4260977945497415</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="18">
         <v>0.59946117374446684</v>
       </c>
       <c r="O12" s="9"/>
@@ -5690,19 +5690,19 @@
       <c r="I13" s="6">
         <v>5.4080520158737544E-2</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="18">
         <v>2.7703025360946434</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="18">
         <v>33.882537710882545</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="18">
         <v>2.6833569434046844</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="18">
         <v>13.913697527489473</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="18">
         <v>2.0088349318914984</v>
       </c>
       <c r="O13" s="9"/>
@@ -5738,19 +5738,19 @@
       <c r="I14" s="6">
         <v>7.0180044128252995E-3</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="18">
         <v>6.3438867786740261</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="18">
         <v>322.82687224669604</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="18">
         <v>5.6698381536331262</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="18">
         <v>111.73261841837773</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="18">
         <v>5.5613492499085257</v>
       </c>
       <c r="O14" s="9"/>
@@ -5770,11 +5770,11 @@
       <c r="G15" s="9"/>
       <c r="H15" s="7"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="9"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -5789,11 +5789,11 @@
       <c r="G16" s="9"/>
       <c r="H16" s="7"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="9"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -5808,11 +5808,11 @@
       <c r="G17" s="9"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
       <c r="O17" s="9"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -5827,11 +5827,11 @@
       <c r="G18" s="9"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
       <c r="O18" s="9"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -5846,11 +5846,11 @@
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
       <c r="O19" s="9"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -5865,11 +5865,11 @@
       <c r="G20" s="9"/>
       <c r="H20" s="7"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
       <c r="O20" s="9"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -5884,11 +5884,11 @@
       <c r="G21" s="9"/>
       <c r="H21" s="7"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
       <c r="O21" s="9"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -5903,11 +5903,11 @@
       <c r="G22" s="9"/>
       <c r="H22" s="7"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
       <c r="O22" s="9"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -5922,11 +5922,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="7"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
       <c r="O23" s="9"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -5941,11 +5941,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
       <c r="O24" s="9"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -5960,11 +5960,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="7"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
       <c r="O25" s="9"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -5979,11 +5979,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="7"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
       <c r="O26" s="9"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -5998,11 +5998,11 @@
       <c r="G27" s="9"/>
       <c r="H27" s="7"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
       <c r="O27" s="9"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -6017,11 +6017,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="7"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
       <c r="O28" s="9"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -6036,11 +6036,11 @@
       <c r="G29" s="9"/>
       <c r="H29" s="7"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
       <c r="O29" s="9"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -6055,11 +6055,11 @@
       <c r="G30" s="9"/>
       <c r="H30" s="7"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
       <c r="O30" s="9"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -6074,11 +6074,11 @@
       <c r="G31" s="9"/>
       <c r="H31" s="7"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
       <c r="O31" s="9"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -6093,11 +6093,11 @@
       <c r="G32" s="9"/>
       <c r="H32" s="7"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
       <c r="O32" s="9"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -6112,11 +6112,11 @@
       <c r="G33" s="9"/>
       <c r="H33" s="7"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
       <c r="O33" s="9"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -6131,11 +6131,11 @@
       <c r="G34" s="9"/>
       <c r="H34" s="7"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
       <c r="O34" s="9"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
@@ -6150,11 +6150,11 @@
       <c r="G35" s="9"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
       <c r="O35" s="9"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
@@ -6169,11 +6169,11 @@
       <c r="G36" s="9"/>
       <c r="H36" s="7"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
       <c r="O36" s="9"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
@@ -6188,11 +6188,11 @@
       <c r="G37" s="9"/>
       <c r="H37" s="7"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
       <c r="O37" s="9"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -6207,11 +6207,11 @@
       <c r="G38" s="9"/>
       <c r="H38" s="7"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
       <c r="O38" s="9"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
@@ -6226,11 +6226,11 @@
       <c r="G39" s="9"/>
       <c r="H39" s="7"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
       <c r="O39" s="9"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -6245,11 +6245,11 @@
       <c r="G40" s="9"/>
       <c r="H40" s="7"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
       <c r="O40" s="9"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
@@ -6264,11 +6264,11 @@
       <c r="G41" s="9"/>
       <c r="H41" s="7"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
       <c r="O41" s="9"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -6283,11 +6283,11 @@
       <c r="G42" s="9"/>
       <c r="H42" s="7"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
       <c r="O42" s="9"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -6302,11 +6302,11 @@
       <c r="G43" s="9"/>
       <c r="H43" s="7"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
       <c r="O43" s="9"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
@@ -6321,11 +6321,11 @@
       <c r="G44" s="9"/>
       <c r="H44" s="7"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
       <c r="O44" s="9"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
@@ -6340,11 +6340,11 @@
       <c r="G45" s="9"/>
       <c r="H45" s="7"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
       <c r="O45" s="9"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
@@ -6359,11 +6359,11 @@
       <c r="G46" s="9"/>
       <c r="H46" s="7"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
       <c r="O46" s="9"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
@@ -6378,11 +6378,11 @@
       <c r="G47" s="9"/>
       <c r="H47" s="7"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
       <c r="O47" s="9"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
@@ -6397,11 +6397,11 @@
       <c r="G48" s="9"/>
       <c r="H48" s="7"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
       <c r="O48" s="9"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
@@ -6416,11 +6416,11 @@
       <c r="G49" s="9"/>
       <c r="H49" s="7"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
       <c r="O49" s="9"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -6435,11 +6435,11 @@
       <c r="G50" s="9"/>
       <c r="H50" s="7"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
       <c r="O50" s="9"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -6454,11 +6454,11 @@
       <c r="G51" s="9"/>
       <c r="H51" s="7"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
       <c r="O51" s="9"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
@@ -6473,11 +6473,11 @@
       <c r="G52" s="9"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
       <c r="O52" s="9"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
@@ -6492,11 +6492,11 @@
       <c r="G53" s="9"/>
       <c r="H53" s="7"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
       <c r="O53" s="9"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -6511,11 +6511,11 @@
       <c r="G54" s="9"/>
       <c r="H54" s="7"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
       <c r="O54" s="9"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
@@ -6530,11 +6530,11 @@
       <c r="G55" s="9"/>
       <c r="H55" s="7"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
       <c r="O55" s="9"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
@@ -6549,11 +6549,11 @@
       <c r="G56" s="9"/>
       <c r="H56" s="7"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
       <c r="O56" s="9"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
@@ -6568,11 +6568,11 @@
       <c r="G57" s="9"/>
       <c r="H57" s="7"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
       <c r="O57" s="9"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
@@ -6587,11 +6587,11 @@
       <c r="G58" s="9"/>
       <c r="H58" s="7"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
       <c r="O58" s="9"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
@@ -6606,11 +6606,11 @@
       <c r="G59" s="9"/>
       <c r="H59" s="7"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
       <c r="O59" s="9"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
@@ -6625,11 +6625,11 @@
       <c r="G60" s="9"/>
       <c r="H60" s="7"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
       <c r="O60" s="9"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -6644,11 +6644,11 @@
       <c r="G61" s="9"/>
       <c r="H61" s="7"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
       <c r="O61" s="9"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
@@ -6663,11 +6663,11 @@
       <c r="G62" s="9"/>
       <c r="H62" s="7"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
       <c r="O62" s="9"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
@@ -6682,11 +6682,11 @@
       <c r="G63" s="9"/>
       <c r="H63" s="7"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
       <c r="O63" s="9"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -6701,11 +6701,11 @@
       <c r="G64" s="9"/>
       <c r="H64" s="7"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
       <c r="O64" s="9"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
@@ -6720,11 +6720,11 @@
       <c r="G65" s="9"/>
       <c r="H65" s="7"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
       <c r="O65" s="9"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -6739,11 +6739,11 @@
       <c r="G66" s="9"/>
       <c r="H66" s="7"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
       <c r="O66" s="9"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
@@ -6758,11 +6758,11 @@
       <c r="G67" s="9"/>
       <c r="H67" s="7"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
       <c r="O67" s="9"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
@@ -6777,11 +6777,11 @@
       <c r="G68" s="9"/>
       <c r="H68" s="7"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
       <c r="O68" s="9"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
@@ -6796,11 +6796,11 @@
       <c r="G69" s="9"/>
       <c r="H69" s="7"/>
       <c r="I69" s="6"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
       <c r="O69" s="9"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
@@ -6815,11 +6815,11 @@
       <c r="G70" s="9"/>
       <c r="H70" s="7"/>
       <c r="I70" s="6"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
       <c r="O70" s="9"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
@@ -6834,11 +6834,11 @@
       <c r="G71" s="9"/>
       <c r="H71" s="7"/>
       <c r="I71" s="6"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
       <c r="O71" s="9"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
@@ -6853,11 +6853,11 @@
       <c r="G72" s="9"/>
       <c r="H72" s="7"/>
       <c r="I72" s="6"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
       <c r="O72" s="9"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
@@ -6872,11 +6872,11 @@
       <c r="G73" s="9"/>
       <c r="H73" s="7"/>
       <c r="I73" s="6"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
       <c r="O73" s="9"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
@@ -6891,11 +6891,11 @@
       <c r="G74" s="9"/>
       <c r="H74" s="7"/>
       <c r="I74" s="6"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
       <c r="O74" s="9"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
@@ -6910,11 +6910,11 @@
       <c r="G75" s="9"/>
       <c r="H75" s="7"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
       <c r="O75" s="9"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
@@ -6929,11 +6929,11 @@
       <c r="G76" s="9"/>
       <c r="H76" s="7"/>
       <c r="I76" s="6"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
       <c r="O76" s="9"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
@@ -6948,11 +6948,11 @@
       <c r="G77" s="9"/>
       <c r="H77" s="7"/>
       <c r="I77" s="6"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
       <c r="O77" s="9"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
@@ -6967,11 +6967,11 @@
       <c r="G78" s="9"/>
       <c r="H78" s="7"/>
       <c r="I78" s="6"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
       <c r="O78" s="9"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
@@ -6986,11 +6986,11 @@
       <c r="G79" s="9"/>
       <c r="H79" s="7"/>
       <c r="I79" s="6"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
       <c r="O79" s="9"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
@@ -7005,11 +7005,11 @@
       <c r="G80" s="9"/>
       <c r="H80" s="7"/>
       <c r="I80" s="6"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
       <c r="O80" s="9"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
@@ -7024,11 +7024,11 @@
       <c r="G81" s="9"/>
       <c r="H81" s="7"/>
       <c r="I81" s="6"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
       <c r="O81" s="9"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
@@ -7043,11 +7043,11 @@
       <c r="G82" s="9"/>
       <c r="H82" s="7"/>
       <c r="I82" s="6"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
       <c r="O82" s="9"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
@@ -7062,11 +7062,11 @@
       <c r="G83" s="9"/>
       <c r="H83" s="7"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
       <c r="O83" s="9"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
@@ -7081,11 +7081,11 @@
       <c r="G84" s="9"/>
       <c r="H84" s="7"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
       <c r="O84" s="9"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
@@ -7100,11 +7100,11 @@
       <c r="G85" s="9"/>
       <c r="H85" s="7"/>
       <c r="I85" s="6"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
       <c r="O85" s="9"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
@@ -7119,11 +7119,11 @@
       <c r="G86" s="9"/>
       <c r="H86" s="7"/>
       <c r="I86" s="6"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
       <c r="O86" s="9"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
@@ -7138,11 +7138,11 @@
       <c r="G87" s="9"/>
       <c r="H87" s="7"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
       <c r="O87" s="9"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
@@ -7157,11 +7157,11 @@
       <c r="G88" s="9"/>
       <c r="H88" s="7"/>
       <c r="I88" s="6"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
       <c r="O88" s="9"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
@@ -7176,11 +7176,11 @@
       <c r="G89" s="9"/>
       <c r="H89" s="7"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
       <c r="O89" s="9"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
@@ -7195,11 +7195,11 @@
       <c r="G90" s="9"/>
       <c r="H90" s="7"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
       <c r="O90" s="9"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
@@ -7214,11 +7214,11 @@
       <c r="G91" s="9"/>
       <c r="H91" s="7"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
       <c r="O91" s="9"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
@@ -7233,11 +7233,11 @@
       <c r="G92" s="9"/>
       <c r="H92" s="7"/>
       <c r="I92" s="6"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="20"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
       <c r="O92" s="9"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
@@ -7252,11 +7252,11 @@
       <c r="G93" s="9"/>
       <c r="H93" s="7"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
       <c r="O93" s="9"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
@@ -7271,11 +7271,11 @@
       <c r="G94" s="9"/>
       <c r="H94" s="7"/>
       <c r="I94" s="6"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
       <c r="O94" s="9"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
@@ -7290,11 +7290,11 @@
       <c r="G95" s="9"/>
       <c r="H95" s="7"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="20"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
       <c r="O95" s="9"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
@@ -7309,11 +7309,11 @@
       <c r="G96" s="9"/>
       <c r="H96" s="7"/>
       <c r="I96" s="6"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
       <c r="O96" s="9"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
@@ -7328,11 +7328,11 @@
       <c r="G97" s="9"/>
       <c r="H97" s="7"/>
       <c r="I97" s="6"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
       <c r="O97" s="9"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
@@ -7347,11 +7347,11 @@
       <c r="G98" s="9"/>
       <c r="H98" s="7"/>
       <c r="I98" s="6"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
       <c r="O98" s="9"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
@@ -7366,11 +7366,11 @@
       <c r="G99" s="9"/>
       <c r="H99" s="7"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
       <c r="O99" s="9"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
@@ -7385,11 +7385,11 @@
       <c r="G100" s="9"/>
       <c r="H100" s="7"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="20"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
       <c r="O100" s="9"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
@@ -7404,11 +7404,11 @@
       <c r="G101" s="9"/>
       <c r="H101" s="7"/>
       <c r="I101" s="6"/>
-      <c r="J101" s="20"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="20"/>
-      <c r="N101" s="20"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
       <c r="O101" s="9"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
@@ -7423,11 +7423,11 @@
       <c r="G102" s="9"/>
       <c r="H102" s="7"/>
       <c r="I102" s="6"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
       <c r="O102" s="9"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
@@ -7442,11 +7442,11 @@
       <c r="G103" s="9"/>
       <c r="H103" s="7"/>
       <c r="I103" s="6"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="20"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
       <c r="O103" s="9"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
@@ -7461,11 +7461,11 @@
       <c r="G104" s="9"/>
       <c r="H104" s="7"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="20"/>
-      <c r="M104" s="20"/>
-      <c r="N104" s="20"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
       <c r="O104" s="9"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
@@ -7480,11 +7480,11 @@
       <c r="G105" s="9"/>
       <c r="H105" s="7"/>
       <c r="I105" s="6"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
-      <c r="L105" s="20"/>
-      <c r="M105" s="20"/>
-      <c r="N105" s="20"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
       <c r="O105" s="9"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
@@ -7499,11 +7499,11 @@
       <c r="G106" s="9"/>
       <c r="H106" s="7"/>
       <c r="I106" s="6"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
-      <c r="M106" s="20"/>
-      <c r="N106" s="20"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
       <c r="O106" s="9"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
@@ -7518,11 +7518,11 @@
       <c r="G107" s="9"/>
       <c r="H107" s="7"/>
       <c r="I107" s="6"/>
-      <c r="J107" s="20"/>
-      <c r="K107" s="20"/>
-      <c r="L107" s="20"/>
-      <c r="M107" s="20"/>
-      <c r="N107" s="20"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
       <c r="O107" s="9"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
@@ -7537,11 +7537,11 @@
       <c r="G108" s="9"/>
       <c r="H108" s="7"/>
       <c r="I108" s="6"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="20"/>
-      <c r="N108" s="20"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
       <c r="O108" s="9"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
@@ -7556,11 +7556,11 @@
       <c r="G109" s="9"/>
       <c r="H109" s="7"/>
       <c r="I109" s="6"/>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="20"/>
-      <c r="M109" s="20"/>
-      <c r="N109" s="20"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
       <c r="O109" s="9"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
@@ -7575,11 +7575,11 @@
       <c r="G110" s="9"/>
       <c r="H110" s="7"/>
       <c r="I110" s="6"/>
-      <c r="J110" s="20"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
-      <c r="M110" s="20"/>
-      <c r="N110" s="20"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
       <c r="O110" s="9"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
@@ -7594,11 +7594,11 @@
       <c r="G111" s="9"/>
       <c r="H111" s="7"/>
       <c r="I111" s="6"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="20"/>
-      <c r="M111" s="20"/>
-      <c r="N111" s="20"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
       <c r="O111" s="9"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
@@ -7613,11 +7613,11 @@
       <c r="G112" s="9"/>
       <c r="H112" s="7"/>
       <c r="I112" s="6"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20"/>
-      <c r="M112" s="20"/>
-      <c r="N112" s="20"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
       <c r="O112" s="9"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
@@ -7632,11 +7632,11 @@
       <c r="G113" s="9"/>
       <c r="H113" s="7"/>
       <c r="I113" s="6"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="20"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
       <c r="O113" s="9"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
@@ -7651,11 +7651,11 @@
       <c r="G114" s="9"/>
       <c r="H114" s="7"/>
       <c r="I114" s="6"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="20"/>
-      <c r="M114" s="20"/>
-      <c r="N114" s="20"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
       <c r="O114" s="9"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
@@ -7670,11 +7670,11 @@
       <c r="G115" s="9"/>
       <c r="H115" s="7"/>
       <c r="I115" s="6"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="20"/>
-      <c r="N115" s="20"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
       <c r="O115" s="9"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
@@ -7689,11 +7689,11 @@
       <c r="G116" s="9"/>
       <c r="H116" s="7"/>
       <c r="I116" s="6"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
-      <c r="L116" s="20"/>
-      <c r="M116" s="20"/>
-      <c r="N116" s="20"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="18"/>
       <c r="O116" s="9"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
@@ -7708,11 +7708,11 @@
       <c r="G117" s="9"/>
       <c r="H117" s="7"/>
       <c r="I117" s="6"/>
-      <c r="J117" s="20"/>
-      <c r="K117" s="20"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="20"/>
-      <c r="N117" s="20"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
       <c r="O117" s="9"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
@@ -7727,11 +7727,11 @@
       <c r="G118" s="9"/>
       <c r="H118" s="7"/>
       <c r="I118" s="6"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="20"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
       <c r="O118" s="9"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
@@ -7746,11 +7746,11 @@
       <c r="G119" s="9"/>
       <c r="H119" s="7"/>
       <c r="I119" s="6"/>
-      <c r="J119" s="20"/>
-      <c r="K119" s="20"/>
-      <c r="L119" s="20"/>
-      <c r="M119" s="20"/>
-      <c r="N119" s="20"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
       <c r="O119" s="9"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
@@ -7765,11 +7765,11 @@
       <c r="G120" s="9"/>
       <c r="H120" s="7"/>
       <c r="I120" s="6"/>
-      <c r="J120" s="20"/>
-      <c r="K120" s="20"/>
-      <c r="L120" s="20"/>
-      <c r="M120" s="20"/>
-      <c r="N120" s="20"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
       <c r="O120" s="9"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
@@ -7784,11 +7784,11 @@
       <c r="G121" s="9"/>
       <c r="H121" s="7"/>
       <c r="I121" s="6"/>
-      <c r="J121" s="20"/>
-      <c r="K121" s="20"/>
-      <c r="L121" s="20"/>
-      <c r="M121" s="20"/>
-      <c r="N121" s="20"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
       <c r="O121" s="9"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
@@ -7803,11 +7803,11 @@
       <c r="G122" s="9"/>
       <c r="H122" s="7"/>
       <c r="I122" s="6"/>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="20"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
       <c r="O122" s="9"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
@@ -7822,11 +7822,11 @@
       <c r="G123" s="9"/>
       <c r="H123" s="7"/>
       <c r="I123" s="6"/>
-      <c r="J123" s="20"/>
-      <c r="K123" s="20"/>
-      <c r="L123" s="20"/>
-      <c r="M123" s="20"/>
-      <c r="N123" s="20"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
       <c r="O123" s="9"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
@@ -7841,11 +7841,11 @@
       <c r="G124" s="9"/>
       <c r="H124" s="7"/>
       <c r="I124" s="6"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
-      <c r="M124" s="20"/>
-      <c r="N124" s="20"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
       <c r="O124" s="9"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
@@ -7860,11 +7860,11 @@
       <c r="G125" s="9"/>
       <c r="H125" s="7"/>
       <c r="I125" s="6"/>
-      <c r="J125" s="20"/>
-      <c r="K125" s="20"/>
-      <c r="L125" s="20"/>
-      <c r="M125" s="20"/>
-      <c r="N125" s="20"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
       <c r="O125" s="9"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
@@ -7879,11 +7879,11 @@
       <c r="G126" s="9"/>
       <c r="H126" s="7"/>
       <c r="I126" s="6"/>
-      <c r="J126" s="20"/>
-      <c r="K126" s="20"/>
-      <c r="L126" s="20"/>
-      <c r="M126" s="20"/>
-      <c r="N126" s="20"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
       <c r="O126" s="9"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
@@ -7898,11 +7898,11 @@
       <c r="G127" s="9"/>
       <c r="H127" s="7"/>
       <c r="I127" s="6"/>
-      <c r="J127" s="20"/>
-      <c r="K127" s="20"/>
-      <c r="L127" s="20"/>
-      <c r="M127" s="20"/>
-      <c r="N127" s="20"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
       <c r="O127" s="9"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
@@ -7917,11 +7917,11 @@
       <c r="G128" s="9"/>
       <c r="H128" s="7"/>
       <c r="I128" s="6"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
-      <c r="L128" s="20"/>
-      <c r="M128" s="20"/>
-      <c r="N128" s="20"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
       <c r="O128" s="9"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
@@ -7936,11 +7936,11 @@
       <c r="G129" s="9"/>
       <c r="H129" s="7"/>
       <c r="I129" s="6"/>
-      <c r="J129" s="20"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="20"/>
-      <c r="M129" s="20"/>
-      <c r="N129" s="20"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="18"/>
+      <c r="N129" s="18"/>
       <c r="O129" s="9"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
@@ -7955,11 +7955,11 @@
       <c r="G130" s="9"/>
       <c r="H130" s="7"/>
       <c r="I130" s="6"/>
-      <c r="J130" s="20"/>
-      <c r="K130" s="20"/>
-      <c r="L130" s="20"/>
-      <c r="M130" s="20"/>
-      <c r="N130" s="20"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
+      <c r="N130" s="18"/>
       <c r="O130" s="9"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
@@ -7974,11 +7974,11 @@
       <c r="G131" s="9"/>
       <c r="H131" s="7"/>
       <c r="I131" s="6"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
-      <c r="M131" s="20"/>
-      <c r="N131" s="20"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
+      <c r="N131" s="18"/>
       <c r="O131" s="9"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
@@ -7993,11 +7993,11 @@
       <c r="G132" s="9"/>
       <c r="H132" s="7"/>
       <c r="I132" s="6"/>
-      <c r="J132" s="20"/>
-      <c r="K132" s="20"/>
-      <c r="L132" s="20"/>
-      <c r="M132" s="20"/>
-      <c r="N132" s="20"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="18"/>
+      <c r="N132" s="18"/>
       <c r="O132" s="9"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
@@ -8012,11 +8012,11 @@
       <c r="G133" s="9"/>
       <c r="H133" s="7"/>
       <c r="I133" s="6"/>
-      <c r="J133" s="20"/>
-      <c r="K133" s="20"/>
-      <c r="L133" s="20"/>
-      <c r="M133" s="20"/>
-      <c r="N133" s="20"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="18"/>
+      <c r="N133" s="18"/>
       <c r="O133" s="9"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
@@ -8031,11 +8031,11 @@
       <c r="G134" s="9"/>
       <c r="H134" s="7"/>
       <c r="I134" s="6"/>
-      <c r="J134" s="20"/>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
-      <c r="M134" s="20"/>
-      <c r="N134" s="20"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="18"/>
       <c r="O134" s="9"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
@@ -8050,11 +8050,11 @@
       <c r="G135" s="9"/>
       <c r="H135" s="7"/>
       <c r="I135" s="6"/>
-      <c r="J135" s="20"/>
-      <c r="K135" s="20"/>
-      <c r="L135" s="20"/>
-      <c r="M135" s="20"/>
-      <c r="N135" s="20"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="18"/>
+      <c r="N135" s="18"/>
       <c r="O135" s="9"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
@@ -8069,11 +8069,11 @@
       <c r="G136" s="9"/>
       <c r="H136" s="7"/>
       <c r="I136" s="6"/>
-      <c r="J136" s="20"/>
-      <c r="K136" s="20"/>
-      <c r="L136" s="20"/>
-      <c r="M136" s="20"/>
-      <c r="N136" s="20"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
+      <c r="N136" s="18"/>
       <c r="O136" s="9"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
@@ -8088,11 +8088,11 @@
       <c r="G137" s="9"/>
       <c r="H137" s="7"/>
       <c r="I137" s="6"/>
-      <c r="J137" s="20"/>
-      <c r="K137" s="20"/>
-      <c r="L137" s="20"/>
-      <c r="M137" s="20"/>
-      <c r="N137" s="20"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="18"/>
+      <c r="N137" s="18"/>
       <c r="O137" s="9"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
@@ -8107,11 +8107,11 @@
       <c r="G138" s="9"/>
       <c r="H138" s="7"/>
       <c r="I138" s="6"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="20"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="20"/>
-      <c r="N138" s="20"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="18"/>
+      <c r="N138" s="18"/>
       <c r="O138" s="9"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
@@ -8126,11 +8126,11 @@
       <c r="G139" s="9"/>
       <c r="H139" s="7"/>
       <c r="I139" s="6"/>
-      <c r="J139" s="20"/>
-      <c r="K139" s="20"/>
-      <c r="L139" s="20"/>
-      <c r="M139" s="20"/>
-      <c r="N139" s="20"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="18"/>
+      <c r="N139" s="18"/>
       <c r="O139" s="9"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
@@ -8145,11 +8145,11 @@
       <c r="G140" s="9"/>
       <c r="H140" s="7"/>
       <c r="I140" s="6"/>
-      <c r="J140" s="20"/>
-      <c r="K140" s="20"/>
-      <c r="L140" s="20"/>
-      <c r="M140" s="20"/>
-      <c r="N140" s="20"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="18"/>
+      <c r="N140" s="18"/>
       <c r="O140" s="9"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
@@ -8164,11 +8164,11 @@
       <c r="G141" s="9"/>
       <c r="H141" s="7"/>
       <c r="I141" s="6"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20"/>
-      <c r="L141" s="20"/>
-      <c r="M141" s="20"/>
-      <c r="N141" s="20"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
       <c r="O141" s="9"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
@@ -8183,11 +8183,11 @@
       <c r="G142" s="9"/>
       <c r="H142" s="7"/>
       <c r="I142" s="6"/>
-      <c r="J142" s="20"/>
-      <c r="K142" s="20"/>
-      <c r="L142" s="20"/>
-      <c r="M142" s="20"/>
-      <c r="N142" s="20"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
       <c r="O142" s="9"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
@@ -8202,11 +8202,11 @@
       <c r="G143" s="9"/>
       <c r="H143" s="7"/>
       <c r="I143" s="6"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="20"/>
-      <c r="L143" s="20"/>
-      <c r="M143" s="20"/>
-      <c r="N143" s="20"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="18"/>
       <c r="O143" s="9"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
@@ -8221,11 +8221,11 @@
       <c r="G144" s="9"/>
       <c r="H144" s="7"/>
       <c r="I144" s="6"/>
-      <c r="J144" s="20"/>
-      <c r="K144" s="20"/>
-      <c r="L144" s="20"/>
-      <c r="M144" s="20"/>
-      <c r="N144" s="20"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="18"/>
+      <c r="N144" s="18"/>
       <c r="O144" s="9"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
@@ -8240,11 +8240,11 @@
       <c r="G145" s="9"/>
       <c r="H145" s="7"/>
       <c r="I145" s="6"/>
-      <c r="J145" s="20"/>
-      <c r="K145" s="20"/>
-      <c r="L145" s="20"/>
-      <c r="M145" s="20"/>
-      <c r="N145" s="20"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="18"/>
+      <c r="N145" s="18"/>
       <c r="O145" s="9"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
@@ -8259,11 +8259,11 @@
       <c r="G146" s="9"/>
       <c r="H146" s="7"/>
       <c r="I146" s="6"/>
-      <c r="J146" s="20"/>
-      <c r="K146" s="20"/>
-      <c r="L146" s="20"/>
-      <c r="M146" s="20"/>
-      <c r="N146" s="20"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="18"/>
+      <c r="N146" s="18"/>
       <c r="O146" s="9"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
@@ -8278,11 +8278,11 @@
       <c r="G147" s="9"/>
       <c r="H147" s="7"/>
       <c r="I147" s="6"/>
-      <c r="J147" s="20"/>
-      <c r="K147" s="20"/>
-      <c r="L147" s="20"/>
-      <c r="M147" s="20"/>
-      <c r="N147" s="20"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18"/>
+      <c r="N147" s="18"/>
       <c r="O147" s="9"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
@@ -8297,11 +8297,11 @@
       <c r="G148" s="9"/>
       <c r="H148" s="7"/>
       <c r="I148" s="6"/>
-      <c r="J148" s="20"/>
-      <c r="K148" s="20"/>
-      <c r="L148" s="20"/>
-      <c r="M148" s="20"/>
-      <c r="N148" s="20"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18"/>
+      <c r="N148" s="18"/>
       <c r="O148" s="9"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
@@ -8316,11 +8316,11 @@
       <c r="G149" s="9"/>
       <c r="H149" s="7"/>
       <c r="I149" s="6"/>
-      <c r="J149" s="20"/>
-      <c r="K149" s="20"/>
-      <c r="L149" s="20"/>
-      <c r="M149" s="20"/>
-      <c r="N149" s="20"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
       <c r="O149" s="9"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
@@ -8335,11 +8335,11 @@
       <c r="G150" s="9"/>
       <c r="H150" s="7"/>
       <c r="I150" s="6"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="20"/>
-      <c r="N150" s="20"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="18"/>
       <c r="O150" s="9"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
@@ -8354,11 +8354,11 @@
       <c r="G151" s="9"/>
       <c r="H151" s="7"/>
       <c r="I151" s="6"/>
-      <c r="J151" s="20"/>
-      <c r="K151" s="20"/>
-      <c r="L151" s="20"/>
-      <c r="M151" s="20"/>
-      <c r="N151" s="20"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="18"/>
       <c r="O151" s="9"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
@@ -8373,11 +8373,11 @@
       <c r="G152" s="9"/>
       <c r="H152" s="7"/>
       <c r="I152" s="6"/>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20"/>
-      <c r="L152" s="20"/>
-      <c r="M152" s="20"/>
-      <c r="N152" s="20"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
       <c r="O152" s="9"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
@@ -8392,11 +8392,11 @@
       <c r="G153" s="9"/>
       <c r="H153" s="7"/>
       <c r="I153" s="6"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
-      <c r="M153" s="20"/>
-      <c r="N153" s="20"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="18"/>
       <c r="O153" s="9"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
@@ -8411,11 +8411,11 @@
       <c r="G154" s="9"/>
       <c r="H154" s="7"/>
       <c r="I154" s="6"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
-      <c r="M154" s="20"/>
-      <c r="N154" s="20"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
+      <c r="N154" s="18"/>
       <c r="O154" s="9"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
@@ -8430,11 +8430,11 @@
       <c r="G155" s="9"/>
       <c r="H155" s="7"/>
       <c r="I155" s="6"/>
-      <c r="J155" s="20"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
-      <c r="M155" s="20"/>
-      <c r="N155" s="20"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="18"/>
+      <c r="M155" s="18"/>
+      <c r="N155" s="18"/>
       <c r="O155" s="9"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
@@ -8449,11 +8449,11 @@
       <c r="G156" s="9"/>
       <c r="H156" s="7"/>
       <c r="I156" s="6"/>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
-      <c r="M156" s="20"/>
-      <c r="N156" s="20"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="18"/>
+      <c r="M156" s="18"/>
+      <c r="N156" s="18"/>
       <c r="O156" s="9"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
@@ -8468,11 +8468,11 @@
       <c r="G157" s="9"/>
       <c r="H157" s="7"/>
       <c r="I157" s="6"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="20"/>
-      <c r="N157" s="20"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="18"/>
+      <c r="M157" s="18"/>
+      <c r="N157" s="18"/>
       <c r="O157" s="9"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
@@ -8487,11 +8487,11 @@
       <c r="G158" s="9"/>
       <c r="H158" s="7"/>
       <c r="I158" s="6"/>
-      <c r="J158" s="20"/>
-      <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
-      <c r="M158" s="20"/>
-      <c r="N158" s="20"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="18"/>
+      <c r="N158" s="18"/>
       <c r="O158" s="9"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
@@ -8506,11 +8506,11 @@
       <c r="G159" s="9"/>
       <c r="H159" s="7"/>
       <c r="I159" s="6"/>
-      <c r="J159" s="20"/>
-      <c r="K159" s="20"/>
-      <c r="L159" s="20"/>
-      <c r="M159" s="20"/>
-      <c r="N159" s="20"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18"/>
+      <c r="M159" s="18"/>
+      <c r="N159" s="18"/>
       <c r="O159" s="9"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
@@ -8525,11 +8525,11 @@
       <c r="G160" s="9"/>
       <c r="H160" s="7"/>
       <c r="I160" s="6"/>
-      <c r="J160" s="20"/>
-      <c r="K160" s="20"/>
-      <c r="L160" s="20"/>
-      <c r="M160" s="20"/>
-      <c r="N160" s="20"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="18"/>
+      <c r="M160" s="18"/>
+      <c r="N160" s="18"/>
       <c r="O160" s="9"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
@@ -8544,11 +8544,11 @@
       <c r="G161" s="9"/>
       <c r="H161" s="7"/>
       <c r="I161" s="6"/>
-      <c r="J161" s="20"/>
-      <c r="K161" s="20"/>
-      <c r="L161" s="20"/>
-      <c r="M161" s="20"/>
-      <c r="N161" s="20"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18"/>
+      <c r="M161" s="18"/>
+      <c r="N161" s="18"/>
       <c r="O161" s="9"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
@@ -8563,11 +8563,11 @@
       <c r="G162" s="9"/>
       <c r="H162" s="7"/>
       <c r="I162" s="6"/>
-      <c r="J162" s="20"/>
-      <c r="K162" s="20"/>
-      <c r="L162" s="20"/>
-      <c r="M162" s="20"/>
-      <c r="N162" s="20"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="18"/>
+      <c r="N162" s="18"/>
       <c r="O162" s="9"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
@@ -8582,11 +8582,11 @@
       <c r="G163" s="9"/>
       <c r="H163" s="7"/>
       <c r="I163" s="6"/>
-      <c r="J163" s="20"/>
-      <c r="K163" s="20"/>
-      <c r="L163" s="20"/>
-      <c r="M163" s="20"/>
-      <c r="N163" s="20"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="18"/>
+      <c r="M163" s="18"/>
+      <c r="N163" s="18"/>
       <c r="O163" s="9"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
@@ -8601,11 +8601,11 @@
       <c r="G164" s="9"/>
       <c r="H164" s="7"/>
       <c r="I164" s="6"/>
-      <c r="J164" s="20"/>
-      <c r="K164" s="20"/>
-      <c r="L164" s="20"/>
-      <c r="M164" s="20"/>
-      <c r="N164" s="20"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="18"/>
+      <c r="M164" s="18"/>
+      <c r="N164" s="18"/>
       <c r="O164" s="9"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
@@ -8620,11 +8620,11 @@
       <c r="G165" s="9"/>
       <c r="H165" s="7"/>
       <c r="I165" s="6"/>
-      <c r="J165" s="20"/>
-      <c r="K165" s="20"/>
-      <c r="L165" s="20"/>
-      <c r="M165" s="20"/>
-      <c r="N165" s="20"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="18"/>
+      <c r="M165" s="18"/>
+      <c r="N165" s="18"/>
       <c r="O165" s="9"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
@@ -8639,11 +8639,11 @@
       <c r="G166" s="9"/>
       <c r="H166" s="7"/>
       <c r="I166" s="6"/>
-      <c r="J166" s="20"/>
-      <c r="K166" s="20"/>
-      <c r="L166" s="20"/>
-      <c r="M166" s="20"/>
-      <c r="N166" s="20"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="18"/>
+      <c r="L166" s="18"/>
+      <c r="M166" s="18"/>
+      <c r="N166" s="18"/>
       <c r="O166" s="9"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
@@ -8658,11 +8658,11 @@
       <c r="G167" s="9"/>
       <c r="H167" s="7"/>
       <c r="I167" s="6"/>
-      <c r="J167" s="20"/>
-      <c r="K167" s="20"/>
-      <c r="L167" s="20"/>
-      <c r="M167" s="20"/>
-      <c r="N167" s="20"/>
+      <c r="J167" s="18"/>
+      <c r="K167" s="18"/>
+      <c r="L167" s="18"/>
+      <c r="M167" s="18"/>
+      <c r="N167" s="18"/>
       <c r="O167" s="9"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
@@ -8677,11 +8677,11 @@
       <c r="G168" s="9"/>
       <c r="H168" s="7"/>
       <c r="I168" s="6"/>
-      <c r="J168" s="20"/>
-      <c r="K168" s="20"/>
-      <c r="L168" s="20"/>
-      <c r="M168" s="20"/>
-      <c r="N168" s="20"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="18"/>
+      <c r="L168" s="18"/>
+      <c r="M168" s="18"/>
+      <c r="N168" s="18"/>
       <c r="O168" s="9"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
@@ -8696,11 +8696,11 @@
       <c r="G169" s="9"/>
       <c r="H169" s="7"/>
       <c r="I169" s="6"/>
-      <c r="J169" s="20"/>
-      <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
-      <c r="M169" s="20"/>
-      <c r="N169" s="20"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="18"/>
+      <c r="L169" s="18"/>
+      <c r="M169" s="18"/>
+      <c r="N169" s="18"/>
       <c r="O169" s="9"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
@@ -8715,11 +8715,11 @@
       <c r="G170" s="9"/>
       <c r="H170" s="7"/>
       <c r="I170" s="6"/>
-      <c r="J170" s="20"/>
-      <c r="K170" s="20"/>
-      <c r="L170" s="20"/>
-      <c r="M170" s="20"/>
-      <c r="N170" s="20"/>
+      <c r="J170" s="18"/>
+      <c r="K170" s="18"/>
+      <c r="L170" s="18"/>
+      <c r="M170" s="18"/>
+      <c r="N170" s="18"/>
       <c r="O170" s="9"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
@@ -8734,11 +8734,11 @@
       <c r="G171" s="9"/>
       <c r="H171" s="7"/>
       <c r="I171" s="6"/>
-      <c r="J171" s="20"/>
-      <c r="K171" s="20"/>
-      <c r="L171" s="20"/>
-      <c r="M171" s="20"/>
-      <c r="N171" s="20"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="18"/>
+      <c r="L171" s="18"/>
+      <c r="M171" s="18"/>
+      <c r="N171" s="18"/>
       <c r="O171" s="9"/>
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
@@ -8753,11 +8753,11 @@
       <c r="G172" s="9"/>
       <c r="H172" s="7"/>
       <c r="I172" s="6"/>
-      <c r="J172" s="20"/>
-      <c r="K172" s="20"/>
-      <c r="L172" s="20"/>
-      <c r="M172" s="20"/>
-      <c r="N172" s="20"/>
+      <c r="J172" s="18"/>
+      <c r="K172" s="18"/>
+      <c r="L172" s="18"/>
+      <c r="M172" s="18"/>
+      <c r="N172" s="18"/>
       <c r="O172" s="9"/>
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
@@ -8772,11 +8772,11 @@
       <c r="G173" s="9"/>
       <c r="H173" s="7"/>
       <c r="I173" s="6"/>
-      <c r="J173" s="20"/>
-      <c r="K173" s="20"/>
-      <c r="L173" s="20"/>
-      <c r="M173" s="20"/>
-      <c r="N173" s="20"/>
+      <c r="J173" s="18"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="18"/>
+      <c r="N173" s="18"/>
       <c r="O173" s="9"/>
       <c r="P173" s="6"/>
       <c r="Q173" s="6"/>
@@ -8791,11 +8791,11 @@
       <c r="G174" s="9"/>
       <c r="H174" s="7"/>
       <c r="I174" s="6"/>
-      <c r="J174" s="20"/>
-      <c r="K174" s="20"/>
-      <c r="L174" s="20"/>
-      <c r="M174" s="20"/>
-      <c r="N174" s="20"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="18"/>
+      <c r="N174" s="18"/>
       <c r="O174" s="9"/>
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
@@ -8810,11 +8810,11 @@
       <c r="G175" s="9"/>
       <c r="H175" s="7"/>
       <c r="I175" s="6"/>
-      <c r="J175" s="20"/>
-      <c r="K175" s="20"/>
-      <c r="L175" s="20"/>
-      <c r="M175" s="20"/>
-      <c r="N175" s="20"/>
+      <c r="J175" s="18"/>
+      <c r="K175" s="18"/>
+      <c r="L175" s="18"/>
+      <c r="M175" s="18"/>
+      <c r="N175" s="18"/>
       <c r="O175" s="9"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
@@ -8829,11 +8829,11 @@
       <c r="G176" s="9"/>
       <c r="H176" s="7"/>
       <c r="I176" s="6"/>
-      <c r="J176" s="20"/>
-      <c r="K176" s="20"/>
-      <c r="L176" s="20"/>
-      <c r="M176" s="20"/>
-      <c r="N176" s="20"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="18"/>
+      <c r="L176" s="18"/>
+      <c r="M176" s="18"/>
+      <c r="N176" s="18"/>
       <c r="O176" s="9"/>
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
@@ -8848,11 +8848,11 @@
       <c r="G177" s="9"/>
       <c r="H177" s="7"/>
       <c r="I177" s="6"/>
-      <c r="J177" s="20"/>
-      <c r="K177" s="20"/>
-      <c r="L177" s="20"/>
-      <c r="M177" s="20"/>
-      <c r="N177" s="20"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="18"/>
+      <c r="L177" s="18"/>
+      <c r="M177" s="18"/>
+      <c r="N177" s="18"/>
       <c r="O177" s="9"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
@@ -8867,11 +8867,11 @@
       <c r="G178" s="9"/>
       <c r="H178" s="7"/>
       <c r="I178" s="6"/>
-      <c r="J178" s="20"/>
-      <c r="K178" s="20"/>
-      <c r="L178" s="20"/>
-      <c r="M178" s="20"/>
-      <c r="N178" s="20"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="18"/>
+      <c r="L178" s="18"/>
+      <c r="M178" s="18"/>
+      <c r="N178" s="18"/>
       <c r="O178" s="9"/>
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
@@ -8886,11 +8886,11 @@
       <c r="G179" s="9"/>
       <c r="H179" s="7"/>
       <c r="I179" s="6"/>
-      <c r="J179" s="20"/>
-      <c r="K179" s="20"/>
-      <c r="L179" s="20"/>
-      <c r="M179" s="20"/>
-      <c r="N179" s="20"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
+      <c r="N179" s="18"/>
       <c r="O179" s="9"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
@@ -8905,11 +8905,11 @@
       <c r="G180" s="9"/>
       <c r="H180" s="7"/>
       <c r="I180" s="6"/>
-      <c r="J180" s="20"/>
-      <c r="K180" s="20"/>
-      <c r="L180" s="20"/>
-      <c r="M180" s="20"/>
-      <c r="N180" s="20"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
+      <c r="N180" s="18"/>
       <c r="O180" s="9"/>
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
@@ -8924,11 +8924,11 @@
       <c r="G181" s="9"/>
       <c r="H181" s="7"/>
       <c r="I181" s="6"/>
-      <c r="J181" s="20"/>
-      <c r="K181" s="20"/>
-      <c r="L181" s="20"/>
-      <c r="M181" s="20"/>
-      <c r="N181" s="20"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="18"/>
+      <c r="N181" s="18"/>
       <c r="O181" s="9"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
@@ -8943,11 +8943,11 @@
       <c r="G182" s="9"/>
       <c r="H182" s="7"/>
       <c r="I182" s="6"/>
-      <c r="J182" s="20"/>
-      <c r="K182" s="20"/>
-      <c r="L182" s="20"/>
-      <c r="M182" s="20"/>
-      <c r="N182" s="20"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="18"/>
+      <c r="L182" s="18"/>
+      <c r="M182" s="18"/>
+      <c r="N182" s="18"/>
       <c r="O182" s="9"/>
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
@@ -8962,11 +8962,11 @@
       <c r="G183" s="9"/>
       <c r="H183" s="7"/>
       <c r="I183" s="6"/>
-      <c r="J183" s="20"/>
-      <c r="K183" s="20"/>
-      <c r="L183" s="20"/>
-      <c r="M183" s="20"/>
-      <c r="N183" s="20"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="18"/>
+      <c r="N183" s="18"/>
       <c r="O183" s="9"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
@@ -8981,11 +8981,11 @@
       <c r="G184" s="9"/>
       <c r="H184" s="7"/>
       <c r="I184" s="6"/>
-      <c r="J184" s="20"/>
-      <c r="K184" s="20"/>
-      <c r="L184" s="20"/>
-      <c r="M184" s="20"/>
-      <c r="N184" s="20"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="18"/>
+      <c r="L184" s="18"/>
+      <c r="M184" s="18"/>
+      <c r="N184" s="18"/>
       <c r="O184" s="9"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
@@ -9000,11 +9000,11 @@
       <c r="G185" s="9"/>
       <c r="H185" s="7"/>
       <c r="I185" s="6"/>
-      <c r="J185" s="20"/>
-      <c r="K185" s="20"/>
-      <c r="L185" s="20"/>
-      <c r="M185" s="20"/>
-      <c r="N185" s="20"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+      <c r="L185" s="18"/>
+      <c r="M185" s="18"/>
+      <c r="N185" s="18"/>
       <c r="O185" s="9"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
@@ -9019,11 +9019,11 @@
       <c r="G186" s="9"/>
       <c r="H186" s="7"/>
       <c r="I186" s="6"/>
-      <c r="J186" s="20"/>
-      <c r="K186" s="20"/>
-      <c r="L186" s="20"/>
-      <c r="M186" s="20"/>
-      <c r="N186" s="20"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="18"/>
+      <c r="N186" s="18"/>
       <c r="O186" s="9"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
@@ -9038,11 +9038,11 @@
       <c r="G187" s="9"/>
       <c r="H187" s="7"/>
       <c r="I187" s="6"/>
-      <c r="J187" s="20"/>
-      <c r="K187" s="20"/>
-      <c r="L187" s="20"/>
-      <c r="M187" s="20"/>
-      <c r="N187" s="20"/>
+      <c r="J187" s="18"/>
+      <c r="K187" s="18"/>
+      <c r="L187" s="18"/>
+      <c r="M187" s="18"/>
+      <c r="N187" s="18"/>
       <c r="O187" s="9"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
@@ -9057,11 +9057,11 @@
       <c r="G188" s="9"/>
       <c r="H188" s="7"/>
       <c r="I188" s="6"/>
-      <c r="J188" s="20"/>
-      <c r="K188" s="20"/>
-      <c r="L188" s="20"/>
-      <c r="M188" s="20"/>
-      <c r="N188" s="20"/>
+      <c r="J188" s="18"/>
+      <c r="K188" s="18"/>
+      <c r="L188" s="18"/>
+      <c r="M188" s="18"/>
+      <c r="N188" s="18"/>
       <c r="O188" s="9"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
@@ -9076,11 +9076,11 @@
       <c r="G189" s="9"/>
       <c r="H189" s="7"/>
       <c r="I189" s="6"/>
-      <c r="J189" s="20"/>
-      <c r="K189" s="20"/>
-      <c r="L189" s="20"/>
-      <c r="M189" s="20"/>
-      <c r="N189" s="20"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+      <c r="L189" s="18"/>
+      <c r="M189" s="18"/>
+      <c r="N189" s="18"/>
       <c r="O189" s="9"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
@@ -9095,11 +9095,11 @@
       <c r="G190" s="9"/>
       <c r="H190" s="7"/>
       <c r="I190" s="6"/>
-      <c r="J190" s="20"/>
-      <c r="K190" s="20"/>
-      <c r="L190" s="20"/>
-      <c r="M190" s="20"/>
-      <c r="N190" s="20"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="18"/>
+      <c r="L190" s="18"/>
+      <c r="M190" s="18"/>
+      <c r="N190" s="18"/>
       <c r="O190" s="9"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
@@ -9114,11 +9114,11 @@
       <c r="G191" s="9"/>
       <c r="H191" s="7"/>
       <c r="I191" s="6"/>
-      <c r="J191" s="20"/>
-      <c r="K191" s="20"/>
-      <c r="L191" s="20"/>
-      <c r="M191" s="20"/>
-      <c r="N191" s="20"/>
+      <c r="J191" s="18"/>
+      <c r="K191" s="18"/>
+      <c r="L191" s="18"/>
+      <c r="M191" s="18"/>
+      <c r="N191" s="18"/>
       <c r="O191" s="9"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
@@ -9133,11 +9133,11 @@
       <c r="G192" s="9"/>
       <c r="H192" s="7"/>
       <c r="I192" s="6"/>
-      <c r="J192" s="20"/>
-      <c r="K192" s="20"/>
-      <c r="L192" s="20"/>
-      <c r="M192" s="20"/>
-      <c r="N192" s="20"/>
+      <c r="J192" s="18"/>
+      <c r="K192" s="18"/>
+      <c r="L192" s="18"/>
+      <c r="M192" s="18"/>
+      <c r="N192" s="18"/>
       <c r="O192" s="9"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
@@ -9152,11 +9152,11 @@
       <c r="G193" s="9"/>
       <c r="H193" s="7"/>
       <c r="I193" s="6"/>
-      <c r="J193" s="20"/>
-      <c r="K193" s="20"/>
-      <c r="L193" s="20"/>
-      <c r="M193" s="20"/>
-      <c r="N193" s="20"/>
+      <c r="J193" s="18"/>
+      <c r="K193" s="18"/>
+      <c r="L193" s="18"/>
+      <c r="M193" s="18"/>
+      <c r="N193" s="18"/>
       <c r="O193" s="9"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
@@ -9171,11 +9171,11 @@
       <c r="G194" s="9"/>
       <c r="H194" s="7"/>
       <c r="I194" s="6"/>
-      <c r="J194" s="20"/>
-      <c r="K194" s="20"/>
-      <c r="L194" s="20"/>
-      <c r="M194" s="20"/>
-      <c r="N194" s="20"/>
+      <c r="J194" s="18"/>
+      <c r="K194" s="18"/>
+      <c r="L194" s="18"/>
+      <c r="M194" s="18"/>
+      <c r="N194" s="18"/>
       <c r="O194" s="9"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
@@ -9190,11 +9190,11 @@
       <c r="G195" s="9"/>
       <c r="H195" s="7"/>
       <c r="I195" s="6"/>
-      <c r="J195" s="20"/>
-      <c r="K195" s="20"/>
-      <c r="L195" s="20"/>
-      <c r="M195" s="20"/>
-      <c r="N195" s="20"/>
+      <c r="J195" s="18"/>
+      <c r="K195" s="18"/>
+      <c r="L195" s="18"/>
+      <c r="M195" s="18"/>
+      <c r="N195" s="18"/>
       <c r="O195" s="9"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
@@ -9209,11 +9209,11 @@
       <c r="G196" s="9"/>
       <c r="H196" s="7"/>
       <c r="I196" s="6"/>
-      <c r="J196" s="20"/>
-      <c r="K196" s="20"/>
-      <c r="L196" s="20"/>
-      <c r="M196" s="20"/>
-      <c r="N196" s="20"/>
+      <c r="J196" s="18"/>
+      <c r="K196" s="18"/>
+      <c r="L196" s="18"/>
+      <c r="M196" s="18"/>
+      <c r="N196" s="18"/>
       <c r="O196" s="9"/>
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
@@ -9228,11 +9228,11 @@
       <c r="G197" s="9"/>
       <c r="H197" s="7"/>
       <c r="I197" s="6"/>
-      <c r="J197" s="20"/>
-      <c r="K197" s="20"/>
-      <c r="L197" s="20"/>
-      <c r="M197" s="20"/>
-      <c r="N197" s="20"/>
+      <c r="J197" s="18"/>
+      <c r="K197" s="18"/>
+      <c r="L197" s="18"/>
+      <c r="M197" s="18"/>
+      <c r="N197" s="18"/>
       <c r="O197" s="9"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
@@ -9247,11 +9247,11 @@
       <c r="G198" s="9"/>
       <c r="H198" s="7"/>
       <c r="I198" s="6"/>
-      <c r="J198" s="20"/>
-      <c r="K198" s="20"/>
-      <c r="L198" s="20"/>
-      <c r="M198" s="20"/>
-      <c r="N198" s="20"/>
+      <c r="J198" s="18"/>
+      <c r="K198" s="18"/>
+      <c r="L198" s="18"/>
+      <c r="M198" s="18"/>
+      <c r="N198" s="18"/>
       <c r="O198" s="9"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
@@ -9266,11 +9266,11 @@
       <c r="G199" s="9"/>
       <c r="H199" s="7"/>
       <c r="I199" s="6"/>
-      <c r="J199" s="20"/>
-      <c r="K199" s="20"/>
-      <c r="L199" s="20"/>
-      <c r="M199" s="20"/>
-      <c r="N199" s="20"/>
+      <c r="J199" s="18"/>
+      <c r="K199" s="18"/>
+      <c r="L199" s="18"/>
+      <c r="M199" s="18"/>
+      <c r="N199" s="18"/>
       <c r="O199" s="9"/>
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
@@ -9285,11 +9285,11 @@
       <c r="G200" s="9"/>
       <c r="H200" s="7"/>
       <c r="I200" s="6"/>
-      <c r="J200" s="20"/>
-      <c r="K200" s="20"/>
-      <c r="L200" s="20"/>
-      <c r="M200" s="20"/>
-      <c r="N200" s="20"/>
+      <c r="J200" s="18"/>
+      <c r="K200" s="18"/>
+      <c r="L200" s="18"/>
+      <c r="M200" s="18"/>
+      <c r="N200" s="18"/>
       <c r="O200" s="9"/>
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
@@ -9315,11 +9315,13 @@
     </row>
   </sheetData>
   <autoFilter ref="B7:R7" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}"/>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAA9AEC-7A89-4235-A677-4E1135A0D821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DA4CA71-6FA0-4107-8243-C0DB05A726E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -224,6 +224,9 @@
   <si>
     <t>Listing</t>
   </si>
+  <si>
+    <t>Market</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -517,6 +526,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,18 +553,34 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -868,8 +902,8 @@
   </sheetPr>
   <dimension ref="A2:S200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -992,16 +1026,16 @@
         <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="6">
-        <v>-3.3851819401207101E-2</v>
+        <v>-2.4660886809838273E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.0170940170940174E-2</v>
+        <v>4.0517241379310343E-2</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -1048,16 +1082,16 @@
         <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>10</v>
+        <v>10.08</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="6">
-        <v>-5.4776634451482453E-3</v>
+        <v>-1.4164348655901021E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>5.6000000000000008E-2</v>
+        <v>5.5555555555555559E-2</v>
       </c>
       <c r="H6" s="7">
         <v>9.6</v>
@@ -1104,16 +1138,16 @@
         <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>-0.39388366353300941</v>
+        <v>-0.39070295931468957</v>
       </c>
       <c r="G7" s="6">
-        <v>8.26874589398129E-2</v>
+        <v>8.3059924971073326E-2</v>
       </c>
       <c r="H7" s="7">
         <v>28.629807824025253</v>
@@ -1216,16 +1250,16 @@
         <v>45</v>
       </c>
       <c r="D9" s="7">
-        <v>19.5</v>
+        <v>19.52</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.14473500488694693</v>
+        <v>-0.14571376000489059</v>
       </c>
       <c r="G9" s="6">
-        <v>6.9230769230769235E-2</v>
+        <v>6.9159836065573771E-2</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -1272,16 +1306,16 @@
         <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6">
-        <v>-0.3296747221759303</v>
+        <v>-0.32529187966794149</v>
       </c>
       <c r="G10" s="6">
-        <v>6.8994413407821226E-2</v>
+        <v>6.938202247191011E-2</v>
       </c>
       <c r="H10" s="7">
         <v>1.1000000000000001</v>
@@ -1293,19 +1327,19 @@
         <v>1.9</v>
       </c>
       <c r="K10" s="7">
-        <v>1.1288983483579402</v>
+        <v>1.1289965552439201</v>
       </c>
       <c r="L10" s="7">
-        <v>1.4845105671604442</v>
+        <v>1.4846087740464236</v>
       </c>
       <c r="M10" s="7">
-        <v>1.3788822473050848</v>
+        <v>1.3789804541910642</v>
       </c>
       <c r="N10" s="7">
-        <v>1.2535293157318952</v>
+        <v>1.2536185947191492</v>
       </c>
       <c r="O10" s="7">
-        <v>1.1031057978440679</v>
+        <v>1.1031843633528513</v>
       </c>
       <c r="P10" s="8">
         <v>44561</v>
@@ -1328,13 +1362,13 @@
         <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>17.420000000000002</v>
+        <v>17.38</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="6">
-        <v>2.9436301584439523E-2</v>
+        <v>3.203569468359832E-2</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1384,16 +1418,16 @@
         <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>4.1399999999999997</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.24612872662654775</v>
+        <v>-0.2377982751790019</v>
       </c>
       <c r="G12" s="6">
-        <v>4.9661820029544328E-2</v>
+        <v>5.0146325590808172E-2</v>
       </c>
       <c r="H12" s="7">
         <v>2.4</v>
@@ -1440,16 +1474,16 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>5.83</v>
+        <v>5.72</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="6">
-        <v>-1.4226643016764712E-2</v>
+        <v>7.939084945519953E-3</v>
       </c>
       <c r="G13" s="6">
-        <v>5.3231848978837974E-2</v>
+        <v>5.4255538382277167E-2</v>
       </c>
       <c r="H13" s="7">
         <v>4.8</v>
@@ -1458,22 +1492,22 @@
         <v>8000</v>
       </c>
       <c r="J13" s="7">
-        <v>7.2353440985062409</v>
+        <v>7.2412264142471319</v>
       </c>
       <c r="K13" s="7">
-        <v>3.0109405794767525</v>
+        <v>3.0182934741528662</v>
       </c>
       <c r="L13" s="7">
-        <v>8.4620723103348752</v>
+        <v>8.4694252050109871</v>
       </c>
       <c r="M13" s="7">
-        <v>6.330058671212262</v>
+        <v>6.3374115658883738</v>
       </c>
       <c r="N13" s="7">
-        <v>5.754598792011147</v>
+        <v>5.7612832417167033</v>
       </c>
       <c r="O13" s="7">
-        <v>5.0640469369698096</v>
+        <v>5.0699292527106987</v>
       </c>
       <c r="P13" s="8">
         <v>44561</v>
@@ -1496,16 +1530,16 @@
         <v>55</v>
       </c>
       <c r="D14" s="7">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="6">
-        <v>9.4125038648328413E-2</v>
+        <v>8.7378569503422682E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>1.0903026851940867E-2</v>
+        <v>1.0841427830178489E-2</v>
       </c>
       <c r="H14" s="7">
         <v>1.6</v>
@@ -5271,6 +5305,16 @@
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="D3:F3"/>
   </mergeCells>
+  <conditionalFormatting sqref="H5:H400">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>(H5&gt;D5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J400">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>(J5&lt;D5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5278,10 +5322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}">
-  <dimension ref="A2:R201"/>
+  <dimension ref="A2:R400"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5304,14 +5348,14 @@
         <v>11</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25">
         <v>45001</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -5328,8 +5372,10 @@
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="27">
+        <v>312920</v>
+      </c>
+      <c r="E3" s="28"/>
       <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
@@ -5338,8 +5384,10 @@
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="29">
+        <v>262710</v>
+      </c>
+      <c r="E4" s="30"/>
       <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
@@ -5352,18 +5400,20 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="26"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
     </row>
@@ -5428,7 +5478,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E8" s="7">
         <v>11.9</v>
@@ -5460,8 +5510,14 @@
       <c r="N8" s="18">
         <v>4.633566600818809</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="6"/>
+      <c r="O8" s="6">
+        <f>34800/D4</f>
+        <v>0.13246545620646341</v>
+      </c>
+      <c r="P8" s="6">
+        <f>11.9/11.6-1</f>
+        <v>2.5862068965517349E-2</v>
+      </c>
       <c r="Q8" s="5" t="s">
         <v>9</v>
       </c>
@@ -5477,7 +5533,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>10</v>
+        <v>10.08</v>
       </c>
       <c r="E9" s="7">
         <v>10.31</v>
@@ -5509,8 +5565,14 @@
       <c r="N9" s="18">
         <v>3.5134488326629425</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="O9" s="6">
+        <f>40320/D4</f>
+        <v>0.15347721822541965</v>
+      </c>
+      <c r="P9" s="6">
+        <f>10.31/10.08-1</f>
+        <v>2.2817460317460458E-2</v>
+      </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
       </c>
@@ -5526,7 +5588,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="E10" s="7">
         <v>1.68</v>
@@ -5558,8 +5620,14 @@
       <c r="N10" s="18">
         <v>2.4805745781286417</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="O10" s="6">
+        <f>28480/D4</f>
+        <v>0.10840851128620912</v>
+      </c>
+      <c r="P10" s="6">
+        <f>1.68/1.78-1</f>
+        <v>-5.6179775280898903E-2</v>
+      </c>
       <c r="Q10" s="6" t="s">
         <v>9</v>
       </c>
@@ -5575,7 +5643,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>17.420000000000002</v>
+        <v>17.38</v>
       </c>
       <c r="E11" s="7">
         <v>16.5</v>
@@ -5607,8 +5675,14 @@
       <c r="N11" s="18">
         <v>1.1494100885179757</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="O11" s="6">
+        <f>34760/D4</f>
+        <v>0.13231319706139849</v>
+      </c>
+      <c r="P11" s="6">
+        <f>16.5/17.38-1</f>
+        <v>-5.0632911392405E-2</v>
+      </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
       </c>
@@ -5624,7 +5698,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>4.1399999999999997</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E12" s="7">
         <v>5.61</v>
@@ -5656,8 +5730,14 @@
       <c r="N12" s="18">
         <v>0.59946117374446684</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="6"/>
+      <c r="O12" s="6">
+        <f>82000/D4</f>
+        <v>0.31213124738304593</v>
+      </c>
+      <c r="P12" s="6">
+        <f>5.61/4.1-1</f>
+        <v>0.36829268292682937</v>
+      </c>
       <c r="Q12" s="6" t="s">
         <v>9</v>
       </c>
@@ -5673,7 +5753,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>5.83</v>
+        <v>5.72</v>
       </c>
       <c r="E13" s="7">
         <v>11.08</v>
@@ -5685,7 +5765,7 @@
         <v>4000</v>
       </c>
       <c r="H13" s="7">
-        <v>7.2353440985062409</v>
+        <v>7.2412264142471319</v>
       </c>
       <c r="I13" s="6">
         <v>5.4080520158737544E-2</v>
@@ -5705,7 +5785,14 @@
       <c r="N13" s="18">
         <v>2.0088349318914984</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="O13" s="6">
+        <f>22880/D4</f>
+        <v>8.709223097712307E-2</v>
+      </c>
+      <c r="P13" s="6">
+        <f>11.08/5.72-1</f>
+        <v>0.93706293706293708</v>
+      </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
       </c>
@@ -5721,7 +5808,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="7">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E14" s="7">
         <v>1.78</v>
@@ -5753,7 +5840,14 @@
       <c r="N14" s="18">
         <v>5.5613492499085257</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="6">
+        <f>19470/D4</f>
+        <v>7.4112138860340293E-2</v>
+      </c>
+      <c r="P14" s="6">
+        <f>1.78/1.77-1</f>
+        <v>5.6497175141243527E-3</v>
+      </c>
       <c r="Q14" s="6" t="s">
         <v>9</v>
       </c>
@@ -5775,7 +5869,7 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
-      <c r="O15" s="9"/>
+      <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="5"/>
@@ -5794,7 +5888,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
-      <c r="O16" s="9"/>
+      <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="5"/>
@@ -5813,7 +5907,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="5"/>
@@ -5832,7 +5926,7 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="9"/>
+      <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="5"/>
@@ -5851,7 +5945,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="5"/>
@@ -5870,7 +5964,7 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="5"/>
@@ -5889,7 +5983,7 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
-      <c r="O21" s="9"/>
+      <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="5"/>
@@ -5908,7 +6002,7 @@
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
-      <c r="O22" s="9"/>
+      <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="5"/>
@@ -5927,7 +6021,7 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
-      <c r="O23" s="9"/>
+      <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="5"/>
@@ -5946,7 +6040,7 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
-      <c r="O24" s="9"/>
+      <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="5"/>
@@ -5965,7 +6059,7 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="5"/>
@@ -5984,7 +6078,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="5"/>
@@ -6003,7 +6097,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="9"/>
+      <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="5"/>
@@ -6022,7 +6116,7 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
-      <c r="O28" s="9"/>
+      <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="5"/>
@@ -6041,7 +6135,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
-      <c r="O29" s="9"/>
+      <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="5"/>
@@ -6060,7 +6154,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
-      <c r="O30" s="9"/>
+      <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="5"/>
@@ -6079,7 +6173,7 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
-      <c r="O31" s="9"/>
+      <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="5"/>
@@ -6098,7 +6192,7 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
-      <c r="O32" s="9"/>
+      <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="5"/>
@@ -6117,7 +6211,7 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
-      <c r="O33" s="9"/>
+      <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="5"/>
@@ -6136,7 +6230,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
-      <c r="O34" s="9"/>
+      <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="5"/>
@@ -6155,7 +6249,7 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
-      <c r="O35" s="9"/>
+      <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="5"/>
@@ -6174,7 +6268,7 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="9"/>
+      <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="5"/>
@@ -6193,7 +6287,7 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
-      <c r="O37" s="9"/>
+      <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="5"/>
@@ -6212,7 +6306,7 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
-      <c r="O38" s="9"/>
+      <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="5"/>
@@ -6231,7 +6325,7 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
-      <c r="O39" s="9"/>
+      <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="5"/>
@@ -6250,7 +6344,7 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="9"/>
+      <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="5"/>
@@ -6269,7 +6363,7 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="9"/>
+      <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="5"/>
@@ -6288,7 +6382,7 @@
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="9"/>
+      <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="5"/>
@@ -6307,7 +6401,7 @@
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
-      <c r="O43" s="9"/>
+      <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="5"/>
@@ -6326,7 +6420,7 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="9"/>
+      <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="5"/>
@@ -6345,7 +6439,7 @@
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
-      <c r="O45" s="9"/>
+      <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="5"/>
@@ -6364,7 +6458,7 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="9"/>
+      <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="5"/>
@@ -6383,7 +6477,7 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="9"/>
+      <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="5"/>
@@ -6402,7 +6496,7 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="9"/>
+      <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="5"/>
@@ -6421,7 +6515,7 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
-      <c r="O49" s="9"/>
+      <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="5"/>
@@ -6440,7 +6534,7 @@
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
-      <c r="O50" s="9"/>
+      <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="5"/>
@@ -6459,7 +6553,7 @@
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
       <c r="N51" s="18"/>
-      <c r="O51" s="9"/>
+      <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="5"/>
@@ -6478,7 +6572,7 @@
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
       <c r="N52" s="18"/>
-      <c r="O52" s="9"/>
+      <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="5"/>
@@ -6497,7 +6591,7 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
-      <c r="O53" s="9"/>
+      <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="5"/>
@@ -6516,7 +6610,7 @@
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
-      <c r="O54" s="9"/>
+      <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="5"/>
@@ -6535,7 +6629,7 @@
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
-      <c r="O55" s="9"/>
+      <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="5"/>
@@ -6554,7 +6648,7 @@
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
-      <c r="O56" s="9"/>
+      <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="5"/>
@@ -6573,7 +6667,7 @@
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
-      <c r="O57" s="9"/>
+      <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="5"/>
@@ -6592,7 +6686,7 @@
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
-      <c r="O58" s="9"/>
+      <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="5"/>
@@ -6611,7 +6705,7 @@
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
-      <c r="O59" s="9"/>
+      <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="5"/>
@@ -6630,7 +6724,7 @@
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
-      <c r="O60" s="9"/>
+      <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="5"/>
@@ -6649,7 +6743,7 @@
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
-      <c r="O61" s="9"/>
+      <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="5"/>
@@ -6668,7 +6762,7 @@
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
-      <c r="O62" s="9"/>
+      <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="5"/>
@@ -6687,7 +6781,7 @@
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
       <c r="N63" s="18"/>
-      <c r="O63" s="9"/>
+      <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="5"/>
@@ -6706,7 +6800,7 @@
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
-      <c r="O64" s="9"/>
+      <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="5"/>
@@ -6725,7 +6819,7 @@
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
-      <c r="O65" s="9"/>
+      <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
       <c r="R65" s="5"/>
@@ -6744,7 +6838,7 @@
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
-      <c r="O66" s="9"/>
+      <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="5"/>
@@ -6763,7 +6857,7 @@
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
       <c r="N67" s="18"/>
-      <c r="O67" s="9"/>
+      <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="5"/>
@@ -6782,7 +6876,7 @@
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
       <c r="N68" s="18"/>
-      <c r="O68" s="9"/>
+      <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="5"/>
@@ -6801,7 +6895,7 @@
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
       <c r="N69" s="18"/>
-      <c r="O69" s="9"/>
+      <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="5"/>
@@ -6820,7 +6914,7 @@
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
       <c r="N70" s="18"/>
-      <c r="O70" s="9"/>
+      <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="5"/>
@@ -6839,7 +6933,7 @@
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
-      <c r="O71" s="9"/>
+      <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="5"/>
@@ -6858,7 +6952,7 @@
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
       <c r="N72" s="18"/>
-      <c r="O72" s="9"/>
+      <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="5"/>
@@ -6877,7 +6971,7 @@
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
       <c r="N73" s="18"/>
-      <c r="O73" s="9"/>
+      <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="5"/>
@@ -6896,7 +6990,7 @@
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
-      <c r="O74" s="9"/>
+      <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="5"/>
@@ -6915,7 +7009,7 @@
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
       <c r="N75" s="18"/>
-      <c r="O75" s="9"/>
+      <c r="O75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="5"/>
@@ -6934,7 +7028,7 @@
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
       <c r="N76" s="18"/>
-      <c r="O76" s="9"/>
+      <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="5"/>
@@ -6953,7 +7047,7 @@
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
       <c r="N77" s="18"/>
-      <c r="O77" s="9"/>
+      <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="5"/>
@@ -6972,7 +7066,7 @@
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
       <c r="N78" s="18"/>
-      <c r="O78" s="9"/>
+      <c r="O78" s="6"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="5"/>
@@ -6991,7 +7085,7 @@
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
       <c r="N79" s="18"/>
-      <c r="O79" s="9"/>
+      <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="5"/>
@@ -7010,7 +7104,7 @@
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
       <c r="N80" s="18"/>
-      <c r="O80" s="9"/>
+      <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="5"/>
@@ -7029,7 +7123,7 @@
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
       <c r="N81" s="18"/>
-      <c r="O81" s="9"/>
+      <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="5"/>
@@ -7048,7 +7142,7 @@
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
       <c r="N82" s="18"/>
-      <c r="O82" s="9"/>
+      <c r="O82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="5"/>
@@ -7067,7 +7161,7 @@
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
       <c r="N83" s="18"/>
-      <c r="O83" s="9"/>
+      <c r="O83" s="6"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="5"/>
@@ -7086,7 +7180,7 @@
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
-      <c r="O84" s="9"/>
+      <c r="O84" s="6"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="5"/>
@@ -7105,7 +7199,7 @@
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
       <c r="N85" s="18"/>
-      <c r="O85" s="9"/>
+      <c r="O85" s="6"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="5"/>
@@ -7124,7 +7218,7 @@
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
-      <c r="O86" s="9"/>
+      <c r="O86" s="6"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="5"/>
@@ -7143,7 +7237,7 @@
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
       <c r="N87" s="18"/>
-      <c r="O87" s="9"/>
+      <c r="O87" s="6"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="5"/>
@@ -7162,7 +7256,7 @@
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
       <c r="N88" s="18"/>
-      <c r="O88" s="9"/>
+      <c r="O88" s="6"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="5"/>
@@ -7181,7 +7275,7 @@
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
       <c r="N89" s="18"/>
-      <c r="O89" s="9"/>
+      <c r="O89" s="6"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="5"/>
@@ -7200,7 +7294,7 @@
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
       <c r="N90" s="18"/>
-      <c r="O90" s="9"/>
+      <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="5"/>
@@ -7219,7 +7313,7 @@
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
       <c r="N91" s="18"/>
-      <c r="O91" s="9"/>
+      <c r="O91" s="6"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="5"/>
@@ -7238,7 +7332,7 @@
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
       <c r="N92" s="18"/>
-      <c r="O92" s="9"/>
+      <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="5"/>
@@ -7257,7 +7351,7 @@
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
       <c r="N93" s="18"/>
-      <c r="O93" s="9"/>
+      <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="5"/>
@@ -7276,7 +7370,7 @@
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
       <c r="N94" s="18"/>
-      <c r="O94" s="9"/>
+      <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="5"/>
@@ -7295,7 +7389,7 @@
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
       <c r="N95" s="18"/>
-      <c r="O95" s="9"/>
+      <c r="O95" s="6"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="5"/>
@@ -7314,7 +7408,7 @@
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
       <c r="N96" s="18"/>
-      <c r="O96" s="9"/>
+      <c r="O96" s="6"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="5"/>
@@ -7333,7 +7427,7 @@
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
       <c r="N97" s="18"/>
-      <c r="O97" s="9"/>
+      <c r="O97" s="6"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="5"/>
@@ -7352,7 +7446,7 @@
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
       <c r="N98" s="18"/>
-      <c r="O98" s="9"/>
+      <c r="O98" s="6"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="5"/>
@@ -7371,7 +7465,7 @@
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18"/>
-      <c r="O99" s="9"/>
+      <c r="O99" s="6"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
       <c r="R99" s="5"/>
@@ -7390,7 +7484,7 @@
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
       <c r="N100" s="18"/>
-      <c r="O100" s="9"/>
+      <c r="O100" s="6"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="5"/>
@@ -7409,7 +7503,7 @@
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
       <c r="N101" s="18"/>
-      <c r="O101" s="9"/>
+      <c r="O101" s="6"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="5"/>
@@ -7428,7 +7522,7 @@
       <c r="L102" s="18"/>
       <c r="M102" s="18"/>
       <c r="N102" s="18"/>
-      <c r="O102" s="9"/>
+      <c r="O102" s="6"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="5"/>
@@ -7447,7 +7541,7 @@
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
       <c r="N103" s="18"/>
-      <c r="O103" s="9"/>
+      <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="5"/>
@@ -7466,7 +7560,7 @@
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
       <c r="N104" s="18"/>
-      <c r="O104" s="9"/>
+      <c r="O104" s="6"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="5"/>
@@ -7485,7 +7579,7 @@
       <c r="L105" s="18"/>
       <c r="M105" s="18"/>
       <c r="N105" s="18"/>
-      <c r="O105" s="9"/>
+      <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="5"/>
@@ -7504,7 +7598,7 @@
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
       <c r="N106" s="18"/>
-      <c r="O106" s="9"/>
+      <c r="O106" s="6"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="5"/>
@@ -7523,7 +7617,7 @@
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
       <c r="N107" s="18"/>
-      <c r="O107" s="9"/>
+      <c r="O107" s="6"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="5"/>
@@ -7542,7 +7636,7 @@
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
       <c r="N108" s="18"/>
-      <c r="O108" s="9"/>
+      <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
       <c r="R108" s="5"/>
@@ -7561,7 +7655,7 @@
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
       <c r="N109" s="18"/>
-      <c r="O109" s="9"/>
+      <c r="O109" s="6"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
       <c r="R109" s="5"/>
@@ -7580,7 +7674,7 @@
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
       <c r="N110" s="18"/>
-      <c r="O110" s="9"/>
+      <c r="O110" s="6"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
       <c r="R110" s="5"/>
@@ -7599,7 +7693,7 @@
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
       <c r="N111" s="18"/>
-      <c r="O111" s="9"/>
+      <c r="O111" s="6"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
       <c r="R111" s="5"/>
@@ -7618,7 +7712,7 @@
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
       <c r="N112" s="18"/>
-      <c r="O112" s="9"/>
+      <c r="O112" s="6"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
       <c r="R112" s="5"/>
@@ -7637,7 +7731,7 @@
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
       <c r="N113" s="18"/>
-      <c r="O113" s="9"/>
+      <c r="O113" s="6"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
       <c r="R113" s="5"/>
@@ -7656,7 +7750,7 @@
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
       <c r="N114" s="18"/>
-      <c r="O114" s="9"/>
+      <c r="O114" s="6"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="5"/>
@@ -7675,7 +7769,7 @@
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
       <c r="N115" s="18"/>
-      <c r="O115" s="9"/>
+      <c r="O115" s="6"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="5"/>
@@ -7694,7 +7788,7 @@
       <c r="L116" s="18"/>
       <c r="M116" s="18"/>
       <c r="N116" s="18"/>
-      <c r="O116" s="9"/>
+      <c r="O116" s="6"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
       <c r="R116" s="5"/>
@@ -7713,7 +7807,7 @@
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
       <c r="N117" s="18"/>
-      <c r="O117" s="9"/>
+      <c r="O117" s="6"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
       <c r="R117" s="5"/>
@@ -7732,7 +7826,7 @@
       <c r="L118" s="18"/>
       <c r="M118" s="18"/>
       <c r="N118" s="18"/>
-      <c r="O118" s="9"/>
+      <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
       <c r="R118" s="5"/>
@@ -7751,7 +7845,7 @@
       <c r="L119" s="18"/>
       <c r="M119" s="18"/>
       <c r="N119" s="18"/>
-      <c r="O119" s="9"/>
+      <c r="O119" s="6"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
       <c r="R119" s="5"/>
@@ -7770,7 +7864,7 @@
       <c r="L120" s="18"/>
       <c r="M120" s="18"/>
       <c r="N120" s="18"/>
-      <c r="O120" s="9"/>
+      <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
       <c r="R120" s="5"/>
@@ -7789,7 +7883,7 @@
       <c r="L121" s="18"/>
       <c r="M121" s="18"/>
       <c r="N121" s="18"/>
-      <c r="O121" s="9"/>
+      <c r="O121" s="6"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
       <c r="R121" s="5"/>
@@ -7808,7 +7902,7 @@
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
       <c r="N122" s="18"/>
-      <c r="O122" s="9"/>
+      <c r="O122" s="6"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
       <c r="R122" s="5"/>
@@ -7827,7 +7921,7 @@
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
       <c r="N123" s="18"/>
-      <c r="O123" s="9"/>
+      <c r="O123" s="6"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
       <c r="R123" s="5"/>
@@ -7846,7 +7940,7 @@
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
       <c r="N124" s="18"/>
-      <c r="O124" s="9"/>
+      <c r="O124" s="6"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
       <c r="R124" s="5"/>
@@ -7865,7 +7959,7 @@
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
-      <c r="O125" s="9"/>
+      <c r="O125" s="6"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
       <c r="R125" s="5"/>
@@ -7884,7 +7978,7 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="9"/>
+      <c r="O126" s="6"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="5"/>
@@ -7903,7 +7997,7 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="9"/>
+      <c r="O127" s="6"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
       <c r="R127" s="5"/>
@@ -7922,7 +8016,7 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="9"/>
+      <c r="O128" s="6"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
       <c r="R128" s="5"/>
@@ -7941,7 +8035,7 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="9"/>
+      <c r="O129" s="6"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
       <c r="R129" s="5"/>
@@ -7960,7 +8054,7 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="9"/>
+      <c r="O130" s="6"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
       <c r="R130" s="5"/>
@@ -7979,7 +8073,7 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="9"/>
+      <c r="O131" s="6"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
       <c r="R131" s="5"/>
@@ -7998,7 +8092,7 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="9"/>
+      <c r="O132" s="6"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
       <c r="R132" s="5"/>
@@ -8017,7 +8111,7 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="9"/>
+      <c r="O133" s="6"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
       <c r="R133" s="5"/>
@@ -8036,7 +8130,7 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="9"/>
+      <c r="O134" s="6"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
       <c r="R134" s="5"/>
@@ -8055,7 +8149,7 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="9"/>
+      <c r="O135" s="6"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
       <c r="R135" s="5"/>
@@ -8074,7 +8168,7 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="9"/>
+      <c r="O136" s="6"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
       <c r="R136" s="5"/>
@@ -8093,7 +8187,7 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="9"/>
+      <c r="O137" s="6"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
       <c r="R137" s="5"/>
@@ -8112,7 +8206,7 @@
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
       <c r="N138" s="18"/>
-      <c r="O138" s="9"/>
+      <c r="O138" s="6"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
       <c r="R138" s="5"/>
@@ -8131,7 +8225,7 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="9"/>
+      <c r="O139" s="6"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
       <c r="R139" s="5"/>
@@ -8150,7 +8244,7 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="9"/>
+      <c r="O140" s="6"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
       <c r="R140" s="5"/>
@@ -8169,7 +8263,7 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="9"/>
+      <c r="O141" s="6"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
       <c r="R141" s="5"/>
@@ -8188,7 +8282,7 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="9"/>
+      <c r="O142" s="6"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
       <c r="R142" s="5"/>
@@ -8207,7 +8301,7 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="9"/>
+      <c r="O143" s="6"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
       <c r="R143" s="5"/>
@@ -8226,7 +8320,7 @@
       <c r="L144" s="18"/>
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
-      <c r="O144" s="9"/>
+      <c r="O144" s="6"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
       <c r="R144" s="5"/>
@@ -8245,7 +8339,7 @@
       <c r="L145" s="18"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
-      <c r="O145" s="9"/>
+      <c r="O145" s="6"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
       <c r="R145" s="5"/>
@@ -8264,7 +8358,7 @@
       <c r="L146" s="18"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
-      <c r="O146" s="9"/>
+      <c r="O146" s="6"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
       <c r="R146" s="5"/>
@@ -8283,7 +8377,7 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="9"/>
+      <c r="O147" s="6"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
       <c r="R147" s="5"/>
@@ -8302,7 +8396,7 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="9"/>
+      <c r="O148" s="6"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
       <c r="R148" s="5"/>
@@ -8321,7 +8415,7 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="9"/>
+      <c r="O149" s="6"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
       <c r="R149" s="5"/>
@@ -8340,7 +8434,7 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="9"/>
+      <c r="O150" s="6"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
       <c r="R150" s="5"/>
@@ -8359,7 +8453,7 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="9"/>
+      <c r="O151" s="6"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
       <c r="R151" s="5"/>
@@ -8378,7 +8472,7 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="9"/>
+      <c r="O152" s="6"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
       <c r="R152" s="5"/>
@@ -8397,7 +8491,7 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="9"/>
+      <c r="O153" s="6"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
       <c r="R153" s="5"/>
@@ -8416,7 +8510,7 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="9"/>
+      <c r="O154" s="6"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
       <c r="R154" s="5"/>
@@ -8435,7 +8529,7 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="9"/>
+      <c r="O155" s="6"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
       <c r="R155" s="5"/>
@@ -8454,7 +8548,7 @@
       <c r="L156" s="18"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
-      <c r="O156" s="9"/>
+      <c r="O156" s="6"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
       <c r="R156" s="5"/>
@@ -8473,7 +8567,7 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="9"/>
+      <c r="O157" s="6"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
       <c r="R157" s="5"/>
@@ -8492,7 +8586,7 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="9"/>
+      <c r="O158" s="6"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
       <c r="R158" s="5"/>
@@ -8511,7 +8605,7 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="9"/>
+      <c r="O159" s="6"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
       <c r="R159" s="5"/>
@@ -8530,7 +8624,7 @@
       <c r="L160" s="18"/>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
-      <c r="O160" s="9"/>
+      <c r="O160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
       <c r="R160" s="5"/>
@@ -8549,7 +8643,7 @@
       <c r="L161" s="18"/>
       <c r="M161" s="18"/>
       <c r="N161" s="18"/>
-      <c r="O161" s="9"/>
+      <c r="O161" s="6"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
       <c r="R161" s="5"/>
@@ -8568,7 +8662,7 @@
       <c r="L162" s="18"/>
       <c r="M162" s="18"/>
       <c r="N162" s="18"/>
-      <c r="O162" s="9"/>
+      <c r="O162" s="6"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
       <c r="R162" s="5"/>
@@ -8587,7 +8681,7 @@
       <c r="L163" s="18"/>
       <c r="M163" s="18"/>
       <c r="N163" s="18"/>
-      <c r="O163" s="9"/>
+      <c r="O163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
       <c r="R163" s="5"/>
@@ -8606,7 +8700,7 @@
       <c r="L164" s="18"/>
       <c r="M164" s="18"/>
       <c r="N164" s="18"/>
-      <c r="O164" s="9"/>
+      <c r="O164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
       <c r="R164" s="5"/>
@@ -8625,7 +8719,7 @@
       <c r="L165" s="18"/>
       <c r="M165" s="18"/>
       <c r="N165" s="18"/>
-      <c r="O165" s="9"/>
+      <c r="O165" s="6"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
       <c r="R165" s="5"/>
@@ -8644,7 +8738,7 @@
       <c r="L166" s="18"/>
       <c r="M166" s="18"/>
       <c r="N166" s="18"/>
-      <c r="O166" s="9"/>
+      <c r="O166" s="6"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
       <c r="R166" s="5"/>
@@ -8663,7 +8757,7 @@
       <c r="L167" s="18"/>
       <c r="M167" s="18"/>
       <c r="N167" s="18"/>
-      <c r="O167" s="9"/>
+      <c r="O167" s="6"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
       <c r="R167" s="5"/>
@@ -8682,7 +8776,7 @@
       <c r="L168" s="18"/>
       <c r="M168" s="18"/>
       <c r="N168" s="18"/>
-      <c r="O168" s="9"/>
+      <c r="O168" s="6"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
       <c r="R168" s="5"/>
@@ -8701,7 +8795,7 @@
       <c r="L169" s="18"/>
       <c r="M169" s="18"/>
       <c r="N169" s="18"/>
-      <c r="O169" s="9"/>
+      <c r="O169" s="6"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
       <c r="R169" s="5"/>
@@ -8720,7 +8814,7 @@
       <c r="L170" s="18"/>
       <c r="M170" s="18"/>
       <c r="N170" s="18"/>
-      <c r="O170" s="9"/>
+      <c r="O170" s="6"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
       <c r="R170" s="5"/>
@@ -8739,7 +8833,7 @@
       <c r="L171" s="18"/>
       <c r="M171" s="18"/>
       <c r="N171" s="18"/>
-      <c r="O171" s="9"/>
+      <c r="O171" s="6"/>
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
       <c r="R171" s="5"/>
@@ -8758,7 +8852,7 @@
       <c r="L172" s="18"/>
       <c r="M172" s="18"/>
       <c r="N172" s="18"/>
-      <c r="O172" s="9"/>
+      <c r="O172" s="6"/>
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
       <c r="R172" s="5"/>
@@ -8777,7 +8871,7 @@
       <c r="L173" s="18"/>
       <c r="M173" s="18"/>
       <c r="N173" s="18"/>
-      <c r="O173" s="9"/>
+      <c r="O173" s="6"/>
       <c r="P173" s="6"/>
       <c r="Q173" s="6"/>
       <c r="R173" s="5"/>
@@ -8796,7 +8890,7 @@
       <c r="L174" s="18"/>
       <c r="M174" s="18"/>
       <c r="N174" s="18"/>
-      <c r="O174" s="9"/>
+      <c r="O174" s="6"/>
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
       <c r="R174" s="5"/>
@@ -8815,7 +8909,7 @@
       <c r="L175" s="18"/>
       <c r="M175" s="18"/>
       <c r="N175" s="18"/>
-      <c r="O175" s="9"/>
+      <c r="O175" s="6"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
       <c r="R175" s="5"/>
@@ -8834,7 +8928,7 @@
       <c r="L176" s="18"/>
       <c r="M176" s="18"/>
       <c r="N176" s="18"/>
-      <c r="O176" s="9"/>
+      <c r="O176" s="6"/>
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
       <c r="R176" s="5"/>
@@ -8853,7 +8947,7 @@
       <c r="L177" s="18"/>
       <c r="M177" s="18"/>
       <c r="N177" s="18"/>
-      <c r="O177" s="9"/>
+      <c r="O177" s="6"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
       <c r="R177" s="5"/>
@@ -8872,7 +8966,7 @@
       <c r="L178" s="18"/>
       <c r="M178" s="18"/>
       <c r="N178" s="18"/>
-      <c r="O178" s="9"/>
+      <c r="O178" s="6"/>
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
       <c r="R178" s="5"/>
@@ -8891,7 +8985,7 @@
       <c r="L179" s="18"/>
       <c r="M179" s="18"/>
       <c r="N179" s="18"/>
-      <c r="O179" s="9"/>
+      <c r="O179" s="6"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
       <c r="R179" s="5"/>
@@ -8910,7 +9004,7 @@
       <c r="L180" s="18"/>
       <c r="M180" s="18"/>
       <c r="N180" s="18"/>
-      <c r="O180" s="9"/>
+      <c r="O180" s="6"/>
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
       <c r="R180" s="5"/>
@@ -8929,7 +9023,7 @@
       <c r="L181" s="18"/>
       <c r="M181" s="18"/>
       <c r="N181" s="18"/>
-      <c r="O181" s="9"/>
+      <c r="O181" s="6"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
       <c r="R181" s="5"/>
@@ -8948,7 +9042,7 @@
       <c r="L182" s="18"/>
       <c r="M182" s="18"/>
       <c r="N182" s="18"/>
-      <c r="O182" s="9"/>
+      <c r="O182" s="6"/>
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
       <c r="R182" s="5"/>
@@ -8967,7 +9061,7 @@
       <c r="L183" s="18"/>
       <c r="M183" s="18"/>
       <c r="N183" s="18"/>
-      <c r="O183" s="9"/>
+      <c r="O183" s="6"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
       <c r="R183" s="5"/>
@@ -8986,7 +9080,7 @@
       <c r="L184" s="18"/>
       <c r="M184" s="18"/>
       <c r="N184" s="18"/>
-      <c r="O184" s="9"/>
+      <c r="O184" s="6"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
       <c r="R184" s="5"/>
@@ -9005,7 +9099,7 @@
       <c r="L185" s="18"/>
       <c r="M185" s="18"/>
       <c r="N185" s="18"/>
-      <c r="O185" s="9"/>
+      <c r="O185" s="6"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
       <c r="R185" s="5"/>
@@ -9024,7 +9118,7 @@
       <c r="L186" s="18"/>
       <c r="M186" s="18"/>
       <c r="N186" s="18"/>
-      <c r="O186" s="9"/>
+      <c r="O186" s="6"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
       <c r="R186" s="5"/>
@@ -9043,7 +9137,7 @@
       <c r="L187" s="18"/>
       <c r="M187" s="18"/>
       <c r="N187" s="18"/>
-      <c r="O187" s="9"/>
+      <c r="O187" s="6"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
       <c r="R187" s="5"/>
@@ -9062,7 +9156,7 @@
       <c r="L188" s="18"/>
       <c r="M188" s="18"/>
       <c r="N188" s="18"/>
-      <c r="O188" s="9"/>
+      <c r="O188" s="6"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
       <c r="R188" s="5"/>
@@ -9081,7 +9175,7 @@
       <c r="L189" s="18"/>
       <c r="M189" s="18"/>
       <c r="N189" s="18"/>
-      <c r="O189" s="9"/>
+      <c r="O189" s="6"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
       <c r="R189" s="5"/>
@@ -9100,7 +9194,7 @@
       <c r="L190" s="18"/>
       <c r="M190" s="18"/>
       <c r="N190" s="18"/>
-      <c r="O190" s="9"/>
+      <c r="O190" s="6"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
       <c r="R190" s="5"/>
@@ -9119,7 +9213,7 @@
       <c r="L191" s="18"/>
       <c r="M191" s="18"/>
       <c r="N191" s="18"/>
-      <c r="O191" s="9"/>
+      <c r="O191" s="6"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
       <c r="R191" s="5"/>
@@ -9138,7 +9232,7 @@
       <c r="L192" s="18"/>
       <c r="M192" s="18"/>
       <c r="N192" s="18"/>
-      <c r="O192" s="9"/>
+      <c r="O192" s="6"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
       <c r="R192" s="5"/>
@@ -9157,7 +9251,7 @@
       <c r="L193" s="18"/>
       <c r="M193" s="18"/>
       <c r="N193" s="18"/>
-      <c r="O193" s="9"/>
+      <c r="O193" s="6"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
       <c r="R193" s="5"/>
@@ -9176,7 +9270,7 @@
       <c r="L194" s="18"/>
       <c r="M194" s="18"/>
       <c r="N194" s="18"/>
-      <c r="O194" s="9"/>
+      <c r="O194" s="6"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
       <c r="R194" s="5"/>
@@ -9195,7 +9289,7 @@
       <c r="L195" s="18"/>
       <c r="M195" s="18"/>
       <c r="N195" s="18"/>
-      <c r="O195" s="9"/>
+      <c r="O195" s="6"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
       <c r="R195" s="5"/>
@@ -9214,7 +9308,7 @@
       <c r="L196" s="18"/>
       <c r="M196" s="18"/>
       <c r="N196" s="18"/>
-      <c r="O196" s="9"/>
+      <c r="O196" s="6"/>
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
       <c r="R196" s="5"/>
@@ -9233,7 +9327,7 @@
       <c r="L197" s="18"/>
       <c r="M197" s="18"/>
       <c r="N197" s="18"/>
-      <c r="O197" s="9"/>
+      <c r="O197" s="6"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
       <c r="R197" s="5"/>
@@ -9252,7 +9346,7 @@
       <c r="L198" s="18"/>
       <c r="M198" s="18"/>
       <c r="N198" s="18"/>
-      <c r="O198" s="9"/>
+      <c r="O198" s="6"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
       <c r="R198" s="5"/>
@@ -9271,7 +9365,7 @@
       <c r="L199" s="18"/>
       <c r="M199" s="18"/>
       <c r="N199" s="18"/>
-      <c r="O199" s="9"/>
+      <c r="O199" s="6"/>
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
       <c r="R199" s="5"/>
@@ -9290,7 +9384,7 @@
       <c r="L200" s="18"/>
       <c r="M200" s="18"/>
       <c r="N200" s="18"/>
-      <c r="O200" s="9"/>
+      <c r="O200" s="6"/>
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
       <c r="R200" s="5"/>
@@ -9309,20 +9403,822 @@
       <c r="L201" s="5"/>
       <c r="M201" s="5"/>
       <c r="N201" s="5"/>
-      <c r="O201" s="9"/>
+      <c r="O201" s="6"/>
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
+    <row r="202" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+    </row>
+    <row r="203" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
+    </row>
+    <row r="204" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
+    </row>
+    <row r="205" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
+    </row>
+    <row r="206" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O206" s="6"/>
+      <c r="P206" s="6"/>
+    </row>
+    <row r="207" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+    </row>
+    <row r="208" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
+    </row>
+    <row r="209" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
+    </row>
+    <row r="210" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
+    </row>
+    <row r="211" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+    </row>
+    <row r="212" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+    </row>
+    <row r="213" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
+    </row>
+    <row r="214" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
+    </row>
+    <row r="215" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+    </row>
+    <row r="216" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+    </row>
+    <row r="217" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+    </row>
+    <row r="218" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+    </row>
+    <row r="219" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
+    </row>
+    <row r="220" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+    </row>
+    <row r="221" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+    </row>
+    <row r="222" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+    </row>
+    <row r="223" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+    </row>
+    <row r="224" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+    </row>
+    <row r="225" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+    </row>
+    <row r="226" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+    </row>
+    <row r="227" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+    </row>
+    <row r="228" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+    </row>
+    <row r="229" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
+    </row>
+    <row r="230" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O230" s="6"/>
+      <c r="P230" s="6"/>
+    </row>
+    <row r="231" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
+    </row>
+    <row r="232" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
+    </row>
+    <row r="233" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O233" s="6"/>
+      <c r="P233" s="6"/>
+    </row>
+    <row r="234" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O234" s="6"/>
+      <c r="P234" s="6"/>
+    </row>
+    <row r="235" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O235" s="6"/>
+      <c r="P235" s="6"/>
+    </row>
+    <row r="236" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O236" s="6"/>
+      <c r="P236" s="6"/>
+    </row>
+    <row r="237" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O237" s="6"/>
+      <c r="P237" s="6"/>
+    </row>
+    <row r="238" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+    </row>
+    <row r="239" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O239" s="6"/>
+      <c r="P239" s="6"/>
+    </row>
+    <row r="240" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
+    </row>
+    <row r="241" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
+    </row>
+    <row r="242" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
+    </row>
+    <row r="243" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+    </row>
+    <row r="244" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
+    </row>
+    <row r="245" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+    </row>
+    <row r="246" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+    </row>
+    <row r="247" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+    </row>
+    <row r="248" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O248" s="6"/>
+      <c r="P248" s="6"/>
+    </row>
+    <row r="249" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O249" s="6"/>
+      <c r="P249" s="6"/>
+    </row>
+    <row r="250" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O250" s="6"/>
+      <c r="P250" s="6"/>
+    </row>
+    <row r="251" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O251" s="6"/>
+      <c r="P251" s="6"/>
+    </row>
+    <row r="252" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O252" s="6"/>
+      <c r="P252" s="6"/>
+    </row>
+    <row r="253" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O253" s="6"/>
+      <c r="P253" s="6"/>
+    </row>
+    <row r="254" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O254" s="6"/>
+      <c r="P254" s="6"/>
+    </row>
+    <row r="255" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O255" s="6"/>
+      <c r="P255" s="6"/>
+    </row>
+    <row r="256" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O256" s="6"/>
+      <c r="P256" s="6"/>
+    </row>
+    <row r="257" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O257" s="6"/>
+      <c r="P257" s="6"/>
+    </row>
+    <row r="258" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O258" s="6"/>
+      <c r="P258" s="6"/>
+    </row>
+    <row r="259" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O259" s="6"/>
+      <c r="P259" s="6"/>
+    </row>
+    <row r="260" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O260" s="6"/>
+      <c r="P260" s="6"/>
+    </row>
+    <row r="261" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O261" s="6"/>
+      <c r="P261" s="6"/>
+    </row>
+    <row r="262" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O262" s="6"/>
+      <c r="P262" s="6"/>
+    </row>
+    <row r="263" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O263" s="6"/>
+      <c r="P263" s="6"/>
+    </row>
+    <row r="264" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O264" s="6"/>
+      <c r="P264" s="6"/>
+    </row>
+    <row r="265" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O265" s="6"/>
+      <c r="P265" s="6"/>
+    </row>
+    <row r="266" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O266" s="6"/>
+      <c r="P266" s="6"/>
+    </row>
+    <row r="267" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O267" s="6"/>
+      <c r="P267" s="6"/>
+    </row>
+    <row r="268" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O268" s="6"/>
+      <c r="P268" s="6"/>
+    </row>
+    <row r="269" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O269" s="6"/>
+      <c r="P269" s="6"/>
+    </row>
+    <row r="270" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O270" s="6"/>
+      <c r="P270" s="6"/>
+    </row>
+    <row r="271" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O271" s="6"/>
+      <c r="P271" s="6"/>
+    </row>
+    <row r="272" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O272" s="6"/>
+      <c r="P272" s="6"/>
+    </row>
+    <row r="273" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O273" s="6"/>
+      <c r="P273" s="6"/>
+    </row>
+    <row r="274" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O274" s="6"/>
+      <c r="P274" s="6"/>
+    </row>
+    <row r="275" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O275" s="6"/>
+      <c r="P275" s="6"/>
+    </row>
+    <row r="276" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O276" s="6"/>
+      <c r="P276" s="6"/>
+    </row>
+    <row r="277" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O277" s="6"/>
+      <c r="P277" s="6"/>
+    </row>
+    <row r="278" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O278" s="6"/>
+      <c r="P278" s="6"/>
+    </row>
+    <row r="279" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O279" s="6"/>
+      <c r="P279" s="6"/>
+    </row>
+    <row r="280" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O280" s="6"/>
+      <c r="P280" s="6"/>
+    </row>
+    <row r="281" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O281" s="6"/>
+      <c r="P281" s="6"/>
+    </row>
+    <row r="282" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O282" s="6"/>
+      <c r="P282" s="6"/>
+    </row>
+    <row r="283" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O283" s="6"/>
+      <c r="P283" s="6"/>
+    </row>
+    <row r="284" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O284" s="6"/>
+      <c r="P284" s="6"/>
+    </row>
+    <row r="285" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O285" s="6"/>
+      <c r="P285" s="6"/>
+    </row>
+    <row r="286" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O286" s="6"/>
+      <c r="P286" s="6"/>
+    </row>
+    <row r="287" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O287" s="6"/>
+      <c r="P287" s="6"/>
+    </row>
+    <row r="288" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O288" s="6"/>
+      <c r="P288" s="6"/>
+    </row>
+    <row r="289" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O289" s="6"/>
+      <c r="P289" s="6"/>
+    </row>
+    <row r="290" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O290" s="6"/>
+      <c r="P290" s="6"/>
+    </row>
+    <row r="291" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O291" s="6"/>
+      <c r="P291" s="6"/>
+    </row>
+    <row r="292" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O292" s="6"/>
+      <c r="P292" s="6"/>
+    </row>
+    <row r="293" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O293" s="6"/>
+      <c r="P293" s="6"/>
+    </row>
+    <row r="294" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O294" s="6"/>
+      <c r="P294" s="6"/>
+    </row>
+    <row r="295" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O295" s="6"/>
+      <c r="P295" s="6"/>
+    </row>
+    <row r="296" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O296" s="6"/>
+      <c r="P296" s="6"/>
+    </row>
+    <row r="297" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O297" s="6"/>
+      <c r="P297" s="6"/>
+    </row>
+    <row r="298" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O298" s="6"/>
+      <c r="P298" s="6"/>
+    </row>
+    <row r="299" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O299" s="6"/>
+      <c r="P299" s="6"/>
+    </row>
+    <row r="300" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O300" s="6"/>
+      <c r="P300" s="6"/>
+    </row>
+    <row r="301" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O301" s="6"/>
+      <c r="P301" s="6"/>
+    </row>
+    <row r="302" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O302" s="6"/>
+      <c r="P302" s="6"/>
+    </row>
+    <row r="303" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O303" s="6"/>
+      <c r="P303" s="6"/>
+    </row>
+    <row r="304" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O304" s="6"/>
+      <c r="P304" s="6"/>
+    </row>
+    <row r="305" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O305" s="6"/>
+      <c r="P305" s="6"/>
+    </row>
+    <row r="306" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O306" s="6"/>
+      <c r="P306" s="6"/>
+    </row>
+    <row r="307" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O307" s="6"/>
+      <c r="P307" s="6"/>
+    </row>
+    <row r="308" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O308" s="6"/>
+      <c r="P308" s="6"/>
+    </row>
+    <row r="309" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O309" s="6"/>
+      <c r="P309" s="6"/>
+    </row>
+    <row r="310" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O310" s="6"/>
+      <c r="P310" s="6"/>
+    </row>
+    <row r="311" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O311" s="6"/>
+      <c r="P311" s="6"/>
+    </row>
+    <row r="312" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O312" s="6"/>
+      <c r="P312" s="6"/>
+    </row>
+    <row r="313" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O313" s="6"/>
+      <c r="P313" s="6"/>
+    </row>
+    <row r="314" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O314" s="6"/>
+      <c r="P314" s="6"/>
+    </row>
+    <row r="315" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O315" s="6"/>
+      <c r="P315" s="6"/>
+    </row>
+    <row r="316" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O316" s="6"/>
+      <c r="P316" s="6"/>
+    </row>
+    <row r="317" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O317" s="6"/>
+      <c r="P317" s="6"/>
+    </row>
+    <row r="318" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O318" s="6"/>
+      <c r="P318" s="6"/>
+    </row>
+    <row r="319" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O319" s="6"/>
+      <c r="P319" s="6"/>
+    </row>
+    <row r="320" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O320" s="6"/>
+      <c r="P320" s="6"/>
+    </row>
+    <row r="321" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O321" s="6"/>
+      <c r="P321" s="6"/>
+    </row>
+    <row r="322" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O322" s="6"/>
+      <c r="P322" s="6"/>
+    </row>
+    <row r="323" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O323" s="6"/>
+      <c r="P323" s="6"/>
+    </row>
+    <row r="324" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O324" s="6"/>
+      <c r="P324" s="6"/>
+    </row>
+    <row r="325" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O325" s="6"/>
+      <c r="P325" s="6"/>
+    </row>
+    <row r="326" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O326" s="6"/>
+      <c r="P326" s="6"/>
+    </row>
+    <row r="327" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O327" s="6"/>
+      <c r="P327" s="6"/>
+    </row>
+    <row r="328" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O328" s="6"/>
+      <c r="P328" s="6"/>
+    </row>
+    <row r="329" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O329" s="6"/>
+      <c r="P329" s="6"/>
+    </row>
+    <row r="330" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O330" s="6"/>
+      <c r="P330" s="6"/>
+    </row>
+    <row r="331" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O331" s="6"/>
+      <c r="P331" s="6"/>
+    </row>
+    <row r="332" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O332" s="6"/>
+      <c r="P332" s="6"/>
+    </row>
+    <row r="333" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O333" s="6"/>
+      <c r="P333" s="6"/>
+    </row>
+    <row r="334" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O334" s="6"/>
+      <c r="P334" s="6"/>
+    </row>
+    <row r="335" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O335" s="6"/>
+      <c r="P335" s="6"/>
+    </row>
+    <row r="336" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O336" s="6"/>
+      <c r="P336" s="6"/>
+    </row>
+    <row r="337" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O337" s="6"/>
+      <c r="P337" s="6"/>
+    </row>
+    <row r="338" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O338" s="6"/>
+      <c r="P338" s="6"/>
+    </row>
+    <row r="339" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O339" s="6"/>
+      <c r="P339" s="6"/>
+    </row>
+    <row r="340" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O340" s="6"/>
+      <c r="P340" s="6"/>
+    </row>
+    <row r="341" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O341" s="6"/>
+      <c r="P341" s="6"/>
+    </row>
+    <row r="342" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O342" s="6"/>
+      <c r="P342" s="6"/>
+    </row>
+    <row r="343" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O343" s="6"/>
+      <c r="P343" s="6"/>
+    </row>
+    <row r="344" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O344" s="6"/>
+      <c r="P344" s="6"/>
+    </row>
+    <row r="345" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O345" s="6"/>
+      <c r="P345" s="6"/>
+    </row>
+    <row r="346" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O346" s="6"/>
+      <c r="P346" s="6"/>
+    </row>
+    <row r="347" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O347" s="6"/>
+      <c r="P347" s="6"/>
+    </row>
+    <row r="348" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O348" s="6"/>
+      <c r="P348" s="6"/>
+    </row>
+    <row r="349" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O349" s="6"/>
+      <c r="P349" s="6"/>
+    </row>
+    <row r="350" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O350" s="6"/>
+      <c r="P350" s="6"/>
+    </row>
+    <row r="351" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O351" s="6"/>
+      <c r="P351" s="6"/>
+    </row>
+    <row r="352" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O352" s="6"/>
+      <c r="P352" s="6"/>
+    </row>
+    <row r="353" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O353" s="6"/>
+      <c r="P353" s="6"/>
+    </row>
+    <row r="354" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O354" s="6"/>
+      <c r="P354" s="6"/>
+    </row>
+    <row r="355" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O355" s="6"/>
+      <c r="P355" s="6"/>
+    </row>
+    <row r="356" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O356" s="6"/>
+      <c r="P356" s="6"/>
+    </row>
+    <row r="357" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O357" s="6"/>
+      <c r="P357" s="6"/>
+    </row>
+    <row r="358" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O358" s="6"/>
+      <c r="P358" s="6"/>
+    </row>
+    <row r="359" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O359" s="6"/>
+      <c r="P359" s="6"/>
+    </row>
+    <row r="360" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O360" s="6"/>
+      <c r="P360" s="6"/>
+    </row>
+    <row r="361" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O361" s="6"/>
+      <c r="P361" s="6"/>
+    </row>
+    <row r="362" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O362" s="6"/>
+      <c r="P362" s="6"/>
+    </row>
+    <row r="363" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O363" s="6"/>
+      <c r="P363" s="6"/>
+    </row>
+    <row r="364" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O364" s="6"/>
+      <c r="P364" s="6"/>
+    </row>
+    <row r="365" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O365" s="6"/>
+      <c r="P365" s="6"/>
+    </row>
+    <row r="366" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O366" s="6"/>
+      <c r="P366" s="6"/>
+    </row>
+    <row r="367" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O367" s="6"/>
+      <c r="P367" s="6"/>
+    </row>
+    <row r="368" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O368" s="6"/>
+      <c r="P368" s="6"/>
+    </row>
+    <row r="369" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O369" s="6"/>
+      <c r="P369" s="6"/>
+    </row>
+    <row r="370" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O370" s="6"/>
+      <c r="P370" s="6"/>
+    </row>
+    <row r="371" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O371" s="6"/>
+      <c r="P371" s="6"/>
+    </row>
+    <row r="372" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O372" s="6"/>
+      <c r="P372" s="6"/>
+    </row>
+    <row r="373" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O373" s="6"/>
+      <c r="P373" s="6"/>
+    </row>
+    <row r="374" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O374" s="6"/>
+      <c r="P374" s="6"/>
+    </row>
+    <row r="375" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O375" s="6"/>
+      <c r="P375" s="6"/>
+    </row>
+    <row r="376" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O376" s="6"/>
+      <c r="P376" s="6"/>
+    </row>
+    <row r="377" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O377" s="6"/>
+      <c r="P377" s="6"/>
+    </row>
+    <row r="378" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O378" s="6"/>
+      <c r="P378" s="6"/>
+    </row>
+    <row r="379" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O379" s="6"/>
+      <c r="P379" s="6"/>
+    </row>
+    <row r="380" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O380" s="6"/>
+      <c r="P380" s="6"/>
+    </row>
+    <row r="381" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O381" s="6"/>
+      <c r="P381" s="6"/>
+    </row>
+    <row r="382" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O382" s="6"/>
+      <c r="P382" s="6"/>
+    </row>
+    <row r="383" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O383" s="6"/>
+      <c r="P383" s="6"/>
+    </row>
+    <row r="384" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O384" s="6"/>
+      <c r="P384" s="6"/>
+    </row>
+    <row r="385" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O385" s="6"/>
+      <c r="P385" s="6"/>
+    </row>
+    <row r="386" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O386" s="6"/>
+      <c r="P386" s="6"/>
+    </row>
+    <row r="387" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O387" s="6"/>
+      <c r="P387" s="6"/>
+    </row>
+    <row r="388" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O388" s="6"/>
+      <c r="P388" s="6"/>
+    </row>
+    <row r="389" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O389" s="6"/>
+      <c r="P389" s="6"/>
+    </row>
+    <row r="390" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O390" s="6"/>
+      <c r="P390" s="6"/>
+    </row>
+    <row r="391" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O391" s="6"/>
+      <c r="P391" s="6"/>
+    </row>
+    <row r="392" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O392" s="6"/>
+      <c r="P392" s="6"/>
+    </row>
+    <row r="393" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O393" s="6"/>
+      <c r="P393" s="6"/>
+    </row>
+    <row r="394" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O394" s="6"/>
+      <c r="P394" s="6"/>
+    </row>
+    <row r="395" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O395" s="6"/>
+      <c r="P395" s="6"/>
+    </row>
+    <row r="396" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O396" s="6"/>
+      <c r="P396" s="6"/>
+    </row>
+    <row r="397" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O397" s="6"/>
+      <c r="P397" s="6"/>
+    </row>
+    <row r="398" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O398" s="6"/>
+      <c r="P398" s="6"/>
+    </row>
+    <row r="399" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O399" s="6"/>
+      <c r="P399" s="6"/>
+    </row>
+    <row r="400" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O400" s="6"/>
+      <c r="P400" s="6"/>
+    </row>
   </sheetData>
   <autoFilter ref="B7:R7" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}"/>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
+  <conditionalFormatting sqref="H8:H200">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>(H8&lt;D8)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DA4CA71-6FA0-4107-8243-C0DB05A726E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80CB46AD-6498-4C18-9023-B023C968059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,16 +1082,16 @@
         <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>10.08</v>
+        <v>10.1</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="6">
-        <v>-1.4164348655901021E-2</v>
+        <v>-1.6314518262522976E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>5.5555555555555559E-2</v>
+        <v>5.5445544554455453E-2</v>
       </c>
       <c r="H6" s="7">
         <v>9.6</v>
@@ -1250,16 +1250,16 @@
         <v>45</v>
       </c>
       <c r="D9" s="7">
-        <v>19.52</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.14571376000489059</v>
+        <v>-0.14960880588242179</v>
       </c>
       <c r="G9" s="6">
-        <v>6.9159836065573771E-2</v>
+        <v>6.8877551020408156E-2</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -1362,13 +1362,13 @@
         <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>17.38</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="6">
-        <v>3.203569468359832E-2</v>
+        <v>2.8141076467943588E-2</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1474,16 +1474,16 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="6">
-        <v>7.939084945519953E-3</v>
+        <v>5.8888518181186844E-3</v>
       </c>
       <c r="G13" s="6">
-        <v>5.4255538382277167E-2</v>
+        <v>5.4160851578817691E-2</v>
       </c>
       <c r="H13" s="7">
         <v>4.8</v>
@@ -1492,22 +1492,22 @@
         <v>8000</v>
       </c>
       <c r="J13" s="7">
-        <v>7.2412264142471319</v>
+        <v>7.2406916582706877</v>
       </c>
       <c r="K13" s="7">
-        <v>3.0182934741528662</v>
+        <v>3.0176250291823106</v>
       </c>
       <c r="L13" s="7">
-        <v>8.4694252050109871</v>
+        <v>8.4687567600404332</v>
       </c>
       <c r="M13" s="7">
-        <v>6.3374115658883738</v>
+        <v>6.33674312091782</v>
       </c>
       <c r="N13" s="7">
-        <v>5.7612832417167033</v>
+        <v>5.7606755644707448</v>
       </c>
       <c r="O13" s="7">
-        <v>5.0699292527106987</v>
+        <v>5.0693944967342564</v>
       </c>
       <c r="P13" s="8">
         <v>44561</v>
@@ -1530,16 +1530,16 @@
         <v>55</v>
       </c>
       <c r="D14" s="7">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="6">
-        <v>8.7378569503422682E-2</v>
+        <v>9.4125038648328413E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>1.0841427830178489E-2</v>
+        <v>1.0903026851940867E-2</v>
       </c>
       <c r="H14" s="7">
         <v>1.6</v>
@@ -5324,8 +5324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}">
   <dimension ref="A2:R400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P8" sqref="B8:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5385,7 +5385,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="29">
-        <v>262710</v>
+        <v>262840</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="11" t="s">
@@ -5511,12 +5511,12 @@
         <v>4.633566600818809</v>
       </c>
       <c r="O8" s="6">
-        <f>34800/D4</f>
-        <v>0.13246545620646341</v>
+        <f>(D8*G8)/$D$4</f>
+        <v>0.13239993912646478</v>
       </c>
       <c r="P8" s="6">
-        <f>11.9/11.6-1</f>
-        <v>2.5862068965517349E-2</v>
+        <f>D8/E8-1</f>
+        <v>-2.5210084033613467E-2</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>9</v>
@@ -5533,7 +5533,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>10.08</v>
+        <v>10.1</v>
       </c>
       <c r="E9" s="7">
         <v>10.31</v>
@@ -5566,12 +5566,12 @@
         <v>3.5134488326629425</v>
       </c>
       <c r="O9" s="6">
-        <f>40320/D4</f>
-        <v>0.15347721822541965</v>
+        <f>(D9*G9)/$D$4</f>
+        <v>0.15370567645716024</v>
       </c>
       <c r="P9" s="6">
-        <f>10.31/10.08-1</f>
-        <v>2.2817460317460458E-2</v>
+        <f>D9/E9-1</f>
+        <v>-2.0368574199806089E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -5621,12 +5621,12 @@
         <v>2.4805745781286417</v>
       </c>
       <c r="O10" s="6">
-        <f>28480/D4</f>
-        <v>0.10840851128620912</v>
+        <f>(D10*G10)/$D$4</f>
+        <v>0.10835489271039415</v>
       </c>
       <c r="P10" s="6">
-        <f>1.68/1.78-1</f>
-        <v>-5.6179775280898903E-2</v>
+        <f>D10/E10-1</f>
+        <v>5.9523809523809534E-2</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>9</v>
@@ -5643,7 +5643,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>17.38</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="E11" s="7">
         <v>16.5</v>
@@ -5676,12 +5676,12 @@
         <v>1.1494100885179757</v>
       </c>
       <c r="O11" s="6">
-        <f>34760/D4</f>
-        <v>0.13231319706139849</v>
+        <f>(D11*G11)/$D$4</f>
+        <v>0.13270430680261755</v>
       </c>
       <c r="P11" s="6">
-        <f>16.5/17.38-1</f>
-        <v>-5.0632911392405E-2</v>
+        <f>D11/E11-1</f>
+        <v>5.6969696969697114E-2</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -5731,12 +5731,12 @@
         <v>0.59946117374446684</v>
       </c>
       <c r="O12" s="6">
-        <f>82000/D4</f>
-        <v>0.31213124738304593</v>
+        <f>(D12*G12)/$D$4</f>
+        <v>0.3119768680566124</v>
       </c>
       <c r="P12" s="6">
-        <f>5.61/4.1-1</f>
-        <v>0.36829268292682937</v>
+        <f>D12/E12-1</f>
+        <v>-0.26916221033868104</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>9</v>
@@ -5753,7 +5753,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="E13" s="7">
         <v>11.08</v>
@@ -5765,7 +5765,7 @@
         <v>4000</v>
       </c>
       <c r="H13" s="7">
-        <v>7.2412264142471319</v>
+        <v>7.2406916582706877</v>
       </c>
       <c r="I13" s="6">
         <v>5.4080520158737544E-2</v>
@@ -5786,12 +5786,12 @@
         <v>2.0088349318914984</v>
       </c>
       <c r="O13" s="6">
-        <f>22880/D4</f>
-        <v>8.709223097712307E-2</v>
+        <f>(D13*G13)/$D$4</f>
+        <v>8.7201339217775078E-2</v>
       </c>
       <c r="P13" s="6">
-        <f>11.08/5.72-1</f>
-        <v>0.93706293706293708</v>
+        <f>D13/E13-1</f>
+        <v>-0.48285198555956677</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
@@ -5808,7 +5808,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="7">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E14" s="7">
         <v>1.78</v>
@@ -5841,12 +5841,12 @@
         <v>5.5613492499085257</v>
       </c>
       <c r="O14" s="6">
-        <f>19470/D4</f>
-        <v>7.4112138860340293E-2</v>
+        <f>(D14*G14)/$D$4</f>
+        <v>7.36569776289758E-2</v>
       </c>
       <c r="P14" s="6">
-        <f>1.78/1.77-1</f>
-        <v>5.6497175141243527E-3</v>
+        <f>D14/E14-1</f>
+        <v>-1.1235955056179803E-2</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>9</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80CB46AD-6498-4C18-9023-B023C968059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E1D5958-7D2D-43F4-81A9-6E6171D21498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>VTECH HOLDINGS</t>
-  </si>
-  <si>
-    <t>0411.HK</t>
-  </si>
-  <si>
-    <t>LAM SOON (HK)</t>
   </si>
   <si>
     <t>0683.HK</t>
@@ -467,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -517,6 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,11 +553,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -900,10 +902,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:S200"/>
+  <dimension ref="A2:S400"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -943,24 +945,24 @@
       <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -979,7 +981,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>29</v>
@@ -1026,16 +1028,16 @@
         <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="6">
-        <v>-2.4660886809838273E-2</v>
+        <v>-3.3851819401207101E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.0517241379310343E-2</v>
+        <v>4.0170940170940174E-2</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -1067,10 +1069,10 @@
       <c r="Q5" s="8">
         <v>44985</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1082,16 +1084,16 @@
         <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>10.1</v>
+        <v>10.06</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="6">
-        <v>-1.6314518262522976E-2</v>
+        <v>-1.2005629667145273E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>5.5445544554455453E-2</v>
+        <v>5.5666003976143144E-2</v>
       </c>
       <c r="H6" s="7">
         <v>9.6</v>
@@ -1138,16 +1140,16 @@
         <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>44.4</v>
+        <v>44.45</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>-0.39070295931468957</v>
+        <v>-0.39150081875303089</v>
       </c>
       <c r="G7" s="6">
-        <v>8.3059924971073326E-2</v>
+        <v>8.2966494234322952E-2</v>
       </c>
       <c r="H7" s="7">
         <v>28.629807824025253</v>
@@ -1194,52 +1196,52 @@
         <v>43</v>
       </c>
       <c r="D8" s="7">
-        <v>10</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="6">
-        <v>4.5341722583206318E-2</v>
+        <v>-0.14863802836034026</v>
       </c>
       <c r="G8" s="6">
-        <v>2.8000000000000004E-2</v>
+        <v>6.8947906026557718E-2</v>
       </c>
       <c r="H8" s="7">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="I8" s="9">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="J8" s="7">
-        <v>11.828743634431557</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7">
-        <v>9.5548305729982239</v>
+        <v>15.177942172348047</v>
       </c>
       <c r="L8" s="7">
-        <v>12.319112188593667</v>
+        <v>20.816330621780622</v>
       </c>
       <c r="M8" s="7">
-        <v>11.453417225832064</v>
+        <v>18.627667404704535</v>
       </c>
       <c r="N8" s="7">
-        <v>10.412197478029148</v>
+        <v>16.934243095185941</v>
       </c>
       <c r="O8" s="7">
-        <v>9.1627337806656506</v>
+        <v>14.902133923763628</v>
       </c>
       <c r="P8" s="8">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="Q8" s="8">
-        <v>45169</v>
+        <v>44985</v>
       </c>
       <c r="R8" s="17" t="s">
         <v>9</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1250,40 +1252,40 @@
         <v>45</v>
       </c>
       <c r="D9" s="7">
-        <v>19.600000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.14960880588242179</v>
+        <v>-0.32529187966794149</v>
       </c>
       <c r="G9" s="6">
-        <v>6.8877551020408156E-2</v>
+        <v>6.938202247191011E-2</v>
       </c>
       <c r="H9" s="7">
-        <v>15</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I9" s="9">
-        <v>4000</v>
+        <v>60000</v>
       </c>
       <c r="J9" s="7">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="K9" s="7">
-        <v>15.177942172348047</v>
+        <v>1.1289965552439201</v>
       </c>
       <c r="L9" s="7">
-        <v>20.816330621780622</v>
+        <v>1.4846087740464236</v>
       </c>
       <c r="M9" s="7">
-        <v>18.627667404704535</v>
+        <v>1.3789804541910642</v>
       </c>
       <c r="N9" s="7">
-        <v>16.934243095185941</v>
+        <v>1.2536185947191492</v>
       </c>
       <c r="O9" s="7">
-        <v>14.902133923763628</v>
+        <v>1.1031843633528513</v>
       </c>
       <c r="P9" s="8">
         <v>44561</v>
@@ -1306,52 +1308,52 @@
         <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>1.78</v>
+        <v>17.28</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6">
-        <v>-0.32529187966794149</v>
+        <v>3.8586827175980248E-2</v>
       </c>
       <c r="G10" s="6">
-        <v>6.938202247191011E-2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7">
-        <v>1.1000000000000001</v>
+        <v>15</v>
       </c>
       <c r="I10" s="9">
-        <v>60000</v>
+        <v>4000</v>
       </c>
       <c r="J10" s="7">
-        <v>1.9</v>
+        <v>32.903732767036438</v>
       </c>
       <c r="K10" s="7">
-        <v>1.1289965552439201</v>
+        <v>7.2198974945245427</v>
       </c>
       <c r="L10" s="7">
-        <v>1.4846087740464236</v>
+        <v>27.050043260674713</v>
       </c>
       <c r="M10" s="7">
-        <v>1.3789804541910642</v>
+        <v>19.674780373600939</v>
       </c>
       <c r="N10" s="7">
-        <v>1.2536185947191492</v>
+        <v>17.886163976000852</v>
       </c>
       <c r="O10" s="7">
-        <v>1.1031843633528513</v>
+        <v>15.739824298880752</v>
       </c>
       <c r="P10" s="8">
         <v>44561</v>
       </c>
       <c r="Q10" s="8">
-        <v>44985</v>
-      </c>
-      <c r="R10" s="17" t="s">
+        <v>45169</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S10" s="17" t="s">
-        <v>33</v>
+      <c r="S10" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1362,52 +1364,52 @@
         <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>17.440000000000001</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="6">
-        <v>2.8141076467943588E-2</v>
+        <v>-0.24612872662654775</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>4.9661820029544328E-2</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>2.4</v>
       </c>
       <c r="I11" s="9">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="J11" s="7">
-        <v>32.903732767036438</v>
+        <v>5.6205259760239548</v>
       </c>
       <c r="K11" s="7">
-        <v>7.2198974945245427</v>
+        <v>1.7274926506708339</v>
       </c>
       <c r="L11" s="7">
-        <v>27.050043260674713</v>
+        <v>6.5724132852335</v>
       </c>
       <c r="M11" s="7">
-        <v>19.674780373600939</v>
+        <v>3.5350270717660921</v>
       </c>
       <c r="N11" s="7">
-        <v>17.886163976000852</v>
+        <v>3.2136609743328108</v>
       </c>
       <c r="O11" s="7">
-        <v>15.739824298880752</v>
+        <v>2.8280216574128736</v>
       </c>
       <c r="P11" s="8">
         <v>44561</v>
       </c>
       <c r="Q11" s="8">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="R11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -1418,46 +1420,46 @@
         <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>4.0999999999999996</v>
+        <v>5.73</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.2377982751790019</v>
+        <v>5.8888518181186844E-3</v>
       </c>
       <c r="G12" s="6">
-        <v>5.0146325590808172E-2</v>
+        <v>5.4160851578817691E-2</v>
       </c>
       <c r="H12" s="7">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="I12" s="9">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="J12" s="7">
-        <v>5.6205259760239548</v>
+        <v>7.2406916582706877</v>
       </c>
       <c r="K12" s="7">
-        <v>1.7274926506708339</v>
+        <v>3.0176250291823106</v>
       </c>
       <c r="L12" s="7">
-        <v>6.5724132852335</v>
+        <v>8.4687567600404332</v>
       </c>
       <c r="M12" s="7">
-        <v>3.5350270717660921</v>
+        <v>6.33674312091782</v>
       </c>
       <c r="N12" s="7">
-        <v>3.2136609743328108</v>
+        <v>5.7606755644707448</v>
       </c>
       <c r="O12" s="7">
-        <v>2.8280216574128736</v>
+        <v>5.0693944967342564</v>
       </c>
       <c r="P12" s="8">
         <v>44561</v>
       </c>
       <c r="Q12" s="8">
-        <v>45077</v>
+        <v>44985</v>
       </c>
       <c r="R12" s="17" t="s">
         <v>9</v>
@@ -1474,40 +1476,40 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>5.73</v>
+        <v>1.77</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="6">
-        <v>5.8888518181186844E-3</v>
+        <v>8.7378569503422682E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>5.4160851578817691E-2</v>
+        <v>1.0841427830178489E-2</v>
       </c>
       <c r="H13" s="7">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="I13" s="9">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="J13" s="7">
-        <v>7.2406916582706877</v>
+        <v>2.0514668160851408</v>
       </c>
       <c r="K13" s="7">
-        <v>3.0176250291823106</v>
+        <v>1.970972605673585</v>
       </c>
       <c r="L13" s="7">
-        <v>8.4687567600404332</v>
+        <v>2.2555597764769106</v>
       </c>
       <c r="M13" s="7">
-        <v>6.33674312091782</v>
+        <v>2.101660068021058</v>
       </c>
       <c r="N13" s="7">
-        <v>5.7606755644707448</v>
+        <v>1.9106000618373253</v>
       </c>
       <c r="O13" s="7">
-        <v>5.0693944967342564</v>
+        <v>1.6813280544168463</v>
       </c>
       <c r="P13" s="8">
         <v>44561</v>
@@ -1519,64 +1521,28 @@
         <v>9</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1.76</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6">
-        <v>9.4125038648328413E-2</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1.0903026851940867E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="I14" s="9">
-        <v>22000</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2.0514668160851408</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1.970972605673585</v>
-      </c>
-      <c r="L14" s="7">
-        <v>2.2555597764769106</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2.101660068021058</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1.9106000618373253</v>
-      </c>
-      <c r="O14" s="7">
-        <v>1.6813280544168463</v>
-      </c>
-      <c r="P14" s="8">
-        <v>44561</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>44985</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>33</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
@@ -5298,21 +5264,630 @@
       <c r="R200" s="5"/>
       <c r="S200" s="5"/>
     </row>
+    <row r="201" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q201" s="21"/>
+    </row>
+    <row r="202" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q202" s="21"/>
+    </row>
+    <row r="203" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q203" s="21"/>
+    </row>
+    <row r="204" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q204" s="21"/>
+    </row>
+    <row r="205" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q205" s="21"/>
+    </row>
+    <row r="206" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q206" s="21"/>
+    </row>
+    <row r="207" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q207" s="21"/>
+    </row>
+    <row r="208" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q208" s="21"/>
+    </row>
+    <row r="209" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q209" s="21"/>
+    </row>
+    <row r="210" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q210" s="21"/>
+    </row>
+    <row r="211" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q211" s="21"/>
+    </row>
+    <row r="212" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q212" s="21"/>
+    </row>
+    <row r="213" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q213" s="21"/>
+    </row>
+    <row r="214" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q214" s="21"/>
+    </row>
+    <row r="215" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q215" s="21"/>
+    </row>
+    <row r="216" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q216" s="21"/>
+    </row>
+    <row r="217" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q217" s="21"/>
+    </row>
+    <row r="218" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q218" s="21"/>
+    </row>
+    <row r="219" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q219" s="21"/>
+    </row>
+    <row r="220" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q220" s="21"/>
+    </row>
+    <row r="221" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q221" s="21"/>
+    </row>
+    <row r="222" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q222" s="21"/>
+    </row>
+    <row r="223" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q223" s="21"/>
+    </row>
+    <row r="224" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q224" s="21"/>
+    </row>
+    <row r="225" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q225" s="21"/>
+    </row>
+    <row r="226" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q226" s="21"/>
+    </row>
+    <row r="227" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q227" s="21"/>
+    </row>
+    <row r="228" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q228" s="21"/>
+    </row>
+    <row r="229" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q229" s="21"/>
+    </row>
+    <row r="230" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q230" s="21"/>
+    </row>
+    <row r="231" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q231" s="21"/>
+    </row>
+    <row r="232" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q232" s="21"/>
+    </row>
+    <row r="233" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q233" s="21"/>
+    </row>
+    <row r="234" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q234" s="21"/>
+    </row>
+    <row r="235" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q235" s="21"/>
+    </row>
+    <row r="236" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q236" s="21"/>
+    </row>
+    <row r="237" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q237" s="21"/>
+    </row>
+    <row r="238" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q238" s="21"/>
+    </row>
+    <row r="239" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q239" s="21"/>
+    </row>
+    <row r="240" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q240" s="21"/>
+    </row>
+    <row r="241" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q241" s="21"/>
+    </row>
+    <row r="242" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q242" s="21"/>
+    </row>
+    <row r="243" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q243" s="21"/>
+    </row>
+    <row r="244" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q244" s="21"/>
+    </row>
+    <row r="245" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q245" s="21"/>
+    </row>
+    <row r="246" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q246" s="21"/>
+    </row>
+    <row r="247" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q247" s="21"/>
+    </row>
+    <row r="248" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q248" s="21"/>
+    </row>
+    <row r="249" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q249" s="21"/>
+    </row>
+    <row r="250" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q250" s="21"/>
+    </row>
+    <row r="251" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q251" s="21"/>
+    </row>
+    <row r="252" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q252" s="21"/>
+    </row>
+    <row r="253" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q253" s="21"/>
+    </row>
+    <row r="254" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q254" s="21"/>
+    </row>
+    <row r="255" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q255" s="21"/>
+    </row>
+    <row r="256" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q256" s="21"/>
+    </row>
+    <row r="257" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q257" s="21"/>
+    </row>
+    <row r="258" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q258" s="21"/>
+    </row>
+    <row r="259" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q259" s="21"/>
+    </row>
+    <row r="260" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q260" s="21"/>
+    </row>
+    <row r="261" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q261" s="21"/>
+    </row>
+    <row r="262" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q262" s="21"/>
+    </row>
+    <row r="263" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q263" s="21"/>
+    </row>
+    <row r="264" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q264" s="21"/>
+    </row>
+    <row r="265" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q265" s="21"/>
+    </row>
+    <row r="266" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q266" s="21"/>
+    </row>
+    <row r="267" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q267" s="21"/>
+    </row>
+    <row r="268" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q268" s="21"/>
+    </row>
+    <row r="269" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q269" s="21"/>
+    </row>
+    <row r="270" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q270" s="21"/>
+    </row>
+    <row r="271" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q271" s="21"/>
+    </row>
+    <row r="272" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q272" s="21"/>
+    </row>
+    <row r="273" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q273" s="21"/>
+    </row>
+    <row r="274" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q274" s="21"/>
+    </row>
+    <row r="275" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q275" s="21"/>
+    </row>
+    <row r="276" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q276" s="21"/>
+    </row>
+    <row r="277" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q277" s="21"/>
+    </row>
+    <row r="278" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q278" s="21"/>
+    </row>
+    <row r="279" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q279" s="21"/>
+    </row>
+    <row r="280" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q280" s="21"/>
+    </row>
+    <row r="281" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q281" s="21"/>
+    </row>
+    <row r="282" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q282" s="21"/>
+    </row>
+    <row r="283" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q283" s="21"/>
+    </row>
+    <row r="284" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q284" s="21"/>
+    </row>
+    <row r="285" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q285" s="21"/>
+    </row>
+    <row r="286" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q286" s="21"/>
+    </row>
+    <row r="287" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q287" s="21"/>
+    </row>
+    <row r="288" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q288" s="21"/>
+    </row>
+    <row r="289" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q289" s="21"/>
+    </row>
+    <row r="290" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q290" s="21"/>
+    </row>
+    <row r="291" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q291" s="21"/>
+    </row>
+    <row r="292" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q292" s="21"/>
+    </row>
+    <row r="293" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q293" s="21"/>
+    </row>
+    <row r="294" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q294" s="21"/>
+    </row>
+    <row r="295" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q295" s="21"/>
+    </row>
+    <row r="296" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q296" s="21"/>
+    </row>
+    <row r="297" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q297" s="21"/>
+    </row>
+    <row r="298" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q298" s="21"/>
+    </row>
+    <row r="299" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q299" s="21"/>
+    </row>
+    <row r="300" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q300" s="21"/>
+    </row>
+    <row r="301" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q301" s="21"/>
+    </row>
+    <row r="302" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q302" s="21"/>
+    </row>
+    <row r="303" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q303" s="21"/>
+    </row>
+    <row r="304" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q304" s="21"/>
+    </row>
+    <row r="305" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q305" s="21"/>
+    </row>
+    <row r="306" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q306" s="21"/>
+    </row>
+    <row r="307" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q307" s="21"/>
+    </row>
+    <row r="308" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q308" s="21"/>
+    </row>
+    <row r="309" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q309" s="21"/>
+    </row>
+    <row r="310" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q310" s="21"/>
+    </row>
+    <row r="311" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q311" s="21"/>
+    </row>
+    <row r="312" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q312" s="21"/>
+    </row>
+    <row r="313" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q313" s="21"/>
+    </row>
+    <row r="314" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q314" s="21"/>
+    </row>
+    <row r="315" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q315" s="21"/>
+    </row>
+    <row r="316" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q316" s="21"/>
+    </row>
+    <row r="317" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q317" s="21"/>
+    </row>
+    <row r="318" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q318" s="21"/>
+    </row>
+    <row r="319" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q319" s="21"/>
+    </row>
+    <row r="320" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q320" s="21"/>
+    </row>
+    <row r="321" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q321" s="21"/>
+    </row>
+    <row r="322" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q322" s="21"/>
+    </row>
+    <row r="323" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q323" s="21"/>
+    </row>
+    <row r="324" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q324" s="21"/>
+    </row>
+    <row r="325" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q325" s="21"/>
+    </row>
+    <row r="326" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q326" s="21"/>
+    </row>
+    <row r="327" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q327" s="21"/>
+    </row>
+    <row r="328" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q328" s="21"/>
+    </row>
+    <row r="329" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q329" s="21"/>
+    </row>
+    <row r="330" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q330" s="21"/>
+    </row>
+    <row r="331" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q331" s="21"/>
+    </row>
+    <row r="332" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q332" s="21"/>
+    </row>
+    <row r="333" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q333" s="21"/>
+    </row>
+    <row r="334" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q334" s="21"/>
+    </row>
+    <row r="335" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q335" s="21"/>
+    </row>
+    <row r="336" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q336" s="21"/>
+    </row>
+    <row r="337" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q337" s="21"/>
+    </row>
+    <row r="338" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q338" s="21"/>
+    </row>
+    <row r="339" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q339" s="21"/>
+    </row>
+    <row r="340" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q340" s="21"/>
+    </row>
+    <row r="341" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q341" s="21"/>
+    </row>
+    <row r="342" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q342" s="21"/>
+    </row>
+    <row r="343" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q343" s="21"/>
+    </row>
+    <row r="344" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q344" s="21"/>
+    </row>
+    <row r="345" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q345" s="21"/>
+    </row>
+    <row r="346" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q346" s="21"/>
+    </row>
+    <row r="347" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q347" s="21"/>
+    </row>
+    <row r="348" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q348" s="21"/>
+    </row>
+    <row r="349" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q349" s="21"/>
+    </row>
+    <row r="350" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q350" s="21"/>
+    </row>
+    <row r="351" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q351" s="21"/>
+    </row>
+    <row r="352" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q352" s="21"/>
+    </row>
+    <row r="353" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q353" s="21"/>
+    </row>
+    <row r="354" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q354" s="21"/>
+    </row>
+    <row r="355" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q355" s="21"/>
+    </row>
+    <row r="356" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q356" s="21"/>
+    </row>
+    <row r="357" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q357" s="21"/>
+    </row>
+    <row r="358" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q358" s="21"/>
+    </row>
+    <row r="359" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q359" s="21"/>
+    </row>
+    <row r="360" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q360" s="21"/>
+    </row>
+    <row r="361" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q361" s="21"/>
+    </row>
+    <row r="362" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q362" s="21"/>
+    </row>
+    <row r="363" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q363" s="21"/>
+    </row>
+    <row r="364" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q364" s="21"/>
+    </row>
+    <row r="365" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q365" s="21"/>
+    </row>
+    <row r="366" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q366" s="21"/>
+    </row>
+    <row r="367" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q367" s="21"/>
+    </row>
+    <row r="368" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q368" s="21"/>
+    </row>
+    <row r="369" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q369" s="21"/>
+    </row>
+    <row r="370" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q370" s="21"/>
+    </row>
+    <row r="371" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q371" s="21"/>
+    </row>
+    <row r="372" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q372" s="21"/>
+    </row>
+    <row r="373" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q373" s="21"/>
+    </row>
+    <row r="374" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q374" s="21"/>
+    </row>
+    <row r="375" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q375" s="21"/>
+    </row>
+    <row r="376" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q376" s="21"/>
+    </row>
+    <row r="377" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q377" s="21"/>
+    </row>
+    <row r="378" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q378" s="21"/>
+    </row>
+    <row r="379" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q379" s="21"/>
+    </row>
+    <row r="380" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q380" s="21"/>
+    </row>
+    <row r="381" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q381" s="21"/>
+    </row>
+    <row r="382" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q382" s="21"/>
+    </row>
+    <row r="383" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q383" s="21"/>
+    </row>
+    <row r="384" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q384" s="21"/>
+    </row>
+    <row r="385" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q385" s="21"/>
+    </row>
+    <row r="386" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q386" s="21"/>
+    </row>
+    <row r="387" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q387" s="21"/>
+    </row>
+    <row r="388" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q388" s="21"/>
+    </row>
+    <row r="389" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q389" s="21"/>
+    </row>
+    <row r="390" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q390" s="21"/>
+    </row>
+    <row r="391" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q391" s="21"/>
+    </row>
+    <row r="392" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q392" s="21"/>
+    </row>
+    <row r="393" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q393" s="21"/>
+    </row>
+    <row r="394" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q394" s="21"/>
+    </row>
+    <row r="395" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q395" s="21"/>
+    </row>
+    <row r="396" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q396" s="21"/>
+    </row>
+    <row r="397" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q397" s="21"/>
+    </row>
+    <row r="398" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q398" s="21"/>
+    </row>
+    <row r="399" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q399" s="21"/>
+    </row>
+    <row r="400" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q400" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B4:S4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B4:S4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:S14">
+      <sortCondition descending="1" ref="F4"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H400">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>(H5&gt;D5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J400">
+  <conditionalFormatting sqref="Q5:Q400">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>(AND(Q5&lt;=TODAY(),Q5&lt;&gt;0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N400">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>(J5&lt;D5)</formula>
+      <formula>(N5&gt;D5)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5324,7 +5899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}">
   <dimension ref="A2:R400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P8" sqref="B8:R14"/>
     </sheetView>
   </sheetViews>
@@ -5348,14 +5923,14 @@
         <v>11</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25">
+      <c r="E2" s="25"/>
+      <c r="F2" s="26">
         <v>45001</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -5372,10 +5947,10 @@
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="28">
         <v>312920</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
@@ -5384,10 +5959,10 @@
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="29">
-        <v>262840</v>
-      </c>
-      <c r="E4" s="30"/>
+      <c r="D4" s="30">
+        <v>263570</v>
+      </c>
+      <c r="E4" s="31"/>
       <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
@@ -5400,20 +5975,20 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="26"/>
+      <c r="P6" s="27"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
     </row>
@@ -5440,22 +6015,22 @@
         <v>28</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="M7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>15</v>
@@ -5464,7 +6039,7 @@
         <v>16</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>31</v>
@@ -5478,7 +6053,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E8" s="7">
         <v>11.9</v>
@@ -5512,11 +6087,11 @@
       </c>
       <c r="O8" s="6">
         <f>(D8*G8)/$D$4</f>
-        <v>0.13239993912646478</v>
+        <v>0.13317145350381304</v>
       </c>
       <c r="P8" s="6">
         <f>D8/E8-1</f>
-        <v>-2.5210084033613467E-2</v>
+        <v>-1.6806722689075682E-2</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>9</v>
@@ -5533,7 +6108,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>10.1</v>
+        <v>10.06</v>
       </c>
       <c r="E9" s="7">
         <v>10.31</v>
@@ -5567,11 +6142,11 @@
       </c>
       <c r="O9" s="6">
         <f>(D9*G9)/$D$4</f>
-        <v>0.15370567645716024</v>
+        <v>0.15267291421633722</v>
       </c>
       <c r="P9" s="6">
         <f>D9/E9-1</f>
-        <v>-2.0368574199806089E-2</v>
+        <v>-2.4248302618816719E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -5582,10 +6157,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
         <v>1.78</v>
@@ -5622,7 +6197,7 @@
       </c>
       <c r="O10" s="6">
         <f>(D10*G10)/$D$4</f>
-        <v>0.10835489271039415</v>
+        <v>0.10805478620480327</v>
       </c>
       <c r="P10" s="6">
         <f>D10/E10-1</f>
@@ -5637,13 +6212,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>17.440000000000001</v>
+        <v>17.28</v>
       </c>
       <c r="E11" s="7">
         <v>16.5</v>
@@ -5677,11 +6252,11 @@
       </c>
       <c r="O11" s="6">
         <f>(D11*G11)/$D$4</f>
-        <v>0.13270430680261755</v>
+        <v>0.13112266191144667</v>
       </c>
       <c r="P11" s="6">
         <f>D11/E11-1</f>
-        <v>5.6969696969697114E-2</v>
+        <v>4.7272727272727355E-2</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -5692,13 +6267,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E12" s="7">
         <v>5.61</v>
@@ -5732,11 +6307,11 @@
       </c>
       <c r="O12" s="6">
         <f>(D12*G12)/$D$4</f>
-        <v>0.3119768680566124</v>
+        <v>0.31414804416284098</v>
       </c>
       <c r="P12" s="6">
         <f>D12/E12-1</f>
-        <v>-0.26916221033868104</v>
+        <v>-0.26203208556149737</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>9</v>
@@ -5747,10 +6322,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
         <v>5.73</v>
@@ -5787,7 +6362,7 @@
       </c>
       <c r="O13" s="6">
         <f>(D13*G13)/$D$4</f>
-        <v>8.7201339217775078E-2</v>
+        <v>8.6959820920438594E-2</v>
       </c>
       <c r="P13" s="6">
         <f>D13/E13-1</f>
@@ -5802,13 +6377,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E14" s="7">
         <v>1.78</v>
@@ -5842,11 +6417,11 @@
       </c>
       <c r="O14" s="6">
         <f>(D14*G14)/$D$4</f>
-        <v>7.36569776289758E-2</v>
+        <v>7.3870319080320213E-2</v>
       </c>
       <c r="P14" s="6">
         <f>D14/E14-1</f>
-        <v>-1.1235955056179803E-2</v>
+        <v>-5.6179775280899014E-3</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>9</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E4E70-A835-49B8-82A3-B1005CE27BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB97222-51B8-4692-92E0-948F536580EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -913,8 +913,8 @@
   </sheetPr>
   <dimension ref="A2:T400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,50 +1036,50 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>11.8</v>
+        <v>1.74</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="6">
-        <v>-4.2886973474078355E-2</v>
+        <v>0.10598732185214374</v>
       </c>
       <c r="G5" s="6">
-        <v>3.9830508474576268E-2</v>
+        <v>1.1011336106089765E-2</v>
       </c>
       <c r="H5" s="6">
         <f>D5/I5-1</f>
-        <v>7.2727272727272751E-2</v>
+        <v>2.3529411764705799E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="J5" s="9">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="K5" s="7">
-        <v>13.597424398249455</v>
+        <v>2.0483021187569315</v>
       </c>
       <c r="L5" s="7">
-        <v>11.129157195902177</v>
+        <v>1.9679320828192832</v>
       </c>
       <c r="M5" s="7">
-        <v>13.228473799887135</v>
+        <v>2.252080234939966</v>
       </c>
       <c r="N5" s="7">
-        <v>12.473933713005875</v>
+        <v>2.0984179400227303</v>
       </c>
       <c r="O5" s="7">
-        <v>11.33993973909625</v>
+        <v>1.9076526727479364</v>
       </c>
       <c r="P5" s="7">
-        <v>9.9791469704047007</v>
+        <v>1.6787343520181843</v>
       </c>
       <c r="Q5" s="8">
         <v>44561</v>
@@ -1087,10 +1087,10 @@
       <c r="R5" s="8">
         <v>44985</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="16" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1102,20 +1102,20 @@
         <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>10.32</v>
+        <v>10.18</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="6">
-        <v>-3.9416340547624357E-2</v>
+        <v>-2.4830710653387295E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>5.4263565891472874E-2</v>
+        <v>5.5009823182711207E-2</v>
       </c>
       <c r="H6" s="6">
         <f>D6/I6-1</f>
-        <v>7.5000000000000178E-2</v>
+        <v>6.0416666666666785E-2</v>
       </c>
       <c r="I6" s="7">
         <v>9.6</v>
@@ -1147,59 +1147,59 @@
       <c r="R6" s="8">
         <v>45169</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>1.89</v>
+        <v>11.8</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>6.2176598146076179E-3</v>
+        <v>-4.2886973474078355E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>1.0100383509839352E-2</v>
+        <v>3.9830508474576268E-2</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
-        <v>0.18124999999999991</v>
+        <v>7.2727272727272751E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="J7" s="9">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="K7" s="7">
-        <v>2.0408186537703243</v>
+        <v>13.597424398249455</v>
       </c>
       <c r="L7" s="7">
-        <v>1.9607422494919924</v>
+        <v>11.129157195902177</v>
       </c>
       <c r="M7" s="7">
-        <v>2.2438522672828158</v>
+        <v>13.228473799887135</v>
       </c>
       <c r="N7" s="7">
-        <v>2.0907513770496085</v>
+        <v>12.473933713005875</v>
       </c>
       <c r="O7" s="7">
-        <v>1.9006830700450985</v>
+        <v>11.33993973909625</v>
       </c>
       <c r="P7" s="7">
-        <v>1.6726011016396867</v>
+        <v>9.9791469704047007</v>
       </c>
       <c r="Q7" s="8">
         <v>44561</v>
@@ -1222,20 +1222,20 @@
         <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>5.86</v>
+        <v>5.61</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="6">
-        <v>-2.6079465324407997E-2</v>
+        <v>2.912624115530979E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>5.2684444958639429E-2</v>
+        <v>5.5234033983137955E-2</v>
       </c>
       <c r="H8" s="6">
         <f>D8/I8-1</f>
-        <v>0.22083333333333344</v>
+        <v>0.16875000000000018</v>
       </c>
       <c r="I8" s="7">
         <v>4.8</v>
@@ -1244,22 +1244,22 @@
         <v>8000</v>
       </c>
       <c r="K8" s="7">
-        <v>7.1945664849821744</v>
+        <v>7.2354661781114276</v>
       </c>
       <c r="L8" s="7">
-        <v>2.9912841624348019</v>
+        <v>3.0204003619776394</v>
       </c>
       <c r="M8" s="7">
-        <v>8.4141217307870981</v>
+        <v>8.4631228990388649</v>
       </c>
       <c r="N8" s="7">
-        <v>6.2931743331989694</v>
+        <v>6.3343982128812879</v>
       </c>
       <c r="O8" s="7">
-        <v>5.7210675756354261</v>
+        <v>5.758543829892079</v>
       </c>
       <c r="P8" s="7">
-        <v>5.0345394665591758</v>
+        <v>5.0675185703050305</v>
       </c>
       <c r="Q8" s="8">
         <v>44561</v>
@@ -1282,20 +1282,20 @@
         <v>47</v>
       </c>
       <c r="D9" s="7">
-        <v>18.940000000000001</v>
+        <v>18.78</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>-6.0914378330094637E-2</v>
+        <v>-5.1933531280855899E-2</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <f>D9/I9-1</f>
-        <v>0.26266666666666683</v>
+        <v>0.252</v>
       </c>
       <c r="I9" s="7">
         <v>15</v>
@@ -1304,22 +1304,22 @@
         <v>4000</v>
       </c>
       <c r="K9" s="7">
-        <v>32.912933039102903</v>
+        <v>32.916957805269043</v>
       </c>
       <c r="L9" s="7">
-        <v>7.2219162630852987</v>
+        <v>7.2227993969037225</v>
       </c>
       <c r="M9" s="7">
-        <v>27.057606772060179</v>
+        <v>27.060915518203934</v>
       </c>
       <c r="N9" s="7">
-        <v>19.680281674428009</v>
+        <v>19.682688282545527</v>
       </c>
       <c r="O9" s="7">
-        <v>17.891165158570917</v>
+        <v>17.893352984132296</v>
       </c>
       <c r="P9" s="7">
-        <v>15.744225339542407</v>
+        <v>15.746150626036421</v>
       </c>
       <c r="Q9" s="8">
         <v>44561</v>
@@ -1336,56 +1336,56 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>20</v>
+        <v>2.4</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="6">
-        <v>-0.16861662976477323</v>
+      <c r="F10" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="G10" s="6">
-        <v>6.7500000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="6">
         <f>D10/I10-1</f>
-        <v>0.33333333333333326</v>
+        <v>0.26528494856900342</v>
       </c>
       <c r="I10" s="7">
-        <v>15</v>
+        <v>1.8968059350696638</v>
       </c>
       <c r="J10" s="9">
-        <v>4000</v>
+        <v>60000</v>
       </c>
       <c r="K10" s="7">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="L10" s="7">
-        <v>15.177942172348047</v>
+        <v>1.5349244540377116</v>
       </c>
       <c r="M10" s="7">
-        <v>20.816330621780622</v>
+        <v>1.7755633469959577</v>
       </c>
       <c r="N10" s="7">
-        <v>18.627667404704535</v>
+        <v>1.7755633469959577</v>
       </c>
       <c r="O10" s="7">
-        <v>16.934243095185941</v>
+        <v>1.7755633469959577</v>
       </c>
       <c r="P10" s="7">
-        <v>14.902133923763628</v>
+        <v>1.7755633469959577</v>
       </c>
       <c r="Q10" s="8">
         <v>44561</v>
       </c>
       <c r="R10" s="8">
-        <v>44985</v>
+        <v>45169</v>
       </c>
       <c r="S10" s="16" t="s">
         <v>9</v>
@@ -1396,56 +1396,56 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>2.5299999999999998</v>
+        <v>19.7</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>67</v>
+      <c r="F11" s="6">
+        <v>-0.15443312666474432</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>6.8527918781725899E-2</v>
       </c>
       <c r="H11" s="6">
         <f>D11/I11-1</f>
-        <v>0.33382121661649111</v>
+        <v>0.31333333333333324</v>
       </c>
       <c r="I11" s="7">
-        <v>1.8968059350696638</v>
+        <v>15</v>
       </c>
       <c r="J11" s="9">
-        <v>60000</v>
+        <v>4000</v>
       </c>
       <c r="K11" s="7">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7">
-        <v>1.5349244540377116</v>
+        <v>15.177942172348047</v>
       </c>
       <c r="M11" s="7">
-        <v>1.7755633469959577</v>
+        <v>20.816330621780622</v>
       </c>
       <c r="N11" s="7">
-        <v>1.7755633469959577</v>
+        <v>18.627667404704535</v>
       </c>
       <c r="O11" s="7">
-        <v>1.7755633469959577</v>
+        <v>16.934243095185941</v>
       </c>
       <c r="P11" s="7">
-        <v>1.7755633469959577</v>
+        <v>14.902133923763628</v>
       </c>
       <c r="Q11" s="8">
         <v>44561</v>
       </c>
       <c r="R11" s="8">
-        <v>45169</v>
+        <v>44985</v>
       </c>
       <c r="S11" s="16" t="s">
         <v>9</v>
@@ -1462,44 +1462,44 @@
         <v>41</v>
       </c>
       <c r="D12" s="7">
-        <v>45.95</v>
+        <v>45.7</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.41443755469308774</v>
+        <v>-0.41060292030373857</v>
       </c>
       <c r="G12" s="6">
-        <v>8.0280562308790382E-2</v>
+        <v>8.0729604707674651E-2</v>
       </c>
       <c r="H12" s="6">
         <f>D12/I12-1</f>
-        <v>0.60452196226640265</v>
+        <v>0.59559712739810911</v>
       </c>
       <c r="I12" s="7">
-        <v>28.63781305622965</v>
+        <v>28.641315038290134</v>
       </c>
       <c r="J12" s="9">
         <v>3000</v>
       </c>
       <c r="K12" s="7">
-        <v>44.069106328733717</v>
+        <v>44.074495330312914</v>
       </c>
       <c r="L12" s="7">
-        <v>21.390868810363322</v>
+        <v>21.393484598052311</v>
       </c>
       <c r="M12" s="7">
-        <v>38.135997105533392</v>
+        <v>38.140660575382157</v>
       </c>
       <c r="N12" s="7">
-        <v>31.501594361852618</v>
+        <v>31.505446542119149</v>
       </c>
       <c r="O12" s="7">
-        <v>28.63781305622965</v>
+        <v>28.641315038290134</v>
       </c>
       <c r="P12" s="7">
-        <v>25.201275489482093</v>
+        <v>25.204357233695319</v>
       </c>
       <c r="Q12" s="8">
         <v>44651</v>
@@ -1522,20 +1522,20 @@
         <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="6">
-        <v>-0.34253427107299639</v>
+        <v>-0.31637677956646415</v>
       </c>
       <c r="G13" s="6">
-        <v>6.7857142857142852E-2</v>
+        <v>7.017045454545455E-2</v>
       </c>
       <c r="H13" s="6">
         <f>D13/I13-1</f>
-        <v>0.65454545454545454</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="I13" s="7">
         <v>1.1000000000000001</v>
@@ -1547,19 +1547,19 @@
         <v>1.9</v>
       </c>
       <c r="L13" s="7">
-        <v>1.1286037277000023</v>
+        <v>1.1291929690158786</v>
       </c>
       <c r="M13" s="7">
-        <v>1.484215946502506</v>
+        <v>1.4848051878183823</v>
       </c>
       <c r="N13" s="7">
-        <v>1.3785876266471466</v>
+        <v>1.379176867963023</v>
       </c>
       <c r="O13" s="7">
-        <v>1.2532614787701333</v>
+        <v>1.2537971526936571</v>
       </c>
       <c r="P13" s="7">
-        <v>1.1028701013177173</v>
+        <v>1.1033414943704183</v>
       </c>
       <c r="Q13" s="8">
         <v>44561</v>
@@ -1582,20 +1582,20 @@
         <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>4.24</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="6">
-        <v>-0.27191360565582712</v>
+        <v>-0.24990225523799905</v>
       </c>
       <c r="G14" s="6">
-        <v>4.823885992317143E-2</v>
+        <v>4.9465726741642492E-2</v>
       </c>
       <c r="H14" s="6">
         <f>D14/I14-1</f>
-        <v>0.76666666666666683</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="I14" s="7">
         <v>2.4</v>
@@ -1604,22 +1604,22 @@
         <v>20000</v>
       </c>
       <c r="K14" s="7">
-        <v>5.5913525707228864</v>
+        <v>5.6118554660259443</v>
       </c>
       <c r="L14" s="7">
-        <v>1.7096060504603912</v>
+        <v>1.7221669251914855</v>
       </c>
       <c r="M14" s="7">
-        <v>6.5382990978079523</v>
+        <v>6.5622743453293415</v>
       </c>
       <c r="N14" s="7">
-        <v>3.5110863120192932</v>
+        <v>3.5279056407623042</v>
       </c>
       <c r="O14" s="7">
-        <v>3.1918966472902661</v>
+        <v>3.2071869461475488</v>
       </c>
       <c r="P14" s="7">
-        <v>2.8088690496154345</v>
+        <v>2.8223245126098435</v>
       </c>
       <c r="Q14" s="8">
         <v>44561</v>
@@ -6175,8 +6175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}">
   <dimension ref="A2:R400"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P8" sqref="B8:R14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="25">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="15"/>
@@ -6224,7 +6224,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="27">
-        <v>312920</v>
+        <v>332060</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="12" t="s">
@@ -6236,7 +6236,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="29">
-        <v>272710</v>
+        <v>285560</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="11" t="s">
@@ -6323,57 +6323,57 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>11.8</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E8" s="7">
-        <v>11.9</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>5.61</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="9">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="H8" s="7">
-        <v>13.597424398249455</v>
+        <v>5.6118554660259443</v>
       </c>
       <c r="I8" s="6">
-        <v>3.226946213872134E-3</v>
+        <v>0.1698771078411476</v>
       </c>
       <c r="J8" s="17">
-        <v>7.8025297553570647</v>
+        <v>0.82306247297105539</v>
       </c>
       <c r="K8" s="17">
-        <v>176.1425660012878</v>
+        <v>2.9769457748721253</v>
       </c>
       <c r="L8" s="17">
-        <v>7.6757068959827519</v>
+        <v>0.57804911534654391</v>
       </c>
       <c r="M8" s="17">
-        <v>85.582900770502533</v>
+        <v>2.4260977945497415</v>
       </c>
       <c r="N8" s="17">
-        <v>4.633566600818809</v>
+        <v>0.59946117374446684</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" ref="O8:O14" si="0">(D8*G8)/$D$4</f>
-        <v>0.12980822118734187</v>
+        <f>(D8*G8)/$D$4</f>
+        <v>0.29065695475556802</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" ref="P8:P14" si="1">D8/E8-1</f>
-        <v>-8.4033613445377853E-3</v>
-      </c>
-      <c r="Q8" s="5" t="s">
+        <f>D8/E8-1</f>
+        <v>-0.26024955436720143</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -6384,7 +6384,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>10.32</v>
+        <v>10.18</v>
       </c>
       <c r="E9" s="7">
         <v>10.31</v>
@@ -6417,12 +6417,12 @@
         <v>3.5134488326629425</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.15136958674049356</v>
+        <f>(D9*G9)/$D$4</f>
+        <v>0.14259700238128589</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="1"/>
-        <v>9.6993210475271319E-4</v>
+        <f>D9/E9-1</f>
+        <v>-1.2609117361784716E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -6433,51 +6433,51 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="E10" s="7">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="9">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="H10" s="7">
-        <v>1.9</v>
+        <v>2.0483021187569315</v>
       </c>
       <c r="I10" s="6">
-        <v>0.24675666120114281</v>
+        <v>7.0180044128252995E-3</v>
       </c>
       <c r="J10" s="17">
-        <v>3.2849980734912396</v>
+        <v>6.3438867786740261</v>
       </c>
       <c r="K10" s="17">
-        <v>6.8975825593510285</v>
+        <v>322.82687224669604</v>
       </c>
       <c r="L10" s="17">
-        <v>3.0135085780337438</v>
+        <v>5.6698381536331262</v>
       </c>
       <c r="M10" s="17">
-        <v>2.9855261680325449</v>
+        <v>111.73261841837773</v>
       </c>
       <c r="N10" s="17">
-        <v>2.4805745781286417</v>
+        <v>5.5613492499085257</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.10678009607275127</v>
+        <f>(D10*G10)/$D$4</f>
+        <v>0.13405238828967642</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333481E-2</v>
+        <f>D10/E10-1</f>
+        <v>-1.1363636363636354E-2</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>9</v>
@@ -6494,7 +6494,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>18.940000000000001</v>
+        <v>18.78</v>
       </c>
       <c r="E11" s="7">
         <v>16.5</v>
@@ -6506,7 +6506,7 @@
         <v>2000</v>
       </c>
       <c r="H11" s="7">
-        <v>32.912933039102903</v>
+        <v>32.916957805269043</v>
       </c>
       <c r="I11" s="6">
         <v>0.45401790581878537</v>
@@ -6527,12 +6527,12 @@
         <v>1.1494100885179757</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.138902130468263</v>
+        <f>(D11*G11)/$D$4</f>
+        <v>0.13153102675444739</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="1"/>
-        <v>0.14787878787878794</v>
+        <f>D11/E11-1</f>
+        <v>0.13818181818181818</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -6543,167 +6543,167 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>4.24</v>
+        <v>11.8</v>
       </c>
       <c r="E12" s="7">
-        <v>5.61</v>
-      </c>
-      <c r="F12" s="9" t="s">
+        <v>11.9</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="9">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="H12" s="7">
-        <v>5.5913525707228864</v>
+        <v>13.597424398249455</v>
       </c>
       <c r="I12" s="6">
-        <v>0.1698771078411476</v>
+        <v>3.226946213872134E-3</v>
       </c>
       <c r="J12" s="17">
-        <v>0.82306247297105539</v>
+        <v>7.8025297553570647</v>
       </c>
       <c r="K12" s="17">
-        <v>2.9769457748721253</v>
+        <v>176.1425660012878</v>
       </c>
       <c r="L12" s="17">
-        <v>0.57804911534654391</v>
+        <v>7.6757068959827519</v>
       </c>
       <c r="M12" s="17">
-        <v>2.4260977945497415</v>
+        <v>85.582900770502533</v>
       </c>
       <c r="N12" s="17">
-        <v>0.59946117374446684</v>
+        <v>4.633566600818809</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.3109530270250449</v>
+        <f>(D12*G12)/$D$4</f>
+        <v>0.12396694214876033</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.24420677361853838</v>
-      </c>
-      <c r="Q12" s="6" t="s">
+        <f>D12/E12-1</f>
+        <v>-8.4033613445377853E-3</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>5.86</v>
+        <v>1.76</v>
       </c>
       <c r="E13" s="7">
-        <v>11.08</v>
+        <v>1.68</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="9">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="H13" s="7">
-        <v>7.1945664849821744</v>
+        <v>1.9</v>
       </c>
       <c r="I13" s="6">
-        <v>5.4080520158737544E-2</v>
+        <v>0.24675666120114281</v>
       </c>
       <c r="J13" s="17">
-        <v>2.7703025360946434</v>
+        <v>3.2849980734912396</v>
       </c>
       <c r="K13" s="17">
-        <v>33.882537710882545</v>
+        <v>6.8975825593510285</v>
       </c>
       <c r="L13" s="17">
-        <v>2.6833569434046844</v>
+        <v>3.0135085780337438</v>
       </c>
       <c r="M13" s="17">
-        <v>13.913697527489473</v>
+        <v>2.9855261680325449</v>
       </c>
       <c r="N13" s="17">
-        <v>2.0088349318914984</v>
+        <v>2.4805745781286417</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="0"/>
-        <v>8.5952110300319018E-2</v>
+        <f>(D13*G13)/$D$4</f>
+        <v>9.861325115562404E-2</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.47111913357400714</v>
+        <f>D13/E13-1</f>
+        <v>4.7619047619047672E-2</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>1.89</v>
+        <v>5.61</v>
       </c>
       <c r="E14" s="7">
-        <v>1.78</v>
+        <v>11.08</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="9">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="H14" s="7">
-        <v>2.0408186537703243</v>
+        <v>7.2354661781114276</v>
       </c>
       <c r="I14" s="6">
-        <v>7.0180044128252995E-3</v>
+        <v>5.4080520158737544E-2</v>
       </c>
       <c r="J14" s="17">
-        <v>6.3438867786740261</v>
+        <v>2.7703025360946434</v>
       </c>
       <c r="K14" s="17">
-        <v>322.82687224669604</v>
+        <v>33.882537710882545</v>
       </c>
       <c r="L14" s="17">
-        <v>5.6698381536331262</v>
+        <v>2.6833569434046844</v>
       </c>
       <c r="M14" s="17">
-        <v>111.73261841837773</v>
+        <v>13.913697527489473</v>
       </c>
       <c r="N14" s="17">
-        <v>5.5613492499085257</v>
+        <v>2.0088349318914984</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="0"/>
-        <v>7.6234828205786365E-2</v>
+        <f>(D14*G14)/$D$4</f>
+        <v>7.8582434514637908E-2</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="1"/>
-        <v>6.1797752808988804E-2</v>
+        <f>D14/E14-1</f>
+        <v>-0.4936823104693141</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -11055,7 +11055,11 @@
       <c r="P400" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:R7" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}"/>
+  <autoFilter ref="B7:R7" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:R14">
+      <sortCondition descending="1" ref="O7"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB97222-51B8-4692-92E0-948F536580EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E17EF17-21A6-4591-9DB5-EC38FE8D3530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
     <sheet name="Current_Holdings" sheetId="3" r:id="rId2"/>
+    <sheet name="Portfolio_Action" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$7:$R$7</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -233,16 +234,35 @@
   <si>
     <t>% From Buy</t>
   </si>
+  <si>
+    <t>Planned Number of Holdings</t>
+  </si>
+  <si>
+    <t>Current Number of Holdings</t>
+  </si>
+  <si>
+    <t>Portfolio Management</t>
+  </si>
+  <si>
+    <t>Total Capital</t>
+  </si>
+  <si>
+    <t>Cash Available</t>
+  </si>
+  <si>
+    <t>HK Account:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +330,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -361,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -468,12 +494,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -555,6 +596,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -913,8 +966,8 @@
   </sheetPr>
   <dimension ref="A2:T400"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,7 +1107,7 @@
         <v>1.1011336106089765E-2</v>
       </c>
       <c r="H5" s="6">
-        <f>D5/I5-1</f>
+        <f t="shared" ref="H5:H14" si="0">D5/I5-1</f>
         <v>2.3529411764705799E-2</v>
       </c>
       <c r="I5" s="7">
@@ -1114,7 +1167,7 @@
         <v>5.5009823182711207E-2</v>
       </c>
       <c r="H6" s="6">
-        <f>D6/I6-1</f>
+        <f t="shared" si="0"/>
         <v>6.0416666666666785E-2</v>
       </c>
       <c r="I6" s="7">
@@ -1174,7 +1227,7 @@
         <v>3.9830508474576268E-2</v>
       </c>
       <c r="H7" s="6">
-        <f>D7/I7-1</f>
+        <f t="shared" si="0"/>
         <v>7.2727272727272751E-2</v>
       </c>
       <c r="I7" s="7">
@@ -1234,7 +1287,7 @@
         <v>5.5234033983137955E-2</v>
       </c>
       <c r="H8" s="6">
-        <f>D8/I8-1</f>
+        <f t="shared" si="0"/>
         <v>0.16875000000000018</v>
       </c>
       <c r="I8" s="7">
@@ -1294,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <f>D9/I9-1</f>
+        <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
       <c r="I9" s="7">
@@ -1354,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="6">
-        <f>D10/I10-1</f>
+        <f t="shared" si="0"/>
         <v>0.26528494856900342</v>
       </c>
       <c r="I10" s="7">
@@ -1414,7 +1467,7 @@
         <v>6.8527918781725899E-2</v>
       </c>
       <c r="H11" s="6">
-        <f>D11/I11-1</f>
+        <f t="shared" si="0"/>
         <v>0.31333333333333324</v>
       </c>
       <c r="I11" s="7">
@@ -1474,7 +1527,7 @@
         <v>8.0729604707674651E-2</v>
       </c>
       <c r="H12" s="6">
-        <f>D12/I12-1</f>
+        <f t="shared" si="0"/>
         <v>0.59559712739810911</v>
       </c>
       <c r="I12" s="7">
@@ -1534,7 +1587,7 @@
         <v>7.017045454545455E-2</v>
       </c>
       <c r="H13" s="6">
-        <f>D13/I13-1</f>
+        <f t="shared" si="0"/>
         <v>0.59999999999999987</v>
       </c>
       <c r="I13" s="7">
@@ -1594,7 +1647,7 @@
         <v>4.9465726741642492E-2</v>
       </c>
       <c r="H14" s="6">
-        <f>D14/I14-1</f>
+        <f t="shared" si="0"/>
         <v>0.72916666666666696</v>
       </c>
       <c r="I14" s="7">
@@ -6175,8 +6228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8F8C16-C341-4E22-B58A-1C8A959287DB}">
   <dimension ref="A2:R400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6362,11 +6415,11 @@
         <v>0.59946117374446684</v>
       </c>
       <c r="O8" s="6">
-        <f>(D8*G8)/$D$4</f>
+        <f t="shared" ref="O8:O14" si="0">(D8*G8)/$D$4</f>
         <v>0.29065695475556802</v>
       </c>
       <c r="P8" s="6">
-        <f>D8/E8-1</f>
+        <f t="shared" ref="P8:P14" si="1">D8/E8-1</f>
         <v>-0.26024955436720143</v>
       </c>
       <c r="Q8" s="6" t="s">
@@ -6417,11 +6470,11 @@
         <v>3.5134488326629425</v>
       </c>
       <c r="O9" s="6">
-        <f>(D9*G9)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>0.14259700238128589</v>
       </c>
       <c r="P9" s="6">
-        <f>D9/E9-1</f>
+        <f t="shared" si="1"/>
         <v>-1.2609117361784716E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
@@ -6472,11 +6525,11 @@
         <v>5.5613492499085257</v>
       </c>
       <c r="O10" s="6">
-        <f>(D10*G10)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>0.13405238828967642</v>
       </c>
       <c r="P10" s="6">
-        <f>D10/E10-1</f>
+        <f t="shared" si="1"/>
         <v>-1.1363636363636354E-2</v>
       </c>
       <c r="Q10" s="6" t="s">
@@ -6527,11 +6580,11 @@
         <v>1.1494100885179757</v>
       </c>
       <c r="O11" s="6">
-        <f>(D11*G11)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>0.13153102675444739</v>
       </c>
       <c r="P11" s="6">
-        <f>D11/E11-1</f>
+        <f t="shared" si="1"/>
         <v>0.13818181818181818</v>
       </c>
       <c r="Q11" s="6" t="s">
@@ -6582,11 +6635,11 @@
         <v>4.633566600818809</v>
       </c>
       <c r="O12" s="6">
-        <f>(D12*G12)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>0.12396694214876033</v>
       </c>
       <c r="P12" s="6">
-        <f>D12/E12-1</f>
+        <f t="shared" si="1"/>
         <v>-8.4033613445377853E-3</v>
       </c>
       <c r="Q12" s="5" t="s">
@@ -6637,11 +6690,11 @@
         <v>2.4805745781286417</v>
       </c>
       <c r="O13" s="6">
-        <f>(D13*G13)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>9.861325115562404E-2</v>
       </c>
       <c r="P13" s="6">
-        <f>D13/E13-1</f>
+        <f t="shared" si="1"/>
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="Q13" s="6" t="s">
@@ -6692,11 +6745,11 @@
         <v>2.0088349318914984</v>
       </c>
       <c r="O14" s="6">
-        <f>(D14*G14)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>7.8582434514637908E-2</v>
       </c>
       <c r="P14" s="6">
-        <f>D14/E14-1</f>
+        <f t="shared" si="1"/>
         <v>-0.4936823104693141</v>
       </c>
       <c r="Q14" s="6" t="s">
@@ -11077,4 +11130,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669B2CD4-F4B8-4478-B704-0E25B9870B94}">
+  <dimension ref="A2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="36">
+        <f>Current_Holdings!D3+C6</f>
+        <v>669890.6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="35">
+        <v>337830.6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f>D5</f>
+        <v>HKD</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="34">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E17EF17-21A6-4591-9DB5-EC38FE8D3530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB3F7B1-D50A-43B4-A75D-C4D5FA83718D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -562,6 +562,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,18 +608,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1008,25 +1008,25 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="21" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -1089,50 +1089,50 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>1.74</v>
+        <v>11.96</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="6">
-        <v>0.10598732185214374</v>
+        <v>-5.7028953762050666E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>1.1011336106089765E-2</v>
+        <v>3.9297658862876249E-2</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H14" si="0">D5/I5-1</f>
-        <v>2.3529411764705799E-2</v>
+        <f>D5/I5-1</f>
+        <v>4.4541484716157376E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>1.7</v>
+        <v>11.45</v>
       </c>
       <c r="J5" s="9">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="K5" s="7">
-        <v>2.0483021187569315</v>
+        <v>13.597424398249455</v>
       </c>
       <c r="L5" s="7">
-        <v>1.9679320828192832</v>
+        <v>11.129157195902177</v>
       </c>
       <c r="M5" s="7">
-        <v>2.252080234939966</v>
+        <v>13.228473799887135</v>
       </c>
       <c r="N5" s="7">
-        <v>2.0984179400227303</v>
+        <v>12.473933713005875</v>
       </c>
       <c r="O5" s="7">
-        <v>1.9076526727479364</v>
+        <v>11.33993973909625</v>
       </c>
       <c r="P5" s="7">
-        <v>1.6787343520181843</v>
+        <v>9.9791469704047007</v>
       </c>
       <c r="Q5" s="8">
         <v>44561</v>
@@ -1155,26 +1155,26 @@
         <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>10.18</v>
+        <v>10.56</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="6">
-        <v>-2.4830710653387295E-2</v>
+        <v>-6.352051462608746E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>5.5009823182711207E-2</v>
+        <v>5.3030303030303032E-2</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>6.0416666666666785E-2</v>
+        <f>D6/I6-1</f>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="J6" s="9">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="K6" s="7">
         <v>12.347246296726411</v>
@@ -1209,110 +1209,110 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>11.8</v>
+        <v>45.95</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>-4.2886973474078355E-2</v>
+        <v>-0.41506172903728966</v>
       </c>
       <c r="G7" s="6">
-        <v>3.9830508474576268E-2</v>
+        <v>8.0207470400570691E-2</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>7.2727272727272751E-2</v>
+        <f>D7/I7-1</f>
+        <v>0.60598413993410327</v>
       </c>
       <c r="I7" s="7">
-        <v>11</v>
+        <v>28.611739591578672</v>
       </c>
       <c r="J7" s="9">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="K7" s="7">
-        <v>13.597424398249455</v>
+        <v>44.028983352729711</v>
       </c>
       <c r="L7" s="7">
-        <v>11.129157195902177</v>
+        <v>21.371393368551981</v>
       </c>
       <c r="M7" s="7">
-        <v>13.228473799887135</v>
+        <v>38.101275963576484</v>
       </c>
       <c r="N7" s="7">
-        <v>12.473933713005875</v>
+        <v>31.472913550736543</v>
       </c>
       <c r="O7" s="7">
-        <v>11.33993973909625</v>
+        <v>28.611739591578672</v>
       </c>
       <c r="P7" s="7">
-        <v>9.9791469704047007</v>
+        <v>25.178330840589233</v>
       </c>
       <c r="Q7" s="8">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="R7" s="8">
-        <v>44985</v>
+        <v>45077</v>
       </c>
       <c r="S7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7">
-        <v>5.61</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="6">
-        <v>2.912624115530979E-2</v>
+        <v>-0.16861662976477323</v>
       </c>
       <c r="G8" s="6">
-        <v>5.5234033983137955E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16875000000000018</v>
+        <f>D8/I8-1</f>
+        <v>0.21212121212121215</v>
       </c>
       <c r="I8" s="7">
-        <v>4.8</v>
+        <v>16.5</v>
       </c>
       <c r="J8" s="9">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="K8" s="7">
-        <v>7.2354661781114276</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7">
-        <v>3.0204003619776394</v>
+        <v>15.177942172348047</v>
       </c>
       <c r="M8" s="7">
-        <v>8.4631228990388649</v>
+        <v>20.816330621780622</v>
       </c>
       <c r="N8" s="7">
-        <v>6.3343982128812879</v>
+        <v>18.627667404704535</v>
       </c>
       <c r="O8" s="7">
-        <v>5.758543829892079</v>
+        <v>16.934243095185941</v>
       </c>
       <c r="P8" s="7">
-        <v>5.0675185703050305</v>
+        <v>14.902133923763628</v>
       </c>
       <c r="Q8" s="8">
         <v>44561</v>
@@ -1324,67 +1324,67 @@
         <v>9</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7">
-        <v>18.78</v>
+        <v>1.77</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>-5.1933531280855899E-2</v>
+        <v>-0.32085951351579445</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>6.9774011299435029E-2</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
+        <f>D9/I9-1</f>
+        <v>0.60909090909090891</v>
       </c>
       <c r="I9" s="7">
-        <v>15</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J9" s="9">
-        <v>4000</v>
+        <v>60000</v>
       </c>
       <c r="K9" s="7">
-        <v>32.916957805269043</v>
+        <v>1.9</v>
       </c>
       <c r="L9" s="7">
-        <v>7.2227993969037225</v>
+        <v>1.1290947621298995</v>
       </c>
       <c r="M9" s="7">
-        <v>27.060915518203934</v>
+        <v>1.4847069809324032</v>
       </c>
       <c r="N9" s="7">
-        <v>19.682688282545527</v>
+        <v>1.3790786610770438</v>
       </c>
       <c r="O9" s="7">
-        <v>17.893352984132296</v>
+        <v>1.2537078737064034</v>
       </c>
       <c r="P9" s="7">
-        <v>15.746150626036421</v>
+        <v>1.1032629288616351</v>
       </c>
       <c r="Q9" s="8">
         <v>44561</v>
       </c>
       <c r="R9" s="8">
-        <v>45169</v>
+        <v>44985</v>
       </c>
       <c r="S9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
@@ -1395,7 +1395,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>2.4</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
@@ -1407,32 +1407,32 @@
         <v>0</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26528494856900342</v>
+        <f>D10/I10-1</f>
+        <v>0.31720430107526876</v>
       </c>
       <c r="I10" s="7">
-        <v>1.8968059350696638</v>
+        <v>1.86</v>
       </c>
       <c r="J10" s="9">
-        <v>60000</v>
+        <v>78000</v>
       </c>
       <c r="K10" s="7">
         <v>2.8</v>
       </c>
       <c r="L10" s="7">
-        <v>1.5349244540377116</v>
+        <v>1.5044652214049168</v>
       </c>
       <c r="M10" s="7">
-        <v>1.7755633469959577</v>
+        <v>1.7388053570895838</v>
       </c>
       <c r="N10" s="7">
-        <v>1.7755633469959577</v>
+        <v>1.7388053570895838</v>
       </c>
       <c r="O10" s="7">
-        <v>1.7755633469959577</v>
+        <v>1.7388053570895838</v>
       </c>
       <c r="P10" s="7">
-        <v>1.7755633469959577</v>
+        <v>1.7388053570895838</v>
       </c>
       <c r="Q10" s="8">
         <v>44561</v>
@@ -1449,113 +1449,113 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>19.7</v>
+        <v>18.38</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="6">
-        <v>-0.15443312666474432</v>
+        <v>-3.0230487122153399E-2</v>
       </c>
       <c r="G11" s="6">
-        <v>6.8527918781725899E-2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.31333333333333324</v>
+        <f>D11/I11-1</f>
+        <v>0.22533333333333316</v>
       </c>
       <c r="I11" s="7">
         <v>15</v>
       </c>
       <c r="J11" s="9">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="K11" s="7">
-        <v>19</v>
+        <v>27.032972015477124</v>
       </c>
       <c r="L11" s="7">
-        <v>15.177942172348047</v>
+        <v>7.2153410271191953</v>
       </c>
       <c r="M11" s="7">
-        <v>20.816330621780622</v>
+        <v>27.032972015477124</v>
       </c>
       <c r="N11" s="7">
-        <v>18.627667404704535</v>
+        <v>19.662363646694821</v>
       </c>
       <c r="O11" s="7">
-        <v>16.934243095185941</v>
+        <v>17.874876042449838</v>
       </c>
       <c r="P11" s="7">
-        <v>14.902133923763628</v>
+        <v>15.729890917355856</v>
       </c>
       <c r="Q11" s="8">
         <v>44561</v>
       </c>
       <c r="R11" s="8">
-        <v>44985</v>
+        <v>45169</v>
       </c>
       <c r="S11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7">
-        <v>45.7</v>
+        <v>4.2</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.41060292030373857</v>
+        <v>-0.26078372943982009</v>
       </c>
       <c r="G12" s="6">
-        <v>8.0729604707674651E-2</v>
+        <v>4.8842926693182319E-2</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.59559712739810911</v>
+        <f>D12/I12-1</f>
+        <v>0.75000000000000022</v>
       </c>
       <c r="I12" s="7">
-        <v>28.641315038290134</v>
+        <v>2.4</v>
       </c>
       <c r="J12" s="9">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="K12" s="7">
-        <v>44.074495330312914</v>
+        <v>5.6079606298354916</v>
       </c>
       <c r="L12" s="7">
-        <v>21.393484598052311</v>
+        <v>1.719777259078529</v>
       </c>
       <c r="M12" s="7">
-        <v>38.140660575382157</v>
+        <v>6.5577198831257792</v>
       </c>
       <c r="N12" s="7">
-        <v>31.505446542119149</v>
+        <v>3.5247083363527558</v>
       </c>
       <c r="O12" s="7">
-        <v>28.641315038290134</v>
+        <v>3.2042803057752325</v>
       </c>
       <c r="P12" s="7">
-        <v>25.204357233695319</v>
+        <v>2.8197666690822047</v>
       </c>
       <c r="Q12" s="8">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="R12" s="8">
         <v>45077</v>
@@ -1564,55 +1564,55 @@
         <v>9</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>1.76</v>
+        <v>5.83</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="6">
-        <v>-0.31637677956646415</v>
+        <v>-1.6803455653301352E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>7.017045454545455E-2</v>
+        <v>5.3112842926108322E-2</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.59999999999999987</v>
+        <f>D13/I13-1</f>
+        <v>0.21458333333333335</v>
       </c>
       <c r="I13" s="7">
-        <v>1.1000000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="J13" s="9">
-        <v>60000</v>
+        <v>8000</v>
       </c>
       <c r="K13" s="7">
-        <v>1.9</v>
+        <v>7.2184716544539143</v>
       </c>
       <c r="L13" s="7">
-        <v>1.1291929690158786</v>
+        <v>3.0033380402709549</v>
       </c>
       <c r="M13" s="7">
-        <v>1.4848051878183823</v>
+        <v>8.4422831256782178</v>
       </c>
       <c r="N13" s="7">
-        <v>1.379176867963023</v>
+        <v>6.3150358535412527</v>
       </c>
       <c r="O13" s="7">
-        <v>1.2537971526936571</v>
+        <v>5.7409416850375017</v>
       </c>
       <c r="P13" s="7">
-        <v>1.1033414943704183</v>
+        <v>5.0520286828330025</v>
       </c>
       <c r="Q13" s="8">
         <v>44561</v>
@@ -1624,67 +1624,67 @@
         <v>9</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>4.1500000000000004</v>
+        <v>1.82</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="6">
-        <v>-0.24990225523799905</v>
+        <v>5.2176681324132085E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>4.9465726741642492E-2</v>
+        <v>1.0520014980070038E-2</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.72916666666666696</v>
+        <f>D14/I14-1</f>
+        <v>7.0588235294117618E-2</v>
       </c>
       <c r="I14" s="7">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="J14" s="9">
         <v>20000</v>
       </c>
       <c r="K14" s="7">
-        <v>5.6118554660259443</v>
+        <v>2.2505172075854749</v>
       </c>
       <c r="L14" s="7">
-        <v>1.7221669251914855</v>
+        <v>1.9665662648393085</v>
       </c>
       <c r="M14" s="7">
-        <v>6.5622743453293415</v>
+        <v>2.2505172075854749</v>
       </c>
       <c r="N14" s="7">
-        <v>3.5279056407623042</v>
+        <v>2.0969615600099205</v>
       </c>
       <c r="O14" s="7">
-        <v>3.2071869461475488</v>
+        <v>1.9063286909181094</v>
       </c>
       <c r="P14" s="7">
-        <v>2.8223245126098435</v>
+        <v>1.6775692480079365</v>
       </c>
       <c r="Q14" s="8">
         <v>44561</v>
       </c>
       <c r="R14" s="8">
-        <v>45077</v>
+        <v>44985</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
@@ -6252,14 +6252,14 @@
         <v>11</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25">
-        <v>45005</v>
-      </c>
-      <c r="G2" s="25"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29">
+        <v>45007</v>
+      </c>
+      <c r="G2" s="29"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -6276,10 +6276,10 @@
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="27">
-        <v>332060</v>
-      </c>
-      <c r="E3" s="28"/>
+      <c r="D3" s="31">
+        <v>363340</v>
+      </c>
+      <c r="E3" s="32"/>
       <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
@@ -6288,10 +6288,10 @@
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="29">
-        <v>285560</v>
-      </c>
-      <c r="E4" s="30"/>
+      <c r="D4" s="33">
+        <v>323320</v>
+      </c>
+      <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
@@ -6304,20 +6304,20 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31" t="s">
+      <c r="J6" s="36"/>
+      <c r="K6" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="26" t="s">
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="26"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
@@ -6376,57 +6376,57 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>4.1500000000000004</v>
+        <v>11.96</v>
       </c>
       <c r="E8" s="7">
-        <v>5.61</v>
+        <v>11.9</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="9">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="H8" s="7">
-        <v>5.6118554660259443</v>
+        <v>13.597424398249455</v>
       </c>
       <c r="I8" s="6">
-        <v>0.1698771078411476</v>
+        <v>3.226946213872134E-3</v>
       </c>
       <c r="J8" s="17">
-        <v>0.82306247297105539</v>
+        <v>7.8025297553570647</v>
       </c>
       <c r="K8" s="17">
-        <v>2.9769457748721253</v>
+        <v>176.1425660012878</v>
       </c>
       <c r="L8" s="17">
-        <v>0.57804911534654391</v>
+        <v>7.6757068959827519</v>
       </c>
       <c r="M8" s="17">
-        <v>2.4260977945497415</v>
+        <v>85.582900770502533</v>
       </c>
       <c r="N8" s="17">
-        <v>0.59946117374446684</v>
+        <v>4.633566600818809</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" ref="O8:O14" si="0">(D8*G8)/$D$4</f>
-        <v>0.29065695475556802</v>
+        <f>(D8*G8)/$D$4</f>
+        <v>0.11097364839787208</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" ref="P8:P14" si="1">D8/E8-1</f>
-        <v>-0.26024955436720143</v>
+        <f>D8/E8-1</f>
+        <v>5.0420168067226712E-3</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -6437,7 +6437,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>10.18</v>
+        <v>10.56</v>
       </c>
       <c r="E9" s="7">
         <v>10.31</v>
@@ -6470,12 +6470,12 @@
         <v>3.5134488326629425</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.14259700238128589</v>
+        <f>(D9*G9)/$D$4</f>
+        <v>0.13064456266237784</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="1"/>
-        <v>-1.2609117361784716E-2</v>
+        <f>D9/E9-1</f>
+        <v>2.4248302618816719E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -6486,51 +6486,51 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="E10" s="7">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="9">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="H10" s="7">
-        <v>2.0483021187569315</v>
+        <v>1.9</v>
       </c>
       <c r="I10" s="6">
-        <v>7.0180044128252995E-3</v>
+        <v>0.24675666120114281</v>
       </c>
       <c r="J10" s="17">
-        <v>6.3438867786740261</v>
+        <v>3.2849980734912396</v>
       </c>
       <c r="K10" s="17">
-        <v>322.82687224669604</v>
+        <v>6.8975825593510285</v>
       </c>
       <c r="L10" s="17">
-        <v>5.6698381536331262</v>
+        <v>3.0135085780337438</v>
       </c>
       <c r="M10" s="17">
-        <v>111.73261841837773</v>
+        <v>2.9855261680325449</v>
       </c>
       <c r="N10" s="17">
-        <v>5.5613492499085257</v>
+        <v>2.4805745781286417</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.13405238828967642</v>
+        <f>(D10*G10)/$D$4</f>
+        <v>8.7591240875912413E-2</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="1"/>
-        <v>-1.1363636363636354E-2</v>
+        <f>D10/E10-1</f>
+        <v>5.3571428571428603E-2</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>9</v>
@@ -6547,7 +6547,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>18.78</v>
+        <v>18.38</v>
       </c>
       <c r="E11" s="7">
         <v>16.5</v>
@@ -6559,7 +6559,7 @@
         <v>2000</v>
       </c>
       <c r="H11" s="7">
-        <v>32.916957805269043</v>
+        <v>27.032972015477124</v>
       </c>
       <c r="I11" s="6">
         <v>0.45401790581878537</v>
@@ -6580,12 +6580,12 @@
         <v>1.1494100885179757</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.13153102675444739</v>
+        <f>(D11*G11)/$D$4</f>
+        <v>0.11369541012000495</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="1"/>
-        <v>0.13818181818181818</v>
+        <f>D11/E11-1</f>
+        <v>0.11393939393939378</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -6596,167 +6596,167 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7">
-        <v>11.8</v>
+        <v>4.2</v>
       </c>
       <c r="E12" s="7">
-        <v>11.9</v>
+        <v>5.61</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="9">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="H12" s="7">
-        <v>13.597424398249455</v>
+        <v>5.6079606298354916</v>
       </c>
       <c r="I12" s="6">
-        <v>3.226946213872134E-3</v>
+        <v>0.1698771078411476</v>
       </c>
       <c r="J12" s="17">
-        <v>7.8025297553570647</v>
+        <v>0.82306247297105539</v>
       </c>
       <c r="K12" s="17">
-        <v>176.1425660012878</v>
+        <v>2.9769457748721253</v>
       </c>
       <c r="L12" s="17">
-        <v>7.6757068959827519</v>
+        <v>0.57804911534654391</v>
       </c>
       <c r="M12" s="17">
-        <v>85.582900770502533</v>
+        <v>2.4260977945497415</v>
       </c>
       <c r="N12" s="17">
-        <v>4.633566600818809</v>
+        <v>0.59946117374446684</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.12396694214876033</v>
+        <f>(D12*G12)/$D$4</f>
+        <v>0.25980452802177412</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="1"/>
-        <v>-8.4033613445377853E-3</v>
+        <f>D12/E12-1</f>
+        <v>-0.25133689839572193</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>1.76</v>
+        <v>5.83</v>
       </c>
       <c r="E13" s="7">
-        <v>1.68</v>
+        <v>11.08</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="9">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="H13" s="7">
-        <v>1.9</v>
+        <v>7.2184716544539143</v>
       </c>
       <c r="I13" s="6">
-        <v>0.24675666120114281</v>
+        <v>5.4080520158737544E-2</v>
       </c>
       <c r="J13" s="17">
-        <v>3.2849980734912396</v>
+        <v>2.7703025360946434</v>
       </c>
       <c r="K13" s="17">
-        <v>6.8975825593510285</v>
+        <v>33.882537710882545</v>
       </c>
       <c r="L13" s="17">
-        <v>3.0135085780337438</v>
+        <v>2.6833569434046844</v>
       </c>
       <c r="M13" s="17">
-        <v>2.9855261680325449</v>
+        <v>13.913697527489473</v>
       </c>
       <c r="N13" s="17">
-        <v>2.4805745781286417</v>
+        <v>2.0088349318914984</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="0"/>
-        <v>9.861325115562404E-2</v>
+        <f>(D13*G13)/$D$4</f>
+        <v>7.2126685636521096E-2</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="1"/>
-        <v>4.7619047619047672E-2</v>
+        <f>D13/E13-1</f>
+        <v>-0.473826714801444</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>5.61</v>
+        <v>1.82</v>
       </c>
       <c r="E14" s="7">
-        <v>11.08</v>
+        <v>1.75</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="9">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="H14" s="7">
-        <v>7.2354661781114276</v>
+        <v>2.2505172075854749</v>
       </c>
       <c r="I14" s="6">
-        <v>5.4080520158737544E-2</v>
+        <v>7.0180044128252995E-3</v>
       </c>
       <c r="J14" s="17">
-        <v>2.7703025360946434</v>
+        <v>6.3438867786740261</v>
       </c>
       <c r="K14" s="17">
-        <v>33.882537710882545</v>
+        <v>322.82687224669604</v>
       </c>
       <c r="L14" s="17">
-        <v>2.6833569434046844</v>
+        <v>5.6698381536331262</v>
       </c>
       <c r="M14" s="17">
-        <v>13.913697527489473</v>
+        <v>111.73261841837773</v>
       </c>
       <c r="N14" s="17">
-        <v>2.0088349318914984</v>
+        <v>5.5613492499085257</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="0"/>
-        <v>7.8582434514637908E-2</v>
+        <f>(D14*G14)/$D$4</f>
+        <v>0.22516392428553755</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.4936823104693141</v>
+        <f>D14/E14-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -11169,9 +11169,9 @@
       <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="24">
         <f>Current_Holdings!D3+C6</f>
-        <v>669890.6</v>
+        <v>701170.6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
@@ -11182,7 +11182,7 @@
       <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="23">
         <v>337830.6</v>
       </c>
       <c r="D6" s="5" t="str">
@@ -11195,7 +11195,7 @@
       <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="21">
         <v>7</v>
       </c>
     </row>
@@ -11203,7 +11203,7 @@
       <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="22">
         <v>7</v>
       </c>
     </row>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB3F7B1-D50A-43B4-A75D-C4D5FA83718D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C382EA-23CC-4B99-A411-EBBE584DB26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -967,7 +967,7 @@
   <dimension ref="A2:T400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1209,62 +1209,62 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>45.95</v>
+        <v>1.82</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>-0.41506172903728966</v>
+        <v>5.2176681324132085E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>8.0207470400570691E-2</v>
+        <v>1.0520014980070038E-2</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
-        <v>0.60598413993410327</v>
+        <v>7.0588235294117618E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>28.611739591578672</v>
+        <v>1.7</v>
       </c>
       <c r="J7" s="9">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="K7" s="7">
-        <v>44.028983352729711</v>
+        <v>2.2505172075854749</v>
       </c>
       <c r="L7" s="7">
-        <v>21.371393368551981</v>
+        <v>1.9665662648393085</v>
       </c>
       <c r="M7" s="7">
-        <v>38.101275963576484</v>
+        <v>2.2505172075854749</v>
       </c>
       <c r="N7" s="7">
-        <v>31.472913550736543</v>
+        <v>2.0969615600099205</v>
       </c>
       <c r="O7" s="7">
-        <v>28.611739591578672</v>
+        <v>1.9063286909181094</v>
       </c>
       <c r="P7" s="7">
-        <v>25.178330840589233</v>
+        <v>1.6775692480079365</v>
       </c>
       <c r="Q7" s="8">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="R7" s="8">
-        <v>45077</v>
+        <v>44985</v>
       </c>
       <c r="S7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
@@ -1329,50 +1329,50 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D9" s="7">
-        <v>1.77</v>
+        <v>5.83</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.32085951351579445</v>
+        <v>-1.6803455653301352E-2</v>
       </c>
       <c r="G9" s="6">
-        <v>6.9774011299435029E-2</v>
+        <v>5.3112842926108322E-2</v>
       </c>
       <c r="H9" s="6">
         <f>D9/I9-1</f>
-        <v>0.60909090909090891</v>
+        <v>0.21458333333333335</v>
       </c>
       <c r="I9" s="7">
-        <v>1.1000000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="J9" s="9">
-        <v>60000</v>
+        <v>8000</v>
       </c>
       <c r="K9" s="7">
-        <v>1.9</v>
+        <v>7.2184716544539143</v>
       </c>
       <c r="L9" s="7">
-        <v>1.1290947621298995</v>
+        <v>3.0033380402709549</v>
       </c>
       <c r="M9" s="7">
-        <v>1.4847069809324032</v>
+        <v>8.4422831256782178</v>
       </c>
       <c r="N9" s="7">
-        <v>1.3790786610770438</v>
+        <v>6.3150358535412527</v>
       </c>
       <c r="O9" s="7">
-        <v>1.2537078737064034</v>
+        <v>5.7409416850375017</v>
       </c>
       <c r="P9" s="7">
-        <v>1.1032629288616351</v>
+        <v>5.0520286828330025</v>
       </c>
       <c r="Q9" s="8">
         <v>44561</v>
@@ -1384,55 +1384,55 @@
         <v>9</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>2.4500000000000002</v>
+        <v>18.38</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>67</v>
+      <c r="F10" s="6">
+        <v>-3.0230487122153399E-2</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" s="6">
         <f>D10/I10-1</f>
-        <v>0.31720430107526876</v>
+        <v>0.22533333333333316</v>
       </c>
       <c r="I10" s="7">
-        <v>1.86</v>
+        <v>15</v>
       </c>
       <c r="J10" s="9">
-        <v>78000</v>
+        <v>1000</v>
       </c>
       <c r="K10" s="7">
-        <v>2.8</v>
+        <v>27.032972015477124</v>
       </c>
       <c r="L10" s="7">
-        <v>1.5044652214049168</v>
+        <v>7.2153410271191953</v>
       </c>
       <c r="M10" s="7">
-        <v>1.7388053570895838</v>
+        <v>27.032972015477124</v>
       </c>
       <c r="N10" s="7">
-        <v>1.7388053570895838</v>
+        <v>19.662363646694821</v>
       </c>
       <c r="O10" s="7">
-        <v>1.7388053570895838</v>
+        <v>17.874876042449838</v>
       </c>
       <c r="P10" s="7">
-        <v>1.7388053570895838</v>
+        <v>15.729890917355856</v>
       </c>
       <c r="Q10" s="8">
         <v>44561</v>
@@ -1444,55 +1444,55 @@
         <v>9</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>18.38</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
-        <v>-3.0230487122153399E-2</v>
+      <c r="F11" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <f>D11/I11-1</f>
-        <v>0.22533333333333316</v>
+        <v>0.31720430107526876</v>
       </c>
       <c r="I11" s="7">
-        <v>15</v>
+        <v>1.86</v>
       </c>
       <c r="J11" s="9">
-        <v>1000</v>
+        <v>78000</v>
       </c>
       <c r="K11" s="7">
-        <v>27.032972015477124</v>
+        <v>2.8</v>
       </c>
       <c r="L11" s="7">
-        <v>7.2153410271191953</v>
+        <v>1.5044652214049168</v>
       </c>
       <c r="M11" s="7">
-        <v>27.032972015477124</v>
+        <v>1.7388053570895838</v>
       </c>
       <c r="N11" s="7">
-        <v>19.662363646694821</v>
+        <v>1.7388053570895838</v>
       </c>
       <c r="O11" s="7">
-        <v>17.874876042449838</v>
+        <v>1.7388053570895838</v>
       </c>
       <c r="P11" s="7">
-        <v>15.729890917355856</v>
+        <v>1.7388053570895838</v>
       </c>
       <c r="Q11" s="8">
         <v>44561</v>
@@ -1504,58 +1504,58 @@
         <v>9</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7">
-        <v>4.2</v>
+        <v>45.95</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.26078372943982009</v>
+        <v>-0.41506172903728966</v>
       </c>
       <c r="G12" s="6">
-        <v>4.8842926693182319E-2</v>
+        <v>8.0207470400570691E-2</v>
       </c>
       <c r="H12" s="6">
         <f>D12/I12-1</f>
-        <v>0.75000000000000022</v>
+        <v>0.60598413993410327</v>
       </c>
       <c r="I12" s="7">
-        <v>2.4</v>
+        <v>28.611739591578672</v>
       </c>
       <c r="J12" s="9">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="K12" s="7">
-        <v>5.6079606298354916</v>
+        <v>44.028983352729711</v>
       </c>
       <c r="L12" s="7">
-        <v>1.719777259078529</v>
+        <v>21.371393368551981</v>
       </c>
       <c r="M12" s="7">
-        <v>6.5577198831257792</v>
+        <v>38.101275963576484</v>
       </c>
       <c r="N12" s="7">
-        <v>3.5247083363527558</v>
+        <v>31.472913550736543</v>
       </c>
       <c r="O12" s="7">
-        <v>3.2042803057752325</v>
+        <v>28.611739591578672</v>
       </c>
       <c r="P12" s="7">
-        <v>2.8197666690822047</v>
+        <v>25.178330840589233</v>
       </c>
       <c r="Q12" s="8">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="R12" s="8">
         <v>45077</v>
@@ -1564,55 +1564,55 @@
         <v>9</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>5.83</v>
+        <v>1.77</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="6">
-        <v>-1.6803455653301352E-2</v>
+        <v>-0.32085951351579445</v>
       </c>
       <c r="G13" s="6">
-        <v>5.3112842926108322E-2</v>
+        <v>6.9774011299435029E-2</v>
       </c>
       <c r="H13" s="6">
         <f>D13/I13-1</f>
-        <v>0.21458333333333335</v>
+        <v>0.60909090909090891</v>
       </c>
       <c r="I13" s="7">
-        <v>4.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J13" s="9">
-        <v>8000</v>
+        <v>60000</v>
       </c>
       <c r="K13" s="7">
-        <v>7.2184716544539143</v>
+        <v>1.9</v>
       </c>
       <c r="L13" s="7">
-        <v>3.0033380402709549</v>
+        <v>1.1290947621298995</v>
       </c>
       <c r="M13" s="7">
-        <v>8.4422831256782178</v>
+        <v>1.4847069809324032</v>
       </c>
       <c r="N13" s="7">
-        <v>6.3150358535412527</v>
+        <v>1.3790786610770438</v>
       </c>
       <c r="O13" s="7">
-        <v>5.7409416850375017</v>
+        <v>1.2537078737064034</v>
       </c>
       <c r="P13" s="7">
-        <v>5.0520286828330025</v>
+        <v>1.1032629288616351</v>
       </c>
       <c r="Q13" s="8">
         <v>44561</v>
@@ -1624,67 +1624,67 @@
         <v>9</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>1.82</v>
+        <v>4.2</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="6">
-        <v>5.2176681324132085E-2</v>
+        <v>-0.26078372943982009</v>
       </c>
       <c r="G14" s="6">
-        <v>1.0520014980070038E-2</v>
+        <v>4.8842926693182319E-2</v>
       </c>
       <c r="H14" s="6">
         <f>D14/I14-1</f>
-        <v>7.0588235294117618E-2</v>
+        <v>0.75000000000000022</v>
       </c>
       <c r="I14" s="7">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="J14" s="9">
         <v>20000</v>
       </c>
       <c r="K14" s="7">
-        <v>2.2505172075854749</v>
+        <v>5.6079606298354916</v>
       </c>
       <c r="L14" s="7">
-        <v>1.9665662648393085</v>
+        <v>1.719777259078529</v>
       </c>
       <c r="M14" s="7">
-        <v>2.2505172075854749</v>
+        <v>6.5577198831257792</v>
       </c>
       <c r="N14" s="7">
-        <v>2.0969615600099205</v>
+        <v>3.5247083363527558</v>
       </c>
       <c r="O14" s="7">
-        <v>1.9063286909181094</v>
+        <v>3.2042803057752325</v>
       </c>
       <c r="P14" s="7">
-        <v>1.6775692480079365</v>
+        <v>2.8197666690822047</v>
       </c>
       <c r="Q14" s="8">
         <v>44561</v>
       </c>
       <c r="R14" s="8">
-        <v>44985</v>
+        <v>45077</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
@@ -6220,7 +6220,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="54" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6415,11 +6415,11 @@
         <v>4.633566600818809</v>
       </c>
       <c r="O8" s="6">
-        <f>(D8*G8)/$D$4</f>
+        <f t="shared" ref="O8:O14" si="0">(D8*G8)/$D$4</f>
         <v>0.11097364839787208</v>
       </c>
       <c r="P8" s="6">
-        <f>D8/E8-1</f>
+        <f t="shared" ref="P8:P14" si="1">D8/E8-1</f>
         <v>5.0420168067226712E-3</v>
       </c>
       <c r="Q8" s="6" t="s">
@@ -6470,11 +6470,11 @@
         <v>3.5134488326629425</v>
       </c>
       <c r="O9" s="6">
-        <f>(D9*G9)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>0.13064456266237784</v>
       </c>
       <c r="P9" s="6">
-        <f>D9/E9-1</f>
+        <f t="shared" si="1"/>
         <v>2.4248302618816719E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
@@ -6525,11 +6525,11 @@
         <v>2.4805745781286417</v>
       </c>
       <c r="O10" s="6">
-        <f>(D10*G10)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>8.7591240875912413E-2</v>
       </c>
       <c r="P10" s="6">
-        <f>D10/E10-1</f>
+        <f t="shared" si="1"/>
         <v>5.3571428571428603E-2</v>
       </c>
       <c r="Q10" s="6" t="s">
@@ -6580,11 +6580,11 @@
         <v>1.1494100885179757</v>
       </c>
       <c r="O11" s="6">
-        <f>(D11*G11)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>0.11369541012000495</v>
       </c>
       <c r="P11" s="6">
-        <f>D11/E11-1</f>
+        <f t="shared" si="1"/>
         <v>0.11393939393939378</v>
       </c>
       <c r="Q11" s="6" t="s">
@@ -6635,11 +6635,11 @@
         <v>0.59946117374446684</v>
       </c>
       <c r="O12" s="6">
-        <f>(D12*G12)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>0.25980452802177412</v>
       </c>
       <c r="P12" s="6">
-        <f>D12/E12-1</f>
+        <f t="shared" si="1"/>
         <v>-0.25133689839572193</v>
       </c>
       <c r="Q12" s="5" t="s">
@@ -6690,11 +6690,11 @@
         <v>2.0088349318914984</v>
       </c>
       <c r="O13" s="6">
-        <f>(D13*G13)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>7.2126685636521096E-2</v>
       </c>
       <c r="P13" s="6">
-        <f>D13/E13-1</f>
+        <f t="shared" si="1"/>
         <v>-0.473826714801444</v>
       </c>
       <c r="Q13" s="6" t="s">
@@ -6745,11 +6745,11 @@
         <v>5.5613492499085257</v>
       </c>
       <c r="O14" s="6">
-        <f>(D14*G14)/$D$4</f>
+        <f t="shared" si="0"/>
         <v>0.22516392428553755</v>
       </c>
       <c r="P14" s="6">
-        <f>D14/E14-1</f>
+        <f t="shared" si="1"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="Q14" s="6" t="s">

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C382EA-23CC-4B99-A411-EBBE584DB26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6DA6F9-9F6C-4D2B-9FA4-A50F99CB2CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <dimension ref="A2:T400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,50 +1095,50 @@
         <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>11.96</v>
+        <v>11.8</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="6">
-        <v>-5.7028953762050666E-2</v>
+        <v>-6.6800152425985498E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>3.9297658862876249E-2</v>
+        <v>4.2372881355932202E-2</v>
       </c>
       <c r="H5" s="6">
-        <f>D5/I5-1</f>
-        <v>4.4541484716157376E-2</v>
+        <f t="shared" ref="H5:H14" si="0">D5/I5-1</f>
+        <v>6.498194945848379E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>11.45</v>
+        <v>11.08</v>
       </c>
       <c r="J5" s="9">
         <v>3000</v>
       </c>
       <c r="K5" s="7">
-        <v>13.597424398249455</v>
+        <v>13.106941291608036</v>
       </c>
       <c r="L5" s="7">
-        <v>11.129157195902177</v>
+        <v>10.560676235026312</v>
       </c>
       <c r="M5" s="7">
-        <v>13.228473799887135</v>
+        <v>13.106941291608036</v>
       </c>
       <c r="N5" s="7">
-        <v>12.473933713005875</v>
+        <v>12.191758201373373</v>
       </c>
       <c r="O5" s="7">
-        <v>11.33993973909625</v>
+        <v>11.083416546703065</v>
       </c>
       <c r="P5" s="7">
-        <v>9.9791469704047007</v>
+        <v>9.7534065610986982</v>
       </c>
       <c r="Q5" s="8">
         <v>44561</v>
       </c>
       <c r="R5" s="8">
-        <v>44985</v>
+        <v>45169</v>
       </c>
       <c r="S5" s="16" t="s">
         <v>9</v>
@@ -1149,121 +1149,121 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D6" s="7">
-        <v>10.56</v>
+        <v>1.87</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="6">
-        <v>-6.352051462608746E-2</v>
+        <v>2.3839877021326922E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>5.3030303030303032E-2</v>
+        <v>1.0261284170303751E-2</v>
       </c>
       <c r="H6" s="6">
-        <f>D6/I6-1</f>
-        <v>6.6666666666666652E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.8571428571428727E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>9.9</v>
+        <v>1.75</v>
       </c>
       <c r="J6" s="9">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K6" s="7">
-        <v>12.347246296726411</v>
+        <v>2.2554744570316125</v>
       </c>
       <c r="L6" s="7">
-        <v>10.429776905912007</v>
+        <v>1.9708980511035099</v>
       </c>
       <c r="M6" s="7">
-        <v>11.339169963600042</v>
+        <v>2.2554744570316125</v>
       </c>
       <c r="N6" s="7">
-        <v>10.945223365548518</v>
+        <v>2.1015805700298813</v>
       </c>
       <c r="O6" s="7">
-        <v>9.9502030595895619</v>
+        <v>1.9105277909362555</v>
       </c>
       <c r="P6" s="7">
-        <v>8.7561786924388141</v>
+        <v>1.681264456023905</v>
       </c>
       <c r="Q6" s="8">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="R6" s="8">
-        <v>45169</v>
-      </c>
-      <c r="S6" s="5" t="s">
+        <v>44985</v>
+      </c>
+      <c r="S6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>1.82</v>
+        <v>10.64</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>5.2176681324132085E-2</v>
+        <v>-7.131359346348512E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>1.0520014980070038E-2</v>
+        <v>5.2631578947368425E-2</v>
       </c>
       <c r="H7" s="6">
-        <f>D7/I7-1</f>
-        <v>7.0588235294117618E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.4747474747474785E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>1.7</v>
+        <v>9.9</v>
       </c>
       <c r="J7" s="9">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="K7" s="7">
-        <v>2.2505172075854749</v>
+        <v>12.347246296726411</v>
       </c>
       <c r="L7" s="7">
-        <v>1.9665662648393085</v>
+        <v>10.429776905912007</v>
       </c>
       <c r="M7" s="7">
-        <v>2.2505172075854749</v>
+        <v>11.339169963600042</v>
       </c>
       <c r="N7" s="7">
-        <v>2.0969615600099205</v>
+        <v>10.945223365548518</v>
       </c>
       <c r="O7" s="7">
-        <v>1.9063286909181094</v>
+        <v>9.9502030595895619</v>
       </c>
       <c r="P7" s="7">
-        <v>1.6775692480079365</v>
+        <v>8.7561786924388141</v>
       </c>
       <c r="Q7" s="8">
-        <v>44561</v>
+        <v>44742</v>
       </c>
       <c r="R7" s="8">
-        <v>44985</v>
-      </c>
-      <c r="S7" s="16" t="s">
+        <v>45169</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1275,20 +1275,20 @@
         <v>43</v>
       </c>
       <c r="D8" s="7">
-        <v>20</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="6">
-        <v>-0.16861662976477323</v>
+        <v>-0.17325037787539635</v>
       </c>
       <c r="G8" s="6">
-        <v>6.7500000000000004E-2</v>
+        <v>6.7164179104477612E-2</v>
       </c>
       <c r="H8" s="6">
-        <f>D8/I8-1</f>
-        <v>0.21212121212121215</v>
+        <f t="shared" si="0"/>
+        <v>0.21818181818181825</v>
       </c>
       <c r="I8" s="7">
         <v>16.5</v>
@@ -1329,122 +1329,122 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7">
-        <v>5.83</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>-1.6803455653301352E-2</v>
+        <v>-4.2112130123022867E-2</v>
       </c>
       <c r="G9" s="6">
-        <v>5.3112842926108322E-2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="6">
-        <f>D9/I9-1</f>
-        <v>0.21458333333333335</v>
+        <f t="shared" si="0"/>
+        <v>0.24</v>
       </c>
       <c r="I9" s="7">
-        <v>4.8</v>
+        <v>15</v>
       </c>
       <c r="J9" s="9">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="K9" s="7">
-        <v>7.2184716544539143</v>
+        <v>27.052702245830893</v>
       </c>
       <c r="L9" s="7">
-        <v>3.0033380402709549</v>
+        <v>7.2206072013476366</v>
       </c>
       <c r="M9" s="7">
-        <v>8.4422831256782178</v>
+        <v>27.052702245830893</v>
       </c>
       <c r="N9" s="7">
-        <v>6.3150358535412527</v>
+        <v>19.676714379711775</v>
       </c>
       <c r="O9" s="7">
-        <v>5.7409416850375017</v>
+        <v>17.887922163374341</v>
       </c>
       <c r="P9" s="7">
-        <v>5.0520286828330025</v>
+        <v>15.74137150376942</v>
       </c>
       <c r="Q9" s="8">
         <v>44561</v>
       </c>
       <c r="R9" s="8">
-        <v>44985</v>
+        <v>45169</v>
       </c>
       <c r="S9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>18.38</v>
+        <v>5.98</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6">
-        <v>-3.0230487122153399E-2</v>
+        <v>-4.3180967721922731E-2</v>
       </c>
       <c r="G10" s="6">
-        <v>0</v>
+        <v>5.1894638875256409E-2</v>
       </c>
       <c r="H10" s="6">
-        <f>D10/I10-1</f>
-        <v>0.22533333333333316</v>
+        <f t="shared" si="0"/>
+        <v>0.24583333333333357</v>
       </c>
       <c r="I10" s="7">
-        <v>15</v>
+        <v>4.8</v>
       </c>
       <c r="J10" s="9">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="K10" s="7">
-        <v>27.032972015477124</v>
+        <v>7.2270372798510838</v>
       </c>
       <c r="L10" s="7">
-        <v>7.2153410271191953</v>
+        <v>3.0007852711918654</v>
       </c>
       <c r="M10" s="7">
-        <v>27.032972015477124</v>
+        <v>8.4517108059915298</v>
       </c>
       <c r="N10" s="7">
-        <v>19.662363646694821</v>
+        <v>6.3197778130229025</v>
       </c>
       <c r="O10" s="7">
-        <v>17.874876042449838</v>
+        <v>5.7452525572935471</v>
       </c>
       <c r="P10" s="7">
-        <v>15.729890917355856</v>
+        <v>5.0558222504183217</v>
       </c>
       <c r="Q10" s="8">
         <v>44561</v>
       </c>
       <c r="R10" s="8">
-        <v>45169</v>
+        <v>44985</v>
       </c>
       <c r="S10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
@@ -1455,7 +1455,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>2.4500000000000002</v>
+        <v>2.46</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -1467,8 +1467,8 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <f>D11/I11-1</f>
-        <v>0.31720430107526876</v>
+        <f t="shared" si="0"/>
+        <v>0.32258064516129026</v>
       </c>
       <c r="I11" s="7">
         <v>1.86</v>
@@ -1515,44 +1515,44 @@
         <v>41</v>
       </c>
       <c r="D12" s="7">
-        <v>45.95</v>
+        <v>46.95</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.41506172903728966</v>
+        <v>-0.42917253014152257</v>
       </c>
       <c r="G12" s="6">
-        <v>8.0207470400570691E-2</v>
+        <v>7.8555070892648141E-2</v>
       </c>
       <c r="H12" s="6">
-        <f>D12/I12-1</f>
-        <v>0.60598413993410327</v>
+        <f t="shared" si="0"/>
+        <v>0.6397658853058954</v>
       </c>
       <c r="I12" s="7">
-        <v>28.611739591578672</v>
+        <v>28.632136099868649</v>
       </c>
       <c r="J12" s="9">
         <v>3000</v>
       </c>
       <c r="K12" s="7">
-        <v>44.028983352729711</v>
+        <v>44.060370382556357</v>
       </c>
       <c r="L12" s="7">
-        <v>21.371393368551981</v>
+        <v>21.386628436682489</v>
       </c>
       <c r="M12" s="7">
-        <v>38.101275963576484</v>
+        <v>38.128437296726545</v>
       </c>
       <c r="N12" s="7">
-        <v>31.472913550736543</v>
+        <v>31.495349709855518</v>
       </c>
       <c r="O12" s="7">
-        <v>28.611739591578672</v>
+        <v>28.632136099868649</v>
       </c>
       <c r="P12" s="7">
-        <v>25.178330840589233</v>
+        <v>25.196279767884413</v>
       </c>
       <c r="Q12" s="8">
         <v>44651</v>
@@ -1575,20 +1575,20 @@
         <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="6">
-        <v>-0.32085951351579445</v>
+        <v>-0.33829511959495795</v>
       </c>
       <c r="G13" s="6">
-        <v>6.9774011299435029E-2</v>
+        <v>6.8232044198895031E-2</v>
       </c>
       <c r="H13" s="6">
-        <f>D13/I13-1</f>
-        <v>0.60909090909090891</v>
+        <f t="shared" si="0"/>
+        <v>0.64545454545454528</v>
       </c>
       <c r="I13" s="7">
         <v>1.1000000000000001</v>
@@ -1600,19 +1600,19 @@
         <v>1.9</v>
       </c>
       <c r="L13" s="7">
-        <v>1.1290947621298995</v>
+        <v>1.1287019345859817</v>
       </c>
       <c r="M13" s="7">
-        <v>1.4847069809324032</v>
+        <v>1.4843141533884854</v>
       </c>
       <c r="N13" s="7">
-        <v>1.3790786610770438</v>
+        <v>1.378685833533126</v>
       </c>
       <c r="O13" s="7">
-        <v>1.2537078737064034</v>
+        <v>1.2533507577573872</v>
       </c>
       <c r="P13" s="7">
-        <v>1.1032629288616351</v>
+        <v>1.1029486668265007</v>
       </c>
       <c r="Q13" s="8">
         <v>44561</v>
@@ -1641,13 +1641,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="6">
-        <v>-0.26078372943982009</v>
+        <v>-0.25836847847453737</v>
       </c>
       <c r="G14" s="6">
-        <v>4.8842926693182319E-2</v>
+        <v>4.8950513771602082E-2</v>
       </c>
       <c r="H14" s="6">
-        <f>D14/I14-1</f>
+        <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
       </c>
       <c r="I14" s="7">
@@ -1657,22 +1657,22 @@
         <v>20000</v>
       </c>
       <c r="K14" s="7">
-        <v>5.6079606298354916</v>
+        <v>5.6203133724106253</v>
       </c>
       <c r="L14" s="7">
-        <v>1.719777259078529</v>
+        <v>1.7273619638864131</v>
       </c>
       <c r="M14" s="7">
-        <v>6.5577198831257792</v>
+        <v>6.5721646752602183</v>
       </c>
       <c r="N14" s="7">
-        <v>3.5247083363527558</v>
+        <v>3.5348523904069431</v>
       </c>
       <c r="O14" s="7">
-        <v>3.2042803057752325</v>
+        <v>3.2135021730972206</v>
       </c>
       <c r="P14" s="7">
-        <v>2.8197666690822047</v>
+        <v>2.8278819123255543</v>
       </c>
       <c r="Q14" s="8">
         <v>44561</v>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29">
-        <v>45007</v>
+        <v>45009</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="15"/>
@@ -6289,7 +6289,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="33">
-        <v>323320</v>
+        <v>326840</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
@@ -6382,7 +6382,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>11.96</v>
+        <v>11.8</v>
       </c>
       <c r="E8" s="7">
         <v>11.9</v>
@@ -6394,33 +6394,33 @@
         <v>3000</v>
       </c>
       <c r="H8" s="7">
-        <v>13.597424398249455</v>
+        <v>13.106941291608036</v>
       </c>
       <c r="I8" s="6">
-        <v>3.226946213872134E-3</v>
+        <v>4.9613936858377006E-3</v>
       </c>
       <c r="J8" s="17">
-        <v>7.8025297553570647</v>
+        <v>9.0486159523642016</v>
       </c>
       <c r="K8" s="17">
-        <v>176.1425660012878</v>
+        <v>129.19493155576717</v>
       </c>
       <c r="L8" s="17">
-        <v>7.6757068959827519</v>
+        <v>8.8832342519810936</v>
       </c>
       <c r="M8" s="17">
-        <v>85.582900770502533</v>
+        <v>54.953736119523519</v>
       </c>
       <c r="N8" s="17">
-        <v>4.633566600818809</v>
+        <v>4.958733377346034</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" ref="O8:O14" si="0">(D8*G8)/$D$4</f>
-        <v>0.11097364839787208</v>
+        <v>0.10830987639211846</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" ref="P8:P14" si="1">D8/E8-1</f>
-        <v>5.0420168067226712E-3</v>
+        <v>-8.4033613445377853E-3</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
@@ -6437,7 +6437,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>10.56</v>
+        <v>10.64</v>
       </c>
       <c r="E9" s="7">
         <v>10.31</v>
@@ -6471,11 +6471,11 @@
       </c>
       <c r="O9" s="6">
         <f t="shared" si="0"/>
-        <v>0.13064456266237784</v>
+        <v>0.13021661975278423</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="1"/>
-        <v>2.4248302618816719E-2</v>
+        <v>3.2007759456837981E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -6492,7 +6492,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="E10" s="7">
         <v>1.68</v>
@@ -6526,11 +6526,11 @@
       </c>
       <c r="O10" s="6">
         <f t="shared" si="0"/>
-        <v>8.7591240875912413E-2</v>
+        <v>8.8606045771631378E-2</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="1"/>
-        <v>5.3571428571428603E-2</v>
+        <v>7.738095238095255E-2</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>9</v>
@@ -6547,7 +6547,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>18.38</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E11" s="7">
         <v>16.5</v>
@@ -6559,7 +6559,7 @@
         <v>2000</v>
       </c>
       <c r="H11" s="7">
-        <v>27.032972015477124</v>
+        <v>27.052702245830893</v>
       </c>
       <c r="I11" s="6">
         <v>0.45401790581878537</v>
@@ -6581,11 +6581,11 @@
       </c>
       <c r="O11" s="6">
         <f t="shared" si="0"/>
-        <v>0.11369541012000495</v>
+        <v>0.11381715824256516</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="1"/>
-        <v>0.11393939393939378</v>
+        <v>0.12727272727272743</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -6614,7 +6614,7 @@
         <v>20000</v>
       </c>
       <c r="H12" s="7">
-        <v>5.6079606298354916</v>
+        <v>5.6203133724106253</v>
       </c>
       <c r="I12" s="6">
         <v>0.1698771078411476</v>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O12" s="6">
         <f t="shared" si="0"/>
-        <v>0.25980452802177412</v>
+        <v>0.25700648635417944</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="1"/>
@@ -6657,7 +6657,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>5.83</v>
+        <v>5.98</v>
       </c>
       <c r="E13" s="7">
         <v>11.08</v>
@@ -6669,7 +6669,7 @@
         <v>4000</v>
       </c>
       <c r="H13" s="7">
-        <v>7.2184716544539143</v>
+        <v>7.2270372798510838</v>
       </c>
       <c r="I13" s="6">
         <v>5.4080520158737544E-2</v>
@@ -6691,11 +6691,11 @@
       </c>
       <c r="O13" s="6">
         <f t="shared" si="0"/>
-        <v>7.2126685636521096E-2</v>
+        <v>7.3185656590380621E-2</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="1"/>
-        <v>-0.473826714801444</v>
+        <v>-0.46028880866425992</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
@@ -6712,7 +6712,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="E14" s="7">
         <v>1.75</v>
@@ -6724,7 +6724,7 @@
         <v>40000</v>
       </c>
       <c r="H14" s="7">
-        <v>2.2505172075854749</v>
+        <v>2.2554744570316125</v>
       </c>
       <c r="I14" s="6">
         <v>7.0180044128252995E-3</v>
@@ -6746,11 +6746,11 @@
       </c>
       <c r="O14" s="6">
         <f t="shared" si="0"/>
-        <v>0.22516392428553755</v>
+        <v>0.22885815689634073</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>6.8571428571428727E-2</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>9</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc/financial_models/Opportunities/Monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6DA6F9-9F6C-4D2B-9FA4-A50F99CB2CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292170AC-2E1F-0E45-850A-74335B996360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$7:$R$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$T$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -967,23 +980,23 @@
   <dimension ref="A2:T400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="16" width="14.6328125" customWidth="1"/>
-    <col min="17" max="17" width="14.453125" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" customWidth="1"/>
-    <col min="20" max="20" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1007,7 +1020,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D3" s="26" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1041,7 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1087,7 +1100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
@@ -1095,20 +1108,20 @@
         <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>11.8</v>
+        <v>11.62</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="6">
-        <v>-6.6800152425985498E-2</v>
+        <v>-5.0795335510036704E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.2372881355932202E-2</v>
+        <v>4.3029259896729781E-2</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H14" si="0">D5/I5-1</f>
-        <v>6.498194945848379E-2</v>
+        <f>D5/I5-1</f>
+        <v>4.8736462093862842E-2</v>
       </c>
       <c r="I5" s="7">
         <v>11.08</v>
@@ -1135,7 +1148,7 @@
         <v>9.7534065610986982</v>
       </c>
       <c r="Q5" s="8">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="R5" s="8">
         <v>45169</v>
@@ -1147,58 +1160,58 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>1.87</v>
+        <v>10.52</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="6">
-        <v>2.3839877021326922E-2</v>
+        <v>-5.9579527989684605E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>1.0261284170303751E-2</v>
+        <v>5.3231939163498103E-2</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>6.8571428571428727E-2</v>
+        <f>D6/I6-1</f>
+        <v>6.2626262626262585E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>1.75</v>
+        <v>9.9</v>
       </c>
       <c r="J6" s="9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K6" s="7">
-        <v>2.2554744570316125</v>
+        <v>12.347246296726411</v>
       </c>
       <c r="L6" s="7">
-        <v>1.9708980511035099</v>
+        <v>10.429776905912007</v>
       </c>
       <c r="M6" s="7">
-        <v>2.2554744570316125</v>
+        <v>11.339169963600042</v>
       </c>
       <c r="N6" s="7">
-        <v>2.1015805700298813</v>
+        <v>10.945223365548518</v>
       </c>
       <c r="O6" s="7">
-        <v>1.9105277909362555</v>
+        <v>9.9502030595895619</v>
       </c>
       <c r="P6" s="7">
-        <v>1.681264456023905</v>
+        <v>8.7561786924388141</v>
       </c>
       <c r="Q6" s="8">
-        <v>44561</v>
+        <v>44742</v>
       </c>
       <c r="R6" s="8">
-        <v>44985</v>
+        <v>45169</v>
       </c>
       <c r="S6" s="16" t="s">
         <v>9</v>
@@ -1207,187 +1220,187 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>10.64</v>
+        <v>1.77</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>-7.131359346348512E-2</v>
+        <v>-1.9833198710867889E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>5.2631578947368425E-2</v>
+        <v>0.14234269181662806</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>7.4747474747474785E-2</v>
+        <f>D7/I7-1</f>
+        <v>9.259259259259256E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>9.9</v>
+        <v>1.62</v>
       </c>
       <c r="J7" s="9">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="K7" s="7">
-        <v>12.347246296726411</v>
+        <v>2.0424389077766301</v>
       </c>
       <c r="L7" s="7">
-        <v>10.429776905912007</v>
+        <v>1.8010410913637067</v>
       </c>
       <c r="M7" s="7">
-        <v>11.339169963600042</v>
+        <v>2.0424389077766301</v>
       </c>
       <c r="N7" s="7">
-        <v>10.945223365548518</v>
+        <v>1.9118952382817638</v>
       </c>
       <c r="O7" s="7">
-        <v>9.9502030595895619</v>
+        <v>1.7380865802561487</v>
       </c>
       <c r="P7" s="7">
-        <v>8.7561786924388141</v>
+        <v>1.5295161906254111</v>
       </c>
       <c r="Q7" s="8">
-        <v>44742</v>
+        <v>44926</v>
       </c>
       <c r="R7" s="8">
         <v>45169</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7">
-        <v>20.100000000000001</v>
+        <v>17.68</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="6">
-        <v>-0.17325037787539635</v>
+        <v>1.3266309094818268E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>6.7164179104477612E-2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21818181818181825</v>
+        <f>D8/I8-1</f>
+        <v>0.17866666666666675</v>
       </c>
       <c r="I8" s="7">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="J8" s="9">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="K8" s="7">
-        <v>19</v>
+        <v>27.060723123569986</v>
       </c>
       <c r="L8" s="7">
-        <v>15.177942172348047</v>
+        <v>7.2227480450621648</v>
       </c>
       <c r="M8" s="7">
-        <v>20.816330621780622</v>
+        <v>27.060723123569986</v>
       </c>
       <c r="N8" s="7">
-        <v>18.627667404704535</v>
+        <v>19.682548344796388</v>
       </c>
       <c r="O8" s="7">
-        <v>16.934243095185941</v>
+        <v>17.893225767996714</v>
       </c>
       <c r="P8" s="7">
-        <v>14.902133923763628</v>
+        <v>15.746038675837109</v>
       </c>
       <c r="Q8" s="8">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="R8" s="8">
-        <v>44985</v>
+        <v>45169</v>
       </c>
       <c r="S8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7">
-        <v>18.600000000000001</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>-4.2112130123022867E-2</v>
+        <v>-0.16393631132138012</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>6.7839195979899514E-2</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
+        <f>D9/I9-1</f>
+        <v>0.20606060606060606</v>
       </c>
       <c r="I9" s="7">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="J9" s="9">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="K9" s="7">
-        <v>27.052702245830893</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7">
-        <v>7.2206072013476366</v>
+        <v>15.177942172348047</v>
       </c>
       <c r="M9" s="7">
-        <v>27.052702245830893</v>
+        <v>20.816330621780622</v>
       </c>
       <c r="N9" s="7">
-        <v>19.676714379711775</v>
+        <v>18.627667404704535</v>
       </c>
       <c r="O9" s="7">
-        <v>17.887922163374341</v>
+        <v>16.934243095185941</v>
       </c>
       <c r="P9" s="7">
-        <v>15.74137150376942</v>
+        <v>14.902133923763628</v>
       </c>
       <c r="Q9" s="8">
         <v>44561</v>
       </c>
       <c r="R9" s="8">
-        <v>45169</v>
+        <v>44985</v>
       </c>
       <c r="S9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>50</v>
       </c>
@@ -1395,20 +1408,20 @@
         <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>5.98</v>
+        <v>5.81</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6">
-        <v>-4.3180967721922731E-2</v>
+        <v>-7.2315459919000402E-3</v>
       </c>
       <c r="G10" s="6">
-        <v>5.1894638875256409E-2</v>
+        <v>5.3554906570836176E-2</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24583333333333357</v>
+        <f>D10/I10-1</f>
+        <v>0.2104166666666667</v>
       </c>
       <c r="I10" s="7">
         <v>4.8</v>
@@ -1417,22 +1430,22 @@
         <v>8000</v>
       </c>
       <c r="K10" s="7">
-        <v>7.2270372798510838</v>
+        <v>7.2561683640432193</v>
       </c>
       <c r="L10" s="7">
-        <v>3.0007852711918654</v>
+        <v>3.0211787458516843</v>
       </c>
       <c r="M10" s="7">
-        <v>8.4517108059915298</v>
+        <v>8.4865789595183294</v>
       </c>
       <c r="N10" s="7">
-        <v>6.3197778130229025</v>
+        <v>6.3489847177870598</v>
       </c>
       <c r="O10" s="7">
-        <v>5.7452525572935471</v>
+        <v>5.7718042888973269</v>
       </c>
       <c r="P10" s="7">
-        <v>5.0558222504183217</v>
+        <v>5.0791877742296476</v>
       </c>
       <c r="Q10" s="8">
         <v>44561</v>
@@ -1440,14 +1453,14 @@
       <c r="R10" s="8">
         <v>44985</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>65</v>
       </c>
@@ -1455,7 +1468,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>2.46</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -1467,8 +1480,8 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.32258064516129026</v>
+        <f>D11/I11-1</f>
+        <v>0.31720430107526876</v>
       </c>
       <c r="I11" s="7">
         <v>1.86</v>
@@ -1495,7 +1508,7 @@
         <v>1.7388053570895838</v>
       </c>
       <c r="Q11" s="8">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="R11" s="8">
         <v>45169</v>
@@ -1507,7 +1520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
@@ -1515,44 +1528,44 @@
         <v>41</v>
       </c>
       <c r="D12" s="7">
-        <v>46.95</v>
+        <v>46.3</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.42917253014152257</v>
+        <v>-0.41954450933617249</v>
       </c>
       <c r="G12" s="6">
-        <v>7.8555070892648141E-2</v>
+        <v>7.9682528981208103E-2</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.6397658853058954</v>
+        <f>D12/I12-1</f>
+        <v>0.61656422072056505</v>
       </c>
       <c r="I12" s="7">
-        <v>28.632136099868649</v>
+        <v>28.6409901979411</v>
       </c>
       <c r="J12" s="9">
         <v>3000</v>
       </c>
       <c r="K12" s="7">
-        <v>44.060370382556357</v>
+        <v>44.07399545192299</v>
       </c>
       <c r="L12" s="7">
-        <v>21.386628436682489</v>
+        <v>21.393241960205739</v>
       </c>
       <c r="M12" s="7">
-        <v>38.128437296726545</v>
+        <v>38.140227996588997</v>
       </c>
       <c r="N12" s="7">
-        <v>31.495349709855518</v>
+        <v>31.505089217735211</v>
       </c>
       <c r="O12" s="7">
-        <v>28.632136099868649</v>
+        <v>28.6409901979411</v>
       </c>
       <c r="P12" s="7">
-        <v>25.196279767884413</v>
+        <v>25.204071374188167</v>
       </c>
       <c r="Q12" s="8">
         <v>44651</v>
@@ -1567,127 +1580,127 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>1.81</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="6">
-        <v>-0.33829511959495795</v>
+        <v>-0.24527173295909413</v>
       </c>
       <c r="G13" s="6">
-        <v>6.8232044198895031E-2</v>
+        <v>4.9671830901180394E-2</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.64545454545454528</v>
+        <f>D13/I13-1</f>
+        <v>0.72916666666666696</v>
       </c>
       <c r="I13" s="7">
-        <v>1.1000000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="J13" s="9">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="K13" s="7">
-        <v>1.9</v>
+        <v>5.6352378527907128</v>
       </c>
       <c r="L13" s="7">
-        <v>1.1287019345859817</v>
+        <v>1.7365480027410318</v>
       </c>
       <c r="M13" s="7">
-        <v>1.4843141533884854</v>
+        <v>6.5896167524401346</v>
       </c>
       <c r="N13" s="7">
-        <v>1.378685833533126</v>
+        <v>3.5471223082197598</v>
       </c>
       <c r="O13" s="7">
-        <v>1.2533507577573872</v>
+        <v>3.2246566438361453</v>
       </c>
       <c r="P13" s="7">
-        <v>1.1029486668265007</v>
+        <v>2.837697846575808</v>
       </c>
       <c r="Q13" s="8">
         <v>44561</v>
       </c>
       <c r="R13" s="8">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="S13" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>4.2</v>
+        <v>1.91</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="6">
-        <v>-0.25836847847453737</v>
+        <v>-0.37868912844328173</v>
       </c>
       <c r="G14" s="6">
-        <v>4.8950513771602082E-2</v>
+        <v>6.4659685863874342E-2</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.75000000000000022</v>
+        <f>D14/I14-1</f>
+        <v>0.73636363636363611</v>
       </c>
       <c r="I14" s="7">
-        <v>2.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J14" s="9">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="K14" s="7">
-        <v>5.6203133724106253</v>
+        <v>1.9</v>
       </c>
       <c r="L14" s="7">
-        <v>1.7273619638864131</v>
+        <v>1.1277198657261875</v>
       </c>
       <c r="M14" s="7">
-        <v>6.5721646752602183</v>
+        <v>1.4833320845286913</v>
       </c>
       <c r="N14" s="7">
-        <v>3.5348523904069431</v>
+        <v>1.3777037646733319</v>
       </c>
       <c r="O14" s="7">
-        <v>3.2135021730972206</v>
+        <v>1.2524579678848471</v>
       </c>
       <c r="P14" s="7">
-        <v>2.8278819123255543</v>
+        <v>1.1021630117386656</v>
       </c>
       <c r="Q14" s="8">
         <v>44561</v>
       </c>
       <c r="R14" s="8">
-        <v>45077</v>
+        <v>44985</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -1708,7 +1721,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -1729,7 +1742,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -1750,7 +1763,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -1771,7 +1784,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -1792,7 +1805,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -1813,7 +1826,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -1834,7 +1847,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -1855,7 +1868,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -1876,7 +1889,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -1897,7 +1910,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -1918,7 +1931,7 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -1939,7 +1952,7 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -1960,7 +1973,7 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -1981,7 +1994,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -2002,7 +2015,7 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -2023,7 +2036,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -2044,7 +2057,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -2065,7 +2078,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -2086,7 +2099,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -2107,7 +2120,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -2128,7 +2141,7 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -2149,7 +2162,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -2170,7 +2183,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -2191,7 +2204,7 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -2212,7 +2225,7 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -2233,7 +2246,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -2254,7 +2267,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -2275,7 +2288,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -2296,7 +2309,7 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -2317,7 +2330,7 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -2338,7 +2351,7 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -2359,7 +2372,7 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -2380,7 +2393,7 @@
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -2401,7 +2414,7 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -2422,7 +2435,7 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -2443,7 +2456,7 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -2464,7 +2477,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -2485,7 +2498,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -2506,7 +2519,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -2527,7 +2540,7 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -2548,7 +2561,7 @@
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -2569,7 +2582,7 @@
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -2590,7 +2603,7 @@
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -2611,7 +2624,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -2632,7 +2645,7 @@
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -2653,7 +2666,7 @@
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
@@ -2674,7 +2687,7 @@
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -2695,7 +2708,7 @@
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -2716,7 +2729,7 @@
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -2737,7 +2750,7 @@
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -2758,7 +2771,7 @@
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -2779,7 +2792,7 @@
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -2800,7 +2813,7 @@
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -2821,7 +2834,7 @@
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -2842,7 +2855,7 @@
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -2863,7 +2876,7 @@
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -2884,7 +2897,7 @@
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -2905,7 +2918,7 @@
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -2926,7 +2939,7 @@
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -2947,7 +2960,7 @@
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -2968,7 +2981,7 @@
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -2989,7 +3002,7 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -3010,7 +3023,7 @@
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -3031,7 +3044,7 @@
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -3052,7 +3065,7 @@
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -3073,7 +3086,7 @@
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -3094,7 +3107,7 @@
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -3115,7 +3128,7 @@
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -3136,7 +3149,7 @@
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -3157,7 +3170,7 @@
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -3178,7 +3191,7 @@
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -3199,7 +3212,7 @@
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
@@ -3220,7 +3233,7 @@
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -3241,7 +3254,7 @@
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -3262,7 +3275,7 @@
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
@@ -3283,7 +3296,7 @@
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
@@ -3304,7 +3317,7 @@
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
@@ -3325,7 +3338,7 @@
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
@@ -3346,7 +3359,7 @@
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
@@ -3367,7 +3380,7 @@
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
@@ -3388,7 +3401,7 @@
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
@@ -3409,7 +3422,7 @@
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
@@ -3430,7 +3443,7 @@
       <c r="S97" s="5"/>
       <c r="T97" s="5"/>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
@@ -3451,7 +3464,7 @@
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
@@ -3472,7 +3485,7 @@
       <c r="S99" s="5"/>
       <c r="T99" s="5"/>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
@@ -3493,7 +3506,7 @@
       <c r="S100" s="5"/>
       <c r="T100" s="5"/>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
@@ -3514,7 +3527,7 @@
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
@@ -3535,7 +3548,7 @@
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
@@ -3556,7 +3569,7 @@
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
@@ -3577,7 +3590,7 @@
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
@@ -3598,7 +3611,7 @@
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
@@ -3619,7 +3632,7 @@
       <c r="S106" s="5"/>
       <c r="T106" s="5"/>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
@@ -3640,7 +3653,7 @@
       <c r="S107" s="5"/>
       <c r="T107" s="5"/>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
@@ -3661,7 +3674,7 @@
       <c r="S108" s="5"/>
       <c r="T108" s="5"/>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
@@ -3682,7 +3695,7 @@
       <c r="S109" s="5"/>
       <c r="T109" s="5"/>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
@@ -3703,7 +3716,7 @@
       <c r="S110" s="5"/>
       <c r="T110" s="5"/>
     </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
@@ -3724,7 +3737,7 @@
       <c r="S111" s="5"/>
       <c r="T111" s="5"/>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -3745,7 +3758,7 @@
       <c r="S112" s="5"/>
       <c r="T112" s="5"/>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
@@ -3766,7 +3779,7 @@
       <c r="S113" s="5"/>
       <c r="T113" s="5"/>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
@@ -3787,7 +3800,7 @@
       <c r="S114" s="5"/>
       <c r="T114" s="5"/>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
@@ -3808,7 +3821,7 @@
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
@@ -3829,7 +3842,7 @@
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
@@ -3850,7 +3863,7 @@
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
@@ -3871,7 +3884,7 @@
       <c r="S118" s="5"/>
       <c r="T118" s="5"/>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
@@ -3892,7 +3905,7 @@
       <c r="S119" s="5"/>
       <c r="T119" s="5"/>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
@@ -3913,7 +3926,7 @@
       <c r="S120" s="5"/>
       <c r="T120" s="5"/>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
@@ -3934,7 +3947,7 @@
       <c r="S121" s="5"/>
       <c r="T121" s="5"/>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
@@ -3955,7 +3968,7 @@
       <c r="S122" s="5"/>
       <c r="T122" s="5"/>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
@@ -3976,7 +3989,7 @@
       <c r="S123" s="5"/>
       <c r="T123" s="5"/>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
@@ -3997,7 +4010,7 @@
       <c r="S124" s="5"/>
       <c r="T124" s="5"/>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -4018,7 +4031,7 @@
       <c r="S125" s="5"/>
       <c r="T125" s="5"/>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
@@ -4039,7 +4052,7 @@
       <c r="S126" s="5"/>
       <c r="T126" s="5"/>
     </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
@@ -4060,7 +4073,7 @@
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
@@ -4081,7 +4094,7 @@
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -4102,7 +4115,7 @@
       <c r="S129" s="5"/>
       <c r="T129" s="5"/>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -4123,7 +4136,7 @@
       <c r="S130" s="5"/>
       <c r="T130" s="5"/>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -4144,7 +4157,7 @@
       <c r="S131" s="5"/>
       <c r="T131" s="5"/>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -4165,7 +4178,7 @@
       <c r="S132" s="5"/>
       <c r="T132" s="5"/>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -4186,7 +4199,7 @@
       <c r="S133" s="5"/>
       <c r="T133" s="5"/>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -4207,7 +4220,7 @@
       <c r="S134" s="5"/>
       <c r="T134" s="5"/>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -4228,7 +4241,7 @@
       <c r="S135" s="5"/>
       <c r="T135" s="5"/>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -4249,7 +4262,7 @@
       <c r="S136" s="5"/>
       <c r="T136" s="5"/>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -4270,7 +4283,7 @@
       <c r="S137" s="5"/>
       <c r="T137" s="5"/>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -4291,7 +4304,7 @@
       <c r="S138" s="5"/>
       <c r="T138" s="5"/>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -4312,7 +4325,7 @@
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -4333,7 +4346,7 @@
       <c r="S140" s="5"/>
       <c r="T140" s="5"/>
     </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -4354,7 +4367,7 @@
       <c r="S141" s="5"/>
       <c r="T141" s="5"/>
     </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -4375,7 +4388,7 @@
       <c r="S142" s="5"/>
       <c r="T142" s="5"/>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -4396,7 +4409,7 @@
       <c r="S143" s="5"/>
       <c r="T143" s="5"/>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -4417,7 +4430,7 @@
       <c r="S144" s="5"/>
       <c r="T144" s="5"/>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -4438,7 +4451,7 @@
       <c r="S145" s="5"/>
       <c r="T145" s="5"/>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -4459,7 +4472,7 @@
       <c r="S146" s="5"/>
       <c r="T146" s="5"/>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -4480,7 +4493,7 @@
       <c r="S147" s="5"/>
       <c r="T147" s="5"/>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -4501,7 +4514,7 @@
       <c r="S148" s="5"/>
       <c r="T148" s="5"/>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -4522,7 +4535,7 @@
       <c r="S149" s="5"/>
       <c r="T149" s="5"/>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -4543,7 +4556,7 @@
       <c r="S150" s="5"/>
       <c r="T150" s="5"/>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -4564,7 +4577,7 @@
       <c r="S151" s="5"/>
       <c r="T151" s="5"/>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -4585,7 +4598,7 @@
       <c r="S152" s="5"/>
       <c r="T152" s="5"/>
     </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -4606,7 +4619,7 @@
       <c r="S153" s="5"/>
       <c r="T153" s="5"/>
     </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -4627,7 +4640,7 @@
       <c r="S154" s="5"/>
       <c r="T154" s="5"/>
     </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -4648,7 +4661,7 @@
       <c r="S155" s="5"/>
       <c r="T155" s="5"/>
     </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -4669,7 +4682,7 @@
       <c r="S156" s="5"/>
       <c r="T156" s="5"/>
     </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -4690,7 +4703,7 @@
       <c r="S157" s="5"/>
       <c r="T157" s="5"/>
     </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -4711,7 +4724,7 @@
       <c r="S158" s="5"/>
       <c r="T158" s="5"/>
     </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -4732,7 +4745,7 @@
       <c r="S159" s="5"/>
       <c r="T159" s="5"/>
     </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -4753,7 +4766,7 @@
       <c r="S160" s="5"/>
       <c r="T160" s="5"/>
     </row>
-    <row r="161" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -4774,7 +4787,7 @@
       <c r="S161" s="5"/>
       <c r="T161" s="5"/>
     </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -4795,7 +4808,7 @@
       <c r="S162" s="5"/>
       <c r="T162" s="5"/>
     </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -4816,7 +4829,7 @@
       <c r="S163" s="5"/>
       <c r="T163" s="5"/>
     </row>
-    <row r="164" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -4837,7 +4850,7 @@
       <c r="S164" s="5"/>
       <c r="T164" s="5"/>
     </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -4858,7 +4871,7 @@
       <c r="S165" s="5"/>
       <c r="T165" s="5"/>
     </row>
-    <row r="166" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -4879,7 +4892,7 @@
       <c r="S166" s="5"/>
       <c r="T166" s="5"/>
     </row>
-    <row r="167" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -4900,7 +4913,7 @@
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
     </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -4921,7 +4934,7 @@
       <c r="S168" s="5"/>
       <c r="T168" s="5"/>
     </row>
-    <row r="169" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -4942,7 +4955,7 @@
       <c r="S169" s="5"/>
       <c r="T169" s="5"/>
     </row>
-    <row r="170" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -4963,7 +4976,7 @@
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
     </row>
-    <row r="171" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -4984,7 +4997,7 @@
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
     </row>
-    <row r="172" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -5005,7 +5018,7 @@
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
     </row>
-    <row r="173" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -5026,7 +5039,7 @@
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
     </row>
-    <row r="174" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -5047,7 +5060,7 @@
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
     </row>
-    <row r="175" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -5068,7 +5081,7 @@
       <c r="S175" s="5"/>
       <c r="T175" s="5"/>
     </row>
-    <row r="176" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -5089,7 +5102,7 @@
       <c r="S176" s="5"/>
       <c r="T176" s="5"/>
     </row>
-    <row r="177" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -5110,7 +5123,7 @@
       <c r="S177" s="5"/>
       <c r="T177" s="5"/>
     </row>
-    <row r="178" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -5131,7 +5144,7 @@
       <c r="S178" s="5"/>
       <c r="T178" s="5"/>
     </row>
-    <row r="179" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -5152,7 +5165,7 @@
       <c r="S179" s="5"/>
       <c r="T179" s="5"/>
     </row>
-    <row r="180" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -5173,7 +5186,7 @@
       <c r="S180" s="5"/>
       <c r="T180" s="5"/>
     </row>
-    <row r="181" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -5194,7 +5207,7 @@
       <c r="S181" s="5"/>
       <c r="T181" s="5"/>
     </row>
-    <row r="182" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -5215,7 +5228,7 @@
       <c r="S182" s="5"/>
       <c r="T182" s="5"/>
     </row>
-    <row r="183" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -5236,7 +5249,7 @@
       <c r="S183" s="5"/>
       <c r="T183" s="5"/>
     </row>
-    <row r="184" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -5257,7 +5270,7 @@
       <c r="S184" s="5"/>
       <c r="T184" s="5"/>
     </row>
-    <row r="185" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -5278,7 +5291,7 @@
       <c r="S185" s="5"/>
       <c r="T185" s="5"/>
     </row>
-    <row r="186" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -5299,7 +5312,7 @@
       <c r="S186" s="5"/>
       <c r="T186" s="5"/>
     </row>
-    <row r="187" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -5320,7 +5333,7 @@
       <c r="S187" s="5"/>
       <c r="T187" s="5"/>
     </row>
-    <row r="188" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -5341,7 +5354,7 @@
       <c r="S188" s="5"/>
       <c r="T188" s="5"/>
     </row>
-    <row r="189" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -5362,7 +5375,7 @@
       <c r="S189" s="5"/>
       <c r="T189" s="5"/>
     </row>
-    <row r="190" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -5383,7 +5396,7 @@
       <c r="S190" s="5"/>
       <c r="T190" s="5"/>
     </row>
-    <row r="191" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -5404,7 +5417,7 @@
       <c r="S191" s="5"/>
       <c r="T191" s="5"/>
     </row>
-    <row r="192" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -5425,7 +5438,7 @@
       <c r="S192" s="5"/>
       <c r="T192" s="5"/>
     </row>
-    <row r="193" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -5446,7 +5459,7 @@
       <c r="S193" s="5"/>
       <c r="T193" s="5"/>
     </row>
-    <row r="194" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -5467,7 +5480,7 @@
       <c r="S194" s="5"/>
       <c r="T194" s="5"/>
     </row>
-    <row r="195" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -5488,7 +5501,7 @@
       <c r="S195" s="5"/>
       <c r="T195" s="5"/>
     </row>
-    <row r="196" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -5509,7 +5522,7 @@
       <c r="S196" s="5"/>
       <c r="T196" s="5"/>
     </row>
-    <row r="197" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -5530,7 +5543,7 @@
       <c r="S197" s="5"/>
       <c r="T197" s="5"/>
     </row>
-    <row r="198" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -5551,7 +5564,7 @@
       <c r="S198" s="5"/>
       <c r="T198" s="5"/>
     </row>
-    <row r="199" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -5572,7 +5585,7 @@
       <c r="S199" s="5"/>
       <c r="T199" s="5"/>
     </row>
-    <row r="200" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -5593,610 +5606,610 @@
       <c r="S200" s="5"/>
       <c r="T200" s="5"/>
     </row>
-    <row r="201" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:20" x14ac:dyDescent="0.2">
       <c r="R201" s="20"/>
     </row>
-    <row r="202" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:20" x14ac:dyDescent="0.2">
       <c r="R202" s="20"/>
     </row>
-    <row r="203" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:20" x14ac:dyDescent="0.2">
       <c r="R203" s="20"/>
     </row>
-    <row r="204" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:20" x14ac:dyDescent="0.2">
       <c r="R204" s="20"/>
     </row>
-    <row r="205" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:20" x14ac:dyDescent="0.2">
       <c r="R205" s="20"/>
     </row>
-    <row r="206" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:20" x14ac:dyDescent="0.2">
       <c r="R206" s="20"/>
     </row>
-    <row r="207" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:20" x14ac:dyDescent="0.2">
       <c r="R207" s="20"/>
     </row>
-    <row r="208" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:20" x14ac:dyDescent="0.2">
       <c r="R208" s="20"/>
     </row>
-    <row r="209" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="209" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R209" s="20"/>
     </row>
-    <row r="210" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="210" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R210" s="20"/>
     </row>
-    <row r="211" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="211" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R211" s="20"/>
     </row>
-    <row r="212" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="212" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R212" s="20"/>
     </row>
-    <row r="213" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="213" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R213" s="20"/>
     </row>
-    <row r="214" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="214" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R214" s="20"/>
     </row>
-    <row r="215" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="215" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R215" s="20"/>
     </row>
-    <row r="216" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="216" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R216" s="20"/>
     </row>
-    <row r="217" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="217" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R217" s="20"/>
     </row>
-    <row r="218" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="218" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R218" s="20"/>
     </row>
-    <row r="219" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="219" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R219" s="20"/>
     </row>
-    <row r="220" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="220" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R220" s="20"/>
     </row>
-    <row r="221" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="221" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R221" s="20"/>
     </row>
-    <row r="222" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="222" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R222" s="20"/>
     </row>
-    <row r="223" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="223" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R223" s="20"/>
     </row>
-    <row r="224" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="224" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R224" s="20"/>
     </row>
-    <row r="225" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="225" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R225" s="20"/>
     </row>
-    <row r="226" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="226" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R226" s="20"/>
     </row>
-    <row r="227" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="227" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R227" s="20"/>
     </row>
-    <row r="228" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="228" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R228" s="20"/>
     </row>
-    <row r="229" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="229" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R229" s="20"/>
     </row>
-    <row r="230" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="230" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R230" s="20"/>
     </row>
-    <row r="231" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="231" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R231" s="20"/>
     </row>
-    <row r="232" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="232" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R232" s="20"/>
     </row>
-    <row r="233" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="233" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R233" s="20"/>
     </row>
-    <row r="234" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="234" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R234" s="20"/>
     </row>
-    <row r="235" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="235" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R235" s="20"/>
     </row>
-    <row r="236" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="236" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R236" s="20"/>
     </row>
-    <row r="237" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="237" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R237" s="20"/>
     </row>
-    <row r="238" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="238" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R238" s="20"/>
     </row>
-    <row r="239" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="239" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R239" s="20"/>
     </row>
-    <row r="240" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="240" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R240" s="20"/>
     </row>
-    <row r="241" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="241" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R241" s="20"/>
     </row>
-    <row r="242" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="242" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R242" s="20"/>
     </row>
-    <row r="243" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="243" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R243" s="20"/>
     </row>
-    <row r="244" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="244" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R244" s="20"/>
     </row>
-    <row r="245" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="245" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R245" s="20"/>
     </row>
-    <row r="246" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="246" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R246" s="20"/>
     </row>
-    <row r="247" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="247" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R247" s="20"/>
     </row>
-    <row r="248" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="248" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R248" s="20"/>
     </row>
-    <row r="249" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="249" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R249" s="20"/>
     </row>
-    <row r="250" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="250" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R250" s="20"/>
     </row>
-    <row r="251" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="251" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R251" s="20"/>
     </row>
-    <row r="252" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="252" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R252" s="20"/>
     </row>
-    <row r="253" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="253" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R253" s="20"/>
     </row>
-    <row r="254" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="254" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R254" s="20"/>
     </row>
-    <row r="255" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="255" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R255" s="20"/>
     </row>
-    <row r="256" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="256" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R256" s="20"/>
     </row>
-    <row r="257" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="257" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R257" s="20"/>
     </row>
-    <row r="258" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="258" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R258" s="20"/>
     </row>
-    <row r="259" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="259" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R259" s="20"/>
     </row>
-    <row r="260" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="260" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R260" s="20"/>
     </row>
-    <row r="261" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="261" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R261" s="20"/>
     </row>
-    <row r="262" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="262" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R262" s="20"/>
     </row>
-    <row r="263" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="263" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R263" s="20"/>
     </row>
-    <row r="264" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="264" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R264" s="20"/>
     </row>
-    <row r="265" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="265" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R265" s="20"/>
     </row>
-    <row r="266" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="266" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R266" s="20"/>
     </row>
-    <row r="267" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="267" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R267" s="20"/>
     </row>
-    <row r="268" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="268" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R268" s="20"/>
     </row>
-    <row r="269" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="269" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R269" s="20"/>
     </row>
-    <row r="270" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="270" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R270" s="20"/>
     </row>
-    <row r="271" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="271" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R271" s="20"/>
     </row>
-    <row r="272" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="272" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R272" s="20"/>
     </row>
-    <row r="273" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="273" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R273" s="20"/>
     </row>
-    <row r="274" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="274" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R274" s="20"/>
     </row>
-    <row r="275" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="275" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R275" s="20"/>
     </row>
-    <row r="276" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="276" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R276" s="20"/>
     </row>
-    <row r="277" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="277" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R277" s="20"/>
     </row>
-    <row r="278" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="278" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R278" s="20"/>
     </row>
-    <row r="279" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="279" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R279" s="20"/>
     </row>
-    <row r="280" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="280" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R280" s="20"/>
     </row>
-    <row r="281" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="281" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R281" s="20"/>
     </row>
-    <row r="282" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="282" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R282" s="20"/>
     </row>
-    <row r="283" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="283" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R283" s="20"/>
     </row>
-    <row r="284" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="284" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R284" s="20"/>
     </row>
-    <row r="285" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="285" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R285" s="20"/>
     </row>
-    <row r="286" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="286" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R286" s="20"/>
     </row>
-    <row r="287" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="287" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R287" s="20"/>
     </row>
-    <row r="288" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="288" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R288" s="20"/>
     </row>
-    <row r="289" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="289" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R289" s="20"/>
     </row>
-    <row r="290" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="290" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R290" s="20"/>
     </row>
-    <row r="291" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="291" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R291" s="20"/>
     </row>
-    <row r="292" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="292" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R292" s="20"/>
     </row>
-    <row r="293" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="293" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R293" s="20"/>
     </row>
-    <row r="294" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="294" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R294" s="20"/>
     </row>
-    <row r="295" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="295" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R295" s="20"/>
     </row>
-    <row r="296" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="296" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R296" s="20"/>
     </row>
-    <row r="297" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="297" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R297" s="20"/>
     </row>
-    <row r="298" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="298" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R298" s="20"/>
     </row>
-    <row r="299" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="299" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R299" s="20"/>
     </row>
-    <row r="300" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="300" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R300" s="20"/>
     </row>
-    <row r="301" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="301" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R301" s="20"/>
     </row>
-    <row r="302" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="302" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R302" s="20"/>
     </row>
-    <row r="303" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="303" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R303" s="20"/>
     </row>
-    <row r="304" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="304" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R304" s="20"/>
     </row>
-    <row r="305" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="305" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R305" s="20"/>
     </row>
-    <row r="306" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="306" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R306" s="20"/>
     </row>
-    <row r="307" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="307" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R307" s="20"/>
     </row>
-    <row r="308" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="308" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R308" s="20"/>
     </row>
-    <row r="309" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="309" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R309" s="20"/>
     </row>
-    <row r="310" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="310" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R310" s="20"/>
     </row>
-    <row r="311" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="311" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R311" s="20"/>
     </row>
-    <row r="312" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="312" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R312" s="20"/>
     </row>
-    <row r="313" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="313" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R313" s="20"/>
     </row>
-    <row r="314" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="314" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R314" s="20"/>
     </row>
-    <row r="315" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="315" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R315" s="20"/>
     </row>
-    <row r="316" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="316" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R316" s="20"/>
     </row>
-    <row r="317" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="317" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R317" s="20"/>
     </row>
-    <row r="318" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="318" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R318" s="20"/>
     </row>
-    <row r="319" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="319" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R319" s="20"/>
     </row>
-    <row r="320" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="320" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R320" s="20"/>
     </row>
-    <row r="321" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="321" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R321" s="20"/>
     </row>
-    <row r="322" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="322" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R322" s="20"/>
     </row>
-    <row r="323" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="323" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R323" s="20"/>
     </row>
-    <row r="324" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="324" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R324" s="20"/>
     </row>
-    <row r="325" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="325" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R325" s="20"/>
     </row>
-    <row r="326" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="326" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R326" s="20"/>
     </row>
-    <row r="327" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="327" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R327" s="20"/>
     </row>
-    <row r="328" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="328" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R328" s="20"/>
     </row>
-    <row r="329" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="329" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R329" s="20"/>
     </row>
-    <row r="330" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="330" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R330" s="20"/>
     </row>
-    <row r="331" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="331" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R331" s="20"/>
     </row>
-    <row r="332" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="332" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R332" s="20"/>
     </row>
-    <row r="333" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="333" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R333" s="20"/>
     </row>
-    <row r="334" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="334" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R334" s="20"/>
     </row>
-    <row r="335" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="335" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R335" s="20"/>
     </row>
-    <row r="336" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="336" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R336" s="20"/>
     </row>
-    <row r="337" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="337" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R337" s="20"/>
     </row>
-    <row r="338" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="338" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R338" s="20"/>
     </row>
-    <row r="339" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="339" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R339" s="20"/>
     </row>
-    <row r="340" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="340" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R340" s="20"/>
     </row>
-    <row r="341" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="341" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R341" s="20"/>
     </row>
-    <row r="342" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="342" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R342" s="20"/>
     </row>
-    <row r="343" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="343" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R343" s="20"/>
     </row>
-    <row r="344" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="344" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R344" s="20"/>
     </row>
-    <row r="345" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="345" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R345" s="20"/>
     </row>
-    <row r="346" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="346" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R346" s="20"/>
     </row>
-    <row r="347" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="347" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R347" s="20"/>
     </row>
-    <row r="348" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="348" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R348" s="20"/>
     </row>
-    <row r="349" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="349" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R349" s="20"/>
     </row>
-    <row r="350" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="350" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R350" s="20"/>
     </row>
-    <row r="351" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="351" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R351" s="20"/>
     </row>
-    <row r="352" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="352" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R352" s="20"/>
     </row>
-    <row r="353" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="353" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R353" s="20"/>
     </row>
-    <row r="354" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="354" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R354" s="20"/>
     </row>
-    <row r="355" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="355" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R355" s="20"/>
     </row>
-    <row r="356" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="356" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R356" s="20"/>
     </row>
-    <row r="357" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="357" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R357" s="20"/>
     </row>
-    <row r="358" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="358" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R358" s="20"/>
     </row>
-    <row r="359" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="359" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R359" s="20"/>
     </row>
-    <row r="360" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="360" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R360" s="20"/>
     </row>
-    <row r="361" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="361" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R361" s="20"/>
     </row>
-    <row r="362" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="362" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R362" s="20"/>
     </row>
-    <row r="363" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="363" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R363" s="20"/>
     </row>
-    <row r="364" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="364" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R364" s="20"/>
     </row>
-    <row r="365" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="365" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R365" s="20"/>
     </row>
-    <row r="366" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="366" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R366" s="20"/>
     </row>
-    <row r="367" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="367" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R367" s="20"/>
     </row>
-    <row r="368" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="368" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R368" s="20"/>
     </row>
-    <row r="369" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="369" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R369" s="20"/>
     </row>
-    <row r="370" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="370" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R370" s="20"/>
     </row>
-    <row r="371" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="371" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R371" s="20"/>
     </row>
-    <row r="372" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="372" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R372" s="20"/>
     </row>
-    <row r="373" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="373" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R373" s="20"/>
     </row>
-    <row r="374" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="374" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R374" s="20"/>
     </row>
-    <row r="375" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="375" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R375" s="20"/>
     </row>
-    <row r="376" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="376" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R376" s="20"/>
     </row>
-    <row r="377" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="377" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R377" s="20"/>
     </row>
-    <row r="378" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="378" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R378" s="20"/>
     </row>
-    <row r="379" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="379" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R379" s="20"/>
     </row>
-    <row r="380" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="380" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R380" s="20"/>
     </row>
-    <row r="381" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="381" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R381" s="20"/>
     </row>
-    <row r="382" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="382" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R382" s="20"/>
     </row>
-    <row r="383" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="383" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R383" s="20"/>
     </row>
-    <row r="384" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="384" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R384" s="20"/>
     </row>
-    <row r="385" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="385" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R385" s="20"/>
     </row>
-    <row r="386" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="386" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R386" s="20"/>
     </row>
-    <row r="387" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="387" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R387" s="20"/>
     </row>
-    <row r="388" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="388" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R388" s="20"/>
     </row>
-    <row r="389" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="389" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R389" s="20"/>
     </row>
-    <row r="390" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="390" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R390" s="20"/>
     </row>
-    <row r="391" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="391" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R391" s="20"/>
     </row>
-    <row r="392" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="392" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R392" s="20"/>
     </row>
-    <row r="393" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="393" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R393" s="20"/>
     </row>
-    <row r="394" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="394" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R394" s="20"/>
     </row>
-    <row r="395" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="395" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R395" s="20"/>
     </row>
-    <row r="396" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="396" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R396" s="20"/>
     </row>
-    <row r="397" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="397" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R397" s="20"/>
     </row>
-    <row r="398" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="398" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R398" s="20"/>
     </row>
-    <row r="399" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="399" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R399" s="20"/>
     </row>
-    <row r="400" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="400" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R400" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:T4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:T14">
-      <sortCondition ref="H4"/>
+      <sortCondition ref="H4:H14"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
@@ -6232,21 +6245,21 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="14" width="14.6328125" customWidth="1"/>
-    <col min="15" max="16" width="12.6328125" customWidth="1"/>
-    <col min="17" max="17" width="8.26953125" customWidth="1"/>
-    <col min="18" max="18" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -6257,7 +6270,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="15"/>
@@ -6272,7 +6285,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
@@ -6284,19 +6297,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="33">
-        <v>326840</v>
+        <v>319900</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -6321,7 +6334,7 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -6374,7 +6387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
@@ -6382,7 +6395,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>11.8</v>
+        <v>11.62</v>
       </c>
       <c r="E8" s="7">
         <v>11.9</v>
@@ -6416,11 +6429,11 @@
       </c>
       <c r="O8" s="6">
         <f t="shared" ref="O8:O14" si="0">(D8*G8)/$D$4</f>
-        <v>0.10830987639211846</v>
+        <v>0.10897155361050329</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" ref="P8:P14" si="1">D8/E8-1</f>
-        <v>-8.4033613445377853E-3</v>
+        <v>-2.3529411764706021E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
@@ -6429,53 +6442,53 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>10.64</v>
+        <v>1.77</v>
       </c>
       <c r="E9" s="7">
-        <v>10.31</v>
+        <v>1.75</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="9">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="H9" s="7">
-        <v>12.347246296726411</v>
+        <v>2.0424389077766301</v>
       </c>
       <c r="I9" s="6">
-        <v>4.2300888050327577E-2</v>
+        <v>5.9258551186562071E-3</v>
       </c>
       <c r="J9" s="17">
-        <v>3.7089690853896293</v>
+        <v>3.8517555372810004</v>
       </c>
       <c r="K9" s="17">
-        <v>11.003427197705268</v>
+        <v>375.74432118671399</v>
       </c>
       <c r="L9" s="17">
-        <v>3.4515437078973985</v>
+        <v>3.3798104771292734</v>
       </c>
       <c r="M9" s="17">
-        <v>6.5599984754845266</v>
+        <v>790.06633136094683</v>
       </c>
       <c r="N9" s="17">
-        <v>3.5134488326629425</v>
+        <v>3.4072159925759804</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="0"/>
-        <v>0.13021661975278423</v>
+        <v>0.22131916223819945</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="1"/>
-        <v>3.2007759456837981E-2</v>
+        <v>1.1428571428571344E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -6484,62 +6497,62 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>1.81</v>
+        <v>5.81</v>
       </c>
       <c r="E10" s="7">
-        <v>1.68</v>
+        <v>11.08</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="9">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="H10" s="7">
-        <v>1.9</v>
+        <v>7.2561683640432193</v>
       </c>
       <c r="I10" s="6">
-        <v>0.24675666120114281</v>
+        <v>5.4080520158737544E-2</v>
       </c>
       <c r="J10" s="17">
-        <v>3.2849980734912396</v>
+        <v>2.7703025360946434</v>
       </c>
       <c r="K10" s="17">
-        <v>6.8975825593510285</v>
+        <v>33.882537710882545</v>
       </c>
       <c r="L10" s="17">
-        <v>3.0135085780337438</v>
+        <v>2.6833569434046844</v>
       </c>
       <c r="M10" s="17">
-        <v>2.9855261680325449</v>
+        <v>13.913697527489473</v>
       </c>
       <c r="N10" s="17">
-        <v>2.4805745781286417</v>
+        <v>2.0088349318914984</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="0"/>
-        <v>8.8606045771631378E-2</v>
+        <v>7.264770240700219E-2</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="1"/>
-        <v>7.738095238095255E-2</v>
+        <v>-0.47563176895306858</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6547,7 +6560,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>18.600000000000001</v>
+        <v>17.68</v>
       </c>
       <c r="E11" s="7">
         <v>16.5</v>
@@ -6559,7 +6572,7 @@
         <v>2000</v>
       </c>
       <c r="H11" s="7">
-        <v>27.052702245830893</v>
+        <v>27.060723123569986</v>
       </c>
       <c r="I11" s="6">
         <v>0.45401790581878537</v>
@@ -6581,11 +6594,11 @@
       </c>
       <c r="O11" s="6">
         <f t="shared" si="0"/>
-        <v>0.11381715824256516</v>
+        <v>0.11053454204438887</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="1"/>
-        <v>0.12727272727272743</v>
+        <v>7.1515151515151532E-2</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -6594,108 +6607,108 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>4.2</v>
+        <v>10.52</v>
       </c>
       <c r="E12" s="7">
-        <v>5.61</v>
+        <v>10.31</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="9">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="H12" s="7">
-        <v>5.6203133724106253</v>
+        <v>12.347246296726411</v>
       </c>
       <c r="I12" s="6">
-        <v>0.1698771078411476</v>
+        <v>4.2300888050327577E-2</v>
       </c>
       <c r="J12" s="17">
-        <v>0.82306247297105539</v>
+        <v>3.7089690853896293</v>
       </c>
       <c r="K12" s="17">
-        <v>2.9769457748721253</v>
+        <v>11.003427197705268</v>
       </c>
       <c r="L12" s="17">
-        <v>0.57804911534654391</v>
+        <v>3.4515437078973985</v>
       </c>
       <c r="M12" s="17">
-        <v>2.4260977945497415</v>
+        <v>6.5599984754845266</v>
       </c>
       <c r="N12" s="17">
-        <v>0.59946117374446684</v>
+        <v>3.5134488326629425</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="0"/>
-        <v>0.25700648635417944</v>
+        <v>0.1315411065958112</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="1"/>
-        <v>-0.25133689839572193</v>
+        <v>2.0368574199805867E-2</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>5.98</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E13" s="7">
-        <v>11.08</v>
+        <v>5.61</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="9">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="H13" s="7">
-        <v>7.2270372798510838</v>
+        <v>5.6352378527907128</v>
       </c>
       <c r="I13" s="6">
-        <v>5.4080520158737544E-2</v>
+        <v>0.1698771078411476</v>
       </c>
       <c r="J13" s="17">
-        <v>2.7703025360946434</v>
+        <v>0.82306247297105539</v>
       </c>
       <c r="K13" s="17">
-        <v>33.882537710882545</v>
+        <v>2.9769457748721253</v>
       </c>
       <c r="L13" s="17">
-        <v>2.6833569434046844</v>
+        <v>0.57804911534654391</v>
       </c>
       <c r="M13" s="17">
-        <v>13.913697527489473</v>
+        <v>2.4260977945497415</v>
       </c>
       <c r="N13" s="17">
-        <v>2.0088349318914984</v>
+        <v>0.59946117374446684</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="0"/>
-        <v>7.3185656590380621E-2</v>
+        <v>0.25945608002500781</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="1"/>
-        <v>-0.46028880866425992</v>
+        <v>-0.26024955436720143</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
@@ -6704,53 +6717,53 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="E14" s="7">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="9">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="H14" s="7">
-        <v>2.2554744570316125</v>
+        <v>1.9</v>
       </c>
       <c r="I14" s="6">
-        <v>7.0180044128252995E-3</v>
+        <v>0.24675666120114281</v>
       </c>
       <c r="J14" s="17">
-        <v>6.3438867786740261</v>
+        <v>3.2849980734912396</v>
       </c>
       <c r="K14" s="17">
-        <v>322.82687224669604</v>
+        <v>6.8975825593510285</v>
       </c>
       <c r="L14" s="17">
-        <v>5.6698381536331262</v>
+        <v>3.0135085780337438</v>
       </c>
       <c r="M14" s="17">
-        <v>111.73261841837773</v>
+        <v>2.9855261680325449</v>
       </c>
       <c r="N14" s="17">
-        <v>5.5613492499085257</v>
+        <v>2.4805745781286417</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="0"/>
-        <v>0.22885815689634073</v>
+        <v>9.5529853079087221E-2</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="1"/>
-        <v>6.8571428571428727E-2</v>
+        <v>0.13690476190476186</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>9</v>
@@ -6759,7 +6772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -6778,7 +6791,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -6797,7 +6810,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -6816,7 +6829,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -6835,7 +6848,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -6854,7 +6867,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -6873,7 +6886,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -6892,7 +6905,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -6911,7 +6924,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -6930,7 +6943,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -6949,7 +6962,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -6968,7 +6981,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -6987,7 +7000,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -7006,7 +7019,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -7025,7 +7038,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -7044,7 +7057,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -7063,7 +7076,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -7082,7 +7095,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -7101,7 +7114,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -7120,7 +7133,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -7139,7 +7152,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -7158,7 +7171,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -7177,7 +7190,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -7196,7 +7209,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -7215,7 +7228,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -7234,7 +7247,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -7253,7 +7266,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -7272,7 +7285,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -7291,7 +7304,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -7310,7 +7323,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -7329,7 +7342,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -7348,7 +7361,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -7367,7 +7380,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -7386,7 +7399,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -7405,7 +7418,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -7424,7 +7437,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -7443,7 +7456,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -7462,7 +7475,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -7481,7 +7494,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -7500,7 +7513,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -7519,7 +7532,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -7538,7 +7551,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -7557,7 +7570,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -7576,7 +7589,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -7595,7 +7608,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -7614,7 +7627,7 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -7633,7 +7646,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
@@ -7652,7 +7665,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -7671,7 +7684,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="5"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -7690,7 +7703,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -7709,7 +7722,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="5"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -7728,7 +7741,7 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="5"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -7747,7 +7760,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -7766,7 +7779,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="5"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -7785,7 +7798,7 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="5"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -7804,7 +7817,7 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -7823,7 +7836,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -7842,7 +7855,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -7861,7 +7874,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -7880,7 +7893,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -7899,7 +7912,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -7918,7 +7931,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -7937,7 +7950,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="5"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -7956,7 +7969,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="5"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -7975,7 +7988,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="5"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -7994,7 +8007,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="5"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -8013,7 +8026,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="5"/>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -8032,7 +8045,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -8051,7 +8064,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="5"/>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -8070,7 +8083,7 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -8089,7 +8102,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -8108,7 +8121,7 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -8127,7 +8140,7 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
@@ -8146,7 +8159,7 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="5"/>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -8165,7 +8178,7 @@
       <c r="Q88" s="6"/>
       <c r="R88" s="5"/>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -8184,7 +8197,7 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
@@ -8203,7 +8216,7 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
@@ -8222,7 +8235,7 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="5"/>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
@@ -8241,7 +8254,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="5"/>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
@@ -8260,7 +8273,7 @@
       <c r="Q93" s="6"/>
       <c r="R93" s="5"/>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
@@ -8279,7 +8292,7 @@
       <c r="Q94" s="6"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
@@ -8298,7 +8311,7 @@
       <c r="Q95" s="6"/>
       <c r="R95" s="5"/>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
@@ -8317,7 +8330,7 @@
       <c r="Q96" s="6"/>
       <c r="R96" s="5"/>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
@@ -8336,7 +8349,7 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="5"/>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
@@ -8355,7 +8368,7 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="5"/>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
@@ -8374,7 +8387,7 @@
       <c r="Q99" s="6"/>
       <c r="R99" s="5"/>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
@@ -8393,7 +8406,7 @@
       <c r="Q100" s="6"/>
       <c r="R100" s="5"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
@@ -8412,7 +8425,7 @@
       <c r="Q101" s="6"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
@@ -8431,7 +8444,7 @@
       <c r="Q102" s="6"/>
       <c r="R102" s="5"/>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
@@ -8450,7 +8463,7 @@
       <c r="Q103" s="6"/>
       <c r="R103" s="5"/>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
@@ -8469,7 +8482,7 @@
       <c r="Q104" s="6"/>
       <c r="R104" s="5"/>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
@@ -8488,7 +8501,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="5"/>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
@@ -8507,7 +8520,7 @@
       <c r="Q106" s="6"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
@@ -8526,7 +8539,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
@@ -8545,7 +8558,7 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
@@ -8564,7 +8577,7 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
@@ -8583,7 +8596,7 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
@@ -8602,7 +8615,7 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="5"/>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -8621,7 +8634,7 @@
       <c r="Q112" s="6"/>
       <c r="R112" s="5"/>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
@@ -8640,7 +8653,7 @@
       <c r="Q113" s="6"/>
       <c r="R113" s="5"/>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
@@ -8659,7 +8672,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="5"/>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
@@ -8678,7 +8691,7 @@
       <c r="Q115" s="6"/>
       <c r="R115" s="5"/>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
@@ -8697,7 +8710,7 @@
       <c r="Q116" s="6"/>
       <c r="R116" s="5"/>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
@@ -8716,7 +8729,7 @@
       <c r="Q117" s="6"/>
       <c r="R117" s="5"/>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
@@ -8735,7 +8748,7 @@
       <c r="Q118" s="6"/>
       <c r="R118" s="5"/>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
@@ -8754,7 +8767,7 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
@@ -8773,7 +8786,7 @@
       <c r="Q120" s="6"/>
       <c r="R120" s="5"/>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
@@ -8792,7 +8805,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="5"/>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
@@ -8811,7 +8824,7 @@
       <c r="Q122" s="6"/>
       <c r="R122" s="5"/>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
@@ -8830,7 +8843,7 @@
       <c r="Q123" s="6"/>
       <c r="R123" s="5"/>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
@@ -8849,7 +8862,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="5"/>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -8868,7 +8881,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="5"/>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
@@ -8887,7 +8900,7 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="5"/>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
@@ -8906,7 +8919,7 @@
       <c r="Q127" s="6"/>
       <c r="R127" s="5"/>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
@@ -8925,7 +8938,7 @@
       <c r="Q128" s="6"/>
       <c r="R128" s="5"/>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -8944,7 +8957,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="5"/>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -8963,7 +8976,7 @@
       <c r="Q130" s="6"/>
       <c r="R130" s="5"/>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -8982,7 +8995,7 @@
       <c r="Q131" s="6"/>
       <c r="R131" s="5"/>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -9001,7 +9014,7 @@
       <c r="Q132" s="6"/>
       <c r="R132" s="5"/>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -9020,7 +9033,7 @@
       <c r="Q133" s="6"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -9039,7 +9052,7 @@
       <c r="Q134" s="6"/>
       <c r="R134" s="5"/>
     </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -9058,7 +9071,7 @@
       <c r="Q135" s="6"/>
       <c r="R135" s="5"/>
     </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -9077,7 +9090,7 @@
       <c r="Q136" s="6"/>
       <c r="R136" s="5"/>
     </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -9096,7 +9109,7 @@
       <c r="Q137" s="6"/>
       <c r="R137" s="5"/>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -9115,7 +9128,7 @@
       <c r="Q138" s="6"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -9134,7 +9147,7 @@
       <c r="Q139" s="6"/>
       <c r="R139" s="5"/>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -9153,7 +9166,7 @@
       <c r="Q140" s="6"/>
       <c r="R140" s="5"/>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -9172,7 +9185,7 @@
       <c r="Q141" s="6"/>
       <c r="R141" s="5"/>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -9191,7 +9204,7 @@
       <c r="Q142" s="6"/>
       <c r="R142" s="5"/>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -9210,7 +9223,7 @@
       <c r="Q143" s="6"/>
       <c r="R143" s="5"/>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -9229,7 +9242,7 @@
       <c r="Q144" s="6"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -9248,7 +9261,7 @@
       <c r="Q145" s="6"/>
       <c r="R145" s="5"/>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -9267,7 +9280,7 @@
       <c r="Q146" s="6"/>
       <c r="R146" s="5"/>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -9286,7 +9299,7 @@
       <c r="Q147" s="6"/>
       <c r="R147" s="5"/>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -9305,7 +9318,7 @@
       <c r="Q148" s="6"/>
       <c r="R148" s="5"/>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -9324,7 +9337,7 @@
       <c r="Q149" s="6"/>
       <c r="R149" s="5"/>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -9343,7 +9356,7 @@
       <c r="Q150" s="6"/>
       <c r="R150" s="5"/>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -9362,7 +9375,7 @@
       <c r="Q151" s="6"/>
       <c r="R151" s="5"/>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -9381,7 +9394,7 @@
       <c r="Q152" s="6"/>
       <c r="R152" s="5"/>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -9400,7 +9413,7 @@
       <c r="Q153" s="6"/>
       <c r="R153" s="5"/>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -9419,7 +9432,7 @@
       <c r="Q154" s="6"/>
       <c r="R154" s="5"/>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -9438,7 +9451,7 @@
       <c r="Q155" s="6"/>
       <c r="R155" s="5"/>
     </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -9457,7 +9470,7 @@
       <c r="Q156" s="6"/>
       <c r="R156" s="5"/>
     </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -9476,7 +9489,7 @@
       <c r="Q157" s="6"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -9495,7 +9508,7 @@
       <c r="Q158" s="6"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -9514,7 +9527,7 @@
       <c r="Q159" s="6"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -9533,7 +9546,7 @@
       <c r="Q160" s="6"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -9552,7 +9565,7 @@
       <c r="Q161" s="6"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -9571,7 +9584,7 @@
       <c r="Q162" s="6"/>
       <c r="R162" s="5"/>
     </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -9590,7 +9603,7 @@
       <c r="Q163" s="6"/>
       <c r="R163" s="5"/>
     </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -9609,7 +9622,7 @@
       <c r="Q164" s="6"/>
       <c r="R164" s="5"/>
     </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -9628,7 +9641,7 @@
       <c r="Q165" s="6"/>
       <c r="R165" s="5"/>
     </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -9647,7 +9660,7 @@
       <c r="Q166" s="6"/>
       <c r="R166" s="5"/>
     </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -9666,7 +9679,7 @@
       <c r="Q167" s="6"/>
       <c r="R167" s="5"/>
     </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -9685,7 +9698,7 @@
       <c r="Q168" s="6"/>
       <c r="R168" s="5"/>
     </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -9704,7 +9717,7 @@
       <c r="Q169" s="6"/>
       <c r="R169" s="5"/>
     </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -9723,7 +9736,7 @@
       <c r="Q170" s="6"/>
       <c r="R170" s="5"/>
     </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -9742,7 +9755,7 @@
       <c r="Q171" s="6"/>
       <c r="R171" s="5"/>
     </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -9761,7 +9774,7 @@
       <c r="Q172" s="6"/>
       <c r="R172" s="5"/>
     </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -9780,7 +9793,7 @@
       <c r="Q173" s="6"/>
       <c r="R173" s="5"/>
     </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -9799,7 +9812,7 @@
       <c r="Q174" s="6"/>
       <c r="R174" s="5"/>
     </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -9818,7 +9831,7 @@
       <c r="Q175" s="6"/>
       <c r="R175" s="5"/>
     </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -9837,7 +9850,7 @@
       <c r="Q176" s="6"/>
       <c r="R176" s="5"/>
     </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -9856,7 +9869,7 @@
       <c r="Q177" s="6"/>
       <c r="R177" s="5"/>
     </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -9875,7 +9888,7 @@
       <c r="Q178" s="6"/>
       <c r="R178" s="5"/>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -9894,7 +9907,7 @@
       <c r="Q179" s="6"/>
       <c r="R179" s="5"/>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -9913,7 +9926,7 @@
       <c r="Q180" s="6"/>
       <c r="R180" s="5"/>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -9932,7 +9945,7 @@
       <c r="Q181" s="6"/>
       <c r="R181" s="5"/>
     </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -9951,7 +9964,7 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="5"/>
     </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -9970,7 +9983,7 @@
       <c r="Q183" s="6"/>
       <c r="R183" s="5"/>
     </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -9989,7 +10002,7 @@
       <c r="Q184" s="6"/>
       <c r="R184" s="5"/>
     </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -10008,7 +10021,7 @@
       <c r="Q185" s="6"/>
       <c r="R185" s="5"/>
     </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -10027,7 +10040,7 @@
       <c r="Q186" s="6"/>
       <c r="R186" s="5"/>
     </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -10046,7 +10059,7 @@
       <c r="Q187" s="6"/>
       <c r="R187" s="5"/>
     </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -10065,7 +10078,7 @@
       <c r="Q188" s="6"/>
       <c r="R188" s="5"/>
     </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -10084,7 +10097,7 @@
       <c r="Q189" s="6"/>
       <c r="R189" s="5"/>
     </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -10103,7 +10116,7 @@
       <c r="Q190" s="6"/>
       <c r="R190" s="5"/>
     </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -10122,7 +10135,7 @@
       <c r="Q191" s="6"/>
       <c r="R191" s="5"/>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -10141,7 +10154,7 @@
       <c r="Q192" s="6"/>
       <c r="R192" s="5"/>
     </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -10160,7 +10173,7 @@
       <c r="Q193" s="6"/>
       <c r="R193" s="5"/>
     </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -10179,7 +10192,7 @@
       <c r="Q194" s="6"/>
       <c r="R194" s="5"/>
     </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -10198,7 +10211,7 @@
       <c r="Q195" s="6"/>
       <c r="R195" s="5"/>
     </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -10217,7 +10230,7 @@
       <c r="Q196" s="6"/>
       <c r="R196" s="5"/>
     </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -10236,7 +10249,7 @@
       <c r="Q197" s="6"/>
       <c r="R197" s="5"/>
     </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -10255,7 +10268,7 @@
       <c r="Q198" s="6"/>
       <c r="R198" s="5"/>
     </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -10274,7 +10287,7 @@
       <c r="Q199" s="6"/>
       <c r="R199" s="5"/>
     </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -10293,7 +10306,7 @@
       <c r="Q200" s="6"/>
       <c r="R200" s="5"/>
     </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -10311,799 +10324,799 @@
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O202" s="6"/>
       <c r="P202" s="6"/>
     </row>
-    <row r="203" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O203" s="6"/>
       <c r="P203" s="6"/>
     </row>
-    <row r="204" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O204" s="6"/>
       <c r="P204" s="6"/>
     </row>
-    <row r="205" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O205" s="6"/>
       <c r="P205" s="6"/>
     </row>
-    <row r="206" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O206" s="6"/>
       <c r="P206" s="6"/>
     </row>
-    <row r="207" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O207" s="6"/>
       <c r="P207" s="6"/>
     </row>
-    <row r="208" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O208" s="6"/>
       <c r="P208" s="6"/>
     </row>
-    <row r="209" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O209" s="6"/>
       <c r="P209" s="6"/>
     </row>
-    <row r="210" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O210" s="6"/>
       <c r="P210" s="6"/>
     </row>
-    <row r="211" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O211" s="6"/>
       <c r="P211" s="6"/>
     </row>
-    <row r="212" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O212" s="6"/>
       <c r="P212" s="6"/>
     </row>
-    <row r="213" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O213" s="6"/>
       <c r="P213" s="6"/>
     </row>
-    <row r="214" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O214" s="6"/>
       <c r="P214" s="6"/>
     </row>
-    <row r="215" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O215" s="6"/>
       <c r="P215" s="6"/>
     </row>
-    <row r="216" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O216" s="6"/>
       <c r="P216" s="6"/>
     </row>
-    <row r="217" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O217" s="6"/>
       <c r="P217" s="6"/>
     </row>
-    <row r="218" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O218" s="6"/>
       <c r="P218" s="6"/>
     </row>
-    <row r="219" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O219" s="6"/>
       <c r="P219" s="6"/>
     </row>
-    <row r="220" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O220" s="6"/>
       <c r="P220" s="6"/>
     </row>
-    <row r="221" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O221" s="6"/>
       <c r="P221" s="6"/>
     </row>
-    <row r="222" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O223" s="6"/>
       <c r="P223" s="6"/>
     </row>
-    <row r="224" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O224" s="6"/>
       <c r="P224" s="6"/>
     </row>
-    <row r="225" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O225" s="6"/>
       <c r="P225" s="6"/>
     </row>
-    <row r="226" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O226" s="6"/>
       <c r="P226" s="6"/>
     </row>
-    <row r="227" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O227" s="6"/>
       <c r="P227" s="6"/>
     </row>
-    <row r="228" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O228" s="6"/>
       <c r="P228" s="6"/>
     </row>
-    <row r="229" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O229" s="6"/>
       <c r="P229" s="6"/>
     </row>
-    <row r="230" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="230" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O230" s="6"/>
       <c r="P230" s="6"/>
     </row>
-    <row r="231" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="231" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O231" s="6"/>
       <c r="P231" s="6"/>
     </row>
-    <row r="232" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O232" s="6"/>
       <c r="P232" s="6"/>
     </row>
-    <row r="233" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O233" s="6"/>
       <c r="P233" s="6"/>
     </row>
-    <row r="234" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="234" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O234" s="6"/>
       <c r="P234" s="6"/>
     </row>
-    <row r="235" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O235" s="6"/>
       <c r="P235" s="6"/>
     </row>
-    <row r="236" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O236" s="6"/>
       <c r="P236" s="6"/>
     </row>
-    <row r="237" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="237" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O237" s="6"/>
       <c r="P237" s="6"/>
     </row>
-    <row r="238" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="238" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O238" s="6"/>
       <c r="P238" s="6"/>
     </row>
-    <row r="239" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="239" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O239" s="6"/>
       <c r="P239" s="6"/>
     </row>
-    <row r="240" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O240" s="6"/>
       <c r="P240" s="6"/>
     </row>
-    <row r="241" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="241" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O241" s="6"/>
       <c r="P241" s="6"/>
     </row>
-    <row r="242" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
     </row>
-    <row r="243" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
     </row>
-    <row r="244" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O244" s="6"/>
       <c r="P244" s="6"/>
     </row>
-    <row r="245" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O245" s="6"/>
       <c r="P245" s="6"/>
     </row>
-    <row r="246" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O246" s="6"/>
       <c r="P246" s="6"/>
     </row>
-    <row r="247" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O247" s="6"/>
       <c r="P247" s="6"/>
     </row>
-    <row r="248" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O248" s="6"/>
       <c r="P248" s="6"/>
     </row>
-    <row r="249" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O249" s="6"/>
       <c r="P249" s="6"/>
     </row>
-    <row r="250" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O250" s="6"/>
       <c r="P250" s="6"/>
     </row>
-    <row r="251" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="251" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
     </row>
-    <row r="252" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
     </row>
-    <row r="253" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O253" s="6"/>
       <c r="P253" s="6"/>
     </row>
-    <row r="254" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O254" s="6"/>
       <c r="P254" s="6"/>
     </row>
-    <row r="255" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O255" s="6"/>
       <c r="P255" s="6"/>
     </row>
-    <row r="256" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O256" s="6"/>
       <c r="P256" s="6"/>
     </row>
-    <row r="257" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="257" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O257" s="6"/>
       <c r="P257" s="6"/>
     </row>
-    <row r="258" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="258" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O258" s="6"/>
       <c r="P258" s="6"/>
     </row>
-    <row r="259" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="259" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O259" s="6"/>
       <c r="P259" s="6"/>
     </row>
-    <row r="260" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O260" s="6"/>
       <c r="P260" s="6"/>
     </row>
-    <row r="261" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O261" s="6"/>
       <c r="P261" s="6"/>
     </row>
-    <row r="262" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O262" s="6"/>
       <c r="P262" s="6"/>
     </row>
-    <row r="263" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O263" s="6"/>
       <c r="P263" s="6"/>
     </row>
-    <row r="264" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="264" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O264" s="6"/>
       <c r="P264" s="6"/>
     </row>
-    <row r="265" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O265" s="6"/>
       <c r="P265" s="6"/>
     </row>
-    <row r="266" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O266" s="6"/>
       <c r="P266" s="6"/>
     </row>
-    <row r="267" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O267" s="6"/>
       <c r="P267" s="6"/>
     </row>
-    <row r="268" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="268" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O268" s="6"/>
       <c r="P268" s="6"/>
     </row>
-    <row r="269" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="269" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O269" s="6"/>
       <c r="P269" s="6"/>
     </row>
-    <row r="270" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="270" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O270" s="6"/>
       <c r="P270" s="6"/>
     </row>
-    <row r="271" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O271" s="6"/>
       <c r="P271" s="6"/>
     </row>
-    <row r="272" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="272" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O272" s="6"/>
       <c r="P272" s="6"/>
     </row>
-    <row r="273" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="273" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O273" s="6"/>
       <c r="P273" s="6"/>
     </row>
-    <row r="274" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="274" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O274" s="6"/>
       <c r="P274" s="6"/>
     </row>
-    <row r="275" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="275" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O275" s="6"/>
       <c r="P275" s="6"/>
     </row>
-    <row r="276" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="276" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O276" s="6"/>
       <c r="P276" s="6"/>
     </row>
-    <row r="277" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="277" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O277" s="6"/>
       <c r="P277" s="6"/>
     </row>
-    <row r="278" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="278" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O278" s="6"/>
       <c r="P278" s="6"/>
     </row>
-    <row r="279" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="279" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O279" s="6"/>
       <c r="P279" s="6"/>
     </row>
-    <row r="280" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="280" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O280" s="6"/>
       <c r="P280" s="6"/>
     </row>
-    <row r="281" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="281" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O281" s="6"/>
       <c r="P281" s="6"/>
     </row>
-    <row r="282" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="282" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O282" s="6"/>
       <c r="P282" s="6"/>
     </row>
-    <row r="283" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="283" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O283" s="6"/>
       <c r="P283" s="6"/>
     </row>
-    <row r="284" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="284" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O284" s="6"/>
       <c r="P284" s="6"/>
     </row>
-    <row r="285" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="285" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O285" s="6"/>
       <c r="P285" s="6"/>
     </row>
-    <row r="286" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="286" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O286" s="6"/>
       <c r="P286" s="6"/>
     </row>
-    <row r="287" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="287" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O287" s="6"/>
       <c r="P287" s="6"/>
     </row>
-    <row r="288" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="288" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O288" s="6"/>
       <c r="P288" s="6"/>
     </row>
-    <row r="289" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="289" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O289" s="6"/>
       <c r="P289" s="6"/>
     </row>
-    <row r="290" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="290" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O290" s="6"/>
       <c r="P290" s="6"/>
     </row>
-    <row r="291" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="291" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O291" s="6"/>
       <c r="P291" s="6"/>
     </row>
-    <row r="292" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="292" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O292" s="6"/>
       <c r="P292" s="6"/>
     </row>
-    <row r="293" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="293" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O293" s="6"/>
       <c r="P293" s="6"/>
     </row>
-    <row r="294" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="294" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O294" s="6"/>
       <c r="P294" s="6"/>
     </row>
-    <row r="295" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="295" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O295" s="6"/>
       <c r="P295" s="6"/>
     </row>
-    <row r="296" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="296" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O296" s="6"/>
       <c r="P296" s="6"/>
     </row>
-    <row r="297" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="297" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O297" s="6"/>
       <c r="P297" s="6"/>
     </row>
-    <row r="298" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="298" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O298" s="6"/>
       <c r="P298" s="6"/>
     </row>
-    <row r="299" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="299" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O299" s="6"/>
       <c r="P299" s="6"/>
     </row>
-    <row r="300" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="300" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O300" s="6"/>
       <c r="P300" s="6"/>
     </row>
-    <row r="301" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="301" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O301" s="6"/>
       <c r="P301" s="6"/>
     </row>
-    <row r="302" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="302" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O302" s="6"/>
       <c r="P302" s="6"/>
     </row>
-    <row r="303" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="303" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O303" s="6"/>
       <c r="P303" s="6"/>
     </row>
-    <row r="304" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="304" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O304" s="6"/>
       <c r="P304" s="6"/>
     </row>
-    <row r="305" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="305" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O305" s="6"/>
       <c r="P305" s="6"/>
     </row>
-    <row r="306" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="306" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O306" s="6"/>
       <c r="P306" s="6"/>
     </row>
-    <row r="307" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="307" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O307" s="6"/>
       <c r="P307" s="6"/>
     </row>
-    <row r="308" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="308" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O308" s="6"/>
       <c r="P308" s="6"/>
     </row>
-    <row r="309" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="309" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O309" s="6"/>
       <c r="P309" s="6"/>
     </row>
-    <row r="310" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="310" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O310" s="6"/>
       <c r="P310" s="6"/>
     </row>
-    <row r="311" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="311" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O311" s="6"/>
       <c r="P311" s="6"/>
     </row>
-    <row r="312" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="312" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O312" s="6"/>
       <c r="P312" s="6"/>
     </row>
-    <row r="313" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="313" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O313" s="6"/>
       <c r="P313" s="6"/>
     </row>
-    <row r="314" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="314" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O314" s="6"/>
       <c r="P314" s="6"/>
     </row>
-    <row r="315" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="315" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O315" s="6"/>
       <c r="P315" s="6"/>
     </row>
-    <row r="316" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="316" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O316" s="6"/>
       <c r="P316" s="6"/>
     </row>
-    <row r="317" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="317" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O317" s="6"/>
       <c r="P317" s="6"/>
     </row>
-    <row r="318" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="318" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O318" s="6"/>
       <c r="P318" s="6"/>
     </row>
-    <row r="319" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="319" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O319" s="6"/>
       <c r="P319" s="6"/>
     </row>
-    <row r="320" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="320" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O320" s="6"/>
       <c r="P320" s="6"/>
     </row>
-    <row r="321" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="321" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O321" s="6"/>
       <c r="P321" s="6"/>
     </row>
-    <row r="322" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="322" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O322" s="6"/>
       <c r="P322" s="6"/>
     </row>
-    <row r="323" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="323" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O323" s="6"/>
       <c r="P323" s="6"/>
     </row>
-    <row r="324" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="324" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O324" s="6"/>
       <c r="P324" s="6"/>
     </row>
-    <row r="325" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="325" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O325" s="6"/>
       <c r="P325" s="6"/>
     </row>
-    <row r="326" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="326" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O326" s="6"/>
       <c r="P326" s="6"/>
     </row>
-    <row r="327" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="327" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O327" s="6"/>
       <c r="P327" s="6"/>
     </row>
-    <row r="328" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="328" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O328" s="6"/>
       <c r="P328" s="6"/>
     </row>
-    <row r="329" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="329" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O329" s="6"/>
       <c r="P329" s="6"/>
     </row>
-    <row r="330" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="330" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O330" s="6"/>
       <c r="P330" s="6"/>
     </row>
-    <row r="331" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="331" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O331" s="6"/>
       <c r="P331" s="6"/>
     </row>
-    <row r="332" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="332" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O332" s="6"/>
       <c r="P332" s="6"/>
     </row>
-    <row r="333" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="333" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O333" s="6"/>
       <c r="P333" s="6"/>
     </row>
-    <row r="334" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="334" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O334" s="6"/>
       <c r="P334" s="6"/>
     </row>
-    <row r="335" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="335" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O335" s="6"/>
       <c r="P335" s="6"/>
     </row>
-    <row r="336" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="336" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O336" s="6"/>
       <c r="P336" s="6"/>
     </row>
-    <row r="337" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="337" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O337" s="6"/>
       <c r="P337" s="6"/>
     </row>
-    <row r="338" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="338" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O338" s="6"/>
       <c r="P338" s="6"/>
     </row>
-    <row r="339" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="339" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O339" s="6"/>
       <c r="P339" s="6"/>
     </row>
-    <row r="340" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="340" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O340" s="6"/>
       <c r="P340" s="6"/>
     </row>
-    <row r="341" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="341" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O341" s="6"/>
       <c r="P341" s="6"/>
     </row>
-    <row r="342" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="342" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O342" s="6"/>
       <c r="P342" s="6"/>
     </row>
-    <row r="343" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="343" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O343" s="6"/>
       <c r="P343" s="6"/>
     </row>
-    <row r="344" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="344" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O344" s="6"/>
       <c r="P344" s="6"/>
     </row>
-    <row r="345" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="345" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O345" s="6"/>
       <c r="P345" s="6"/>
     </row>
-    <row r="346" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="346" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O346" s="6"/>
       <c r="P346" s="6"/>
     </row>
-    <row r="347" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="347" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O347" s="6"/>
       <c r="P347" s="6"/>
     </row>
-    <row r="348" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="348" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O348" s="6"/>
       <c r="P348" s="6"/>
     </row>
-    <row r="349" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="349" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O349" s="6"/>
       <c r="P349" s="6"/>
     </row>
-    <row r="350" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="350" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O350" s="6"/>
       <c r="P350" s="6"/>
     </row>
-    <row r="351" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="351" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O351" s="6"/>
       <c r="P351" s="6"/>
     </row>
-    <row r="352" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="352" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O352" s="6"/>
       <c r="P352" s="6"/>
     </row>
-    <row r="353" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="353" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O353" s="6"/>
       <c r="P353" s="6"/>
     </row>
-    <row r="354" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="354" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O354" s="6"/>
       <c r="P354" s="6"/>
     </row>
-    <row r="355" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="355" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O355" s="6"/>
       <c r="P355" s="6"/>
     </row>
-    <row r="356" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="356" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O356" s="6"/>
       <c r="P356" s="6"/>
     </row>
-    <row r="357" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="357" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O357" s="6"/>
       <c r="P357" s="6"/>
     </row>
-    <row r="358" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="358" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O358" s="6"/>
       <c r="P358" s="6"/>
     </row>
-    <row r="359" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="359" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O359" s="6"/>
       <c r="P359" s="6"/>
     </row>
-    <row r="360" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="360" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O360" s="6"/>
       <c r="P360" s="6"/>
     </row>
-    <row r="361" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="361" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O361" s="6"/>
       <c r="P361" s="6"/>
     </row>
-    <row r="362" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="362" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O362" s="6"/>
       <c r="P362" s="6"/>
     </row>
-    <row r="363" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="363" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O363" s="6"/>
       <c r="P363" s="6"/>
     </row>
-    <row r="364" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="364" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O364" s="6"/>
       <c r="P364" s="6"/>
     </row>
-    <row r="365" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="365" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O365" s="6"/>
       <c r="P365" s="6"/>
     </row>
-    <row r="366" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="366" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O366" s="6"/>
       <c r="P366" s="6"/>
     </row>
-    <row r="367" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="367" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O367" s="6"/>
       <c r="P367" s="6"/>
     </row>
-    <row r="368" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="368" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O368" s="6"/>
       <c r="P368" s="6"/>
     </row>
-    <row r="369" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="369" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O369" s="6"/>
       <c r="P369" s="6"/>
     </row>
-    <row r="370" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="370" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O370" s="6"/>
       <c r="P370" s="6"/>
     </row>
-    <row r="371" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="371" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O371" s="6"/>
       <c r="P371" s="6"/>
     </row>
-    <row r="372" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="372" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O372" s="6"/>
       <c r="P372" s="6"/>
     </row>
-    <row r="373" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="373" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O373" s="6"/>
       <c r="P373" s="6"/>
     </row>
-    <row r="374" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="374" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O374" s="6"/>
       <c r="P374" s="6"/>
     </row>
-    <row r="375" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="375" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O375" s="6"/>
       <c r="P375" s="6"/>
     </row>
-    <row r="376" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="376" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O376" s="6"/>
       <c r="P376" s="6"/>
     </row>
-    <row r="377" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="377" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O377" s="6"/>
       <c r="P377" s="6"/>
     </row>
-    <row r="378" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="378" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O378" s="6"/>
       <c r="P378" s="6"/>
     </row>
-    <row r="379" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="379" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O379" s="6"/>
       <c r="P379" s="6"/>
     </row>
-    <row r="380" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="380" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O380" s="6"/>
       <c r="P380" s="6"/>
     </row>
-    <row r="381" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="381" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O381" s="6"/>
       <c r="P381" s="6"/>
     </row>
-    <row r="382" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="382" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O382" s="6"/>
       <c r="P382" s="6"/>
     </row>
-    <row r="383" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="383" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O383" s="6"/>
       <c r="P383" s="6"/>
     </row>
-    <row r="384" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="384" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O384" s="6"/>
       <c r="P384" s="6"/>
     </row>
-    <row r="385" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="385" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O385" s="6"/>
       <c r="P385" s="6"/>
     </row>
-    <row r="386" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="386" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O386" s="6"/>
       <c r="P386" s="6"/>
     </row>
-    <row r="387" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="387" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O387" s="6"/>
       <c r="P387" s="6"/>
     </row>
-    <row r="388" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="388" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O388" s="6"/>
       <c r="P388" s="6"/>
     </row>
-    <row r="389" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="389" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O389" s="6"/>
       <c r="P389" s="6"/>
     </row>
-    <row r="390" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="390" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O390" s="6"/>
       <c r="P390" s="6"/>
     </row>
-    <row r="391" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="391" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O391" s="6"/>
       <c r="P391" s="6"/>
     </row>
-    <row r="392" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="392" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O392" s="6"/>
       <c r="P392" s="6"/>
     </row>
-    <row r="393" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="393" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O393" s="6"/>
       <c r="P393" s="6"/>
     </row>
-    <row r="394" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="394" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O394" s="6"/>
       <c r="P394" s="6"/>
     </row>
-    <row r="395" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="395" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O395" s="6"/>
       <c r="P395" s="6"/>
     </row>
-    <row r="396" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="396" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O396" s="6"/>
       <c r="P396" s="6"/>
     </row>
-    <row r="397" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="397" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O397" s="6"/>
       <c r="P397" s="6"/>
     </row>
-    <row r="398" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="398" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O398" s="6"/>
       <c r="P398" s="6"/>
     </row>
-    <row r="399" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="399" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O399" s="6"/>
       <c r="P399" s="6"/>
     </row>
-    <row r="400" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="400" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O400" s="6"/>
       <c r="P400" s="6"/>
     </row>
@@ -11140,14 +11153,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>71</v>
@@ -11160,12 +11173,12 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -11178,7 +11191,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -11191,7 +11204,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>69</v>
       </c>
@@ -11199,7 +11212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>70</v>
       </c>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc/financial_models/Opportunities/Monitor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292170AC-2E1F-0E45-850A-74335B996360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F996ED97-42C1-4AFE-8BFA-8C100303859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$7:$R$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$T$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -264,6 +251,33 @@
   </si>
   <si>
     <t>HK Account:</t>
+  </si>
+  <si>
+    <t>0088.HK</t>
+  </si>
+  <si>
+    <t>TAI CHEUNG HOLD</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>603610.SS</t>
+  </si>
+  <si>
+    <t>KEESON TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>SHH</t>
+  </si>
+  <si>
+    <t>9982.HK</t>
+  </si>
+  <si>
+    <t>CENTRALCHINA MT</t>
   </si>
 </sst>
 </file>
@@ -983,20 +997,20 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="14.5" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.6328125" customWidth="1"/>
+    <col min="6" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="16" width="14.6328125" customWidth="1"/>
+    <col min="17" max="17" width="14.453125" customWidth="1"/>
+    <col min="18" max="18" width="16.6328125" customWidth="1"/>
+    <col min="20" max="20" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1020,7 +1034,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D3" s="26" t="s">
         <v>18</v>
       </c>
@@ -1041,7 +1055,7 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1100,7 +1114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
@@ -1108,20 +1122,20 @@
         <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>11.62</v>
+        <v>11.66</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="6">
-        <v>-5.0795335510036704E-2</v>
+        <v>-2.0170970386914094E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.3029259896729781E-2</v>
+        <v>4.2881646655231559E-2</v>
       </c>
       <c r="H5" s="6">
         <f>D5/I5-1</f>
-        <v>4.8736462093862842E-2</v>
+        <v>5.2346570397111991E-2</v>
       </c>
       <c r="I5" s="7">
         <v>11.08</v>
@@ -1130,22 +1144,22 @@
         <v>3000</v>
       </c>
       <c r="K5" s="7">
-        <v>13.106941291608036</v>
+        <v>13.329505058218302</v>
       </c>
       <c r="L5" s="7">
-        <v>10.560676235026312</v>
+        <v>11.274263452830414</v>
       </c>
       <c r="M5" s="7">
-        <v>13.106941291608036</v>
+        <v>13.329505058218302</v>
       </c>
       <c r="N5" s="7">
-        <v>12.191758201373373</v>
+        <v>12.590806485288581</v>
       </c>
       <c r="O5" s="7">
-        <v>11.083416546703065</v>
+        <v>11.446187713898709</v>
       </c>
       <c r="P5" s="7">
-        <v>9.7534065610986982</v>
+        <v>10.072645188230865</v>
       </c>
       <c r="Q5" s="8">
         <v>44926</v>
@@ -1160,7 +1174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
@@ -1168,26 +1182,26 @@
         <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>10.52</v>
+        <v>10.7</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="6">
-        <v>-5.9579527989684605E-2</v>
+        <v>-7.708192845340936E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>5.3231939163498103E-2</v>
+        <v>5.2336448598130851E-2</v>
       </c>
       <c r="H6" s="6">
         <f>D6/I6-1</f>
-        <v>6.2626262626262585E-2</v>
+        <v>8.0808080808080662E-2</v>
       </c>
       <c r="I6" s="7">
         <v>9.9</v>
       </c>
       <c r="J6" s="9">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="K6" s="7">
         <v>12.347246296726411</v>
@@ -1220,58 +1234,58 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D7" s="7">
-        <v>1.77</v>
+        <v>3.75</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>-1.9833198710867889E-2</v>
+        <v>-9.5067906447583367E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>0.14234269181662806</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
-        <v>9.259259259259256E-2</v>
+        <v>9.460132386808362E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>1.62</v>
+        <v>3.4259048643832384</v>
       </c>
       <c r="J7" s="9">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="K7" s="7">
-        <v>2.0424389077766301</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L7" s="7">
-        <v>1.8010410913637067</v>
+        <v>2.7</v>
       </c>
       <c r="M7" s="7">
-        <v>2.0424389077766301</v>
+        <v>5.0267730771168022</v>
       </c>
       <c r="N7" s="7">
-        <v>1.9118952382817638</v>
+        <v>3.7684953508215626</v>
       </c>
       <c r="O7" s="7">
-        <v>1.7380865802561487</v>
+        <v>3.4259048643832384</v>
       </c>
       <c r="P7" s="7">
-        <v>1.5295161906254111</v>
+        <v>3.0147962806572499</v>
       </c>
       <c r="Q7" s="8">
-        <v>44926</v>
+        <v>44651</v>
       </c>
       <c r="R7" s="8">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="S7" s="16" t="s">
         <v>9</v>
@@ -1280,67 +1294,67 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>17.68</v>
+        <v>45.7</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="6">
-        <v>1.3266309094818268E-2</v>
+        <v>-0.36836033189280337</v>
       </c>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>8.0618232710356244E-2</v>
       </c>
       <c r="H8" s="6">
         <f>D8/I8-1</f>
-        <v>0.17866666666666675</v>
+        <v>0.50347233474338227</v>
       </c>
       <c r="I8" s="7">
-        <v>15</v>
+        <v>30.396302574998984</v>
       </c>
       <c r="J8" s="9">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="K8" s="7">
-        <v>27.060723123569986</v>
+        <v>44.229402359676079</v>
       </c>
       <c r="L8" s="7">
-        <v>7.2227480450621648</v>
+        <v>22.696137749529132</v>
       </c>
       <c r="M8" s="7">
-        <v>27.060723123569986</v>
+        <v>40.483115114538826</v>
       </c>
       <c r="N8" s="7">
-        <v>19.682548344796388</v>
+        <v>33.435932832498885</v>
       </c>
       <c r="O8" s="7">
-        <v>17.893225767996714</v>
+        <v>30.396302574998984</v>
       </c>
       <c r="P8" s="7">
-        <v>15.746038675837109</v>
+        <v>26.74874626599911</v>
       </c>
       <c r="Q8" s="8">
-        <v>44926</v>
+        <v>44651</v>
       </c>
       <c r="R8" s="8">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="S8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
@@ -1348,26 +1362,26 @@
         <v>43</v>
       </c>
       <c r="D9" s="7">
-        <v>19.899999999999999</v>
+        <v>19.64</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.16393631132138012</v>
+        <v>-0.15154442949569583</v>
       </c>
       <c r="G9" s="6">
-        <v>6.7839195979899514E-2</v>
+        <v>6.8737270875763756E-2</v>
       </c>
       <c r="H9" s="6">
         <f>D9/I9-1</f>
-        <v>0.20606060606060606</v>
+        <v>0.19030303030303042</v>
       </c>
       <c r="I9" s="7">
         <v>16.5</v>
       </c>
       <c r="J9" s="9">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="K9" s="7">
         <v>19</v>
@@ -1400,52 +1414,52 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>5.81</v>
+        <v>2.13</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6">
-        <v>-7.2315459919000402E-3</v>
+        <v>-0.45420506423390372</v>
       </c>
       <c r="G10" s="6">
-        <v>5.3554906570836176E-2</v>
+        <v>5.7981220657276997E-2</v>
       </c>
       <c r="H10" s="6">
         <f>D10/I10-1</f>
-        <v>0.2104166666666667</v>
+        <v>0.93636363636363606</v>
       </c>
       <c r="I10" s="7">
-        <v>4.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J10" s="9">
-        <v>8000</v>
+        <v>60000</v>
       </c>
       <c r="K10" s="7">
-        <v>7.2561683640432193</v>
+        <v>1.9</v>
       </c>
       <c r="L10" s="7">
-        <v>3.0211787458516843</v>
+        <v>1.1255593142346405</v>
       </c>
       <c r="M10" s="7">
-        <v>8.4865789595183294</v>
+        <v>1.4811715330371442</v>
       </c>
       <c r="N10" s="7">
-        <v>6.3489847177870598</v>
+        <v>1.3755432131817849</v>
       </c>
       <c r="O10" s="7">
-        <v>5.7718042888973269</v>
+        <v>1.2504938301652588</v>
       </c>
       <c r="P10" s="7">
-        <v>5.0791877742296476</v>
+        <v>1.1004345705454279</v>
       </c>
       <c r="Q10" s="8">
         <v>44561</v>
@@ -1457,10 +1471,10 @@
         <v>9</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>65</v>
       </c>
@@ -1468,7 +1482,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>2.4500000000000002</v>
+        <v>2.36</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
@@ -1481,7 +1495,7 @@
       </c>
       <c r="H11" s="6">
         <f>D11/I11-1</f>
-        <v>0.31720430107526876</v>
+        <v>0.26881720430107503</v>
       </c>
       <c r="I11" s="7">
         <v>1.86</v>
@@ -1520,67 +1534,61 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>46.3</v>
+        <v>20.45</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="6">
-        <v>-0.41954450933617249</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="6">
-        <v>7.9682528981208103E-2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6">
         <f>D12/I12-1</f>
-        <v>0.61656422072056505</v>
+        <v>0.36333333333333329</v>
       </c>
       <c r="I12" s="7">
-        <v>28.6409901979411</v>
+        <v>15</v>
       </c>
       <c r="J12" s="9">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="7">
-        <v>44.07399545192299</v>
+        <v>-1.934748458322046</v>
       </c>
       <c r="L12" s="7">
-        <v>21.393241960205739</v>
+        <v>-2.4825554219921369</v>
       </c>
       <c r="M12" s="7">
-        <v>38.140227996588997</v>
-      </c>
-      <c r="N12" s="7">
-        <v>31.505089217735211</v>
-      </c>
-      <c r="O12" s="7">
-        <v>28.6409901979411</v>
-      </c>
-      <c r="P12" s="7">
-        <v>25.204071374188167</v>
-      </c>
+        <v>-1.934748458322046</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="8">
-        <v>44651</v>
+        <v>44926</v>
       </c>
       <c r="R12" s="8">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="S12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -1588,20 +1596,20 @@
         <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>4.1500000000000004</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="6">
-        <v>-0.24527173295909413</v>
+        <v>-0.37210803569384443</v>
       </c>
       <c r="G13" s="6">
-        <v>4.9671830901180394E-2</v>
+        <v>4.2512968651153754E-2</v>
       </c>
       <c r="H13" s="6">
         <f>D13/I13-1</f>
-        <v>0.72916666666666696</v>
+        <v>0.98749999999999982</v>
       </c>
       <c r="I13" s="7">
         <v>2.4</v>
@@ -1610,22 +1618,22 @@
         <v>20000</v>
       </c>
       <c r="K13" s="7">
-        <v>5.6352378527907128</v>
+        <v>5.5436244047265006</v>
       </c>
       <c r="L13" s="7">
-        <v>1.7365480027410318</v>
+        <v>1.6805439928309407</v>
       </c>
       <c r="M13" s="7">
-        <v>6.5896167524401346</v>
+        <v>6.4824877318232357</v>
       </c>
       <c r="N13" s="7">
-        <v>3.5471223082197598</v>
+        <v>3.4720446697403617</v>
       </c>
       <c r="O13" s="7">
-        <v>3.2246566438361453</v>
+        <v>3.1564042452185106</v>
       </c>
       <c r="P13" s="7">
-        <v>2.837697846575808</v>
+        <v>2.7776357357922894</v>
       </c>
       <c r="Q13" s="8">
         <v>44561</v>
@@ -1640,130 +1648,247 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7">
-        <v>1.91</v>
+        <v>11.4</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F14" s="6">
-        <v>-0.37868912844328173</v>
+        <v>-0.1543897372529324</v>
       </c>
       <c r="G14" s="6">
-        <v>6.4659685863874342E-2</v>
-      </c>
-      <c r="H14" s="6">
+        <v>1.9298245614035089E-2</v>
+      </c>
+      <c r="H14" s="6" t="e">
         <f>D14/I14-1</f>
-        <v>0.73636363636363611</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I14" s="7">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J14" s="9">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>1.9</v>
+        <v>15.13</v>
       </c>
       <c r="L14" s="7">
-        <v>1.1277198657261875</v>
+        <v>7.086018344695086</v>
       </c>
       <c r="M14" s="7">
-        <v>1.4833320845286913</v>
+        <v>15.13</v>
       </c>
       <c r="N14" s="7">
-        <v>1.3777037646733319</v>
+        <v>10.779956995316571</v>
       </c>
       <c r="O14" s="7">
-        <v>1.2524579678848471</v>
+        <v>9.7999609048332452</v>
       </c>
       <c r="P14" s="7">
-        <v>1.1021630117386656</v>
+        <v>8.6239655962532566</v>
       </c>
       <c r="Q14" s="8">
         <v>44561</v>
       </c>
       <c r="R14" s="8">
+        <v>45077</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.13272814393720309</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6.0018725477792079E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <f>D15/I15-1</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="J15" s="9">
+        <v>8000</v>
+      </c>
+      <c r="K15" s="7">
+        <v>7.1711197080826965</v>
+      </c>
+      <c r="L15" s="7">
+        <v>3.0132085224838958</v>
+      </c>
+      <c r="M15" s="7">
+        <v>8.3897563803663164</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6.2869135340797353</v>
+      </c>
+      <c r="O15" s="7">
+        <v>5.7153759400724864</v>
+      </c>
+      <c r="P15" s="7">
+        <v>5.0295308272637884</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>44561</v>
+      </c>
+      <c r="R15" s="8">
         <v>44985</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="S15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="T15" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-2.492492117347625E-2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.14162891842070077</v>
+      </c>
+      <c r="H16" s="6">
+        <f>D16/I16-1</f>
+        <v>8.0246913580246826E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1.62</v>
+      </c>
+      <c r="J16" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2.0092344760046403</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1.772812009880244</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2.0092344760046403</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1.8813813879464165</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1.710346716314924</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1.5051051103571331</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>44926</v>
+      </c>
+      <c r="R16" s="8">
+        <v>45169</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6">
+        <v>4.5383095110023003E-2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.54472660931038763</v>
+      </c>
+      <c r="H17" s="6">
+        <f>D17/I17-1</f>
+        <v>5.8139534883721034E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.48815835356228549</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.52114930827506045</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.47377209843187312</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.41691944662004837</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>44926</v>
+      </c>
+      <c r="R17" s="8">
+        <v>45169</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -1784,7 +1909,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -1805,7 +1930,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -1826,7 +1951,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -1847,7 +1972,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -1868,7 +1993,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -1889,7 +2014,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -1910,7 +2035,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -1931,7 +2056,7 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -1952,7 +2077,7 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -1973,7 +2098,7 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -1994,7 +2119,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -2015,7 +2140,7 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -2036,7 +2161,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -2057,7 +2182,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -2078,7 +2203,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -2099,7 +2224,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -2120,7 +2245,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -2141,7 +2266,7 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -2162,7 +2287,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -2183,7 +2308,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -2204,7 +2329,7 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -2225,7 +2350,7 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -2246,7 +2371,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -2267,7 +2392,7 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -2288,7 +2413,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -2309,7 +2434,7 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -2330,7 +2455,7 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -2351,7 +2476,7 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -2372,7 +2497,7 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -2393,7 +2518,7 @@
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -2414,7 +2539,7 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -2435,7 +2560,7 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -2456,7 +2581,7 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -2477,7 +2602,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -2498,7 +2623,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -2519,7 +2644,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -2540,7 +2665,7 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -2561,7 +2686,7 @@
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -2582,7 +2707,7 @@
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -2603,7 +2728,7 @@
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -2624,7 +2749,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -2645,7 +2770,7 @@
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -2666,7 +2791,7 @@
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
@@ -2687,7 +2812,7 @@
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -2708,7 +2833,7 @@
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -2729,7 +2854,7 @@
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -2750,7 +2875,7 @@
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -2771,7 +2896,7 @@
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -2792,7 +2917,7 @@
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -2813,7 +2938,7 @@
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -2834,7 +2959,7 @@
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -2855,7 +2980,7 @@
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -2876,7 +3001,7 @@
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -2897,7 +3022,7 @@
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -2918,7 +3043,7 @@
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -2939,7 +3064,7 @@
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -2960,7 +3085,7 @@
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -2981,7 +3106,7 @@
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -3002,7 +3127,7 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -3023,7 +3148,7 @@
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -3044,7 +3169,7 @@
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -3065,7 +3190,7 @@
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -3086,7 +3211,7 @@
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -3107,7 +3232,7 @@
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -3128,7 +3253,7 @@
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -3149,7 +3274,7 @@
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -3170,7 +3295,7 @@
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -3191,7 +3316,7 @@
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -3212,7 +3337,7 @@
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
@@ -3233,7 +3358,7 @@
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -3254,7 +3379,7 @@
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -3275,7 +3400,7 @@
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
@@ -3296,7 +3421,7 @@
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
@@ -3317,7 +3442,7 @@
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
@@ -3338,7 +3463,7 @@
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
@@ -3359,7 +3484,7 @@
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
@@ -3380,7 +3505,7 @@
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
@@ -3401,7 +3526,7 @@
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
@@ -3422,7 +3547,7 @@
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
@@ -3443,7 +3568,7 @@
       <c r="S97" s="5"/>
       <c r="T97" s="5"/>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
@@ -3464,7 +3589,7 @@
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
@@ -3485,7 +3610,7 @@
       <c r="S99" s="5"/>
       <c r="T99" s="5"/>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
@@ -3506,7 +3631,7 @@
       <c r="S100" s="5"/>
       <c r="T100" s="5"/>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
@@ -3527,7 +3652,7 @@
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
@@ -3548,7 +3673,7 @@
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
@@ -3569,7 +3694,7 @@
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
@@ -3590,7 +3715,7 @@
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
@@ -3611,7 +3736,7 @@
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
@@ -3632,7 +3757,7 @@
       <c r="S106" s="5"/>
       <c r="T106" s="5"/>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
@@ -3653,7 +3778,7 @@
       <c r="S107" s="5"/>
       <c r="T107" s="5"/>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
@@ -3674,7 +3799,7 @@
       <c r="S108" s="5"/>
       <c r="T108" s="5"/>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
@@ -3695,7 +3820,7 @@
       <c r="S109" s="5"/>
       <c r="T109" s="5"/>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
@@ -3716,7 +3841,7 @@
       <c r="S110" s="5"/>
       <c r="T110" s="5"/>
     </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
@@ -3737,7 +3862,7 @@
       <c r="S111" s="5"/>
       <c r="T111" s="5"/>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -3758,7 +3883,7 @@
       <c r="S112" s="5"/>
       <c r="T112" s="5"/>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
@@ -3779,7 +3904,7 @@
       <c r="S113" s="5"/>
       <c r="T113" s="5"/>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
@@ -3800,7 +3925,7 @@
       <c r="S114" s="5"/>
       <c r="T114" s="5"/>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
@@ -3821,7 +3946,7 @@
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
@@ -3842,7 +3967,7 @@
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
@@ -3863,7 +3988,7 @@
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
@@ -3884,7 +4009,7 @@
       <c r="S118" s="5"/>
       <c r="T118" s="5"/>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
@@ -3905,7 +4030,7 @@
       <c r="S119" s="5"/>
       <c r="T119" s="5"/>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
@@ -3926,7 +4051,7 @@
       <c r="S120" s="5"/>
       <c r="T120" s="5"/>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
@@ -3947,7 +4072,7 @@
       <c r="S121" s="5"/>
       <c r="T121" s="5"/>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
@@ -3968,7 +4093,7 @@
       <c r="S122" s="5"/>
       <c r="T122" s="5"/>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
@@ -3989,7 +4114,7 @@
       <c r="S123" s="5"/>
       <c r="T123" s="5"/>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
@@ -4010,7 +4135,7 @@
       <c r="S124" s="5"/>
       <c r="T124" s="5"/>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -4031,7 +4156,7 @@
       <c r="S125" s="5"/>
       <c r="T125" s="5"/>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
@@ -4052,7 +4177,7 @@
       <c r="S126" s="5"/>
       <c r="T126" s="5"/>
     </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
@@ -4073,7 +4198,7 @@
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
@@ -4094,7 +4219,7 @@
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -4115,7 +4240,7 @@
       <c r="S129" s="5"/>
       <c r="T129" s="5"/>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -4136,7 +4261,7 @@
       <c r="S130" s="5"/>
       <c r="T130" s="5"/>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -4157,7 +4282,7 @@
       <c r="S131" s="5"/>
       <c r="T131" s="5"/>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -4178,7 +4303,7 @@
       <c r="S132" s="5"/>
       <c r="T132" s="5"/>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -4199,7 +4324,7 @@
       <c r="S133" s="5"/>
       <c r="T133" s="5"/>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -4220,7 +4345,7 @@
       <c r="S134" s="5"/>
       <c r="T134" s="5"/>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -4241,7 +4366,7 @@
       <c r="S135" s="5"/>
       <c r="T135" s="5"/>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -4262,7 +4387,7 @@
       <c r="S136" s="5"/>
       <c r="T136" s="5"/>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -4283,7 +4408,7 @@
       <c r="S137" s="5"/>
       <c r="T137" s="5"/>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -4304,7 +4429,7 @@
       <c r="S138" s="5"/>
       <c r="T138" s="5"/>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -4325,7 +4450,7 @@
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -4346,7 +4471,7 @@
       <c r="S140" s="5"/>
       <c r="T140" s="5"/>
     </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -4367,7 +4492,7 @@
       <c r="S141" s="5"/>
       <c r="T141" s="5"/>
     </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -4388,7 +4513,7 @@
       <c r="S142" s="5"/>
       <c r="T142" s="5"/>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -4409,7 +4534,7 @@
       <c r="S143" s="5"/>
       <c r="T143" s="5"/>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -4430,7 +4555,7 @@
       <c r="S144" s="5"/>
       <c r="T144" s="5"/>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -4451,7 +4576,7 @@
       <c r="S145" s="5"/>
       <c r="T145" s="5"/>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -4472,7 +4597,7 @@
       <c r="S146" s="5"/>
       <c r="T146" s="5"/>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -4493,7 +4618,7 @@
       <c r="S147" s="5"/>
       <c r="T147" s="5"/>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -4514,7 +4639,7 @@
       <c r="S148" s="5"/>
       <c r="T148" s="5"/>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -4535,7 +4660,7 @@
       <c r="S149" s="5"/>
       <c r="T149" s="5"/>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -4556,7 +4681,7 @@
       <c r="S150" s="5"/>
       <c r="T150" s="5"/>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -4577,7 +4702,7 @@
       <c r="S151" s="5"/>
       <c r="T151" s="5"/>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -4598,7 +4723,7 @@
       <c r="S152" s="5"/>
       <c r="T152" s="5"/>
     </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -4619,7 +4744,7 @@
       <c r="S153" s="5"/>
       <c r="T153" s="5"/>
     </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -4640,7 +4765,7 @@
       <c r="S154" s="5"/>
       <c r="T154" s="5"/>
     </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -4661,7 +4786,7 @@
       <c r="S155" s="5"/>
       <c r="T155" s="5"/>
     </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -4682,7 +4807,7 @@
       <c r="S156" s="5"/>
       <c r="T156" s="5"/>
     </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -4703,7 +4828,7 @@
       <c r="S157" s="5"/>
       <c r="T157" s="5"/>
     </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -4724,7 +4849,7 @@
       <c r="S158" s="5"/>
       <c r="T158" s="5"/>
     </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -4745,7 +4870,7 @@
       <c r="S159" s="5"/>
       <c r="T159" s="5"/>
     </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -4766,7 +4891,7 @@
       <c r="S160" s="5"/>
       <c r="T160" s="5"/>
     </row>
-    <row r="161" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -4787,7 +4912,7 @@
       <c r="S161" s="5"/>
       <c r="T161" s="5"/>
     </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -4808,7 +4933,7 @@
       <c r="S162" s="5"/>
       <c r="T162" s="5"/>
     </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -4829,7 +4954,7 @@
       <c r="S163" s="5"/>
       <c r="T163" s="5"/>
     </row>
-    <row r="164" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -4850,7 +4975,7 @@
       <c r="S164" s="5"/>
       <c r="T164" s="5"/>
     </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -4871,7 +4996,7 @@
       <c r="S165" s="5"/>
       <c r="T165" s="5"/>
     </row>
-    <row r="166" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -4892,7 +5017,7 @@
       <c r="S166" s="5"/>
       <c r="T166" s="5"/>
     </row>
-    <row r="167" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -4913,7 +5038,7 @@
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
     </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -4934,7 +5059,7 @@
       <c r="S168" s="5"/>
       <c r="T168" s="5"/>
     </row>
-    <row r="169" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -4955,7 +5080,7 @@
       <c r="S169" s="5"/>
       <c r="T169" s="5"/>
     </row>
-    <row r="170" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -4976,7 +5101,7 @@
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
     </row>
-    <row r="171" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -4997,7 +5122,7 @@
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
     </row>
-    <row r="172" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -5018,7 +5143,7 @@
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
     </row>
-    <row r="173" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -5039,7 +5164,7 @@
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
     </row>
-    <row r="174" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -5060,7 +5185,7 @@
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
     </row>
-    <row r="175" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -5081,7 +5206,7 @@
       <c r="S175" s="5"/>
       <c r="T175" s="5"/>
     </row>
-    <row r="176" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -5102,7 +5227,7 @@
       <c r="S176" s="5"/>
       <c r="T176" s="5"/>
     </row>
-    <row r="177" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -5123,7 +5248,7 @@
       <c r="S177" s="5"/>
       <c r="T177" s="5"/>
     </row>
-    <row r="178" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -5144,7 +5269,7 @@
       <c r="S178" s="5"/>
       <c r="T178" s="5"/>
     </row>
-    <row r="179" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -5165,7 +5290,7 @@
       <c r="S179" s="5"/>
       <c r="T179" s="5"/>
     </row>
-    <row r="180" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -5186,7 +5311,7 @@
       <c r="S180" s="5"/>
       <c r="T180" s="5"/>
     </row>
-    <row r="181" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -5207,7 +5332,7 @@
       <c r="S181" s="5"/>
       <c r="T181" s="5"/>
     </row>
-    <row r="182" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -5228,7 +5353,7 @@
       <c r="S182" s="5"/>
       <c r="T182" s="5"/>
     </row>
-    <row r="183" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -5249,7 +5374,7 @@
       <c r="S183" s="5"/>
       <c r="T183" s="5"/>
     </row>
-    <row r="184" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -5270,7 +5395,7 @@
       <c r="S184" s="5"/>
       <c r="T184" s="5"/>
     </row>
-    <row r="185" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -5291,7 +5416,7 @@
       <c r="S185" s="5"/>
       <c r="T185" s="5"/>
     </row>
-    <row r="186" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -5312,7 +5437,7 @@
       <c r="S186" s="5"/>
       <c r="T186" s="5"/>
     </row>
-    <row r="187" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -5333,7 +5458,7 @@
       <c r="S187" s="5"/>
       <c r="T187" s="5"/>
     </row>
-    <row r="188" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -5354,7 +5479,7 @@
       <c r="S188" s="5"/>
       <c r="T188" s="5"/>
     </row>
-    <row r="189" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -5375,7 +5500,7 @@
       <c r="S189" s="5"/>
       <c r="T189" s="5"/>
     </row>
-    <row r="190" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -5396,7 +5521,7 @@
       <c r="S190" s="5"/>
       <c r="T190" s="5"/>
     </row>
-    <row r="191" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -5417,7 +5542,7 @@
       <c r="S191" s="5"/>
       <c r="T191" s="5"/>
     </row>
-    <row r="192" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -5438,7 +5563,7 @@
       <c r="S192" s="5"/>
       <c r="T192" s="5"/>
     </row>
-    <row r="193" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -5459,7 +5584,7 @@
       <c r="S193" s="5"/>
       <c r="T193" s="5"/>
     </row>
-    <row r="194" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -5480,7 +5605,7 @@
       <c r="S194" s="5"/>
       <c r="T194" s="5"/>
     </row>
-    <row r="195" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -5501,7 +5626,7 @@
       <c r="S195" s="5"/>
       <c r="T195" s="5"/>
     </row>
-    <row r="196" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -5522,7 +5647,7 @@
       <c r="S196" s="5"/>
       <c r="T196" s="5"/>
     </row>
-    <row r="197" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -5543,7 +5668,7 @@
       <c r="S197" s="5"/>
       <c r="T197" s="5"/>
     </row>
-    <row r="198" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -5564,7 +5689,7 @@
       <c r="S198" s="5"/>
       <c r="T198" s="5"/>
     </row>
-    <row r="199" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -5585,7 +5710,7 @@
       <c r="S199" s="5"/>
       <c r="T199" s="5"/>
     </row>
-    <row r="200" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -5606,604 +5731,604 @@
       <c r="S200" s="5"/>
       <c r="T200" s="5"/>
     </row>
-    <row r="201" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:20" x14ac:dyDescent="0.35">
       <c r="R201" s="20"/>
     </row>
-    <row r="202" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:20" x14ac:dyDescent="0.35">
       <c r="R202" s="20"/>
     </row>
-    <row r="203" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:20" x14ac:dyDescent="0.35">
       <c r="R203" s="20"/>
     </row>
-    <row r="204" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:20" x14ac:dyDescent="0.35">
       <c r="R204" s="20"/>
     </row>
-    <row r="205" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:20" x14ac:dyDescent="0.35">
       <c r="R205" s="20"/>
     </row>
-    <row r="206" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:20" x14ac:dyDescent="0.35">
       <c r="R206" s="20"/>
     </row>
-    <row r="207" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:20" x14ac:dyDescent="0.35">
       <c r="R207" s="20"/>
     </row>
-    <row r="208" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:20" x14ac:dyDescent="0.35">
       <c r="R208" s="20"/>
     </row>
-    <row r="209" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R209" s="20"/>
     </row>
-    <row r="210" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R210" s="20"/>
     </row>
-    <row r="211" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R211" s="20"/>
     </row>
-    <row r="212" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R212" s="20"/>
     </row>
-    <row r="213" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R213" s="20"/>
     </row>
-    <row r="214" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R214" s="20"/>
     </row>
-    <row r="215" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R215" s="20"/>
     </row>
-    <row r="216" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R216" s="20"/>
     </row>
-    <row r="217" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R217" s="20"/>
     </row>
-    <row r="218" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R218" s="20"/>
     </row>
-    <row r="219" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R219" s="20"/>
     </row>
-    <row r="220" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R220" s="20"/>
     </row>
-    <row r="221" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R221" s="20"/>
     </row>
-    <row r="222" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R222" s="20"/>
     </row>
-    <row r="223" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R223" s="20"/>
     </row>
-    <row r="224" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R224" s="20"/>
     </row>
-    <row r="225" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R225" s="20"/>
     </row>
-    <row r="226" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R226" s="20"/>
     </row>
-    <row r="227" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R227" s="20"/>
     </row>
-    <row r="228" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R228" s="20"/>
     </row>
-    <row r="229" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R229" s="20"/>
     </row>
-    <row r="230" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R230" s="20"/>
     </row>
-    <row r="231" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R231" s="20"/>
     </row>
-    <row r="232" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R232" s="20"/>
     </row>
-    <row r="233" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R233" s="20"/>
     </row>
-    <row r="234" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R234" s="20"/>
     </row>
-    <row r="235" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R235" s="20"/>
     </row>
-    <row r="236" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R236" s="20"/>
     </row>
-    <row r="237" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R237" s="20"/>
     </row>
-    <row r="238" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R238" s="20"/>
     </row>
-    <row r="239" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R239" s="20"/>
     </row>
-    <row r="240" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R240" s="20"/>
     </row>
-    <row r="241" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R241" s="20"/>
     </row>
-    <row r="242" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R242" s="20"/>
     </row>
-    <row r="243" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R243" s="20"/>
     </row>
-    <row r="244" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R244" s="20"/>
     </row>
-    <row r="245" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R245" s="20"/>
     </row>
-    <row r="246" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R246" s="20"/>
     </row>
-    <row r="247" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R247" s="20"/>
     </row>
-    <row r="248" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R248" s="20"/>
     </row>
-    <row r="249" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R249" s="20"/>
     </row>
-    <row r="250" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R250" s="20"/>
     </row>
-    <row r="251" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R251" s="20"/>
     </row>
-    <row r="252" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R252" s="20"/>
     </row>
-    <row r="253" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R253" s="20"/>
     </row>
-    <row r="254" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R254" s="20"/>
     </row>
-    <row r="255" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R255" s="20"/>
     </row>
-    <row r="256" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R256" s="20"/>
     </row>
-    <row r="257" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R257" s="20"/>
     </row>
-    <row r="258" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R258" s="20"/>
     </row>
-    <row r="259" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R259" s="20"/>
     </row>
-    <row r="260" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R260" s="20"/>
     </row>
-    <row r="261" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R261" s="20"/>
     </row>
-    <row r="262" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R262" s="20"/>
     </row>
-    <row r="263" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R263" s="20"/>
     </row>
-    <row r="264" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R264" s="20"/>
     </row>
-    <row r="265" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R265" s="20"/>
     </row>
-    <row r="266" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R266" s="20"/>
     </row>
-    <row r="267" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R267" s="20"/>
     </row>
-    <row r="268" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R268" s="20"/>
     </row>
-    <row r="269" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R269" s="20"/>
     </row>
-    <row r="270" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R270" s="20"/>
     </row>
-    <row r="271" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R271" s="20"/>
     </row>
-    <row r="272" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R272" s="20"/>
     </row>
-    <row r="273" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R273" s="20"/>
     </row>
-    <row r="274" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R274" s="20"/>
     </row>
-    <row r="275" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R275" s="20"/>
     </row>
-    <row r="276" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R276" s="20"/>
     </row>
-    <row r="277" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R277" s="20"/>
     </row>
-    <row r="278" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R278" s="20"/>
     </row>
-    <row r="279" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R279" s="20"/>
     </row>
-    <row r="280" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R280" s="20"/>
     </row>
-    <row r="281" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R281" s="20"/>
     </row>
-    <row r="282" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R282" s="20"/>
     </row>
-    <row r="283" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R283" s="20"/>
     </row>
-    <row r="284" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R284" s="20"/>
     </row>
-    <row r="285" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R285" s="20"/>
     </row>
-    <row r="286" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R286" s="20"/>
     </row>
-    <row r="287" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R287" s="20"/>
     </row>
-    <row r="288" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R288" s="20"/>
     </row>
-    <row r="289" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R289" s="20"/>
     </row>
-    <row r="290" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R290" s="20"/>
     </row>
-    <row r="291" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R291" s="20"/>
     </row>
-    <row r="292" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R292" s="20"/>
     </row>
-    <row r="293" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R293" s="20"/>
     </row>
-    <row r="294" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R294" s="20"/>
     </row>
-    <row r="295" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R295" s="20"/>
     </row>
-    <row r="296" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R296" s="20"/>
     </row>
-    <row r="297" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R297" s="20"/>
     </row>
-    <row r="298" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R298" s="20"/>
     </row>
-    <row r="299" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R299" s="20"/>
     </row>
-    <row r="300" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R300" s="20"/>
     </row>
-    <row r="301" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R301" s="20"/>
     </row>
-    <row r="302" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="302" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R302" s="20"/>
     </row>
-    <row r="303" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="303" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R303" s="20"/>
     </row>
-    <row r="304" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="304" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R304" s="20"/>
     </row>
-    <row r="305" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="305" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R305" s="20"/>
     </row>
-    <row r="306" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="306" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R306" s="20"/>
     </row>
-    <row r="307" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="307" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R307" s="20"/>
     </row>
-    <row r="308" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="308" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R308" s="20"/>
     </row>
-    <row r="309" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R309" s="20"/>
     </row>
-    <row r="310" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="310" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R310" s="20"/>
     </row>
-    <row r="311" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="311" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R311" s="20"/>
     </row>
-    <row r="312" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="312" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R312" s="20"/>
     </row>
-    <row r="313" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="313" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R313" s="20"/>
     </row>
-    <row r="314" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="314" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R314" s="20"/>
     </row>
-    <row r="315" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="315" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R315" s="20"/>
     </row>
-    <row r="316" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="316" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R316" s="20"/>
     </row>
-    <row r="317" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="317" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R317" s="20"/>
     </row>
-    <row r="318" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="318" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R318" s="20"/>
     </row>
-    <row r="319" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="319" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R319" s="20"/>
     </row>
-    <row r="320" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="320" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R320" s="20"/>
     </row>
-    <row r="321" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R321" s="20"/>
     </row>
-    <row r="322" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R322" s="20"/>
     </row>
-    <row r="323" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R323" s="20"/>
     </row>
-    <row r="324" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R324" s="20"/>
     </row>
-    <row r="325" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R325" s="20"/>
     </row>
-    <row r="326" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R326" s="20"/>
     </row>
-    <row r="327" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R327" s="20"/>
     </row>
-    <row r="328" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R328" s="20"/>
     </row>
-    <row r="329" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R329" s="20"/>
     </row>
-    <row r="330" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R330" s="20"/>
     </row>
-    <row r="331" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R331" s="20"/>
     </row>
-    <row r="332" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R332" s="20"/>
     </row>
-    <row r="333" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R333" s="20"/>
     </row>
-    <row r="334" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R334" s="20"/>
     </row>
-    <row r="335" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R335" s="20"/>
     </row>
-    <row r="336" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R336" s="20"/>
     </row>
-    <row r="337" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="337" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R337" s="20"/>
     </row>
-    <row r="338" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="338" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R338" s="20"/>
     </row>
-    <row r="339" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="339" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R339" s="20"/>
     </row>
-    <row r="340" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="340" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R340" s="20"/>
     </row>
-    <row r="341" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="341" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R341" s="20"/>
     </row>
-    <row r="342" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="342" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R342" s="20"/>
     </row>
-    <row r="343" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="343" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R343" s="20"/>
     </row>
-    <row r="344" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="344" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R344" s="20"/>
     </row>
-    <row r="345" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="345" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R345" s="20"/>
     </row>
-    <row r="346" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="346" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R346" s="20"/>
     </row>
-    <row r="347" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="347" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R347" s="20"/>
     </row>
-    <row r="348" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="348" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R348" s="20"/>
     </row>
-    <row r="349" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="349" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R349" s="20"/>
     </row>
-    <row r="350" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="350" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R350" s="20"/>
     </row>
-    <row r="351" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="351" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R351" s="20"/>
     </row>
-    <row r="352" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="352" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R352" s="20"/>
     </row>
-    <row r="353" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="353" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R353" s="20"/>
     </row>
-    <row r="354" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="354" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R354" s="20"/>
     </row>
-    <row r="355" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="355" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R355" s="20"/>
     </row>
-    <row r="356" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="356" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R356" s="20"/>
     </row>
-    <row r="357" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="357" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R357" s="20"/>
     </row>
-    <row r="358" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="358" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R358" s="20"/>
     </row>
-    <row r="359" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="359" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R359" s="20"/>
     </row>
-    <row r="360" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="360" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R360" s="20"/>
     </row>
-    <row r="361" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="361" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R361" s="20"/>
     </row>
-    <row r="362" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="362" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R362" s="20"/>
     </row>
-    <row r="363" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="363" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R363" s="20"/>
     </row>
-    <row r="364" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="364" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R364" s="20"/>
     </row>
-    <row r="365" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="365" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R365" s="20"/>
     </row>
-    <row r="366" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="366" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R366" s="20"/>
     </row>
-    <row r="367" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="367" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R367" s="20"/>
     </row>
-    <row r="368" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="368" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R368" s="20"/>
     </row>
-    <row r="369" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="369" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R369" s="20"/>
     </row>
-    <row r="370" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="370" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R370" s="20"/>
     </row>
-    <row r="371" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="371" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R371" s="20"/>
     </row>
-    <row r="372" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="372" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R372" s="20"/>
     </row>
-    <row r="373" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="373" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R373" s="20"/>
     </row>
-    <row r="374" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="374" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R374" s="20"/>
     </row>
-    <row r="375" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="375" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R375" s="20"/>
     </row>
-    <row r="376" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="376" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R376" s="20"/>
     </row>
-    <row r="377" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="377" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R377" s="20"/>
     </row>
-    <row r="378" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="378" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R378" s="20"/>
     </row>
-    <row r="379" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="379" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R379" s="20"/>
     </row>
-    <row r="380" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="380" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R380" s="20"/>
     </row>
-    <row r="381" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="381" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R381" s="20"/>
     </row>
-    <row r="382" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="382" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R382" s="20"/>
     </row>
-    <row r="383" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="383" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R383" s="20"/>
     </row>
-    <row r="384" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="384" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R384" s="20"/>
     </row>
-    <row r="385" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="385" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R385" s="20"/>
     </row>
-    <row r="386" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="386" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R386" s="20"/>
     </row>
-    <row r="387" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="387" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R387" s="20"/>
     </row>
-    <row r="388" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="388" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R388" s="20"/>
     </row>
-    <row r="389" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="389" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R389" s="20"/>
     </row>
-    <row r="390" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="390" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R390" s="20"/>
     </row>
-    <row r="391" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="391" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R391" s="20"/>
     </row>
-    <row r="392" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="392" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R392" s="20"/>
     </row>
-    <row r="393" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="393" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R393" s="20"/>
     </row>
-    <row r="394" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="394" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R394" s="20"/>
     </row>
-    <row r="395" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="395" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R395" s="20"/>
     </row>
-    <row r="396" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="396" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R396" s="20"/>
     </row>
-    <row r="397" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="397" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R397" s="20"/>
     </row>
-    <row r="398" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="398" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R398" s="20"/>
     </row>
-    <row r="399" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="399" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R399" s="20"/>
     </row>
-    <row r="400" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="400" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R400" s="20"/>
     </row>
   </sheetData>
@@ -6245,21 +6370,21 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" customWidth="1"/>
-    <col min="18" max="18" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="14" width="14.6328125" customWidth="1"/>
+    <col min="15" max="16" width="12.6328125" customWidth="1"/>
+    <col min="17" max="17" width="8.36328125" customWidth="1"/>
+    <col min="18" max="18" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -6270,7 +6395,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29">
-        <v>45013</v>
+        <v>45062</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="15"/>
@@ -6285,31 +6410,31 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="31">
-        <v>363340</v>
+        <v>363740</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="33">
-        <v>319900</v>
+        <v>338560</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -6334,7 +6459,7 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -6387,7 +6512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
@@ -6395,7 +6520,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>11.62</v>
+        <v>11.66</v>
       </c>
       <c r="E8" s="7">
         <v>11.9</v>
@@ -6407,7 +6532,7 @@
         <v>3000</v>
       </c>
       <c r="H8" s="7">
-        <v>13.106941291608036</v>
+        <v>13.329505058218302</v>
       </c>
       <c r="I8" s="6">
         <v>4.9613936858377006E-3</v>
@@ -6428,12 +6553,12 @@
         <v>4.958733377346034</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" ref="O8:O14" si="0">(D8*G8)/$D$4</f>
-        <v>0.10897155361050329</v>
+        <f>(D8*G8)/$D$4</f>
+        <v>0.10331994328922495</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" ref="P8:P14" si="1">D8/E8-1</f>
-        <v>-2.3529411764706021E-2</v>
+        <f>D8/E8-1</f>
+        <v>-2.0168067226890796E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
@@ -6442,53 +6567,53 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>1.77</v>
+        <v>10.7</v>
       </c>
       <c r="E9" s="7">
-        <v>1.75</v>
+        <v>10.31</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="9">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="H9" s="7">
-        <v>2.0424389077766301</v>
+        <v>12.347246296726411</v>
       </c>
       <c r="I9" s="6">
-        <v>5.9258551186562071E-3</v>
+        <v>4.2300888050327577E-2</v>
       </c>
       <c r="J9" s="17">
-        <v>3.8517555372810004</v>
+        <v>3.7089690853896293</v>
       </c>
       <c r="K9" s="17">
-        <v>375.74432118671399</v>
+        <v>11.003427197705268</v>
       </c>
       <c r="L9" s="17">
-        <v>3.3798104771292734</v>
+        <v>3.4515437078973985</v>
       </c>
       <c r="M9" s="17">
-        <v>790.06633136094683</v>
+        <v>6.5599984754845266</v>
       </c>
       <c r="N9" s="17">
-        <v>3.4072159925759804</v>
+        <v>3.5134488326629425</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.22131916223819945</v>
+        <f>(D9*G9)/$D$4</f>
+        <v>0.12641776937618149</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1428571428571344E-2</v>
+        <f>D9/E9-1</f>
+        <v>3.7827352085353816E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -6497,62 +6622,62 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>5.81</v>
+        <v>2.13</v>
       </c>
       <c r="E10" s="7">
-        <v>11.08</v>
+        <v>1.68</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="9">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="H10" s="7">
-        <v>7.2561683640432193</v>
+        <v>1.9</v>
       </c>
       <c r="I10" s="6">
-        <v>5.4080520158737544E-2</v>
+        <v>0.24675666120114281</v>
       </c>
       <c r="J10" s="17">
-        <v>2.7703025360946434</v>
+        <v>3.2849980734912396</v>
       </c>
       <c r="K10" s="17">
-        <v>33.882537710882545</v>
+        <v>6.8975825593510285</v>
       </c>
       <c r="L10" s="17">
-        <v>2.6833569434046844</v>
+        <v>3.0135085780337438</v>
       </c>
       <c r="M10" s="17">
-        <v>13.913697527489473</v>
+        <v>2.9855261680325449</v>
       </c>
       <c r="N10" s="17">
-        <v>2.0088349318914984</v>
+        <v>2.4805745781286417</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="0"/>
-        <v>7.264770240700219E-2</v>
+        <f>(D10*G10)/$D$4</f>
+        <v>0.10066162570888469</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.47563176895306858</v>
+        <f>D10/E10-1</f>
+        <v>0.26785714285714279</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6560,7 +6685,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>17.68</v>
+        <v>20.45</v>
       </c>
       <c r="E11" s="7">
         <v>16.5</v>
@@ -6572,7 +6697,7 @@
         <v>2000</v>
       </c>
       <c r="H11" s="7">
-        <v>27.060723123569986</v>
+        <v>-1.934748458322046</v>
       </c>
       <c r="I11" s="6">
         <v>0.45401790581878537</v>
@@ -6593,12 +6718,12 @@
         <v>1.1494100885179757</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.11053454204438887</v>
+        <f>(D11*G11)/$D$4</f>
+        <v>0.12080576559546313</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="1"/>
-        <v>7.1515151515151532E-2</v>
+        <f>D11/E11-1</f>
+        <v>0.23939393939393927</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -6607,108 +6732,108 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7">
-        <v>10.52</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="E12" s="7">
-        <v>10.31</v>
+        <v>5.63</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="9">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="H12" s="7">
-        <v>12.347246296726411</v>
+        <v>5.5436244047265006</v>
       </c>
       <c r="I12" s="6">
-        <v>4.2300888050327577E-2</v>
+        <v>0.1698771078411476</v>
       </c>
       <c r="J12" s="17">
-        <v>3.7089690853896293</v>
+        <v>0.82306247297105539</v>
       </c>
       <c r="K12" s="17">
-        <v>11.003427197705268</v>
+        <v>2.9769457748721253</v>
       </c>
       <c r="L12" s="17">
-        <v>3.4515437078973985</v>
+        <v>0.57804911534654391</v>
       </c>
       <c r="M12" s="17">
-        <v>6.5599984754845266</v>
+        <v>2.4260977945497415</v>
       </c>
       <c r="N12" s="17">
-        <v>3.5134488326629425</v>
+        <v>0.59946117374446684</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1315411065958112</v>
+        <f>(D12*G12)/$D$4</f>
+        <v>0.28178166351606804</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="1"/>
-        <v>2.0368574199805867E-2</v>
+        <f>D12/E12-1</f>
+        <v>-0.15275310834813505</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>4.1500000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E13" s="7">
-        <v>5.61</v>
+        <v>11.08</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="9">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="H13" s="7">
-        <v>5.6352378527907128</v>
+        <v>7.1711197080826965</v>
       </c>
       <c r="I13" s="6">
-        <v>0.1698771078411476</v>
+        <v>5.4080520158737544E-2</v>
       </c>
       <c r="J13" s="17">
-        <v>0.82306247297105539</v>
+        <v>2.7703025360946434</v>
       </c>
       <c r="K13" s="17">
-        <v>2.9769457748721253</v>
+        <v>33.882537710882545</v>
       </c>
       <c r="L13" s="17">
-        <v>0.57804911534654391</v>
+        <v>2.6833569434046844</v>
       </c>
       <c r="M13" s="17">
-        <v>2.4260977945497415</v>
+        <v>13.913697527489473</v>
       </c>
       <c r="N13" s="17">
-        <v>0.59946117374446684</v>
+        <v>2.0088349318914984</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25945608002500781</v>
+        <f>(D13*G13)/$D$4</f>
+        <v>6.0255198487712665E-2</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.26024955436720143</v>
+        <f>D13/E13-1</f>
+        <v>-0.53971119133574008</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
@@ -6717,53 +6842,53 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="E14" s="7">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="9">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="H14" s="7">
-        <v>1.9</v>
+        <v>2.0092344760046403</v>
       </c>
       <c r="I14" s="6">
-        <v>0.24675666120114281</v>
+        <v>5.9258551186562071E-3</v>
       </c>
       <c r="J14" s="17">
-        <v>3.2849980734912396</v>
+        <v>3.8517555372810004</v>
       </c>
       <c r="K14" s="17">
-        <v>6.8975825593510285</v>
+        <v>375.74432118671399</v>
       </c>
       <c r="L14" s="17">
-        <v>3.0135085780337438</v>
+        <v>3.3798104771292734</v>
       </c>
       <c r="M14" s="17">
-        <v>2.9855261680325449</v>
+        <v>790.06633136094683</v>
       </c>
       <c r="N14" s="17">
-        <v>2.4805745781286417</v>
+        <v>3.4072159925759804</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="0"/>
-        <v>9.5529853079087221E-2</v>
+        <f>(D14*G14)/$D$4</f>
+        <v>0.20675803402646503</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="1"/>
-        <v>0.13690476190476186</v>
+        <f>D14/E14-1</f>
+        <v>0</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>9</v>
@@ -6772,7 +6897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -6791,7 +6916,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -6810,7 +6935,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -6829,7 +6954,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -6848,7 +6973,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -6867,7 +6992,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -6886,7 +7011,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -6905,7 +7030,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -6924,7 +7049,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -6943,7 +7068,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -6962,7 +7087,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -6981,7 +7106,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -7000,7 +7125,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -7019,7 +7144,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -7038,7 +7163,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -7057,7 +7182,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -7076,7 +7201,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -7095,7 +7220,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -7114,7 +7239,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -7133,7 +7258,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -7152,7 +7277,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -7171,7 +7296,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -7190,7 +7315,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -7209,7 +7334,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -7228,7 +7353,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -7247,7 +7372,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -7266,7 +7391,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -7285,7 +7410,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -7304,7 +7429,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -7323,7 +7448,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -7342,7 +7467,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -7361,7 +7486,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -7380,7 +7505,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -7399,7 +7524,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -7418,7 +7543,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -7437,7 +7562,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -7456,7 +7581,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -7475,7 +7600,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -7494,7 +7619,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -7513,7 +7638,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -7532,7 +7657,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -7551,7 +7676,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -7570,7 +7695,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -7589,7 +7714,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -7608,7 +7733,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -7627,7 +7752,7 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -7646,7 +7771,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
@@ -7665,7 +7790,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -7684,7 +7809,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="5"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -7703,7 +7828,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -7722,7 +7847,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="5"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -7741,7 +7866,7 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="5"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -7760,7 +7885,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -7779,7 +7904,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="5"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -7798,7 +7923,7 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="5"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -7817,7 +7942,7 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -7836,7 +7961,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -7855,7 +7980,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -7874,7 +7999,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -7893,7 +8018,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -7912,7 +8037,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -7931,7 +8056,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -7950,7 +8075,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="5"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -7969,7 +8094,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="5"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -7988,7 +8113,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="5"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -8007,7 +8132,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="5"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -8026,7 +8151,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="5"/>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -8045,7 +8170,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -8064,7 +8189,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="5"/>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -8083,7 +8208,7 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -8102,7 +8227,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -8121,7 +8246,7 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -8140,7 +8265,7 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
@@ -8159,7 +8284,7 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="5"/>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -8178,7 +8303,7 @@
       <c r="Q88" s="6"/>
       <c r="R88" s="5"/>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -8197,7 +8322,7 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
@@ -8216,7 +8341,7 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
@@ -8235,7 +8360,7 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="5"/>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
@@ -8254,7 +8379,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="5"/>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
@@ -8273,7 +8398,7 @@
       <c r="Q93" s="6"/>
       <c r="R93" s="5"/>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
@@ -8292,7 +8417,7 @@
       <c r="Q94" s="6"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
@@ -8311,7 +8436,7 @@
       <c r="Q95" s="6"/>
       <c r="R95" s="5"/>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
@@ -8330,7 +8455,7 @@
       <c r="Q96" s="6"/>
       <c r="R96" s="5"/>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
@@ -8349,7 +8474,7 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="5"/>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
@@ -8368,7 +8493,7 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="5"/>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
@@ -8387,7 +8512,7 @@
       <c r="Q99" s="6"/>
       <c r="R99" s="5"/>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
@@ -8406,7 +8531,7 @@
       <c r="Q100" s="6"/>
       <c r="R100" s="5"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
@@ -8425,7 +8550,7 @@
       <c r="Q101" s="6"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
@@ -8444,7 +8569,7 @@
       <c r="Q102" s="6"/>
       <c r="R102" s="5"/>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
@@ -8463,7 +8588,7 @@
       <c r="Q103" s="6"/>
       <c r="R103" s="5"/>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
@@ -8482,7 +8607,7 @@
       <c r="Q104" s="6"/>
       <c r="R104" s="5"/>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
@@ -8501,7 +8626,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="5"/>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
@@ -8520,7 +8645,7 @@
       <c r="Q106" s="6"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
@@ -8539,7 +8664,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
@@ -8558,7 +8683,7 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
@@ -8577,7 +8702,7 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
@@ -8596,7 +8721,7 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
@@ -8615,7 +8740,7 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="5"/>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -8634,7 +8759,7 @@
       <c r="Q112" s="6"/>
       <c r="R112" s="5"/>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
@@ -8653,7 +8778,7 @@
       <c r="Q113" s="6"/>
       <c r="R113" s="5"/>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
@@ -8672,7 +8797,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="5"/>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
@@ -8691,7 +8816,7 @@
       <c r="Q115" s="6"/>
       <c r="R115" s="5"/>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
@@ -8710,7 +8835,7 @@
       <c r="Q116" s="6"/>
       <c r="R116" s="5"/>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
@@ -8729,7 +8854,7 @@
       <c r="Q117" s="6"/>
       <c r="R117" s="5"/>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
@@ -8748,7 +8873,7 @@
       <c r="Q118" s="6"/>
       <c r="R118" s="5"/>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
@@ -8767,7 +8892,7 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
@@ -8786,7 +8911,7 @@
       <c r="Q120" s="6"/>
       <c r="R120" s="5"/>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
@@ -8805,7 +8930,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="5"/>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
@@ -8824,7 +8949,7 @@
       <c r="Q122" s="6"/>
       <c r="R122" s="5"/>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
@@ -8843,7 +8968,7 @@
       <c r="Q123" s="6"/>
       <c r="R123" s="5"/>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
@@ -8862,7 +8987,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="5"/>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -8881,7 +9006,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="5"/>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
@@ -8900,7 +9025,7 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="5"/>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
@@ -8919,7 +9044,7 @@
       <c r="Q127" s="6"/>
       <c r="R127" s="5"/>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
@@ -8938,7 +9063,7 @@
       <c r="Q128" s="6"/>
       <c r="R128" s="5"/>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -8957,7 +9082,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="5"/>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -8976,7 +9101,7 @@
       <c r="Q130" s="6"/>
       <c r="R130" s="5"/>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -8995,7 +9120,7 @@
       <c r="Q131" s="6"/>
       <c r="R131" s="5"/>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -9014,7 +9139,7 @@
       <c r="Q132" s="6"/>
       <c r="R132" s="5"/>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -9033,7 +9158,7 @@
       <c r="Q133" s="6"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -9052,7 +9177,7 @@
       <c r="Q134" s="6"/>
       <c r="R134" s="5"/>
     </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -9071,7 +9196,7 @@
       <c r="Q135" s="6"/>
       <c r="R135" s="5"/>
     </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -9090,7 +9215,7 @@
       <c r="Q136" s="6"/>
       <c r="R136" s="5"/>
     </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -9109,7 +9234,7 @@
       <c r="Q137" s="6"/>
       <c r="R137" s="5"/>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -9128,7 +9253,7 @@
       <c r="Q138" s="6"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -9147,7 +9272,7 @@
       <c r="Q139" s="6"/>
       <c r="R139" s="5"/>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -9166,7 +9291,7 @@
       <c r="Q140" s="6"/>
       <c r="R140" s="5"/>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -9185,7 +9310,7 @@
       <c r="Q141" s="6"/>
       <c r="R141" s="5"/>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -9204,7 +9329,7 @@
       <c r="Q142" s="6"/>
       <c r="R142" s="5"/>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -9223,7 +9348,7 @@
       <c r="Q143" s="6"/>
       <c r="R143" s="5"/>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -9242,7 +9367,7 @@
       <c r="Q144" s="6"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -9261,7 +9386,7 @@
       <c r="Q145" s="6"/>
       <c r="R145" s="5"/>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -9280,7 +9405,7 @@
       <c r="Q146" s="6"/>
       <c r="R146" s="5"/>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -9299,7 +9424,7 @@
       <c r="Q147" s="6"/>
       <c r="R147" s="5"/>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -9318,7 +9443,7 @@
       <c r="Q148" s="6"/>
       <c r="R148" s="5"/>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -9337,7 +9462,7 @@
       <c r="Q149" s="6"/>
       <c r="R149" s="5"/>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -9356,7 +9481,7 @@
       <c r="Q150" s="6"/>
       <c r="R150" s="5"/>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -9375,7 +9500,7 @@
       <c r="Q151" s="6"/>
       <c r="R151" s="5"/>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -9394,7 +9519,7 @@
       <c r="Q152" s="6"/>
       <c r="R152" s="5"/>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -9413,7 +9538,7 @@
       <c r="Q153" s="6"/>
       <c r="R153" s="5"/>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -9432,7 +9557,7 @@
       <c r="Q154" s="6"/>
       <c r="R154" s="5"/>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -9451,7 +9576,7 @@
       <c r="Q155" s="6"/>
       <c r="R155" s="5"/>
     </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -9470,7 +9595,7 @@
       <c r="Q156" s="6"/>
       <c r="R156" s="5"/>
     </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -9489,7 +9614,7 @@
       <c r="Q157" s="6"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -9508,7 +9633,7 @@
       <c r="Q158" s="6"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -9527,7 +9652,7 @@
       <c r="Q159" s="6"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -9546,7 +9671,7 @@
       <c r="Q160" s="6"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -9565,7 +9690,7 @@
       <c r="Q161" s="6"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -9584,7 +9709,7 @@
       <c r="Q162" s="6"/>
       <c r="R162" s="5"/>
     </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -9603,7 +9728,7 @@
       <c r="Q163" s="6"/>
       <c r="R163" s="5"/>
     </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -9622,7 +9747,7 @@
       <c r="Q164" s="6"/>
       <c r="R164" s="5"/>
     </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -9641,7 +9766,7 @@
       <c r="Q165" s="6"/>
       <c r="R165" s="5"/>
     </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -9660,7 +9785,7 @@
       <c r="Q166" s="6"/>
       <c r="R166" s="5"/>
     </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -9679,7 +9804,7 @@
       <c r="Q167" s="6"/>
       <c r="R167" s="5"/>
     </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -9698,7 +9823,7 @@
       <c r="Q168" s="6"/>
       <c r="R168" s="5"/>
     </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -9717,7 +9842,7 @@
       <c r="Q169" s="6"/>
       <c r="R169" s="5"/>
     </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -9736,7 +9861,7 @@
       <c r="Q170" s="6"/>
       <c r="R170" s="5"/>
     </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -9755,7 +9880,7 @@
       <c r="Q171" s="6"/>
       <c r="R171" s="5"/>
     </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -9774,7 +9899,7 @@
       <c r="Q172" s="6"/>
       <c r="R172" s="5"/>
     </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -9793,7 +9918,7 @@
       <c r="Q173" s="6"/>
       <c r="R173" s="5"/>
     </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -9812,7 +9937,7 @@
       <c r="Q174" s="6"/>
       <c r="R174" s="5"/>
     </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -9831,7 +9956,7 @@
       <c r="Q175" s="6"/>
       <c r="R175" s="5"/>
     </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -9850,7 +9975,7 @@
       <c r="Q176" s="6"/>
       <c r="R176" s="5"/>
     </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -9869,7 +9994,7 @@
       <c r="Q177" s="6"/>
       <c r="R177" s="5"/>
     </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -9888,7 +10013,7 @@
       <c r="Q178" s="6"/>
       <c r="R178" s="5"/>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -9907,7 +10032,7 @@
       <c r="Q179" s="6"/>
       <c r="R179" s="5"/>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -9926,7 +10051,7 @@
       <c r="Q180" s="6"/>
       <c r="R180" s="5"/>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -9945,7 +10070,7 @@
       <c r="Q181" s="6"/>
       <c r="R181" s="5"/>
     </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -9964,7 +10089,7 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="5"/>
     </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -9983,7 +10108,7 @@
       <c r="Q183" s="6"/>
       <c r="R183" s="5"/>
     </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -10002,7 +10127,7 @@
       <c r="Q184" s="6"/>
       <c r="R184" s="5"/>
     </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -10021,7 +10146,7 @@
       <c r="Q185" s="6"/>
       <c r="R185" s="5"/>
     </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -10040,7 +10165,7 @@
       <c r="Q186" s="6"/>
       <c r="R186" s="5"/>
     </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -10059,7 +10184,7 @@
       <c r="Q187" s="6"/>
       <c r="R187" s="5"/>
     </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -10078,7 +10203,7 @@
       <c r="Q188" s="6"/>
       <c r="R188" s="5"/>
     </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -10097,7 +10222,7 @@
       <c r="Q189" s="6"/>
       <c r="R189" s="5"/>
     </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -10116,7 +10241,7 @@
       <c r="Q190" s="6"/>
       <c r="R190" s="5"/>
     </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -10135,7 +10260,7 @@
       <c r="Q191" s="6"/>
       <c r="R191" s="5"/>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -10154,7 +10279,7 @@
       <c r="Q192" s="6"/>
       <c r="R192" s="5"/>
     </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -10173,7 +10298,7 @@
       <c r="Q193" s="6"/>
       <c r="R193" s="5"/>
     </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -10192,7 +10317,7 @@
       <c r="Q194" s="6"/>
       <c r="R194" s="5"/>
     </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -10211,7 +10336,7 @@
       <c r="Q195" s="6"/>
       <c r="R195" s="5"/>
     </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -10230,7 +10355,7 @@
       <c r="Q196" s="6"/>
       <c r="R196" s="5"/>
     </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -10249,7 +10374,7 @@
       <c r="Q197" s="6"/>
       <c r="R197" s="5"/>
     </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -10268,7 +10393,7 @@
       <c r="Q198" s="6"/>
       <c r="R198" s="5"/>
     </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -10287,7 +10412,7 @@
       <c r="Q199" s="6"/>
       <c r="R199" s="5"/>
     </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -10306,7 +10431,7 @@
       <c r="Q200" s="6"/>
       <c r="R200" s="5"/>
     </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -10324,799 +10449,799 @@
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:18" x14ac:dyDescent="0.35">
       <c r="O202" s="6"/>
       <c r="P202" s="6"/>
     </row>
-    <row r="203" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:18" x14ac:dyDescent="0.35">
       <c r="O203" s="6"/>
       <c r="P203" s="6"/>
     </row>
-    <row r="204" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:18" x14ac:dyDescent="0.35">
       <c r="O204" s="6"/>
       <c r="P204" s="6"/>
     </row>
-    <row r="205" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:18" x14ac:dyDescent="0.35">
       <c r="O205" s="6"/>
       <c r="P205" s="6"/>
     </row>
-    <row r="206" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:18" x14ac:dyDescent="0.35">
       <c r="O206" s="6"/>
       <c r="P206" s="6"/>
     </row>
-    <row r="207" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:18" x14ac:dyDescent="0.35">
       <c r="O207" s="6"/>
       <c r="P207" s="6"/>
     </row>
-    <row r="208" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:18" x14ac:dyDescent="0.35">
       <c r="O208" s="6"/>
       <c r="P208" s="6"/>
     </row>
-    <row r="209" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O209" s="6"/>
       <c r="P209" s="6"/>
     </row>
-    <row r="210" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O210" s="6"/>
       <c r="P210" s="6"/>
     </row>
-    <row r="211" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O211" s="6"/>
       <c r="P211" s="6"/>
     </row>
-    <row r="212" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O212" s="6"/>
       <c r="P212" s="6"/>
     </row>
-    <row r="213" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O213" s="6"/>
       <c r="P213" s="6"/>
     </row>
-    <row r="214" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O214" s="6"/>
       <c r="P214" s="6"/>
     </row>
-    <row r="215" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O215" s="6"/>
       <c r="P215" s="6"/>
     </row>
-    <row r="216" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O216" s="6"/>
       <c r="P216" s="6"/>
     </row>
-    <row r="217" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O217" s="6"/>
       <c r="P217" s="6"/>
     </row>
-    <row r="218" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O218" s="6"/>
       <c r="P218" s="6"/>
     </row>
-    <row r="219" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O219" s="6"/>
       <c r="P219" s="6"/>
     </row>
-    <row r="220" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O220" s="6"/>
       <c r="P220" s="6"/>
     </row>
-    <row r="221" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O221" s="6"/>
       <c r="P221" s="6"/>
     </row>
-    <row r="222" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O223" s="6"/>
       <c r="P223" s="6"/>
     </row>
-    <row r="224" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O224" s="6"/>
       <c r="P224" s="6"/>
     </row>
-    <row r="225" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O225" s="6"/>
       <c r="P225" s="6"/>
     </row>
-    <row r="226" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O226" s="6"/>
       <c r="P226" s="6"/>
     </row>
-    <row r="227" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O227" s="6"/>
       <c r="P227" s="6"/>
     </row>
-    <row r="228" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O228" s="6"/>
       <c r="P228" s="6"/>
     </row>
-    <row r="229" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O229" s="6"/>
       <c r="P229" s="6"/>
     </row>
-    <row r="230" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O230" s="6"/>
       <c r="P230" s="6"/>
     </row>
-    <row r="231" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O231" s="6"/>
       <c r="P231" s="6"/>
     </row>
-    <row r="232" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O232" s="6"/>
       <c r="P232" s="6"/>
     </row>
-    <row r="233" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O233" s="6"/>
       <c r="P233" s="6"/>
     </row>
-    <row r="234" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O234" s="6"/>
       <c r="P234" s="6"/>
     </row>
-    <row r="235" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O235" s="6"/>
       <c r="P235" s="6"/>
     </row>
-    <row r="236" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O236" s="6"/>
       <c r="P236" s="6"/>
     </row>
-    <row r="237" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O237" s="6"/>
       <c r="P237" s="6"/>
     </row>
-    <row r="238" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O238" s="6"/>
       <c r="P238" s="6"/>
     </row>
-    <row r="239" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O239" s="6"/>
       <c r="P239" s="6"/>
     </row>
-    <row r="240" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O240" s="6"/>
       <c r="P240" s="6"/>
     </row>
-    <row r="241" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O241" s="6"/>
       <c r="P241" s="6"/>
     </row>
-    <row r="242" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
     </row>
-    <row r="243" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
     </row>
-    <row r="244" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O244" s="6"/>
       <c r="P244" s="6"/>
     </row>
-    <row r="245" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O245" s="6"/>
       <c r="P245" s="6"/>
     </row>
-    <row r="246" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O246" s="6"/>
       <c r="P246" s="6"/>
     </row>
-    <row r="247" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O247" s="6"/>
       <c r="P247" s="6"/>
     </row>
-    <row r="248" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O248" s="6"/>
       <c r="P248" s="6"/>
     </row>
-    <row r="249" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O249" s="6"/>
       <c r="P249" s="6"/>
     </row>
-    <row r="250" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O250" s="6"/>
       <c r="P250" s="6"/>
     </row>
-    <row r="251" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
     </row>
-    <row r="252" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
     </row>
-    <row r="253" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O253" s="6"/>
       <c r="P253" s="6"/>
     </row>
-    <row r="254" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O254" s="6"/>
       <c r="P254" s="6"/>
     </row>
-    <row r="255" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O255" s="6"/>
       <c r="P255" s="6"/>
     </row>
-    <row r="256" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O256" s="6"/>
       <c r="P256" s="6"/>
     </row>
-    <row r="257" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O257" s="6"/>
       <c r="P257" s="6"/>
     </row>
-    <row r="258" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O258" s="6"/>
       <c r="P258" s="6"/>
     </row>
-    <row r="259" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O259" s="6"/>
       <c r="P259" s="6"/>
     </row>
-    <row r="260" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O260" s="6"/>
       <c r="P260" s="6"/>
     </row>
-    <row r="261" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O261" s="6"/>
       <c r="P261" s="6"/>
     </row>
-    <row r="262" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O262" s="6"/>
       <c r="P262" s="6"/>
     </row>
-    <row r="263" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O263" s="6"/>
       <c r="P263" s="6"/>
     </row>
-    <row r="264" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O264" s="6"/>
       <c r="P264" s="6"/>
     </row>
-    <row r="265" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O265" s="6"/>
       <c r="P265" s="6"/>
     </row>
-    <row r="266" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O266" s="6"/>
       <c r="P266" s="6"/>
     </row>
-    <row r="267" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O267" s="6"/>
       <c r="P267" s="6"/>
     </row>
-    <row r="268" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O268" s="6"/>
       <c r="P268" s="6"/>
     </row>
-    <row r="269" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O269" s="6"/>
       <c r="P269" s="6"/>
     </row>
-    <row r="270" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O270" s="6"/>
       <c r="P270" s="6"/>
     </row>
-    <row r="271" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O271" s="6"/>
       <c r="P271" s="6"/>
     </row>
-    <row r="272" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O272" s="6"/>
       <c r="P272" s="6"/>
     </row>
-    <row r="273" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O273" s="6"/>
       <c r="P273" s="6"/>
     </row>
-    <row r="274" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O274" s="6"/>
       <c r="P274" s="6"/>
     </row>
-    <row r="275" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O275" s="6"/>
       <c r="P275" s="6"/>
     </row>
-    <row r="276" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O276" s="6"/>
       <c r="P276" s="6"/>
     </row>
-    <row r="277" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O277" s="6"/>
       <c r="P277" s="6"/>
     </row>
-    <row r="278" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O278" s="6"/>
       <c r="P278" s="6"/>
     </row>
-    <row r="279" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O279" s="6"/>
       <c r="P279" s="6"/>
     </row>
-    <row r="280" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O280" s="6"/>
       <c r="P280" s="6"/>
     </row>
-    <row r="281" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O281" s="6"/>
       <c r="P281" s="6"/>
     </row>
-    <row r="282" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O282" s="6"/>
       <c r="P282" s="6"/>
     </row>
-    <row r="283" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O283" s="6"/>
       <c r="P283" s="6"/>
     </row>
-    <row r="284" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O284" s="6"/>
       <c r="P284" s="6"/>
     </row>
-    <row r="285" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O285" s="6"/>
       <c r="P285" s="6"/>
     </row>
-    <row r="286" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O286" s="6"/>
       <c r="P286" s="6"/>
     </row>
-    <row r="287" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O287" s="6"/>
       <c r="P287" s="6"/>
     </row>
-    <row r="288" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O288" s="6"/>
       <c r="P288" s="6"/>
     </row>
-    <row r="289" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O289" s="6"/>
       <c r="P289" s="6"/>
     </row>
-    <row r="290" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="290" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O290" s="6"/>
       <c r="P290" s="6"/>
     </row>
-    <row r="291" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="291" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O291" s="6"/>
       <c r="P291" s="6"/>
     </row>
-    <row r="292" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O292" s="6"/>
       <c r="P292" s="6"/>
     </row>
-    <row r="293" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O293" s="6"/>
       <c r="P293" s="6"/>
     </row>
-    <row r="294" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="294" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O294" s="6"/>
       <c r="P294" s="6"/>
     </row>
-    <row r="295" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="295" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O295" s="6"/>
       <c r="P295" s="6"/>
     </row>
-    <row r="296" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="296" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O296" s="6"/>
       <c r="P296" s="6"/>
     </row>
-    <row r="297" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="297" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O297" s="6"/>
       <c r="P297" s="6"/>
     </row>
-    <row r="298" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="298" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O298" s="6"/>
       <c r="P298" s="6"/>
     </row>
-    <row r="299" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="299" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O299" s="6"/>
       <c r="P299" s="6"/>
     </row>
-    <row r="300" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="300" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O300" s="6"/>
       <c r="P300" s="6"/>
     </row>
-    <row r="301" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="301" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O301" s="6"/>
       <c r="P301" s="6"/>
     </row>
-    <row r="302" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="302" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O302" s="6"/>
       <c r="P302" s="6"/>
     </row>
-    <row r="303" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="303" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O303" s="6"/>
       <c r="P303" s="6"/>
     </row>
-    <row r="304" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="304" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O304" s="6"/>
       <c r="P304" s="6"/>
     </row>
-    <row r="305" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O305" s="6"/>
       <c r="P305" s="6"/>
     </row>
-    <row r="306" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O306" s="6"/>
       <c r="P306" s="6"/>
     </row>
-    <row r="307" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O307" s="6"/>
       <c r="P307" s="6"/>
     </row>
-    <row r="308" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O308" s="6"/>
       <c r="P308" s="6"/>
     </row>
-    <row r="309" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O309" s="6"/>
       <c r="P309" s="6"/>
     </row>
-    <row r="310" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O310" s="6"/>
       <c r="P310" s="6"/>
     </row>
-    <row r="311" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O311" s="6"/>
       <c r="P311" s="6"/>
     </row>
-    <row r="312" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O312" s="6"/>
       <c r="P312" s="6"/>
     </row>
-    <row r="313" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O313" s="6"/>
       <c r="P313" s="6"/>
     </row>
-    <row r="314" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O314" s="6"/>
       <c r="P314" s="6"/>
     </row>
-    <row r="315" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O315" s="6"/>
       <c r="P315" s="6"/>
     </row>
-    <row r="316" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O316" s="6"/>
       <c r="P316" s="6"/>
     </row>
-    <row r="317" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O317" s="6"/>
       <c r="P317" s="6"/>
     </row>
-    <row r="318" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O318" s="6"/>
       <c r="P318" s="6"/>
     </row>
-    <row r="319" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O319" s="6"/>
       <c r="P319" s="6"/>
     </row>
-    <row r="320" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O320" s="6"/>
       <c r="P320" s="6"/>
     </row>
-    <row r="321" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="321" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O321" s="6"/>
       <c r="P321" s="6"/>
     </row>
-    <row r="322" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="322" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O322" s="6"/>
       <c r="P322" s="6"/>
     </row>
-    <row r="323" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="323" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O323" s="6"/>
       <c r="P323" s="6"/>
     </row>
-    <row r="324" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="324" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O324" s="6"/>
       <c r="P324" s="6"/>
     </row>
-    <row r="325" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="325" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O325" s="6"/>
       <c r="P325" s="6"/>
     </row>
-    <row r="326" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="326" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O326" s="6"/>
       <c r="P326" s="6"/>
     </row>
-    <row r="327" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="327" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O327" s="6"/>
       <c r="P327" s="6"/>
     </row>
-    <row r="328" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="328" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O328" s="6"/>
       <c r="P328" s="6"/>
     </row>
-    <row r="329" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="329" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O329" s="6"/>
       <c r="P329" s="6"/>
     </row>
-    <row r="330" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="330" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O330" s="6"/>
       <c r="P330" s="6"/>
     </row>
-    <row r="331" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="331" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O331" s="6"/>
       <c r="P331" s="6"/>
     </row>
-    <row r="332" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="332" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O332" s="6"/>
       <c r="P332" s="6"/>
     </row>
-    <row r="333" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="333" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O333" s="6"/>
       <c r="P333" s="6"/>
     </row>
-    <row r="334" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="334" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O334" s="6"/>
       <c r="P334" s="6"/>
     </row>
-    <row r="335" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="335" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O335" s="6"/>
       <c r="P335" s="6"/>
     </row>
-    <row r="336" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="336" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O336" s="6"/>
       <c r="P336" s="6"/>
     </row>
-    <row r="337" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="337" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O337" s="6"/>
       <c r="P337" s="6"/>
     </row>
-    <row r="338" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="338" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O338" s="6"/>
       <c r="P338" s="6"/>
     </row>
-    <row r="339" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="339" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O339" s="6"/>
       <c r="P339" s="6"/>
     </row>
-    <row r="340" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="340" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O340" s="6"/>
       <c r="P340" s="6"/>
     </row>
-    <row r="341" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="341" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O341" s="6"/>
       <c r="P341" s="6"/>
     </row>
-    <row r="342" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="342" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O342" s="6"/>
       <c r="P342" s="6"/>
     </row>
-    <row r="343" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="343" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O343" s="6"/>
       <c r="P343" s="6"/>
     </row>
-    <row r="344" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="344" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O344" s="6"/>
       <c r="P344" s="6"/>
     </row>
-    <row r="345" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="345" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O345" s="6"/>
       <c r="P345" s="6"/>
     </row>
-    <row r="346" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="346" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O346" s="6"/>
       <c r="P346" s="6"/>
     </row>
-    <row r="347" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="347" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O347" s="6"/>
       <c r="P347" s="6"/>
     </row>
-    <row r="348" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="348" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O348" s="6"/>
       <c r="P348" s="6"/>
     </row>
-    <row r="349" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="349" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O349" s="6"/>
       <c r="P349" s="6"/>
     </row>
-    <row r="350" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="350" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O350" s="6"/>
       <c r="P350" s="6"/>
     </row>
-    <row r="351" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="351" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O351" s="6"/>
       <c r="P351" s="6"/>
     </row>
-    <row r="352" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="352" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O352" s="6"/>
       <c r="P352" s="6"/>
     </row>
-    <row r="353" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="353" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O353" s="6"/>
       <c r="P353" s="6"/>
     </row>
-    <row r="354" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="354" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O354" s="6"/>
       <c r="P354" s="6"/>
     </row>
-    <row r="355" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="355" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O355" s="6"/>
       <c r="P355" s="6"/>
     </row>
-    <row r="356" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="356" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O356" s="6"/>
       <c r="P356" s="6"/>
     </row>
-    <row r="357" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="357" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O357" s="6"/>
       <c r="P357" s="6"/>
     </row>
-    <row r="358" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="358" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O358" s="6"/>
       <c r="P358" s="6"/>
     </row>
-    <row r="359" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="359" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O359" s="6"/>
       <c r="P359" s="6"/>
     </row>
-    <row r="360" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="360" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O360" s="6"/>
       <c r="P360" s="6"/>
     </row>
-    <row r="361" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="361" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O361" s="6"/>
       <c r="P361" s="6"/>
     </row>
-    <row r="362" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="362" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O362" s="6"/>
       <c r="P362" s="6"/>
     </row>
-    <row r="363" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="363" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O363" s="6"/>
       <c r="P363" s="6"/>
     </row>
-    <row r="364" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="364" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O364" s="6"/>
       <c r="P364" s="6"/>
     </row>
-    <row r="365" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="365" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O365" s="6"/>
       <c r="P365" s="6"/>
     </row>
-    <row r="366" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="366" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O366" s="6"/>
       <c r="P366" s="6"/>
     </row>
-    <row r="367" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="367" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O367" s="6"/>
       <c r="P367" s="6"/>
     </row>
-    <row r="368" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="368" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O368" s="6"/>
       <c r="P368" s="6"/>
     </row>
-    <row r="369" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="369" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O369" s="6"/>
       <c r="P369" s="6"/>
     </row>
-    <row r="370" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="370" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O370" s="6"/>
       <c r="P370" s="6"/>
     </row>
-    <row r="371" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="371" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O371" s="6"/>
       <c r="P371" s="6"/>
     </row>
-    <row r="372" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="372" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O372" s="6"/>
       <c r="P372" s="6"/>
     </row>
-    <row r="373" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="373" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O373" s="6"/>
       <c r="P373" s="6"/>
     </row>
-    <row r="374" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="374" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O374" s="6"/>
       <c r="P374" s="6"/>
     </row>
-    <row r="375" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="375" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O375" s="6"/>
       <c r="P375" s="6"/>
     </row>
-    <row r="376" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="376" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O376" s="6"/>
       <c r="P376" s="6"/>
     </row>
-    <row r="377" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="377" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O377" s="6"/>
       <c r="P377" s="6"/>
     </row>
-    <row r="378" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="378" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O378" s="6"/>
       <c r="P378" s="6"/>
     </row>
-    <row r="379" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="379" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O379" s="6"/>
       <c r="P379" s="6"/>
     </row>
-    <row r="380" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="380" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O380" s="6"/>
       <c r="P380" s="6"/>
     </row>
-    <row r="381" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="381" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O381" s="6"/>
       <c r="P381" s="6"/>
     </row>
-    <row r="382" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="382" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O382" s="6"/>
       <c r="P382" s="6"/>
     </row>
-    <row r="383" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="383" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O383" s="6"/>
       <c r="P383" s="6"/>
     </row>
-    <row r="384" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="384" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O384" s="6"/>
       <c r="P384" s="6"/>
     </row>
-    <row r="385" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="385" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O385" s="6"/>
       <c r="P385" s="6"/>
     </row>
-    <row r="386" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="386" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O386" s="6"/>
       <c r="P386" s="6"/>
     </row>
-    <row r="387" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="387" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O387" s="6"/>
       <c r="P387" s="6"/>
     </row>
-    <row r="388" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="388" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O388" s="6"/>
       <c r="P388" s="6"/>
     </row>
-    <row r="389" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="389" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O389" s="6"/>
       <c r="P389" s="6"/>
     </row>
-    <row r="390" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="390" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O390" s="6"/>
       <c r="P390" s="6"/>
     </row>
-    <row r="391" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="391" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O391" s="6"/>
       <c r="P391" s="6"/>
     </row>
-    <row r="392" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="392" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O392" s="6"/>
       <c r="P392" s="6"/>
     </row>
-    <row r="393" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="393" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O393" s="6"/>
       <c r="P393" s="6"/>
     </row>
-    <row r="394" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="394" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O394" s="6"/>
       <c r="P394" s="6"/>
     </row>
-    <row r="395" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="395" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O395" s="6"/>
       <c r="P395" s="6"/>
     </row>
-    <row r="396" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="396" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O396" s="6"/>
       <c r="P396" s="6"/>
     </row>
-    <row r="397" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="397" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O397" s="6"/>
       <c r="P397" s="6"/>
     </row>
-    <row r="398" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="398" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O398" s="6"/>
       <c r="P398" s="6"/>
     </row>
-    <row r="399" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="399" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O399" s="6"/>
       <c r="P399" s="6"/>
     </row>
-    <row r="400" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="400" spans="15:16" x14ac:dyDescent="0.35">
       <c r="O400" s="6"/>
       <c r="P400" s="6"/>
     </row>
@@ -11153,14 +11278,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>71</v>
@@ -11173,25 +11298,25 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="24">
         <f>Current_Holdings!D3+C6</f>
-        <v>701170.6</v>
+        <v>701570.6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -11204,7 +11329,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>69</v>
       </c>
@@ -11212,7 +11337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>70</v>
       </c>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F996ED97-42C1-4AFE-8BFA-8C100303859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{861848E4-A8A3-47BC-9A4A-E1DC760B122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$7:$R$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$T$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$R$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>Excess Return</t>
-  </si>
-  <si>
-    <t>FCF Value</t>
-  </si>
-  <si>
-    <t>Ideal Price</t>
   </si>
   <si>
     <t>HKG</t>
@@ -106,12 +100,6 @@
     <t>Breakeven Price</t>
   </si>
   <si>
-    <t>Price Floor</t>
-  </si>
-  <si>
-    <t>Price Ceiling</t>
-  </si>
-  <si>
     <t>Next Sell Price</t>
   </si>
   <si>
@@ -124,64 +112,13 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Fast Growers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Asset Plays </t>
-  </si>
-  <si>
-    <t>Cyclicals</t>
-  </si>
-  <si>
-    <t>Slow Growers</t>
   </si>
   <si>
     <t>0083.HK</t>
   </si>
   <si>
     <t>SINO LAND</t>
-  </si>
-  <si>
-    <t>0071.HK</t>
-  </si>
-  <si>
-    <t>MIRAMAR HOTEL</t>
-  </si>
-  <si>
-    <t>0303.HK</t>
-  </si>
-  <si>
-    <t>VTECH HOLDINGS</t>
-  </si>
-  <si>
-    <t>0683.HK</t>
-  </si>
-  <si>
-    <t>KERRY PPT</t>
-  </si>
-  <si>
-    <t>0697.HK</t>
-  </si>
-  <si>
-    <t>SHOUCHENG</t>
-  </si>
-  <si>
-    <t>0981.HK</t>
-  </si>
-  <si>
-    <t>SMIC</t>
-  </si>
-  <si>
-    <t>1766.HK</t>
-  </si>
-  <si>
-    <t>CRRC</t>
-  </si>
-  <si>
-    <t>6186.HK</t>
-  </si>
-  <si>
-    <t>CHINA FEIHE</t>
   </si>
   <si>
     <t>6601.HK</t>
@@ -229,9 +166,6 @@
     <t>VALUE PARTNERS</t>
   </si>
   <si>
-    <t>Asset Play</t>
-  </si>
-  <si>
     <t>% From Buy</t>
   </si>
   <si>
@@ -253,31 +187,13 @@
     <t>HK Account:</t>
   </si>
   <si>
-    <t>0088.HK</t>
+    <t>Exp Exit Price</t>
   </si>
   <si>
-    <t>TAI CHEUNG HOLD</t>
+    <t>Worst Case Price</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>603610.SS</t>
-  </si>
-  <si>
-    <t>KEESON TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>SHH</t>
-  </si>
-  <si>
-    <t>9982.HK</t>
-  </si>
-  <si>
-    <t>CENTRALCHINA MT</t>
+    <t>Exp Price</t>
   </si>
 </sst>
 </file>
@@ -642,18 +558,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -991,10 +900,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T400"/>
+  <dimension ref="A2:R400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,13 +913,13 @@
     <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.6328125" customWidth="1"/>
     <col min="6" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="16" width="14.6328125" customWidth="1"/>
-    <col min="17" max="17" width="14.453125" customWidth="1"/>
-    <col min="18" max="18" width="16.6328125" customWidth="1"/>
-    <col min="20" max="20" width="13.1796875" customWidth="1"/>
+    <col min="9" max="14" width="14.6328125" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" customWidth="1"/>
+    <col min="16" max="16" width="16.6328125" customWidth="1"/>
+    <col min="18" max="18" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1031,18 +940,16 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D3" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -1052,12 +959,10 @@
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -1072,823 +977,395 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="D5" s="7">
+        <v>9.52</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="7">
-        <v>11.66</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="6">
-        <v>-2.0170970386914094E-2</v>
+        <v>8.9046645096271249E-3</v>
       </c>
       <c r="G5" s="6">
-        <v>4.2881646655231559E-2</v>
+        <v>0.42</v>
       </c>
       <c r="H5" s="6">
         <f>D5/I5-1</f>
-        <v>5.2346570397111991E-2</v>
+        <v>5.7777777777777706E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>11.08</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9">
-        <v>3000</v>
+        <v>9.6314285714285717</v>
       </c>
       <c r="K5" s="7">
-        <v>13.329505058218302</v>
+        <v>11.257972431790977</v>
       </c>
       <c r="L5" s="7">
-        <v>11.274263452830414</v>
+        <v>9.6047724061316497</v>
       </c>
       <c r="M5" s="7">
-        <v>13.329505058218302</v>
+        <v>10.38118789234521</v>
       </c>
       <c r="N5" s="7">
-        <v>12.590806485288581</v>
-      </c>
-      <c r="O5" s="7">
-        <v>11.446187713898709</v>
-      </c>
-      <c r="P5" s="7">
-        <v>10.072645188230865</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>44926</v>
-      </c>
-      <c r="R5" s="8">
+        <v>9.4374435384956445</v>
+      </c>
+      <c r="O5" s="8">
+        <v>44742</v>
+      </c>
+      <c r="P5" s="8">
         <v>45169</v>
       </c>
-      <c r="S5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>10.7</v>
+        <v>2.7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>-7.708192845340936E-2</v>
+        <v>0.10809205696137236</v>
       </c>
       <c r="G6" s="6">
-        <v>5.2336448598130851E-2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
         <f>D6/I6-1</f>
-        <v>8.0808080808080662E-2</v>
+        <v>0.17391304347826098</v>
       </c>
       <c r="I6" s="7">
-        <v>9.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J6" s="9">
-        <v>4000</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K6" s="7">
-        <v>12.347246296726411</v>
+        <v>2.9918485537957054</v>
       </c>
       <c r="L6" s="7">
-        <v>10.429776905912007</v>
+        <v>1.9603905421822192</v>
       </c>
       <c r="M6" s="7">
-        <v>11.339169963600042</v>
+        <v>1.9686622948637991</v>
       </c>
       <c r="N6" s="7">
-        <v>10.945223365548518</v>
-      </c>
-      <c r="O6" s="7">
-        <v>9.9502030595895619</v>
-      </c>
-      <c r="P6" s="7">
-        <v>8.7561786924388141</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>44742</v>
-      </c>
-      <c r="R6" s="8">
+        <v>1.7896929953307263</v>
+      </c>
+      <c r="O6" s="8">
+        <v>44926</v>
+      </c>
+      <c r="P6" s="8">
         <v>45169</v>
       </c>
-      <c r="S6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>3.75</v>
+        <v>1.61</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6">
-        <v>-9.5067906447583367E-2</v>
+        <v>0.19264733733580974</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
-        <v>9.460132386808362E-2</v>
+        <v>0.13380281690140849</v>
       </c>
       <c r="I7" s="7">
-        <v>3.4259048643832384</v>
+        <v>1.42</v>
       </c>
       <c r="J7" s="9">
-        <v>24000</v>
+        <v>1.5629999999999999</v>
       </c>
       <c r="K7" s="7">
-        <v>4.4000000000000004</v>
+        <v>1.9201622131106537</v>
       </c>
       <c r="L7" s="7">
-        <v>2.7</v>
+        <v>1.7510946618124614</v>
       </c>
       <c r="M7" s="7">
-        <v>5.0267730771168022</v>
+        <v>1.6463740605901702</v>
       </c>
       <c r="N7" s="7">
-        <v>3.7684953508215626</v>
-      </c>
-      <c r="O7" s="7">
-        <v>3.4259048643832384</v>
-      </c>
-      <c r="P7" s="7">
-        <v>3.0147962806572499</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>44651</v>
-      </c>
-      <c r="R7" s="8">
-        <v>45077</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7">
-        <v>45.7</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6">
-        <v>-0.36836033189280337</v>
-      </c>
-      <c r="G8" s="6">
-        <v>8.0618232710356244E-2</v>
-      </c>
-      <c r="H8" s="6">
-        <f>D8/I8-1</f>
-        <v>0.50347233474338227</v>
-      </c>
-      <c r="I8" s="7">
-        <v>30.396302574998984</v>
-      </c>
-      <c r="J8" s="9">
-        <v>3000</v>
-      </c>
-      <c r="K8" s="7">
-        <v>44.229402359676079</v>
-      </c>
-      <c r="L8" s="7">
-        <v>22.696137749529132</v>
-      </c>
-      <c r="M8" s="7">
-        <v>40.483115114538826</v>
-      </c>
-      <c r="N8" s="7">
-        <v>33.435932832498885</v>
-      </c>
-      <c r="O8" s="7">
-        <v>30.396302574998984</v>
-      </c>
-      <c r="P8" s="7">
-        <v>26.74874626599911</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>44651</v>
-      </c>
-      <c r="R8" s="8">
-        <v>45077</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="7">
-        <v>19.64</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6">
-        <v>-0.15154442949569583</v>
-      </c>
-      <c r="G9" s="6">
-        <v>6.8737270875763756E-2</v>
-      </c>
-      <c r="H9" s="6">
-        <f>D9/I9-1</f>
-        <v>0.19030303030303042</v>
-      </c>
-      <c r="I9" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="J9" s="9">
-        <v>3000</v>
-      </c>
-      <c r="K9" s="7">
-        <v>19</v>
-      </c>
-      <c r="L9" s="7">
-        <v>15.177942172348047</v>
-      </c>
-      <c r="M9" s="7">
-        <v>20.816330621780622</v>
-      </c>
-      <c r="N9" s="7">
-        <v>18.627667404704535</v>
-      </c>
-      <c r="O9" s="7">
-        <v>16.934243095185941</v>
-      </c>
-      <c r="P9" s="7">
-        <v>14.902133923763628</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>44561</v>
-      </c>
-      <c r="R9" s="8">
-        <v>44985</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2.13</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6">
-        <v>-0.45420506423390372</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5.7981220657276997E-2</v>
-      </c>
-      <c r="H10" s="6">
-        <f>D10/I10-1</f>
-        <v>0.93636363636363606</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J10" s="9">
-        <v>60000</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1.1255593142346405</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1.4811715330371442</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1.3755432131817849</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1.2504938301652588</v>
-      </c>
-      <c r="P10" s="7">
-        <v>1.1004345705454279</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>44561</v>
-      </c>
-      <c r="R10" s="8">
-        <v>44985</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2.36</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <f>D11/I11-1</f>
-        <v>0.26881720430107503</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1.86</v>
-      </c>
-      <c r="J11" s="9">
-        <v>78000</v>
-      </c>
-      <c r="K11" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="L11" s="7">
-        <v>1.5044652214049168</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1.7388053570895838</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1.7388053570895838</v>
-      </c>
-      <c r="O11" s="7">
-        <v>1.7388053570895838</v>
-      </c>
-      <c r="P11" s="7">
-        <v>1.7388053570895838</v>
-      </c>
-      <c r="Q11" s="8">
+        <v>1.4967036914456091</v>
+      </c>
+      <c r="O7" s="8">
         <v>44926</v>
       </c>
-      <c r="R11" s="8">
+      <c r="P7" s="8">
         <v>45169</v>
       </c>
-      <c r="S11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="7">
-        <v>20.45</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <f>D12/I12-1</f>
-        <v>0.36333333333333329</v>
-      </c>
-      <c r="I12" s="7">
-        <v>15</v>
-      </c>
-      <c r="J12" s="9">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="7">
-        <v>-1.934748458322046</v>
-      </c>
-      <c r="L12" s="7">
-        <v>-2.4825554219921369</v>
-      </c>
-      <c r="M12" s="7">
-        <v>-1.934748458322046</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="8">
-        <v>44926</v>
-      </c>
-      <c r="R12" s="8">
-        <v>45169</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="7">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6">
-        <v>-0.37210803569384443</v>
-      </c>
-      <c r="G13" s="6">
-        <v>4.2512968651153754E-2</v>
-      </c>
-      <c r="H13" s="6">
-        <f>D13/I13-1</f>
-        <v>0.98749999999999982</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="J13" s="9">
-        <v>20000</v>
-      </c>
-      <c r="K13" s="7">
-        <v>5.5436244047265006</v>
-      </c>
-      <c r="L13" s="7">
-        <v>1.6805439928309407</v>
-      </c>
-      <c r="M13" s="7">
-        <v>6.4824877318232357</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3.4720446697403617</v>
-      </c>
-      <c r="O13" s="7">
-        <v>3.1564042452185106</v>
-      </c>
-      <c r="P13" s="7">
-        <v>2.7776357357922894</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>44561</v>
-      </c>
-      <c r="R13" s="8">
-        <v>45016</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="7">
-        <v>11.4</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="6">
-        <v>-0.1543897372529324</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1.9298245614035089E-2</v>
-      </c>
-      <c r="H14" s="6" t="e">
-        <f>D14/I14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>15.13</v>
-      </c>
-      <c r="L14" s="7">
-        <v>7.086018344695086</v>
-      </c>
-      <c r="M14" s="7">
-        <v>15.13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>10.779956995316571</v>
-      </c>
-      <c r="O14" s="7">
-        <v>9.7999609048332452</v>
-      </c>
-      <c r="P14" s="7">
-        <v>8.6239655962532566</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>44561</v>
-      </c>
-      <c r="R14" s="8">
-        <v>45077</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.13272814393720309</v>
-      </c>
-      <c r="G15" s="6">
-        <v>6.0018725477792079E-2</v>
-      </c>
-      <c r="H15" s="6">
-        <f>D15/I15-1</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="I15" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="J15" s="9">
-        <v>8000</v>
-      </c>
-      <c r="K15" s="7">
-        <v>7.1711197080826965</v>
-      </c>
-      <c r="L15" s="7">
-        <v>3.0132085224838958</v>
-      </c>
-      <c r="M15" s="7">
-        <v>8.3897563803663164</v>
-      </c>
-      <c r="N15" s="7">
-        <v>6.2869135340797353</v>
-      </c>
-      <c r="O15" s="7">
-        <v>5.7153759400724864</v>
-      </c>
-      <c r="P15" s="7">
-        <v>5.0295308272637884</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>44561</v>
-      </c>
-      <c r="R15" s="8">
-        <v>44985</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1.75</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6">
-        <v>-2.492492117347625E-2</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.14162891842070077</v>
-      </c>
-      <c r="H16" s="6">
-        <f>D16/I16-1</f>
-        <v>8.0246913580246826E-2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1.62</v>
-      </c>
-      <c r="J16" s="9">
-        <v>30000</v>
-      </c>
-      <c r="K16" s="7">
-        <v>2.0092344760046403</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1.772812009880244</v>
-      </c>
-      <c r="M16" s="5">
-        <v>2.0092344760046403</v>
-      </c>
-      <c r="N16" s="5">
-        <v>1.8813813879464165</v>
-      </c>
-      <c r="O16" s="5">
-        <v>1.710346716314924</v>
-      </c>
-      <c r="P16" s="7">
-        <v>1.5051051103571331</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>44926</v>
-      </c>
-      <c r="R16" s="8">
-        <v>45169</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="6">
-        <v>4.5383095110023003E-2</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.54472660931038763</v>
-      </c>
-      <c r="H17" s="6">
-        <f>D17/I17-1</f>
-        <v>5.8139534883721034E-2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0.48815835356228549</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0.52114930827506045</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0.47377209843187312</v>
-      </c>
-      <c r="P17" s="7">
-        <v>0.41691944662004837</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>44926</v>
-      </c>
-      <c r="R17" s="8">
-        <v>45169</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -1902,14 +1379,12 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -1923,14 +1398,12 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -1944,14 +1417,12 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -1965,14 +1436,12 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -1986,14 +1455,12 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -2007,14 +1474,12 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -2028,14 +1493,12 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -2049,14 +1512,12 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -2070,14 +1531,12 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -2091,14 +1550,12 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -2112,14 +1569,12 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -2133,14 +1588,12 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -2154,14 +1607,12 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -2175,14 +1626,12 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -2196,14 +1645,12 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -2217,14 +1664,12 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -2238,14 +1683,12 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -2259,14 +1702,12 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -2280,14 +1721,12 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -2301,14 +1740,12 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -2322,14 +1759,12 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -2343,14 +1778,12 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -2364,14 +1797,12 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -2385,14 +1816,12 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -2406,14 +1835,12 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -2427,14 +1854,12 @@
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -2448,14 +1873,12 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -2469,14 +1892,12 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -2490,14 +1911,12 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -2511,14 +1930,12 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -2532,14 +1949,12 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -2553,14 +1968,12 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -2574,14 +1987,12 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -2595,14 +2006,12 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -2616,14 +2025,12 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -2637,14 +2044,12 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -2658,14 +2063,12 @@
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -2679,14 +2082,12 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -2700,14 +2101,12 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -2721,14 +2120,12 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -2742,14 +2139,12 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -2763,14 +2158,12 @@
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -2784,14 +2177,12 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
@@ -2805,14 +2196,12 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -2826,14 +2215,12 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -2847,14 +2234,12 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -2868,14 +2253,12 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -2889,14 +2272,12 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -2910,14 +2291,12 @@
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -2931,14 +2310,12 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -2952,14 +2329,12 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -2973,14 +2348,12 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -2994,14 +2367,12 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -3015,14 +2386,12 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -3036,14 +2405,12 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -3057,14 +2424,12 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -3078,14 +2443,12 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -3099,14 +2462,12 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -3120,14 +2481,12 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -3141,14 +2500,12 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -3162,14 +2519,12 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -3183,14 +2538,12 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -3204,14 +2557,12 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -3225,14 +2576,12 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -3246,14 +2595,12 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -3267,14 +2614,12 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -3288,14 +2633,12 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -3309,14 +2652,12 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -3330,14 +2671,12 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
@@ -3351,14 +2690,12 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -3372,14 +2709,12 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -3393,14 +2728,12 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
@@ -3414,14 +2747,12 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
@@ -3435,14 +2766,12 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
@@ -3456,14 +2785,12 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
@@ -3477,14 +2804,12 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
@@ -3498,14 +2823,12 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
@@ -3519,14 +2842,12 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
@@ -3540,14 +2861,12 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
@@ -3561,14 +2880,12 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
@@ -3582,14 +2899,12 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
@@ -3603,14 +2918,12 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
@@ -3624,14 +2937,12 @@
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
@@ -3645,14 +2956,12 @@
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
@@ -3666,14 +2975,12 @@
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
@@ -3687,14 +2994,12 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
@@ -3708,14 +3013,12 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-    </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
@@ -3729,14 +3032,12 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-    </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
@@ -3750,14 +3051,12 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
-    </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
@@ -3771,14 +3070,12 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-    </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
@@ -3792,14 +3089,12 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="8"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
@@ -3813,14 +3108,12 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
       <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
@@ -3834,14 +3127,12 @@
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
@@ -3855,14 +3146,12 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
       <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-    </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -3876,14 +3165,12 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
       <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="8"/>
-      <c r="R112" s="8"/>
-      <c r="S112" s="5"/>
-      <c r="T112" s="5"/>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
@@ -3897,14 +3184,12 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-    </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
@@ -3918,14 +3203,12 @@
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
       <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="8"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
@@ -3939,14 +3222,12 @@
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
       <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
@@ -3960,14 +3241,12 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
       <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="8"/>
-      <c r="R116" s="8"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
@@ -3981,14 +3260,12 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="8"/>
-      <c r="R117" s="8"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
@@ -4002,14 +3279,12 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="8"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
@@ -4023,14 +3298,12 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
       <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="8"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
@@ -4044,14 +3317,12 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
       <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-    </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
@@ -4065,14 +3336,12 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
       <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="8"/>
-      <c r="R121" s="8"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
-    </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
@@ -4086,14 +3355,12 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-    </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
@@ -4107,14 +3374,12 @@
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="8"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-    </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
@@ -4128,14 +3393,12 @@
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
       <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
-      <c r="P124" s="7"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-    </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -4149,14 +3412,12 @@
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
       <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
-      <c r="P125" s="7"/>
-      <c r="Q125" s="8"/>
-      <c r="R125" s="8"/>
-      <c r="S125" s="5"/>
-      <c r="T125" s="5"/>
-    </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
@@ -4170,14 +3431,12 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="8"/>
-      <c r="R126" s="8"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="5"/>
-    </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
@@ -4191,14 +3450,12 @@
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="8"/>
-      <c r="S127" s="5"/>
-      <c r="T127" s="5"/>
-    </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
@@ -4212,14 +3469,12 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
-      <c r="O128" s="7"/>
-      <c r="P128" s="7"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="8"/>
-      <c r="S128" s="5"/>
-      <c r="T128" s="5"/>
-    </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -4233,14 +3488,12 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="8"/>
-      <c r="R129" s="8"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
-    </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -4254,14 +3507,12 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
-      <c r="O130" s="7"/>
-      <c r="P130" s="7"/>
-      <c r="Q130" s="8"/>
-      <c r="R130" s="8"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="5"/>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -4275,14 +3526,12 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
       <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="7"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
-      <c r="S131" s="5"/>
-      <c r="T131" s="5"/>
-    </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -4296,14 +3545,12 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="8"/>
-      <c r="R132" s="8"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="5"/>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -4317,14 +3564,12 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="8"/>
-      <c r="R133" s="8"/>
-      <c r="S133" s="5"/>
-      <c r="T133" s="5"/>
-    </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -4338,14 +3583,12 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="8"/>
-      <c r="R134" s="8"/>
-      <c r="S134" s="5"/>
-      <c r="T134" s="5"/>
-    </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -4359,14 +3602,12 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="8"/>
-      <c r="R135" s="8"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-    </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -4380,14 +3621,12 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
       <c r="N136" s="7"/>
-      <c r="O136" s="7"/>
-      <c r="P136" s="7"/>
-      <c r="Q136" s="8"/>
-      <c r="R136" s="8"/>
-      <c r="S136" s="5"/>
-      <c r="T136" s="5"/>
-    </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -4401,14 +3640,12 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
       <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="8"/>
-      <c r="R137" s="8"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-    </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -4422,14 +3659,12 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
       <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
-      <c r="P138" s="7"/>
-      <c r="Q138" s="8"/>
-      <c r="R138" s="8"/>
-      <c r="S138" s="5"/>
-      <c r="T138" s="5"/>
-    </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -4443,14 +3678,12 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
       <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
-      <c r="P139" s="7"/>
-      <c r="Q139" s="8"/>
-      <c r="R139" s="8"/>
-      <c r="S139" s="5"/>
-      <c r="T139" s="5"/>
-    </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O139" s="8"/>
+      <c r="P139" s="8"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+    </row>
+    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -4464,14 +3697,12 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
-      <c r="O140" s="7"/>
-      <c r="P140" s="7"/>
-      <c r="Q140" s="8"/>
-      <c r="R140" s="8"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="5"/>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="5"/>
+    </row>
+    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -4485,14 +3716,12 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
-      <c r="P141" s="7"/>
-      <c r="Q141" s="8"/>
-      <c r="R141" s="8"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-    </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -4506,14 +3735,12 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
-      <c r="O142" s="7"/>
-      <c r="P142" s="7"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-    </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -4527,14 +3754,12 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
-      <c r="O143" s="7"/>
-      <c r="P143" s="7"/>
-      <c r="Q143" s="8"/>
-      <c r="R143" s="8"/>
-      <c r="S143" s="5"/>
-      <c r="T143" s="5"/>
-    </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O143" s="8"/>
+      <c r="P143" s="8"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+    </row>
+    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -4548,14 +3773,12 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
-      <c r="O144" s="7"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="8"/>
-      <c r="R144" s="8"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-    </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -4569,14 +3792,12 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
-      <c r="O145" s="7"/>
-      <c r="P145" s="7"/>
-      <c r="Q145" s="8"/>
-      <c r="R145" s="8"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-    </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -4590,14 +3811,12 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
-      <c r="O146" s="7"/>
-      <c r="P146" s="7"/>
-      <c r="Q146" s="8"/>
-      <c r="R146" s="8"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-    </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -4611,14 +3830,12 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
-      <c r="O147" s="7"/>
-      <c r="P147" s="7"/>
-      <c r="Q147" s="8"/>
-      <c r="R147" s="8"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-    </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -4632,14 +3849,12 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
-      <c r="O148" s="7"/>
-      <c r="P148" s="7"/>
-      <c r="Q148" s="8"/>
-      <c r="R148" s="8"/>
-      <c r="S148" s="5"/>
-      <c r="T148" s="5"/>
-    </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -4653,14 +3868,12 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
-      <c r="O149" s="7"/>
-      <c r="P149" s="7"/>
-      <c r="Q149" s="8"/>
-      <c r="R149" s="8"/>
-      <c r="S149" s="5"/>
-      <c r="T149" s="5"/>
-    </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -4674,14 +3887,12 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
-      <c r="O150" s="7"/>
-      <c r="P150" s="7"/>
-      <c r="Q150" s="8"/>
-      <c r="R150" s="8"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-    </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -4695,14 +3906,12 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
-      <c r="O151" s="7"/>
-      <c r="P151" s="7"/>
-      <c r="Q151" s="8"/>
-      <c r="R151" s="8"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-    </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -4716,14 +3925,12 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
-      <c r="O152" s="7"/>
-      <c r="P152" s="7"/>
-      <c r="Q152" s="8"/>
-      <c r="R152" s="8"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
-    </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -4737,14 +3944,12 @@
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
-      <c r="O153" s="7"/>
-      <c r="P153" s="7"/>
-      <c r="Q153" s="8"/>
-      <c r="R153" s="8"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="5"/>
-    </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O153" s="8"/>
+      <c r="P153" s="8"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+    </row>
+    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -4758,14 +3963,12 @@
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
-      <c r="O154" s="7"/>
-      <c r="P154" s="7"/>
-      <c r="Q154" s="8"/>
-      <c r="R154" s="8"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="5"/>
-    </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -4779,14 +3982,12 @@
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
-      <c r="O155" s="7"/>
-      <c r="P155" s="7"/>
-      <c r="Q155" s="8"/>
-      <c r="R155" s="8"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-    </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+    </row>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -4800,14 +4001,12 @@
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
-      <c r="O156" s="7"/>
-      <c r="P156" s="7"/>
-      <c r="Q156" s="8"/>
-      <c r="R156" s="8"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
-    </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O156" s="8"/>
+      <c r="P156" s="8"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -4821,14 +4020,12 @@
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
-      <c r="O157" s="7"/>
-      <c r="P157" s="7"/>
-      <c r="Q157" s="8"/>
-      <c r="R157" s="8"/>
-      <c r="S157" s="5"/>
-      <c r="T157" s="5"/>
-    </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O157" s="8"/>
+      <c r="P157" s="8"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -4842,14 +4039,12 @@
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
-      <c r="O158" s="7"/>
-      <c r="P158" s="7"/>
-      <c r="Q158" s="8"/>
-      <c r="R158" s="8"/>
-      <c r="S158" s="5"/>
-      <c r="T158" s="5"/>
-    </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+    </row>
+    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -4863,14 +4058,12 @@
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
-      <c r="O159" s="7"/>
-      <c r="P159" s="7"/>
-      <c r="Q159" s="8"/>
-      <c r="R159" s="8"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-    </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O159" s="8"/>
+      <c r="P159" s="8"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+    </row>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -4884,14 +4077,12 @@
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
-      <c r="O160" s="7"/>
-      <c r="P160" s="7"/>
-      <c r="Q160" s="8"/>
-      <c r="R160" s="8"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-    </row>
-    <row r="161" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O160" s="8"/>
+      <c r="P160" s="8"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+    </row>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -4905,14 +4096,12 @@
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
-      <c r="O161" s="7"/>
-      <c r="P161" s="7"/>
-      <c r="Q161" s="8"/>
-      <c r="R161" s="8"/>
-      <c r="S161" s="5"/>
-      <c r="T161" s="5"/>
-    </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+    </row>
+    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -4926,14 +4115,12 @@
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
-      <c r="O162" s="7"/>
-      <c r="P162" s="7"/>
-      <c r="Q162" s="8"/>
-      <c r="R162" s="8"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-    </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+    </row>
+    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -4947,14 +4134,12 @@
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
-      <c r="O163" s="7"/>
-      <c r="P163" s="7"/>
-      <c r="Q163" s="8"/>
-      <c r="R163" s="8"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
-    </row>
-    <row r="164" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="5"/>
+    </row>
+    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -4968,14 +4153,12 @@
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
-      <c r="O164" s="7"/>
-      <c r="P164" s="7"/>
-      <c r="Q164" s="8"/>
-      <c r="R164" s="8"/>
-      <c r="S164" s="5"/>
-      <c r="T164" s="5"/>
-    </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O164" s="8"/>
+      <c r="P164" s="8"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+    </row>
+    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -4989,14 +4172,12 @@
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
-      <c r="O165" s="7"/>
-      <c r="P165" s="7"/>
-      <c r="Q165" s="8"/>
-      <c r="R165" s="8"/>
-      <c r="S165" s="5"/>
-      <c r="T165" s="5"/>
-    </row>
-    <row r="166" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O165" s="8"/>
+      <c r="P165" s="8"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+    </row>
+    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -5010,14 +4191,12 @@
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
-      <c r="O166" s="7"/>
-      <c r="P166" s="7"/>
-      <c r="Q166" s="8"/>
-      <c r="R166" s="8"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-    </row>
-    <row r="167" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O166" s="8"/>
+      <c r="P166" s="8"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+    </row>
+    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -5031,14 +4210,12 @@
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
-      <c r="O167" s="7"/>
-      <c r="P167" s="7"/>
-      <c r="Q167" s="8"/>
-      <c r="R167" s="8"/>
-      <c r="S167" s="5"/>
-      <c r="T167" s="5"/>
-    </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O167" s="8"/>
+      <c r="P167" s="8"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="5"/>
+    </row>
+    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -5052,14 +4229,12 @@
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
-      <c r="O168" s="7"/>
-      <c r="P168" s="7"/>
-      <c r="Q168" s="8"/>
-      <c r="R168" s="8"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-    </row>
-    <row r="169" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O168" s="8"/>
+      <c r="P168" s="8"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+    </row>
+    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -5073,14 +4248,12 @@
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
-      <c r="O169" s="7"/>
-      <c r="P169" s="7"/>
-      <c r="Q169" s="8"/>
-      <c r="R169" s="8"/>
-      <c r="S169" s="5"/>
-      <c r="T169" s="5"/>
-    </row>
-    <row r="170" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O169" s="8"/>
+      <c r="P169" s="8"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="5"/>
+    </row>
+    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -5094,14 +4267,12 @@
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
-      <c r="O170" s="7"/>
-      <c r="P170" s="7"/>
-      <c r="Q170" s="8"/>
-      <c r="R170" s="8"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-    </row>
-    <row r="171" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O170" s="8"/>
+      <c r="P170" s="8"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="5"/>
+    </row>
+    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -5115,14 +4286,12 @@
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
       <c r="N171" s="7"/>
-      <c r="O171" s="7"/>
-      <c r="P171" s="7"/>
-      <c r="Q171" s="8"/>
-      <c r="R171" s="8"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-    </row>
-    <row r="172" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O171" s="8"/>
+      <c r="P171" s="8"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="5"/>
+    </row>
+    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -5136,14 +4305,12 @@
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
       <c r="N172" s="7"/>
-      <c r="O172" s="7"/>
-      <c r="P172" s="7"/>
-      <c r="Q172" s="8"/>
-      <c r="R172" s="8"/>
-      <c r="S172" s="5"/>
-      <c r="T172" s="5"/>
-    </row>
-    <row r="173" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O172" s="8"/>
+      <c r="P172" s="8"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="5"/>
+    </row>
+    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -5157,14 +4324,12 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
       <c r="N173" s="7"/>
-      <c r="O173" s="7"/>
-      <c r="P173" s="7"/>
-      <c r="Q173" s="8"/>
-      <c r="R173" s="8"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
-    </row>
-    <row r="174" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O173" s="8"/>
+      <c r="P173" s="8"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="5"/>
+    </row>
+    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -5178,14 +4343,12 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
       <c r="N174" s="7"/>
-      <c r="O174" s="7"/>
-      <c r="P174" s="7"/>
-      <c r="Q174" s="8"/>
-      <c r="R174" s="8"/>
-      <c r="S174" s="5"/>
-      <c r="T174" s="5"/>
-    </row>
-    <row r="175" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O174" s="8"/>
+      <c r="P174" s="8"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="5"/>
+    </row>
+    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -5199,14 +4362,12 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
       <c r="N175" s="7"/>
-      <c r="O175" s="7"/>
-      <c r="P175" s="7"/>
-      <c r="Q175" s="8"/>
-      <c r="R175" s="8"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-    </row>
-    <row r="176" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O175" s="8"/>
+      <c r="P175" s="8"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="5"/>
+    </row>
+    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -5220,14 +4381,12 @@
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
       <c r="N176" s="7"/>
-      <c r="O176" s="7"/>
-      <c r="P176" s="7"/>
-      <c r="Q176" s="8"/>
-      <c r="R176" s="8"/>
-      <c r="S176" s="5"/>
-      <c r="T176" s="5"/>
-    </row>
-    <row r="177" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O176" s="8"/>
+      <c r="P176" s="8"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="5"/>
+    </row>
+    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -5241,14 +4400,12 @@
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
-      <c r="O177" s="7"/>
-      <c r="P177" s="7"/>
-      <c r="Q177" s="8"/>
-      <c r="R177" s="8"/>
-      <c r="S177" s="5"/>
-      <c r="T177" s="5"/>
-    </row>
-    <row r="178" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O177" s="8"/>
+      <c r="P177" s="8"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="5"/>
+    </row>
+    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -5262,14 +4419,12 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
-      <c r="O178" s="7"/>
-      <c r="P178" s="7"/>
-      <c r="Q178" s="8"/>
-      <c r="R178" s="8"/>
-      <c r="S178" s="5"/>
-      <c r="T178" s="5"/>
-    </row>
-    <row r="179" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O178" s="8"/>
+      <c r="P178" s="8"/>
+      <c r="Q178" s="5"/>
+      <c r="R178" s="5"/>
+    </row>
+    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -5283,14 +4438,12 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
       <c r="N179" s="7"/>
-      <c r="O179" s="7"/>
-      <c r="P179" s="7"/>
-      <c r="Q179" s="8"/>
-      <c r="R179" s="8"/>
-      <c r="S179" s="5"/>
-      <c r="T179" s="5"/>
-    </row>
-    <row r="180" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O179" s="8"/>
+      <c r="P179" s="8"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+    </row>
+    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -5304,14 +4457,12 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
       <c r="N180" s="7"/>
-      <c r="O180" s="7"/>
-      <c r="P180" s="7"/>
-      <c r="Q180" s="8"/>
-      <c r="R180" s="8"/>
-      <c r="S180" s="5"/>
-      <c r="T180" s="5"/>
-    </row>
-    <row r="181" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O180" s="8"/>
+      <c r="P180" s="8"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="5"/>
+    </row>
+    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -5325,14 +4476,12 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
       <c r="N181" s="7"/>
-      <c r="O181" s="7"/>
-      <c r="P181" s="7"/>
-      <c r="Q181" s="8"/>
-      <c r="R181" s="8"/>
-      <c r="S181" s="5"/>
-      <c r="T181" s="5"/>
-    </row>
-    <row r="182" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O181" s="8"/>
+      <c r="P181" s="8"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+    </row>
+    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -5346,14 +4495,12 @@
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
       <c r="N182" s="7"/>
-      <c r="O182" s="7"/>
-      <c r="P182" s="7"/>
-      <c r="Q182" s="8"/>
-      <c r="R182" s="8"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-    </row>
-    <row r="183" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O182" s="8"/>
+      <c r="P182" s="8"/>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="5"/>
+    </row>
+    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -5367,14 +4514,12 @@
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
       <c r="N183" s="7"/>
-      <c r="O183" s="7"/>
-      <c r="P183" s="7"/>
-      <c r="Q183" s="8"/>
-      <c r="R183" s="8"/>
-      <c r="S183" s="5"/>
-      <c r="T183" s="5"/>
-    </row>
-    <row r="184" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O183" s="8"/>
+      <c r="P183" s="8"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="5"/>
+    </row>
+    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -5388,14 +4533,12 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
       <c r="N184" s="7"/>
-      <c r="O184" s="7"/>
-      <c r="P184" s="7"/>
-      <c r="Q184" s="8"/>
-      <c r="R184" s="8"/>
-      <c r="S184" s="5"/>
-      <c r="T184" s="5"/>
-    </row>
-    <row r="185" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O184" s="8"/>
+      <c r="P184" s="8"/>
+      <c r="Q184" s="5"/>
+      <c r="R184" s="5"/>
+    </row>
+    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -5409,14 +4552,12 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
       <c r="N185" s="7"/>
-      <c r="O185" s="7"/>
-      <c r="P185" s="7"/>
-      <c r="Q185" s="8"/>
-      <c r="R185" s="8"/>
-      <c r="S185" s="5"/>
-      <c r="T185" s="5"/>
-    </row>
-    <row r="186" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O185" s="8"/>
+      <c r="P185" s="8"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="5"/>
+    </row>
+    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -5430,14 +4571,12 @@
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
       <c r="N186" s="7"/>
-      <c r="O186" s="7"/>
-      <c r="P186" s="7"/>
-      <c r="Q186" s="8"/>
-      <c r="R186" s="8"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-    </row>
-    <row r="187" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O186" s="8"/>
+      <c r="P186" s="8"/>
+      <c r="Q186" s="5"/>
+      <c r="R186" s="5"/>
+    </row>
+    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -5451,14 +4590,12 @@
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
-      <c r="O187" s="7"/>
-      <c r="P187" s="7"/>
-      <c r="Q187" s="8"/>
-      <c r="R187" s="8"/>
-      <c r="S187" s="5"/>
-      <c r="T187" s="5"/>
-    </row>
-    <row r="188" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O187" s="8"/>
+      <c r="P187" s="8"/>
+      <c r="Q187" s="5"/>
+      <c r="R187" s="5"/>
+    </row>
+    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -5472,14 +4609,12 @@
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
-      <c r="O188" s="7"/>
-      <c r="P188" s="7"/>
-      <c r="Q188" s="8"/>
-      <c r="R188" s="8"/>
-      <c r="S188" s="5"/>
-      <c r="T188" s="5"/>
-    </row>
-    <row r="189" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O188" s="8"/>
+      <c r="P188" s="8"/>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="5"/>
+    </row>
+    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -5493,14 +4628,12 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
       <c r="N189" s="7"/>
-      <c r="O189" s="7"/>
-      <c r="P189" s="7"/>
-      <c r="Q189" s="8"/>
-      <c r="R189" s="8"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-    </row>
-    <row r="190" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O189" s="8"/>
+      <c r="P189" s="8"/>
+      <c r="Q189" s="5"/>
+      <c r="R189" s="5"/>
+    </row>
+    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -5514,14 +4647,12 @@
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
       <c r="N190" s="7"/>
-      <c r="O190" s="7"/>
-      <c r="P190" s="7"/>
-      <c r="Q190" s="8"/>
-      <c r="R190" s="8"/>
-      <c r="S190" s="5"/>
-      <c r="T190" s="5"/>
-    </row>
-    <row r="191" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O190" s="8"/>
+      <c r="P190" s="8"/>
+      <c r="Q190" s="5"/>
+      <c r="R190" s="5"/>
+    </row>
+    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -5535,14 +4666,12 @@
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
       <c r="N191" s="7"/>
-      <c r="O191" s="7"/>
-      <c r="P191" s="7"/>
-      <c r="Q191" s="8"/>
-      <c r="R191" s="8"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
-    </row>
-    <row r="192" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O191" s="8"/>
+      <c r="P191" s="8"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+    </row>
+    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -5556,14 +4685,12 @@
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
       <c r="N192" s="7"/>
-      <c r="O192" s="7"/>
-      <c r="P192" s="7"/>
-      <c r="Q192" s="8"/>
-      <c r="R192" s="8"/>
-      <c r="S192" s="5"/>
-      <c r="T192" s="5"/>
-    </row>
-    <row r="193" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O192" s="8"/>
+      <c r="P192" s="8"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="5"/>
+    </row>
+    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -5577,14 +4704,12 @@
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
       <c r="N193" s="7"/>
-      <c r="O193" s="7"/>
-      <c r="P193" s="7"/>
-      <c r="Q193" s="8"/>
-      <c r="R193" s="8"/>
-      <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
-    </row>
-    <row r="194" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O193" s="8"/>
+      <c r="P193" s="8"/>
+      <c r="Q193" s="5"/>
+      <c r="R193" s="5"/>
+    </row>
+    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -5598,14 +4723,12 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
-      <c r="O194" s="7"/>
-      <c r="P194" s="7"/>
-      <c r="Q194" s="8"/>
-      <c r="R194" s="8"/>
-      <c r="S194" s="5"/>
-      <c r="T194" s="5"/>
-    </row>
-    <row r="195" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O194" s="8"/>
+      <c r="P194" s="8"/>
+      <c r="Q194" s="5"/>
+      <c r="R194" s="5"/>
+    </row>
+    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -5619,14 +4742,12 @@
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
       <c r="N195" s="7"/>
-      <c r="O195" s="7"/>
-      <c r="P195" s="7"/>
-      <c r="Q195" s="8"/>
-      <c r="R195" s="8"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
-    </row>
-    <row r="196" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O195" s="8"/>
+      <c r="P195" s="8"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="5"/>
+    </row>
+    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -5640,14 +4761,12 @@
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
       <c r="N196" s="7"/>
-      <c r="O196" s="7"/>
-      <c r="P196" s="7"/>
-      <c r="Q196" s="8"/>
-      <c r="R196" s="8"/>
-      <c r="S196" s="5"/>
-      <c r="T196" s="5"/>
-    </row>
-    <row r="197" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O196" s="8"/>
+      <c r="P196" s="8"/>
+      <c r="Q196" s="5"/>
+      <c r="R196" s="5"/>
+    </row>
+    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -5661,14 +4780,12 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
       <c r="N197" s="7"/>
-      <c r="O197" s="7"/>
-      <c r="P197" s="7"/>
-      <c r="Q197" s="8"/>
-      <c r="R197" s="8"/>
-      <c r="S197" s="5"/>
-      <c r="T197" s="5"/>
-    </row>
-    <row r="198" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O197" s="8"/>
+      <c r="P197" s="8"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="5"/>
+    </row>
+    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -5682,14 +4799,12 @@
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
       <c r="N198" s="7"/>
-      <c r="O198" s="7"/>
-      <c r="P198" s="7"/>
-      <c r="Q198" s="8"/>
-      <c r="R198" s="8"/>
-      <c r="S198" s="5"/>
-      <c r="T198" s="5"/>
-    </row>
-    <row r="199" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O198" s="8"/>
+      <c r="P198" s="8"/>
+      <c r="Q198" s="5"/>
+      <c r="R198" s="5"/>
+    </row>
+    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -5703,14 +4818,12 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
       <c r="N199" s="7"/>
-      <c r="O199" s="7"/>
-      <c r="P199" s="7"/>
-      <c r="Q199" s="8"/>
-      <c r="R199" s="8"/>
-      <c r="S199" s="5"/>
-      <c r="T199" s="5"/>
-    </row>
-    <row r="200" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="O199" s="8"/>
+      <c r="P199" s="8"/>
+      <c r="Q199" s="5"/>
+      <c r="R199" s="5"/>
+    </row>
+    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -5724,637 +4837,630 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
       <c r="N200" s="7"/>
-      <c r="O200" s="7"/>
-      <c r="P200" s="7"/>
-      <c r="Q200" s="8"/>
-      <c r="R200" s="8"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-    </row>
-    <row r="201" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="R201" s="20"/>
-    </row>
-    <row r="202" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="R202" s="20"/>
-    </row>
-    <row r="203" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="R203" s="20"/>
-    </row>
-    <row r="204" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="R204" s="20"/>
-    </row>
-    <row r="205" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="R205" s="20"/>
-    </row>
-    <row r="206" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="R206" s="20"/>
-    </row>
-    <row r="207" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="R207" s="20"/>
-    </row>
-    <row r="208" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="R208" s="20"/>
-    </row>
-    <row r="209" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R209" s="20"/>
-    </row>
-    <row r="210" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R210" s="20"/>
-    </row>
-    <row r="211" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R211" s="20"/>
-    </row>
-    <row r="212" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R212" s="20"/>
-    </row>
-    <row r="213" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R213" s="20"/>
-    </row>
-    <row r="214" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R214" s="20"/>
-    </row>
-    <row r="215" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R215" s="20"/>
-    </row>
-    <row r="216" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R216" s="20"/>
-    </row>
-    <row r="217" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R217" s="20"/>
-    </row>
-    <row r="218" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R218" s="20"/>
-    </row>
-    <row r="219" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R219" s="20"/>
-    </row>
-    <row r="220" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R220" s="20"/>
-    </row>
-    <row r="221" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R221" s="20"/>
-    </row>
-    <row r="222" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R222" s="20"/>
-    </row>
-    <row r="223" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R223" s="20"/>
-    </row>
-    <row r="224" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R224" s="20"/>
-    </row>
-    <row r="225" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R225" s="20"/>
-    </row>
-    <row r="226" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R226" s="20"/>
-    </row>
-    <row r="227" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R227" s="20"/>
-    </row>
-    <row r="228" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R228" s="20"/>
-    </row>
-    <row r="229" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R229" s="20"/>
-    </row>
-    <row r="230" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R230" s="20"/>
-    </row>
-    <row r="231" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R231" s="20"/>
-    </row>
-    <row r="232" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R232" s="20"/>
-    </row>
-    <row r="233" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R233" s="20"/>
-    </row>
-    <row r="234" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R234" s="20"/>
-    </row>
-    <row r="235" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R235" s="20"/>
-    </row>
-    <row r="236" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R236" s="20"/>
-    </row>
-    <row r="237" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R237" s="20"/>
-    </row>
-    <row r="238" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R238" s="20"/>
-    </row>
-    <row r="239" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R239" s="20"/>
-    </row>
-    <row r="240" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R240" s="20"/>
-    </row>
-    <row r="241" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R241" s="20"/>
-    </row>
-    <row r="242" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R242" s="20"/>
-    </row>
-    <row r="243" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R243" s="20"/>
-    </row>
-    <row r="244" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R244" s="20"/>
-    </row>
-    <row r="245" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R245" s="20"/>
-    </row>
-    <row r="246" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R246" s="20"/>
-    </row>
-    <row r="247" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R247" s="20"/>
-    </row>
-    <row r="248" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R248" s="20"/>
-    </row>
-    <row r="249" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R249" s="20"/>
-    </row>
-    <row r="250" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R250" s="20"/>
-    </row>
-    <row r="251" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R251" s="20"/>
-    </row>
-    <row r="252" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R252" s="20"/>
-    </row>
-    <row r="253" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R253" s="20"/>
-    </row>
-    <row r="254" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R254" s="20"/>
-    </row>
-    <row r="255" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R255" s="20"/>
-    </row>
-    <row r="256" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R256" s="20"/>
-    </row>
-    <row r="257" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R257" s="20"/>
-    </row>
-    <row r="258" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R258" s="20"/>
-    </row>
-    <row r="259" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R259" s="20"/>
-    </row>
-    <row r="260" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R260" s="20"/>
-    </row>
-    <row r="261" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R261" s="20"/>
-    </row>
-    <row r="262" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R262" s="20"/>
-    </row>
-    <row r="263" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R263" s="20"/>
-    </row>
-    <row r="264" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R264" s="20"/>
-    </row>
-    <row r="265" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R265" s="20"/>
-    </row>
-    <row r="266" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R266" s="20"/>
-    </row>
-    <row r="267" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R267" s="20"/>
-    </row>
-    <row r="268" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R268" s="20"/>
-    </row>
-    <row r="269" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R269" s="20"/>
-    </row>
-    <row r="270" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R270" s="20"/>
-    </row>
-    <row r="271" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R271" s="20"/>
-    </row>
-    <row r="272" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R272" s="20"/>
-    </row>
-    <row r="273" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R273" s="20"/>
-    </row>
-    <row r="274" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R274" s="20"/>
-    </row>
-    <row r="275" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R275" s="20"/>
-    </row>
-    <row r="276" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R276" s="20"/>
-    </row>
-    <row r="277" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R277" s="20"/>
-    </row>
-    <row r="278" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R278" s="20"/>
-    </row>
-    <row r="279" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R279" s="20"/>
-    </row>
-    <row r="280" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R280" s="20"/>
-    </row>
-    <row r="281" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R281" s="20"/>
-    </row>
-    <row r="282" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R282" s="20"/>
-    </row>
-    <row r="283" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R283" s="20"/>
-    </row>
-    <row r="284" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R284" s="20"/>
-    </row>
-    <row r="285" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R285" s="20"/>
-    </row>
-    <row r="286" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R286" s="20"/>
-    </row>
-    <row r="287" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R287" s="20"/>
-    </row>
-    <row r="288" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R288" s="20"/>
-    </row>
-    <row r="289" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R289" s="20"/>
-    </row>
-    <row r="290" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R290" s="20"/>
-    </row>
-    <row r="291" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R291" s="20"/>
-    </row>
-    <row r="292" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R292" s="20"/>
-    </row>
-    <row r="293" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R293" s="20"/>
-    </row>
-    <row r="294" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R294" s="20"/>
-    </row>
-    <row r="295" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R295" s="20"/>
-    </row>
-    <row r="296" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R296" s="20"/>
-    </row>
-    <row r="297" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R297" s="20"/>
-    </row>
-    <row r="298" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R298" s="20"/>
-    </row>
-    <row r="299" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R299" s="20"/>
-    </row>
-    <row r="300" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R300" s="20"/>
-    </row>
-    <row r="301" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R301" s="20"/>
-    </row>
-    <row r="302" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R302" s="20"/>
-    </row>
-    <row r="303" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R303" s="20"/>
-    </row>
-    <row r="304" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R304" s="20"/>
-    </row>
-    <row r="305" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R305" s="20"/>
-    </row>
-    <row r="306" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R306" s="20"/>
-    </row>
-    <row r="307" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R307" s="20"/>
-    </row>
-    <row r="308" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R308" s="20"/>
-    </row>
-    <row r="309" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R309" s="20"/>
-    </row>
-    <row r="310" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R310" s="20"/>
-    </row>
-    <row r="311" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R311" s="20"/>
-    </row>
-    <row r="312" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R312" s="20"/>
-    </row>
-    <row r="313" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R313" s="20"/>
-    </row>
-    <row r="314" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R314" s="20"/>
-    </row>
-    <row r="315" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R315" s="20"/>
-    </row>
-    <row r="316" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R316" s="20"/>
-    </row>
-    <row r="317" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R317" s="20"/>
-    </row>
-    <row r="318" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R318" s="20"/>
-    </row>
-    <row r="319" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R319" s="20"/>
-    </row>
-    <row r="320" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R320" s="20"/>
-    </row>
-    <row r="321" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R321" s="20"/>
-    </row>
-    <row r="322" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R322" s="20"/>
-    </row>
-    <row r="323" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R323" s="20"/>
-    </row>
-    <row r="324" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R324" s="20"/>
-    </row>
-    <row r="325" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R325" s="20"/>
-    </row>
-    <row r="326" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R326" s="20"/>
-    </row>
-    <row r="327" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R327" s="20"/>
-    </row>
-    <row r="328" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R328" s="20"/>
-    </row>
-    <row r="329" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R329" s="20"/>
-    </row>
-    <row r="330" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R330" s="20"/>
-    </row>
-    <row r="331" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R331" s="20"/>
-    </row>
-    <row r="332" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R332" s="20"/>
-    </row>
-    <row r="333" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R333" s="20"/>
-    </row>
-    <row r="334" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R334" s="20"/>
-    </row>
-    <row r="335" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R335" s="20"/>
-    </row>
-    <row r="336" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R336" s="20"/>
-    </row>
-    <row r="337" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R337" s="20"/>
-    </row>
-    <row r="338" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R338" s="20"/>
-    </row>
-    <row r="339" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R339" s="20"/>
-    </row>
-    <row r="340" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R340" s="20"/>
-    </row>
-    <row r="341" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R341" s="20"/>
-    </row>
-    <row r="342" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R342" s="20"/>
-    </row>
-    <row r="343" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R343" s="20"/>
-    </row>
-    <row r="344" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R344" s="20"/>
-    </row>
-    <row r="345" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R345" s="20"/>
-    </row>
-    <row r="346" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R346" s="20"/>
-    </row>
-    <row r="347" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R347" s="20"/>
-    </row>
-    <row r="348" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R348" s="20"/>
-    </row>
-    <row r="349" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R349" s="20"/>
-    </row>
-    <row r="350" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R350" s="20"/>
-    </row>
-    <row r="351" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R351" s="20"/>
-    </row>
-    <row r="352" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R352" s="20"/>
-    </row>
-    <row r="353" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R353" s="20"/>
-    </row>
-    <row r="354" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R354" s="20"/>
-    </row>
-    <row r="355" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R355" s="20"/>
-    </row>
-    <row r="356" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R356" s="20"/>
-    </row>
-    <row r="357" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R357" s="20"/>
-    </row>
-    <row r="358" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R358" s="20"/>
-    </row>
-    <row r="359" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R359" s="20"/>
-    </row>
-    <row r="360" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R360" s="20"/>
-    </row>
-    <row r="361" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R361" s="20"/>
-    </row>
-    <row r="362" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R362" s="20"/>
-    </row>
-    <row r="363" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R363" s="20"/>
-    </row>
-    <row r="364" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R364" s="20"/>
-    </row>
-    <row r="365" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R365" s="20"/>
-    </row>
-    <row r="366" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R366" s="20"/>
-    </row>
-    <row r="367" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R367" s="20"/>
-    </row>
-    <row r="368" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R368" s="20"/>
-    </row>
-    <row r="369" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R369" s="20"/>
-    </row>
-    <row r="370" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R370" s="20"/>
-    </row>
-    <row r="371" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R371" s="20"/>
-    </row>
-    <row r="372" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R372" s="20"/>
-    </row>
-    <row r="373" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R373" s="20"/>
-    </row>
-    <row r="374" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R374" s="20"/>
-    </row>
-    <row r="375" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R375" s="20"/>
-    </row>
-    <row r="376" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R376" s="20"/>
-    </row>
-    <row r="377" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R377" s="20"/>
-    </row>
-    <row r="378" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R378" s="20"/>
-    </row>
-    <row r="379" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R379" s="20"/>
-    </row>
-    <row r="380" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R380" s="20"/>
-    </row>
-    <row r="381" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R381" s="20"/>
-    </row>
-    <row r="382" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R382" s="20"/>
-    </row>
-    <row r="383" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R383" s="20"/>
-    </row>
-    <row r="384" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R384" s="20"/>
-    </row>
-    <row r="385" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R385" s="20"/>
-    </row>
-    <row r="386" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R386" s="20"/>
-    </row>
-    <row r="387" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R387" s="20"/>
-    </row>
-    <row r="388" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R388" s="20"/>
-    </row>
-    <row r="389" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R389" s="20"/>
-    </row>
-    <row r="390" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R390" s="20"/>
-    </row>
-    <row r="391" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R391" s="20"/>
-    </row>
-    <row r="392" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R392" s="20"/>
-    </row>
-    <row r="393" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R393" s="20"/>
-    </row>
-    <row r="394" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R394" s="20"/>
-    </row>
-    <row r="395" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R395" s="20"/>
-    </row>
-    <row r="396" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R396" s="20"/>
-    </row>
-    <row r="397" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R397" s="20"/>
-    </row>
-    <row r="398" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R398" s="20"/>
-    </row>
-    <row r="399" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R399" s="20"/>
-    </row>
-    <row r="400" spans="18:18" x14ac:dyDescent="0.35">
-      <c r="R400" s="20"/>
+      <c r="O200" s="8"/>
+      <c r="P200" s="8"/>
+      <c r="Q200" s="5"/>
+      <c r="R200" s="5"/>
+    </row>
+    <row r="201" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P201" s="20"/>
+    </row>
+    <row r="202" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P202" s="20"/>
+    </row>
+    <row r="203" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P203" s="20"/>
+    </row>
+    <row r="204" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P204" s="20"/>
+    </row>
+    <row r="205" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P205" s="20"/>
+    </row>
+    <row r="206" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P206" s="20"/>
+    </row>
+    <row r="207" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P207" s="20"/>
+    </row>
+    <row r="208" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P208" s="20"/>
+    </row>
+    <row r="209" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P209" s="20"/>
+    </row>
+    <row r="210" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P210" s="20"/>
+    </row>
+    <row r="211" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P211" s="20"/>
+    </row>
+    <row r="212" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P212" s="20"/>
+    </row>
+    <row r="213" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P213" s="20"/>
+    </row>
+    <row r="214" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P214" s="20"/>
+    </row>
+    <row r="215" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P215" s="20"/>
+    </row>
+    <row r="216" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P216" s="20"/>
+    </row>
+    <row r="217" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P217" s="20"/>
+    </row>
+    <row r="218" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P218" s="20"/>
+    </row>
+    <row r="219" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P219" s="20"/>
+    </row>
+    <row r="220" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P220" s="20"/>
+    </row>
+    <row r="221" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P221" s="20"/>
+    </row>
+    <row r="222" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P222" s="20"/>
+    </row>
+    <row r="223" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P223" s="20"/>
+    </row>
+    <row r="224" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P224" s="20"/>
+    </row>
+    <row r="225" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P225" s="20"/>
+    </row>
+    <row r="226" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P226" s="20"/>
+    </row>
+    <row r="227" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P227" s="20"/>
+    </row>
+    <row r="228" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P228" s="20"/>
+    </row>
+    <row r="229" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P229" s="20"/>
+    </row>
+    <row r="230" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P230" s="20"/>
+    </row>
+    <row r="231" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P231" s="20"/>
+    </row>
+    <row r="232" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P232" s="20"/>
+    </row>
+    <row r="233" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P233" s="20"/>
+    </row>
+    <row r="234" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P234" s="20"/>
+    </row>
+    <row r="235" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P235" s="20"/>
+    </row>
+    <row r="236" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P236" s="20"/>
+    </row>
+    <row r="237" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P237" s="20"/>
+    </row>
+    <row r="238" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P238" s="20"/>
+    </row>
+    <row r="239" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P239" s="20"/>
+    </row>
+    <row r="240" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P240" s="20"/>
+    </row>
+    <row r="241" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P241" s="20"/>
+    </row>
+    <row r="242" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P242" s="20"/>
+    </row>
+    <row r="243" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P243" s="20"/>
+    </row>
+    <row r="244" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P244" s="20"/>
+    </row>
+    <row r="245" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P245" s="20"/>
+    </row>
+    <row r="246" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P246" s="20"/>
+    </row>
+    <row r="247" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P247" s="20"/>
+    </row>
+    <row r="248" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P248" s="20"/>
+    </row>
+    <row r="249" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P249" s="20"/>
+    </row>
+    <row r="250" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P250" s="20"/>
+    </row>
+    <row r="251" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P251" s="20"/>
+    </row>
+    <row r="252" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P252" s="20"/>
+    </row>
+    <row r="253" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P253" s="20"/>
+    </row>
+    <row r="254" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P254" s="20"/>
+    </row>
+    <row r="255" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P255" s="20"/>
+    </row>
+    <row r="256" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P256" s="20"/>
+    </row>
+    <row r="257" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P257" s="20"/>
+    </row>
+    <row r="258" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P258" s="20"/>
+    </row>
+    <row r="259" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P259" s="20"/>
+    </row>
+    <row r="260" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P260" s="20"/>
+    </row>
+    <row r="261" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P261" s="20"/>
+    </row>
+    <row r="262" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P262" s="20"/>
+    </row>
+    <row r="263" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P263" s="20"/>
+    </row>
+    <row r="264" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P264" s="20"/>
+    </row>
+    <row r="265" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P265" s="20"/>
+    </row>
+    <row r="266" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P266" s="20"/>
+    </row>
+    <row r="267" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P267" s="20"/>
+    </row>
+    <row r="268" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P268" s="20"/>
+    </row>
+    <row r="269" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P269" s="20"/>
+    </row>
+    <row r="270" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P270" s="20"/>
+    </row>
+    <row r="271" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P271" s="20"/>
+    </row>
+    <row r="272" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P272" s="20"/>
+    </row>
+    <row r="273" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P273" s="20"/>
+    </row>
+    <row r="274" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P274" s="20"/>
+    </row>
+    <row r="275" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P275" s="20"/>
+    </row>
+    <row r="276" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P276" s="20"/>
+    </row>
+    <row r="277" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P277" s="20"/>
+    </row>
+    <row r="278" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P278" s="20"/>
+    </row>
+    <row r="279" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P279" s="20"/>
+    </row>
+    <row r="280" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P280" s="20"/>
+    </row>
+    <row r="281" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P281" s="20"/>
+    </row>
+    <row r="282" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P282" s="20"/>
+    </row>
+    <row r="283" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P283" s="20"/>
+    </row>
+    <row r="284" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P284" s="20"/>
+    </row>
+    <row r="285" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P285" s="20"/>
+    </row>
+    <row r="286" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P286" s="20"/>
+    </row>
+    <row r="287" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P287" s="20"/>
+    </row>
+    <row r="288" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P288" s="20"/>
+    </row>
+    <row r="289" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P289" s="20"/>
+    </row>
+    <row r="290" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P290" s="20"/>
+    </row>
+    <row r="291" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P291" s="20"/>
+    </row>
+    <row r="292" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P292" s="20"/>
+    </row>
+    <row r="293" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P293" s="20"/>
+    </row>
+    <row r="294" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P294" s="20"/>
+    </row>
+    <row r="295" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P295" s="20"/>
+    </row>
+    <row r="296" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P296" s="20"/>
+    </row>
+    <row r="297" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P297" s="20"/>
+    </row>
+    <row r="298" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P298" s="20"/>
+    </row>
+    <row r="299" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P299" s="20"/>
+    </row>
+    <row r="300" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P300" s="20"/>
+    </row>
+    <row r="301" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P301" s="20"/>
+    </row>
+    <row r="302" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P302" s="20"/>
+    </row>
+    <row r="303" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P303" s="20"/>
+    </row>
+    <row r="304" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P304" s="20"/>
+    </row>
+    <row r="305" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P305" s="20"/>
+    </row>
+    <row r="306" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P306" s="20"/>
+    </row>
+    <row r="307" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P307" s="20"/>
+    </row>
+    <row r="308" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P308" s="20"/>
+    </row>
+    <row r="309" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P309" s="20"/>
+    </row>
+    <row r="310" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P310" s="20"/>
+    </row>
+    <row r="311" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P311" s="20"/>
+    </row>
+    <row r="312" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P312" s="20"/>
+    </row>
+    <row r="313" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P313" s="20"/>
+    </row>
+    <row r="314" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P314" s="20"/>
+    </row>
+    <row r="315" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P315" s="20"/>
+    </row>
+    <row r="316" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P316" s="20"/>
+    </row>
+    <row r="317" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P317" s="20"/>
+    </row>
+    <row r="318" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P318" s="20"/>
+    </row>
+    <row r="319" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P319" s="20"/>
+    </row>
+    <row r="320" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P320" s="20"/>
+    </row>
+    <row r="321" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P321" s="20"/>
+    </row>
+    <row r="322" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P322" s="20"/>
+    </row>
+    <row r="323" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P323" s="20"/>
+    </row>
+    <row r="324" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P324" s="20"/>
+    </row>
+    <row r="325" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P325" s="20"/>
+    </row>
+    <row r="326" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P326" s="20"/>
+    </row>
+    <row r="327" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P327" s="20"/>
+    </row>
+    <row r="328" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P328" s="20"/>
+    </row>
+    <row r="329" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P329" s="20"/>
+    </row>
+    <row r="330" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P330" s="20"/>
+    </row>
+    <row r="331" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P331" s="20"/>
+    </row>
+    <row r="332" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P332" s="20"/>
+    </row>
+    <row r="333" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P333" s="20"/>
+    </row>
+    <row r="334" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P334" s="20"/>
+    </row>
+    <row r="335" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P335" s="20"/>
+    </row>
+    <row r="336" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P336" s="20"/>
+    </row>
+    <row r="337" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P337" s="20"/>
+    </row>
+    <row r="338" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P338" s="20"/>
+    </row>
+    <row r="339" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P339" s="20"/>
+    </row>
+    <row r="340" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P340" s="20"/>
+    </row>
+    <row r="341" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P341" s="20"/>
+    </row>
+    <row r="342" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P342" s="20"/>
+    </row>
+    <row r="343" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P343" s="20"/>
+    </row>
+    <row r="344" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P344" s="20"/>
+    </row>
+    <row r="345" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P345" s="20"/>
+    </row>
+    <row r="346" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P346" s="20"/>
+    </row>
+    <row r="347" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P347" s="20"/>
+    </row>
+    <row r="348" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P348" s="20"/>
+    </row>
+    <row r="349" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P349" s="20"/>
+    </row>
+    <row r="350" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P350" s="20"/>
+    </row>
+    <row r="351" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P351" s="20"/>
+    </row>
+    <row r="352" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P352" s="20"/>
+    </row>
+    <row r="353" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P353" s="20"/>
+    </row>
+    <row r="354" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P354" s="20"/>
+    </row>
+    <row r="355" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P355" s="20"/>
+    </row>
+    <row r="356" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P356" s="20"/>
+    </row>
+    <row r="357" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P357" s="20"/>
+    </row>
+    <row r="358" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P358" s="20"/>
+    </row>
+    <row r="359" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P359" s="20"/>
+    </row>
+    <row r="360" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P360" s="20"/>
+    </row>
+    <row r="361" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P361" s="20"/>
+    </row>
+    <row r="362" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P362" s="20"/>
+    </row>
+    <row r="363" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P363" s="20"/>
+    </row>
+    <row r="364" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P364" s="20"/>
+    </row>
+    <row r="365" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P365" s="20"/>
+    </row>
+    <row r="366" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P366" s="20"/>
+    </row>
+    <row r="367" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P367" s="20"/>
+    </row>
+    <row r="368" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P368" s="20"/>
+    </row>
+    <row r="369" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P369" s="20"/>
+    </row>
+    <row r="370" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P370" s="20"/>
+    </row>
+    <row r="371" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P371" s="20"/>
+    </row>
+    <row r="372" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P372" s="20"/>
+    </row>
+    <row r="373" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P373" s="20"/>
+    </row>
+    <row r="374" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P374" s="20"/>
+    </row>
+    <row r="375" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P375" s="20"/>
+    </row>
+    <row r="376" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P376" s="20"/>
+    </row>
+    <row r="377" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P377" s="20"/>
+    </row>
+    <row r="378" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P378" s="20"/>
+    </row>
+    <row r="379" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P379" s="20"/>
+    </row>
+    <row r="380" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P380" s="20"/>
+    </row>
+    <row r="381" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P381" s="20"/>
+    </row>
+    <row r="382" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P382" s="20"/>
+    </row>
+    <row r="383" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P383" s="20"/>
+    </row>
+    <row r="384" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P384" s="20"/>
+    </row>
+    <row r="385" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P385" s="20"/>
+    </row>
+    <row r="386" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P386" s="20"/>
+    </row>
+    <row r="387" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P387" s="20"/>
+    </row>
+    <row r="388" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P388" s="20"/>
+    </row>
+    <row r="389" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P389" s="20"/>
+    </row>
+    <row r="390" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P390" s="20"/>
+    </row>
+    <row r="391" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P391" s="20"/>
+    </row>
+    <row r="392" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P392" s="20"/>
+    </row>
+    <row r="393" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P393" s="20"/>
+    </row>
+    <row r="394" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P394" s="20"/>
+    </row>
+    <row r="395" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P395" s="20"/>
+    </row>
+    <row r="396" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P396" s="20"/>
+    </row>
+    <row r="397" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P397" s="20"/>
+    </row>
+    <row r="398" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P398" s="20"/>
+    </row>
+    <row r="399" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P399" s="20"/>
+    </row>
+    <row r="400" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P400" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:T4" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:T14">
+  <autoFilter ref="B4:R4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:R14">
       <sortCondition ref="H4:H14"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I400">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>(I5&gt;D5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R400">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>(AND(R5&lt;=TODAY(),R5&lt;&gt;0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O400">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>(O5&gt;D5)</formula>
+  <conditionalFormatting sqref="P5:P400">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>(AND(P5&lt;=TODAY(),P5&lt;&gt;0))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6367,7 +5473,7 @@
   <dimension ref="A2:R400"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6387,15 +5493,15 @@
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29">
-        <v>45062</v>
+        <v>45098</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="15"/>
@@ -6412,26 +5518,26 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="31">
-        <v>363740</v>
+        <v>201200</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="33">
-        <v>338560</v>
+        <v>191800</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -6443,17 +5549,17 @@
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
       <c r="I6" s="36" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="35" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
       <c r="N6" s="35"/>
       <c r="O6" s="30" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="P6" s="30"/>
       <c r="Q6" s="18"/>
@@ -6461,441 +5567,261 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>11.66</v>
+        <v>9.52</v>
       </c>
       <c r="E8" s="7">
-        <v>11.9</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="9">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="H8" s="7">
-        <v>13.329505058218302</v>
+        <v>11.257972431790977</v>
       </c>
       <c r="I8" s="6">
-        <v>4.9613936858377006E-3</v>
+        <v>4.2300888050327577E-2</v>
       </c>
       <c r="J8" s="17">
-        <v>9.0486159523642016</v>
+        <v>3.7089690853896293</v>
       </c>
       <c r="K8" s="17">
-        <v>129.19493155576717</v>
+        <v>11.003427197705268</v>
       </c>
       <c r="L8" s="17">
-        <v>8.8832342519810936</v>
+        <v>3.4515437078973985</v>
       </c>
       <c r="M8" s="17">
-        <v>54.953736119523519</v>
+        <v>6.5599984754845266</v>
       </c>
       <c r="N8" s="17">
-        <v>4.958733377346034</v>
+        <v>3.5134488326629425</v>
       </c>
       <c r="O8" s="6">
         <f>(D8*G8)/$D$4</f>
-        <v>0.10331994328922495</v>
+        <v>0.49635036496350365</v>
       </c>
       <c r="P8" s="6">
         <f>D8/E8-1</f>
-        <v>-2.0168067226890796E-2</v>
+        <v>-3.6437246963562875E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>10.7</v>
+        <v>1.61</v>
       </c>
       <c r="E9" s="7">
-        <v>10.31</v>
+        <v>1.71</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="9">
-        <v>4000</v>
+        <v>60000</v>
       </c>
       <c r="H9" s="7">
-        <v>12.347246296726411</v>
+        <v>1.9201622131106537</v>
       </c>
       <c r="I9" s="6">
-        <v>4.2300888050327577E-2</v>
+        <v>5.9072567096644128E-3</v>
       </c>
       <c r="J9" s="17">
-        <v>3.7089690853896293</v>
+        <v>3.8517555372810004</v>
       </c>
       <c r="K9" s="17">
-        <v>11.003427197705268</v>
+        <v>368.70149951628508</v>
       </c>
       <c r="L9" s="17">
-        <v>3.4515437078973985</v>
+        <v>3.3203400791857054</v>
       </c>
       <c r="M9" s="17">
-        <v>6.5599984754845266</v>
+        <v>142.03094980137234</v>
       </c>
       <c r="N9" s="17">
-        <v>3.5134488326629425</v>
+        <v>3.3349252082564349</v>
       </c>
       <c r="O9" s="6">
         <f>(D9*G9)/$D$4</f>
-        <v>0.12641776937618149</v>
+        <v>0.5036496350364964</v>
       </c>
       <c r="P9" s="6">
         <f>D9/E9-1</f>
-        <v>3.7827352085353816E-2</v>
+        <v>-5.8479532163742576E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2.13</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1.68</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="9">
-        <v>16000</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.24675666120114281</v>
-      </c>
-      <c r="J10" s="17">
-        <v>3.2849980734912396</v>
-      </c>
-      <c r="K10" s="17">
-        <v>6.8975825593510285</v>
-      </c>
-      <c r="L10" s="17">
-        <v>3.0135085780337438</v>
-      </c>
-      <c r="M10" s="17">
-        <v>2.9855261680325449</v>
-      </c>
-      <c r="N10" s="17">
-        <v>2.4805745781286417</v>
-      </c>
-      <c r="O10" s="6">
-        <f>(D10*G10)/$D$4</f>
-        <v>0.10066162570888469</v>
-      </c>
-      <c r="P10" s="6">
-        <f>D10/E10-1</f>
-        <v>0.26785714285714279</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="7">
-        <v>20.45</v>
-      </c>
-      <c r="E11" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2000</v>
-      </c>
-      <c r="H11" s="7">
-        <v>-1.934748458322046</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.45401790581878537</v>
-      </c>
-      <c r="J11" s="17">
-        <v>2.0753728614196669</v>
-      </c>
-      <c r="K11" s="17">
-        <v>5.7976178289645226</v>
-      </c>
-      <c r="L11" s="17">
-        <v>1.763191721937688</v>
-      </c>
-      <c r="M11" s="17">
-        <v>0.92594746196328936</v>
-      </c>
-      <c r="N11" s="17">
-        <v>1.1494100885179757</v>
-      </c>
-      <c r="O11" s="6">
-        <f>(D11*G11)/$D$4</f>
-        <v>0.12080576559546313</v>
-      </c>
-      <c r="P11" s="6">
-        <f>D11/E11-1</f>
-        <v>0.23939393939393927</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="E12" s="7">
-        <v>5.63</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="9">
-        <v>20000</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5.5436244047265006</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.1698771078411476</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0.82306247297105539</v>
-      </c>
-      <c r="K12" s="17">
-        <v>2.9769457748721253</v>
-      </c>
-      <c r="L12" s="17">
-        <v>0.57804911534654391</v>
-      </c>
-      <c r="M12" s="17">
-        <v>2.4260977945497415</v>
-      </c>
-      <c r="N12" s="17">
-        <v>0.59946117374446684</v>
-      </c>
-      <c r="O12" s="6">
-        <f>(D12*G12)/$D$4</f>
-        <v>0.28178166351606804</v>
-      </c>
-      <c r="P12" s="6">
-        <f>D12/E12-1</f>
-        <v>-0.15275310834813505</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E13" s="7">
-        <v>11.08</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="9">
-        <v>4000</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7.1711197080826965</v>
-      </c>
-      <c r="I13" s="6">
-        <v>5.4080520158737544E-2</v>
-      </c>
-      <c r="J13" s="17">
-        <v>2.7703025360946434</v>
-      </c>
-      <c r="K13" s="17">
-        <v>33.882537710882545</v>
-      </c>
-      <c r="L13" s="17">
-        <v>2.6833569434046844</v>
-      </c>
-      <c r="M13" s="17">
-        <v>13.913697527489473</v>
-      </c>
-      <c r="N13" s="17">
-        <v>2.0088349318914984</v>
-      </c>
-      <c r="O13" s="6">
-        <f>(D13*G13)/$D$4</f>
-        <v>6.0255198487712665E-2</v>
-      </c>
-      <c r="P13" s="6">
-        <f>D13/E13-1</f>
-        <v>-0.53971119133574008</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1.75</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1.75</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="9">
-        <v>40000</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2.0092344760046403</v>
-      </c>
-      <c r="I14" s="6">
-        <v>5.9258551186562071E-3</v>
-      </c>
-      <c r="J14" s="17">
-        <v>3.8517555372810004</v>
-      </c>
-      <c r="K14" s="17">
-        <v>375.74432118671399</v>
-      </c>
-      <c r="L14" s="17">
-        <v>3.3798104771292734</v>
-      </c>
-      <c r="M14" s="17">
-        <v>790.06633136094683</v>
-      </c>
-      <c r="N14" s="17">
-        <v>3.4072159925759804</v>
-      </c>
-      <c r="O14" s="6">
-        <f>(D14*G14)/$D$4</f>
-        <v>0.20675803402646503</v>
-      </c>
-      <c r="P14" s="6">
-        <f>D14/E14-1</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
@@ -11288,7 +10214,7 @@
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
@@ -11300,25 +10226,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C5" s="24">
         <f>Current_Holdings!D3+C6</f>
-        <v>701570.6</v>
+        <v>539030.6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C6" s="23">
         <v>337830.6</v>
@@ -11331,7 +10257,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C9" s="21">
         <v>7</v>
@@ -11339,7 +10265,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C10" s="22">
         <v>7</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{861848E4-A8A3-47BC-9A4A-E1DC760B122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2361148-B931-47FF-8011-9F1B2C8BC23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -902,8 +902,8 @@
   </sheetPr>
   <dimension ref="A2:R400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5:AB7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1135,10 +1135,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="6">
-        <v>0.19264733733580974</v>
+        <v>0.19270923282268471</v>
       </c>
       <c r="G7" s="6">
-        <v>0.42</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
@@ -1151,16 +1151,16 @@
         <v>1.5629999999999999</v>
       </c>
       <c r="K7" s="7">
-        <v>1.9201622131106537</v>
+        <v>1.9202618648445227</v>
       </c>
       <c r="L7" s="7">
-        <v>1.7510946618124614</v>
+        <v>1.5174412675390871</v>
       </c>
       <c r="M7" s="7">
-        <v>1.6463740605901702</v>
+        <v>1.6464258352315482</v>
       </c>
       <c r="N7" s="7">
-        <v>1.4967036914456091</v>
+        <v>1.4967507593014073</v>
       </c>
       <c r="O7" s="8">
         <v>44926</v>
@@ -5693,7 +5693,7 @@
         <v>60000</v>
       </c>
       <c r="H9" s="7">
-        <v>1.9201622131106537</v>
+        <v>1.9202618648445227</v>
       </c>
       <c r="I9" s="6">
         <v>5.9072567096644128E-3</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2361148-B931-47FF-8011-9F1B2C8BC23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D9B9EF-6A7E-41F4-95EE-67904D385AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -1027,10 +1027,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="6">
-        <v>8.9046645096271249E-3</v>
+        <v>8.256012938980839E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>0.42</v>
+        <v>4.4117647058823532E-2</v>
       </c>
       <c r="H5" s="6">
         <f>D5/I5-1</f>
@@ -1040,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="9">
-        <v>9.6314285714285717</v>
+        <v>4000</v>
       </c>
       <c r="K5" s="7">
         <v>11.257972431790977</v>
@@ -1052,7 +1052,7 @@
         <v>10.38118789234521</v>
       </c>
       <c r="N5" s="7">
-        <v>9.4374435384956445</v>
+        <v>10.234520392537251</v>
       </c>
       <c r="O5" s="8">
         <v>44742</v>
@@ -1081,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>0.10809205696137236</v>
+        <v>8.0920569613722737E-3</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J6" s="9">
-        <v>2.2999999999999998</v>
+        <v>50000</v>
       </c>
       <c r="K6" s="7">
         <v>2.9918485537957054</v>
@@ -1106,7 +1106,7 @@
         <v>1.9686622948637991</v>
       </c>
       <c r="N6" s="7">
-        <v>1.7896929953307263</v>
+        <v>2.7198623216324593</v>
       </c>
       <c r="O6" s="8">
         <v>44926</v>
@@ -1135,10 +1135,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="6">
-        <v>0.19270923282268471</v>
+        <v>9.2709232822684617E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>2.5100000000000001E-2</v>
+        <v>1.5590062111801242E-2</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
@@ -1148,7 +1148,7 @@
         <v>1.42</v>
       </c>
       <c r="J7" s="9">
-        <v>1.5629999999999999</v>
+        <v>60000</v>
       </c>
       <c r="K7" s="7">
         <v>1.9202618648445227</v>
@@ -1160,7 +1160,7 @@
         <v>1.6464258352315482</v>
       </c>
       <c r="N7" s="7">
-        <v>1.4967507593014073</v>
+        <v>1.7456926044041114</v>
       </c>
       <c r="O7" s="8">
         <v>44926</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D9B9EF-6A7E-41F4-95EE-67904D385AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B36F4C64-450F-4605-84F0-E726BEE45114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>Exp Price</t>
+  </si>
+  <si>
+    <t>6993.HK</t>
+  </si>
+  <si>
+    <t>BLUE MOON GROUP</t>
+  </si>
+  <si>
+    <t>Stalwarts</t>
   </si>
 </sst>
 </file>
@@ -1021,38 +1030,38 @@
         <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>9.52</v>
+        <v>9.5</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6">
-        <v>8.256012938980839E-2</v>
+        <v>-1.0661794657077506E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.4117647058823532E-2</v>
+        <v>4.4210526315789471E-2</v>
       </c>
       <c r="H5" s="6">
         <f>D5/I5-1</f>
-        <v>5.7777777777777706E-2</v>
+        <v>2.591792656587466E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>9</v>
+        <v>9.26</v>
       </c>
       <c r="J5" s="9">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="K5" s="7">
-        <v>11.257972431790977</v>
+        <v>11.298712950757764</v>
       </c>
       <c r="L5" s="7">
-        <v>9.6047724061316497</v>
+        <v>9.8640225351211033</v>
       </c>
       <c r="M5" s="7">
-        <v>10.38118789234521</v>
+        <v>10.735099766534228</v>
       </c>
       <c r="N5" s="7">
-        <v>10.234520392537251</v>
+        <v>10.581367742939435</v>
       </c>
       <c r="O5" s="8">
         <v>44742</v>
@@ -1075,38 +1084,38 @@
         <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>8.0920569613722737E-3</v>
+        <v>-0.12038518015631783</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="6">
         <f>D6/I6-1</f>
-        <v>0.17391304347826098</v>
+        <v>0.18181818181818166</v>
       </c>
       <c r="I6" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J6" s="9">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K6" s="7">
-        <v>2.9918485537957054</v>
+        <v>2.8069985315935737</v>
       </c>
       <c r="L6" s="7">
-        <v>1.9603905421822192</v>
+        <v>1.5917055112922753</v>
       </c>
       <c r="M6" s="7">
-        <v>1.9686622948637991</v>
+        <v>1.973811082503208</v>
       </c>
       <c r="N6" s="7">
-        <v>2.7198623216324593</v>
+        <v>2.1993520214429245</v>
       </c>
       <c r="O6" s="8">
         <v>44926</v>
@@ -1129,38 +1138,38 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="6">
-        <v>9.2709232822684617E-2</v>
+        <v>-5.016626295113924E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>1.5590062111801242E-2</v>
+        <v>1.5493827160493827E-2</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
-        <v>0.13380281690140849</v>
+        <v>0.18248175182481741</v>
       </c>
       <c r="I7" s="7">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="J7" s="9">
         <v>60000</v>
       </c>
       <c r="K7" s="7">
-        <v>1.9202618648445227</v>
+        <v>1.8627306540191544</v>
       </c>
       <c r="L7" s="7">
-        <v>1.5174412675390871</v>
+        <v>1.3619856121264049</v>
       </c>
       <c r="M7" s="7">
-        <v>1.6464258352315482</v>
+        <v>1.7024820151580062</v>
       </c>
       <c r="N7" s="7">
-        <v>1.7456926044041114</v>
+        <v>1.6123581330727796</v>
       </c>
       <c r="O7" s="8">
         <v>44926</v>
@@ -1176,23 +1185,58 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3.93</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.45686254674304982</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.10687022900763359</v>
+      </c>
+      <c r="H8" s="6">
+        <f>D8/I8-1</f>
+        <v>0.69396551724137945</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2.9205301912998141</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.8490465464979073</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2.3113081831223843</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2.3847883688988607</v>
+      </c>
+      <c r="O8" s="8">
+        <v>44926</v>
+      </c>
+      <c r="P8" s="8">
+        <v>45169</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
@@ -5501,7 +5545,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="15"/>
@@ -5533,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="33">
-        <v>191800</v>
+        <v>192200</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
@@ -5626,7 +5670,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>9.52</v>
+        <v>9.5</v>
       </c>
       <c r="E8" s="7">
         <v>9.8800000000000008</v>
@@ -5638,7 +5682,7 @@
         <v>10000</v>
       </c>
       <c r="H8" s="7">
-        <v>11.257972431790977</v>
+        <v>11.298712950757764</v>
       </c>
       <c r="I8" s="6">
         <v>4.2300888050327577E-2</v>
@@ -5660,11 +5704,11 @@
       </c>
       <c r="O8" s="6">
         <f>(D8*G8)/$D$4</f>
-        <v>0.49635036496350365</v>
+        <v>0.49427679500520294</v>
       </c>
       <c r="P8" s="6">
         <f>D8/E8-1</f>
-        <v>-3.6437246963562875E-2</v>
+        <v>-3.8461538461538547E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>7</v>
@@ -5681,7 +5725,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="E9" s="7">
         <v>1.71</v>
@@ -5693,7 +5737,7 @@
         <v>60000</v>
       </c>
       <c r="H9" s="7">
-        <v>1.9202618648445227</v>
+        <v>1.8627306540191544</v>
       </c>
       <c r="I9" s="6">
         <v>5.9072567096644128E-3</v>
@@ -5715,11 +5759,11 @@
       </c>
       <c r="O9" s="6">
         <f>(D9*G9)/$D$4</f>
-        <v>0.5036496350364964</v>
+        <v>0.50572320499479706</v>
       </c>
       <c r="P9" s="6">
         <f>D9/E9-1</f>
-        <v>-5.8479532163742576E-2</v>
+        <v>-5.2631578947368363E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>7</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B36F4C64-450F-4605-84F0-E726BEE45114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25088E8A-480C-4F6F-92F2-DE1D1DB8709D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Stalwarts</t>
+  </si>
+  <si>
+    <t>9982.HK</t>
+  </si>
+  <si>
+    <t>CENTRALCHINA MT</t>
   </si>
 </sst>
 </file>
@@ -1030,20 +1036,20 @@
         <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>9.5</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6">
-        <v>-1.0661794657077506E-2</v>
+        <v>-2.6717242911966421E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.4210526315789471E-2</v>
+        <v>4.3613707165109032E-2</v>
       </c>
       <c r="H5" s="6">
         <f>D5/I5-1</f>
-        <v>2.591792656587466E-2</v>
+        <v>3.9956803455723611E-2</v>
       </c>
       <c r="I5" s="7">
         <v>9.26</v>
@@ -1084,20 +1090,20 @@
         <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>2.6</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>-0.12038518015631783</v>
+        <v>-6.3563347532966219E-2</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="6">
         <f>D6/I6-1</f>
-        <v>0.18181818181818166</v>
+        <v>0.1227272727272728</v>
       </c>
       <c r="I6" s="7">
         <v>2.2000000000000002</v>
@@ -1138,20 +1144,20 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="6">
-        <v>-5.016626295113924E-2</v>
+        <v>-7.7881714669815638E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>1.5493827160493827E-2</v>
+        <v>1.5212121212121213E-2</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
-        <v>0.18248175182481741</v>
+        <v>0.20437956204379537</v>
       </c>
       <c r="I7" s="7">
         <v>1.37</v>
@@ -1160,16 +1166,16 @@
         <v>60000</v>
       </c>
       <c r="K7" s="7">
-        <v>1.8627306540191544</v>
+        <v>1.851495170794804</v>
       </c>
       <c r="L7" s="7">
-        <v>1.3619856121264049</v>
+        <v>1.3541226072416221</v>
       </c>
       <c r="M7" s="7">
-        <v>1.7024820151580062</v>
+        <v>1.6926532590520276</v>
       </c>
       <c r="N7" s="7">
-        <v>1.6123581330727796</v>
+        <v>1.6028088890182131</v>
       </c>
       <c r="O7" s="8">
         <v>44926</v>
@@ -1192,20 +1198,20 @@
         <v>57</v>
       </c>
       <c r="D8" s="7">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="6">
-        <v>-0.45686254674304982</v>
+        <v>-0.45114610479491946</v>
       </c>
       <c r="G8" s="6">
-        <v>0.10687022900763359</v>
+        <v>0.10769230769230768</v>
       </c>
       <c r="H8" s="6">
         <f>D8/I8-1</f>
-        <v>0.69396551724137945</v>
+        <v>0.68103448275862077</v>
       </c>
       <c r="I8" s="7">
         <v>2.3199999999999998</v>
@@ -1239,23 +1245,58 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-0.53141912731631646</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <f>D9/I9-1</f>
+        <v>0.97368421052631571</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.25071782725638131</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.14119137024449305</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.1764892128056163</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.19595459875043719</v>
+      </c>
+      <c r="O9" s="8">
+        <v>44926</v>
+      </c>
+      <c r="P9" s="8">
+        <v>45169</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
@@ -5545,7 +5586,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29">
-        <v>45103</v>
+        <v>45107</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="15"/>
@@ -5577,7 +5618,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="33">
-        <v>192200</v>
+        <v>195300</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
@@ -5670,7 +5711,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>9.5</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="E8" s="7">
         <v>9.8800000000000008</v>
@@ -5704,11 +5745,11 @@
       </c>
       <c r="O8" s="6">
         <f>(D8*G8)/$D$4</f>
-        <v>0.49427679500520294</v>
+        <v>0.49308755760368672</v>
       </c>
       <c r="P8" s="6">
         <f>D8/E8-1</f>
-        <v>-3.8461538461538547E-2</v>
+        <v>-2.5303643724696401E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>7</v>
@@ -5725,7 +5766,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="E9" s="7">
         <v>1.71</v>
@@ -5737,7 +5778,7 @@
         <v>60000</v>
       </c>
       <c r="H9" s="7">
-        <v>1.8627306540191544</v>
+        <v>1.851495170794804</v>
       </c>
       <c r="I9" s="6">
         <v>5.9072567096644128E-3</v>
@@ -5759,11 +5800,11 @@
       </c>
       <c r="O9" s="6">
         <f>(D9*G9)/$D$4</f>
-        <v>0.50572320499479706</v>
+        <v>0.50691244239631339</v>
       </c>
       <c r="P9" s="6">
         <f>D9/E9-1</f>
-        <v>-5.2631578947368363E-2</v>
+        <v>-3.5087719298245612E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>7</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25088E8A-480C-4F6F-92F2-DE1D1DB8709D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB25F5E9-13D0-4495-AAB3-32BD903C6BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>CENTRALCHINA MT</t>
+  </si>
+  <si>
+    <t>0590.HK</t>
+  </si>
+  <si>
+    <t>LUK FOOK HOLD</t>
   </si>
 </sst>
 </file>
@@ -1084,50 +1090,50 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D6" s="7">
-        <v>2.4700000000000002</v>
+        <v>20.05</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>-6.3563347532966219E-2</v>
+        <v>-7.7416359555593228E-3</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>1.2518703241895261E-3</v>
       </c>
       <c r="H6" s="6">
         <f>D6/I6-1</f>
-        <v>0.1227272727272728</v>
+        <v>5.5263157894736903E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>2.2000000000000002</v>
+        <v>19</v>
       </c>
       <c r="J6" s="9">
-        <v>60000</v>
+        <v>100</v>
       </c>
       <c r="K6" s="7">
-        <v>2.8069985315935737</v>
+        <v>23.904780199091036</v>
       </c>
       <c r="L6" s="7">
-        <v>1.5917055112922753</v>
+        <v>16.539656209873179</v>
       </c>
       <c r="M6" s="7">
-        <v>1.973811082503208</v>
+        <v>20.674570262341472</v>
       </c>
       <c r="N6" s="7">
-        <v>2.1993520214429245</v>
+        <v>20.222218204482107</v>
       </c>
       <c r="O6" s="8">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="P6" s="8">
-        <v>45169</v>
+        <v>45260</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>7</v>
@@ -1138,44 +1144,44 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>1.65</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="6">
-        <v>-7.7881714669815638E-2</v>
+        <v>-6.3563347532966219E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>1.5212121212121213E-2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
-        <v>0.20437956204379537</v>
+        <v>0.1227272727272728</v>
       </c>
       <c r="I7" s="7">
-        <v>1.37</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J7" s="9">
         <v>60000</v>
       </c>
       <c r="K7" s="7">
-        <v>1.851495170794804</v>
+        <v>2.8069985315935737</v>
       </c>
       <c r="L7" s="7">
-        <v>1.3541226072416221</v>
+        <v>1.5917055112922753</v>
       </c>
       <c r="M7" s="7">
-        <v>1.6926532590520276</v>
+        <v>1.973811082503208</v>
       </c>
       <c r="N7" s="7">
-        <v>1.6028088890182131</v>
+        <v>2.1993520214429245</v>
       </c>
       <c r="O7" s="8">
         <v>44926</v>
@@ -1192,44 +1198,44 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>3.9</v>
+        <v>1.65</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="6">
-        <v>-0.45114610479491946</v>
+        <v>-7.7904274414659413E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>0.10769230769230768</v>
+        <v>1.5212121212121213E-2</v>
       </c>
       <c r="H8" s="6">
         <f>D8/I8-1</f>
-        <v>0.68103448275862077</v>
+        <v>0.20437956204379537</v>
       </c>
       <c r="I8" s="7">
-        <v>2.3199999999999998</v>
+        <v>1.37</v>
       </c>
       <c r="J8" s="9">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="K8" s="7">
-        <v>2.9205301912998141</v>
+        <v>1.8514579472158119</v>
       </c>
       <c r="L8" s="7">
-        <v>1.8490465464979073</v>
+        <v>1.3541092727044681</v>
       </c>
       <c r="M8" s="7">
-        <v>2.3113081831223843</v>
+        <v>1.6926365908805852</v>
       </c>
       <c r="N8" s="7">
-        <v>2.3847883688988607</v>
+        <v>1.60278360996014</v>
       </c>
       <c r="O8" s="8">
         <v>44926</v>
@@ -1241,49 +1247,49 @@
         <v>7</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7">
-        <v>0.375</v>
+        <v>3.9</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.53141912731631646</v>
+        <v>-0.45114610479491946</v>
       </c>
       <c r="G9" s="6">
-        <v>7.1999999999999995E-2</v>
+        <v>0.10769230769230768</v>
       </c>
       <c r="H9" s="6">
         <f>D9/I9-1</f>
-        <v>0.97368421052631571</v>
+        <v>0.68103448275862077</v>
       </c>
       <c r="I9" s="7">
-        <v>0.19</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="J9" s="9">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="K9" s="7">
-        <v>0.25071782725638131</v>
+        <v>2.9205301912998141</v>
       </c>
       <c r="L9" s="7">
-        <v>0.14119137024449305</v>
+        <v>1.8490465464979073</v>
       </c>
       <c r="M9" s="7">
-        <v>0.1764892128056163</v>
+        <v>2.3113081831223843</v>
       </c>
       <c r="N9" s="7">
-        <v>0.19595459875043719</v>
+        <v>2.3847883688988607</v>
       </c>
       <c r="O9" s="8">
         <v>44926</v>
@@ -1295,27 +1301,62 @@
         <v>7</v>
       </c>
       <c r="R9" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-0.53142476158598628</v>
+      </c>
+      <c r="G10" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <f>D10/I10-1</f>
+        <v>0.97368421052631571</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.25071571440525514</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.14118869718081956</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.17648587147602446</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0.19595220579303735</v>
+      </c>
+      <c r="O10" s="8">
+        <v>44926</v>
+      </c>
+      <c r="P10" s="8">
+        <v>45169</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
@@ -5778,7 +5819,7 @@
         <v>60000</v>
       </c>
       <c r="H9" s="7">
-        <v>1.851495170794804</v>
+        <v>1.8514579472158119</v>
       </c>
       <c r="I9" s="6">
         <v>5.9072567096644128E-3</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB25F5E9-13D0-4495-AAB3-32BD903C6BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73030ED8-C8D8-40CD-A061-21515D860ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -1042,20 +1042,20 @@
         <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>9.6300000000000008</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6">
-        <v>-2.6717242911966421E-2</v>
+        <v>4.5536194837700883E-3</v>
       </c>
       <c r="G5" s="6">
-        <v>4.3613707165109032E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="H5" s="6">
         <f>D5/I5-1</f>
-        <v>3.9956803455723611E-2</v>
+        <v>1.2958963282937441E-2</v>
       </c>
       <c r="I5" s="7">
         <v>9.26</v>
@@ -1096,38 +1096,38 @@
         <v>62</v>
       </c>
       <c r="D6" s="7">
-        <v>20.05</v>
+        <v>19.02</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>-7.7416359555593228E-3</v>
+        <v>1.3011173849483582E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>1.2518703241895261E-3</v>
+        <v>2.8916929547844378E-2</v>
       </c>
       <c r="H6" s="6">
         <f>D6/I6-1</f>
-        <v>5.5263157894736903E-2</v>
+        <v>2.2580645161290214E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>19</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="J6" s="9">
-        <v>100</v>
+        <v>7000</v>
       </c>
       <c r="K6" s="7">
-        <v>23.904780199091036</v>
+        <v>23.071472526617175</v>
       </c>
       <c r="L6" s="7">
-        <v>16.539656209873179</v>
+        <v>16.067712549030936</v>
       </c>
       <c r="M6" s="7">
-        <v>20.674570262341472</v>
+        <v>20.084640686288672</v>
       </c>
       <c r="N6" s="7">
-        <v>20.222218204482107</v>
+        <v>19.569592537824057</v>
       </c>
       <c r="O6" s="8">
         <v>45016</v>
@@ -1139,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -1150,20 +1150,20 @@
         <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>2.4700000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="6">
-        <v>-6.3563347532966219E-2</v>
+        <v>-9.9216262120167098E-2</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
-        <v>0.1227272727272728</v>
+        <v>0.15909090909090895</v>
       </c>
       <c r="I7" s="7">
         <v>2.2000000000000002</v>
@@ -1204,20 +1204,20 @@
         <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="6">
-        <v>-7.7904274414659413E-2</v>
+        <v>-6.3762678245242732E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>1.5212121212121213E-2</v>
+        <v>1.539877300613497E-2</v>
       </c>
       <c r="H8" s="6">
         <f>D8/I8-1</f>
-        <v>0.20437956204379537</v>
+        <v>0.18978102189780999</v>
       </c>
       <c r="I8" s="7">
         <v>1.37</v>
@@ -1226,16 +1226,16 @@
         <v>60000</v>
       </c>
       <c r="K8" s="7">
-        <v>1.8514579472158119</v>
+        <v>1.8520668344602542</v>
       </c>
       <c r="L8" s="7">
-        <v>1.3541092727044681</v>
+        <v>1.3543273933098332</v>
       </c>
       <c r="M8" s="7">
-        <v>1.6926365908805852</v>
+        <v>1.6929092416372915</v>
       </c>
       <c r="N8" s="7">
-        <v>1.60278360996014</v>
+        <v>1.6031971138850438</v>
       </c>
       <c r="O8" s="8">
         <v>44926</v>
@@ -1258,20 +1258,20 @@
         <v>57</v>
       </c>
       <c r="D9" s="7">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.45114610479491946</v>
+        <v>-0.4492210305141866</v>
       </c>
       <c r="G9" s="6">
-        <v>0.10769230769230768</v>
+        <v>0.10796915167095116</v>
       </c>
       <c r="H9" s="6">
         <f>D9/I9-1</f>
-        <v>0.68103448275862077</v>
+        <v>0.6767241379310347</v>
       </c>
       <c r="I9" s="7">
         <v>2.3199999999999998</v>
@@ -1318,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="6">
-        <v>-0.53142476158598628</v>
+        <v>-0.53133259863372395</v>
       </c>
       <c r="G10" s="6">
         <v>7.1999999999999995E-2</v>
@@ -1334,16 +1334,16 @@
         <v>1000000</v>
       </c>
       <c r="K10" s="7">
-        <v>0.25071571440525514</v>
+        <v>0.25075027551235352</v>
       </c>
       <c r="L10" s="7">
-        <v>0.14118869718081956</v>
+        <v>0.141232422003054</v>
       </c>
       <c r="M10" s="7">
-        <v>0.17648587147602446</v>
+        <v>0.17654052750381749</v>
       </c>
       <c r="N10" s="7">
-        <v>0.19595220579303735</v>
+        <v>0.19599134875770374</v>
       </c>
       <c r="O10" s="8">
         <v>44926</v>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29">
-        <v>45107</v>
+        <v>45113</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="15"/>
@@ -5659,7 +5659,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="33">
-        <v>195300</v>
+        <v>191600</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
@@ -5752,7 +5752,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>9.6300000000000008</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E8" s="7">
         <v>9.8800000000000008</v>
@@ -5786,11 +5786,11 @@
       </c>
       <c r="O8" s="6">
         <f>(D8*G8)/$D$4</f>
-        <v>0.49308755760368672</v>
+        <v>0.48956158663883098</v>
       </c>
       <c r="P8" s="6">
         <f>D8/E8-1</f>
-        <v>-2.5303643724696401E-2</v>
+        <v>-5.0607287449392691E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>7</v>
@@ -5807,7 +5807,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="E9" s="7">
         <v>1.71</v>
@@ -5819,7 +5819,7 @@
         <v>60000</v>
       </c>
       <c r="H9" s="7">
-        <v>1.8514579472158119</v>
+        <v>1.8520668344602542</v>
       </c>
       <c r="I9" s="6">
         <v>5.9072567096644128E-3</v>
@@ -5841,11 +5841,11 @@
       </c>
       <c r="O9" s="6">
         <f>(D9*G9)/$D$4</f>
-        <v>0.50691244239631339</v>
+        <v>0.51043841336116913</v>
       </c>
       <c r="P9" s="6">
         <f>D9/E9-1</f>
-        <v>-3.5087719298245612E-2</v>
+        <v>-4.6783625730994149E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>7</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73030ED8-C8D8-40CD-A061-21515D860ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E55649D4-71D4-4081-BB83-7A5D8D931FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$7:$R$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$R$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
 </workbook>
 </file>
 
@@ -1042,26 +1042,26 @@
         <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>9.3800000000000008</v>
+        <v>9.26</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6">
-        <v>4.5536194837700883E-3</v>
+        <v>2.0163385610989737E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.4776119402985072E-2</v>
+        <v>4.5356371490280774E-2</v>
       </c>
       <c r="H5" s="6">
         <f>D5/I5-1</f>
-        <v>1.2958963282937441E-2</v>
+        <v>2.5470653377630104E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>9.26</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="J5" s="9">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K5" s="7">
         <v>11.298712950757764</v>
@@ -1096,38 +1096,38 @@
         <v>62</v>
       </c>
       <c r="D6" s="7">
-        <v>19.02</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>1.3011173849483582E-2</v>
+        <v>-1.157986206737216E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>2.8916929547844378E-2</v>
+        <v>2.7500000000000004E-2</v>
       </c>
       <c r="H6" s="6">
         <f>D6/I6-1</f>
-        <v>2.2580645161290214E-2</v>
+        <v>7.4113856068743322E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>18.600000000000001</v>
+        <v>18.62</v>
       </c>
       <c r="J6" s="9">
         <v>7000</v>
       </c>
       <c r="K6" s="7">
-        <v>23.071472526617175</v>
+        <v>23.768402758652556</v>
       </c>
       <c r="L6" s="7">
-        <v>16.067712549030936</v>
+        <v>16.439219262117337</v>
       </c>
       <c r="M6" s="7">
-        <v>20.084640686288672</v>
+        <v>20.549024077646671</v>
       </c>
       <c r="N6" s="7">
-        <v>19.569592537824057</v>
+        <v>20.103811010384945</v>
       </c>
       <c r="O6" s="8">
         <v>45016</v>
@@ -1150,20 +1150,20 @@
         <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>2.5499999999999998</v>
+        <v>2.69</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="6">
-        <v>-9.9216262120167098E-2</v>
+        <v>-0.15650612208417325</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
-        <v>0.15909090909090895</v>
+        <v>0.22272727272727266</v>
       </c>
       <c r="I7" s="7">
         <v>2.2000000000000002</v>
@@ -1204,20 +1204,20 @@
         <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="6">
-        <v>-6.3762678245242732E-2</v>
+        <v>-1.076388153370722E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>1.539877300613497E-2</v>
+        <v>1.6089743589743591E-2</v>
       </c>
       <c r="H8" s="6">
         <f>D8/I8-1</f>
-        <v>0.18978102189780999</v>
+        <v>0.13868613138686126</v>
       </c>
       <c r="I8" s="7">
         <v>1.37</v>
@@ -1226,16 +1226,16 @@
         <v>60000</v>
       </c>
       <c r="K8" s="7">
-        <v>1.8520668344602542</v>
+        <v>1.8552083448074166</v>
       </c>
       <c r="L8" s="7">
-        <v>1.3543273933098332</v>
+        <v>1.355452771029499</v>
       </c>
       <c r="M8" s="7">
-        <v>1.6929092416372915</v>
+        <v>1.6943159637868739</v>
       </c>
       <c r="N8" s="7">
-        <v>1.6031971138850438</v>
+        <v>1.6053305579184578</v>
       </c>
       <c r="O8" s="8">
         <v>44926</v>
@@ -1258,20 +1258,20 @@
         <v>57</v>
       </c>
       <c r="D9" s="7">
-        <v>3.89</v>
+        <v>3.83</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.4492210305141866</v>
+        <v>-0.42455642686462147</v>
       </c>
       <c r="G9" s="6">
-        <v>0.10796915167095116</v>
+        <v>0.10966057441253263</v>
       </c>
       <c r="H9" s="6">
         <f>D9/I9-1</f>
-        <v>0.6767241379310347</v>
+        <v>0.65086206896551735</v>
       </c>
       <c r="I9" s="7">
         <v>2.3199999999999998</v>
@@ -1280,16 +1280,16 @@
         <v>1000</v>
       </c>
       <c r="K9" s="7">
-        <v>2.9205301912998141</v>
+        <v>2.9699488851084999</v>
       </c>
       <c r="L9" s="7">
-        <v>1.8490465464979073</v>
+        <v>1.8746481791509688</v>
       </c>
       <c r="M9" s="7">
-        <v>2.3113081831223843</v>
+        <v>2.3433102239387109</v>
       </c>
       <c r="N9" s="7">
-        <v>2.3847883688988607</v>
+        <v>2.4222985321297346</v>
       </c>
       <c r="O9" s="8">
         <v>44926</v>
@@ -1312,20 +1312,20 @@
         <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="6">
-        <v>-0.53133259863372395</v>
+        <v>-0.48306116833847612</v>
       </c>
       <c r="G10" s="6">
-        <v>7.1999999999999995E-2</v>
+        <v>7.7142857142857152E-2</v>
       </c>
       <c r="H10" s="6">
         <f>D10/I10-1</f>
-        <v>0.97368421052631571</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="I10" s="7">
         <v>0.19</v>
@@ -1334,16 +1334,16 @@
         <v>1000000</v>
       </c>
       <c r="K10" s="7">
-        <v>0.25075027551235352</v>
+        <v>0.25092859108153331</v>
       </c>
       <c r="L10" s="7">
-        <v>0.141232422003054</v>
+        <v>0.14145801710745318</v>
       </c>
       <c r="M10" s="7">
-        <v>0.17654052750381749</v>
+        <v>0.17682252138431648</v>
       </c>
       <c r="N10" s="7">
-        <v>0.19599134875770374</v>
+        <v>0.19619330409449326</v>
       </c>
       <c r="O10" s="8">
         <v>44926</v>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29">
-        <v>45113</v>
+        <v>45131</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="15"/>
@@ -5659,7 +5659,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="33">
-        <v>191600</v>
+        <v>186200</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
@@ -5752,7 +5752,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>9.3800000000000008</v>
+        <v>9.26</v>
       </c>
       <c r="E8" s="7">
         <v>9.8800000000000008</v>
@@ -5786,11 +5786,11 @@
       </c>
       <c r="O8" s="6">
         <f>(D8*G8)/$D$4</f>
-        <v>0.48956158663883098</v>
+        <v>0.49731471535982813</v>
       </c>
       <c r="P8" s="6">
         <f>D8/E8-1</f>
-        <v>-5.0607287449392691E-2</v>
+        <v>-6.2753036437247056E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>7</v>
@@ -5807,7 +5807,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="E9" s="7">
         <v>1.71</v>
@@ -5819,7 +5819,7 @@
         <v>60000</v>
       </c>
       <c r="H9" s="7">
-        <v>1.8520668344602542</v>
+        <v>1.8552083448074166</v>
       </c>
       <c r="I9" s="6">
         <v>5.9072567096644128E-3</v>
@@ -5841,11 +5841,11 @@
       </c>
       <c r="O9" s="6">
         <f>(D9*G9)/$D$4</f>
-        <v>0.51043841336116913</v>
+        <v>0.50268528464017181</v>
       </c>
       <c r="P9" s="6">
         <f>D9/E9-1</f>
-        <v>-4.6783625730994149E-2</v>
+        <v>-8.7719298245613975E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>7</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E55649D4-71D4-4081-BB83-7A5D8D931FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0CFE57-0111-4F34-9133-84C6CC7E4FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35250" yWindow="4110" windowWidth="8625" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>LUK FOOK HOLD</t>
+  </si>
+  <si>
+    <t>1382.HK</t>
+  </si>
+  <si>
+    <t>PACIFICTEXTILES</t>
+  </si>
+  <si>
+    <t>Slow Growers</t>
   </si>
 </sst>
 </file>
@@ -1042,26 +1051,26 @@
         <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>9.26</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6">
-        <v>2.0163385610989737E-2</v>
+        <v>-3.5184231880642791E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.5356371490280774E-2</v>
+        <v>4.3298969072164947E-2</v>
       </c>
       <c r="H5" s="6">
         <f>D5/I5-1</f>
-        <v>2.5470653377630104E-2</v>
+        <v>5.4347826086956541E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>9.0299999999999994</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J5" s="9">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="K5" s="7">
         <v>11.298712950757764</v>
@@ -1096,20 +1105,20 @@
         <v>62</v>
       </c>
       <c r="D6" s="7">
-        <v>20</v>
+        <v>21.05</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>-1.157986206737216E-2</v>
+        <v>-7.0859512398917968E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>2.7500000000000004E-2</v>
+        <v>2.6128266033254157E-2</v>
       </c>
       <c r="H6" s="6">
         <f>D6/I6-1</f>
-        <v>7.4113856068743322E-2</v>
+        <v>0.1305048335123522</v>
       </c>
       <c r="I6" s="7">
         <v>18.62</v>
@@ -1118,16 +1127,16 @@
         <v>7000</v>
       </c>
       <c r="K6" s="7">
-        <v>23.768402758652556</v>
+        <v>23.768407264002775</v>
       </c>
       <c r="L6" s="7">
-        <v>16.439219262117337</v>
+        <v>16.439227769329694</v>
       </c>
       <c r="M6" s="7">
-        <v>20.549024077646671</v>
+        <v>20.549034711662117</v>
       </c>
       <c r="N6" s="7">
-        <v>20.103811010384945</v>
+        <v>20.103817516666233</v>
       </c>
       <c r="O6" s="8">
         <v>45016</v>
@@ -1150,20 +1159,20 @@
         <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="6">
-        <v>-0.15650612208417325</v>
+        <v>-0.19750052443086652</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
-        <v>0.22272727272727266</v>
+        <v>0.27272727272727249</v>
       </c>
       <c r="I7" s="7">
         <v>2.2000000000000002</v>
@@ -1198,98 +1207,98 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="6">
-        <v>-1.076388153370722E-2</v>
+        <v>-0.58132452950818314</v>
       </c>
       <c r="G8" s="6">
-        <v>1.6089743589743591E-2</v>
+        <v>1.2871794871794873E-2</v>
       </c>
       <c r="H8" s="6">
         <f>D8/I8-1</f>
-        <v>0.13868613138686126</v>
+        <v>1.0744680851063833</v>
       </c>
       <c r="I8" s="7">
-        <v>1.37</v>
+        <v>0.94</v>
       </c>
       <c r="J8" s="9">
-        <v>60000</v>
+        <v>180000</v>
       </c>
       <c r="K8" s="7">
-        <v>1.8552083448074166</v>
+        <v>1.2064171674590427</v>
       </c>
       <c r="L8" s="7">
-        <v>1.355452771029499</v>
+        <v>0.68073919070593436</v>
       </c>
       <c r="M8" s="7">
-        <v>1.6943159637868739</v>
+        <v>0.8509239883824179</v>
       </c>
       <c r="N8" s="7">
-        <v>1.6053305579184578</v>
+        <v>0.94357817908248853</v>
       </c>
       <c r="O8" s="8">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="P8" s="8">
-        <v>45169</v>
+        <v>45260</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>7</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>3.83</v>
+        <v>1.62</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.42455642686462147</v>
+        <v>-4.8130575367406392E-2</v>
       </c>
       <c r="G9" s="6">
-        <v>0.10966057441253263</v>
+        <v>1.5493827160493827E-2</v>
       </c>
       <c r="H9" s="6">
         <f>D9/I9-1</f>
-        <v>0.65086206896551735</v>
+        <v>0.18248175182481741</v>
       </c>
       <c r="I9" s="7">
-        <v>2.3199999999999998</v>
+        <v>1.37</v>
       </c>
       <c r="J9" s="9">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="K9" s="7">
-        <v>2.9699488851084999</v>
+        <v>1.8660284679048016</v>
       </c>
       <c r="L9" s="7">
-        <v>1.8746481791509688</v>
+        <v>1.3631669821874219</v>
       </c>
       <c r="M9" s="7">
-        <v>2.3433102239387109</v>
+        <v>1.7039587277342774</v>
       </c>
       <c r="N9" s="7">
-        <v>2.4222985321297346</v>
+        <v>1.6145977250461119</v>
       </c>
       <c r="O9" s="8">
         <v>44926</v>
@@ -1301,49 +1310,49 @@
         <v>7</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>0.35</v>
+        <v>3.92</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="6">
-        <v>-0.48306116833847612</v>
+        <v>-0.44235997828864793</v>
       </c>
       <c r="G10" s="6">
-        <v>7.7142857142857152E-2</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="H10" s="6">
         <f>D10/I10-1</f>
-        <v>0.84210526315789469</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="I10" s="7">
-        <v>0.19</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="J10" s="9">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="K10" s="7">
-        <v>0.25092859108153331</v>
+        <v>2.9699488851084999</v>
       </c>
       <c r="L10" s="7">
-        <v>0.14145801710745318</v>
+        <v>1.8746481791509688</v>
       </c>
       <c r="M10" s="7">
-        <v>0.17682252138431648</v>
+        <v>2.3433102239387109</v>
       </c>
       <c r="N10" s="7">
-        <v>0.19619330409449326</v>
+        <v>2.4222985321297346</v>
       </c>
       <c r="O10" s="8">
         <v>44926</v>
@@ -1355,27 +1364,62 @@
         <v>7</v>
       </c>
       <c r="R10" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-0.52976095302240211</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <f>D11/I11-1</f>
+        <v>0.97368421052631571</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.25133964261659919</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.14197805702540961</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.17747257128176203</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.1966588498210044</v>
+      </c>
+      <c r="O11" s="8">
+        <v>44926</v>
+      </c>
+      <c r="P11" s="8">
+        <v>45169</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
@@ -5627,7 +5671,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29">
-        <v>45131</v>
+        <v>45134</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="15"/>
@@ -5659,7 +5703,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="33">
-        <v>186200</v>
+        <v>194200</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
@@ -5752,7 +5796,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>9.26</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E8" s="7">
         <v>9.8800000000000008</v>
@@ -5786,11 +5830,11 @@
       </c>
       <c r="O8" s="6">
         <f>(D8*G8)/$D$4</f>
-        <v>0.49731471535982813</v>
+        <v>0.49948506694129763</v>
       </c>
       <c r="P8" s="6">
         <f>D8/E8-1</f>
-        <v>-6.2753036437247056E-2</v>
+        <v>-1.8218623481781493E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>7</v>
@@ -5807,7 +5851,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="E9" s="7">
         <v>1.71</v>
@@ -5819,7 +5863,7 @@
         <v>60000</v>
       </c>
       <c r="H9" s="7">
-        <v>1.8552083448074166</v>
+        <v>1.8660284679048016</v>
       </c>
       <c r="I9" s="6">
         <v>5.9072567096644128E-3</v>
@@ -5841,11 +5885,11 @@
       </c>
       <c r="O9" s="6">
         <f>(D9*G9)/$D$4</f>
-        <v>0.50268528464017181</v>
+        <v>0.50051493305870232</v>
       </c>
       <c r="P9" s="6">
         <f>D9/E9-1</f>
-        <v>-8.7719298245613975E-2</v>
+        <v>-5.2631578947368363E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>7</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0CFE57-0111-4F34-9133-84C6CC7E4FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D075AB4-BCE9-4E30-B94B-7B597BFA6C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35250" yWindow="4110" windowWidth="8625" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -187,15 +187,6 @@
     <t>HK Account:</t>
   </si>
   <si>
-    <t>Exp Exit Price</t>
-  </si>
-  <si>
-    <t>Worst Case Price</t>
-  </si>
-  <si>
-    <t>Exp Price</t>
-  </si>
-  <si>
     <t>6993.HK</t>
   </si>
   <si>
@@ -224,6 +215,15 @@
   </si>
   <si>
     <t>Slow Growers</t>
+  </si>
+  <si>
+    <t>Worst Exit Price</t>
+  </si>
+  <si>
+    <t>Conser. Exit Price</t>
+  </si>
+  <si>
+    <t>Exp Equity Value</t>
   </si>
 </sst>
 </file>
@@ -933,7 +933,7 @@
   <dimension ref="A2:R400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1019,13 +1019,13 @@
         <v>26</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>23</v>
@@ -1063,7 +1063,7 @@
         <v>4.3298969072164947E-2</v>
       </c>
       <c r="H5" s="6">
-        <f>D5/I5-1</f>
+        <f t="shared" ref="H5:H11" si="0">D5/I5-1</f>
         <v>5.4347826086956541E-2</v>
       </c>
       <c r="I5" s="7">
@@ -1099,10 +1099,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7">
         <v>21.05</v>
@@ -1117,7 +1117,7 @@
         <v>2.6128266033254157E-2</v>
       </c>
       <c r="H6" s="6">
-        <f>D6/I6-1</f>
+        <f t="shared" si="0"/>
         <v>0.1305048335123522</v>
       </c>
       <c r="I6" s="7">
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <f>D7/I7-1</f>
+        <f t="shared" si="0"/>
         <v>0.27272727272727249</v>
       </c>
       <c r="I7" s="7">
@@ -1207,10 +1207,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
         <v>1.95</v>
@@ -1225,7 +1225,7 @@
         <v>1.2871794871794873E-2</v>
       </c>
       <c r="H8" s="6">
-        <f>D8/I8-1</f>
+        <f t="shared" si="0"/>
         <v>1.0744680851063833</v>
       </c>
       <c r="I8" s="7">
@@ -1256,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -1279,7 +1279,7 @@
         <v>1.5493827160493827E-2</v>
       </c>
       <c r="H9" s="6">
-        <f>D9/I9-1</f>
+        <f t="shared" si="0"/>
         <v>0.18248175182481741</v>
       </c>
       <c r="I9" s="7">
@@ -1315,10 +1315,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
         <v>3.92</v>
@@ -1333,7 +1333,7 @@
         <v>0.10714285714285714</v>
       </c>
       <c r="H10" s="6">
-        <f>D10/I10-1</f>
+        <f t="shared" si="0"/>
         <v>0.68965517241379315</v>
       </c>
       <c r="I10" s="7">
@@ -1364,15 +1364,15 @@
         <v>7</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
         <v>0.375</v>
@@ -1387,7 +1387,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="H11" s="6">
-        <f>D11/I11-1</f>
+        <f t="shared" si="0"/>
         <v>0.97368421052631571</v>
       </c>
       <c r="I11" s="7">

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D075AB4-BCE9-4E30-B94B-7B597BFA6C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA414B-A3DE-415D-8CF1-410EB7426F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$7:$R$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$R$4</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="32"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -112,9 +125,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset Plays </t>
-  </si>
-  <si>
     <t>0083.HK</t>
   </si>
   <si>
@@ -160,12 +170,6 @@
     <t>Market</t>
   </si>
   <si>
-    <t>0806.HK</t>
-  </si>
-  <si>
-    <t>VALUE PARTNERS</t>
-  </si>
-  <si>
     <t>% From Buy</t>
   </si>
   <si>
@@ -187,36 +191,6 @@
     <t>HK Account:</t>
   </si>
   <si>
-    <t>6993.HK</t>
-  </si>
-  <si>
-    <t>BLUE MOON GROUP</t>
-  </si>
-  <si>
-    <t>Stalwarts</t>
-  </si>
-  <si>
-    <t>9982.HK</t>
-  </si>
-  <si>
-    <t>CENTRALCHINA MT</t>
-  </si>
-  <si>
-    <t>0590.HK</t>
-  </si>
-  <si>
-    <t>LUK FOOK HOLD</t>
-  </si>
-  <si>
-    <t>1382.HK</t>
-  </si>
-  <si>
-    <t>PACIFICTEXTILES</t>
-  </si>
-  <si>
-    <t>Slow Growers</t>
-  </si>
-  <si>
     <t>Worst Exit Price</t>
   </si>
   <si>
@@ -224,6 +198,15 @@
   </si>
   <si>
     <t>Exp Equity Value</t>
+  </si>
+  <si>
+    <t>Cyclicals</t>
+  </si>
+  <si>
+    <t>0710.HK</t>
+  </si>
+  <si>
+    <t>BOE VARITRONIX</t>
   </si>
 </sst>
 </file>
@@ -932,24 +915,24 @@
   </sheetPr>
   <dimension ref="A2:R400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.6328125" customWidth="1"/>
-    <col min="6" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="14" width="14.6328125" customWidth="1"/>
-    <col min="15" max="15" width="14.453125" customWidth="1"/>
-    <col min="16" max="16" width="16.6328125" customWidth="1"/>
-    <col min="18" max="18" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.59765625" customWidth="1"/>
+    <col min="6" max="8" width="13.19921875" customWidth="1"/>
+    <col min="9" max="14" width="14.59765625" customWidth="1"/>
+    <col min="15" max="15" width="14.46484375" customWidth="1"/>
+    <col min="16" max="16" width="16.59765625" customWidth="1"/>
+    <col min="18" max="18" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -971,7 +954,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D3" s="26" t="s">
         <v>16</v>
       </c>
@@ -990,7 +973,7 @@
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1007,10 +990,10 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>25</v>
@@ -1019,13 +1002,13 @@
         <v>26</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>23</v>
@@ -1043,46 +1026,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" s="7">
-        <v>9.6999999999999993</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6">
-        <v>-3.5184231880642791E-2</v>
+        <v>-1.6856732471297597E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.3298969072164947E-2</v>
+        <v>4.6822742474916385E-2</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H11" si="0">D5/I5-1</f>
-        <v>5.4347826086956541E-2</v>
+        <f>D5/I5-1</f>
+        <v>9.3902439024390327E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>9.1999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J5" s="9">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K5" s="7">
-        <v>11.298712950757764</v>
+        <v>10.612795109732462</v>
       </c>
       <c r="L5" s="7">
-        <v>9.8640225351211033</v>
+        <v>8.4269096351545389</v>
       </c>
       <c r="M5" s="7">
-        <v>10.735099766534228</v>
+        <v>9.5834798920710025</v>
       </c>
       <c r="N5" s="7">
-        <v>10.581367742939435</v>
+        <v>8.843995924777051</v>
       </c>
       <c r="O5" s="8">
         <v>44742</v>
@@ -1094,103 +1077,103 @@
         <v>7</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D6" s="7">
-        <v>21.05</v>
+        <v>7.83</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>-7.0859512398917968E-2</v>
+        <v>0.17316404920565032</v>
       </c>
       <c r="G6" s="6">
-        <v>2.6128266033254157E-2</v>
+        <v>2.9374201787994892E-3</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1305048335123522</v>
+        <f>D6/I6-1</f>
+        <v>5.810810810810807E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>18.62</v>
+        <v>7.4</v>
       </c>
       <c r="J6" s="9">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="K6" s="7">
-        <v>23.768407264002775</v>
+        <v>10.751874505280242</v>
       </c>
       <c r="L6" s="7">
-        <v>16.439227769329694</v>
+        <v>6.6109910640924401</v>
       </c>
       <c r="M6" s="7">
-        <v>20.549034711662117</v>
+        <v>8.2637388301155497</v>
       </c>
       <c r="N6" s="7">
-        <v>20.103817516666233</v>
+        <v>8.6814327846863399</v>
       </c>
       <c r="O6" s="8">
-        <v>45016</v>
+        <v>44926</v>
       </c>
       <c r="P6" s="8">
-        <v>45260</v>
+        <v>45351</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="6">
-        <v>-0.19750052443086652</v>
+        <v>0.11483092336380385</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>0.28994082840236685</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727249</v>
+        <f>D7/I7-1</f>
+        <v>5.6249999999999911E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="J7" s="9">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="K7" s="7">
-        <v>2.8069985315935737</v>
+        <v>2.2220642604848284</v>
       </c>
       <c r="L7" s="7">
-        <v>1.5917055112922753</v>
+        <v>1.6419369991583319</v>
       </c>
       <c r="M7" s="7">
-        <v>1.973811082503208</v>
+        <v>2.052421248947915</v>
       </c>
       <c r="N7" s="7">
-        <v>2.1993520214429245</v>
+        <v>1.8517202170706903</v>
       </c>
       <c r="O7" s="8">
         <v>44926</v>
@@ -1202,226 +1185,86 @@
         <v>7</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1.95</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6">
-        <v>-0.58132452950818314</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1.2871794871794873E-2</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0744680851063833</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="J8" s="9">
-        <v>180000</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1.2064171674590427</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0.68073919070593436</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0.8509239883824179</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0.94357817908248853</v>
-      </c>
-      <c r="O8" s="8">
-        <v>45016</v>
-      </c>
-      <c r="P8" s="8">
-        <v>45260</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1.62</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6">
-        <v>-4.8130575367406392E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1.5493827160493827E-2</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18248175182481741</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1.37</v>
-      </c>
-      <c r="J9" s="9">
-        <v>60000</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1.8660284679048016</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1.3631669821874219</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1.7039587277342774</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1.6145977250461119</v>
-      </c>
-      <c r="O9" s="8">
-        <v>44926</v>
-      </c>
-      <c r="P9" s="8">
-        <v>45169</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3.92</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6">
-        <v>-0.44235997828864793</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.68965517241379315</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="7">
-        <v>2.9699488851084999</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1.8746481791509688</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2.3433102239387109</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2.4222985321297346</v>
-      </c>
-      <c r="O10" s="8">
-        <v>44926</v>
-      </c>
-      <c r="P10" s="8">
-        <v>45169</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6">
-        <v>-0.52976095302240211</v>
-      </c>
-      <c r="G11" s="6">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.97368421052631571</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0.25133964261659919</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0.14197805702540961</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0.17747257128176203</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0.1966588498210044</v>
-      </c>
-      <c r="O11" s="8">
-        <v>44926</v>
-      </c>
-      <c r="P11" s="8">
-        <v>45169</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
@@ -1440,7 +1283,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
@@ -1459,7 +1302,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
@@ -1478,7 +1321,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -1497,7 +1340,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -1516,7 +1359,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -1535,7 +1378,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -1554,7 +1397,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -1573,7 +1416,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -1592,7 +1435,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -1611,7 +1454,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -1630,7 +1473,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -1649,7 +1492,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -1668,7 +1511,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -1687,7 +1530,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -1706,7 +1549,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -1725,7 +1568,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -1744,7 +1587,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -1763,7 +1606,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -1782,7 +1625,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -1801,7 +1644,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -1820,7 +1663,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -1839,7 +1682,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -1858,7 +1701,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -1877,7 +1720,7 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -1896,7 +1739,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -1915,7 +1758,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -1934,7 +1777,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -1953,7 +1796,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -1972,7 +1815,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -1991,7 +1834,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -2010,7 +1853,7 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -2029,7 +1872,7 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -2048,7 +1891,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -2067,7 +1910,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -2086,7 +1929,7 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -2105,7 +1948,7 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -2124,7 +1967,7 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -2143,7 +1986,7 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -2162,7 +2005,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -2181,7 +2024,7 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -2200,7 +2043,7 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -2219,7 +2062,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -2238,7 +2081,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -2257,7 +2100,7 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -2276,7 +2119,7 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -2295,7 +2138,7 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -2314,7 +2157,7 @@
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -2333,7 +2176,7 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -2352,7 +2195,7 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
@@ -2371,7 +2214,7 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -2390,7 +2233,7 @@
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -2409,7 +2252,7 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -2428,7 +2271,7 @@
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -2447,7 +2290,7 @@
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -2466,7 +2309,7 @@
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -2485,7 +2328,7 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -2504,7 +2347,7 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -2523,7 +2366,7 @@
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -2542,7 +2385,7 @@
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -2561,7 +2404,7 @@
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -2580,7 +2423,7 @@
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -2599,7 +2442,7 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -2618,7 +2461,7 @@
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -2637,7 +2480,7 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -2656,7 +2499,7 @@
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -2675,7 +2518,7 @@
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -2694,7 +2537,7 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -2713,7 +2556,7 @@
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -2732,7 +2575,7 @@
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -2751,7 +2594,7 @@
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -2770,7 +2613,7 @@
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -2789,7 +2632,7 @@
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -2808,7 +2651,7 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -2827,7 +2670,7 @@
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -2846,7 +2689,7 @@
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
@@ -2865,7 +2708,7 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -2884,7 +2727,7 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -2903,7 +2746,7 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
@@ -2922,7 +2765,7 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
@@ -2941,7 +2784,7 @@
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
@@ -2960,7 +2803,7 @@
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
@@ -2979,7 +2822,7 @@
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
@@ -2998,7 +2841,7 @@
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
@@ -3017,7 +2860,7 @@
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
@@ -3036,7 +2879,7 @@
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
@@ -3055,7 +2898,7 @@
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
@@ -3074,7 +2917,7 @@
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
@@ -3093,7 +2936,7 @@
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
@@ -3112,7 +2955,7 @@
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
@@ -3131,7 +2974,7 @@
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
@@ -3150,7 +2993,7 @@
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
@@ -3169,7 +3012,7 @@
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
@@ -3188,7 +3031,7 @@
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
@@ -3207,7 +3050,7 @@
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
@@ -3226,7 +3069,7 @@
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
@@ -3245,7 +3088,7 @@
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
@@ -3264,7 +3107,7 @@
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
@@ -3283,7 +3126,7 @@
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
@@ -3302,7 +3145,7 @@
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
@@ -3321,7 +3164,7 @@
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -3340,7 +3183,7 @@
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
@@ -3359,7 +3202,7 @@
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
@@ -3378,7 +3221,7 @@
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
@@ -3397,7 +3240,7 @@
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
@@ -3416,7 +3259,7 @@
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
@@ -3435,7 +3278,7 @@
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
@@ -3454,7 +3297,7 @@
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
@@ -3473,7 +3316,7 @@
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
@@ -3492,7 +3335,7 @@
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
@@ -3511,7 +3354,7 @@
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
@@ -3530,7 +3373,7 @@
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
@@ -3549,7 +3392,7 @@
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
@@ -3568,7 +3411,7 @@
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -3587,7 +3430,7 @@
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
@@ -3606,7 +3449,7 @@
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
@@ -3625,7 +3468,7 @@
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
@@ -3644,7 +3487,7 @@
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -3663,7 +3506,7 @@
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -3682,7 +3525,7 @@
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -3701,7 +3544,7 @@
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -3720,7 +3563,7 @@
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -3739,7 +3582,7 @@
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -3758,7 +3601,7 @@
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
     </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -3777,7 +3620,7 @@
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
     </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -3796,7 +3639,7 @@
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
     </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -3815,7 +3658,7 @@
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -3834,7 +3677,7 @@
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -3853,7 +3696,7 @@
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -3872,7 +3715,7 @@
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -3891,7 +3734,7 @@
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -3910,7 +3753,7 @@
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -3929,7 +3772,7 @@
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -3948,7 +3791,7 @@
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -3967,7 +3810,7 @@
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -3986,7 +3829,7 @@
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -4005,7 +3848,7 @@
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -4024,7 +3867,7 @@
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -4043,7 +3886,7 @@
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -4062,7 +3905,7 @@
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -4081,7 +3924,7 @@
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -4100,7 +3943,7 @@
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -4119,7 +3962,7 @@
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -4138,7 +3981,7 @@
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -4157,7 +4000,7 @@
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
     </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -4176,7 +4019,7 @@
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
     </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -4195,7 +4038,7 @@
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -4214,7 +4057,7 @@
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -4233,7 +4076,7 @@
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -4252,7 +4095,7 @@
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -4271,7 +4114,7 @@
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -4290,7 +4133,7 @@
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
     </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -4309,7 +4152,7 @@
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
     </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -4328,7 +4171,7 @@
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
     </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -4347,7 +4190,7 @@
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
     </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -4366,7 +4209,7 @@
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
     </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -4385,7 +4228,7 @@
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
     </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -4404,7 +4247,7 @@
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
     </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -4423,7 +4266,7 @@
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
     </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -4442,7 +4285,7 @@
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
     </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -4461,7 +4304,7 @@
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
     </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -4480,7 +4323,7 @@
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
     </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -4499,7 +4342,7 @@
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
     </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -4518,7 +4361,7 @@
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
     </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -4537,7 +4380,7 @@
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
     </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -4556,7 +4399,7 @@
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
     </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -4575,7 +4418,7 @@
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
     </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -4594,7 +4437,7 @@
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -4613,7 +4456,7 @@
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -4632,7 +4475,7 @@
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -4651,7 +4494,7 @@
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
     </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -4670,7 +4513,7 @@
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
     </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -4689,7 +4532,7 @@
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
     </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -4708,7 +4551,7 @@
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
     </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -4727,7 +4570,7 @@
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
     </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -4746,7 +4589,7 @@
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
     </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -4765,7 +4608,7 @@
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
     </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -4784,7 +4627,7 @@
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
     </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -4803,7 +4646,7 @@
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
     </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -4822,7 +4665,7 @@
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
     </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -4841,7 +4684,7 @@
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -4860,7 +4703,7 @@
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
     </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -4879,7 +4722,7 @@
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
     </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -4898,7 +4741,7 @@
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
     </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -4917,7 +4760,7 @@
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
     </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -4936,7 +4779,7 @@
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
     </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -4955,7 +4798,7 @@
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
     </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -4974,7 +4817,7 @@
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
     </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -4993,7 +4836,7 @@
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
     </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -5012,604 +4855,604 @@
       <c r="Q200" s="5"/>
       <c r="R200" s="5"/>
     </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:18" x14ac:dyDescent="0.45">
       <c r="P201" s="20"/>
     </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:18" x14ac:dyDescent="0.45">
       <c r="P202" s="20"/>
     </row>
-    <row r="203" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:18" x14ac:dyDescent="0.45">
       <c r="P203" s="20"/>
     </row>
-    <row r="204" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:18" x14ac:dyDescent="0.45">
       <c r="P204" s="20"/>
     </row>
-    <row r="205" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:18" x14ac:dyDescent="0.45">
       <c r="P205" s="20"/>
     </row>
-    <row r="206" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:18" x14ac:dyDescent="0.45">
       <c r="P206" s="20"/>
     </row>
-    <row r="207" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:18" x14ac:dyDescent="0.45">
       <c r="P207" s="20"/>
     </row>
-    <row r="208" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:18" x14ac:dyDescent="0.45">
       <c r="P208" s="20"/>
     </row>
-    <row r="209" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P209" s="20"/>
     </row>
-    <row r="210" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P210" s="20"/>
     </row>
-    <row r="211" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P211" s="20"/>
     </row>
-    <row r="212" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P212" s="20"/>
     </row>
-    <row r="213" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P213" s="20"/>
     </row>
-    <row r="214" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P214" s="20"/>
     </row>
-    <row r="215" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P215" s="20"/>
     </row>
-    <row r="216" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P216" s="20"/>
     </row>
-    <row r="217" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P217" s="20"/>
     </row>
-    <row r="218" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P218" s="20"/>
     </row>
-    <row r="219" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P219" s="20"/>
     </row>
-    <row r="220" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P220" s="20"/>
     </row>
-    <row r="221" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P221" s="20"/>
     </row>
-    <row r="222" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P222" s="20"/>
     </row>
-    <row r="223" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P223" s="20"/>
     </row>
-    <row r="224" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P224" s="20"/>
     </row>
-    <row r="225" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P225" s="20"/>
     </row>
-    <row r="226" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P226" s="20"/>
     </row>
-    <row r="227" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P227" s="20"/>
     </row>
-    <row r="228" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P228" s="20"/>
     </row>
-    <row r="229" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P229" s="20"/>
     </row>
-    <row r="230" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="230" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P230" s="20"/>
     </row>
-    <row r="231" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="231" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P231" s="20"/>
     </row>
-    <row r="232" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P232" s="20"/>
     </row>
-    <row r="233" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P233" s="20"/>
     </row>
-    <row r="234" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="234" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P234" s="20"/>
     </row>
-    <row r="235" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P235" s="20"/>
     </row>
-    <row r="236" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P236" s="20"/>
     </row>
-    <row r="237" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="237" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P237" s="20"/>
     </row>
-    <row r="238" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="238" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P238" s="20"/>
     </row>
-    <row r="239" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="239" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P239" s="20"/>
     </row>
-    <row r="240" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P240" s="20"/>
     </row>
-    <row r="241" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="241" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P241" s="20"/>
     </row>
-    <row r="242" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P242" s="20"/>
     </row>
-    <row r="243" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P243" s="20"/>
     </row>
-    <row r="244" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P244" s="20"/>
     </row>
-    <row r="245" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P245" s="20"/>
     </row>
-    <row r="246" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P246" s="20"/>
     </row>
-    <row r="247" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P247" s="20"/>
     </row>
-    <row r="248" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P248" s="20"/>
     </row>
-    <row r="249" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P249" s="20"/>
     </row>
-    <row r="250" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P250" s="20"/>
     </row>
-    <row r="251" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="251" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P251" s="20"/>
     </row>
-    <row r="252" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P252" s="20"/>
     </row>
-    <row r="253" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P253" s="20"/>
     </row>
-    <row r="254" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P254" s="20"/>
     </row>
-    <row r="255" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P255" s="20"/>
     </row>
-    <row r="256" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P256" s="20"/>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P257" s="20"/>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P258" s="20"/>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P259" s="20"/>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P260" s="20"/>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P261" s="20"/>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P262" s="20"/>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P263" s="20"/>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P264" s="20"/>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P265" s="20"/>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P266" s="20"/>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P267" s="20"/>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P268" s="20"/>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P269" s="20"/>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P270" s="20"/>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P271" s="20"/>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P272" s="20"/>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P273" s="20"/>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P274" s="20"/>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P275" s="20"/>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P276" s="20"/>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P277" s="20"/>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P278" s="20"/>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P279" s="20"/>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P280" s="20"/>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P281" s="20"/>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P282" s="20"/>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P283" s="20"/>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P284" s="20"/>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P285" s="20"/>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P286" s="20"/>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P287" s="20"/>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P288" s="20"/>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P289" s="20"/>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P290" s="20"/>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P291" s="20"/>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P292" s="20"/>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P293" s="20"/>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P294" s="20"/>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P295" s="20"/>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P296" s="20"/>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P297" s="20"/>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P298" s="20"/>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P299" s="20"/>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P300" s="20"/>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P301" s="20"/>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P302" s="20"/>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P303" s="20"/>
     </row>
-    <row r="304" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="304" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P304" s="20"/>
     </row>
-    <row r="305" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="305" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P305" s="20"/>
     </row>
-    <row r="306" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="306" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P306" s="20"/>
     </row>
-    <row r="307" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="307" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P307" s="20"/>
     </row>
-    <row r="308" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="308" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P308" s="20"/>
     </row>
-    <row r="309" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="309" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P309" s="20"/>
     </row>
-    <row r="310" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="310" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P310" s="20"/>
     </row>
-    <row r="311" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="311" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P311" s="20"/>
     </row>
-    <row r="312" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="312" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P312" s="20"/>
     </row>
-    <row r="313" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="313" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P313" s="20"/>
     </row>
-    <row r="314" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="314" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P314" s="20"/>
     </row>
-    <row r="315" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="315" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P315" s="20"/>
     </row>
-    <row r="316" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="316" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P316" s="20"/>
     </row>
-    <row r="317" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="317" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P317" s="20"/>
     </row>
-    <row r="318" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="318" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P318" s="20"/>
     </row>
-    <row r="319" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="319" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P319" s="20"/>
     </row>
-    <row r="320" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="320" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P320" s="20"/>
     </row>
-    <row r="321" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="321" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P321" s="20"/>
     </row>
-    <row r="322" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="322" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P322" s="20"/>
     </row>
-    <row r="323" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="323" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P323" s="20"/>
     </row>
-    <row r="324" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="324" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P324" s="20"/>
     </row>
-    <row r="325" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="325" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P325" s="20"/>
     </row>
-    <row r="326" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="326" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P326" s="20"/>
     </row>
-    <row r="327" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="327" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P327" s="20"/>
     </row>
-    <row r="328" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="328" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P328" s="20"/>
     </row>
-    <row r="329" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="329" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P329" s="20"/>
     </row>
-    <row r="330" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="330" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P330" s="20"/>
     </row>
-    <row r="331" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="331" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P331" s="20"/>
     </row>
-    <row r="332" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="332" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P332" s="20"/>
     </row>
-    <row r="333" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="333" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P333" s="20"/>
     </row>
-    <row r="334" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="334" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P334" s="20"/>
     </row>
-    <row r="335" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="335" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P335" s="20"/>
     </row>
-    <row r="336" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="336" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P336" s="20"/>
     </row>
-    <row r="337" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="337" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P337" s="20"/>
     </row>
-    <row r="338" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="338" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P338" s="20"/>
     </row>
-    <row r="339" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="339" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P339" s="20"/>
     </row>
-    <row r="340" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="340" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P340" s="20"/>
     </row>
-    <row r="341" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="341" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P341" s="20"/>
     </row>
-    <row r="342" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="342" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P342" s="20"/>
     </row>
-    <row r="343" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="343" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P343" s="20"/>
     </row>
-    <row r="344" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="344" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P344" s="20"/>
     </row>
-    <row r="345" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="345" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P345" s="20"/>
     </row>
-    <row r="346" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="346" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P346" s="20"/>
     </row>
-    <row r="347" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="347" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P347" s="20"/>
     </row>
-    <row r="348" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="348" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P348" s="20"/>
     </row>
-    <row r="349" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="349" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P349" s="20"/>
     </row>
-    <row r="350" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="350" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P350" s="20"/>
     </row>
-    <row r="351" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="351" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P351" s="20"/>
     </row>
-    <row r="352" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="352" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P352" s="20"/>
     </row>
-    <row r="353" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="353" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P353" s="20"/>
     </row>
-    <row r="354" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="354" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P354" s="20"/>
     </row>
-    <row r="355" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="355" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P355" s="20"/>
     </row>
-    <row r="356" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="356" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P356" s="20"/>
     </row>
-    <row r="357" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="357" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P357" s="20"/>
     </row>
-    <row r="358" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="358" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P358" s="20"/>
     </row>
-    <row r="359" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="359" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P359" s="20"/>
     </row>
-    <row r="360" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="360" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P360" s="20"/>
     </row>
-    <row r="361" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="361" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P361" s="20"/>
     </row>
-    <row r="362" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="362" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P362" s="20"/>
     </row>
-    <row r="363" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="363" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P363" s="20"/>
     </row>
-    <row r="364" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="364" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P364" s="20"/>
     </row>
-    <row r="365" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="365" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P365" s="20"/>
     </row>
-    <row r="366" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="366" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P366" s="20"/>
     </row>
-    <row r="367" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="367" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P367" s="20"/>
     </row>
-    <row r="368" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="368" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P368" s="20"/>
     </row>
-    <row r="369" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="369" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P369" s="20"/>
     </row>
-    <row r="370" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="370" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P370" s="20"/>
     </row>
-    <row r="371" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="371" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P371" s="20"/>
     </row>
-    <row r="372" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="372" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P372" s="20"/>
     </row>
-    <row r="373" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="373" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P373" s="20"/>
     </row>
-    <row r="374" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="374" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P374" s="20"/>
     </row>
-    <row r="375" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="375" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P375" s="20"/>
     </row>
-    <row r="376" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="376" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P376" s="20"/>
     </row>
-    <row r="377" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="377" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P377" s="20"/>
     </row>
-    <row r="378" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="378" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P378" s="20"/>
     </row>
-    <row r="379" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="379" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P379" s="20"/>
     </row>
-    <row r="380" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="380" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P380" s="20"/>
     </row>
-    <row r="381" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="381" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P381" s="20"/>
     </row>
-    <row r="382" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="382" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P382" s="20"/>
     </row>
-    <row r="383" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="383" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P383" s="20"/>
     </row>
-    <row r="384" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="384" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P384" s="20"/>
     </row>
-    <row r="385" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="385" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P385" s="20"/>
     </row>
-    <row r="386" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="386" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P386" s="20"/>
     </row>
-    <row r="387" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="387" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P387" s="20"/>
     </row>
-    <row r="388" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="388" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P388" s="20"/>
     </row>
-    <row r="389" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="389" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P389" s="20"/>
     </row>
-    <row r="390" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="390" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P390" s="20"/>
     </row>
-    <row r="391" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="391" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P391" s="20"/>
     </row>
-    <row r="392" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="392" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P392" s="20"/>
     </row>
-    <row r="393" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="393" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P393" s="20"/>
     </row>
-    <row r="394" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="394" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P394" s="20"/>
     </row>
-    <row r="395" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="395" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P395" s="20"/>
     </row>
-    <row r="396" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="396" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P396" s="20"/>
     </row>
-    <row r="397" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="397" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P397" s="20"/>
     </row>
-    <row r="398" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="398" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P398" s="20"/>
     </row>
-    <row r="399" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="399" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P399" s="20"/>
     </row>
-    <row r="400" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="400" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P400" s="20"/>
     </row>
   </sheetData>
@@ -5646,21 +5489,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="14" width="14.6328125" customWidth="1"/>
-    <col min="15" max="16" width="12.6328125" customWidth="1"/>
-    <col min="17" max="17" width="8.36328125" customWidth="1"/>
-    <col min="18" max="18" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="3" width="15.59765625" customWidth="1"/>
+    <col min="4" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="9" max="14" width="14.59765625" customWidth="1"/>
+    <col min="15" max="16" width="12.59765625" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" customWidth="1"/>
+    <col min="18" max="18" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>9</v>
@@ -5671,7 +5514,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29">
-        <v>45134</v>
+        <v>45167</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="15"/>
@@ -5686,31 +5529,31 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="31">
-        <v>201200</v>
+        <v>293400</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="33">
-        <v>194200</v>
+        <v>280800</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -5719,23 +5562,23 @@
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
       <c r="I6" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
       <c r="N6" s="35"/>
       <c r="O6" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" s="30"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
@@ -5758,22 +5601,22 @@
         <v>24</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>13</v>
@@ -5782,76 +5625,72 @@
         <v>14</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="7">
-        <v>9.6999999999999993</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="E8" s="7">
-        <v>9.8800000000000008</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="9">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H8" s="7">
-        <v>11.298712950757764</v>
-      </c>
-      <c r="I8" s="6">
-        <v>4.2300888050327577E-2</v>
-      </c>
+        <v>10.612795109732462</v>
+      </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="17">
-        <v>3.7089690853896293</v>
+        <v>0.49441990437393296</v>
       </c>
       <c r="K8" s="17">
-        <v>11.003427197705268</v>
+        <v>3966626.6229999997</v>
       </c>
       <c r="L8" s="17">
-        <v>3.4515437078973985</v>
+        <v>4.0755248285352721</v>
       </c>
       <c r="M8" s="17">
-        <v>6.5599984754845266</v>
-      </c>
-      <c r="N8" s="17">
-        <v>3.5134488326629425</v>
-      </c>
+        <v>2772891.7280000001</v>
+      </c>
+      <c r="N8" s="17"/>
       <c r="O8" s="6">
         <f>(D8*G8)/$D$4</f>
-        <v>0.49948506694129763</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="P8" s="6">
         <f>D8/E8-1</f>
-        <v>-1.8218623481781493E-2</v>
+        <v>-5.9748427672955851E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="7">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="E9" s="7">
         <v>1.71</v>
@@ -5863,42 +5702,38 @@
         <v>60000</v>
       </c>
       <c r="H9" s="7">
-        <v>1.8660284679048016</v>
-      </c>
-      <c r="I9" s="6">
-        <v>5.9072567096644128E-3</v>
-      </c>
+        <v>2.2220642604848284</v>
+      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="17">
-        <v>3.8517555372810004</v>
+        <v>0.89074192209159853</v>
       </c>
       <c r="K9" s="17">
-        <v>368.70149951628508</v>
+        <v>7102</v>
       </c>
       <c r="L9" s="17">
-        <v>3.3203400791857054</v>
+        <v>5.186803264578713</v>
       </c>
       <c r="M9" s="17">
-        <v>142.03094980137234</v>
-      </c>
-      <c r="N9" s="17">
-        <v>3.3349252082564349</v>
-      </c>
+        <v>8842</v>
+      </c>
+      <c r="N9" s="17"/>
       <c r="O9" s="6">
         <f>(D9*G9)/$D$4</f>
-        <v>0.50051493305870232</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="P9" s="6">
         <f>D9/E9-1</f>
-        <v>-5.2631578947368363E-2</v>
+        <v>-1.1695906432748537E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
@@ -5917,7 +5752,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
@@ -5936,7 +5771,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
@@ -5955,7 +5790,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
@@ -5974,7 +5809,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
@@ -5993,7 +5828,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -6012,7 +5847,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -6031,7 +5866,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -6050,7 +5885,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -6069,7 +5904,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -6088,7 +5923,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -6107,7 +5942,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -6126,7 +5961,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -6145,7 +5980,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -6164,7 +5999,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -6183,7 +6018,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -6202,7 +6037,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -6221,7 +6056,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -6240,7 +6075,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -6259,7 +6094,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -6278,7 +6113,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -6297,7 +6132,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -6316,7 +6151,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -6335,7 +6170,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -6354,7 +6189,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -6373,7 +6208,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -6392,7 +6227,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -6411,7 +6246,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -6430,7 +6265,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -6449,7 +6284,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -6468,7 +6303,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -6487,7 +6322,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -6506,7 +6341,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -6525,7 +6360,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -6544,7 +6379,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -6563,7 +6398,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -6582,7 +6417,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -6601,7 +6436,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -6620,7 +6455,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -6639,7 +6474,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -6658,7 +6493,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -6677,7 +6512,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -6696,7 +6531,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -6715,7 +6550,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -6734,7 +6569,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -6753,7 +6588,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -6772,7 +6607,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -6791,7 +6626,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -6810,7 +6645,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -6829,7 +6664,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -6848,7 +6683,7 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -6867,7 +6702,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
@@ -6886,7 +6721,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -6905,7 +6740,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="5"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -6924,7 +6759,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -6943,7 +6778,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="5"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -6962,7 +6797,7 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="5"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -6981,7 +6816,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -7000,7 +6835,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="5"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -7019,7 +6854,7 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="5"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -7038,7 +6873,7 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -7057,7 +6892,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -7076,7 +6911,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -7095,7 +6930,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -7114,7 +6949,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -7133,7 +6968,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -7152,7 +6987,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -7171,7 +7006,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="5"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -7190,7 +7025,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="5"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -7209,7 +7044,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="5"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -7228,7 +7063,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="5"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -7247,7 +7082,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="5"/>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -7266,7 +7101,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -7285,7 +7120,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="5"/>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -7304,7 +7139,7 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -7323,7 +7158,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -7342,7 +7177,7 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -7361,7 +7196,7 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
@@ -7380,7 +7215,7 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="5"/>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -7399,7 +7234,7 @@
       <c r="Q88" s="6"/>
       <c r="R88" s="5"/>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -7418,7 +7253,7 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
@@ -7437,7 +7272,7 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
@@ -7456,7 +7291,7 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="5"/>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
@@ -7475,7 +7310,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="5"/>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
@@ -7494,7 +7329,7 @@
       <c r="Q93" s="6"/>
       <c r="R93" s="5"/>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
@@ -7513,7 +7348,7 @@
       <c r="Q94" s="6"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
@@ -7532,7 +7367,7 @@
       <c r="Q95" s="6"/>
       <c r="R95" s="5"/>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
@@ -7551,7 +7386,7 @@
       <c r="Q96" s="6"/>
       <c r="R96" s="5"/>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
@@ -7570,7 +7405,7 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="5"/>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
@@ -7589,7 +7424,7 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="5"/>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
@@ -7608,7 +7443,7 @@
       <c r="Q99" s="6"/>
       <c r="R99" s="5"/>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
@@ -7627,7 +7462,7 @@
       <c r="Q100" s="6"/>
       <c r="R100" s="5"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
@@ -7646,7 +7481,7 @@
       <c r="Q101" s="6"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
@@ -7665,7 +7500,7 @@
       <c r="Q102" s="6"/>
       <c r="R102" s="5"/>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
@@ -7684,7 +7519,7 @@
       <c r="Q103" s="6"/>
       <c r="R103" s="5"/>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
@@ -7703,7 +7538,7 @@
       <c r="Q104" s="6"/>
       <c r="R104" s="5"/>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
@@ -7722,7 +7557,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="5"/>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
@@ -7741,7 +7576,7 @@
       <c r="Q106" s="6"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
@@ -7760,7 +7595,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
@@ -7779,7 +7614,7 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
@@ -7798,7 +7633,7 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
@@ -7817,7 +7652,7 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
@@ -7836,7 +7671,7 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="5"/>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -7855,7 +7690,7 @@
       <c r="Q112" s="6"/>
       <c r="R112" s="5"/>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
@@ -7874,7 +7709,7 @@
       <c r="Q113" s="6"/>
       <c r="R113" s="5"/>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
@@ -7893,7 +7728,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="5"/>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
@@ -7912,7 +7747,7 @@
       <c r="Q115" s="6"/>
       <c r="R115" s="5"/>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
@@ -7931,7 +7766,7 @@
       <c r="Q116" s="6"/>
       <c r="R116" s="5"/>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
@@ -7950,7 +7785,7 @@
       <c r="Q117" s="6"/>
       <c r="R117" s="5"/>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
@@ -7969,7 +7804,7 @@
       <c r="Q118" s="6"/>
       <c r="R118" s="5"/>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
@@ -7988,7 +7823,7 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
@@ -8007,7 +7842,7 @@
       <c r="Q120" s="6"/>
       <c r="R120" s="5"/>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
@@ -8026,7 +7861,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="5"/>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
@@ -8045,7 +7880,7 @@
       <c r="Q122" s="6"/>
       <c r="R122" s="5"/>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
@@ -8064,7 +7899,7 @@
       <c r="Q123" s="6"/>
       <c r="R123" s="5"/>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
@@ -8083,7 +7918,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="5"/>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -8102,7 +7937,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="5"/>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
@@ -8121,7 +7956,7 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="5"/>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
@@ -8140,7 +7975,7 @@
       <c r="Q127" s="6"/>
       <c r="R127" s="5"/>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
@@ -8159,7 +7994,7 @@
       <c r="Q128" s="6"/>
       <c r="R128" s="5"/>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -8178,7 +8013,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="5"/>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -8197,7 +8032,7 @@
       <c r="Q130" s="6"/>
       <c r="R130" s="5"/>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -8216,7 +8051,7 @@
       <c r="Q131" s="6"/>
       <c r="R131" s="5"/>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -8235,7 +8070,7 @@
       <c r="Q132" s="6"/>
       <c r="R132" s="5"/>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -8254,7 +8089,7 @@
       <c r="Q133" s="6"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -8273,7 +8108,7 @@
       <c r="Q134" s="6"/>
       <c r="R134" s="5"/>
     </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -8292,7 +8127,7 @@
       <c r="Q135" s="6"/>
       <c r="R135" s="5"/>
     </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -8311,7 +8146,7 @@
       <c r="Q136" s="6"/>
       <c r="R136" s="5"/>
     </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -8330,7 +8165,7 @@
       <c r="Q137" s="6"/>
       <c r="R137" s="5"/>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -8349,7 +8184,7 @@
       <c r="Q138" s="6"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -8368,7 +8203,7 @@
       <c r="Q139" s="6"/>
       <c r="R139" s="5"/>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -8387,7 +8222,7 @@
       <c r="Q140" s="6"/>
       <c r="R140" s="5"/>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -8406,7 +8241,7 @@
       <c r="Q141" s="6"/>
       <c r="R141" s="5"/>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -8425,7 +8260,7 @@
       <c r="Q142" s="6"/>
       <c r="R142" s="5"/>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -8444,7 +8279,7 @@
       <c r="Q143" s="6"/>
       <c r="R143" s="5"/>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -8463,7 +8298,7 @@
       <c r="Q144" s="6"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -8482,7 +8317,7 @@
       <c r="Q145" s="6"/>
       <c r="R145" s="5"/>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -8501,7 +8336,7 @@
       <c r="Q146" s="6"/>
       <c r="R146" s="5"/>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -8520,7 +8355,7 @@
       <c r="Q147" s="6"/>
       <c r="R147" s="5"/>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -8539,7 +8374,7 @@
       <c r="Q148" s="6"/>
       <c r="R148" s="5"/>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -8558,7 +8393,7 @@
       <c r="Q149" s="6"/>
       <c r="R149" s="5"/>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -8577,7 +8412,7 @@
       <c r="Q150" s="6"/>
       <c r="R150" s="5"/>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -8596,7 +8431,7 @@
       <c r="Q151" s="6"/>
       <c r="R151" s="5"/>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -8615,7 +8450,7 @@
       <c r="Q152" s="6"/>
       <c r="R152" s="5"/>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -8634,7 +8469,7 @@
       <c r="Q153" s="6"/>
       <c r="R153" s="5"/>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -8653,7 +8488,7 @@
       <c r="Q154" s="6"/>
       <c r="R154" s="5"/>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -8672,7 +8507,7 @@
       <c r="Q155" s="6"/>
       <c r="R155" s="5"/>
     </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -8691,7 +8526,7 @@
       <c r="Q156" s="6"/>
       <c r="R156" s="5"/>
     </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -8710,7 +8545,7 @@
       <c r="Q157" s="6"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -8729,7 +8564,7 @@
       <c r="Q158" s="6"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -8748,7 +8583,7 @@
       <c r="Q159" s="6"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -8767,7 +8602,7 @@
       <c r="Q160" s="6"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -8786,7 +8621,7 @@
       <c r="Q161" s="6"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -8805,7 +8640,7 @@
       <c r="Q162" s="6"/>
       <c r="R162" s="5"/>
     </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -8824,7 +8659,7 @@
       <c r="Q163" s="6"/>
       <c r="R163" s="5"/>
     </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -8843,7 +8678,7 @@
       <c r="Q164" s="6"/>
       <c r="R164" s="5"/>
     </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -8862,7 +8697,7 @@
       <c r="Q165" s="6"/>
       <c r="R165" s="5"/>
     </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -8881,7 +8716,7 @@
       <c r="Q166" s="6"/>
       <c r="R166" s="5"/>
     </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -8900,7 +8735,7 @@
       <c r="Q167" s="6"/>
       <c r="R167" s="5"/>
     </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -8919,7 +8754,7 @@
       <c r="Q168" s="6"/>
       <c r="R168" s="5"/>
     </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -8938,7 +8773,7 @@
       <c r="Q169" s="6"/>
       <c r="R169" s="5"/>
     </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -8957,7 +8792,7 @@
       <c r="Q170" s="6"/>
       <c r="R170" s="5"/>
     </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -8976,7 +8811,7 @@
       <c r="Q171" s="6"/>
       <c r="R171" s="5"/>
     </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -8995,7 +8830,7 @@
       <c r="Q172" s="6"/>
       <c r="R172" s="5"/>
     </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -9014,7 +8849,7 @@
       <c r="Q173" s="6"/>
       <c r="R173" s="5"/>
     </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -9033,7 +8868,7 @@
       <c r="Q174" s="6"/>
       <c r="R174" s="5"/>
     </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -9052,7 +8887,7 @@
       <c r="Q175" s="6"/>
       <c r="R175" s="5"/>
     </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -9071,7 +8906,7 @@
       <c r="Q176" s="6"/>
       <c r="R176" s="5"/>
     </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -9090,7 +8925,7 @@
       <c r="Q177" s="6"/>
       <c r="R177" s="5"/>
     </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -9109,7 +8944,7 @@
       <c r="Q178" s="6"/>
       <c r="R178" s="5"/>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -9128,7 +8963,7 @@
       <c r="Q179" s="6"/>
       <c r="R179" s="5"/>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -9147,7 +8982,7 @@
       <c r="Q180" s="6"/>
       <c r="R180" s="5"/>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -9166,7 +9001,7 @@
       <c r="Q181" s="6"/>
       <c r="R181" s="5"/>
     </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -9185,7 +9020,7 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="5"/>
     </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -9204,7 +9039,7 @@
       <c r="Q183" s="6"/>
       <c r="R183" s="5"/>
     </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -9223,7 +9058,7 @@
       <c r="Q184" s="6"/>
       <c r="R184" s="5"/>
     </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -9242,7 +9077,7 @@
       <c r="Q185" s="6"/>
       <c r="R185" s="5"/>
     </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -9261,7 +9096,7 @@
       <c r="Q186" s="6"/>
       <c r="R186" s="5"/>
     </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -9280,7 +9115,7 @@
       <c r="Q187" s="6"/>
       <c r="R187" s="5"/>
     </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -9299,7 +9134,7 @@
       <c r="Q188" s="6"/>
       <c r="R188" s="5"/>
     </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -9318,7 +9153,7 @@
       <c r="Q189" s="6"/>
       <c r="R189" s="5"/>
     </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -9337,7 +9172,7 @@
       <c r="Q190" s="6"/>
       <c r="R190" s="5"/>
     </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -9356,7 +9191,7 @@
       <c r="Q191" s="6"/>
       <c r="R191" s="5"/>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -9375,7 +9210,7 @@
       <c r="Q192" s="6"/>
       <c r="R192" s="5"/>
     </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -9394,7 +9229,7 @@
       <c r="Q193" s="6"/>
       <c r="R193" s="5"/>
     </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -9413,7 +9248,7 @@
       <c r="Q194" s="6"/>
       <c r="R194" s="5"/>
     </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -9432,7 +9267,7 @@
       <c r="Q195" s="6"/>
       <c r="R195" s="5"/>
     </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -9451,7 +9286,7 @@
       <c r="Q196" s="6"/>
       <c r="R196" s="5"/>
     </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -9470,7 +9305,7 @@
       <c r="Q197" s="6"/>
       <c r="R197" s="5"/>
     </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -9489,7 +9324,7 @@
       <c r="Q198" s="6"/>
       <c r="R198" s="5"/>
     </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -9508,7 +9343,7 @@
       <c r="Q199" s="6"/>
       <c r="R199" s="5"/>
     </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -9527,7 +9362,7 @@
       <c r="Q200" s="6"/>
       <c r="R200" s="5"/>
     </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -9545,799 +9380,799 @@
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:18" x14ac:dyDescent="0.45">
       <c r="O202" s="6"/>
       <c r="P202" s="6"/>
     </row>
-    <row r="203" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:18" x14ac:dyDescent="0.45">
       <c r="O203" s="6"/>
       <c r="P203" s="6"/>
     </row>
-    <row r="204" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:18" x14ac:dyDescent="0.45">
       <c r="O204" s="6"/>
       <c r="P204" s="6"/>
     </row>
-    <row r="205" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:18" x14ac:dyDescent="0.45">
       <c r="O205" s="6"/>
       <c r="P205" s="6"/>
     </row>
-    <row r="206" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:18" x14ac:dyDescent="0.45">
       <c r="O206" s="6"/>
       <c r="P206" s="6"/>
     </row>
-    <row r="207" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:18" x14ac:dyDescent="0.45">
       <c r="O207" s="6"/>
       <c r="P207" s="6"/>
     </row>
-    <row r="208" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:18" x14ac:dyDescent="0.45">
       <c r="O208" s="6"/>
       <c r="P208" s="6"/>
     </row>
-    <row r="209" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O209" s="6"/>
       <c r="P209" s="6"/>
     </row>
-    <row r="210" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O210" s="6"/>
       <c r="P210" s="6"/>
     </row>
-    <row r="211" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O211" s="6"/>
       <c r="P211" s="6"/>
     </row>
-    <row r="212" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O212" s="6"/>
       <c r="P212" s="6"/>
     </row>
-    <row r="213" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O213" s="6"/>
       <c r="P213" s="6"/>
     </row>
-    <row r="214" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O214" s="6"/>
       <c r="P214" s="6"/>
     </row>
-    <row r="215" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O215" s="6"/>
       <c r="P215" s="6"/>
     </row>
-    <row r="216" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O216" s="6"/>
       <c r="P216" s="6"/>
     </row>
-    <row r="217" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O217" s="6"/>
       <c r="P217" s="6"/>
     </row>
-    <row r="218" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O218" s="6"/>
       <c r="P218" s="6"/>
     </row>
-    <row r="219" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O219" s="6"/>
       <c r="P219" s="6"/>
     </row>
-    <row r="220" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O220" s="6"/>
       <c r="P220" s="6"/>
     </row>
-    <row r="221" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O221" s="6"/>
       <c r="P221" s="6"/>
     </row>
-    <row r="222" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O223" s="6"/>
       <c r="P223" s="6"/>
     </row>
-    <row r="224" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O224" s="6"/>
       <c r="P224" s="6"/>
     </row>
-    <row r="225" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O225" s="6"/>
       <c r="P225" s="6"/>
     </row>
-    <row r="226" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O226" s="6"/>
       <c r="P226" s="6"/>
     </row>
-    <row r="227" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O227" s="6"/>
       <c r="P227" s="6"/>
     </row>
-    <row r="228" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O228" s="6"/>
       <c r="P228" s="6"/>
     </row>
-    <row r="229" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O229" s="6"/>
       <c r="P229" s="6"/>
     </row>
-    <row r="230" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="230" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O230" s="6"/>
       <c r="P230" s="6"/>
     </row>
-    <row r="231" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="231" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O231" s="6"/>
       <c r="P231" s="6"/>
     </row>
-    <row r="232" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O232" s="6"/>
       <c r="P232" s="6"/>
     </row>
-    <row r="233" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O233" s="6"/>
       <c r="P233" s="6"/>
     </row>
-    <row r="234" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="234" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O234" s="6"/>
       <c r="P234" s="6"/>
     </row>
-    <row r="235" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O235" s="6"/>
       <c r="P235" s="6"/>
     </row>
-    <row r="236" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O236" s="6"/>
       <c r="P236" s="6"/>
     </row>
-    <row r="237" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="237" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O237" s="6"/>
       <c r="P237" s="6"/>
     </row>
-    <row r="238" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="238" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O238" s="6"/>
       <c r="P238" s="6"/>
     </row>
-    <row r="239" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="239" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O239" s="6"/>
       <c r="P239" s="6"/>
     </row>
-    <row r="240" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O240" s="6"/>
       <c r="P240" s="6"/>
     </row>
-    <row r="241" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="241" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O241" s="6"/>
       <c r="P241" s="6"/>
     </row>
-    <row r="242" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
     </row>
-    <row r="243" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
     </row>
-    <row r="244" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O244" s="6"/>
       <c r="P244" s="6"/>
     </row>
-    <row r="245" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O245" s="6"/>
       <c r="P245" s="6"/>
     </row>
-    <row r="246" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O246" s="6"/>
       <c r="P246" s="6"/>
     </row>
-    <row r="247" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O247" s="6"/>
       <c r="P247" s="6"/>
     </row>
-    <row r="248" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O248" s="6"/>
       <c r="P248" s="6"/>
     </row>
-    <row r="249" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O249" s="6"/>
       <c r="P249" s="6"/>
     </row>
-    <row r="250" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O250" s="6"/>
       <c r="P250" s="6"/>
     </row>
-    <row r="251" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="251" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
     </row>
-    <row r="252" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
     </row>
-    <row r="253" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O253" s="6"/>
       <c r="P253" s="6"/>
     </row>
-    <row r="254" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O254" s="6"/>
       <c r="P254" s="6"/>
     </row>
-    <row r="255" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O255" s="6"/>
       <c r="P255" s="6"/>
     </row>
-    <row r="256" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O256" s="6"/>
       <c r="P256" s="6"/>
     </row>
-    <row r="257" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="257" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O257" s="6"/>
       <c r="P257" s="6"/>
     </row>
-    <row r="258" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="258" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O258" s="6"/>
       <c r="P258" s="6"/>
     </row>
-    <row r="259" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="259" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O259" s="6"/>
       <c r="P259" s="6"/>
     </row>
-    <row r="260" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O260" s="6"/>
       <c r="P260" s="6"/>
     </row>
-    <row r="261" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O261" s="6"/>
       <c r="P261" s="6"/>
     </row>
-    <row r="262" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O262" s="6"/>
       <c r="P262" s="6"/>
     </row>
-    <row r="263" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O263" s="6"/>
       <c r="P263" s="6"/>
     </row>
-    <row r="264" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="264" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O264" s="6"/>
       <c r="P264" s="6"/>
     </row>
-    <row r="265" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O265" s="6"/>
       <c r="P265" s="6"/>
     </row>
-    <row r="266" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O266" s="6"/>
       <c r="P266" s="6"/>
     </row>
-    <row r="267" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O267" s="6"/>
       <c r="P267" s="6"/>
     </row>
-    <row r="268" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="268" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O268" s="6"/>
       <c r="P268" s="6"/>
     </row>
-    <row r="269" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="269" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O269" s="6"/>
       <c r="P269" s="6"/>
     </row>
-    <row r="270" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="270" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O270" s="6"/>
       <c r="P270" s="6"/>
     </row>
-    <row r="271" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O271" s="6"/>
       <c r="P271" s="6"/>
     </row>
-    <row r="272" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="272" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O272" s="6"/>
       <c r="P272" s="6"/>
     </row>
-    <row r="273" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="273" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O273" s="6"/>
       <c r="P273" s="6"/>
     </row>
-    <row r="274" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="274" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O274" s="6"/>
       <c r="P274" s="6"/>
     </row>
-    <row r="275" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="275" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O275" s="6"/>
       <c r="P275" s="6"/>
     </row>
-    <row r="276" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="276" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O276" s="6"/>
       <c r="P276" s="6"/>
     </row>
-    <row r="277" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="277" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O277" s="6"/>
       <c r="P277" s="6"/>
     </row>
-    <row r="278" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="278" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O278" s="6"/>
       <c r="P278" s="6"/>
     </row>
-    <row r="279" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="279" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O279" s="6"/>
       <c r="P279" s="6"/>
     </row>
-    <row r="280" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="280" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O280" s="6"/>
       <c r="P280" s="6"/>
     </row>
-    <row r="281" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="281" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O281" s="6"/>
       <c r="P281" s="6"/>
     </row>
-    <row r="282" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="282" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O282" s="6"/>
       <c r="P282" s="6"/>
     </row>
-    <row r="283" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="283" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O283" s="6"/>
       <c r="P283" s="6"/>
     </row>
-    <row r="284" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="284" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O284" s="6"/>
       <c r="P284" s="6"/>
     </row>
-    <row r="285" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="285" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O285" s="6"/>
       <c r="P285" s="6"/>
     </row>
-    <row r="286" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="286" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O286" s="6"/>
       <c r="P286" s="6"/>
     </row>
-    <row r="287" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="287" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O287" s="6"/>
       <c r="P287" s="6"/>
     </row>
-    <row r="288" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="288" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O288" s="6"/>
       <c r="P288" s="6"/>
     </row>
-    <row r="289" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="289" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O289" s="6"/>
       <c r="P289" s="6"/>
     </row>
-    <row r="290" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="290" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O290" s="6"/>
       <c r="P290" s="6"/>
     </row>
-    <row r="291" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="291" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O291" s="6"/>
       <c r="P291" s="6"/>
     </row>
-    <row r="292" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="292" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O292" s="6"/>
       <c r="P292" s="6"/>
     </row>
-    <row r="293" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="293" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O293" s="6"/>
       <c r="P293" s="6"/>
     </row>
-    <row r="294" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="294" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O294" s="6"/>
       <c r="P294" s="6"/>
     </row>
-    <row r="295" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="295" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O295" s="6"/>
       <c r="P295" s="6"/>
     </row>
-    <row r="296" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="296" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O296" s="6"/>
       <c r="P296" s="6"/>
     </row>
-    <row r="297" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="297" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O297" s="6"/>
       <c r="P297" s="6"/>
     </row>
-    <row r="298" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="298" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O298" s="6"/>
       <c r="P298" s="6"/>
     </row>
-    <row r="299" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="299" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O299" s="6"/>
       <c r="P299" s="6"/>
     </row>
-    <row r="300" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="300" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O300" s="6"/>
       <c r="P300" s="6"/>
     </row>
-    <row r="301" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="301" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O301" s="6"/>
       <c r="P301" s="6"/>
     </row>
-    <row r="302" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="302" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O302" s="6"/>
       <c r="P302" s="6"/>
     </row>
-    <row r="303" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="303" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O303" s="6"/>
       <c r="P303" s="6"/>
     </row>
-    <row r="304" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="304" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O304" s="6"/>
       <c r="P304" s="6"/>
     </row>
-    <row r="305" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="305" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O305" s="6"/>
       <c r="P305" s="6"/>
     </row>
-    <row r="306" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="306" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O306" s="6"/>
       <c r="P306" s="6"/>
     </row>
-    <row r="307" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="307" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O307" s="6"/>
       <c r="P307" s="6"/>
     </row>
-    <row r="308" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="308" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O308" s="6"/>
       <c r="P308" s="6"/>
     </row>
-    <row r="309" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="309" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O309" s="6"/>
       <c r="P309" s="6"/>
     </row>
-    <row r="310" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="310" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O310" s="6"/>
       <c r="P310" s="6"/>
     </row>
-    <row r="311" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="311" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O311" s="6"/>
       <c r="P311" s="6"/>
     </row>
-    <row r="312" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="312" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O312" s="6"/>
       <c r="P312" s="6"/>
     </row>
-    <row r="313" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="313" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O313" s="6"/>
       <c r="P313" s="6"/>
     </row>
-    <row r="314" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="314" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O314" s="6"/>
       <c r="P314" s="6"/>
     </row>
-    <row r="315" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="315" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O315" s="6"/>
       <c r="P315" s="6"/>
     </row>
-    <row r="316" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="316" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O316" s="6"/>
       <c r="P316" s="6"/>
     </row>
-    <row r="317" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="317" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O317" s="6"/>
       <c r="P317" s="6"/>
     </row>
-    <row r="318" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="318" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O318" s="6"/>
       <c r="P318" s="6"/>
     </row>
-    <row r="319" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="319" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O319" s="6"/>
       <c r="P319" s="6"/>
     </row>
-    <row r="320" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="320" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O320" s="6"/>
       <c r="P320" s="6"/>
     </row>
-    <row r="321" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="321" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O321" s="6"/>
       <c r="P321" s="6"/>
     </row>
-    <row r="322" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="322" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O322" s="6"/>
       <c r="P322" s="6"/>
     </row>
-    <row r="323" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="323" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O323" s="6"/>
       <c r="P323" s="6"/>
     </row>
-    <row r="324" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="324" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O324" s="6"/>
       <c r="P324" s="6"/>
     </row>
-    <row r="325" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="325" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O325" s="6"/>
       <c r="P325" s="6"/>
     </row>
-    <row r="326" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="326" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O326" s="6"/>
       <c r="P326" s="6"/>
     </row>
-    <row r="327" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="327" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O327" s="6"/>
       <c r="P327" s="6"/>
     </row>
-    <row r="328" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="328" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O328" s="6"/>
       <c r="P328" s="6"/>
     </row>
-    <row r="329" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="329" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O329" s="6"/>
       <c r="P329" s="6"/>
     </row>
-    <row r="330" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="330" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O330" s="6"/>
       <c r="P330" s="6"/>
     </row>
-    <row r="331" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="331" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O331" s="6"/>
       <c r="P331" s="6"/>
     </row>
-    <row r="332" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="332" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O332" s="6"/>
       <c r="P332" s="6"/>
     </row>
-    <row r="333" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="333" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O333" s="6"/>
       <c r="P333" s="6"/>
     </row>
-    <row r="334" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="334" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O334" s="6"/>
       <c r="P334" s="6"/>
     </row>
-    <row r="335" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="335" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O335" s="6"/>
       <c r="P335" s="6"/>
     </row>
-    <row r="336" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="336" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O336" s="6"/>
       <c r="P336" s="6"/>
     </row>
-    <row r="337" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="337" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O337" s="6"/>
       <c r="P337" s="6"/>
     </row>
-    <row r="338" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="338" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O338" s="6"/>
       <c r="P338" s="6"/>
     </row>
-    <row r="339" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="339" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O339" s="6"/>
       <c r="P339" s="6"/>
     </row>
-    <row r="340" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="340" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O340" s="6"/>
       <c r="P340" s="6"/>
     </row>
-    <row r="341" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="341" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O341" s="6"/>
       <c r="P341" s="6"/>
     </row>
-    <row r="342" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="342" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O342" s="6"/>
       <c r="P342" s="6"/>
     </row>
-    <row r="343" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="343" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O343" s="6"/>
       <c r="P343" s="6"/>
     </row>
-    <row r="344" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="344" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O344" s="6"/>
       <c r="P344" s="6"/>
     </row>
-    <row r="345" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="345" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O345" s="6"/>
       <c r="P345" s="6"/>
     </row>
-    <row r="346" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="346" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O346" s="6"/>
       <c r="P346" s="6"/>
     </row>
-    <row r="347" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="347" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O347" s="6"/>
       <c r="P347" s="6"/>
     </row>
-    <row r="348" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="348" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O348" s="6"/>
       <c r="P348" s="6"/>
     </row>
-    <row r="349" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="349" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O349" s="6"/>
       <c r="P349" s="6"/>
     </row>
-    <row r="350" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="350" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O350" s="6"/>
       <c r="P350" s="6"/>
     </row>
-    <row r="351" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="351" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O351" s="6"/>
       <c r="P351" s="6"/>
     </row>
-    <row r="352" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="352" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O352" s="6"/>
       <c r="P352" s="6"/>
     </row>
-    <row r="353" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="353" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O353" s="6"/>
       <c r="P353" s="6"/>
     </row>
-    <row r="354" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="354" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O354" s="6"/>
       <c r="P354" s="6"/>
     </row>
-    <row r="355" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="355" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O355" s="6"/>
       <c r="P355" s="6"/>
     </row>
-    <row r="356" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="356" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O356" s="6"/>
       <c r="P356" s="6"/>
     </row>
-    <row r="357" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="357" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O357" s="6"/>
       <c r="P357" s="6"/>
     </row>
-    <row r="358" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="358" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O358" s="6"/>
       <c r="P358" s="6"/>
     </row>
-    <row r="359" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="359" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O359" s="6"/>
       <c r="P359" s="6"/>
     </row>
-    <row r="360" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="360" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O360" s="6"/>
       <c r="P360" s="6"/>
     </row>
-    <row r="361" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="361" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O361" s="6"/>
       <c r="P361" s="6"/>
     </row>
-    <row r="362" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="362" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O362" s="6"/>
       <c r="P362" s="6"/>
     </row>
-    <row r="363" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="363" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O363" s="6"/>
       <c r="P363" s="6"/>
     </row>
-    <row r="364" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="364" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O364" s="6"/>
       <c r="P364" s="6"/>
     </row>
-    <row r="365" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="365" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O365" s="6"/>
       <c r="P365" s="6"/>
     </row>
-    <row r="366" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="366" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O366" s="6"/>
       <c r="P366" s="6"/>
     </row>
-    <row r="367" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="367" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O367" s="6"/>
       <c r="P367" s="6"/>
     </row>
-    <row r="368" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="368" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O368" s="6"/>
       <c r="P368" s="6"/>
     </row>
-    <row r="369" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="369" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O369" s="6"/>
       <c r="P369" s="6"/>
     </row>
-    <row r="370" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="370" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O370" s="6"/>
       <c r="P370" s="6"/>
     </row>
-    <row r="371" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="371" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O371" s="6"/>
       <c r="P371" s="6"/>
     </row>
-    <row r="372" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="372" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O372" s="6"/>
       <c r="P372" s="6"/>
     </row>
-    <row r="373" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="373" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O373" s="6"/>
       <c r="P373" s="6"/>
     </row>
-    <row r="374" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="374" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O374" s="6"/>
       <c r="P374" s="6"/>
     </row>
-    <row r="375" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="375" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O375" s="6"/>
       <c r="P375" s="6"/>
     </row>
-    <row r="376" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="376" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O376" s="6"/>
       <c r="P376" s="6"/>
     </row>
-    <row r="377" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="377" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O377" s="6"/>
       <c r="P377" s="6"/>
     </row>
-    <row r="378" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="378" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O378" s="6"/>
       <c r="P378" s="6"/>
     </row>
-    <row r="379" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="379" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O379" s="6"/>
       <c r="P379" s="6"/>
     </row>
-    <row r="380" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="380" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O380" s="6"/>
       <c r="P380" s="6"/>
     </row>
-    <row r="381" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="381" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O381" s="6"/>
       <c r="P381" s="6"/>
     </row>
-    <row r="382" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="382" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O382" s="6"/>
       <c r="P382" s="6"/>
     </row>
-    <row r="383" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="383" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O383" s="6"/>
       <c r="P383" s="6"/>
     </row>
-    <row r="384" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="384" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O384" s="6"/>
       <c r="P384" s="6"/>
     </row>
-    <row r="385" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="385" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O385" s="6"/>
       <c r="P385" s="6"/>
     </row>
-    <row r="386" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="386" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O386" s="6"/>
       <c r="P386" s="6"/>
     </row>
-    <row r="387" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="387" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O387" s="6"/>
       <c r="P387" s="6"/>
     </row>
-    <row r="388" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="388" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O388" s="6"/>
       <c r="P388" s="6"/>
     </row>
-    <row r="389" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="389" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O389" s="6"/>
       <c r="P389" s="6"/>
     </row>
-    <row r="390" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="390" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O390" s="6"/>
       <c r="P390" s="6"/>
     </row>
-    <row r="391" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="391" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O391" s="6"/>
       <c r="P391" s="6"/>
     </row>
-    <row r="392" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="392" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O392" s="6"/>
       <c r="P392" s="6"/>
     </row>
-    <row r="393" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="393" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O393" s="6"/>
       <c r="P393" s="6"/>
     </row>
-    <row r="394" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="394" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O394" s="6"/>
       <c r="P394" s="6"/>
     </row>
-    <row r="395" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="395" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O395" s="6"/>
       <c r="P395" s="6"/>
     </row>
-    <row r="396" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="396" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O396" s="6"/>
       <c r="P396" s="6"/>
     </row>
-    <row r="397" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="397" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O397" s="6"/>
       <c r="P397" s="6"/>
     </row>
-    <row r="398" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="398" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O398" s="6"/>
       <c r="P398" s="6"/>
     </row>
-    <row r="399" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="399" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O399" s="6"/>
       <c r="P399" s="6"/>
     </row>
-    <row r="400" spans="15:16" x14ac:dyDescent="0.35">
+    <row r="400" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O400" s="6"/>
       <c r="P400" s="6"/>
     </row>
@@ -10374,17 +10209,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
@@ -10394,27 +10229,27 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="24">
         <f>Current_Holdings!D3+C6</f>
-        <v>539030.6</v>
+        <v>631230.6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="23">
         <v>337830.6</v>
@@ -10425,17 +10260,17 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="22">
         <v>7</v>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA414B-A3DE-415D-8CF1-410EB7426F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75101837-710C-4E45-8AF8-4A386BF8344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -915,8 +915,8 @@
   </sheetPr>
   <dimension ref="A2:R400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -926,7 +926,9 @@
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.59765625" customWidth="1"/>
     <col min="6" max="8" width="13.19921875" customWidth="1"/>
-    <col min="9" max="14" width="14.59765625" customWidth="1"/>
+    <col min="9" max="11" width="14.59765625" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="14.59765625" customWidth="1"/>
     <col min="15" max="15" width="14.46484375" customWidth="1"/>
     <col min="16" max="16" width="16.59765625" customWidth="1"/>
     <col min="18" max="18" width="13.19921875" customWidth="1"/>

--- a/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Portfolio_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75101837-710C-4E45-8AF8-4A386BF8344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CADE4AE-850C-4B22-91C0-2F1B19E0F67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40470" yWindow="6210" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$7:$R$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$R$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -134,9 +121,6 @@
     <t>6601.HK</t>
   </si>
   <si>
-    <t>CHEERWIN GP</t>
-  </si>
-  <si>
     <t>Frd Dividend</t>
   </si>
   <si>
@@ -207,6 +191,12 @@
   </si>
   <si>
     <t>BOE VARITRONIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Plays </t>
+  </si>
+  <si>
+    <t>朝云集团</t>
   </si>
 </sst>
 </file>
@@ -919,22 +909,22 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.59765625" customWidth="1"/>
-    <col min="6" max="8" width="13.19921875" customWidth="1"/>
-    <col min="9" max="11" width="14.59765625" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="14.59765625" customWidth="1"/>
-    <col min="15" max="15" width="14.46484375" customWidth="1"/>
-    <col min="16" max="16" width="16.59765625" customWidth="1"/>
-    <col min="18" max="18" width="13.19921875" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.6328125" customWidth="1"/>
+    <col min="6" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="11" width="14.6328125" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="14.6328125" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" customWidth="1"/>
+    <col min="16" max="16" width="16.6328125" customWidth="1"/>
+    <col min="18" max="18" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -956,7 +946,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D3" s="26" t="s">
         <v>16</v>
       </c>
@@ -975,7 +965,7 @@
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
@@ -992,10 +982,10 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>25</v>
@@ -1004,13 +994,13 @@
         <v>26</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>23</v>
@@ -1028,7 +1018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
@@ -1036,20 +1026,20 @@
         <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>8.9700000000000006</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6">
-        <v>-1.6856732471297597E-2</v>
+        <v>-4.5285175599377281E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.6822742474916385E-2</v>
+        <v>4.5652173913043478E-2</v>
       </c>
       <c r="H5" s="6">
         <f>D5/I5-1</f>
-        <v>9.3902439024390327E-2</v>
+        <v>0.12195121951219523</v>
       </c>
       <c r="I5" s="7">
         <v>8.1999999999999993</v>
@@ -1058,16 +1048,16 @@
         <v>20000</v>
       </c>
       <c r="K5" s="7">
-        <v>10.612795109732462</v>
+        <v>10.623376384485727</v>
       </c>
       <c r="L5" s="7">
-        <v>8.4269096351545389</v>
+        <v>8.4553487215027712</v>
       </c>
       <c r="M5" s="7">
-        <v>9.5834798920710025</v>
+        <v>9.6040982296734718</v>
       </c>
       <c r="N5" s="7">
-        <v>8.843995924777051</v>
+        <v>8.8528136537381066</v>
       </c>
       <c r="O5" s="8">
         <v>44742</v>
@@ -1079,49 +1069,49 @@
         <v>7</v>
       </c>
       <c r="R5" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="D6" s="7">
-        <v>7.83</v>
+        <v>7.69</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>0.17316404920565032</v>
+        <v>0.20812093400231446</v>
       </c>
       <c r="G6" s="6">
-        <v>2.9374201787994892E-3</v>
+        <v>2.9908972691807538E-3</v>
       </c>
       <c r="H6" s="6">
         <f>D6/I6-1</f>
-        <v>5.810810810810807E-2</v>
+        <v>3.360215053763449E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="J6" s="9">
         <v>16000</v>
       </c>
       <c r="K6" s="7">
-        <v>10.751874505280242</v>
+        <v>10.828449982477798</v>
       </c>
       <c r="L6" s="7">
-        <v>6.6109910640924401</v>
+        <v>6.7268108270381006</v>
       </c>
       <c r="M6" s="7">
-        <v>8.2637388301155497</v>
+        <v>8.4085135337976258</v>
       </c>
       <c r="N6" s="7">
-        <v>8.6814327846863399</v>
+        <v>8.7776304047579501</v>
       </c>
       <c r="O6" s="8">
         <v>44926</v>
@@ -1133,64 +1123,64 @@
         <v>7</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="6">
-        <v>0.11483092336380385</v>
+        <v>0.22169267553653382</v>
       </c>
       <c r="G7" s="6">
-        <v>0.28994082840236685</v>
+        <v>0.32236842105263158</v>
       </c>
       <c r="H7" s="6">
         <f>D7/I7-1</f>
-        <v>5.6249999999999911E-2</v>
+        <v>0.26666666666666683</v>
       </c>
       <c r="I7" s="7">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="J7" s="9">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K7" s="7">
-        <v>2.2220642604848284</v>
+        <v>2.1609728668155315</v>
       </c>
       <c r="L7" s="7">
-        <v>1.6419369991583319</v>
+        <v>1.6309748231803822</v>
       </c>
       <c r="M7" s="7">
-        <v>2.052421248947915</v>
+        <v>2.0387185289754779</v>
       </c>
       <c r="N7" s="7">
-        <v>1.8517202170706903</v>
+        <v>1.8008107223462764</v>
       </c>
       <c r="O7" s="8">
         <v>44926</v>
       </c>
       <c r="P7" s="8">
-        <v>45169</v>
+        <v>45351</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>7</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
@@ -1209,7 +1199,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
@@ -1228,7 +1218,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
@@ -1247,7 +1237,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
@@ -1266,7 +1256,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
@@ -1285,7 +1275,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
@@ -1304,7 +1294,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
@@ -1323,7 +1313,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -1342,7 +1332,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -1361,7 +1351,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -1380,7 +1370,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -1399,7 +1389,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -1418,7 +1408,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -1437,7 +1427,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -1456,7 +1446,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -1475,7 +1465,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -1494,7 +1484,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -1513,7 +1503,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -1532,7 +1522,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -1551,7 +1541,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -1570,7 +1560,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -1589,7 +1579,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -1608,7 +1598,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -1627,7 +1617,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -1646,7 +1636,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -1665,7 +1655,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -1684,7 +1674,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -1703,7 +1693,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -1722,7 +1712,7 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -1741,7 +1731,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -1760,7 +1750,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -1779,7 +1769,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -1798,7 +1788,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -1817,7 +1807,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -1836,7 +1826,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -1855,7 +1845,7 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -1874,7 +1864,7 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -1893,7 +1883,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -1912,7 +1902,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -1931,7 +1921,7 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -1950,7 +1940,7 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -1969,7 +1959,7 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -1988,7 +1978,7 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -2007,7 +1997,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -2026,7 +2016,7 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -2045,7 +2035,7 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -2064,7 +2054,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -2083,7 +2073,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -2102,7 +2092,7 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -2121,7 +2111,7 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -2140,7 +2130,7 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -2159,7 +2149,7 @@
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -2178,7 +2168,7 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -2197,7 +2187,7 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
@@ -2216,7 +2206,7 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -2235,7 +2225,7 @@
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -2254,7 +2244,7 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -2273,7 +2263,7 @@
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -2292,7 +2282,7 @@
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -2311,7 +2301,7 @@
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -2330,7 +2320,7 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -2349,7 +2339,7 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -2368,7 +2358,7 @@
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -2387,7 +2377,7 @@
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -2406,7 +2396,7 @@
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -2425,7 +2415,7 @@
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -2444,7 +2434,7 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -2463,7 +2453,7 @@
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -2482,7 +2472,7 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -2501,7 +2491,7 @@
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -2520,7 +2510,7 @@
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -2539,7 +2529,7 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -2558,7 +2548,7 @@
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -2577,7 +2567,7 @@
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -2596,7 +2586,7 @@
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -2615,7 +2605,7 @@
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -2634,7 +2624,7 @@
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -2653,7 +2643,7 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -2672,7 +2662,7 @@
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -2691,7 +2681,7 @@
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
@@ -2710,7 +2700,7 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -2729,7 +2719,7 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -2748,7 +2738,7 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
@@ -2767,7 +2757,7 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
@@ -2786,7 +2776,7 @@
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
@@ -2805,7 +2795,7 @@
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
@@ -2824,7 +2814,7 @@
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
@@ -2843,7 +2833,7 @@
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
@@ -2862,7 +2852,7 @@
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
@@ -2881,7 +2871,7 @@
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
@@ -2900,7 +2890,7 @@
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
@@ -2919,7 +2909,7 @@
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
@@ -2938,7 +2928,7 @@
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
@@ -2957,7 +2947,7 @@
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
@@ -2976,7 +2966,7 @@
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
@@ -2995,7 +2985,7 @@
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
@@ -3014,7 +3004,7 @@
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
@@ -3033,7 +3023,7 @@
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
@@ -3052,7 +3042,7 @@
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
@@ -3071,7 +3061,7 @@
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
@@ -3090,7 +3080,7 @@
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
@@ -3109,7 +3099,7 @@
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
@@ -3128,7 +3118,7 @@
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
@@ -3147,7 +3137,7 @@
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
@@ -3166,7 +3156,7 @@
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -3185,7 +3175,7 @@
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
@@ -3204,7 +3194,7 @@
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
@@ -3223,7 +3213,7 @@
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
@@ -3242,7 +3232,7 @@
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
@@ -3261,7 +3251,7 @@
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
@@ -3280,7 +3270,7 @@
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
@@ -3299,7 +3289,7 @@
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
@@ -3318,7 +3308,7 @@
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
@@ -3337,7 +3327,7 @@
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
@@ -3356,7 +3346,7 @@
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
@@ -3375,7 +3365,7 @@
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
@@ -3394,7 +3384,7 @@
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
@@ -3413,7 +3403,7 @@
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -3432,7 +3422,7 @@
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
@@ -3451,7 +3441,7 @@
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
@@ -3470,7 +3460,7 @@
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
@@ -3489,7 +3479,7 @@
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -3508,7 +3498,7 @@
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -3527,7 +3517,7 @@
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -3546,7 +3536,7 @@
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -3565,7 +3555,7 @@
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -3584,7 +3574,7 @@
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -3603,7 +3593,7 @@
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
     </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -3622,7 +3612,7 @@
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
     </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -3641,7 +3631,7 @@
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
     </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -3660,7 +3650,7 @@
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -3679,7 +3669,7 @@
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -3698,7 +3688,7 @@
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -3717,7 +3707,7 @@
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -3736,7 +3726,7 @@
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -3755,7 +3745,7 @@
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -3774,7 +3764,7 @@
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -3793,7 +3783,7 @@
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -3812,7 +3802,7 @@
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -3831,7 +3821,7 @@
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -3850,7 +3840,7 @@
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -3869,7 +3859,7 @@
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -3888,7 +3878,7 @@
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -3907,7 +3897,7 @@
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -3926,7 +3916,7 @@
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -3945,7 +3935,7 @@
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -3964,7 +3954,7 @@
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -3983,7 +3973,7 @@
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -4002,7 +3992,7 @@
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
     </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -4021,7 +4011,7 @@
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
     </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -4040,7 +4030,7 @@
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -4059,7 +4049,7 @@
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -4078,7 +4068,7 @@
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -4097,7 +4087,7 @@
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -4116,7 +4106,7 @@
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -4135,7 +4125,7 @@
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
     </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -4154,7 +4144,7 @@
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
     </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -4173,7 +4163,7 @@
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
     </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -4192,7 +4182,7 @@
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
     </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -4211,7 +4201,7 @@
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
     </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -4230,7 +4220,7 @@
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
     </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -4249,7 +4239,7 @@
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
     </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -4268,7 +4258,7 @@
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
     </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -4287,7 +4277,7 @@
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
     </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -4306,7 +4296,7 @@
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
     </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -4325,7 +4315,7 @@
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
     </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -4344,7 +4334,7 @@
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
     </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -4363,7 +4353,7 @@
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
     </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -4382,7 +4372,7 @@
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
     </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -4401,7 +4391,7 @@
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
     </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -4420,7 +4410,7 @@
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
     </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -4439,7 +4429,7 @@
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -4458,7 +4448,7 @@
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -4477,7 +4467,7 @@
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -4496,7 +4486,7 @@
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
     </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -4515,7 +4505,7 @@
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
     </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -4534,7 +4524,7 @@
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
     </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -4553,7 +4543,7 @@
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
     </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -4572,7 +4562,7 @@
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
     </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -4591,7 +4581,7 @@
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
     </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -4610,7 +4600,7 @@
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
     </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -4629,7 +4619,7 @@
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
     </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -4648,7 +4638,7 @@
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
     </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -4667,7 +4657,7 @@
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
     </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -4686,7 +4676,7 @@
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -4705,7 +4695,7 @@
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
     </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -4724,7 +4714,7 @@
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
     </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -4743,7 +4733,7 @@
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
     </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -4762,7 +4752,7 @@
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
     </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -4781,7 +4771,7 @@
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
     </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -4800,7 +4790,7 @@
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
     </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -4819,7 +4809,7 @@
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
     </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -4838,7 +4828,7 @@
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
     </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -4857,604 +4847,604 @@
       <c r="Q200" s="5"/>
       <c r="R200" s="5"/>
     </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P201" s="20"/>
     </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P202" s="20"/>
     </row>
-    <row r="203" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P203" s="20"/>
     </row>
-    <row r="204" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P204" s="20"/>
     </row>
-    <row r="205" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P205" s="20"/>
     </row>
-    <row r="206" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P206" s="20"/>
     </row>
-    <row r="207" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P207" s="20"/>
     </row>
-    <row r="208" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P208" s="20"/>
     </row>
-    <row r="209" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="209" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P209" s="20"/>
     </row>
-    <row r="210" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="210" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P210" s="20"/>
     </row>
-    <row r="211" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="211" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P211" s="20"/>
     </row>
-    <row r="212" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="212" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P212" s="20"/>
     </row>
-    <row r="213" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="213" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P213" s="20"/>
     </row>
-    <row r="214" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="214" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P214" s="20"/>
     </row>
-    <row r="215" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="215" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P215" s="20"/>
     </row>
-    <row r="216" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="216" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P216" s="20"/>
     </row>
-    <row r="217" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="217" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P217" s="20"/>
     </row>
-    <row r="218" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="218" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P218" s="20"/>
     </row>
-    <row r="219" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="219" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P219" s="20"/>
     </row>
-    <row r="220" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="220" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P220" s="20"/>
     </row>
-    <row r="221" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="221" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P221" s="20"/>
     </row>
-    <row r="222" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="222" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P222" s="20"/>
     </row>
-    <row r="223" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="223" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P223" s="20"/>
     </row>
-    <row r="224" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="224" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P224" s="20"/>
     </row>
-    <row r="225" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="225" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P225" s="20"/>
     </row>
-    <row r="226" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="226" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P226" s="20"/>
     </row>
-    <row r="227" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="227" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P227" s="20"/>
     </row>
-    <row r="228" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="228" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P228" s="20"/>
     </row>
-    <row r="229" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="229" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P229" s="20"/>
     </row>
-    <row r="230" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="230" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P230" s="20"/>
     </row>
-    <row r="231" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="231" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P231" s="20"/>
     </row>
-    <row r="232" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="232" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P232" s="20"/>
     </row>
-    <row r="233" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="233" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P233" s="20"/>
     </row>
-    <row r="234" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="234" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P234" s="20"/>
     </row>
-    <row r="235" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="235" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P235" s="20"/>
     </row>
-    <row r="236" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="236" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P236" s="20"/>
     </row>
-    <row r="237" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="237" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P237" s="20"/>
     </row>
-    <row r="238" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="238" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P238" s="20"/>
     </row>
-    <row r="239" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="239" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P239" s="20"/>
     </row>
-    <row r="240" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="240" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P240" s="20"/>
     </row>
-    <row r="241" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="241" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P241" s="20"/>
     </row>
-    <row r="242" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="242" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P242" s="20"/>
     </row>
-    <row r="243" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="243" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P243" s="20"/>
     </row>
-    <row r="244" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="244" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P244" s="20"/>
     </row>
-    <row r="245" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="245" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P245" s="20"/>
     </row>
-    <row r="246" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="246" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P246" s="20"/>
     </row>
-    <row r="247" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="247" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P247" s="20"/>
     </row>
-    <row r="248" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="248" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P248" s="20"/>
     </row>
-    <row r="249" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="249" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P249" s="20"/>
     </row>
-    <row r="250" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="250" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P250" s="20"/>
     </row>
-    <row r="251" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="251" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P251" s="20"/>
     </row>
-    <row r="252" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="252" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P252" s="20"/>
     </row>
-    <row r="253" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="253" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P253" s="20"/>
     </row>
-    <row r="254" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="254" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P254" s="20"/>
     </row>
-    <row r="255" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="255" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P255" s="20"/>
     </row>
-    <row r="256" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="256" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P256" s="20"/>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P257" s="20"/>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P258" s="20"/>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P259" s="20"/>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P260" s="20"/>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P261" s="20"/>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P262" s="20"/>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P263" s="20"/>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P264" s="20"/>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P265" s="20"/>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P266" s="20"/>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P267" s="20"/>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P268" s="20"/>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P269" s="20"/>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P270" s="20"/>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P271" s="20"/>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P272" s="20"/>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P273" s="20"/>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P274" s="20"/>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P275" s="20"/>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P276" s="20"/>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P277" s="20"/>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P278" s="20"/>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P279" s="20"/>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P280" s="20"/>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P281" s="20"/>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P282" s="20"/>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P283" s="20"/>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P284" s="20"/>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P285" s="20"/>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P286" s="20"/>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P287" s="20"/>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P288" s="20"/>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P289" s="20"/>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P290" s="20"/>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P291" s="20"/>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P292" s="20"/>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P293" s="20"/>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P294" s="20"/>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P295" s="20"/>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P296" s="20"/>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P297" s="20"/>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P298" s="20"/>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P299" s="20"/>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P300" s="20"/>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P301" s="20"/>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P302" s="20"/>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P303" s="20"/>
     </row>
-    <row r="304" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="304" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P304" s="20"/>
     </row>
-    <row r="305" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="305" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P305" s="20"/>
     </row>
-    <row r="306" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="306" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P306" s="20"/>
     </row>
-    <row r="307" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="307" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P307" s="20"/>
     </row>
-    <row r="308" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="308" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P308" s="20"/>
     </row>
-    <row r="309" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="309" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P309" s="20"/>
     </row>
-    <row r="310" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="310" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P310" s="20"/>
     </row>
-    <row r="311" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="311" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P311" s="20"/>
     </row>
-    <row r="312" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="312" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P312" s="20"/>
     </row>
-    <row r="313" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="313" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P313" s="20"/>
     </row>
-    <row r="314" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="314" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P314" s="20"/>
     </row>
-    <row r="315" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="315" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P315" s="20"/>
     </row>
-    <row r="316" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="316" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P316" s="20"/>
     </row>
-    <row r="317" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="317" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P317" s="20"/>
     </row>
-    <row r="318" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="318" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P318" s="20"/>
     </row>
-    <row r="319" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="319" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P319" s="20"/>
     </row>
-    <row r="320" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="320" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P320" s="20"/>
     </row>
-    <row r="321" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="321" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P321" s="20"/>
     </row>
-    <row r="322" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="322" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P322" s="20"/>
     </row>
-    <row r="323" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="323" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P323" s="20"/>
     </row>
-    <row r="324" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="324" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P324" s="20"/>
     </row>
-    <row r="325" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="325" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P325" s="20"/>
     </row>
-    <row r="326" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="326" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P326" s="20"/>
     </row>
-    <row r="327" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="327" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P327" s="20"/>
     </row>
-    <row r="328" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="328" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P328" s="20"/>
     </row>
-    <row r="329" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="329" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P329" s="20"/>
     </row>
-    <row r="330" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="330" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P330" s="20"/>
     </row>
-    <row r="331" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="331" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P331" s="20"/>
     </row>
-    <row r="332" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="332" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P332" s="20"/>
     </row>
-    <row r="333" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="333" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P333" s="20"/>
     </row>
-    <row r="334" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="334" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P334" s="20"/>
     </row>
-    <row r="335" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="335" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P335" s="20"/>
     </row>
-    <row r="336" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="336" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P336" s="20"/>
     </row>
-    <row r="337" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="337" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P337" s="20"/>
     </row>
-    <row r="338" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="338" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P338" s="20"/>
     </row>
-    <row r="339" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="339" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P339" s="20"/>
     </row>
-    <row r="340" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="340" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P340" s="20"/>
     </row>
-    <row r="341" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="341" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P341" s="20"/>
     </row>
-    <row r="342" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="342" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P342" s="20"/>
     </row>
-    <row r="343" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="343" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P343" s="20"/>
     </row>
-    <row r="344" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="344" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P344" s="20"/>
     </row>
-    <row r="345" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="345" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P345" s="20"/>
     </row>
-    <row r="346" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="346" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P346" s="20"/>
     </row>
-    <row r="347" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="347" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P347" s="20"/>
     </row>
-    <row r="348" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="348" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P348" s="20"/>
     </row>
-    <row r="349" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="349" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P349" s="20"/>
     </row>
-    <row r="350" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="350" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P350" s="20"/>
     </row>
-    <row r="351" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="351" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P351" s="20"/>
     </row>
-    <row r="352" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="352" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P352" s="20"/>
     </row>
-    <row r="353" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="353" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P353" s="20"/>
     </row>
-    <row r="354" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="354" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P354" s="20"/>
     </row>
-    <row r="355" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="355" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P355" s="20"/>
     </row>
-    <row r="356" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="356" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P356" s="20"/>
     </row>
-    <row r="357" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="357" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P357" s="20"/>
     </row>
-    <row r="358" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="358" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P358" s="20"/>
     </row>
-    <row r="359" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="359" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P359" s="20"/>
     </row>
-    <row r="360" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="360" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P360" s="20"/>
     </row>
-    <row r="361" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="361" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P361" s="20"/>
     </row>
-    <row r="362" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="362" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P362" s="20"/>
     </row>
-    <row r="363" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="363" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P363" s="20"/>
     </row>
-    <row r="364" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="364" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P364" s="20"/>
     </row>
-    <row r="365" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="365" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P365" s="20"/>
     </row>
-    <row r="366" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="366" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P366" s="20"/>
     </row>
-    <row r="367" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="367" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P367" s="20"/>
     </row>
-    <row r="368" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="368" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P368" s="20"/>
     </row>
-    <row r="369" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="369" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P369" s="20"/>
     </row>
-    <row r="370" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="370" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P370" s="20"/>
     </row>
-    <row r="371" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="371" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P371" s="20"/>
     </row>
-    <row r="372" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="372" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P372" s="20"/>
     </row>
-    <row r="373" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="373" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P373" s="20"/>
     </row>
-    <row r="374" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="374" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P374" s="20"/>
     </row>
-    <row r="375" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="375" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P375" s="20"/>
     </row>
-    <row r="376" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="376" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P376" s="20"/>
     </row>
-    <row r="377" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="377" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P377" s="20"/>
     </row>
-    <row r="378" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="378" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P378" s="20"/>
     </row>
-    <row r="379" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="379" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P379" s="20"/>
     </row>
-    <row r="380" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="380" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P380" s="20"/>
     </row>
-    <row r="381" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="381" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P381" s="20"/>
     </row>
-    <row r="382" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="382" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P382" s="20"/>
     </row>
-    <row r="383" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="383" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P383" s="20"/>
     </row>
-    <row r="384" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="384" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P384" s="20"/>
     </row>
-    <row r="385" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="385" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P385" s="20"/>
     </row>
-    <row r="386" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="386" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P386" s="20"/>
     </row>
-    <row r="387" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="387" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P387" s="20"/>
     </row>
-    <row r="388" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="388" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P388" s="20"/>
     </row>
-    <row r="389" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="389" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P389" s="20"/>
     </row>
-    <row r="390" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="390" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P390" s="20"/>
     </row>
-    <row r="391" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="391" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P391" s="20"/>
     </row>
-    <row r="392" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="392" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P392" s="20"/>
     </row>
-    <row r="393" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="393" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P393" s="20"/>
     </row>
-    <row r="394" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="394" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P394" s="20"/>
     </row>
-    <row r="395" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="395" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P395" s="20"/>
     </row>
-    <row r="396" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="396" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P396" s="20"/>
     </row>
-    <row r="397" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="397" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P397" s="20"/>
     </row>
-    <row r="398" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="398" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P398" s="20"/>
     </row>
-    <row r="399" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="399" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P399" s="20"/>
     </row>
-    <row r="400" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="400" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P400" s="20"/>
     </row>
   </sheetData>
@@ -5491,21 +5481,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
-    <col min="9" max="14" width="14.59765625" customWidth="1"/>
-    <col min="15" max="16" width="12.59765625" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" customWidth="1"/>
-    <col min="18" max="18" width="17.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="14" width="14.6328125" customWidth="1"/>
+    <col min="15" max="16" width="12.6328125" customWidth="1"/>
+    <col min="17" max="17" width="8.36328125" customWidth="1"/>
+    <col min="18" max="18" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>9</v>
@@ -5516,7 +5506,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29">
-        <v>45167</v>
+        <v>45176</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="15"/>
@@ -5531,31 +5521,31 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="31">
-        <v>293400</v>
+        <v>339300</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="33">
-        <v>280800</v>
+        <v>320800</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -5564,23 +5554,23 @@
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
       <c r="I6" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
       <c r="N6" s="35"/>
       <c r="O6" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P6" s="30"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
@@ -5603,22 +5593,22 @@
         <v>24</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>13</v>
@@ -5627,13 +5617,13 @@
         <v>14</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
@@ -5641,7 +5631,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>8.9700000000000006</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E8" s="7">
         <v>9.5399999999999991</v>
@@ -5653,7 +5643,7 @@
         <v>20000</v>
       </c>
       <c r="H8" s="7">
-        <v>10.612795109732462</v>
+        <v>10.623376384485727</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="17">
@@ -5671,40 +5661,40 @@
       <c r="N8" s="17"/>
       <c r="O8" s="6">
         <f>(D8*G8)/$D$4</f>
-        <v>0.63888888888888884</v>
+        <v>0.57356608478802995</v>
       </c>
       <c r="P8" s="6">
         <f>D8/E8-1</f>
-        <v>-5.9748427672955851E-2</v>
+        <v>-3.5639412997903519E-2</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="E9" s="7">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="9">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="H9" s="7">
-        <v>2.2220642604848284</v>
+        <v>2.1609728668155315</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="17">
@@ -5714,7 +5704,7 @@
         <v>7102</v>
       </c>
       <c r="L9" s="17">
-        <v>5.186803264578713</v>
+        <v>5.3394300150875385</v>
       </c>
       <c r="M9" s="17">
         <v>8842</v>
@@ -5722,20 +5712,20 @@
       <c r="N9" s="17"/>
       <c r="O9" s="6">
         <f>(D9*G9)/$D$4</f>
-        <v>0.3611111111111111</v>
+        <v>0.42643391521197005</v>
       </c>
       <c r="P9" s="6">
         <f>D9/E9-1</f>
-        <v>-1.1695906432748537E-2</v>
+        <v>-7.878787878787874E-2</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
@@ -5754,7 +5744,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
@@ -5773,7 +5763,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
@@ -5792,7 +5782,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
@@ -5811,7 +5801,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
@@ -5830,7 +5820,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -5849,7 +5839,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -5868,7 +5858,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -5887,7 +5877,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -5906,7 +5896,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -5925,7 +5915,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -5944,7 +5934,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -5963,7 +5953,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -5982,7 +5972,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r